--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="991">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3014,6 +3014,12 @@
   </si>
   <si>
     <t>Оттава - Нэшвилл</t>
+  </si>
+  <si>
+    <t>Сент Луис - Коламбус</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Сиэтл</t>
   </si>
 </sst>
 </file>
@@ -4646,7 +4652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4681,7 +4687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4892,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AN13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ48" sqref="AZ48:BD48"/>
+    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13888,17 +13894,20 @@
       </c>
       <c r="AX48" s="73"/>
       <c r="AY48" s="73"/>
-      <c r="AZ48" s="118">
+      <c r="AZ48" s="130">
         <v>46</v>
       </c>
-      <c r="BA48" s="118" t="s">
+      <c r="BA48" s="130" t="s">
         <v>988</v>
       </c>
-      <c r="BB48" s="118">
+      <c r="BB48" s="130">
         <v>-65</v>
       </c>
-      <c r="BC48" s="118"/>
-      <c r="BD48" s="118"/>
+      <c r="BC48" s="130">
+        <f>SUM(BB47:BB48)</f>
+        <v>-125</v>
+      </c>
+      <c r="BD48" s="130"/>
       <c r="BE48" s="73">
         <v>46</v>
       </c>
@@ -14500,13 +14509,17 @@
       <c r="N52" s="140"/>
       <c r="O52" s="140"/>
       <c r="P52" s="141"/>
-      <c r="Q52" s="152">
+      <c r="Q52" s="118">
         <v>50</v>
       </c>
-      <c r="R52" s="152"/>
-      <c r="S52" s="152"/>
-      <c r="T52" s="152"/>
-      <c r="U52" s="152"/>
+      <c r="R52" s="118" t="s">
+        <v>989</v>
+      </c>
+      <c r="S52" s="118">
+        <v>-65</v>
+      </c>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
       <c r="V52" s="153">
         <v>50</v>
       </c>
@@ -18486,7 +18499,7 @@
       <c r="R85" s="212"/>
       <c r="S85" s="212">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-5921</v>
+        <v>-5986</v>
       </c>
       <c r="T85" s="118">
         <f t="shared" si="2"/>
@@ -18581,7 +18594,7 @@
       </c>
       <c r="BC85" s="118">
         <f t="shared" si="9"/>
-        <v>570</v>
+        <v>445</v>
       </c>
       <c r="BD85" s="212"/>
       <c r="BE85" s="211" t="s">
@@ -18656,7 +18669,7 @@
       </c>
       <c r="I92" s="213">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>31946</v>
+        <v>31821</v>
       </c>
       <c r="J92" s="213"/>
     </row>
@@ -18689,8 +18702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AX55" sqref="AX55"/>
+    <sheetView tabSelected="1" topLeftCell="BF22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="BX53" sqref="BX53:CB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26655,9 +26668,7 @@
         <v>-90</v>
       </c>
       <c r="AW43" s="17"/>
-      <c r="AX43" s="17">
-        <v>-4.5</v>
-      </c>
+      <c r="AX43" s="17"/>
       <c r="AY43" s="17">
         <v>41</v>
       </c>
@@ -26841,10 +26852,7 @@
         <v>-112</v>
       </c>
       <c r="AW44" s="17"/>
-      <c r="AX44" s="17">
-        <f>AV52*AX43</f>
-        <v>4500</v>
-      </c>
+      <c r="AX44" s="17"/>
       <c r="AY44" s="17">
         <v>42</v>
       </c>
@@ -28139,13 +28147,17 @@
       </c>
       <c r="BB51" s="17"/>
       <c r="BC51" s="17"/>
-      <c r="BD51" s="87">
+      <c r="BD51" s="86">
         <v>49</v>
       </c>
-      <c r="BE51" s="87"/>
-      <c r="BF51" s="87"/>
-      <c r="BG51" s="87"/>
-      <c r="BH51" s="87"/>
+      <c r="BE51" s="86" t="s">
+        <v>989</v>
+      </c>
+      <c r="BF51" s="86">
+        <v>-60</v>
+      </c>
+      <c r="BG51" s="86"/>
+      <c r="BH51" s="86"/>
       <c r="BI51" s="16">
         <v>49</v>
       </c>
@@ -28268,27 +28280,30 @@
       <c r="AQ52" s="74"/>
       <c r="AR52" s="74"/>
       <c r="AS52" s="74"/>
-      <c r="AT52" s="86">
+      <c r="AT52" s="16">
         <v>50</v>
       </c>
-      <c r="AU52" s="86" t="s">
+      <c r="AU52" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="AV52" s="86">
+      <c r="AV52" s="16">
         <v>-1000</v>
       </c>
-      <c r="AW52" s="86"/>
-      <c r="AX52" s="86">
-        <f>AX44+SUM(AV40:AV52)</f>
+      <c r="AW52" s="16">
         <v>167</v>
       </c>
-      <c r="AY52" s="88">
+      <c r="AX52" s="16"/>
+      <c r="AY52" s="86">
         <v>50</v>
       </c>
-      <c r="AZ52" s="88"/>
-      <c r="BA52" s="88"/>
-      <c r="BB52" s="88"/>
-      <c r="BC52" s="88"/>
+      <c r="AZ52" s="86" t="s">
+        <v>990</v>
+      </c>
+      <c r="BA52" s="86">
+        <v>-65</v>
+      </c>
+      <c r="BB52" s="86"/>
+      <c r="BC52" s="86"/>
       <c r="BD52" s="87">
         <v>50</v>
       </c>
@@ -28453,13 +28468,17 @@
       <c r="BU53" s="99"/>
       <c r="BV53" s="99"/>
       <c r="BW53" s="99"/>
-      <c r="BX53" s="88">
+      <c r="BX53" s="86">
         <v>51</v>
       </c>
-      <c r="BY53" s="88"/>
-      <c r="BZ53" s="88"/>
-      <c r="CA53" s="88"/>
-      <c r="CB53" s="88"/>
+      <c r="BY53" s="86" t="s">
+        <v>990</v>
+      </c>
+      <c r="BZ53" s="86">
+        <v>-65</v>
+      </c>
+      <c r="CA53" s="86"/>
+      <c r="CB53" s="86"/>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -32433,7 +32452,7 @@
       </c>
       <c r="AW85" s="118">
         <f t="shared" si="8"/>
-        <v>1079</v>
+        <v>1246</v>
       </c>
       <c r="AX85" s="117"/>
       <c r="AY85" s="116" t="s">
@@ -32442,7 +32461,7 @@
       <c r="AZ85" s="117"/>
       <c r="BA85" s="117">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-19514</v>
+        <v>-19579</v>
       </c>
       <c r="BB85" s="118">
         <f t="shared" si="9"/>
@@ -32455,7 +32474,7 @@
       <c r="BE85" s="117"/>
       <c r="BF85" s="117">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-37954</v>
+        <v>-38014</v>
       </c>
       <c r="BG85" s="118">
         <f t="shared" si="10"/>
@@ -32507,7 +32526,7 @@
       <c r="BY85" s="117"/>
       <c r="BZ85" s="117">
         <f t="shared" ref="BZ85:CA85" si="14">SUM(BZ3:BZ84)</f>
-        <v>-5905</v>
+        <v>-5970</v>
       </c>
       <c r="CA85" s="118">
         <f t="shared" si="14"/>
@@ -32524,7 +32543,7 @@
       </c>
       <c r="H95" s="213">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>24593</v>
+        <v>24760</v>
       </c>
       <c r="I95" s="213"/>
     </row>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="991">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3026,11 +3026,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -4207,73 +4215,73 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4282,115 +4290,115 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4400,167 +4408,167 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4569,12 +4577,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -4898,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52:U52"/>
+    <sheetView topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ49" sqref="AZ49:BD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14084,13 +14093,17 @@
         <v>673</v>
       </c>
       <c r="AY49" s="130"/>
-      <c r="AZ49" s="190">
+      <c r="AZ49" s="118">
         <v>47</v>
       </c>
-      <c r="BA49" s="190"/>
-      <c r="BB49" s="190"/>
-      <c r="BC49" s="190"/>
-      <c r="BD49" s="190"/>
+      <c r="BA49" s="118" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB49" s="118">
+        <v>-60</v>
+      </c>
+      <c r="BC49" s="118"/>
+      <c r="BD49" s="118"/>
       <c r="BE49" s="73">
         <v>47</v>
       </c>
@@ -14509,24 +14522,28 @@
       <c r="N52" s="140"/>
       <c r="O52" s="140"/>
       <c r="P52" s="141"/>
-      <c r="Q52" s="118">
+      <c r="Q52" s="73">
         <v>50</v>
       </c>
-      <c r="R52" s="118" t="s">
+      <c r="R52" s="73" t="s">
         <v>989</v>
       </c>
-      <c r="S52" s="118">
+      <c r="S52" s="73">
         <v>-65</v>
       </c>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="153">
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="118">
         <v>50</v>
       </c>
-      <c r="W52" s="153"/>
-      <c r="X52" s="153"/>
-      <c r="Y52" s="153"/>
-      <c r="Z52" s="153"/>
+      <c r="W52" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="X52" s="118">
+        <v>-155</v>
+      </c>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="118"/>
       <c r="AA52" s="161">
         <v>50</v>
       </c>
@@ -18512,7 +18529,7 @@
       <c r="W85" s="212"/>
       <c r="X85" s="212">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-5069</v>
+        <v>-5224</v>
       </c>
       <c r="Y85" s="118">
         <f t="shared" si="3"/>
@@ -18590,7 +18607,7 @@
       <c r="BA85" s="212"/>
       <c r="BB85" s="212">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-14260</v>
+        <v>-14320</v>
       </c>
       <c r="BC85" s="118">
         <f t="shared" si="9"/>
@@ -18702,8 +18719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BX53" sqref="BX53:CB53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AY53" sqref="AY53:BC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27930,13 +27947,17 @@
       <c r="AG50" s="57"/>
       <c r="AH50" s="57"/>
       <c r="AI50" s="57"/>
-      <c r="AJ50" s="63">
+      <c r="AJ50" s="215">
         <v>48</v>
       </c>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="63"/>
+      <c r="AK50" s="215" t="s">
+        <v>875</v>
+      </c>
+      <c r="AL50" s="215">
+        <v>-60</v>
+      </c>
+      <c r="AM50" s="215"/>
+      <c r="AN50" s="215"/>
       <c r="AO50" s="17">
         <v>48</v>
       </c>
@@ -28147,17 +28168,17 @@
       </c>
       <c r="BB51" s="17"/>
       <c r="BC51" s="17"/>
-      <c r="BD51" s="86">
+      <c r="BD51" s="17">
         <v>49</v>
       </c>
-      <c r="BE51" s="86" t="s">
+      <c r="BE51" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="BF51" s="86">
-        <v>-60</v>
-      </c>
-      <c r="BG51" s="86"/>
-      <c r="BH51" s="86"/>
+      <c r="BF51" s="17">
+        <v>-60</v>
+      </c>
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
       <c r="BI51" s="16">
         <v>49</v>
       </c>
@@ -28205,15 +28226,17 @@
       <c r="CB51" s="16"/>
     </row>
     <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="86">
         <v>50</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="86" t="s">
         <v>893</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="C52" s="86">
+        <v>-65</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="19">
         <v>50</v>
       </c>
@@ -28293,17 +28316,17 @@
         <v>167</v>
       </c>
       <c r="AX52" s="16"/>
-      <c r="AY52" s="86">
+      <c r="AY52" s="17">
         <v>50</v>
       </c>
-      <c r="AZ52" s="86" t="s">
+      <c r="AZ52" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="BA52" s="86">
+      <c r="BA52" s="17">
         <v>-65</v>
       </c>
-      <c r="BB52" s="86"/>
-      <c r="BC52" s="86"/>
+      <c r="BB52" s="17"/>
+      <c r="BC52" s="17"/>
       <c r="BD52" s="87">
         <v>50</v>
       </c>
@@ -28422,20 +28445,28 @@
       <c r="AQ53" s="74"/>
       <c r="AR53" s="74"/>
       <c r="AS53" s="74"/>
-      <c r="AT53" s="57">
+      <c r="AT53" s="86">
         <v>51</v>
       </c>
-      <c r="AU53" s="57"/>
-      <c r="AV53" s="57"/>
-      <c r="AW53" s="57"/>
-      <c r="AX53" s="57"/>
-      <c r="AY53" s="88">
+      <c r="AU53" s="86" t="s">
+        <v>875</v>
+      </c>
+      <c r="AV53" s="86">
+        <v>-60</v>
+      </c>
+      <c r="AW53" s="86"/>
+      <c r="AX53" s="86"/>
+      <c r="AY53" s="86">
         <v>51</v>
       </c>
-      <c r="AZ53" s="88"/>
-      <c r="BA53" s="88"/>
-      <c r="BB53" s="88"/>
-      <c r="BC53" s="88"/>
+      <c r="AZ53" s="215" t="s">
+        <v>711</v>
+      </c>
+      <c r="BA53" s="86">
+        <v>-75</v>
+      </c>
+      <c r="BB53" s="86"/>
+      <c r="BC53" s="86"/>
       <c r="BD53" s="87">
         <v>51</v>
       </c>
@@ -28468,17 +28499,17 @@
       <c r="BU53" s="99"/>
       <c r="BV53" s="99"/>
       <c r="BW53" s="99"/>
-      <c r="BX53" s="86">
+      <c r="BX53" s="17">
         <v>51</v>
       </c>
-      <c r="BY53" s="86" t="s">
+      <c r="BY53" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="BZ53" s="86">
+      <c r="BZ53" s="17">
         <v>-65</v>
       </c>
-      <c r="CA53" s="86"/>
-      <c r="CB53" s="86"/>
+      <c r="CA53" s="17"/>
+      <c r="CB53" s="17"/>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -32331,7 +32362,7 @@
       <c r="B85" s="117"/>
       <c r="C85" s="117">
         <f>SUM(C3:C84)</f>
-        <v>-10646</v>
+        <v>-10711</v>
       </c>
       <c r="D85" s="118">
         <f>SUM(D3:D84)</f>
@@ -32422,7 +32453,7 @@
       <c r="AK85" s="117"/>
       <c r="AL85" s="117">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-4518</v>
+        <v>-4578</v>
       </c>
       <c r="AM85" s="118">
         <f t="shared" si="6"/>
@@ -32448,7 +32479,7 @@
       <c r="AU85" s="117"/>
       <c r="AV85" s="117">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-10905</v>
+        <v>-10965</v>
       </c>
       <c r="AW85" s="118">
         <f t="shared" si="8"/>
@@ -32461,7 +32492,7 @@
       <c r="AZ85" s="117"/>
       <c r="BA85" s="117">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-19579</v>
+        <v>-19654</v>
       </c>
       <c r="BB85" s="118">
         <f t="shared" si="9"/>
@@ -32568,7 +32599,7 @@
     <mergeCell ref="H95:I98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1032">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3020,25 +3015,140 @@
   </si>
   <si>
     <t>Сан Хосе - Сиэтл</t>
+  </si>
+  <si>
+    <t>Торонто - Айлендерс</t>
+  </si>
+  <si>
+    <t>Торонто - Даллас</t>
+  </si>
+  <si>
+    <t>Торонто - Сент Луис</t>
+  </si>
+  <si>
+    <t>Торонто - Филадельфия</t>
+  </si>
+  <si>
+    <t>Сент Луис - Торонто</t>
+  </si>
+  <si>
+    <t>Вегас - Торонто</t>
+  </si>
+  <si>
+    <t>Торонто - Вегас</t>
+  </si>
+  <si>
+    <t>Монреаль - Торонто</t>
+  </si>
+  <si>
+    <t>Филадельфия - Торонто</t>
+  </si>
+  <si>
+    <t>Торонто - Эдмонтон</t>
+  </si>
+  <si>
+    <t>Торонто - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Торонто - Вашингтон</t>
+  </si>
+  <si>
+    <t>Нью Джерси - Торонто</t>
+  </si>
+  <si>
+    <t>Айлендерс - Тампа</t>
+  </si>
+  <si>
+    <t>Айлендерс - Сиэтл</t>
+  </si>
+  <si>
+    <t>Айлендерс - Рейнджерс</t>
+  </si>
+  <si>
+    <t>Сент Луис - Айлендерс</t>
+  </si>
+  <si>
+    <t>Далллас - Айлендерс</t>
+  </si>
+  <si>
+    <t>Детройт - Айлендерс</t>
+  </si>
+  <si>
+    <t>Айлендерс - Сент Луис</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Айлендерс</t>
+  </si>
+  <si>
+    <t>Кингс - Айлендерс</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Айлендерс</t>
+  </si>
+  <si>
+    <t>Айлендерс - Виннипег</t>
+  </si>
+  <si>
+    <t>Тампа - Айлендерс</t>
+  </si>
+  <si>
+    <t>Филадельфия - Айлендерс</t>
+  </si>
+  <si>
+    <t>Айлендерс - Нэшвилл</t>
+  </si>
+  <si>
+    <t>Айлендерс - Монреаль</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Колорадо</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Тампа</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Монреаль</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Даллас</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Флорида</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Сент Луис</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Виннипег</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Филадельфия</t>
+  </si>
+  <si>
+    <t>Колорадо - Рейнджерс</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Питтсбург</t>
+  </si>
+  <si>
+    <t>Детройт - Рейнджерс</t>
+  </si>
+  <si>
+    <t>Рейнджерс - Оттава</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -4215,73 +4325,73 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4290,115 +4400,115 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4408,167 +4518,167 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4577,16 +4687,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -4661,7 +4771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4693,10 +4803,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4728,7 +4837,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4904,14 +5012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ49" sqref="AZ49:BD49"/>
+    <sheetView tabSelected="1" topLeftCell="AG19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU52" sqref="AU52:AY52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -4932,7 +5040,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1">
       <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
@@ -5110,7 +5218,7 @@
       <c r="CB1" s="206"/>
       <c r="CC1" s="206"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1">
       <c r="B2" s="125" t="s">
         <v>4</v>
       </c>
@@ -5256,7 +5364,7 @@
       <c r="CB2" s="206"/>
       <c r="CC2" s="206"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:81" ht="15.75">
       <c r="B3" s="127">
         <v>1</v>
       </c>
@@ -5440,7 +5548,7 @@
       <c r="CB3" s="127"/>
       <c r="CC3" s="127"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="15.75">
       <c r="B4" s="73">
         <v>2</v>
       </c>
@@ -5627,7 +5735,7 @@
       </c>
       <c r="CC4" s="130"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:81" ht="15.75">
       <c r="B5" s="73">
         <v>3</v>
       </c>
@@ -5811,7 +5919,7 @@
       <c r="CB5" s="73"/>
       <c r="CC5" s="73"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:81" ht="15.75">
       <c r="B6" s="73">
         <v>4</v>
       </c>
@@ -6001,7 +6109,7 @@
       </c>
       <c r="CC6" s="130"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81" ht="15.75">
       <c r="B7" s="73">
         <v>5</v>
       </c>
@@ -6190,7 +6298,7 @@
       <c r="CB7" s="73"/>
       <c r="CC7" s="73"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:81" ht="15.75">
       <c r="B8" s="73">
         <v>6</v>
       </c>
@@ -6377,7 +6485,7 @@
       <c r="CB8" s="73"/>
       <c r="CC8" s="73"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:81" ht="15.75">
       <c r="B9" s="130">
         <v>7</v>
       </c>
@@ -6570,7 +6678,7 @@
       </c>
       <c r="CC9" s="130"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81" ht="15.75">
       <c r="B10" s="73">
         <v>8</v>
       </c>
@@ -6766,7 +6874,7 @@
       <c r="CB10" s="73"/>
       <c r="CC10" s="73"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:81" ht="15.75">
       <c r="B11" s="130">
         <v>9</v>
       </c>
@@ -6959,7 +7067,7 @@
       <c r="CB11" s="73"/>
       <c r="CC11" s="73"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:81" ht="15.75">
       <c r="B12" s="130">
         <v>10</v>
       </c>
@@ -7149,7 +7257,7 @@
       <c r="CB12" s="73"/>
       <c r="CC12" s="73"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:81" ht="15.75">
       <c r="B13" s="73">
         <v>11</v>
       </c>
@@ -7336,7 +7444,7 @@
       </c>
       <c r="CC13" s="129"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:81" ht="15.75">
       <c r="B14" s="73">
         <v>12</v>
       </c>
@@ -7532,7 +7640,7 @@
       <c r="CB14" s="73"/>
       <c r="CC14" s="73"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81" ht="15.75">
       <c r="B15" s="73">
         <v>13</v>
       </c>
@@ -7719,7 +7827,7 @@
       <c r="CB15" s="73"/>
       <c r="CC15" s="73"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:81" ht="15.75">
       <c r="B16" s="130">
         <v>14</v>
       </c>
@@ -7915,7 +8023,7 @@
       <c r="CB16" s="73"/>
       <c r="CC16" s="73"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:81" ht="15.75">
       <c r="B17" s="73">
         <v>15</v>
       </c>
@@ -8102,7 +8210,7 @@
       <c r="CB17" s="73"/>
       <c r="CC17" s="73"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:81" ht="15.75">
       <c r="B18" s="73">
         <v>16</v>
       </c>
@@ -8288,7 +8396,7 @@
       </c>
       <c r="CC18" s="129"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:81" ht="15.75">
       <c r="B19" s="130">
         <v>17</v>
       </c>
@@ -8478,7 +8586,7 @@
       <c r="CB19" s="73"/>
       <c r="CC19" s="73"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:81" ht="15.75">
       <c r="B20" s="73">
         <v>18</v>
       </c>
@@ -8659,7 +8767,7 @@
       <c r="CB20" s="73"/>
       <c r="CC20" s="73"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:81" ht="15.75">
       <c r="B21" s="73">
         <v>19</v>
       </c>
@@ -8843,7 +8951,7 @@
       <c r="CB21" s="73"/>
       <c r="CC21" s="73"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:81" ht="15.75">
       <c r="B22" s="73">
         <v>20</v>
       </c>
@@ -9029,7 +9137,7 @@
       <c r="CB22" s="73"/>
       <c r="CC22" s="73"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:81" ht="15.75">
       <c r="B23" s="73">
         <v>21</v>
       </c>
@@ -9219,7 +9327,7 @@
       <c r="CB23" s="73"/>
       <c r="CC23" s="73"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:81" ht="15.75">
       <c r="B24" s="73">
         <v>22</v>
       </c>
@@ -9408,7 +9516,7 @@
       <c r="CB24" s="73"/>
       <c r="CC24" s="73"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:81" ht="15.75">
       <c r="B25" s="130">
         <v>23</v>
       </c>
@@ -9601,7 +9709,7 @@
       </c>
       <c r="CC25" s="129"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:81" ht="15.75">
       <c r="B26" s="73">
         <v>24</v>
       </c>
@@ -9791,7 +9899,7 @@
       <c r="CB26" s="73"/>
       <c r="CC26" s="73"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:81" ht="15.75">
       <c r="B27" s="73">
         <v>25</v>
       </c>
@@ -9978,7 +10086,7 @@
       <c r="CB27" s="73"/>
       <c r="CC27" s="73"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:81" ht="15.75">
       <c r="B28" s="73">
         <v>26</v>
       </c>
@@ -10162,7 +10270,7 @@
       </c>
       <c r="CC28" s="130"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:81" ht="15.75">
       <c r="B29" s="130">
         <v>27</v>
       </c>
@@ -10358,7 +10466,7 @@
       <c r="CB29" s="73"/>
       <c r="CC29" s="73"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:81" ht="15.75">
       <c r="B30" s="130">
         <v>28</v>
       </c>
@@ -10551,7 +10659,7 @@
       </c>
       <c r="CC30" s="130"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:81" ht="15.75">
       <c r="B31" s="130">
         <v>29</v>
       </c>
@@ -10750,7 +10858,7 @@
       </c>
       <c r="CC31" s="130"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:81" ht="15.75">
       <c r="B32" s="130">
         <v>30</v>
       </c>
@@ -10939,7 +11047,7 @@
       </c>
       <c r="CC32" s="130"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:81" ht="15.75">
       <c r="B33" s="73">
         <v>31</v>
       </c>
@@ -11135,7 +11243,7 @@
       </c>
       <c r="CC33" s="130"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:81" ht="15.75">
       <c r="B34" s="73">
         <v>32</v>
       </c>
@@ -11323,7 +11431,7 @@
       <c r="CB34" s="73"/>
       <c r="CC34" s="73"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:81" ht="15.75">
       <c r="B35" s="73">
         <v>33</v>
       </c>
@@ -11516,7 +11624,7 @@
       <c r="CB35" s="73"/>
       <c r="CC35" s="73"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:81" ht="15.75">
       <c r="B36" s="73">
         <v>34</v>
       </c>
@@ -11700,7 +11808,7 @@
       </c>
       <c r="CC36" s="130"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:81" ht="15.75">
       <c r="B37" s="73">
         <v>35</v>
       </c>
@@ -11887,7 +11995,7 @@
       <c r="CB37" s="73"/>
       <c r="CC37" s="73"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:81" ht="15.75">
       <c r="B38" s="73">
         <v>36</v>
       </c>
@@ -12074,7 +12182,7 @@
       <c r="CB38" s="73"/>
       <c r="CC38" s="73"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:81" ht="15.75">
       <c r="B39" s="73">
         <v>37</v>
       </c>
@@ -12261,7 +12369,7 @@
       <c r="CB39" s="73"/>
       <c r="CC39" s="73"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:81" ht="15.75">
       <c r="B40" s="73">
         <v>38</v>
       </c>
@@ -12448,7 +12556,7 @@
       <c r="CB40" s="73"/>
       <c r="CC40" s="73"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:81" ht="15.75">
       <c r="B41" s="130">
         <v>39</v>
       </c>
@@ -12641,7 +12749,7 @@
       <c r="CB41" s="73"/>
       <c r="CC41" s="73"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:81" ht="15.75">
       <c r="B42" s="130">
         <v>40</v>
       </c>
@@ -12834,7 +12942,7 @@
       <c r="CB42" s="73"/>
       <c r="CC42" s="73"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:81" ht="15.75">
       <c r="B43" s="130">
         <v>41</v>
       </c>
@@ -13037,7 +13145,7 @@
       <c r="CB43" s="73"/>
       <c r="CC43" s="73"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:81" ht="15.75">
       <c r="B44" s="130">
         <v>42</v>
       </c>
@@ -13229,7 +13337,7 @@
       <c r="CB44" s="73"/>
       <c r="CC44" s="73"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:81" ht="15.75">
       <c r="B45" s="73">
         <v>43</v>
       </c>
@@ -13412,7 +13520,7 @@
       <c r="CB45" s="73"/>
       <c r="CC45" s="73"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:81" ht="15.75">
       <c r="B46" s="73">
         <v>44</v>
       </c>
@@ -13602,7 +13710,7 @@
       <c r="CB46" s="73"/>
       <c r="CC46" s="73"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:81" ht="15.75">
       <c r="B47" s="73">
         <v>45</v>
       </c>
@@ -13789,7 +13897,7 @@
       <c r="CB47" s="73"/>
       <c r="CC47" s="73"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:81" ht="15.75">
       <c r="B48" s="73">
         <v>46</v>
       </c>
@@ -13979,7 +14087,7 @@
       <c r="CB48" s="73"/>
       <c r="CC48" s="73"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:81" ht="15.75">
       <c r="B49" s="73">
         <v>47</v>
       </c>
@@ -14093,17 +14201,20 @@
         <v>673</v>
       </c>
       <c r="AY49" s="130"/>
-      <c r="AZ49" s="118">
+      <c r="AZ49" s="130">
         <v>47</v>
       </c>
-      <c r="BA49" s="118" t="s">
+      <c r="BA49" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="BB49" s="118">
-        <v>-60</v>
-      </c>
-      <c r="BC49" s="118"/>
-      <c r="BD49" s="118"/>
+      <c r="BB49" s="130">
+        <v>-60</v>
+      </c>
+      <c r="BC49" s="130">
+        <f>216</f>
+        <v>216</v>
+      </c>
+      <c r="BD49" s="130"/>
       <c r="BE49" s="73">
         <v>47</v>
       </c>
@@ -14159,7 +14270,7 @@
       </c>
       <c r="CC49" s="130"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:81" ht="15.75">
       <c r="B50" s="130">
         <v>48</v>
       </c>
@@ -14311,13 +14422,17 @@
       </c>
       <c r="BR50" s="73"/>
       <c r="BS50" s="73"/>
-      <c r="BT50" s="204">
+      <c r="BT50" s="118">
         <v>48</v>
       </c>
-      <c r="BU50" s="204"/>
-      <c r="BV50" s="204"/>
-      <c r="BW50" s="204"/>
-      <c r="BX50" s="204"/>
+      <c r="BU50" s="118" t="s">
+        <v>991</v>
+      </c>
+      <c r="BV50" s="118">
+        <v>-65</v>
+      </c>
+      <c r="BW50" s="118"/>
+      <c r="BX50" s="118"/>
       <c r="BY50" s="209">
         <v>48</v>
       </c>
@@ -14326,7 +14441,7 @@
       <c r="CB50" s="209"/>
       <c r="CC50" s="209"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:81" ht="15.75">
       <c r="B51" s="73">
         <v>49</v>
       </c>
@@ -14482,7 +14597,9 @@
       <c r="BT51" s="204">
         <v>49</v>
       </c>
-      <c r="BU51" s="204"/>
+      <c r="BU51" s="204" t="s">
+        <v>992</v>
+      </c>
       <c r="BV51" s="204"/>
       <c r="BW51" s="204"/>
       <c r="BX51" s="204"/>
@@ -14494,7 +14611,7 @@
       <c r="CB51" s="209"/>
       <c r="CC51" s="209"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:81" ht="15.75">
       <c r="B52" s="132">
         <v>50</v>
       </c>
@@ -14533,17 +14650,20 @@
       </c>
       <c r="T52" s="73"/>
       <c r="U52" s="73"/>
-      <c r="V52" s="118">
+      <c r="V52" s="130">
         <v>50</v>
       </c>
-      <c r="W52" s="118" t="s">
+      <c r="W52" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="X52" s="118">
+      <c r="X52" s="130">
         <v>-155</v>
       </c>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
+      <c r="Y52" s="130">
+        <f>713+SUM(X47:X52)</f>
+        <v>156</v>
+      </c>
+      <c r="Z52" s="130"/>
       <c r="AA52" s="161">
         <v>50</v>
       </c>
@@ -14565,20 +14685,28 @@
       <c r="AM52" s="153"/>
       <c r="AN52" s="153"/>
       <c r="AO52" s="153"/>
-      <c r="AP52" s="181">
+      <c r="AP52" s="118">
         <v>50</v>
       </c>
-      <c r="AQ52" s="181"/>
-      <c r="AR52" s="181"/>
-      <c r="AS52" s="181"/>
-      <c r="AT52" s="181"/>
-      <c r="AU52" s="182">
+      <c r="AQ52" s="118" t="s">
+        <v>991</v>
+      </c>
+      <c r="AR52" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AS52" s="118"/>
+      <c r="AT52" s="118"/>
+      <c r="AU52" s="118">
         <v>50</v>
       </c>
-      <c r="AV52" s="182"/>
-      <c r="AW52" s="182"/>
-      <c r="AX52" s="182"/>
-      <c r="AY52" s="182"/>
+      <c r="AV52" s="118" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AW52" s="118">
+        <v>-75</v>
+      </c>
+      <c r="AX52" s="118"/>
+      <c r="AY52" s="118"/>
       <c r="AZ52" s="190">
         <v>50</v>
       </c>
@@ -14618,7 +14746,9 @@
       <c r="BT52" s="204">
         <v>50</v>
       </c>
-      <c r="BU52" s="204"/>
+      <c r="BU52" s="204" t="s">
+        <v>263</v>
+      </c>
       <c r="BV52" s="204"/>
       <c r="BW52" s="204"/>
       <c r="BX52" s="204"/>
@@ -14630,7 +14760,7 @@
       <c r="CB52" s="209"/>
       <c r="CC52" s="209"/>
     </row>
-    <row r="53" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:81">
       <c r="B53" s="132">
         <v>51</v>
       </c>
@@ -14696,14 +14826,18 @@
       <c r="AP53" s="181">
         <v>51</v>
       </c>
-      <c r="AQ53" s="181"/>
+      <c r="AQ53" s="181" t="s">
+        <v>1004</v>
+      </c>
       <c r="AR53" s="181"/>
       <c r="AS53" s="181"/>
       <c r="AT53" s="181"/>
       <c r="AU53" s="182">
         <v>51</v>
       </c>
-      <c r="AV53" s="182"/>
+      <c r="AV53" s="182" t="s">
+        <v>1020</v>
+      </c>
       <c r="AW53" s="182"/>
       <c r="AX53" s="182"/>
       <c r="AY53" s="182"/>
@@ -14738,7 +14872,9 @@
       <c r="BT53" s="204">
         <v>51</v>
       </c>
-      <c r="BU53" s="204"/>
+      <c r="BU53" s="204" t="s">
+        <v>993</v>
+      </c>
       <c r="BV53" s="204"/>
       <c r="BW53" s="204"/>
       <c r="BX53" s="204"/>
@@ -14750,7 +14886,7 @@
       <c r="CB53" s="209"/>
       <c r="CC53" s="209"/>
     </row>
-    <row r="54" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:81">
       <c r="B54" s="132">
         <v>52</v>
       </c>
@@ -14816,14 +14952,18 @@
       <c r="AP54" s="181">
         <v>52</v>
       </c>
-      <c r="AQ54" s="181"/>
+      <c r="AQ54" s="181" t="s">
+        <v>902</v>
+      </c>
       <c r="AR54" s="181"/>
       <c r="AS54" s="181"/>
       <c r="AT54" s="181"/>
       <c r="AU54" s="182">
         <v>52</v>
       </c>
-      <c r="AV54" s="182"/>
+      <c r="AV54" s="182" t="s">
+        <v>903</v>
+      </c>
       <c r="AW54" s="182"/>
       <c r="AX54" s="182"/>
       <c r="AY54" s="182"/>
@@ -14858,7 +14998,9 @@
       <c r="BT54" s="204">
         <v>52</v>
       </c>
-      <c r="BU54" s="204"/>
+      <c r="BU54" s="204" t="s">
+        <v>994</v>
+      </c>
       <c r="BV54" s="204"/>
       <c r="BW54" s="204"/>
       <c r="BX54" s="204"/>
@@ -14870,7 +15012,7 @@
       <c r="CB54" s="209"/>
       <c r="CC54" s="209"/>
     </row>
-    <row r="55" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:81">
       <c r="B55" s="132">
         <v>53</v>
       </c>
@@ -14936,14 +15078,18 @@
       <c r="AP55" s="181">
         <v>53</v>
       </c>
-      <c r="AQ55" s="181"/>
+      <c r="AQ55" s="181" t="s">
+        <v>1005</v>
+      </c>
       <c r="AR55" s="181"/>
       <c r="AS55" s="181"/>
       <c r="AT55" s="181"/>
       <c r="AU55" s="182">
         <v>53</v>
       </c>
-      <c r="AV55" s="182"/>
+      <c r="AV55" s="182" t="s">
+        <v>906</v>
+      </c>
       <c r="AW55" s="182"/>
       <c r="AX55" s="182"/>
       <c r="AY55" s="182"/>
@@ -14978,7 +15124,9 @@
       <c r="BT55" s="204">
         <v>53</v>
       </c>
-      <c r="BU55" s="204"/>
+      <c r="BU55" s="204" t="s">
+        <v>908</v>
+      </c>
       <c r="BV55" s="204"/>
       <c r="BW55" s="204"/>
       <c r="BX55" s="204"/>
@@ -14990,7 +15138,7 @@
       <c r="CB55" s="209"/>
       <c r="CC55" s="209"/>
     </row>
-    <row r="56" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:81">
       <c r="B56" s="132">
         <v>54</v>
       </c>
@@ -15056,14 +15204,18 @@
       <c r="AP56" s="181">
         <v>54</v>
       </c>
-      <c r="AQ56" s="181"/>
+      <c r="AQ56" s="181" t="s">
+        <v>1006</v>
+      </c>
       <c r="AR56" s="181"/>
       <c r="AS56" s="181"/>
       <c r="AT56" s="181"/>
       <c r="AU56" s="182">
         <v>54</v>
       </c>
-      <c r="AV56" s="182"/>
+      <c r="AV56" s="182" t="s">
+        <v>1021</v>
+      </c>
       <c r="AW56" s="182"/>
       <c r="AX56" s="182"/>
       <c r="AY56" s="182"/>
@@ -15098,7 +15250,9 @@
       <c r="BT56" s="204">
         <v>54</v>
       </c>
-      <c r="BU56" s="204"/>
+      <c r="BU56" s="204" t="s">
+        <v>995</v>
+      </c>
       <c r="BV56" s="204"/>
       <c r="BW56" s="204"/>
       <c r="BX56" s="204"/>
@@ -15110,7 +15264,7 @@
       <c r="CB56" s="209"/>
       <c r="CC56" s="209"/>
     </row>
-    <row r="57" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:81">
       <c r="B57" s="132">
         <v>55</v>
       </c>
@@ -15176,14 +15330,18 @@
       <c r="AP57" s="181">
         <v>55</v>
       </c>
-      <c r="AQ57" s="181"/>
+      <c r="AQ57" s="181" t="s">
+        <v>421</v>
+      </c>
       <c r="AR57" s="181"/>
       <c r="AS57" s="181"/>
       <c r="AT57" s="181"/>
       <c r="AU57" s="182">
         <v>55</v>
       </c>
-      <c r="AV57" s="182"/>
+      <c r="AV57" s="182" t="s">
+        <v>1006</v>
+      </c>
       <c r="AW57" s="182"/>
       <c r="AX57" s="182"/>
       <c r="AY57" s="182"/>
@@ -15218,7 +15376,9 @@
       <c r="BT57" s="204">
         <v>55</v>
       </c>
-      <c r="BU57" s="204"/>
+      <c r="BU57" s="204" t="s">
+        <v>916</v>
+      </c>
       <c r="BV57" s="204"/>
       <c r="BW57" s="204"/>
       <c r="BX57" s="204"/>
@@ -15230,7 +15390,7 @@
       <c r="CB57" s="209"/>
       <c r="CC57" s="209"/>
     </row>
-    <row r="58" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:81">
       <c r="B58" s="132">
         <v>56</v>
       </c>
@@ -15296,14 +15456,18 @@
       <c r="AP58" s="181">
         <v>56</v>
       </c>
-      <c r="AQ58" s="181"/>
+      <c r="AQ58" s="181" t="s">
+        <v>1007</v>
+      </c>
       <c r="AR58" s="181"/>
       <c r="AS58" s="181"/>
       <c r="AT58" s="181"/>
       <c r="AU58" s="182">
         <v>56</v>
       </c>
-      <c r="AV58" s="182"/>
+      <c r="AV58" s="182" t="s">
+        <v>1022</v>
+      </c>
       <c r="AW58" s="182"/>
       <c r="AX58" s="182"/>
       <c r="AY58" s="182"/>
@@ -15338,7 +15502,9 @@
       <c r="BT58" s="204">
         <v>56</v>
       </c>
-      <c r="BU58" s="204"/>
+      <c r="BU58" s="204" t="s">
+        <v>996</v>
+      </c>
       <c r="BV58" s="204"/>
       <c r="BW58" s="204"/>
       <c r="BX58" s="204"/>
@@ -15350,7 +15516,7 @@
       <c r="CB58" s="209"/>
       <c r="CC58" s="209"/>
     </row>
-    <row r="59" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:81">
       <c r="B59" s="132">
         <v>57</v>
       </c>
@@ -15416,14 +15582,18 @@
       <c r="AP59" s="181">
         <v>57</v>
       </c>
-      <c r="AQ59" s="181"/>
+      <c r="AQ59" s="181" t="s">
+        <v>1004</v>
+      </c>
       <c r="AR59" s="181"/>
       <c r="AS59" s="181"/>
       <c r="AT59" s="181"/>
       <c r="AU59" s="182">
         <v>57</v>
       </c>
-      <c r="AV59" s="182"/>
+      <c r="AV59" s="182" t="s">
+        <v>196</v>
+      </c>
       <c r="AW59" s="182"/>
       <c r="AX59" s="182"/>
       <c r="AY59" s="182"/>
@@ -15458,7 +15628,9 @@
       <c r="BT59" s="204">
         <v>57</v>
       </c>
-      <c r="BU59" s="204"/>
+      <c r="BU59" s="204" t="s">
+        <v>922</v>
+      </c>
       <c r="BV59" s="204"/>
       <c r="BW59" s="204"/>
       <c r="BX59" s="204"/>
@@ -15470,7 +15642,7 @@
       <c r="CB59" s="209"/>
       <c r="CC59" s="209"/>
     </row>
-    <row r="60" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:81">
       <c r="B60" s="132">
         <v>58</v>
       </c>
@@ -15536,14 +15708,18 @@
       <c r="AP60" s="181">
         <v>58</v>
       </c>
-      <c r="AQ60" s="181"/>
+      <c r="AQ60" s="181" t="s">
+        <v>1008</v>
+      </c>
       <c r="AR60" s="181"/>
       <c r="AS60" s="181"/>
       <c r="AT60" s="181"/>
       <c r="AU60" s="182">
         <v>58</v>
       </c>
-      <c r="AV60" s="182"/>
+      <c r="AV60" s="182" t="s">
+        <v>232</v>
+      </c>
       <c r="AW60" s="182"/>
       <c r="AX60" s="182"/>
       <c r="AY60" s="182"/>
@@ -15578,7 +15754,9 @@
       <c r="BT60" s="204">
         <v>58</v>
       </c>
-      <c r="BU60" s="204"/>
+      <c r="BU60" s="204" t="s">
+        <v>997</v>
+      </c>
       <c r="BV60" s="204"/>
       <c r="BW60" s="204"/>
       <c r="BX60" s="204"/>
@@ -15590,7 +15768,7 @@
       <c r="CB60" s="209"/>
       <c r="CC60" s="209"/>
     </row>
-    <row r="61" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:81">
       <c r="B61" s="132">
         <v>59</v>
       </c>
@@ -15656,14 +15834,18 @@
       <c r="AP61" s="181">
         <v>59</v>
       </c>
-      <c r="AQ61" s="181"/>
+      <c r="AQ61" s="181" t="s">
+        <v>1009</v>
+      </c>
       <c r="AR61" s="181"/>
       <c r="AS61" s="181"/>
       <c r="AT61" s="181"/>
       <c r="AU61" s="182">
         <v>59</v>
       </c>
-      <c r="AV61" s="182"/>
+      <c r="AV61" s="182" t="s">
+        <v>35</v>
+      </c>
       <c r="AW61" s="182"/>
       <c r="AX61" s="182"/>
       <c r="AY61" s="182"/>
@@ -15698,7 +15880,9 @@
       <c r="BT61" s="204">
         <v>59</v>
       </c>
-      <c r="BU61" s="204"/>
+      <c r="BU61" s="204" t="s">
+        <v>923</v>
+      </c>
       <c r="BV61" s="204"/>
       <c r="BW61" s="204"/>
       <c r="BX61" s="204"/>
@@ -15710,7 +15894,7 @@
       <c r="CB61" s="209"/>
       <c r="CC61" s="209"/>
     </row>
-    <row r="62" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:81">
       <c r="B62" s="132">
         <v>60</v>
       </c>
@@ -15776,14 +15960,18 @@
       <c r="AP62" s="181">
         <v>60</v>
       </c>
-      <c r="AQ62" s="181"/>
+      <c r="AQ62" s="181" t="s">
+        <v>341</v>
+      </c>
       <c r="AR62" s="181"/>
       <c r="AS62" s="181"/>
       <c r="AT62" s="181"/>
       <c r="AU62" s="182">
         <v>60</v>
       </c>
-      <c r="AV62" s="182"/>
+      <c r="AV62" s="182" t="s">
+        <v>184</v>
+      </c>
       <c r="AW62" s="182"/>
       <c r="AX62" s="182"/>
       <c r="AY62" s="182"/>
@@ -15818,7 +16006,9 @@
       <c r="BT62" s="204">
         <v>60</v>
       </c>
-      <c r="BU62" s="204"/>
+      <c r="BU62" s="204" t="s">
+        <v>362</v>
+      </c>
       <c r="BV62" s="204"/>
       <c r="BW62" s="204"/>
       <c r="BX62" s="204"/>
@@ -15830,7 +16020,7 @@
       <c r="CB62" s="209"/>
       <c r="CC62" s="209"/>
     </row>
-    <row r="63" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:81">
       <c r="B63" s="132">
         <v>61</v>
       </c>
@@ -15896,14 +16086,18 @@
       <c r="AP63" s="181">
         <v>61</v>
       </c>
-      <c r="AQ63" s="181"/>
+      <c r="AQ63" s="181" t="s">
+        <v>1010</v>
+      </c>
       <c r="AR63" s="181"/>
       <c r="AS63" s="181"/>
       <c r="AT63" s="181"/>
       <c r="AU63" s="182">
         <v>61</v>
       </c>
-      <c r="AV63" s="182"/>
+      <c r="AV63" s="182" t="s">
+        <v>362</v>
+      </c>
       <c r="AW63" s="182"/>
       <c r="AX63" s="182"/>
       <c r="AY63" s="182"/>
@@ -15938,7 +16132,9 @@
       <c r="BT63" s="204">
         <v>61</v>
       </c>
-      <c r="BU63" s="204"/>
+      <c r="BU63" s="204" t="s">
+        <v>279</v>
+      </c>
       <c r="BV63" s="204"/>
       <c r="BW63" s="204"/>
       <c r="BX63" s="204"/>
@@ -15950,7 +16146,7 @@
       <c r="CB63" s="209"/>
       <c r="CC63" s="209"/>
     </row>
-    <row r="64" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:81">
       <c r="B64" s="132">
         <v>62</v>
       </c>
@@ -16016,14 +16212,18 @@
       <c r="AP64" s="181">
         <v>62</v>
       </c>
-      <c r="AQ64" s="181"/>
+      <c r="AQ64" s="181" t="s">
+        <v>1011</v>
+      </c>
       <c r="AR64" s="181"/>
       <c r="AS64" s="181"/>
       <c r="AT64" s="181"/>
       <c r="AU64" s="182">
         <v>62</v>
       </c>
-      <c r="AV64" s="182"/>
+      <c r="AV64" s="182" t="s">
+        <v>1023</v>
+      </c>
       <c r="AW64" s="182"/>
       <c r="AX64" s="182"/>
       <c r="AY64" s="182"/>
@@ -16058,7 +16258,9 @@
       <c r="BT64" s="204">
         <v>62</v>
       </c>
-      <c r="BU64" s="204"/>
+      <c r="BU64" s="204" t="s">
+        <v>159</v>
+      </c>
       <c r="BV64" s="204"/>
       <c r="BW64" s="204"/>
       <c r="BX64" s="204"/>
@@ -16070,7 +16272,7 @@
       <c r="CB64" s="209"/>
       <c r="CC64" s="209"/>
     </row>
-    <row r="65" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:81">
       <c r="B65" s="132">
         <v>63</v>
       </c>
@@ -16136,14 +16338,18 @@
       <c r="AP65" s="181">
         <v>63</v>
       </c>
-      <c r="AQ65" s="181"/>
+      <c r="AQ65" s="181" t="s">
+        <v>936</v>
+      </c>
       <c r="AR65" s="181"/>
       <c r="AS65" s="181"/>
       <c r="AT65" s="181"/>
       <c r="AU65" s="182">
         <v>63</v>
       </c>
-      <c r="AV65" s="182"/>
+      <c r="AV65" s="182" t="s">
+        <v>1024</v>
+      </c>
       <c r="AW65" s="182"/>
       <c r="AX65" s="182"/>
       <c r="AY65" s="182"/>
@@ -16178,7 +16384,9 @@
       <c r="BT65" s="204">
         <v>63</v>
       </c>
-      <c r="BU65" s="204"/>
+      <c r="BU65" s="204" t="s">
+        <v>136</v>
+      </c>
       <c r="BV65" s="204"/>
       <c r="BW65" s="204"/>
       <c r="BX65" s="204"/>
@@ -16190,7 +16398,7 @@
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
     </row>
-    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:81">
       <c r="B66" s="132">
         <v>64</v>
       </c>
@@ -16256,14 +16464,18 @@
       <c r="AP66" s="181">
         <v>64</v>
       </c>
-      <c r="AQ66" s="181"/>
+      <c r="AQ66" s="181" t="s">
+        <v>1012</v>
+      </c>
       <c r="AR66" s="181"/>
       <c r="AS66" s="181"/>
       <c r="AT66" s="181"/>
       <c r="AU66" s="182">
         <v>64</v>
       </c>
-      <c r="AV66" s="182"/>
+      <c r="AV66" s="182" t="s">
+        <v>1025</v>
+      </c>
       <c r="AW66" s="182"/>
       <c r="AX66" s="182"/>
       <c r="AY66" s="182"/>
@@ -16298,7 +16510,9 @@
       <c r="BT66" s="204">
         <v>64</v>
       </c>
-      <c r="BU66" s="204"/>
+      <c r="BU66" s="204" t="s">
+        <v>998</v>
+      </c>
       <c r="BV66" s="204"/>
       <c r="BW66" s="204"/>
       <c r="BX66" s="204"/>
@@ -16310,7 +16524,7 @@
       <c r="CB66" s="209"/>
       <c r="CC66" s="209"/>
     </row>
-    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:81">
       <c r="B67" s="132">
         <v>65</v>
       </c>
@@ -16376,14 +16590,18 @@
       <c r="AP67" s="181">
         <v>65</v>
       </c>
-      <c r="AQ67" s="181"/>
+      <c r="AQ67" s="181" t="s">
+        <v>65</v>
+      </c>
       <c r="AR67" s="181"/>
       <c r="AS67" s="181"/>
       <c r="AT67" s="181"/>
       <c r="AU67" s="182">
         <v>65</v>
       </c>
-      <c r="AV67" s="182"/>
+      <c r="AV67" s="182" t="s">
+        <v>590</v>
+      </c>
       <c r="AW67" s="182"/>
       <c r="AX67" s="182"/>
       <c r="AY67" s="182"/>
@@ -16418,7 +16636,9 @@
       <c r="BT67" s="204">
         <v>65</v>
       </c>
-      <c r="BU67" s="204"/>
+      <c r="BU67" s="204" t="s">
+        <v>999</v>
+      </c>
       <c r="BV67" s="204"/>
       <c r="BW67" s="204"/>
       <c r="BX67" s="204"/>
@@ -16430,7 +16650,7 @@
       <c r="CB67" s="209"/>
       <c r="CC67" s="209"/>
     </row>
-    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:81">
       <c r="B68" s="132">
         <v>66</v>
       </c>
@@ -16496,14 +16716,18 @@
       <c r="AP68" s="181">
         <v>66</v>
       </c>
-      <c r="AQ68" s="181"/>
+      <c r="AQ68" s="181" t="s">
+        <v>91</v>
+      </c>
       <c r="AR68" s="181"/>
       <c r="AS68" s="181"/>
       <c r="AT68" s="181"/>
       <c r="AU68" s="182">
         <v>66</v>
       </c>
-      <c r="AV68" s="182"/>
+      <c r="AV68" s="182" t="s">
+        <v>418</v>
+      </c>
       <c r="AW68" s="182"/>
       <c r="AX68" s="182"/>
       <c r="AY68" s="182"/>
@@ -16538,7 +16762,9 @@
       <c r="BT68" s="204">
         <v>66</v>
       </c>
-      <c r="BU68" s="204"/>
+      <c r="BU68" s="204" t="s">
+        <v>413</v>
+      </c>
       <c r="BV68" s="204"/>
       <c r="BW68" s="204"/>
       <c r="BX68" s="204"/>
@@ -16550,7 +16776,7 @@
       <c r="CB68" s="209"/>
       <c r="CC68" s="209"/>
     </row>
-    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:81">
       <c r="B69" s="132">
         <v>67</v>
       </c>
@@ -16616,14 +16842,18 @@
       <c r="AP69" s="181">
         <v>67</v>
       </c>
-      <c r="AQ69" s="181"/>
+      <c r="AQ69" s="181" t="s">
+        <v>1013</v>
+      </c>
       <c r="AR69" s="181"/>
       <c r="AS69" s="181"/>
       <c r="AT69" s="181"/>
       <c r="AU69" s="182">
         <v>67</v>
       </c>
-      <c r="AV69" s="182"/>
+      <c r="AV69" s="182" t="s">
+        <v>219</v>
+      </c>
       <c r="AW69" s="182"/>
       <c r="AX69" s="182"/>
       <c r="AY69" s="182"/>
@@ -16658,7 +16888,9 @@
       <c r="BT69" s="204">
         <v>67</v>
       </c>
-      <c r="BU69" s="204"/>
+      <c r="BU69" s="204" t="s">
+        <v>999</v>
+      </c>
       <c r="BV69" s="204"/>
       <c r="BW69" s="204"/>
       <c r="BX69" s="204"/>
@@ -16670,7 +16902,7 @@
       <c r="CB69" s="209"/>
       <c r="CC69" s="209"/>
     </row>
-    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:81">
       <c r="B70" s="132">
         <v>68</v>
       </c>
@@ -16736,14 +16968,18 @@
       <c r="AP70" s="181">
         <v>68</v>
       </c>
-      <c r="AQ70" s="181"/>
+      <c r="AQ70" s="181" t="s">
+        <v>143</v>
+      </c>
       <c r="AR70" s="181"/>
       <c r="AS70" s="181"/>
       <c r="AT70" s="181"/>
       <c r="AU70" s="182">
         <v>68</v>
       </c>
-      <c r="AV70" s="182"/>
+      <c r="AV70" s="182" t="s">
+        <v>1013</v>
+      </c>
       <c r="AW70" s="182"/>
       <c r="AX70" s="182"/>
       <c r="AY70" s="182"/>
@@ -16778,7 +17014,9 @@
       <c r="BT70" s="204">
         <v>68</v>
       </c>
-      <c r="BU70" s="204"/>
+      <c r="BU70" s="204" t="s">
+        <v>83</v>
+      </c>
       <c r="BV70" s="204"/>
       <c r="BW70" s="204"/>
       <c r="BX70" s="204"/>
@@ -16790,7 +17028,7 @@
       <c r="CB70" s="209"/>
       <c r="CC70" s="209"/>
     </row>
-    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:81">
       <c r="B71" s="132">
         <v>69</v>
       </c>
@@ -16856,14 +17094,18 @@
       <c r="AP71" s="181">
         <v>69</v>
       </c>
-      <c r="AQ71" s="181"/>
+      <c r="AQ71" s="181" t="s">
+        <v>1009</v>
+      </c>
       <c r="AR71" s="181"/>
       <c r="AS71" s="181"/>
       <c r="AT71" s="181"/>
       <c r="AU71" s="182">
         <v>69</v>
       </c>
-      <c r="AV71" s="182"/>
+      <c r="AV71" s="182" t="s">
+        <v>1026</v>
+      </c>
       <c r="AW71" s="182"/>
       <c r="AX71" s="182"/>
       <c r="AY71" s="182"/>
@@ -16898,7 +17140,9 @@
       <c r="BT71" s="204">
         <v>69</v>
       </c>
-      <c r="BU71" s="204"/>
+      <c r="BU71" s="204" t="s">
+        <v>1000</v>
+      </c>
       <c r="BV71" s="204"/>
       <c r="BW71" s="204"/>
       <c r="BX71" s="204"/>
@@ -16910,7 +17154,7 @@
       <c r="CB71" s="209"/>
       <c r="CC71" s="209"/>
     </row>
-    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:81">
       <c r="B72" s="132">
         <v>70</v>
       </c>
@@ -16976,14 +17220,18 @@
       <c r="AP72" s="181">
         <v>70</v>
       </c>
-      <c r="AQ72" s="181"/>
+      <c r="AQ72" s="181" t="s">
+        <v>1014</v>
+      </c>
       <c r="AR72" s="181"/>
       <c r="AS72" s="181"/>
       <c r="AT72" s="181"/>
       <c r="AU72" s="182">
         <v>70</v>
       </c>
-      <c r="AV72" s="182"/>
+      <c r="AV72" s="182" t="s">
+        <v>354</v>
+      </c>
       <c r="AW72" s="182"/>
       <c r="AX72" s="182"/>
       <c r="AY72" s="182"/>
@@ -17018,7 +17266,9 @@
       <c r="BT72" s="204">
         <v>70</v>
       </c>
-      <c r="BU72" s="204"/>
+      <c r="BU72" s="204" t="s">
+        <v>601</v>
+      </c>
       <c r="BV72" s="204"/>
       <c r="BW72" s="204"/>
       <c r="BX72" s="204"/>
@@ -17030,7 +17280,7 @@
       <c r="CB72" s="209"/>
       <c r="CC72" s="209"/>
     </row>
-    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:81">
       <c r="B73" s="132">
         <v>71</v>
       </c>
@@ -17096,14 +17346,18 @@
       <c r="AP73" s="181">
         <v>71</v>
       </c>
-      <c r="AQ73" s="181"/>
+      <c r="AQ73" s="181" t="s">
+        <v>51</v>
+      </c>
       <c r="AR73" s="181"/>
       <c r="AS73" s="181"/>
       <c r="AT73" s="181"/>
       <c r="AU73" s="182">
         <v>71</v>
       </c>
-      <c r="AV73" s="182"/>
+      <c r="AV73" s="182" t="s">
+        <v>1023</v>
+      </c>
       <c r="AW73" s="182"/>
       <c r="AX73" s="182"/>
       <c r="AY73" s="182"/>
@@ -17138,7 +17392,9 @@
       <c r="BT73" s="204">
         <v>71</v>
       </c>
-      <c r="BU73" s="204"/>
+      <c r="BU73" s="204" t="s">
+        <v>1001</v>
+      </c>
       <c r="BV73" s="204"/>
       <c r="BW73" s="204"/>
       <c r="BX73" s="204"/>
@@ -17150,7 +17406,7 @@
       <c r="CB73" s="209"/>
       <c r="CC73" s="209"/>
     </row>
-    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:81">
       <c r="B74" s="132">
         <v>72</v>
       </c>
@@ -17216,14 +17472,18 @@
       <c r="AP74" s="181">
         <v>72</v>
       </c>
-      <c r="AQ74" s="181"/>
+      <c r="AQ74" s="181" t="s">
+        <v>286</v>
+      </c>
       <c r="AR74" s="181"/>
       <c r="AS74" s="181"/>
       <c r="AT74" s="181"/>
       <c r="AU74" s="182">
         <v>72</v>
       </c>
-      <c r="AV74" s="182"/>
+      <c r="AV74" s="182" t="s">
+        <v>1027</v>
+      </c>
       <c r="AW74" s="182"/>
       <c r="AX74" s="182"/>
       <c r="AY74" s="182"/>
@@ -17258,7 +17518,9 @@
       <c r="BT74" s="204">
         <v>72</v>
       </c>
-      <c r="BU74" s="204"/>
+      <c r="BU74" s="204" t="s">
+        <v>1002</v>
+      </c>
       <c r="BV74" s="204"/>
       <c r="BW74" s="204"/>
       <c r="BX74" s="204"/>
@@ -17270,7 +17532,7 @@
       <c r="CB74" s="209"/>
       <c r="CC74" s="209"/>
     </row>
-    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:81">
       <c r="B75" s="132">
         <v>73</v>
       </c>
@@ -17336,14 +17598,18 @@
       <c r="AP75" s="181">
         <v>73</v>
       </c>
-      <c r="AQ75" s="181"/>
+      <c r="AQ75" s="181" t="s">
+        <v>1015</v>
+      </c>
       <c r="AR75" s="181"/>
       <c r="AS75" s="181"/>
       <c r="AT75" s="181"/>
       <c r="AU75" s="182">
         <v>73</v>
       </c>
-      <c r="AV75" s="182"/>
+      <c r="AV75" s="182" t="s">
+        <v>1028</v>
+      </c>
       <c r="AW75" s="182"/>
       <c r="AX75" s="182"/>
       <c r="AY75" s="182"/>
@@ -17378,7 +17644,9 @@
       <c r="BT75" s="204">
         <v>73</v>
       </c>
-      <c r="BU75" s="204"/>
+      <c r="BU75" s="204" t="s">
+        <v>372</v>
+      </c>
       <c r="BV75" s="204"/>
       <c r="BW75" s="204"/>
       <c r="BX75" s="204"/>
@@ -17390,7 +17658,7 @@
       <c r="CB75" s="209"/>
       <c r="CC75" s="209"/>
     </row>
-    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:81">
       <c r="B76" s="132">
         <v>74</v>
       </c>
@@ -17456,14 +17724,18 @@
       <c r="AP76" s="181">
         <v>74</v>
       </c>
-      <c r="AQ76" s="181"/>
+      <c r="AQ76" s="181" t="s">
+        <v>1016</v>
+      </c>
       <c r="AR76" s="181"/>
       <c r="AS76" s="181"/>
       <c r="AT76" s="181"/>
       <c r="AU76" s="182">
         <v>74</v>
       </c>
-      <c r="AV76" s="182"/>
+      <c r="AV76" s="182" t="s">
+        <v>972</v>
+      </c>
       <c r="AW76" s="182"/>
       <c r="AX76" s="182"/>
       <c r="AY76" s="182"/>
@@ -17498,7 +17770,9 @@
       <c r="BT76" s="204">
         <v>74</v>
       </c>
-      <c r="BU76" s="204"/>
+      <c r="BU76" s="204" t="s">
+        <v>272</v>
+      </c>
       <c r="BV76" s="204"/>
       <c r="BW76" s="204"/>
       <c r="BX76" s="204"/>
@@ -17510,7 +17784,7 @@
       <c r="CB76" s="209"/>
       <c r="CC76" s="209"/>
     </row>
-    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:81">
       <c r="B77" s="132">
         <v>75</v>
       </c>
@@ -17576,14 +17850,18 @@
       <c r="AP77" s="181">
         <v>75</v>
       </c>
-      <c r="AQ77" s="181"/>
+      <c r="AQ77" s="181" t="s">
+        <v>978</v>
+      </c>
       <c r="AR77" s="181"/>
       <c r="AS77" s="181"/>
       <c r="AT77" s="181"/>
       <c r="AU77" s="182">
         <v>75</v>
       </c>
-      <c r="AV77" s="182"/>
+      <c r="AV77" s="182" t="s">
+        <v>1029</v>
+      </c>
       <c r="AW77" s="182"/>
       <c r="AX77" s="182"/>
       <c r="AY77" s="182"/>
@@ -17618,7 +17896,9 @@
       <c r="BT77" s="204">
         <v>75</v>
       </c>
-      <c r="BU77" s="204"/>
+      <c r="BU77" s="204" t="s">
+        <v>167</v>
+      </c>
       <c r="BV77" s="204"/>
       <c r="BW77" s="204"/>
       <c r="BX77" s="204"/>
@@ -17630,7 +17910,7 @@
       <c r="CB77" s="209"/>
       <c r="CC77" s="209"/>
     </row>
-    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:81">
       <c r="B78" s="132">
         <v>76</v>
       </c>
@@ -17696,14 +17976,18 @@
       <c r="AP78" s="181">
         <v>76</v>
       </c>
-      <c r="AQ78" s="181"/>
+      <c r="AQ78" s="181" t="s">
+        <v>103</v>
+      </c>
       <c r="AR78" s="181"/>
       <c r="AS78" s="181"/>
       <c r="AT78" s="181"/>
       <c r="AU78" s="182">
         <v>76</v>
       </c>
-      <c r="AV78" s="182"/>
+      <c r="AV78" s="182" t="s">
+        <v>1025</v>
+      </c>
       <c r="AW78" s="182"/>
       <c r="AX78" s="182"/>
       <c r="AY78" s="182"/>
@@ -17738,7 +18022,9 @@
       <c r="BT78" s="204">
         <v>76</v>
       </c>
-      <c r="BU78" s="204"/>
+      <c r="BU78" s="204" t="s">
+        <v>998</v>
+      </c>
       <c r="BV78" s="204"/>
       <c r="BW78" s="204"/>
       <c r="BX78" s="204"/>
@@ -17750,7 +18036,7 @@
       <c r="CB78" s="209"/>
       <c r="CC78" s="209"/>
     </row>
-    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:81">
       <c r="B79" s="132">
         <v>77</v>
       </c>
@@ -17816,14 +18102,18 @@
       <c r="AP79" s="181">
         <v>77</v>
       </c>
-      <c r="AQ79" s="181"/>
+      <c r="AQ79" s="181" t="s">
+        <v>1017</v>
+      </c>
       <c r="AR79" s="181"/>
       <c r="AS79" s="181"/>
       <c r="AT79" s="181"/>
       <c r="AU79" s="182">
         <v>77</v>
       </c>
-      <c r="AV79" s="182"/>
+      <c r="AV79" s="182" t="s">
+        <v>1030</v>
+      </c>
       <c r="AW79" s="182"/>
       <c r="AX79" s="182"/>
       <c r="AY79" s="182"/>
@@ -17858,7 +18148,9 @@
       <c r="BT79" s="204">
         <v>77</v>
       </c>
-      <c r="BU79" s="204"/>
+      <c r="BU79" s="204" t="s">
+        <v>352</v>
+      </c>
       <c r="BV79" s="204"/>
       <c r="BW79" s="204"/>
       <c r="BX79" s="204"/>
@@ -17870,7 +18162,7 @@
       <c r="CB79" s="209"/>
       <c r="CC79" s="209"/>
     </row>
-    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:81">
       <c r="B80" s="132">
         <v>78</v>
       </c>
@@ -17936,14 +18228,18 @@
       <c r="AP80" s="181">
         <v>78</v>
       </c>
-      <c r="AQ80" s="181"/>
+      <c r="AQ80" s="181" t="s">
+        <v>1006</v>
+      </c>
       <c r="AR80" s="181"/>
       <c r="AS80" s="181"/>
       <c r="AT80" s="181"/>
       <c r="AU80" s="182">
         <v>78</v>
       </c>
-      <c r="AV80" s="182"/>
+      <c r="AV80" s="182" t="s">
+        <v>1021</v>
+      </c>
       <c r="AW80" s="182"/>
       <c r="AX80" s="182"/>
       <c r="AY80" s="182"/>
@@ -17978,7 +18274,9 @@
       <c r="BT80" s="204">
         <v>78</v>
       </c>
-      <c r="BU80" s="204"/>
+      <c r="BU80" s="204" t="s">
+        <v>1003</v>
+      </c>
       <c r="BV80" s="204"/>
       <c r="BW80" s="204"/>
       <c r="BX80" s="204"/>
@@ -17990,7 +18288,7 @@
       <c r="CB80" s="209"/>
       <c r="CC80" s="209"/>
     </row>
-    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:81">
       <c r="B81" s="132">
         <v>79</v>
       </c>
@@ -18056,14 +18354,18 @@
       <c r="AP81" s="181">
         <v>79</v>
       </c>
-      <c r="AQ81" s="181"/>
+      <c r="AQ81" s="181" t="s">
+        <v>1018</v>
+      </c>
       <c r="AR81" s="181"/>
       <c r="AS81" s="181"/>
       <c r="AT81" s="181"/>
       <c r="AU81" s="182">
         <v>79</v>
       </c>
-      <c r="AV81" s="182"/>
+      <c r="AV81" s="182" t="s">
+        <v>1006</v>
+      </c>
       <c r="AW81" s="182"/>
       <c r="AX81" s="182"/>
       <c r="AY81" s="182"/>
@@ -18098,7 +18400,9 @@
       <c r="BT81" s="204">
         <v>79</v>
       </c>
-      <c r="BU81" s="204"/>
+      <c r="BU81" s="204" t="s">
+        <v>1001</v>
+      </c>
       <c r="BV81" s="204"/>
       <c r="BW81" s="204"/>
       <c r="BX81" s="204"/>
@@ -18110,7 +18414,7 @@
       <c r="CB81" s="209"/>
       <c r="CC81" s="209"/>
     </row>
-    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:81">
       <c r="B82" s="132">
         <v>80</v>
       </c>
@@ -18176,14 +18480,18 @@
       <c r="AP82" s="181">
         <v>80</v>
       </c>
-      <c r="AQ82" s="181"/>
+      <c r="AQ82" s="181" t="s">
+        <v>1013</v>
+      </c>
       <c r="AR82" s="181"/>
       <c r="AS82" s="181"/>
       <c r="AT82" s="181"/>
       <c r="AU82" s="182">
         <v>80</v>
       </c>
-      <c r="AV82" s="182"/>
+      <c r="AV82" s="182" t="s">
+        <v>1023</v>
+      </c>
       <c r="AW82" s="182"/>
       <c r="AX82" s="182"/>
       <c r="AY82" s="182"/>
@@ -18218,7 +18526,9 @@
       <c r="BT82" s="204">
         <v>80</v>
       </c>
-      <c r="BU82" s="204"/>
+      <c r="BU82" s="204" t="s">
+        <v>475</v>
+      </c>
       <c r="BV82" s="204"/>
       <c r="BW82" s="204"/>
       <c r="BX82" s="204"/>
@@ -18230,7 +18540,7 @@
       <c r="CB82" s="209"/>
       <c r="CC82" s="209"/>
     </row>
-    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:81">
       <c r="B83" s="132">
         <v>81</v>
       </c>
@@ -18296,14 +18606,18 @@
       <c r="AP83" s="181">
         <v>81</v>
       </c>
-      <c r="AQ83" s="181"/>
+      <c r="AQ83" s="181" t="s">
+        <v>253</v>
+      </c>
       <c r="AR83" s="181"/>
       <c r="AS83" s="181"/>
       <c r="AT83" s="181"/>
       <c r="AU83" s="182">
         <v>81</v>
       </c>
-      <c r="AV83" s="182"/>
+      <c r="AV83" s="182" t="s">
+        <v>1013</v>
+      </c>
       <c r="AW83" s="182"/>
       <c r="AX83" s="182"/>
       <c r="AY83" s="182"/>
@@ -18338,7 +18652,9 @@
       <c r="BT83" s="204">
         <v>81</v>
       </c>
-      <c r="BU83" s="204"/>
+      <c r="BU83" s="204" t="s">
+        <v>63</v>
+      </c>
       <c r="BV83" s="204"/>
       <c r="BW83" s="204"/>
       <c r="BX83" s="204"/>
@@ -18350,7 +18666,7 @@
       <c r="CB83" s="209"/>
       <c r="CC83" s="209"/>
     </row>
-    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:81">
       <c r="B84" s="210">
         <v>82</v>
       </c>
@@ -18416,14 +18732,18 @@
       <c r="AP84" s="181">
         <v>82</v>
       </c>
-      <c r="AQ84" s="181"/>
+      <c r="AQ84" s="181" t="s">
+        <v>403</v>
+      </c>
       <c r="AR84" s="181"/>
       <c r="AS84" s="181"/>
       <c r="AT84" s="181"/>
       <c r="AU84" s="182">
         <v>82</v>
       </c>
-      <c r="AV84" s="182"/>
+      <c r="AV84" s="182" t="s">
+        <v>1031</v>
+      </c>
       <c r="AW84" s="182"/>
       <c r="AX84" s="182"/>
       <c r="AY84" s="182"/>
@@ -18458,7 +18778,9 @@
       <c r="BT84" s="204">
         <v>82</v>
       </c>
-      <c r="BU84" s="204"/>
+      <c r="BU84" s="204" t="s">
+        <v>82</v>
+      </c>
       <c r="BV84" s="204"/>
       <c r="BW84" s="204"/>
       <c r="BX84" s="204"/>
@@ -18470,7 +18792,7 @@
       <c r="CB84" s="209"/>
       <c r="CC84" s="209"/>
     </row>
-    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:81">
       <c r="B85" s="211" t="s">
         <v>612</v>
       </c>
@@ -18533,7 +18855,7 @@
       </c>
       <c r="Y85" s="118">
         <f t="shared" si="3"/>
-        <v>2191</v>
+        <v>2347</v>
       </c>
       <c r="Z85" s="212"/>
       <c r="AA85" s="211" t="s">
@@ -18581,7 +18903,7 @@
       <c r="AQ85" s="212"/>
       <c r="AR85" s="212">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-3481</v>
+        <v>-3541</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="7"/>
@@ -18594,7 +18916,7 @@
       <c r="AV85" s="212"/>
       <c r="AW85" s="212">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-10822</v>
+        <v>-10897</v>
       </c>
       <c r="AX85" s="118">
         <f t="shared" si="8"/>
@@ -18611,7 +18933,7 @@
       </c>
       <c r="BC85" s="118">
         <f t="shared" si="9"/>
-        <v>445</v>
+        <v>661</v>
       </c>
       <c r="BD85" s="212"/>
       <c r="BE85" s="211" t="s">
@@ -18659,7 +18981,7 @@
       <c r="BU85" s="212"/>
       <c r="BV85" s="212">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-3574</v>
+        <v>-3639</v>
       </c>
       <c r="BW85" s="118">
         <f t="shared" si="13"/>
@@ -18680,27 +19002,27 @@
       </c>
       <c r="CC85" s="212"/>
     </row>
-    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:81">
       <c r="H92" s="213" t="s">
         <v>613</v>
       </c>
       <c r="I92" s="213">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>31821</v>
+        <v>32193</v>
       </c>
       <c r="J92" s="213"/>
     </row>
-    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:81">
       <c r="H93" s="213"/>
       <c r="I93" s="213"/>
       <c r="J93" s="213"/>
     </row>
-    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:81">
       <c r="H94" s="213"/>
       <c r="I94" s="213"/>
       <c r="J94" s="213"/>
     </row>
-    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:81">
       <c r="H95" s="213"/>
       <c r="I95" s="213"/>
       <c r="J95" s="213"/>
@@ -18716,14 +19038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AY53" sqref="AY53:BC53"/>
+    <sheetView topLeftCell="S19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52:Y52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -18746,7 +19068,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -18924,7 +19246,7 @@
       <c r="CA1" s="88"/>
       <c r="CB1" s="88"/>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -19070,7 +19392,7 @@
       <c r="CA2" s="88"/>
       <c r="CB2" s="88"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="15.75">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -19257,7 +19579,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" ht="15.75">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -19450,7 +19772,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" ht="15.75">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -19634,7 +19956,7 @@
       </c>
       <c r="CB5" s="114"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" ht="15.75">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -19822,7 +20144,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" ht="15.75">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -20015,7 +20337,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" ht="15.75">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -20198,7 +20520,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" ht="15.75">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -20385,7 +20707,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" ht="15.75">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -20589,7 +20911,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" ht="15.75">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -20779,7 +21101,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" ht="15.75">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -20966,7 +21288,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" ht="15.75">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -21147,7 +21469,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" ht="15.75">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -21328,7 +21650,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" ht="15.75">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -21515,7 +21837,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" ht="15.75">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -21693,7 +22015,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" ht="15.75">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -21880,7 +22202,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" ht="15.75">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -22065,7 +22387,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" ht="15.75">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -22252,7 +22574,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" ht="15.75">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -22448,7 +22770,7 @@
       </c>
       <c r="CB20" s="114"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" ht="15.75">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -22626,7 +22948,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" ht="15.75">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -22813,7 +23135,7 @@
       </c>
       <c r="CB22" s="114"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" ht="15.75">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -23000,7 +23322,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" ht="15.75">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -23192,7 +23514,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" ht="15.75">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -23377,7 +23699,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" ht="15.75">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -23570,7 +23892,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" ht="15.75">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -23754,7 +24076,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" ht="15.75">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -23942,7 +24264,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" ht="15.75">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -24135,7 +24457,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" ht="15.75">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -24322,7 +24644,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" ht="15.75">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -24512,7 +24834,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" ht="15.75">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -24708,7 +25030,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" ht="15.75">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -24891,7 +25213,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" ht="15.75">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -25072,7 +25394,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" ht="15.75">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -25261,7 +25583,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" ht="15.75">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -25451,7 +25773,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" ht="15.75">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -25638,7 +25960,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" ht="15.75">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -25819,7 +26141,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" ht="15.75">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -26011,7 +26333,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" ht="15.75">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -26204,7 +26526,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" ht="15.75">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -26391,7 +26713,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" ht="15.75">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -26569,7 +26891,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" ht="15.75">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -26756,7 +27078,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" ht="15.75">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -26940,7 +27262,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" ht="15.75">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -27124,7 +27446,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" ht="15.75">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -27318,7 +27640,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" ht="15.75">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -27499,7 +27821,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" ht="15.75">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -27685,7 +28007,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" ht="15.75">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -27867,7 +28189,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" ht="15.75">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -27947,17 +28269,17 @@
       <c r="AG50" s="57"/>
       <c r="AH50" s="57"/>
       <c r="AI50" s="57"/>
-      <c r="AJ50" s="215">
+      <c r="AJ50" s="17">
         <v>48</v>
       </c>
-      <c r="AK50" s="215" t="s">
+      <c r="AK50" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="AL50" s="215">
-        <v>-60</v>
-      </c>
-      <c r="AM50" s="215"/>
-      <c r="AN50" s="215"/>
+      <c r="AL50" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
       <c r="AO50" s="17">
         <v>48</v>
       </c>
@@ -28054,7 +28376,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" ht="15.75">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -28225,18 +28547,21 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="86">
+    <row r="52" spans="1:80" ht="15.75">
+      <c r="A52" s="16">
         <v>50</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="16" t="s">
         <v>893</v>
       </c>
-      <c r="C52" s="86">
+      <c r="C52" s="16">
         <v>-65</v>
       </c>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="16">
+        <f>293+SUM(C51:C52)</f>
+        <v>168</v>
+      </c>
+      <c r="E52" s="16"/>
       <c r="F52" s="19">
         <v>50</v>
       </c>
@@ -28266,15 +28591,17 @@
       </c>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
-      <c r="U52" s="42">
+      <c r="U52" s="215">
         <v>50</v>
       </c>
-      <c r="V52" s="44" t="s">
+      <c r="V52" s="86" t="s">
         <v>895</v>
       </c>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
+      <c r="W52" s="86">
+        <v>-415</v>
+      </c>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
       <c r="Z52" s="49">
         <v>50</v>
       </c>
@@ -28371,7 +28698,7 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" ht="15.75">
       <c r="A53" s="20">
         <v>51</v>
       </c>
@@ -28445,28 +28772,31 @@
       <c r="AQ53" s="74"/>
       <c r="AR53" s="74"/>
       <c r="AS53" s="74"/>
-      <c r="AT53" s="86">
+      <c r="AT53" s="17">
         <v>51</v>
       </c>
-      <c r="AU53" s="86" t="s">
+      <c r="AU53" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="AV53" s="86">
-        <v>-60</v>
-      </c>
-      <c r="AW53" s="86"/>
-      <c r="AX53" s="86"/>
-      <c r="AY53" s="86">
+      <c r="AV53" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="16">
         <v>51</v>
       </c>
-      <c r="AZ53" s="215" t="s">
+      <c r="AZ53" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="BA53" s="86">
+      <c r="BA53" s="16">
         <v>-75</v>
       </c>
-      <c r="BB53" s="86"/>
-      <c r="BC53" s="86"/>
+      <c r="BB53" s="16">
+        <f>338+SUM(BA51:BA53)</f>
+        <v>138</v>
+      </c>
+      <c r="BC53" s="16"/>
       <c r="BD53" s="87">
         <v>51</v>
       </c>
@@ -28511,7 +28841,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -28635,7 +28965,7 @@
       <c r="CA54" s="88"/>
       <c r="CB54" s="88"/>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80">
       <c r="A55" s="20">
         <v>53</v>
       </c>
@@ -28759,7 +29089,7 @@
       <c r="CA55" s="88"/>
       <c r="CB55" s="88"/>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80">
       <c r="A56" s="20">
         <v>54</v>
       </c>
@@ -28883,7 +29213,7 @@
       <c r="CA56" s="88"/>
       <c r="CB56" s="88"/>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80">
       <c r="A57" s="20">
         <v>55</v>
       </c>
@@ -29007,7 +29337,7 @@
       <c r="CA57" s="88"/>
       <c r="CB57" s="88"/>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80">
       <c r="A58" s="20">
         <v>56</v>
       </c>
@@ -29131,7 +29461,7 @@
       <c r="CA58" s="88"/>
       <c r="CB58" s="88"/>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -29255,7 +29585,7 @@
       <c r="CA59" s="88"/>
       <c r="CB59" s="88"/>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80">
       <c r="A60" s="20">
         <v>58</v>
       </c>
@@ -29379,7 +29709,7 @@
       <c r="CA60" s="88"/>
       <c r="CB60" s="88"/>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80">
       <c r="A61" s="20">
         <v>59</v>
       </c>
@@ -29503,7 +29833,7 @@
       <c r="CA61" s="88"/>
       <c r="CB61" s="88"/>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -29627,7 +29957,7 @@
       <c r="CA62" s="88"/>
       <c r="CB62" s="88"/>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80">
       <c r="A63" s="20">
         <v>61</v>
       </c>
@@ -29751,7 +30081,7 @@
       <c r="CA63" s="88"/>
       <c r="CB63" s="88"/>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -29875,7 +30205,7 @@
       <c r="CA64" s="88"/>
       <c r="CB64" s="88"/>
     </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -29999,7 +30329,7 @@
       <c r="CA65" s="88"/>
       <c r="CB65" s="88"/>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -30123,7 +30453,7 @@
       <c r="CA66" s="88"/>
       <c r="CB66" s="88"/>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -30247,7 +30577,7 @@
       <c r="CA67" s="88"/>
       <c r="CB67" s="88"/>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -30371,7 +30701,7 @@
       <c r="CA68" s="88"/>
       <c r="CB68" s="88"/>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -30495,7 +30825,7 @@
       <c r="CA69" s="88"/>
       <c r="CB69" s="88"/>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -30619,7 +30949,7 @@
       <c r="CA70" s="88"/>
       <c r="CB70" s="88"/>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -30743,7 +31073,7 @@
       <c r="CA71" s="88"/>
       <c r="CB71" s="88"/>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -30867,7 +31197,7 @@
       <c r="CA72" s="88"/>
       <c r="CB72" s="88"/>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -30991,7 +31321,7 @@
       <c r="CA73" s="88"/>
       <c r="CB73" s="88"/>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -31115,7 +31445,7 @@
       <c r="CA74" s="88"/>
       <c r="CB74" s="88"/>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80">
       <c r="A75" s="20">
         <v>73</v>
       </c>
@@ -31239,7 +31569,7 @@
       <c r="CA75" s="88"/>
       <c r="CB75" s="88"/>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -31363,7 +31693,7 @@
       <c r="CA76" s="88"/>
       <c r="CB76" s="88"/>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80">
       <c r="A77" s="20">
         <v>75</v>
       </c>
@@ -31487,7 +31817,7 @@
       <c r="CA77" s="88"/>
       <c r="CB77" s="88"/>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -31611,7 +31941,7 @@
       <c r="CA78" s="88"/>
       <c r="CB78" s="88"/>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80">
       <c r="A79" s="20">
         <v>77</v>
       </c>
@@ -31735,7 +32065,7 @@
       <c r="CA79" s="88"/>
       <c r="CB79" s="88"/>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -31859,7 +32189,7 @@
       <c r="CA80" s="88"/>
       <c r="CB80" s="88"/>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81">
       <c r="A81" s="20">
         <v>79</v>
       </c>
@@ -31983,7 +32313,7 @@
       <c r="CA81" s="88"/>
       <c r="CB81" s="88"/>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:81">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -32107,7 +32437,7 @@
       <c r="CA82" s="88"/>
       <c r="CB82" s="88"/>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -32231,7 +32561,7 @@
       <c r="CA83" s="88"/>
       <c r="CB83" s="88"/>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81">
       <c r="A84" s="115">
         <v>82</v>
       </c>
@@ -32355,7 +32685,7 @@
       <c r="CA84" s="88"/>
       <c r="CB84" s="88"/>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:81">
       <c r="A85" s="116" t="s">
         <v>612</v>
       </c>
@@ -32366,7 +32696,7 @@
       </c>
       <c r="D85" s="118">
         <f>SUM(D3:D84)</f>
-        <v>1204</v>
+        <v>1372</v>
       </c>
       <c r="E85" s="117"/>
       <c r="F85" s="116" t="s">
@@ -32414,7 +32744,7 @@
       <c r="V85" s="117"/>
       <c r="W85" s="117">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-23579</v>
+        <v>-23994</v>
       </c>
       <c r="X85" s="118">
         <f t="shared" si="3"/>
@@ -32496,7 +32826,7 @@
       </c>
       <c r="BB85" s="118">
         <f t="shared" si="9"/>
-        <v>1611</v>
+        <v>1749</v>
       </c>
       <c r="BC85" s="117"/>
       <c r="BD85" s="116" t="s">
@@ -32568,27 +32898,27 @@
         <v>612</v>
       </c>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:81">
       <c r="G95" s="213" t="s">
         <v>613</v>
       </c>
       <c r="H95" s="213">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>24760</v>
+        <v>25066</v>
       </c>
       <c r="I95" s="213"/>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:81">
       <c r="G96" s="213"/>
       <c r="H96" s="213"/>
       <c r="I96" s="213"/>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:9">
       <c r="G97" s="213"/>
       <c r="H97" s="213"/>
       <c r="I97" s="213"/>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:9">
       <c r="G98" s="213"/>
       <c r="H98" s="213"/>
       <c r="I98" s="213"/>
@@ -32604,16 +32934,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:8" ht="15.75">
       <c r="E1" s="214" t="s">
         <v>984</v>
       </c>
@@ -32623,7 +32953,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="2" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:8" ht="15.75">
       <c r="E2" s="1" t="s">
         <v>985</v>
       </c>
@@ -32637,7 +32967,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:8">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -32653,7 +32983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:8">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -32669,7 +32999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:8">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -32685,7 +33015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -32701,7 +33031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -32717,7 +33047,7 @@
         <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -32733,7 +33063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -32749,7 +33079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -32765,7 +33095,7 @@
         <v>2.7999999999999545</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:8">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -32781,7 +33111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -32797,7 +33127,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:8">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -32813,7 +33143,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:8">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -32829,7 +33159,7 @@
         <v>5.8000000000001819</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:8">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -32845,7 +33175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:8">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -32861,7 +33191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -32877,7 +33207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -32893,7 +33223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -32909,7 +33239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -32925,7 +33255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -32941,7 +33271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -32957,7 +33287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -32973,7 +33303,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -32984,7 +33314,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -32995,7 +33325,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8">
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1067">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3138,13 +3138,118 @@
   </si>
   <si>
     <t>Рейнджерс - Оттава</t>
+  </si>
+  <si>
+    <t>Монреаль - Даллас</t>
+  </si>
+  <si>
+    <t>Даллас - Эдмонтон</t>
+  </si>
+  <si>
+    <t>Оттава - Даллас</t>
+  </si>
+  <si>
+    <t>Даллас - Айлендерс</t>
+  </si>
+  <si>
+    <t>Даллас - Виннипег</t>
+  </si>
+  <si>
+    <t>Даллас - Сан Хосе</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Даллас</t>
+  </si>
+  <si>
+    <t>Кингс - Даллас</t>
+  </si>
+  <si>
+    <t>Даллас  - Флорида</t>
+  </si>
+  <si>
+    <t>Даллас - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Даллас  - Питтсбург</t>
+  </si>
+  <si>
+    <t>Сиэтл - Даллас</t>
+  </si>
+  <si>
+    <t>Даллас - Баффало</t>
+  </si>
+  <si>
+    <t>Вашингтон - Монреаль</t>
+  </si>
+  <si>
+    <t>Флорида - Вашингтон</t>
+  </si>
+  <si>
+    <t>Бостон  - Вашингтон</t>
+  </si>
+  <si>
+    <t>Вашингтон - Ванкувер</t>
+  </si>
+  <si>
+    <t>Тампа - Вашингтон</t>
+  </si>
+  <si>
+    <t>Вашингтон - Оттава</t>
+  </si>
+  <si>
+    <t>Детройт - Вашингтон</t>
+  </si>
+  <si>
+    <t>Вашингтон - Филадельфия</t>
+  </si>
+  <si>
+    <t>Питтсбург - Вашингтон</t>
+  </si>
+  <si>
+    <t>Виннипег - Вашингтон</t>
+  </si>
+  <si>
+    <t>Эдмонтон - Вашингтон</t>
+  </si>
+  <si>
+    <t>Сиэтл - Вашингтон</t>
+  </si>
+  <si>
+    <t>Ванкувер - Вашингтон</t>
+  </si>
+  <si>
+    <t>Нью Джерси - Монреаль</t>
+  </si>
+  <si>
+    <t>Нэшвилл - Монреаль</t>
+  </si>
+  <si>
+    <t>Эдмонтон - Монреаль</t>
+  </si>
+  <si>
+    <t>Ванкувер - Монреаль</t>
+  </si>
+  <si>
+    <t>Сиэтл - Монреаль</t>
+  </si>
+  <si>
+    <t>Филадельфия - Флорида</t>
+  </si>
+  <si>
+    <t>Флорида - Филадельфия</t>
+  </si>
+  <si>
+    <t>Питтсбург - Виннипег</t>
+  </si>
+  <si>
+    <t>Вегас - Эдмонтон</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3257,6 +3362,23 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -4329,7 +4451,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4687,13 +4809,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
@@ -5015,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU52" sqref="AU52:AY52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK50" sqref="AK50:AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12774,7 +12902,7 @@
       </c>
       <c r="J42" s="73"/>
       <c r="K42" s="73">
-        <v>-4.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="L42" s="130">
         <v>40</v>
@@ -12968,8 +13096,8 @@
       </c>
       <c r="J43" s="73"/>
       <c r="K43" s="73">
-        <f>K42*I51</f>
-        <v>3290</v>
+        <f>K42*I52</f>
+        <v>4290</v>
       </c>
       <c r="L43" s="73">
         <v>41</v>
@@ -14226,13 +14354,17 @@
       </c>
       <c r="BH49" s="73"/>
       <c r="BI49" s="73"/>
-      <c r="BJ49" s="198">
+      <c r="BJ49" s="118">
         <v>47</v>
       </c>
-      <c r="BK49" s="198"/>
-      <c r="BL49" s="198"/>
-      <c r="BM49" s="198"/>
-      <c r="BN49" s="198"/>
+      <c r="BK49" s="118" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BL49" s="118">
+        <v>-60</v>
+      </c>
+      <c r="BM49" s="118"/>
+      <c r="BN49" s="118"/>
       <c r="BO49" s="73">
         <v>47</v>
       </c>
@@ -14357,13 +14489,17 @@
       </c>
       <c r="AI50" s="73"/>
       <c r="AJ50" s="73"/>
-      <c r="AK50" s="153">
+      <c r="AK50" s="118">
         <v>48</v>
       </c>
-      <c r="AL50" s="153"/>
-      <c r="AM50" s="153"/>
-      <c r="AN50" s="153"/>
-      <c r="AO50" s="153"/>
+      <c r="AL50" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM50" s="118">
+        <v>-75</v>
+      </c>
+      <c r="AN50" s="118"/>
+      <c r="AO50" s="118"/>
       <c r="AP50" s="73">
         <v>48</v>
       </c>
@@ -14422,24 +14558,28 @@
       </c>
       <c r="BR50" s="73"/>
       <c r="BS50" s="73"/>
-      <c r="BT50" s="118">
+      <c r="BT50" s="73">
         <v>48</v>
       </c>
-      <c r="BU50" s="118" t="s">
+      <c r="BU50" s="73" t="s">
         <v>991</v>
       </c>
-      <c r="BV50" s="118">
+      <c r="BV50" s="73">
         <v>-65</v>
       </c>
-      <c r="BW50" s="118"/>
-      <c r="BX50" s="118"/>
-      <c r="BY50" s="209">
+      <c r="BW50" s="73"/>
+      <c r="BX50" s="73"/>
+      <c r="BY50" s="118">
         <v>48</v>
       </c>
-      <c r="BZ50" s="209"/>
-      <c r="CA50" s="209"/>
-      <c r="CB50" s="209"/>
-      <c r="CC50" s="209"/>
+      <c r="BZ50" s="220" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CA50" s="118">
+        <v>-60</v>
+      </c>
+      <c r="CB50" s="118"/>
+      <c r="CC50" s="118"/>
     </row>
     <row r="51" spans="2:81" ht="15.75">
       <c r="B51" s="73">
@@ -14464,18 +14604,20 @@
       </c>
       <c r="J51" s="73"/>
       <c r="K51" s="73">
-        <f>K43+SUM(I40:I51)</f>
-        <v>95</v>
-      </c>
-      <c r="L51" s="140">
+        <f>K43+SUM(I40:I52)</f>
+        <v>120</v>
+      </c>
+      <c r="L51" s="118">
         <v>49</v>
       </c>
-      <c r="M51" s="140" t="s">
+      <c r="M51" s="118" t="s">
         <v>547</v>
       </c>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="141"/>
+      <c r="N51" s="118">
+        <v>-215</v>
+      </c>
+      <c r="O51" s="118"/>
+      <c r="P51" s="221"/>
       <c r="Q51" s="73">
         <v>49</v>
       </c>
@@ -14606,30 +14748,36 @@
       <c r="BY51" s="209">
         <v>49</v>
       </c>
-      <c r="BZ51" s="209"/>
+      <c r="BZ51" s="219" t="s">
+        <v>1046</v>
+      </c>
       <c r="CA51" s="209"/>
       <c r="CB51" s="209"/>
       <c r="CC51" s="209"/>
     </row>
     <row r="52" spans="2:81" ht="15.75">
-      <c r="B52" s="132">
+      <c r="B52" s="118">
         <v>50</v>
       </c>
-      <c r="C52" s="132" t="s">
+      <c r="C52" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="133">
+      <c r="D52" s="118">
+        <v>-65</v>
+      </c>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118">
         <v>50</v>
       </c>
-      <c r="H52" s="133" t="s">
+      <c r="H52" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
+      <c r="I52" s="118">
+        <v>-975</v>
+      </c>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
       <c r="L52" s="140">
         <v>50</v>
       </c>
@@ -14664,20 +14812,28 @@
         <v>156</v>
       </c>
       <c r="Z52" s="130"/>
-      <c r="AA52" s="161">
+      <c r="AA52" s="118">
         <v>50</v>
       </c>
-      <c r="AB52" s="161"/>
-      <c r="AC52" s="161"/>
-      <c r="AD52" s="161"/>
-      <c r="AE52" s="161"/>
-      <c r="AF52" s="162">
+      <c r="AB52" s="118" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AC52" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AD52" s="118"/>
+      <c r="AE52" s="118"/>
+      <c r="AF52" s="118">
         <v>50</v>
       </c>
-      <c r="AG52" s="162"/>
-      <c r="AH52" s="162"/>
-      <c r="AI52" s="162"/>
-      <c r="AJ52" s="162"/>
+      <c r="AG52" s="118" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AH52" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AI52" s="118"/>
+      <c r="AJ52" s="118"/>
       <c r="AK52" s="153">
         <v>50</v>
       </c>
@@ -14685,28 +14841,31 @@
       <c r="AM52" s="153"/>
       <c r="AN52" s="153"/>
       <c r="AO52" s="153"/>
-      <c r="AP52" s="118">
+      <c r="AP52" s="73">
         <v>50</v>
       </c>
-      <c r="AQ52" s="118" t="s">
+      <c r="AQ52" s="73" t="s">
         <v>991</v>
       </c>
-      <c r="AR52" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="118"/>
-      <c r="AU52" s="118">
+      <c r="AR52" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AS52" s="73"/>
+      <c r="AT52" s="73"/>
+      <c r="AU52" s="130">
         <v>50</v>
       </c>
-      <c r="AV52" s="118" t="s">
+      <c r="AV52" s="130" t="s">
         <v>1019</v>
       </c>
-      <c r="AW52" s="118">
+      <c r="AW52" s="130">
         <v>-75</v>
       </c>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
+      <c r="AX52" s="130">
+        <f>330+SUM(AW50:AW52)</f>
+        <v>130</v>
+      </c>
+      <c r="AY52" s="130"/>
       <c r="AZ52" s="190">
         <v>50</v>
       </c>
@@ -14755,7 +14914,9 @@
       <c r="BY52" s="209">
         <v>50</v>
       </c>
-      <c r="BZ52" s="209"/>
+      <c r="BZ52" s="219" t="s">
+        <v>1047</v>
+      </c>
       <c r="CA52" s="209"/>
       <c r="CB52" s="209"/>
       <c r="CC52" s="209"/>
@@ -14812,7 +14973,9 @@
       <c r="AF53" s="162">
         <v>51</v>
       </c>
-      <c r="AG53" s="162"/>
+      <c r="AG53" s="162" t="s">
+        <v>431</v>
+      </c>
       <c r="AH53" s="162"/>
       <c r="AI53" s="162"/>
       <c r="AJ53" s="162"/>
@@ -14848,13 +15011,17 @@
       <c r="BB53" s="190"/>
       <c r="BC53" s="190"/>
       <c r="BD53" s="190"/>
-      <c r="BE53" s="199">
+      <c r="BE53" s="118">
         <v>51</v>
       </c>
-      <c r="BF53" s="199"/>
-      <c r="BG53" s="199"/>
-      <c r="BH53" s="199"/>
-      <c r="BI53" s="199"/>
+      <c r="BF53" s="118" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BG53" s="118">
+        <v>-465</v>
+      </c>
+      <c r="BH53" s="118"/>
+      <c r="BI53" s="118"/>
       <c r="BJ53" s="198">
         <v>51</v>
       </c>
@@ -14881,7 +15048,9 @@
       <c r="BY53" s="209">
         <v>51</v>
       </c>
-      <c r="BZ53" s="209"/>
+      <c r="BZ53" s="219" t="s">
+        <v>1048</v>
+      </c>
       <c r="CA53" s="209"/>
       <c r="CB53" s="209"/>
       <c r="CC53" s="209"/>
@@ -14938,7 +15107,9 @@
       <c r="AF54" s="162">
         <v>52</v>
       </c>
-      <c r="AG54" s="162"/>
+      <c r="AG54" s="162" t="s">
+        <v>150</v>
+      </c>
       <c r="AH54" s="162"/>
       <c r="AI54" s="162"/>
       <c r="AJ54" s="162"/>
@@ -15007,7 +15178,9 @@
       <c r="BY54" s="209">
         <v>52</v>
       </c>
-      <c r="BZ54" s="209"/>
+      <c r="BZ54" s="219" t="s">
+        <v>907</v>
+      </c>
       <c r="CA54" s="209"/>
       <c r="CB54" s="209"/>
       <c r="CC54" s="209"/>
@@ -15064,7 +15237,9 @@
       <c r="AF55" s="162">
         <v>53</v>
       </c>
-      <c r="AG55" s="162"/>
+      <c r="AG55" s="162" t="s">
+        <v>241</v>
+      </c>
       <c r="AH55" s="162"/>
       <c r="AI55" s="162"/>
       <c r="AJ55" s="162"/>
@@ -15133,7 +15308,9 @@
       <c r="BY55" s="209">
         <v>53</v>
       </c>
-      <c r="BZ55" s="209"/>
+      <c r="BZ55" s="219" t="s">
+        <v>64</v>
+      </c>
       <c r="CA55" s="209"/>
       <c r="CB55" s="209"/>
       <c r="CC55" s="209"/>
@@ -15190,7 +15367,9 @@
       <c r="AF56" s="162">
         <v>54</v>
       </c>
-      <c r="AG56" s="162"/>
+      <c r="AG56" s="162" t="s">
+        <v>1021</v>
+      </c>
       <c r="AH56" s="162"/>
       <c r="AI56" s="162"/>
       <c r="AJ56" s="162"/>
@@ -15259,7 +15438,9 @@
       <c r="BY56" s="209">
         <v>54</v>
       </c>
-      <c r="BZ56" s="209"/>
+      <c r="BZ56" s="219" t="s">
+        <v>428</v>
+      </c>
       <c r="CA56" s="209"/>
       <c r="CB56" s="209"/>
       <c r="CC56" s="209"/>
@@ -15316,7 +15497,9 @@
       <c r="AF57" s="162">
         <v>55</v>
       </c>
-      <c r="AG57" s="162"/>
+      <c r="AG57" s="162" t="s">
+        <v>1045</v>
+      </c>
       <c r="AH57" s="162"/>
       <c r="AI57" s="162"/>
       <c r="AJ57" s="162"/>
@@ -15385,7 +15568,9 @@
       <c r="BY57" s="209">
         <v>55</v>
       </c>
-      <c r="BZ57" s="209"/>
+      <c r="BZ57" s="219" t="s">
+        <v>1049</v>
+      </c>
       <c r="CA57" s="209"/>
       <c r="CB57" s="209"/>
       <c r="CC57" s="209"/>
@@ -15442,7 +15627,9 @@
       <c r="AF58" s="162">
         <v>56</v>
       </c>
-      <c r="AG58" s="162"/>
+      <c r="AG58" s="162" t="s">
+        <v>75</v>
+      </c>
       <c r="AH58" s="162"/>
       <c r="AI58" s="162"/>
       <c r="AJ58" s="162"/>
@@ -15511,7 +15698,9 @@
       <c r="BY58" s="209">
         <v>56</v>
       </c>
-      <c r="BZ58" s="209"/>
+      <c r="BZ58" s="219" t="s">
+        <v>1046</v>
+      </c>
       <c r="CA58" s="209"/>
       <c r="CB58" s="209"/>
       <c r="CC58" s="209"/>
@@ -15568,7 +15757,9 @@
       <c r="AF59" s="162">
         <v>57</v>
       </c>
-      <c r="AG59" s="162"/>
+      <c r="AG59" s="162" t="s">
+        <v>529</v>
+      </c>
       <c r="AH59" s="162"/>
       <c r="AI59" s="162"/>
       <c r="AJ59" s="162"/>
@@ -15637,7 +15828,9 @@
       <c r="BY59" s="209">
         <v>57</v>
       </c>
-      <c r="BZ59" s="209"/>
+      <c r="BZ59" s="219" t="s">
+        <v>1050</v>
+      </c>
       <c r="CA59" s="209"/>
       <c r="CB59" s="209"/>
       <c r="CC59" s="209"/>
@@ -15694,7 +15887,9 @@
       <c r="AF60" s="162">
         <v>58</v>
       </c>
-      <c r="AG60" s="162"/>
+      <c r="AG60" s="162" t="s">
+        <v>1058</v>
+      </c>
       <c r="AH60" s="162"/>
       <c r="AI60" s="162"/>
       <c r="AJ60" s="162"/>
@@ -15763,7 +15958,9 @@
       <c r="BY60" s="209">
         <v>58</v>
       </c>
-      <c r="BZ60" s="209"/>
+      <c r="BZ60" s="219" t="s">
+        <v>1051</v>
+      </c>
       <c r="CA60" s="209"/>
       <c r="CB60" s="209"/>
       <c r="CC60" s="209"/>
@@ -15820,7 +16017,9 @@
       <c r="AF61" s="162">
         <v>59</v>
       </c>
-      <c r="AG61" s="162"/>
+      <c r="AG61" s="162" t="s">
+        <v>141</v>
+      </c>
       <c r="AH61" s="162"/>
       <c r="AI61" s="162"/>
       <c r="AJ61" s="162"/>
@@ -15889,7 +16088,9 @@
       <c r="BY61" s="209">
         <v>59</v>
       </c>
-      <c r="BZ61" s="209"/>
+      <c r="BZ61" s="219" t="s">
+        <v>1052</v>
+      </c>
       <c r="CA61" s="209"/>
       <c r="CB61" s="209"/>
       <c r="CC61" s="209"/>
@@ -15946,7 +16147,9 @@
       <c r="AF62" s="162">
         <v>60</v>
       </c>
-      <c r="AG62" s="162"/>
+      <c r="AG62" s="162" t="s">
+        <v>417</v>
+      </c>
       <c r="AH62" s="162"/>
       <c r="AI62" s="162"/>
       <c r="AJ62" s="162"/>
@@ -16015,7 +16218,9 @@
       <c r="BY62" s="209">
         <v>60</v>
       </c>
-      <c r="BZ62" s="209"/>
+      <c r="BZ62" s="219" t="s">
+        <v>931</v>
+      </c>
       <c r="CA62" s="209"/>
       <c r="CB62" s="209"/>
       <c r="CC62" s="209"/>
@@ -16072,7 +16277,9 @@
       <c r="AF63" s="162">
         <v>61</v>
       </c>
-      <c r="AG63" s="162"/>
+      <c r="AG63" s="162" t="s">
+        <v>423</v>
+      </c>
       <c r="AH63" s="162"/>
       <c r="AI63" s="162"/>
       <c r="AJ63" s="162"/>
@@ -16141,7 +16348,9 @@
       <c r="BY63" s="209">
         <v>61</v>
       </c>
-      <c r="BZ63" s="209"/>
+      <c r="BZ63" s="219" t="s">
+        <v>1053</v>
+      </c>
       <c r="CA63" s="209"/>
       <c r="CB63" s="209"/>
       <c r="CC63" s="209"/>
@@ -16198,7 +16407,9 @@
       <c r="AF64" s="162">
         <v>62</v>
       </c>
-      <c r="AG64" s="162"/>
+      <c r="AG64" s="162" t="s">
+        <v>1059</v>
+      </c>
       <c r="AH64" s="162"/>
       <c r="AI64" s="162"/>
       <c r="AJ64" s="162"/>
@@ -16267,7 +16478,9 @@
       <c r="BY64" s="209">
         <v>62</v>
       </c>
-      <c r="BZ64" s="209"/>
+      <c r="BZ64" s="219" t="s">
+        <v>939</v>
+      </c>
       <c r="CA64" s="209"/>
       <c r="CB64" s="209"/>
       <c r="CC64" s="209"/>
@@ -16324,7 +16537,9 @@
       <c r="AF65" s="162">
         <v>63</v>
       </c>
-      <c r="AG65" s="162"/>
+      <c r="AG65" s="162" t="s">
+        <v>408</v>
+      </c>
       <c r="AH65" s="162"/>
       <c r="AI65" s="162"/>
       <c r="AJ65" s="162"/>
@@ -16393,7 +16608,9 @@
       <c r="BY65" s="209">
         <v>63</v>
       </c>
-      <c r="BZ65" s="209"/>
+      <c r="BZ65" s="219" t="s">
+        <v>1054</v>
+      </c>
       <c r="CA65" s="209"/>
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
@@ -16450,7 +16667,9 @@
       <c r="AF66" s="162">
         <v>64</v>
       </c>
-      <c r="AG66" s="162"/>
+      <c r="AG66" s="162" t="s">
+        <v>27</v>
+      </c>
       <c r="AH66" s="162"/>
       <c r="AI66" s="162"/>
       <c r="AJ66" s="162"/>
@@ -16519,7 +16738,9 @@
       <c r="BY66" s="209">
         <v>64</v>
       </c>
-      <c r="BZ66" s="209"/>
+      <c r="BZ66" s="219" t="s">
+        <v>1055</v>
+      </c>
       <c r="CA66" s="209"/>
       <c r="CB66" s="209"/>
       <c r="CC66" s="209"/>
@@ -16576,7 +16797,9 @@
       <c r="AF67" s="162">
         <v>65</v>
       </c>
-      <c r="AG67" s="162"/>
+      <c r="AG67" s="162" t="s">
+        <v>273</v>
+      </c>
       <c r="AH67" s="162"/>
       <c r="AI67" s="162"/>
       <c r="AJ67" s="162"/>
@@ -16645,7 +16868,9 @@
       <c r="BY67" s="209">
         <v>65</v>
       </c>
-      <c r="BZ67" s="209"/>
+      <c r="BZ67" s="219" t="s">
+        <v>1056</v>
+      </c>
       <c r="CA67" s="209"/>
       <c r="CB67" s="209"/>
       <c r="CC67" s="209"/>
@@ -16702,7 +16927,9 @@
       <c r="AF68" s="162">
         <v>66</v>
       </c>
-      <c r="AG68" s="162"/>
+      <c r="AG68" s="162" t="s">
+        <v>200</v>
+      </c>
       <c r="AH68" s="162"/>
       <c r="AI68" s="162"/>
       <c r="AJ68" s="162"/>
@@ -16771,7 +16998,9 @@
       <c r="BY68" s="209">
         <v>66</v>
       </c>
-      <c r="BZ68" s="209"/>
+      <c r="BZ68" s="219" t="s">
+        <v>1057</v>
+      </c>
       <c r="CA68" s="209"/>
       <c r="CB68" s="209"/>
       <c r="CC68" s="209"/>
@@ -16828,7 +17057,9 @@
       <c r="AF69" s="162">
         <v>67</v>
       </c>
-      <c r="AG69" s="162"/>
+      <c r="AG69" s="162" t="s">
+        <v>947</v>
+      </c>
       <c r="AH69" s="162"/>
       <c r="AI69" s="162"/>
       <c r="AJ69" s="162"/>
@@ -16897,7 +17128,9 @@
       <c r="BY69" s="209">
         <v>67</v>
       </c>
-      <c r="BZ69" s="209"/>
+      <c r="BZ69" s="219" t="s">
+        <v>952</v>
+      </c>
       <c r="CA69" s="209"/>
       <c r="CB69" s="209"/>
       <c r="CC69" s="209"/>
@@ -16954,7 +17187,9 @@
       <c r="AF70" s="162">
         <v>68</v>
       </c>
-      <c r="AG70" s="162"/>
+      <c r="AG70" s="162" t="s">
+        <v>1060</v>
+      </c>
       <c r="AH70" s="162"/>
       <c r="AI70" s="162"/>
       <c r="AJ70" s="162"/>
@@ -17023,7 +17258,9 @@
       <c r="BY70" s="209">
         <v>68</v>
       </c>
-      <c r="BZ70" s="209"/>
+      <c r="BZ70" s="219" t="s">
+        <v>83</v>
+      </c>
       <c r="CA70" s="209"/>
       <c r="CB70" s="209"/>
       <c r="CC70" s="209"/>
@@ -17080,7 +17317,9 @@
       <c r="AF71" s="162">
         <v>69</v>
       </c>
-      <c r="AG71" s="162"/>
+      <c r="AG71" s="162" t="s">
+        <v>1061</v>
+      </c>
       <c r="AH71" s="162"/>
       <c r="AI71" s="162"/>
       <c r="AJ71" s="162"/>
@@ -17149,7 +17388,9 @@
       <c r="BY71" s="209">
         <v>69</v>
       </c>
-      <c r="BZ71" s="209"/>
+      <c r="BZ71" s="219" t="s">
+        <v>437</v>
+      </c>
       <c r="CA71" s="209"/>
       <c r="CB71" s="209"/>
       <c r="CC71" s="209"/>
@@ -17206,7 +17447,9 @@
       <c r="AF72" s="162">
         <v>70</v>
       </c>
-      <c r="AG72" s="162"/>
+      <c r="AG72" s="162" t="s">
+        <v>1062</v>
+      </c>
       <c r="AH72" s="162"/>
       <c r="AI72" s="162"/>
       <c r="AJ72" s="162"/>
@@ -17275,7 +17518,9 @@
       <c r="BY72" s="209">
         <v>70</v>
       </c>
-      <c r="BZ72" s="209"/>
+      <c r="BZ72" s="219" t="s">
+        <v>1054</v>
+      </c>
       <c r="CA72" s="209"/>
       <c r="CB72" s="209"/>
       <c r="CC72" s="209"/>
@@ -17332,7 +17577,9 @@
       <c r="AF73" s="162">
         <v>71</v>
       </c>
-      <c r="AG73" s="162"/>
+      <c r="AG73" s="162" t="s">
+        <v>968</v>
+      </c>
       <c r="AH73" s="162"/>
       <c r="AI73" s="162"/>
       <c r="AJ73" s="162"/>
@@ -17401,7 +17648,9 @@
       <c r="BY73" s="209">
         <v>71</v>
       </c>
-      <c r="BZ73" s="209"/>
+      <c r="BZ73" s="219" t="s">
+        <v>1051</v>
+      </c>
       <c r="CA73" s="209"/>
       <c r="CB73" s="209"/>
       <c r="CC73" s="209"/>
@@ -17458,7 +17707,9 @@
       <c r="AF74" s="162">
         <v>72</v>
       </c>
-      <c r="AG74" s="162"/>
+      <c r="AG74" s="162" t="s">
+        <v>460</v>
+      </c>
       <c r="AH74" s="162"/>
       <c r="AI74" s="162"/>
       <c r="AJ74" s="162"/>
@@ -17527,7 +17778,9 @@
       <c r="BY74" s="209">
         <v>72</v>
       </c>
-      <c r="BZ74" s="209"/>
+      <c r="BZ74" s="219" t="s">
+        <v>1002</v>
+      </c>
       <c r="CA74" s="209"/>
       <c r="CB74" s="209"/>
       <c r="CC74" s="209"/>
@@ -17584,7 +17837,9 @@
       <c r="AF75" s="162">
         <v>73</v>
       </c>
-      <c r="AG75" s="162"/>
+      <c r="AG75" s="162" t="s">
+        <v>408</v>
+      </c>
       <c r="AH75" s="162"/>
       <c r="AI75" s="162"/>
       <c r="AJ75" s="162"/>
@@ -17653,7 +17908,9 @@
       <c r="BY75" s="209">
         <v>73</v>
       </c>
-      <c r="BZ75" s="209"/>
+      <c r="BZ75" s="219" t="s">
+        <v>1047</v>
+      </c>
       <c r="CA75" s="209"/>
       <c r="CB75" s="209"/>
       <c r="CC75" s="209"/>
@@ -17710,7 +17967,9 @@
       <c r="AF76" s="162">
         <v>74</v>
       </c>
-      <c r="AG76" s="162"/>
+      <c r="AG76" s="162" t="s">
+        <v>417</v>
+      </c>
       <c r="AH76" s="162"/>
       <c r="AI76" s="162"/>
       <c r="AJ76" s="162"/>
@@ -17779,7 +18038,9 @@
       <c r="BY76" s="209">
         <v>74</v>
       </c>
-      <c r="BZ76" s="209"/>
+      <c r="BZ76" s="219" t="s">
+        <v>606</v>
+      </c>
       <c r="CA76" s="209"/>
       <c r="CB76" s="209"/>
       <c r="CC76" s="209"/>
@@ -17836,7 +18097,9 @@
       <c r="AF77" s="162">
         <v>75</v>
       </c>
-      <c r="AG77" s="162"/>
+      <c r="AG77" s="162" t="s">
+        <v>423</v>
+      </c>
       <c r="AH77" s="162"/>
       <c r="AI77" s="162"/>
       <c r="AJ77" s="162"/>
@@ -17905,7 +18168,9 @@
       <c r="BY77" s="209">
         <v>75</v>
       </c>
-      <c r="BZ77" s="209"/>
+      <c r="BZ77" s="219" t="s">
+        <v>1053</v>
+      </c>
       <c r="CA77" s="209"/>
       <c r="CB77" s="209"/>
       <c r="CC77" s="209"/>
@@ -17962,7 +18227,9 @@
       <c r="AF78" s="162">
         <v>76</v>
       </c>
-      <c r="AG78" s="162"/>
+      <c r="AG78" s="162" t="s">
+        <v>27</v>
+      </c>
       <c r="AH78" s="162"/>
       <c r="AI78" s="162"/>
       <c r="AJ78" s="162"/>
@@ -18031,7 +18298,9 @@
       <c r="BY78" s="209">
         <v>76</v>
       </c>
-      <c r="BZ78" s="209"/>
+      <c r="BZ78" s="219" t="s">
+        <v>353</v>
+      </c>
       <c r="CA78" s="209"/>
       <c r="CB78" s="209"/>
       <c r="CC78" s="209"/>
@@ -18088,7 +18357,9 @@
       <c r="AF79" s="162">
         <v>77</v>
       </c>
-      <c r="AG79" s="162"/>
+      <c r="AG79" s="162" t="s">
+        <v>1021</v>
+      </c>
       <c r="AH79" s="162"/>
       <c r="AI79" s="162"/>
       <c r="AJ79" s="162"/>
@@ -18157,7 +18428,9 @@
       <c r="BY79" s="209">
         <v>77</v>
       </c>
-      <c r="BZ79" s="209"/>
+      <c r="BZ79" s="219" t="s">
+        <v>57</v>
+      </c>
       <c r="CA79" s="209"/>
       <c r="CB79" s="209"/>
       <c r="CC79" s="209"/>
@@ -18214,7 +18487,9 @@
       <c r="AF80" s="162">
         <v>78</v>
       </c>
-      <c r="AG80" s="162"/>
+      <c r="AG80" s="162" t="s">
+        <v>460</v>
+      </c>
       <c r="AH80" s="162"/>
       <c r="AI80" s="162"/>
       <c r="AJ80" s="162"/>
@@ -18283,7 +18558,9 @@
       <c r="BY80" s="209">
         <v>78</v>
       </c>
-      <c r="BZ80" s="209"/>
+      <c r="BZ80" s="219" t="s">
+        <v>1051</v>
+      </c>
       <c r="CA80" s="209"/>
       <c r="CB80" s="209"/>
       <c r="CC80" s="209"/>
@@ -18340,7 +18617,9 @@
       <c r="AF81" s="162">
         <v>79</v>
       </c>
-      <c r="AG81" s="162"/>
+      <c r="AG81" s="162" t="s">
+        <v>1018</v>
+      </c>
       <c r="AH81" s="162"/>
       <c r="AI81" s="162"/>
       <c r="AJ81" s="162"/>
@@ -18409,7 +18688,9 @@
       <c r="BY81" s="209">
         <v>79</v>
       </c>
-      <c r="BZ81" s="209"/>
+      <c r="BZ81" s="219" t="s">
+        <v>606</v>
+      </c>
       <c r="CA81" s="209"/>
       <c r="CB81" s="209"/>
       <c r="CC81" s="209"/>
@@ -18466,7 +18747,9 @@
       <c r="AF82" s="162">
         <v>80</v>
       </c>
-      <c r="AG82" s="162"/>
+      <c r="AG82" s="162" t="s">
+        <v>463</v>
+      </c>
       <c r="AH82" s="162"/>
       <c r="AI82" s="162"/>
       <c r="AJ82" s="162"/>
@@ -18535,7 +18818,9 @@
       <c r="BY82" s="209">
         <v>80</v>
       </c>
-      <c r="BZ82" s="209"/>
+      <c r="BZ82" s="219" t="s">
+        <v>1049</v>
+      </c>
       <c r="CA82" s="209"/>
       <c r="CB82" s="209"/>
       <c r="CC82" s="209"/>
@@ -18592,7 +18877,9 @@
       <c r="AF83" s="162">
         <v>81</v>
       </c>
-      <c r="AG83" s="162"/>
+      <c r="AG83" s="162" t="s">
+        <v>171</v>
+      </c>
       <c r="AH83" s="162"/>
       <c r="AI83" s="162"/>
       <c r="AJ83" s="162"/>
@@ -18661,7 +18948,9 @@
       <c r="BY83" s="209">
         <v>81</v>
       </c>
-      <c r="BZ83" s="209"/>
+      <c r="BZ83" s="219" t="s">
+        <v>1047</v>
+      </c>
       <c r="CA83" s="209"/>
       <c r="CB83" s="209"/>
       <c r="CC83" s="209"/>
@@ -18718,7 +19007,9 @@
       <c r="AF84" s="162">
         <v>82</v>
       </c>
-      <c r="AG84" s="162"/>
+      <c r="AG84" s="162" t="s">
+        <v>171</v>
+      </c>
       <c r="AH84" s="162"/>
       <c r="AI84" s="162"/>
       <c r="AJ84" s="162"/>
@@ -18787,7 +19078,9 @@
       <c r="BY84" s="209">
         <v>82</v>
       </c>
-      <c r="BZ84" s="209"/>
+      <c r="BZ84" s="219" t="s">
+        <v>329</v>
+      </c>
       <c r="CA84" s="209"/>
       <c r="CB84" s="209"/>
       <c r="CC84" s="209"/>
@@ -18799,7 +19092,7 @@
       <c r="C85" s="212"/>
       <c r="D85" s="212">
         <f>SUM(D3:D84)</f>
-        <v>-4756</v>
+        <v>-4821</v>
       </c>
       <c r="E85" s="118">
         <f>SUM(E3:E84)</f>
@@ -18812,7 +19105,7 @@
       <c r="H85" s="212"/>
       <c r="I85" s="212">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-8104</v>
+        <v>-9079</v>
       </c>
       <c r="J85" s="118">
         <f t="shared" si="0"/>
@@ -18825,7 +19118,7 @@
       <c r="M85" s="212"/>
       <c r="N85" s="212">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-5226</v>
+        <v>-5441</v>
       </c>
       <c r="O85" s="118">
         <f t="shared" si="1"/>
@@ -18864,7 +19157,7 @@
       <c r="AB85" s="212"/>
       <c r="AC85" s="212">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-22932</v>
+        <v>-22992</v>
       </c>
       <c r="AD85" s="118">
         <f t="shared" si="4"/>
@@ -18877,7 +19170,7 @@
       <c r="AG85" s="212"/>
       <c r="AH85" s="212">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-5104</v>
+        <v>-5164</v>
       </c>
       <c r="AI85" s="118">
         <f t="shared" si="5"/>
@@ -18890,7 +19183,7 @@
       <c r="AL85" s="212"/>
       <c r="AM85" s="212">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-13056</v>
+        <v>-13131</v>
       </c>
       <c r="AN85" s="118">
         <f t="shared" si="6"/>
@@ -18920,7 +19213,7 @@
       </c>
       <c r="AX85" s="118">
         <f t="shared" si="8"/>
-        <v>1857</v>
+        <v>1987</v>
       </c>
       <c r="AY85" s="212"/>
       <c r="AZ85" s="211" t="s">
@@ -18942,7 +19235,7 @@
       <c r="BF85" s="212"/>
       <c r="BG85" s="212">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-6542</v>
+        <v>-7007</v>
       </c>
       <c r="BH85" s="118">
         <f t="shared" si="10"/>
@@ -18955,7 +19248,7 @@
       <c r="BK85" s="212"/>
       <c r="BL85" s="212">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-6352</v>
+        <v>-6412</v>
       </c>
       <c r="BM85" s="118">
         <f t="shared" si="11"/>
@@ -18994,7 +19287,7 @@
       <c r="BZ85" s="212"/>
       <c r="CA85" s="212">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-6729</v>
+        <v>-6789</v>
       </c>
       <c r="CB85" s="118">
         <f t="shared" si="14"/>
@@ -19003,29 +19296,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81">
-      <c r="H92" s="213" t="s">
+      <c r="H92" s="214" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="213">
+      <c r="I92" s="214">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>32193</v>
-      </c>
-      <c r="J92" s="213"/>
+        <v>32323</v>
+      </c>
+      <c r="J92" s="214"/>
     </row>
     <row r="93" spans="2:81">
-      <c r="H93" s="213"/>
-      <c r="I93" s="213"/>
-      <c r="J93" s="213"/>
+      <c r="H93" s="214"/>
+      <c r="I93" s="214"/>
+      <c r="J93" s="214"/>
     </row>
     <row r="94" spans="2:81">
-      <c r="H94" s="213"/>
-      <c r="I94" s="213"/>
-      <c r="J94" s="213"/>
+      <c r="H94" s="214"/>
+      <c r="I94" s="214"/>
+      <c r="J94" s="214"/>
     </row>
     <row r="95" spans="2:81">
-      <c r="H95" s="213"/>
-      <c r="I95" s="213"/>
-      <c r="J95" s="213"/>
+      <c r="H95" s="214"/>
+      <c r="I95" s="214"/>
+      <c r="J95" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19041,8 +19334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="S19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52:Y52"/>
+    <sheetView topLeftCell="A64" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AE48" sqref="AE48:AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -27894,13 +28187,17 @@
         <v>300</v>
       </c>
       <c r="AD48" s="16"/>
-      <c r="AE48" s="57">
+      <c r="AE48" s="86">
         <v>46</v>
       </c>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
+      <c r="AF48" s="86" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AG48" s="86">
+        <v>-215</v>
+      </c>
+      <c r="AH48" s="86"/>
+      <c r="AI48" s="86"/>
       <c r="AJ48" s="17">
         <v>46</v>
       </c>
@@ -28357,13 +28654,17 @@
         <v>91</v>
       </c>
       <c r="BR50" s="16"/>
-      <c r="BS50" s="109">
+      <c r="BS50" s="86">
         <v>48</v>
       </c>
-      <c r="BT50" s="99"/>
-      <c r="BU50" s="99"/>
-      <c r="BV50" s="99"/>
-      <c r="BW50" s="99"/>
+      <c r="BT50" s="86" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BU50" s="86">
+        <v>-65</v>
+      </c>
+      <c r="BV50" s="86"/>
+      <c r="BW50" s="86"/>
       <c r="BX50" s="17">
         <v>48</v>
       </c>
@@ -28571,15 +28872,17 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="37">
+      <c r="K52" s="86">
         <v>50</v>
       </c>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="86" t="s">
         <v>894</v>
       </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="38"/>
+      <c r="M52" s="86">
+        <v>-155</v>
+      </c>
+      <c r="N52" s="86"/>
+      <c r="O52" s="216"/>
       <c r="P52" s="32">
         <v>50</v>
       </c>
@@ -28591,24 +28894,31 @@
       </c>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
-      <c r="U52" s="215">
+      <c r="U52" s="47">
         <v>50</v>
       </c>
-      <c r="V52" s="86" t="s">
+      <c r="V52" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="W52" s="86">
+      <c r="W52" s="16">
         <v>-415</v>
       </c>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
-      <c r="Z52" s="49">
+      <c r="X52" s="16">
+        <f>1826+SUM(W44:W52)</f>
+        <v>341</v>
+      </c>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="217">
         <v>50</v>
       </c>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
-      <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
+      <c r="AA52" s="217" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB52" s="217">
+        <v>-60</v>
+      </c>
+      <c r="AC52" s="217"/>
+      <c r="AD52" s="217"/>
       <c r="AE52" s="57">
         <v>50</v>
       </c>
@@ -28661,13 +28971,17 @@
       <c r="BF52" s="87"/>
       <c r="BG52" s="87"/>
       <c r="BH52" s="87"/>
-      <c r="BI52" s="99">
+      <c r="BI52" s="86">
         <v>50</v>
       </c>
-      <c r="BJ52" s="99"/>
-      <c r="BK52" s="99"/>
-      <c r="BL52" s="99"/>
-      <c r="BM52" s="99"/>
+      <c r="BJ52" s="86" t="s">
+        <v>547</v>
+      </c>
+      <c r="BK52" s="86">
+        <v>-60</v>
+      </c>
+      <c r="BL52" s="86"/>
+      <c r="BM52" s="86"/>
       <c r="BN52" s="17">
         <v>50</v>
       </c>
@@ -28735,19 +29049,23 @@
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
-      <c r="U53" s="42">
+      <c r="U53" s="213">
         <v>51</v>
       </c>
-      <c r="V53" s="44" t="s">
+      <c r="V53" s="86" t="s">
         <v>899</v>
       </c>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
+      <c r="W53" s="86">
+        <v>-60</v>
+      </c>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
       <c r="Z53" s="49">
         <v>51</v>
       </c>
-      <c r="AA53" s="49"/>
+      <c r="AA53" s="218" t="s">
+        <v>992</v>
+      </c>
       <c r="AB53" s="49"/>
       <c r="AC53" s="49"/>
       <c r="AD53" s="49"/>
@@ -28890,7 +29208,9 @@
       <c r="Z54" s="49">
         <v>52</v>
       </c>
-      <c r="AA54" s="49"/>
+      <c r="AA54" s="218" t="s">
+        <v>1032</v>
+      </c>
       <c r="AB54" s="49"/>
       <c r="AC54" s="49"/>
       <c r="AD54" s="49"/>
@@ -28943,13 +29263,17 @@
       <c r="BK54" s="99"/>
       <c r="BL54" s="99"/>
       <c r="BM54" s="99"/>
-      <c r="BN54" s="110">
+      <c r="BN54" s="86">
         <v>52</v>
       </c>
-      <c r="BO54" s="110"/>
-      <c r="BP54" s="110"/>
-      <c r="BQ54" s="110"/>
-      <c r="BR54" s="110"/>
+      <c r="BO54" s="86" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BP54" s="86">
+        <v>-90</v>
+      </c>
+      <c r="BQ54" s="86"/>
+      <c r="BR54" s="86"/>
       <c r="BS54" s="109">
         <v>52</v>
       </c>
@@ -29014,7 +29338,9 @@
       <c r="Z55" s="49">
         <v>53</v>
       </c>
-      <c r="AA55" s="49"/>
+      <c r="AA55" s="218" t="s">
+        <v>559</v>
+      </c>
       <c r="AB55" s="49"/>
       <c r="AC55" s="49"/>
       <c r="AD55" s="49"/>
@@ -29138,7 +29464,9 @@
       <c r="Z56" s="49">
         <v>54</v>
       </c>
-      <c r="AA56" s="49"/>
+      <c r="AA56" s="218" t="s">
+        <v>820</v>
+      </c>
       <c r="AB56" s="49"/>
       <c r="AC56" s="49"/>
       <c r="AD56" s="49"/>
@@ -29262,7 +29590,9 @@
       <c r="Z57" s="49">
         <v>55</v>
       </c>
-      <c r="AA57" s="49"/>
+      <c r="AA57" s="218" t="s">
+        <v>1033</v>
+      </c>
       <c r="AB57" s="49"/>
       <c r="AC57" s="49"/>
       <c r="AD57" s="49"/>
@@ -29386,7 +29716,9 @@
       <c r="Z58" s="49">
         <v>56</v>
       </c>
-      <c r="AA58" s="49"/>
+      <c r="AA58" s="218" t="s">
+        <v>568</v>
+      </c>
       <c r="AB58" s="49"/>
       <c r="AC58" s="49"/>
       <c r="AD58" s="49"/>
@@ -29510,7 +29842,9 @@
       <c r="Z59" s="49">
         <v>57</v>
       </c>
-      <c r="AA59" s="49"/>
+      <c r="AA59" s="218" t="s">
+        <v>1022</v>
+      </c>
       <c r="AB59" s="49"/>
       <c r="AC59" s="49"/>
       <c r="AD59" s="49"/>
@@ -29634,7 +29968,9 @@
       <c r="Z60" s="49">
         <v>58</v>
       </c>
-      <c r="AA60" s="49"/>
+      <c r="AA60" s="218" t="s">
+        <v>1034</v>
+      </c>
       <c r="AB60" s="49"/>
       <c r="AC60" s="49"/>
       <c r="AD60" s="49"/>
@@ -29758,7 +30094,9 @@
       <c r="Z61" s="49">
         <v>59</v>
       </c>
-      <c r="AA61" s="49"/>
+      <c r="AA61" s="218" t="s">
+        <v>572</v>
+      </c>
       <c r="AB61" s="49"/>
       <c r="AC61" s="49"/>
       <c r="AD61" s="49"/>
@@ -29882,7 +30220,9 @@
       <c r="Z62" s="49">
         <v>60</v>
       </c>
-      <c r="AA62" s="49"/>
+      <c r="AA62" s="218" t="s">
+        <v>1035</v>
+      </c>
       <c r="AB62" s="49"/>
       <c r="AC62" s="49"/>
       <c r="AD62" s="49"/>
@@ -30006,7 +30346,9 @@
       <c r="Z63" s="49">
         <v>61</v>
       </c>
-      <c r="AA63" s="49"/>
+      <c r="AA63" s="218" t="s">
+        <v>926</v>
+      </c>
       <c r="AB63" s="49"/>
       <c r="AC63" s="49"/>
       <c r="AD63" s="49"/>
@@ -30130,7 +30472,9 @@
       <c r="Z64" s="49">
         <v>62</v>
       </c>
-      <c r="AA64" s="49"/>
+      <c r="AA64" s="218" t="s">
+        <v>1036</v>
+      </c>
       <c r="AB64" s="49"/>
       <c r="AC64" s="49"/>
       <c r="AD64" s="49"/>
@@ -30254,7 +30598,9 @@
       <c r="Z65" s="49">
         <v>63</v>
       </c>
-      <c r="AA65" s="49"/>
+      <c r="AA65" s="218" t="s">
+        <v>1037</v>
+      </c>
       <c r="AB65" s="49"/>
       <c r="AC65" s="49"/>
       <c r="AD65" s="49"/>
@@ -30378,7 +30724,9 @@
       <c r="Z66" s="49">
         <v>64</v>
       </c>
-      <c r="AA66" s="49"/>
+      <c r="AA66" s="218" t="s">
+        <v>1038</v>
+      </c>
       <c r="AB66" s="49"/>
       <c r="AC66" s="49"/>
       <c r="AD66" s="49"/>
@@ -30502,7 +30850,9 @@
       <c r="Z67" s="49">
         <v>65</v>
       </c>
-      <c r="AA67" s="49"/>
+      <c r="AA67" s="218" t="s">
+        <v>646</v>
+      </c>
       <c r="AB67" s="49"/>
       <c r="AC67" s="49"/>
       <c r="AD67" s="49"/>
@@ -30626,7 +30976,9 @@
       <c r="Z68" s="49">
         <v>66</v>
       </c>
-      <c r="AA68" s="49"/>
+      <c r="AA68" s="218" t="s">
+        <v>1039</v>
+      </c>
       <c r="AB68" s="49"/>
       <c r="AC68" s="49"/>
       <c r="AD68" s="49"/>
@@ -30750,7 +31102,9 @@
       <c r="Z69" s="49">
         <v>67</v>
       </c>
-      <c r="AA69" s="49"/>
+      <c r="AA69" s="218" t="s">
+        <v>1040</v>
+      </c>
       <c r="AB69" s="49"/>
       <c r="AC69" s="49"/>
       <c r="AD69" s="49"/>
@@ -30874,7 +31228,9 @@
       <c r="Z70" s="49">
         <v>68</v>
       </c>
-      <c r="AA70" s="49"/>
+      <c r="AA70" s="218" t="s">
+        <v>1041</v>
+      </c>
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
       <c r="AD70" s="49"/>
@@ -30998,7 +31354,9 @@
       <c r="Z71" s="49">
         <v>69</v>
       </c>
-      <c r="AA71" s="49"/>
+      <c r="AA71" s="218" t="s">
+        <v>856</v>
+      </c>
       <c r="AB71" s="49"/>
       <c r="AC71" s="49"/>
       <c r="AD71" s="49"/>
@@ -31122,7 +31480,9 @@
       <c r="Z72" s="49">
         <v>70</v>
       </c>
-      <c r="AA72" s="49"/>
+      <c r="AA72" s="218" t="s">
+        <v>718</v>
+      </c>
       <c r="AB72" s="49"/>
       <c r="AC72" s="49"/>
       <c r="AD72" s="49"/>
@@ -31246,7 +31606,9 @@
       <c r="Z73" s="49">
         <v>71</v>
       </c>
-      <c r="AA73" s="49"/>
+      <c r="AA73" s="218" t="s">
+        <v>1042</v>
+      </c>
       <c r="AB73" s="49"/>
       <c r="AC73" s="49"/>
       <c r="AD73" s="49"/>
@@ -31370,7 +31732,9 @@
       <c r="Z74" s="49">
         <v>72</v>
       </c>
-      <c r="AA74" s="49"/>
+      <c r="AA74" s="218" t="s">
+        <v>962</v>
+      </c>
       <c r="AB74" s="49"/>
       <c r="AC74" s="49"/>
       <c r="AD74" s="49"/>
@@ -31494,7 +31858,9 @@
       <c r="Z75" s="49">
         <v>73</v>
       </c>
-      <c r="AA75" s="49"/>
+      <c r="AA75" s="218" t="s">
+        <v>1038</v>
+      </c>
       <c r="AB75" s="49"/>
       <c r="AC75" s="49"/>
       <c r="AD75" s="49"/>
@@ -31618,7 +31984,9 @@
       <c r="Z76" s="49">
         <v>74</v>
       </c>
-      <c r="AA76" s="49"/>
+      <c r="AA76" s="218" t="s">
+        <v>689</v>
+      </c>
       <c r="AB76" s="49"/>
       <c r="AC76" s="49"/>
       <c r="AD76" s="49"/>
@@ -31742,7 +32110,9 @@
       <c r="Z77" s="49">
         <v>75</v>
       </c>
-      <c r="AA77" s="49"/>
+      <c r="AA77" s="218" t="s">
+        <v>1043</v>
+      </c>
       <c r="AB77" s="49"/>
       <c r="AC77" s="49"/>
       <c r="AD77" s="49"/>
@@ -31866,7 +32236,9 @@
       <c r="Z78" s="49">
         <v>76</v>
       </c>
-      <c r="AA78" s="49"/>
+      <c r="AA78" s="218" t="s">
+        <v>1033</v>
+      </c>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
       <c r="AD78" s="49"/>
@@ -31990,7 +32362,9 @@
       <c r="Z79" s="49">
         <v>77</v>
       </c>
-      <c r="AA79" s="49"/>
+      <c r="AA79" s="218" t="s">
+        <v>865</v>
+      </c>
       <c r="AB79" s="49"/>
       <c r="AC79" s="49"/>
       <c r="AD79" s="49"/>
@@ -32114,7 +32488,9 @@
       <c r="Z80" s="49">
         <v>78</v>
       </c>
-      <c r="AA80" s="49"/>
+      <c r="AA80" s="218" t="s">
+        <v>926</v>
+      </c>
       <c r="AB80" s="49"/>
       <c r="AC80" s="49"/>
       <c r="AD80" s="49"/>
@@ -32238,7 +32614,9 @@
       <c r="Z81" s="49">
         <v>79</v>
       </c>
-      <c r="AA81" s="49"/>
+      <c r="AA81" s="218" t="s">
+        <v>1044</v>
+      </c>
       <c r="AB81" s="49"/>
       <c r="AC81" s="49"/>
       <c r="AD81" s="49"/>
@@ -32362,7 +32740,9 @@
       <c r="Z82" s="49">
         <v>80</v>
       </c>
-      <c r="AA82" s="49"/>
+      <c r="AA82" s="218" t="s">
+        <v>1036</v>
+      </c>
       <c r="AB82" s="49"/>
       <c r="AC82" s="49"/>
       <c r="AD82" s="49"/>
@@ -32486,7 +32866,9 @@
       <c r="Z83" s="49">
         <v>81</v>
       </c>
-      <c r="AA83" s="49"/>
+      <c r="AA83" s="218" t="s">
+        <v>810</v>
+      </c>
       <c r="AB83" s="49"/>
       <c r="AC83" s="49"/>
       <c r="AD83" s="49"/>
@@ -32610,7 +32992,9 @@
       <c r="Z84" s="49">
         <v>82</v>
       </c>
-      <c r="AA84" s="49"/>
+      <c r="AA84" s="218" t="s">
+        <v>633</v>
+      </c>
       <c r="AB84" s="49"/>
       <c r="AC84" s="49"/>
       <c r="AD84" s="49"/>
@@ -32718,7 +33102,7 @@
       <c r="L85" s="117"/>
       <c r="M85" s="117">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-9367</v>
+        <v>-9522</v>
       </c>
       <c r="N85" s="118">
         <f t="shared" si="1"/>
@@ -32744,11 +33128,11 @@
       <c r="V85" s="117"/>
       <c r="W85" s="117">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-23994</v>
+        <v>-24054</v>
       </c>
       <c r="X85" s="118">
         <f t="shared" si="3"/>
-        <v>1108</v>
+        <v>1449</v>
       </c>
       <c r="Y85" s="117"/>
       <c r="Z85" s="116" t="s">
@@ -32757,7 +33141,7 @@
       <c r="AA85" s="117"/>
       <c r="AB85" s="117">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-5860</v>
+        <v>-5920</v>
       </c>
       <c r="AC85" s="118">
         <f t="shared" si="4"/>
@@ -32770,7 +33154,7 @@
       <c r="AF85" s="117"/>
       <c r="AG85" s="117">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-7148</v>
+        <v>-7363</v>
       </c>
       <c r="AH85" s="118">
         <f t="shared" si="5"/>
@@ -32848,7 +33232,7 @@
       <c r="BJ85" s="117"/>
       <c r="BK85" s="117">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-10985</v>
+        <v>-11045</v>
       </c>
       <c r="BL85" s="118">
         <f t="shared" si="11"/>
@@ -32861,7 +33245,7 @@
       <c r="BO85" s="117"/>
       <c r="BP85" s="117">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-7542</v>
+        <v>-7632</v>
       </c>
       <c r="BQ85" s="118">
         <f t="shared" si="12"/>
@@ -32874,7 +33258,7 @@
       <c r="BT85" s="117"/>
       <c r="BU85" s="117">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-8217</v>
+        <v>-8282</v>
       </c>
       <c r="BV85" s="118">
         <f t="shared" si="13"/>
@@ -32899,29 +33283,29 @@
       </c>
     </row>
     <row r="95" spans="1:81">
-      <c r="G95" s="213" t="s">
+      <c r="G95" s="214" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="213">
+      <c r="H95" s="214">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>25066</v>
-      </c>
-      <c r="I95" s="213"/>
+        <v>25407</v>
+      </c>
+      <c r="I95" s="214"/>
     </row>
     <row r="96" spans="1:81">
-      <c r="G96" s="213"/>
-      <c r="H96" s="213"/>
-      <c r="I96" s="213"/>
+      <c r="G96" s="214"/>
+      <c r="H96" s="214"/>
+      <c r="I96" s="214"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="213"/>
-      <c r="H97" s="213"/>
-      <c r="I97" s="213"/>
+      <c r="G97" s="214"/>
+      <c r="H97" s="214"/>
+      <c r="I97" s="214"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="213"/>
-      <c r="H98" s="213"/>
-      <c r="I98" s="213"/>
+      <c r="G98" s="214"/>
+      <c r="H98" s="214"/>
+      <c r="I98" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32944,11 +33328,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="215" t="s">
         <v>984</v>
       </c>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1080">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3243,6 +3243,45 @@
   </si>
   <si>
     <t>Вегас - Эдмонтон</t>
+  </si>
+  <si>
+    <t>Флорида - Тампа</t>
+  </si>
+  <si>
+    <t>Нью Джерси - Тампа</t>
+  </si>
+  <si>
+    <t>Вегас - Тампа</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Тампа</t>
+  </si>
+  <si>
+    <t>Кингс - Тампа</t>
+  </si>
+  <si>
+    <t>Питтсбург - Тампа</t>
+  </si>
+  <si>
+    <t>Вегас - Миннесота</t>
+  </si>
+  <si>
+    <t>Аризона -Миннесота</t>
+  </si>
+  <si>
+    <t>Сент Луис - Миннесота</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Миннесота</t>
+  </si>
+  <si>
+    <t>Кингс - Миннисота</t>
+  </si>
+  <si>
+    <t>Филадельфия - Виннипег</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -4451,7 +4490,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4810,18 +4849,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
@@ -5143,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK50" sqref="AK50:AO50"/>
+    <sheetView topLeftCell="AE19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ55" sqref="BQ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13976,7 +14019,9 @@
         <v>-90</v>
       </c>
       <c r="BH47" s="73"/>
-      <c r="BI47" s="73"/>
+      <c r="BI47" s="73">
+        <v>-4.4000000000000004</v>
+      </c>
       <c r="BJ47" s="130">
         <v>45</v>
       </c>
@@ -14163,7 +14208,10 @@
         <v>-112</v>
       </c>
       <c r="BH48" s="73"/>
-      <c r="BI48" s="73"/>
+      <c r="BI48" s="73">
+        <f>BG54*BI47</f>
+        <v>2640</v>
+      </c>
       <c r="BJ48" s="130">
         <v>46</v>
       </c>
@@ -14353,18 +14401,21 @@
         <v>-155</v>
       </c>
       <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="118">
+      <c r="BI49" s="73">
+        <f>BI48+SUM(BG45:BG54)</f>
+        <v>150</v>
+      </c>
+      <c r="BJ49" s="73">
         <v>47</v>
       </c>
-      <c r="BK49" s="118" t="s">
+      <c r="BK49" s="73" t="s">
         <v>1065</v>
       </c>
-      <c r="BL49" s="118">
-        <v>-60</v>
-      </c>
-      <c r="BM49" s="118"/>
-      <c r="BN49" s="118"/>
+      <c r="BL49" s="73">
+        <v>-60</v>
+      </c>
+      <c r="BM49" s="73"/>
+      <c r="BN49" s="73"/>
       <c r="BO49" s="73">
         <v>47</v>
       </c>
@@ -14489,17 +14540,17 @@
       </c>
       <c r="AI50" s="73"/>
       <c r="AJ50" s="73"/>
-      <c r="AK50" s="118">
+      <c r="AK50" s="73">
         <v>48</v>
       </c>
-      <c r="AL50" s="118" t="s">
+      <c r="AL50" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="AM50" s="118">
+      <c r="AM50" s="73">
         <v>-75</v>
       </c>
-      <c r="AN50" s="118"/>
-      <c r="AO50" s="118"/>
+      <c r="AN50" s="73"/>
+      <c r="AO50" s="73"/>
       <c r="AP50" s="73">
         <v>48</v>
       </c>
@@ -14569,17 +14620,17 @@
       </c>
       <c r="BW50" s="73"/>
       <c r="BX50" s="73"/>
-      <c r="BY50" s="118">
+      <c r="BY50" s="73">
         <v>48</v>
       </c>
-      <c r="BZ50" s="220" t="s">
+      <c r="BZ50" s="73" t="s">
         <v>1045</v>
       </c>
-      <c r="CA50" s="118">
-        <v>-60</v>
-      </c>
-      <c r="CB50" s="118"/>
-      <c r="CC50" s="118"/>
+      <c r="CA50" s="73">
+        <v>-60</v>
+      </c>
+      <c r="CB50" s="73"/>
+      <c r="CC50" s="73"/>
     </row>
     <row r="51" spans="2:81" ht="15.75">
       <c r="B51" s="73">
@@ -14607,17 +14658,17 @@
         <f>K43+SUM(I40:I52)</f>
         <v>120</v>
       </c>
-      <c r="L51" s="118">
+      <c r="L51" s="73">
         <v>49</v>
       </c>
-      <c r="M51" s="118" t="s">
+      <c r="M51" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="N51" s="118">
+      <c r="N51" s="73">
         <v>-215</v>
       </c>
-      <c r="O51" s="118"/>
-      <c r="P51" s="221"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="139"/>
       <c r="Q51" s="73">
         <v>49</v>
       </c>
@@ -14668,13 +14719,17 @@
         <v>260</v>
       </c>
       <c r="AJ51" s="130"/>
-      <c r="AK51" s="153">
+      <c r="AK51" s="118">
         <v>49</v>
       </c>
-      <c r="AL51" s="153"/>
-      <c r="AM51" s="153"/>
-      <c r="AN51" s="153"/>
-      <c r="AO51" s="153"/>
+      <c r="AL51" s="218" t="s">
+        <v>897</v>
+      </c>
+      <c r="AM51" s="118">
+        <v>-90</v>
+      </c>
+      <c r="AN51" s="118"/>
+      <c r="AO51" s="118"/>
       <c r="AP51" s="130">
         <v>49</v>
       </c>
@@ -14736,57 +14791,63 @@
       </c>
       <c r="BR51" s="73"/>
       <c r="BS51" s="73"/>
-      <c r="BT51" s="204">
+      <c r="BT51" s="118">
         <v>49</v>
       </c>
-      <c r="BU51" s="204" t="s">
+      <c r="BU51" s="118" t="s">
         <v>992</v>
       </c>
-      <c r="BV51" s="204"/>
-      <c r="BW51" s="204"/>
-      <c r="BX51" s="204"/>
-      <c r="BY51" s="209">
+      <c r="BV51" s="118">
+        <v>-75</v>
+      </c>
+      <c r="BW51" s="118"/>
+      <c r="BX51" s="118"/>
+      <c r="BY51" s="118">
         <v>49</v>
       </c>
-      <c r="BZ51" s="219" t="s">
+      <c r="BZ51" s="218" t="s">
         <v>1046</v>
       </c>
-      <c r="CA51" s="209"/>
-      <c r="CB51" s="209"/>
-      <c r="CC51" s="209"/>
+      <c r="CA51" s="118">
+        <v>-65</v>
+      </c>
+      <c r="CB51" s="118"/>
+      <c r="CC51" s="118"/>
     </row>
     <row r="52" spans="2:81" ht="15.75">
-      <c r="B52" s="118">
+      <c r="B52" s="73">
         <v>50</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="D52" s="118">
+      <c r="D52" s="73">
         <v>-65</v>
       </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118">
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73">
         <v>50</v>
       </c>
-      <c r="H52" s="118" t="s">
+      <c r="H52" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="I52" s="118">
+      <c r="I52" s="73">
         <v>-975</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="140">
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="118">
         <v>50</v>
       </c>
-      <c r="M52" s="140" t="s">
+      <c r="M52" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="141"/>
+      <c r="N52" s="118">
+        <v>-298</v>
+      </c>
+      <c r="O52" s="118"/>
+      <c r="P52" s="219"/>
       <c r="Q52" s="73">
         <v>50</v>
       </c>
@@ -14812,28 +14873,28 @@
         <v>156</v>
       </c>
       <c r="Z52" s="130"/>
-      <c r="AA52" s="118">
+      <c r="AA52" s="73">
         <v>50</v>
       </c>
-      <c r="AB52" s="118" t="s">
+      <c r="AB52" s="73" t="s">
         <v>1063</v>
       </c>
-      <c r="AC52" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118">
+      <c r="AC52" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="73"/>
+      <c r="AF52" s="73">
         <v>50</v>
       </c>
-      <c r="AG52" s="118" t="s">
+      <c r="AG52" s="73" t="s">
         <v>1045</v>
       </c>
-      <c r="AH52" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
+      <c r="AH52" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AI52" s="73"/>
+      <c r="AJ52" s="73"/>
       <c r="AK52" s="153">
         <v>50</v>
       </c>
@@ -14914,23 +14975,25 @@
       <c r="BY52" s="209">
         <v>50</v>
       </c>
-      <c r="BZ52" s="219" t="s">
+      <c r="BZ52" s="217" t="s">
         <v>1047</v>
       </c>
       <c r="CA52" s="209"/>
       <c r="CB52" s="209"/>
       <c r="CC52" s="209"/>
     </row>
-    <row r="53" spans="2:81">
-      <c r="B53" s="132">
+    <row r="53" spans="2:81" ht="15.75">
+      <c r="B53" s="118">
         <v>51</v>
       </c>
-      <c r="C53" s="132" t="s">
+      <c r="C53" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
+      <c r="D53" s="118">
+        <v>-75</v>
+      </c>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
       <c r="G53" s="133">
         <v>51</v>
       </c>
@@ -14963,13 +15026,17 @@
       <c r="X53" s="153"/>
       <c r="Y53" s="153"/>
       <c r="Z53" s="153"/>
-      <c r="AA53" s="161">
+      <c r="AA53" s="118">
         <v>51</v>
       </c>
-      <c r="AB53" s="161"/>
-      <c r="AC53" s="161"/>
-      <c r="AD53" s="161"/>
-      <c r="AE53" s="161"/>
+      <c r="AB53" s="218" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC53" s="118">
+        <v>-65</v>
+      </c>
+      <c r="AD53" s="118"/>
+      <c r="AE53" s="118"/>
       <c r="AF53" s="162">
         <v>51</v>
       </c>
@@ -14986,24 +15053,28 @@
       <c r="AM53" s="153"/>
       <c r="AN53" s="153"/>
       <c r="AO53" s="153"/>
-      <c r="AP53" s="181">
+      <c r="AP53" s="118">
         <v>51</v>
       </c>
-      <c r="AQ53" s="181" t="s">
+      <c r="AQ53" s="118" t="s">
         <v>1004</v>
       </c>
-      <c r="AR53" s="181"/>
-      <c r="AS53" s="181"/>
-      <c r="AT53" s="181"/>
-      <c r="AU53" s="182">
+      <c r="AR53" s="118">
+        <v>-65</v>
+      </c>
+      <c r="AS53" s="118"/>
+      <c r="AT53" s="118"/>
+      <c r="AU53" s="118">
         <v>51</v>
       </c>
-      <c r="AV53" s="182" t="s">
+      <c r="AV53" s="118" t="s">
         <v>1020</v>
       </c>
-      <c r="AW53" s="182"/>
-      <c r="AX53" s="182"/>
-      <c r="AY53" s="182"/>
+      <c r="AW53" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AX53" s="118"/>
+      <c r="AY53" s="118"/>
       <c r="AZ53" s="190">
         <v>51</v>
       </c>
@@ -15011,17 +15082,17 @@
       <c r="BB53" s="190"/>
       <c r="BC53" s="190"/>
       <c r="BD53" s="190"/>
-      <c r="BE53" s="118">
+      <c r="BE53" s="73">
         <v>51</v>
       </c>
-      <c r="BF53" s="118" t="s">
+      <c r="BF53" s="73" t="s">
         <v>1064</v>
       </c>
-      <c r="BG53" s="118">
+      <c r="BG53" s="73">
         <v>-465</v>
       </c>
-      <c r="BH53" s="118"/>
-      <c r="BI53" s="118"/>
+      <c r="BH53" s="73"/>
+      <c r="BI53" s="73"/>
       <c r="BJ53" s="198">
         <v>51</v>
       </c>
@@ -15029,13 +15100,17 @@
       <c r="BL53" s="198"/>
       <c r="BM53" s="198"/>
       <c r="BN53" s="198"/>
-      <c r="BO53" s="152">
+      <c r="BO53" s="118">
         <v>51</v>
       </c>
-      <c r="BP53" s="152"/>
-      <c r="BQ53" s="152"/>
-      <c r="BR53" s="152"/>
-      <c r="BS53" s="152"/>
+      <c r="BP53" s="218" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BQ53" s="118">
+        <v>-298</v>
+      </c>
+      <c r="BR53" s="118"/>
+      <c r="BS53" s="118"/>
       <c r="BT53" s="204">
         <v>51</v>
       </c>
@@ -15048,7 +15123,7 @@
       <c r="BY53" s="209">
         <v>51</v>
       </c>
-      <c r="BZ53" s="219" t="s">
+      <c r="BZ53" s="217" t="s">
         <v>1048</v>
       </c>
       <c r="CA53" s="209"/>
@@ -15145,13 +15220,17 @@
       <c r="BB54" s="190"/>
       <c r="BC54" s="190"/>
       <c r="BD54" s="190"/>
-      <c r="BE54" s="199">
+      <c r="BE54" s="118">
         <v>52</v>
       </c>
-      <c r="BF54" s="199"/>
-      <c r="BG54" s="199"/>
-      <c r="BH54" s="199"/>
-      <c r="BI54" s="199"/>
+      <c r="BF54" s="218" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BG54" s="118">
+        <v>-600</v>
+      </c>
+      <c r="BH54" s="118"/>
+      <c r="BI54" s="118"/>
       <c r="BJ54" s="198">
         <v>52</v>
       </c>
@@ -15159,13 +15238,17 @@
       <c r="BL54" s="198"/>
       <c r="BM54" s="198"/>
       <c r="BN54" s="198"/>
-      <c r="BO54" s="152">
+      <c r="BO54" s="118">
         <v>52</v>
       </c>
-      <c r="BP54" s="152"/>
-      <c r="BQ54" s="152"/>
-      <c r="BR54" s="152"/>
-      <c r="BS54" s="152"/>
+      <c r="BP54" s="218" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BQ54" s="218" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BR54" s="118"/>
+      <c r="BS54" s="118"/>
       <c r="BT54" s="204">
         <v>52</v>
       </c>
@@ -15178,7 +15261,7 @@
       <c r="BY54" s="209">
         <v>52</v>
       </c>
-      <c r="BZ54" s="219" t="s">
+      <c r="BZ54" s="217" t="s">
         <v>907</v>
       </c>
       <c r="CA54" s="209"/>
@@ -15292,7 +15375,9 @@
       <c r="BO55" s="152">
         <v>53</v>
       </c>
-      <c r="BP55" s="152"/>
+      <c r="BP55" s="223" t="s">
+        <v>139</v>
+      </c>
       <c r="BQ55" s="152"/>
       <c r="BR55" s="152"/>
       <c r="BS55" s="152"/>
@@ -15308,7 +15393,7 @@
       <c r="BY55" s="209">
         <v>53</v>
       </c>
-      <c r="BZ55" s="219" t="s">
+      <c r="BZ55" s="217" t="s">
         <v>64</v>
       </c>
       <c r="CA55" s="209"/>
@@ -15422,7 +15507,9 @@
       <c r="BO56" s="152">
         <v>54</v>
       </c>
-      <c r="BP56" s="152"/>
+      <c r="BP56" s="223" t="s">
+        <v>438</v>
+      </c>
       <c r="BQ56" s="152"/>
       <c r="BR56" s="152"/>
       <c r="BS56" s="152"/>
@@ -15438,7 +15525,7 @@
       <c r="BY56" s="209">
         <v>54</v>
       </c>
-      <c r="BZ56" s="219" t="s">
+      <c r="BZ56" s="217" t="s">
         <v>428</v>
       </c>
       <c r="CA56" s="209"/>
@@ -15552,7 +15639,9 @@
       <c r="BO57" s="152">
         <v>55</v>
       </c>
-      <c r="BP57" s="152"/>
+      <c r="BP57" s="223" t="s">
+        <v>278</v>
+      </c>
       <c r="BQ57" s="152"/>
       <c r="BR57" s="152"/>
       <c r="BS57" s="152"/>
@@ -15568,7 +15657,7 @@
       <c r="BY57" s="209">
         <v>55</v>
       </c>
-      <c r="BZ57" s="219" t="s">
+      <c r="BZ57" s="217" t="s">
         <v>1049</v>
       </c>
       <c r="CA57" s="209"/>
@@ -15682,7 +15771,9 @@
       <c r="BO58" s="152">
         <v>56</v>
       </c>
-      <c r="BP58" s="152"/>
+      <c r="BP58" s="223" t="s">
+        <v>1067</v>
+      </c>
       <c r="BQ58" s="152"/>
       <c r="BR58" s="152"/>
       <c r="BS58" s="152"/>
@@ -15698,7 +15789,7 @@
       <c r="BY58" s="209">
         <v>56</v>
       </c>
-      <c r="BZ58" s="219" t="s">
+      <c r="BZ58" s="217" t="s">
         <v>1046</v>
       </c>
       <c r="CA58" s="209"/>
@@ -15812,7 +15903,9 @@
       <c r="BO59" s="152">
         <v>57</v>
       </c>
-      <c r="BP59" s="152"/>
+      <c r="BP59" s="223" t="s">
+        <v>53</v>
+      </c>
       <c r="BQ59" s="152"/>
       <c r="BR59" s="152"/>
       <c r="BS59" s="152"/>
@@ -15828,7 +15921,7 @@
       <c r="BY59" s="209">
         <v>57</v>
       </c>
-      <c r="BZ59" s="219" t="s">
+      <c r="BZ59" s="217" t="s">
         <v>1050</v>
       </c>
       <c r="CA59" s="209"/>
@@ -15942,7 +16035,9 @@
       <c r="BO60" s="152">
         <v>58</v>
       </c>
-      <c r="BP60" s="152"/>
+      <c r="BP60" s="223" t="s">
+        <v>386</v>
+      </c>
       <c r="BQ60" s="152"/>
       <c r="BR60" s="152"/>
       <c r="BS60" s="152"/>
@@ -15958,7 +16053,7 @@
       <c r="BY60" s="209">
         <v>58</v>
       </c>
-      <c r="BZ60" s="219" t="s">
+      <c r="BZ60" s="217" t="s">
         <v>1051</v>
       </c>
       <c r="CA60" s="209"/>
@@ -16072,7 +16167,9 @@
       <c r="BO61" s="152">
         <v>59</v>
       </c>
-      <c r="BP61" s="152"/>
+      <c r="BP61" s="223" t="s">
+        <v>1004</v>
+      </c>
       <c r="BQ61" s="152"/>
       <c r="BR61" s="152"/>
       <c r="BS61" s="152"/>
@@ -16088,7 +16185,7 @@
       <c r="BY61" s="209">
         <v>59</v>
       </c>
-      <c r="BZ61" s="219" t="s">
+      <c r="BZ61" s="217" t="s">
         <v>1052</v>
       </c>
       <c r="CA61" s="209"/>
@@ -16202,7 +16299,9 @@
       <c r="BO62" s="152">
         <v>60</v>
       </c>
-      <c r="BP62" s="152"/>
+      <c r="BP62" s="223" t="s">
+        <v>1068</v>
+      </c>
       <c r="BQ62" s="152"/>
       <c r="BR62" s="152"/>
       <c r="BS62" s="152"/>
@@ -16218,7 +16317,7 @@
       <c r="BY62" s="209">
         <v>60</v>
       </c>
-      <c r="BZ62" s="219" t="s">
+      <c r="BZ62" s="217" t="s">
         <v>931</v>
       </c>
       <c r="CA62" s="209"/>
@@ -16332,7 +16431,9 @@
       <c r="BO63" s="152">
         <v>61</v>
       </c>
-      <c r="BP63" s="152"/>
+      <c r="BP63" s="223" t="s">
+        <v>544</v>
+      </c>
       <c r="BQ63" s="152"/>
       <c r="BR63" s="152"/>
       <c r="BS63" s="152"/>
@@ -16348,7 +16449,7 @@
       <c r="BY63" s="209">
         <v>61</v>
       </c>
-      <c r="BZ63" s="219" t="s">
+      <c r="BZ63" s="217" t="s">
         <v>1053</v>
       </c>
       <c r="CA63" s="209"/>
@@ -16462,7 +16563,9 @@
       <c r="BO64" s="152">
         <v>62</v>
       </c>
-      <c r="BP64" s="152"/>
+      <c r="BP64" s="223" t="s">
+        <v>68</v>
+      </c>
       <c r="BQ64" s="152"/>
       <c r="BR64" s="152"/>
       <c r="BS64" s="152"/>
@@ -16478,7 +16581,7 @@
       <c r="BY64" s="209">
         <v>62</v>
       </c>
-      <c r="BZ64" s="219" t="s">
+      <c r="BZ64" s="217" t="s">
         <v>939</v>
       </c>
       <c r="CA64" s="209"/>
@@ -16592,7 +16695,9 @@
       <c r="BO65" s="152">
         <v>63</v>
       </c>
-      <c r="BP65" s="152"/>
+      <c r="BP65" s="223" t="s">
+        <v>160</v>
+      </c>
       <c r="BQ65" s="152"/>
       <c r="BR65" s="152"/>
       <c r="BS65" s="152"/>
@@ -16608,7 +16713,7 @@
       <c r="BY65" s="209">
         <v>63</v>
       </c>
-      <c r="BZ65" s="219" t="s">
+      <c r="BZ65" s="217" t="s">
         <v>1054</v>
       </c>
       <c r="CA65" s="209"/>
@@ -16722,7 +16827,9 @@
       <c r="BO66" s="152">
         <v>64</v>
       </c>
-      <c r="BP66" s="152"/>
+      <c r="BP66" s="223" t="s">
+        <v>396</v>
+      </c>
       <c r="BQ66" s="152"/>
       <c r="BR66" s="152"/>
       <c r="BS66" s="152"/>
@@ -16738,7 +16845,7 @@
       <c r="BY66" s="209">
         <v>64</v>
       </c>
-      <c r="BZ66" s="219" t="s">
+      <c r="BZ66" s="217" t="s">
         <v>1055</v>
       </c>
       <c r="CA66" s="209"/>
@@ -16852,7 +16959,9 @@
       <c r="BO67" s="152">
         <v>65</v>
       </c>
-      <c r="BP67" s="152"/>
+      <c r="BP67" s="223" t="s">
+        <v>544</v>
+      </c>
       <c r="BQ67" s="152"/>
       <c r="BR67" s="152"/>
       <c r="BS67" s="152"/>
@@ -16868,7 +16977,7 @@
       <c r="BY67" s="209">
         <v>65</v>
       </c>
-      <c r="BZ67" s="219" t="s">
+      <c r="BZ67" s="217" t="s">
         <v>1056</v>
       </c>
       <c r="CA67" s="209"/>
@@ -16982,7 +17091,9 @@
       <c r="BO68" s="152">
         <v>66</v>
       </c>
-      <c r="BP68" s="152"/>
+      <c r="BP68" s="223" t="s">
+        <v>1020</v>
+      </c>
       <c r="BQ68" s="152"/>
       <c r="BR68" s="152"/>
       <c r="BS68" s="152"/>
@@ -16998,7 +17109,7 @@
       <c r="BY68" s="209">
         <v>66</v>
       </c>
-      <c r="BZ68" s="219" t="s">
+      <c r="BZ68" s="217" t="s">
         <v>1057</v>
       </c>
       <c r="CA68" s="209"/>
@@ -17112,7 +17223,9 @@
       <c r="BO69" s="152">
         <v>67</v>
       </c>
-      <c r="BP69" s="152"/>
+      <c r="BP69" s="223" t="s">
+        <v>1067</v>
+      </c>
       <c r="BQ69" s="152"/>
       <c r="BR69" s="152"/>
       <c r="BS69" s="152"/>
@@ -17128,7 +17241,7 @@
       <c r="BY69" s="209">
         <v>67</v>
       </c>
-      <c r="BZ69" s="219" t="s">
+      <c r="BZ69" s="217" t="s">
         <v>952</v>
       </c>
       <c r="CA69" s="209"/>
@@ -17242,7 +17355,9 @@
       <c r="BO70" s="152">
         <v>68</v>
       </c>
-      <c r="BP70" s="152"/>
+      <c r="BP70" s="223" t="s">
+        <v>1069</v>
+      </c>
       <c r="BQ70" s="152"/>
       <c r="BR70" s="152"/>
       <c r="BS70" s="152"/>
@@ -17258,7 +17373,7 @@
       <c r="BY70" s="209">
         <v>68</v>
       </c>
-      <c r="BZ70" s="219" t="s">
+      <c r="BZ70" s="217" t="s">
         <v>83</v>
       </c>
       <c r="CA70" s="209"/>
@@ -17372,7 +17487,9 @@
       <c r="BO71" s="152">
         <v>69</v>
       </c>
-      <c r="BP71" s="152"/>
+      <c r="BP71" s="223" t="s">
+        <v>1070</v>
+      </c>
       <c r="BQ71" s="152"/>
       <c r="BR71" s="152"/>
       <c r="BS71" s="152"/>
@@ -17388,7 +17505,7 @@
       <c r="BY71" s="209">
         <v>69</v>
       </c>
-      <c r="BZ71" s="219" t="s">
+      <c r="BZ71" s="217" t="s">
         <v>437</v>
       </c>
       <c r="CA71" s="209"/>
@@ -17502,7 +17619,9 @@
       <c r="BO72" s="152">
         <v>70</v>
       </c>
-      <c r="BP72" s="152"/>
+      <c r="BP72" s="223" t="s">
+        <v>1071</v>
+      </c>
       <c r="BQ72" s="152"/>
       <c r="BR72" s="152"/>
       <c r="BS72" s="152"/>
@@ -17518,7 +17637,7 @@
       <c r="BY72" s="209">
         <v>70</v>
       </c>
-      <c r="BZ72" s="219" t="s">
+      <c r="BZ72" s="217" t="s">
         <v>1054</v>
       </c>
       <c r="CA72" s="209"/>
@@ -17632,7 +17751,9 @@
       <c r="BO73" s="152">
         <v>71</v>
       </c>
-      <c r="BP73" s="152"/>
+      <c r="BP73" s="223" t="s">
+        <v>961</v>
+      </c>
       <c r="BQ73" s="152"/>
       <c r="BR73" s="152"/>
       <c r="BS73" s="152"/>
@@ -17648,7 +17769,7 @@
       <c r="BY73" s="209">
         <v>71</v>
       </c>
-      <c r="BZ73" s="219" t="s">
+      <c r="BZ73" s="217" t="s">
         <v>1051</v>
       </c>
       <c r="CA73" s="209"/>
@@ -17762,7 +17883,9 @@
       <c r="BO74" s="152">
         <v>72</v>
       </c>
-      <c r="BP74" s="152"/>
+      <c r="BP74" s="223" t="s">
+        <v>438</v>
+      </c>
       <c r="BQ74" s="152"/>
       <c r="BR74" s="152"/>
       <c r="BS74" s="152"/>
@@ -17778,7 +17901,7 @@
       <c r="BY74" s="209">
         <v>72</v>
       </c>
-      <c r="BZ74" s="219" t="s">
+      <c r="BZ74" s="217" t="s">
         <v>1002</v>
       </c>
       <c r="CA74" s="209"/>
@@ -17892,7 +18015,9 @@
       <c r="BO75" s="152">
         <v>73</v>
       </c>
-      <c r="BP75" s="152"/>
+      <c r="BP75" s="223" t="s">
+        <v>1004</v>
+      </c>
       <c r="BQ75" s="152"/>
       <c r="BR75" s="152"/>
       <c r="BS75" s="152"/>
@@ -17908,7 +18033,7 @@
       <c r="BY75" s="209">
         <v>73</v>
       </c>
-      <c r="BZ75" s="219" t="s">
+      <c r="BZ75" s="217" t="s">
         <v>1047</v>
       </c>
       <c r="CA75" s="209"/>
@@ -18022,7 +18147,9 @@
       <c r="BO76" s="152">
         <v>74</v>
       </c>
-      <c r="BP76" s="152"/>
+      <c r="BP76" s="223" t="s">
+        <v>36</v>
+      </c>
       <c r="BQ76" s="152"/>
       <c r="BR76" s="152"/>
       <c r="BS76" s="152"/>
@@ -18038,7 +18165,7 @@
       <c r="BY76" s="209">
         <v>74</v>
       </c>
-      <c r="BZ76" s="219" t="s">
+      <c r="BZ76" s="217" t="s">
         <v>606</v>
       </c>
       <c r="CA76" s="209"/>
@@ -18152,7 +18279,9 @@
       <c r="BO77" s="152">
         <v>75</v>
       </c>
-      <c r="BP77" s="152"/>
+      <c r="BP77" s="223" t="s">
+        <v>167</v>
+      </c>
       <c r="BQ77" s="152"/>
       <c r="BR77" s="152"/>
       <c r="BS77" s="152"/>
@@ -18168,7 +18297,7 @@
       <c r="BY77" s="209">
         <v>75</v>
       </c>
-      <c r="BZ77" s="219" t="s">
+      <c r="BZ77" s="217" t="s">
         <v>1053</v>
       </c>
       <c r="CA77" s="209"/>
@@ -18282,7 +18411,9 @@
       <c r="BO78" s="152">
         <v>76</v>
       </c>
-      <c r="BP78" s="152"/>
+      <c r="BP78" s="223" t="s">
+        <v>160</v>
+      </c>
       <c r="BQ78" s="152"/>
       <c r="BR78" s="152"/>
       <c r="BS78" s="152"/>
@@ -18298,7 +18429,7 @@
       <c r="BY78" s="209">
         <v>76</v>
       </c>
-      <c r="BZ78" s="219" t="s">
+      <c r="BZ78" s="217" t="s">
         <v>353</v>
       </c>
       <c r="CA78" s="209"/>
@@ -18412,7 +18543,9 @@
       <c r="BO79" s="152">
         <v>77</v>
       </c>
-      <c r="BP79" s="152"/>
+      <c r="BP79" s="223" t="s">
+        <v>1072</v>
+      </c>
       <c r="BQ79" s="152"/>
       <c r="BR79" s="152"/>
       <c r="BS79" s="152"/>
@@ -18428,7 +18561,7 @@
       <c r="BY79" s="209">
         <v>77</v>
       </c>
-      <c r="BZ79" s="219" t="s">
+      <c r="BZ79" s="217" t="s">
         <v>57</v>
       </c>
       <c r="CA79" s="209"/>
@@ -18542,7 +18675,9 @@
       <c r="BO80" s="152">
         <v>78</v>
       </c>
-      <c r="BP80" s="152"/>
+      <c r="BP80" s="223" t="s">
+        <v>139</v>
+      </c>
       <c r="BQ80" s="152"/>
       <c r="BR80" s="152"/>
       <c r="BS80" s="152"/>
@@ -18558,7 +18693,7 @@
       <c r="BY80" s="209">
         <v>78</v>
       </c>
-      <c r="BZ80" s="219" t="s">
+      <c r="BZ80" s="217" t="s">
         <v>1051</v>
       </c>
       <c r="CA80" s="209"/>
@@ -18672,7 +18807,9 @@
       <c r="BO81" s="152">
         <v>79</v>
       </c>
-      <c r="BP81" s="152"/>
+      <c r="BP81" s="223" t="s">
+        <v>53</v>
+      </c>
       <c r="BQ81" s="152"/>
       <c r="BR81" s="152"/>
       <c r="BS81" s="152"/>
@@ -18688,7 +18825,7 @@
       <c r="BY81" s="209">
         <v>79</v>
       </c>
-      <c r="BZ81" s="219" t="s">
+      <c r="BZ81" s="217" t="s">
         <v>606</v>
       </c>
       <c r="CA81" s="209"/>
@@ -18802,7 +18939,9 @@
       <c r="BO82" s="152">
         <v>80</v>
       </c>
-      <c r="BP82" s="152"/>
+      <c r="BP82" s="223" t="s">
+        <v>386</v>
+      </c>
       <c r="BQ82" s="152"/>
       <c r="BR82" s="152"/>
       <c r="BS82" s="152"/>
@@ -18818,7 +18957,7 @@
       <c r="BY82" s="209">
         <v>80</v>
       </c>
-      <c r="BZ82" s="219" t="s">
+      <c r="BZ82" s="217" t="s">
         <v>1049</v>
       </c>
       <c r="CA82" s="209"/>
@@ -18932,7 +19071,9 @@
       <c r="BO83" s="152">
         <v>81</v>
       </c>
-      <c r="BP83" s="152"/>
+      <c r="BP83" s="223" t="s">
+        <v>68</v>
+      </c>
       <c r="BQ83" s="152"/>
       <c r="BR83" s="152"/>
       <c r="BS83" s="152"/>
@@ -18948,7 +19089,7 @@
       <c r="BY83" s="209">
         <v>81</v>
       </c>
-      <c r="BZ83" s="219" t="s">
+      <c r="BZ83" s="217" t="s">
         <v>1047</v>
       </c>
       <c r="CA83" s="209"/>
@@ -19062,7 +19203,9 @@
       <c r="BO84" s="152">
         <v>82</v>
       </c>
-      <c r="BP84" s="152"/>
+      <c r="BP84" s="223" t="s">
+        <v>167</v>
+      </c>
       <c r="BQ84" s="152"/>
       <c r="BR84" s="152"/>
       <c r="BS84" s="152"/>
@@ -19078,7 +19221,7 @@
       <c r="BY84" s="209">
         <v>82</v>
       </c>
-      <c r="BZ84" s="219" t="s">
+      <c r="BZ84" s="217" t="s">
         <v>329</v>
       </c>
       <c r="CA84" s="209"/>
@@ -19092,7 +19235,7 @@
       <c r="C85" s="212"/>
       <c r="D85" s="212">
         <f>SUM(D3:D84)</f>
-        <v>-4821</v>
+        <v>-4896</v>
       </c>
       <c r="E85" s="118">
         <f>SUM(E3:E84)</f>
@@ -19118,7 +19261,7 @@
       <c r="M85" s="212"/>
       <c r="N85" s="212">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-5441</v>
+        <v>-5739</v>
       </c>
       <c r="O85" s="118">
         <f t="shared" si="1"/>
@@ -19157,7 +19300,7 @@
       <c r="AB85" s="212"/>
       <c r="AC85" s="212">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-22992</v>
+        <v>-23057</v>
       </c>
       <c r="AD85" s="118">
         <f t="shared" si="4"/>
@@ -19183,7 +19326,7 @@
       <c r="AL85" s="212"/>
       <c r="AM85" s="212">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-13131</v>
+        <v>-13221</v>
       </c>
       <c r="AN85" s="118">
         <f t="shared" si="6"/>
@@ -19196,7 +19339,7 @@
       <c r="AQ85" s="212"/>
       <c r="AR85" s="212">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-3541</v>
+        <v>-3606</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="7"/>
@@ -19209,7 +19352,7 @@
       <c r="AV85" s="212"/>
       <c r="AW85" s="212">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-10897</v>
+        <v>-10957</v>
       </c>
       <c r="AX85" s="118">
         <f t="shared" si="8"/>
@@ -19235,7 +19378,7 @@
       <c r="BF85" s="212"/>
       <c r="BG85" s="212">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-7007</v>
+        <v>-7607</v>
       </c>
       <c r="BH85" s="118">
         <f t="shared" si="10"/>
@@ -19261,7 +19404,7 @@
       <c r="BP85" s="212"/>
       <c r="BQ85" s="212">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-5223</v>
+        <v>-5521</v>
       </c>
       <c r="BR85" s="118">
         <f t="shared" si="12"/>
@@ -19274,7 +19417,7 @@
       <c r="BU85" s="212"/>
       <c r="BV85" s="212">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-3639</v>
+        <v>-3714</v>
       </c>
       <c r="BW85" s="118">
         <f t="shared" si="13"/>
@@ -19287,7 +19430,7 @@
       <c r="BZ85" s="212"/>
       <c r="CA85" s="212">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-6789</v>
+        <v>-6854</v>
       </c>
       <c r="CB85" s="118">
         <f t="shared" si="14"/>
@@ -19296,29 +19439,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81">
-      <c r="H92" s="214" t="s">
+      <c r="H92" s="220" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="214">
+      <c r="I92" s="220">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>32323</v>
       </c>
-      <c r="J92" s="214"/>
+      <c r="J92" s="220"/>
     </row>
     <row r="93" spans="2:81">
-      <c r="H93" s="214"/>
-      <c r="I93" s="214"/>
-      <c r="J93" s="214"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="220"/>
     </row>
     <row r="94" spans="2:81">
-      <c r="H94" s="214"/>
-      <c r="I94" s="214"/>
-      <c r="J94" s="214"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="220"/>
     </row>
     <row r="95" spans="2:81">
-      <c r="H95" s="214"/>
-      <c r="I95" s="214"/>
-      <c r="J95" s="214"/>
+      <c r="H95" s="220"/>
+      <c r="I95" s="220"/>
+      <c r="J95" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19334,8 +19477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AE48" sqref="AE48:AI48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="BN55" sqref="BN55:BR55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28187,17 +28330,17 @@
         <v>300</v>
       </c>
       <c r="AD48" s="16"/>
-      <c r="AE48" s="86">
+      <c r="AE48" s="17">
         <v>46</v>
       </c>
-      <c r="AF48" s="86" t="s">
+      <c r="AF48" s="17" t="s">
         <v>1066</v>
       </c>
-      <c r="AG48" s="86">
+      <c r="AG48" s="17">
         <v>-215</v>
       </c>
-      <c r="AH48" s="86"/>
-      <c r="AI48" s="86"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
       <c r="AJ48" s="17">
         <v>46</v>
       </c>
@@ -28654,17 +28797,17 @@
         <v>91</v>
       </c>
       <c r="BR50" s="16"/>
-      <c r="BS50" s="86">
+      <c r="BS50" s="17">
         <v>48</v>
       </c>
-      <c r="BT50" s="86" t="s">
+      <c r="BT50" s="17" t="s">
         <v>1065</v>
       </c>
-      <c r="BU50" s="86">
+      <c r="BU50" s="17">
         <v>-65</v>
       </c>
-      <c r="BV50" s="86"/>
-      <c r="BW50" s="86"/>
+      <c r="BV50" s="17"/>
+      <c r="BW50" s="17"/>
       <c r="BX50" s="17">
         <v>48</v>
       </c>
@@ -28689,15 +28832,17 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="19">
+      <c r="F51" s="86">
         <v>49</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="86" t="s">
         <v>891</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="36"/>
+      <c r="H51" s="86">
+        <v>-215</v>
+      </c>
+      <c r="I51" s="86"/>
+      <c r="J51" s="214"/>
       <c r="K51" s="17">
         <v>49</v>
       </c>
@@ -28827,13 +28972,17 @@
       </c>
       <c r="BQ51" s="17"/>
       <c r="BR51" s="17"/>
-      <c r="BS51" s="109">
+      <c r="BS51" s="86">
         <v>49</v>
       </c>
-      <c r="BT51" s="99"/>
-      <c r="BU51" s="99"/>
-      <c r="BV51" s="99"/>
-      <c r="BW51" s="99"/>
+      <c r="BT51" s="222" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BU51" s="86">
+        <v>-75</v>
+      </c>
+      <c r="BV51" s="86"/>
+      <c r="BW51" s="86"/>
       <c r="BX51" s="16">
         <v>49</v>
       </c>
@@ -28872,17 +29021,17 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="36"/>
-      <c r="K52" s="86">
+      <c r="K52" s="17">
         <v>50</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="M52" s="86">
+      <c r="M52" s="17">
         <v>-155</v>
       </c>
-      <c r="N52" s="86"/>
-      <c r="O52" s="216"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="31"/>
       <c r="P52" s="32">
         <v>50</v>
       </c>
@@ -28908,17 +29057,17 @@
         <v>341</v>
       </c>
       <c r="Y52" s="16"/>
-      <c r="Z52" s="217">
+      <c r="Z52" s="17">
         <v>50</v>
       </c>
-      <c r="AA52" s="217" t="s">
+      <c r="AA52" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="AB52" s="217">
-        <v>-60</v>
-      </c>
-      <c r="AC52" s="217"/>
-      <c r="AD52" s="217"/>
+      <c r="AB52" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="17"/>
       <c r="AE52" s="57">
         <v>50</v>
       </c>
@@ -28933,13 +29082,17 @@
       <c r="AL52" s="63"/>
       <c r="AM52" s="63"/>
       <c r="AN52" s="63"/>
-      <c r="AO52" s="74">
+      <c r="AO52" s="86">
         <v>50</v>
       </c>
-      <c r="AP52" s="74"/>
-      <c r="AQ52" s="74"/>
-      <c r="AR52" s="74"/>
-      <c r="AS52" s="74"/>
+      <c r="AP52" s="222" t="s">
+        <v>898</v>
+      </c>
+      <c r="AQ52" s="86">
+        <v>-415</v>
+      </c>
+      <c r="AR52" s="86"/>
+      <c r="AS52" s="86"/>
       <c r="AT52" s="16">
         <v>50</v>
       </c>
@@ -28971,17 +29124,17 @@
       <c r="BF52" s="87"/>
       <c r="BG52" s="87"/>
       <c r="BH52" s="87"/>
-      <c r="BI52" s="86">
+      <c r="BI52" s="17">
         <v>50</v>
       </c>
-      <c r="BJ52" s="86" t="s">
+      <c r="BJ52" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="BK52" s="86">
-        <v>-60</v>
-      </c>
-      <c r="BL52" s="86"/>
-      <c r="BM52" s="86"/>
+      <c r="BK52" s="17">
+        <v>-60</v>
+      </c>
+      <c r="BL52" s="17"/>
+      <c r="BM52" s="17"/>
       <c r="BN52" s="17">
         <v>50</v>
       </c>
@@ -29031,44 +29184,50 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="37">
+      <c r="K53" s="86">
         <v>51</v>
       </c>
-      <c r="L53" s="37" t="s">
+      <c r="L53" s="86" t="s">
         <v>897</v>
       </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39">
+      <c r="M53" s="86">
+        <v>-215</v>
+      </c>
+      <c r="N53" s="86"/>
+      <c r="O53" s="214"/>
+      <c r="P53" s="224">
         <v>51</v>
       </c>
-      <c r="Q53" s="39" t="s">
+      <c r="Q53" s="224" t="s">
         <v>898</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="213">
+      <c r="R53" s="224">
+        <v>-112</v>
+      </c>
+      <c r="S53" s="224"/>
+      <c r="T53" s="224"/>
+      <c r="U53" s="46">
         <v>51</v>
       </c>
-      <c r="V53" s="86" t="s">
+      <c r="V53" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="W53" s="86">
-        <v>-60</v>
-      </c>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="49">
+      <c r="W53" s="17">
+        <v>-60</v>
+      </c>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="215">
         <v>51</v>
       </c>
-      <c r="AA53" s="218" t="s">
+      <c r="AA53" s="222" t="s">
         <v>992</v>
       </c>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
+      <c r="AB53" s="215">
+        <v>-65</v>
+      </c>
+      <c r="AC53" s="215"/>
+      <c r="AD53" s="215"/>
       <c r="AE53" s="57">
         <v>51</v>
       </c>
@@ -29086,7 +29245,9 @@
       <c r="AO53" s="74">
         <v>51</v>
       </c>
-      <c r="AP53" s="74"/>
+      <c r="AP53" s="225" t="s">
+        <v>370</v>
+      </c>
       <c r="AQ53" s="74"/>
       <c r="AR53" s="74"/>
       <c r="AS53" s="74"/>
@@ -29122,13 +29283,17 @@
       <c r="BF53" s="87"/>
       <c r="BG53" s="87"/>
       <c r="BH53" s="87"/>
-      <c r="BI53" s="99">
+      <c r="BI53" s="86">
         <v>51</v>
       </c>
-      <c r="BJ53" s="99"/>
-      <c r="BK53" s="99"/>
-      <c r="BL53" s="99"/>
-      <c r="BM53" s="99"/>
+      <c r="BJ53" s="222" t="s">
+        <v>555</v>
+      </c>
+      <c r="BK53" s="86">
+        <v>-65</v>
+      </c>
+      <c r="BL53" s="86"/>
+      <c r="BM53" s="86"/>
       <c r="BN53" s="17">
         <v>51</v>
       </c>
@@ -29159,7 +29324,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80">
+    <row r="54" spans="1:80" ht="15.75">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -29196,19 +29361,21 @@
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
-      <c r="U54" s="42">
+      <c r="U54" s="213">
         <v>52</v>
       </c>
-      <c r="V54" s="44" t="s">
+      <c r="V54" s="86" t="s">
         <v>904</v>
       </c>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
+      <c r="W54" s="86">
+        <v>-65</v>
+      </c>
+      <c r="X54" s="86"/>
+      <c r="Y54" s="86"/>
       <c r="Z54" s="49">
         <v>52</v>
       </c>
-      <c r="AA54" s="218" t="s">
+      <c r="AA54" s="216" t="s">
         <v>1032</v>
       </c>
       <c r="AB54" s="49"/>
@@ -29231,7 +29398,9 @@
       <c r="AO54" s="74">
         <v>52</v>
       </c>
-      <c r="AP54" s="74"/>
+      <c r="AP54" s="225" t="s">
+        <v>1073</v>
+      </c>
       <c r="AQ54" s="74"/>
       <c r="AR54" s="74"/>
       <c r="AS54" s="74"/>
@@ -29263,17 +29432,17 @@
       <c r="BK54" s="99"/>
       <c r="BL54" s="99"/>
       <c r="BM54" s="99"/>
-      <c r="BN54" s="86">
+      <c r="BN54" s="17">
         <v>52</v>
       </c>
-      <c r="BO54" s="86" t="s">
+      <c r="BO54" s="17" t="s">
         <v>1066</v>
       </c>
-      <c r="BP54" s="86">
+      <c r="BP54" s="17">
         <v>-90</v>
       </c>
-      <c r="BQ54" s="86"/>
-      <c r="BR54" s="86"/>
+      <c r="BQ54" s="17"/>
+      <c r="BR54" s="17"/>
       <c r="BS54" s="109">
         <v>52</v>
       </c>
@@ -29338,7 +29507,7 @@
       <c r="Z55" s="49">
         <v>53</v>
       </c>
-      <c r="AA55" s="218" t="s">
+      <c r="AA55" s="216" t="s">
         <v>559</v>
       </c>
       <c r="AB55" s="49"/>
@@ -29361,7 +29530,9 @@
       <c r="AO55" s="74">
         <v>53</v>
       </c>
-      <c r="AP55" s="74"/>
+      <c r="AP55" s="225" t="s">
+        <v>1074</v>
+      </c>
       <c r="AQ55" s="74"/>
       <c r="AR55" s="74"/>
       <c r="AS55" s="74"/>
@@ -29393,13 +29564,17 @@
       <c r="BK55" s="99"/>
       <c r="BL55" s="99"/>
       <c r="BM55" s="99"/>
-      <c r="BN55" s="110">
+      <c r="BN55" s="86">
         <v>53</v>
       </c>
-      <c r="BO55" s="110"/>
-      <c r="BP55" s="110"/>
-      <c r="BQ55" s="110"/>
-      <c r="BR55" s="110"/>
+      <c r="BO55" s="222" t="s">
+        <v>891</v>
+      </c>
+      <c r="BP55" s="86">
+        <v>-112</v>
+      </c>
+      <c r="BQ55" s="86"/>
+      <c r="BR55" s="86"/>
       <c r="BS55" s="109">
         <v>53</v>
       </c>
@@ -29464,7 +29639,7 @@
       <c r="Z56" s="49">
         <v>54</v>
       </c>
-      <c r="AA56" s="218" t="s">
+      <c r="AA56" s="216" t="s">
         <v>820</v>
       </c>
       <c r="AB56" s="49"/>
@@ -29487,7 +29662,9 @@
       <c r="AO56" s="74">
         <v>54</v>
       </c>
-      <c r="AP56" s="74"/>
+      <c r="AP56" s="225" t="s">
+        <v>178</v>
+      </c>
       <c r="AQ56" s="74"/>
       <c r="AR56" s="74"/>
       <c r="AS56" s="74"/>
@@ -29590,7 +29767,7 @@
       <c r="Z57" s="49">
         <v>55</v>
       </c>
-      <c r="AA57" s="218" t="s">
+      <c r="AA57" s="216" t="s">
         <v>1033</v>
       </c>
       <c r="AB57" s="49"/>
@@ -29613,7 +29790,9 @@
       <c r="AO57" s="74">
         <v>55</v>
       </c>
-      <c r="AP57" s="74"/>
+      <c r="AP57" s="225" t="s">
+        <v>777</v>
+      </c>
       <c r="AQ57" s="74"/>
       <c r="AR57" s="74"/>
       <c r="AS57" s="74"/>
@@ -29716,7 +29895,7 @@
       <c r="Z58" s="49">
         <v>56</v>
       </c>
-      <c r="AA58" s="218" t="s">
+      <c r="AA58" s="216" t="s">
         <v>568</v>
       </c>
       <c r="AB58" s="49"/>
@@ -29739,7 +29918,9 @@
       <c r="AO58" s="74">
         <v>56</v>
       </c>
-      <c r="AP58" s="74"/>
+      <c r="AP58" s="225" t="s">
+        <v>830</v>
+      </c>
       <c r="AQ58" s="74"/>
       <c r="AR58" s="74"/>
       <c r="AS58" s="74"/>
@@ -29842,7 +30023,7 @@
       <c r="Z59" s="49">
         <v>57</v>
       </c>
-      <c r="AA59" s="218" t="s">
+      <c r="AA59" s="216" t="s">
         <v>1022</v>
       </c>
       <c r="AB59" s="49"/>
@@ -29865,7 +30046,9 @@
       <c r="AO59" s="74">
         <v>57</v>
       </c>
-      <c r="AP59" s="74"/>
+      <c r="AP59" s="225" t="s">
+        <v>784</v>
+      </c>
       <c r="AQ59" s="74"/>
       <c r="AR59" s="74"/>
       <c r="AS59" s="74"/>
@@ -29968,7 +30151,7 @@
       <c r="Z60" s="49">
         <v>58</v>
       </c>
-      <c r="AA60" s="218" t="s">
+      <c r="AA60" s="216" t="s">
         <v>1034</v>
       </c>
       <c r="AB60" s="49"/>
@@ -29991,7 +30174,9 @@
       <c r="AO60" s="74">
         <v>58</v>
       </c>
-      <c r="AP60" s="74"/>
+      <c r="AP60" s="225" t="s">
+        <v>790</v>
+      </c>
       <c r="AQ60" s="74"/>
       <c r="AR60" s="74"/>
       <c r="AS60" s="74"/>
@@ -30094,7 +30279,7 @@
       <c r="Z61" s="49">
         <v>59</v>
       </c>
-      <c r="AA61" s="218" t="s">
+      <c r="AA61" s="216" t="s">
         <v>572</v>
       </c>
       <c r="AB61" s="49"/>
@@ -30117,7 +30302,9 @@
       <c r="AO61" s="74">
         <v>59</v>
       </c>
-      <c r="AP61" s="74"/>
+      <c r="AP61" s="225" t="s">
+        <v>513</v>
+      </c>
       <c r="AQ61" s="74"/>
       <c r="AR61" s="74"/>
       <c r="AS61" s="74"/>
@@ -30220,7 +30407,7 @@
       <c r="Z62" s="49">
         <v>60</v>
       </c>
-      <c r="AA62" s="218" t="s">
+      <c r="AA62" s="216" t="s">
         <v>1035</v>
       </c>
       <c r="AB62" s="49"/>
@@ -30243,7 +30430,9 @@
       <c r="AO62" s="74">
         <v>60</v>
       </c>
-      <c r="AP62" s="74"/>
+      <c r="AP62" s="225" t="s">
+        <v>760</v>
+      </c>
       <c r="AQ62" s="74"/>
       <c r="AR62" s="74"/>
       <c r="AS62" s="74"/>
@@ -30346,7 +30535,7 @@
       <c r="Z63" s="49">
         <v>61</v>
       </c>
-      <c r="AA63" s="218" t="s">
+      <c r="AA63" s="216" t="s">
         <v>926</v>
       </c>
       <c r="AB63" s="49"/>
@@ -30369,7 +30558,9 @@
       <c r="AO63" s="74">
         <v>61</v>
       </c>
-      <c r="AP63" s="74"/>
+      <c r="AP63" s="225" t="s">
+        <v>1075</v>
+      </c>
       <c r="AQ63" s="74"/>
       <c r="AR63" s="74"/>
       <c r="AS63" s="74"/>
@@ -30472,7 +30663,7 @@
       <c r="Z64" s="49">
         <v>62</v>
       </c>
-      <c r="AA64" s="218" t="s">
+      <c r="AA64" s="216" t="s">
         <v>1036</v>
       </c>
       <c r="AB64" s="49"/>
@@ -30495,7 +30686,9 @@
       <c r="AO64" s="74">
         <v>62</v>
       </c>
-      <c r="AP64" s="74"/>
+      <c r="AP64" s="225" t="s">
+        <v>1076</v>
+      </c>
       <c r="AQ64" s="74"/>
       <c r="AR64" s="74"/>
       <c r="AS64" s="74"/>
@@ -30598,7 +30791,7 @@
       <c r="Z65" s="49">
         <v>63</v>
       </c>
-      <c r="AA65" s="218" t="s">
+      <c r="AA65" s="216" t="s">
         <v>1037</v>
       </c>
       <c r="AB65" s="49"/>
@@ -30621,7 +30814,9 @@
       <c r="AO65" s="74">
         <v>63</v>
       </c>
-      <c r="AP65" s="74"/>
+      <c r="AP65" s="225" t="s">
+        <v>1074</v>
+      </c>
       <c r="AQ65" s="74"/>
       <c r="AR65" s="74"/>
       <c r="AS65" s="74"/>
@@ -30724,7 +30919,7 @@
       <c r="Z66" s="49">
         <v>64</v>
       </c>
-      <c r="AA66" s="218" t="s">
+      <c r="AA66" s="216" t="s">
         <v>1038</v>
       </c>
       <c r="AB66" s="49"/>
@@ -30747,7 +30942,9 @@
       <c r="AO66" s="74">
         <v>64</v>
       </c>
-      <c r="AP66" s="74"/>
+      <c r="AP66" s="225" t="s">
+        <v>943</v>
+      </c>
       <c r="AQ66" s="74"/>
       <c r="AR66" s="74"/>
       <c r="AS66" s="74"/>
@@ -30850,7 +31047,7 @@
       <c r="Z67" s="49">
         <v>65</v>
       </c>
-      <c r="AA67" s="218" t="s">
+      <c r="AA67" s="216" t="s">
         <v>646</v>
       </c>
       <c r="AB67" s="49"/>
@@ -30873,7 +31070,9 @@
       <c r="AO67" s="74">
         <v>65</v>
       </c>
-      <c r="AP67" s="74"/>
+      <c r="AP67" s="225" t="s">
+        <v>760</v>
+      </c>
       <c r="AQ67" s="74"/>
       <c r="AR67" s="74"/>
       <c r="AS67" s="74"/>
@@ -30976,7 +31175,7 @@
       <c r="Z68" s="49">
         <v>66</v>
       </c>
-      <c r="AA68" s="218" t="s">
+      <c r="AA68" s="216" t="s">
         <v>1039</v>
       </c>
       <c r="AB68" s="49"/>
@@ -30999,7 +31198,9 @@
       <c r="AO68" s="74">
         <v>66</v>
       </c>
-      <c r="AP68" s="74"/>
+      <c r="AP68" s="225" t="s">
+        <v>1074</v>
+      </c>
       <c r="AQ68" s="74"/>
       <c r="AR68" s="74"/>
       <c r="AS68" s="74"/>
@@ -31102,7 +31303,7 @@
       <c r="Z69" s="49">
         <v>67</v>
       </c>
-      <c r="AA69" s="218" t="s">
+      <c r="AA69" s="216" t="s">
         <v>1040</v>
       </c>
       <c r="AB69" s="49"/>
@@ -31125,7 +31326,9 @@
       <c r="AO69" s="74">
         <v>67</v>
       </c>
-      <c r="AP69" s="74"/>
+      <c r="AP69" s="225" t="s">
+        <v>955</v>
+      </c>
       <c r="AQ69" s="74"/>
       <c r="AR69" s="74"/>
       <c r="AS69" s="74"/>
@@ -31228,7 +31431,7 @@
       <c r="Z70" s="49">
         <v>68</v>
       </c>
-      <c r="AA70" s="218" t="s">
+      <c r="AA70" s="216" t="s">
         <v>1041</v>
       </c>
       <c r="AB70" s="49"/>
@@ -31251,7 +31454,9 @@
       <c r="AO70" s="74">
         <v>68</v>
       </c>
-      <c r="AP70" s="74"/>
+      <c r="AP70" s="225" t="s">
+        <v>1075</v>
+      </c>
       <c r="AQ70" s="74"/>
       <c r="AR70" s="74"/>
       <c r="AS70" s="74"/>
@@ -31354,7 +31559,7 @@
       <c r="Z71" s="49">
         <v>69</v>
       </c>
-      <c r="AA71" s="218" t="s">
+      <c r="AA71" s="216" t="s">
         <v>856</v>
       </c>
       <c r="AB71" s="49"/>
@@ -31377,7 +31582,9 @@
       <c r="AO71" s="74">
         <v>69</v>
       </c>
-      <c r="AP71" s="74"/>
+      <c r="AP71" s="225" t="s">
+        <v>955</v>
+      </c>
       <c r="AQ71" s="74"/>
       <c r="AR71" s="74"/>
       <c r="AS71" s="74"/>
@@ -31480,7 +31687,7 @@
       <c r="Z72" s="49">
         <v>70</v>
       </c>
-      <c r="AA72" s="218" t="s">
+      <c r="AA72" s="216" t="s">
         <v>718</v>
       </c>
       <c r="AB72" s="49"/>
@@ -31503,7 +31710,9 @@
       <c r="AO72" s="74">
         <v>70</v>
       </c>
-      <c r="AP72" s="74"/>
+      <c r="AP72" s="225" t="s">
+        <v>1077</v>
+      </c>
       <c r="AQ72" s="74"/>
       <c r="AR72" s="74"/>
       <c r="AS72" s="74"/>
@@ -31606,7 +31815,7 @@
       <c r="Z73" s="49">
         <v>71</v>
       </c>
-      <c r="AA73" s="218" t="s">
+      <c r="AA73" s="216" t="s">
         <v>1042</v>
       </c>
       <c r="AB73" s="49"/>
@@ -31629,7 +31838,9 @@
       <c r="AO73" s="74">
         <v>71</v>
       </c>
-      <c r="AP73" s="74"/>
+      <c r="AP73" s="225" t="s">
+        <v>1075</v>
+      </c>
       <c r="AQ73" s="74"/>
       <c r="AR73" s="74"/>
       <c r="AS73" s="74"/>
@@ -31732,7 +31943,7 @@
       <c r="Z74" s="49">
         <v>72</v>
       </c>
-      <c r="AA74" s="218" t="s">
+      <c r="AA74" s="216" t="s">
         <v>962</v>
       </c>
       <c r="AB74" s="49"/>
@@ -31755,7 +31966,9 @@
       <c r="AO74" s="74">
         <v>72</v>
       </c>
-      <c r="AP74" s="74"/>
+      <c r="AP74" s="225" t="s">
+        <v>1076</v>
+      </c>
       <c r="AQ74" s="74"/>
       <c r="AR74" s="74"/>
       <c r="AS74" s="74"/>
@@ -31858,7 +32071,7 @@
       <c r="Z75" s="49">
         <v>73</v>
       </c>
-      <c r="AA75" s="218" t="s">
+      <c r="AA75" s="216" t="s">
         <v>1038</v>
       </c>
       <c r="AB75" s="49"/>
@@ -31881,7 +32094,9 @@
       <c r="AO75" s="74">
         <v>73</v>
       </c>
-      <c r="AP75" s="74"/>
+      <c r="AP75" s="225" t="s">
+        <v>1073</v>
+      </c>
       <c r="AQ75" s="74"/>
       <c r="AR75" s="74"/>
       <c r="AS75" s="74"/>
@@ -31984,7 +32199,7 @@
       <c r="Z76" s="49">
         <v>74</v>
       </c>
-      <c r="AA76" s="218" t="s">
+      <c r="AA76" s="216" t="s">
         <v>689</v>
       </c>
       <c r="AB76" s="49"/>
@@ -32007,7 +32222,9 @@
       <c r="AO76" s="74">
         <v>74</v>
       </c>
-      <c r="AP76" s="74"/>
+      <c r="AP76" s="225" t="s">
+        <v>197</v>
+      </c>
       <c r="AQ76" s="74"/>
       <c r="AR76" s="74"/>
       <c r="AS76" s="74"/>
@@ -32110,7 +32327,7 @@
       <c r="Z77" s="49">
         <v>75</v>
       </c>
-      <c r="AA77" s="218" t="s">
+      <c r="AA77" s="216" t="s">
         <v>1043</v>
       </c>
       <c r="AB77" s="49"/>
@@ -32133,7 +32350,9 @@
       <c r="AO77" s="74">
         <v>75</v>
       </c>
-      <c r="AP77" s="74"/>
+      <c r="AP77" s="225" t="s">
+        <v>943</v>
+      </c>
       <c r="AQ77" s="74"/>
       <c r="AR77" s="74"/>
       <c r="AS77" s="74"/>
@@ -32236,7 +32455,7 @@
       <c r="Z78" s="49">
         <v>76</v>
       </c>
-      <c r="AA78" s="218" t="s">
+      <c r="AA78" s="216" t="s">
         <v>1033</v>
       </c>
       <c r="AB78" s="49"/>
@@ -32259,7 +32478,9 @@
       <c r="AO78" s="74">
         <v>76</v>
       </c>
-      <c r="AP78" s="74"/>
+      <c r="AP78" s="225" t="s">
+        <v>830</v>
+      </c>
       <c r="AQ78" s="74"/>
       <c r="AR78" s="74"/>
       <c r="AS78" s="74"/>
@@ -32362,7 +32583,7 @@
       <c r="Z79" s="49">
         <v>77</v>
       </c>
-      <c r="AA79" s="218" t="s">
+      <c r="AA79" s="216" t="s">
         <v>865</v>
       </c>
       <c r="AB79" s="49"/>
@@ -32385,7 +32606,9 @@
       <c r="AO79" s="74">
         <v>77</v>
       </c>
-      <c r="AP79" s="74"/>
+      <c r="AP79" s="225" t="s">
+        <v>898</v>
+      </c>
       <c r="AQ79" s="74"/>
       <c r="AR79" s="74"/>
       <c r="AS79" s="74"/>
@@ -32488,7 +32711,7 @@
       <c r="Z80" s="49">
         <v>78</v>
       </c>
-      <c r="AA80" s="218" t="s">
+      <c r="AA80" s="216" t="s">
         <v>926</v>
       </c>
       <c r="AB80" s="49"/>
@@ -32511,7 +32734,9 @@
       <c r="AO80" s="74">
         <v>78</v>
       </c>
-      <c r="AP80" s="74"/>
+      <c r="AP80" s="225" t="s">
+        <v>943</v>
+      </c>
       <c r="AQ80" s="74"/>
       <c r="AR80" s="74"/>
       <c r="AS80" s="74"/>
@@ -32614,7 +32839,7 @@
       <c r="Z81" s="49">
         <v>79</v>
       </c>
-      <c r="AA81" s="218" t="s">
+      <c r="AA81" s="216" t="s">
         <v>1044</v>
       </c>
       <c r="AB81" s="49"/>
@@ -32637,7 +32862,9 @@
       <c r="AO81" s="74">
         <v>79</v>
       </c>
-      <c r="AP81" s="74"/>
+      <c r="AP81" s="225" t="s">
+        <v>1073</v>
+      </c>
       <c r="AQ81" s="74"/>
       <c r="AR81" s="74"/>
       <c r="AS81" s="74"/>
@@ -32740,7 +32967,7 @@
       <c r="Z82" s="49">
         <v>80</v>
       </c>
-      <c r="AA82" s="218" t="s">
+      <c r="AA82" s="216" t="s">
         <v>1036</v>
       </c>
       <c r="AB82" s="49"/>
@@ -32763,7 +32990,9 @@
       <c r="AO82" s="74">
         <v>80</v>
       </c>
-      <c r="AP82" s="74"/>
+      <c r="AP82" s="225" t="s">
+        <v>1076</v>
+      </c>
       <c r="AQ82" s="74"/>
       <c r="AR82" s="74"/>
       <c r="AS82" s="74"/>
@@ -32866,7 +33095,7 @@
       <c r="Z83" s="49">
         <v>81</v>
       </c>
-      <c r="AA83" s="218" t="s">
+      <c r="AA83" s="216" t="s">
         <v>810</v>
       </c>
       <c r="AB83" s="49"/>
@@ -32889,7 +33118,9 @@
       <c r="AO83" s="74">
         <v>81</v>
       </c>
-      <c r="AP83" s="74"/>
+      <c r="AP83" s="225" t="s">
+        <v>1077</v>
+      </c>
       <c r="AQ83" s="74"/>
       <c r="AR83" s="74"/>
       <c r="AS83" s="74"/>
@@ -32992,7 +33223,7 @@
       <c r="Z84" s="49">
         <v>82</v>
       </c>
-      <c r="AA84" s="218" t="s">
+      <c r="AA84" s="216" t="s">
         <v>633</v>
       </c>
       <c r="AB84" s="49"/>
@@ -33015,7 +33246,9 @@
       <c r="AO84" s="74">
         <v>82</v>
       </c>
-      <c r="AP84" s="74"/>
+      <c r="AP84" s="225" t="s">
+        <v>790</v>
+      </c>
       <c r="AQ84" s="74"/>
       <c r="AR84" s="74"/>
       <c r="AS84" s="74"/>
@@ -33089,7 +33322,7 @@
       <c r="G85" s="117"/>
       <c r="H85" s="117">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-6714</v>
+        <v>-6929</v>
       </c>
       <c r="I85" s="118">
         <f t="shared" si="0"/>
@@ -33102,7 +33335,7 @@
       <c r="L85" s="117"/>
       <c r="M85" s="117">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-9522</v>
+        <v>-9737</v>
       </c>
       <c r="N85" s="118">
         <f t="shared" si="1"/>
@@ -33115,7 +33348,7 @@
       <c r="Q85" s="117"/>
       <c r="R85" s="117">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-7126</v>
+        <v>-7238</v>
       </c>
       <c r="S85" s="118">
         <f t="shared" si="2"/>
@@ -33128,7 +33361,7 @@
       <c r="V85" s="117"/>
       <c r="W85" s="117">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-24054</v>
+        <v>-24119</v>
       </c>
       <c r="X85" s="118">
         <f t="shared" si="3"/>
@@ -33141,7 +33374,7 @@
       <c r="AA85" s="117"/>
       <c r="AB85" s="117">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-5920</v>
+        <v>-5985</v>
       </c>
       <c r="AC85" s="118">
         <f t="shared" si="4"/>
@@ -33180,7 +33413,7 @@
       <c r="AP85" s="117"/>
       <c r="AQ85" s="117">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-5486</v>
+        <v>-5901</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="7"/>
@@ -33232,7 +33465,7 @@
       <c r="BJ85" s="117"/>
       <c r="BK85" s="117">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-11045</v>
+        <v>-11110</v>
       </c>
       <c r="BL85" s="118">
         <f t="shared" si="11"/>
@@ -33245,7 +33478,7 @@
       <c r="BO85" s="117"/>
       <c r="BP85" s="117">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-7632</v>
+        <v>-7744</v>
       </c>
       <c r="BQ85" s="118">
         <f t="shared" si="12"/>
@@ -33258,7 +33491,7 @@
       <c r="BT85" s="117"/>
       <c r="BU85" s="117">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-8282</v>
+        <v>-8357</v>
       </c>
       <c r="BV85" s="118">
         <f t="shared" si="13"/>
@@ -33283,29 +33516,29 @@
       </c>
     </row>
     <row r="95" spans="1:81">
-      <c r="G95" s="214" t="s">
+      <c r="G95" s="220" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="214">
+      <c r="H95" s="220">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>25407</v>
       </c>
-      <c r="I95" s="214"/>
+      <c r="I95" s="220"/>
     </row>
     <row r="96" spans="1:81">
-      <c r="G96" s="214"/>
-      <c r="H96" s="214"/>
-      <c r="I96" s="214"/>
+      <c r="G96" s="220"/>
+      <c r="H96" s="220"/>
+      <c r="I96" s="220"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="214"/>
-      <c r="H97" s="214"/>
-      <c r="I97" s="214"/>
+      <c r="G97" s="220"/>
+      <c r="H97" s="220"/>
+      <c r="I97" s="220"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="214"/>
-      <c r="H98" s="214"/>
-      <c r="I98" s="214"/>
+      <c r="G98" s="220"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33328,11 +33561,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="215" t="s">
+      <c r="E1" s="221" t="s">
         <v>984</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1079">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3279,16 +3279,13 @@
   </si>
   <si>
     <t>Филадельфия - Виннипег</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3401,15 +3398,6 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4490,7 +4478,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4850,21 +4838,19 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
@@ -5186,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AE19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ55" sqref="BQ55"/>
+    <sheetView topLeftCell="BD19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BT51" sqref="BT51:BX51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14722,7 +14708,7 @@
       <c r="AK51" s="118">
         <v>49</v>
       </c>
-      <c r="AL51" s="218" t="s">
+      <c r="AL51" s="217" t="s">
         <v>897</v>
       </c>
       <c r="AM51" s="118">
@@ -14791,21 +14777,21 @@
       </c>
       <c r="BR51" s="73"/>
       <c r="BS51" s="73"/>
-      <c r="BT51" s="118">
+      <c r="BT51" s="73">
         <v>49</v>
       </c>
-      <c r="BU51" s="118" t="s">
+      <c r="BU51" s="73" t="s">
         <v>992</v>
       </c>
-      <c r="BV51" s="118">
+      <c r="BV51" s="73">
         <v>-75</v>
       </c>
-      <c r="BW51" s="118"/>
-      <c r="BX51" s="118"/>
+      <c r="BW51" s="73"/>
+      <c r="BX51" s="73"/>
       <c r="BY51" s="118">
         <v>49</v>
       </c>
-      <c r="BZ51" s="218" t="s">
+      <c r="BZ51" s="217" t="s">
         <v>1046</v>
       </c>
       <c r="CA51" s="118">
@@ -14847,7 +14833,7 @@
         <v>-298</v>
       </c>
       <c r="O52" s="118"/>
-      <c r="P52" s="219"/>
+      <c r="P52" s="218"/>
       <c r="Q52" s="73">
         <v>50</v>
       </c>
@@ -14975,7 +14961,7 @@
       <c r="BY52" s="209">
         <v>50</v>
       </c>
-      <c r="BZ52" s="217" t="s">
+      <c r="BZ52" s="216" t="s">
         <v>1047</v>
       </c>
       <c r="CA52" s="209"/>
@@ -15029,7 +15015,7 @@
       <c r="AA53" s="118">
         <v>51</v>
       </c>
-      <c r="AB53" s="218" t="s">
+      <c r="AB53" s="217" t="s">
         <v>1046</v>
       </c>
       <c r="AC53" s="118">
@@ -15064,17 +15050,17 @@
       </c>
       <c r="AS53" s="118"/>
       <c r="AT53" s="118"/>
-      <c r="AU53" s="118">
+      <c r="AU53" s="73">
         <v>51</v>
       </c>
-      <c r="AV53" s="118" t="s">
+      <c r="AV53" s="73" t="s">
         <v>1020</v>
       </c>
-      <c r="AW53" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AX53" s="118"/>
-      <c r="AY53" s="118"/>
+      <c r="AW53" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AX53" s="73"/>
+      <c r="AY53" s="73"/>
       <c r="AZ53" s="190">
         <v>51</v>
       </c>
@@ -15100,17 +15086,17 @@
       <c r="BL53" s="198"/>
       <c r="BM53" s="198"/>
       <c r="BN53" s="198"/>
-      <c r="BO53" s="118">
+      <c r="BO53" s="73">
         <v>51</v>
       </c>
-      <c r="BP53" s="218" t="s">
+      <c r="BP53" s="73" t="s">
         <v>1020</v>
       </c>
-      <c r="BQ53" s="118">
+      <c r="BQ53" s="73">
         <v>-298</v>
       </c>
-      <c r="BR53" s="118"/>
-      <c r="BS53" s="118"/>
+      <c r="BR53" s="73"/>
+      <c r="BS53" s="73"/>
       <c r="BT53" s="204">
         <v>51</v>
       </c>
@@ -15123,7 +15109,7 @@
       <c r="BY53" s="209">
         <v>51</v>
       </c>
-      <c r="BZ53" s="217" t="s">
+      <c r="BZ53" s="216" t="s">
         <v>1048</v>
       </c>
       <c r="CA53" s="209"/>
@@ -15223,7 +15209,7 @@
       <c r="BE54" s="118">
         <v>52</v>
       </c>
-      <c r="BF54" s="218" t="s">
+      <c r="BF54" s="217" t="s">
         <v>1078</v>
       </c>
       <c r="BG54" s="118">
@@ -15241,11 +15227,11 @@
       <c r="BO54" s="118">
         <v>52</v>
       </c>
-      <c r="BP54" s="218" t="s">
+      <c r="BP54" s="217" t="s">
         <v>1004</v>
       </c>
-      <c r="BQ54" s="218" t="s">
-        <v>1079</v>
+      <c r="BQ54" s="217">
+        <v>-415</v>
       </c>
       <c r="BR54" s="118"/>
       <c r="BS54" s="118"/>
@@ -15261,7 +15247,7 @@
       <c r="BY54" s="209">
         <v>52</v>
       </c>
-      <c r="BZ54" s="217" t="s">
+      <c r="BZ54" s="216" t="s">
         <v>907</v>
       </c>
       <c r="CA54" s="209"/>
@@ -15375,7 +15361,7 @@
       <c r="BO55" s="152">
         <v>53</v>
       </c>
-      <c r="BP55" s="223" t="s">
+      <c r="BP55" s="220" t="s">
         <v>139</v>
       </c>
       <c r="BQ55" s="152"/>
@@ -15393,7 +15379,7 @@
       <c r="BY55" s="209">
         <v>53</v>
       </c>
-      <c r="BZ55" s="217" t="s">
+      <c r="BZ55" s="216" t="s">
         <v>64</v>
       </c>
       <c r="CA55" s="209"/>
@@ -15507,7 +15493,7 @@
       <c r="BO56" s="152">
         <v>54</v>
       </c>
-      <c r="BP56" s="223" t="s">
+      <c r="BP56" s="220" t="s">
         <v>438</v>
       </c>
       <c r="BQ56" s="152"/>
@@ -15525,7 +15511,7 @@
       <c r="BY56" s="209">
         <v>54</v>
       </c>
-      <c r="BZ56" s="217" t="s">
+      <c r="BZ56" s="216" t="s">
         <v>428</v>
       </c>
       <c r="CA56" s="209"/>
@@ -15639,7 +15625,7 @@
       <c r="BO57" s="152">
         <v>55</v>
       </c>
-      <c r="BP57" s="223" t="s">
+      <c r="BP57" s="220" t="s">
         <v>278</v>
       </c>
       <c r="BQ57" s="152"/>
@@ -15657,7 +15643,7 @@
       <c r="BY57" s="209">
         <v>55</v>
       </c>
-      <c r="BZ57" s="217" t="s">
+      <c r="BZ57" s="216" t="s">
         <v>1049</v>
       </c>
       <c r="CA57" s="209"/>
@@ -15771,7 +15757,7 @@
       <c r="BO58" s="152">
         <v>56</v>
       </c>
-      <c r="BP58" s="223" t="s">
+      <c r="BP58" s="220" t="s">
         <v>1067</v>
       </c>
       <c r="BQ58" s="152"/>
@@ -15789,7 +15775,7 @@
       <c r="BY58" s="209">
         <v>56</v>
       </c>
-      <c r="BZ58" s="217" t="s">
+      <c r="BZ58" s="216" t="s">
         <v>1046</v>
       </c>
       <c r="CA58" s="209"/>
@@ -15903,7 +15889,7 @@
       <c r="BO59" s="152">
         <v>57</v>
       </c>
-      <c r="BP59" s="223" t="s">
+      <c r="BP59" s="220" t="s">
         <v>53</v>
       </c>
       <c r="BQ59" s="152"/>
@@ -15921,7 +15907,7 @@
       <c r="BY59" s="209">
         <v>57</v>
       </c>
-      <c r="BZ59" s="217" t="s">
+      <c r="BZ59" s="216" t="s">
         <v>1050</v>
       </c>
       <c r="CA59" s="209"/>
@@ -16035,7 +16021,7 @@
       <c r="BO60" s="152">
         <v>58</v>
       </c>
-      <c r="BP60" s="223" t="s">
+      <c r="BP60" s="220" t="s">
         <v>386</v>
       </c>
       <c r="BQ60" s="152"/>
@@ -16053,7 +16039,7 @@
       <c r="BY60" s="209">
         <v>58</v>
       </c>
-      <c r="BZ60" s="217" t="s">
+      <c r="BZ60" s="216" t="s">
         <v>1051</v>
       </c>
       <c r="CA60" s="209"/>
@@ -16167,7 +16153,7 @@
       <c r="BO61" s="152">
         <v>59</v>
       </c>
-      <c r="BP61" s="223" t="s">
+      <c r="BP61" s="220" t="s">
         <v>1004</v>
       </c>
       <c r="BQ61" s="152"/>
@@ -16185,7 +16171,7 @@
       <c r="BY61" s="209">
         <v>59</v>
       </c>
-      <c r="BZ61" s="217" t="s">
+      <c r="BZ61" s="216" t="s">
         <v>1052</v>
       </c>
       <c r="CA61" s="209"/>
@@ -16299,7 +16285,7 @@
       <c r="BO62" s="152">
         <v>60</v>
       </c>
-      <c r="BP62" s="223" t="s">
+      <c r="BP62" s="220" t="s">
         <v>1068</v>
       </c>
       <c r="BQ62" s="152"/>
@@ -16317,7 +16303,7 @@
       <c r="BY62" s="209">
         <v>60</v>
       </c>
-      <c r="BZ62" s="217" t="s">
+      <c r="BZ62" s="216" t="s">
         <v>931</v>
       </c>
       <c r="CA62" s="209"/>
@@ -16431,7 +16417,7 @@
       <c r="BO63" s="152">
         <v>61</v>
       </c>
-      <c r="BP63" s="223" t="s">
+      <c r="BP63" s="220" t="s">
         <v>544</v>
       </c>
       <c r="BQ63" s="152"/>
@@ -16449,7 +16435,7 @@
       <c r="BY63" s="209">
         <v>61</v>
       </c>
-      <c r="BZ63" s="217" t="s">
+      <c r="BZ63" s="216" t="s">
         <v>1053</v>
       </c>
       <c r="CA63" s="209"/>
@@ -16563,7 +16549,7 @@
       <c r="BO64" s="152">
         <v>62</v>
       </c>
-      <c r="BP64" s="223" t="s">
+      <c r="BP64" s="220" t="s">
         <v>68</v>
       </c>
       <c r="BQ64" s="152"/>
@@ -16581,7 +16567,7 @@
       <c r="BY64" s="209">
         <v>62</v>
       </c>
-      <c r="BZ64" s="217" t="s">
+      <c r="BZ64" s="216" t="s">
         <v>939</v>
       </c>
       <c r="CA64" s="209"/>
@@ -16695,7 +16681,7 @@
       <c r="BO65" s="152">
         <v>63</v>
       </c>
-      <c r="BP65" s="223" t="s">
+      <c r="BP65" s="220" t="s">
         <v>160</v>
       </c>
       <c r="BQ65" s="152"/>
@@ -16713,7 +16699,7 @@
       <c r="BY65" s="209">
         <v>63</v>
       </c>
-      <c r="BZ65" s="217" t="s">
+      <c r="BZ65" s="216" t="s">
         <v>1054</v>
       </c>
       <c r="CA65" s="209"/>
@@ -16827,7 +16813,7 @@
       <c r="BO66" s="152">
         <v>64</v>
       </c>
-      <c r="BP66" s="223" t="s">
+      <c r="BP66" s="220" t="s">
         <v>396</v>
       </c>
       <c r="BQ66" s="152"/>
@@ -16845,7 +16831,7 @@
       <c r="BY66" s="209">
         <v>64</v>
       </c>
-      <c r="BZ66" s="217" t="s">
+      <c r="BZ66" s="216" t="s">
         <v>1055</v>
       </c>
       <c r="CA66" s="209"/>
@@ -16959,7 +16945,7 @@
       <c r="BO67" s="152">
         <v>65</v>
       </c>
-      <c r="BP67" s="223" t="s">
+      <c r="BP67" s="220" t="s">
         <v>544</v>
       </c>
       <c r="BQ67" s="152"/>
@@ -16977,7 +16963,7 @@
       <c r="BY67" s="209">
         <v>65</v>
       </c>
-      <c r="BZ67" s="217" t="s">
+      <c r="BZ67" s="216" t="s">
         <v>1056</v>
       </c>
       <c r="CA67" s="209"/>
@@ -17091,7 +17077,7 @@
       <c r="BO68" s="152">
         <v>66</v>
       </c>
-      <c r="BP68" s="223" t="s">
+      <c r="BP68" s="220" t="s">
         <v>1020</v>
       </c>
       <c r="BQ68" s="152"/>
@@ -17109,7 +17095,7 @@
       <c r="BY68" s="209">
         <v>66</v>
       </c>
-      <c r="BZ68" s="217" t="s">
+      <c r="BZ68" s="216" t="s">
         <v>1057</v>
       </c>
       <c r="CA68" s="209"/>
@@ -17223,7 +17209,7 @@
       <c r="BO69" s="152">
         <v>67</v>
       </c>
-      <c r="BP69" s="223" t="s">
+      <c r="BP69" s="220" t="s">
         <v>1067</v>
       </c>
       <c r="BQ69" s="152"/>
@@ -17241,7 +17227,7 @@
       <c r="BY69" s="209">
         <v>67</v>
       </c>
-      <c r="BZ69" s="217" t="s">
+      <c r="BZ69" s="216" t="s">
         <v>952</v>
       </c>
       <c r="CA69" s="209"/>
@@ -17355,7 +17341,7 @@
       <c r="BO70" s="152">
         <v>68</v>
       </c>
-      <c r="BP70" s="223" t="s">
+      <c r="BP70" s="220" t="s">
         <v>1069</v>
       </c>
       <c r="BQ70" s="152"/>
@@ -17373,7 +17359,7 @@
       <c r="BY70" s="209">
         <v>68</v>
       </c>
-      <c r="BZ70" s="217" t="s">
+      <c r="BZ70" s="216" t="s">
         <v>83</v>
       </c>
       <c r="CA70" s="209"/>
@@ -17487,7 +17473,7 @@
       <c r="BO71" s="152">
         <v>69</v>
       </c>
-      <c r="BP71" s="223" t="s">
+      <c r="BP71" s="220" t="s">
         <v>1070</v>
       </c>
       <c r="BQ71" s="152"/>
@@ -17505,7 +17491,7 @@
       <c r="BY71" s="209">
         <v>69</v>
       </c>
-      <c r="BZ71" s="217" t="s">
+      <c r="BZ71" s="216" t="s">
         <v>437</v>
       </c>
       <c r="CA71" s="209"/>
@@ -17619,7 +17605,7 @@
       <c r="BO72" s="152">
         <v>70</v>
       </c>
-      <c r="BP72" s="223" t="s">
+      <c r="BP72" s="220" t="s">
         <v>1071</v>
       </c>
       <c r="BQ72" s="152"/>
@@ -17637,7 +17623,7 @@
       <c r="BY72" s="209">
         <v>70</v>
       </c>
-      <c r="BZ72" s="217" t="s">
+      <c r="BZ72" s="216" t="s">
         <v>1054</v>
       </c>
       <c r="CA72" s="209"/>
@@ -17751,7 +17737,7 @@
       <c r="BO73" s="152">
         <v>71</v>
       </c>
-      <c r="BP73" s="223" t="s">
+      <c r="BP73" s="220" t="s">
         <v>961</v>
       </c>
       <c r="BQ73" s="152"/>
@@ -17769,7 +17755,7 @@
       <c r="BY73" s="209">
         <v>71</v>
       </c>
-      <c r="BZ73" s="217" t="s">
+      <c r="BZ73" s="216" t="s">
         <v>1051</v>
       </c>
       <c r="CA73" s="209"/>
@@ -17883,7 +17869,7 @@
       <c r="BO74" s="152">
         <v>72</v>
       </c>
-      <c r="BP74" s="223" t="s">
+      <c r="BP74" s="220" t="s">
         <v>438</v>
       </c>
       <c r="BQ74" s="152"/>
@@ -17901,7 +17887,7 @@
       <c r="BY74" s="209">
         <v>72</v>
       </c>
-      <c r="BZ74" s="217" t="s">
+      <c r="BZ74" s="216" t="s">
         <v>1002</v>
       </c>
       <c r="CA74" s="209"/>
@@ -18015,7 +18001,7 @@
       <c r="BO75" s="152">
         <v>73</v>
       </c>
-      <c r="BP75" s="223" t="s">
+      <c r="BP75" s="220" t="s">
         <v>1004</v>
       </c>
       <c r="BQ75" s="152"/>
@@ -18033,7 +18019,7 @@
       <c r="BY75" s="209">
         <v>73</v>
       </c>
-      <c r="BZ75" s="217" t="s">
+      <c r="BZ75" s="216" t="s">
         <v>1047</v>
       </c>
       <c r="CA75" s="209"/>
@@ -18147,7 +18133,7 @@
       <c r="BO76" s="152">
         <v>74</v>
       </c>
-      <c r="BP76" s="223" t="s">
+      <c r="BP76" s="220" t="s">
         <v>36</v>
       </c>
       <c r="BQ76" s="152"/>
@@ -18165,7 +18151,7 @@
       <c r="BY76" s="209">
         <v>74</v>
       </c>
-      <c r="BZ76" s="217" t="s">
+      <c r="BZ76" s="216" t="s">
         <v>606</v>
       </c>
       <c r="CA76" s="209"/>
@@ -18279,7 +18265,7 @@
       <c r="BO77" s="152">
         <v>75</v>
       </c>
-      <c r="BP77" s="223" t="s">
+      <c r="BP77" s="220" t="s">
         <v>167</v>
       </c>
       <c r="BQ77" s="152"/>
@@ -18297,7 +18283,7 @@
       <c r="BY77" s="209">
         <v>75</v>
       </c>
-      <c r="BZ77" s="217" t="s">
+      <c r="BZ77" s="216" t="s">
         <v>1053</v>
       </c>
       <c r="CA77" s="209"/>
@@ -18411,7 +18397,7 @@
       <c r="BO78" s="152">
         <v>76</v>
       </c>
-      <c r="BP78" s="223" t="s">
+      <c r="BP78" s="220" t="s">
         <v>160</v>
       </c>
       <c r="BQ78" s="152"/>
@@ -18429,7 +18415,7 @@
       <c r="BY78" s="209">
         <v>76</v>
       </c>
-      <c r="BZ78" s="217" t="s">
+      <c r="BZ78" s="216" t="s">
         <v>353</v>
       </c>
       <c r="CA78" s="209"/>
@@ -18543,7 +18529,7 @@
       <c r="BO79" s="152">
         <v>77</v>
       </c>
-      <c r="BP79" s="223" t="s">
+      <c r="BP79" s="220" t="s">
         <v>1072</v>
       </c>
       <c r="BQ79" s="152"/>
@@ -18561,7 +18547,7 @@
       <c r="BY79" s="209">
         <v>77</v>
       </c>
-      <c r="BZ79" s="217" t="s">
+      <c r="BZ79" s="216" t="s">
         <v>57</v>
       </c>
       <c r="CA79" s="209"/>
@@ -18675,7 +18661,7 @@
       <c r="BO80" s="152">
         <v>78</v>
       </c>
-      <c r="BP80" s="223" t="s">
+      <c r="BP80" s="220" t="s">
         <v>139</v>
       </c>
       <c r="BQ80" s="152"/>
@@ -18693,7 +18679,7 @@
       <c r="BY80" s="209">
         <v>78</v>
       </c>
-      <c r="BZ80" s="217" t="s">
+      <c r="BZ80" s="216" t="s">
         <v>1051</v>
       </c>
       <c r="CA80" s="209"/>
@@ -18807,7 +18793,7 @@
       <c r="BO81" s="152">
         <v>79</v>
       </c>
-      <c r="BP81" s="223" t="s">
+      <c r="BP81" s="220" t="s">
         <v>53</v>
       </c>
       <c r="BQ81" s="152"/>
@@ -18825,7 +18811,7 @@
       <c r="BY81" s="209">
         <v>79</v>
       </c>
-      <c r="BZ81" s="217" t="s">
+      <c r="BZ81" s="216" t="s">
         <v>606</v>
       </c>
       <c r="CA81" s="209"/>
@@ -18939,7 +18925,7 @@
       <c r="BO82" s="152">
         <v>80</v>
       </c>
-      <c r="BP82" s="223" t="s">
+      <c r="BP82" s="220" t="s">
         <v>386</v>
       </c>
       <c r="BQ82" s="152"/>
@@ -18957,7 +18943,7 @@
       <c r="BY82" s="209">
         <v>80</v>
       </c>
-      <c r="BZ82" s="217" t="s">
+      <c r="BZ82" s="216" t="s">
         <v>1049</v>
       </c>
       <c r="CA82" s="209"/>
@@ -19071,7 +19057,7 @@
       <c r="BO83" s="152">
         <v>81</v>
       </c>
-      <c r="BP83" s="223" t="s">
+      <c r="BP83" s="220" t="s">
         <v>68</v>
       </c>
       <c r="BQ83" s="152"/>
@@ -19089,7 +19075,7 @@
       <c r="BY83" s="209">
         <v>81</v>
       </c>
-      <c r="BZ83" s="217" t="s">
+      <c r="BZ83" s="216" t="s">
         <v>1047</v>
       </c>
       <c r="CA83" s="209"/>
@@ -19203,7 +19189,7 @@
       <c r="BO84" s="152">
         <v>82</v>
       </c>
-      <c r="BP84" s="223" t="s">
+      <c r="BP84" s="220" t="s">
         <v>167</v>
       </c>
       <c r="BQ84" s="152"/>
@@ -19221,7 +19207,7 @@
       <c r="BY84" s="209">
         <v>82</v>
       </c>
-      <c r="BZ84" s="217" t="s">
+      <c r="BZ84" s="216" t="s">
         <v>329</v>
       </c>
       <c r="CA84" s="209"/>
@@ -19404,7 +19390,7 @@
       <c r="BP85" s="212"/>
       <c r="BQ85" s="212">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-5521</v>
+        <v>-5936</v>
       </c>
       <c r="BR85" s="118">
         <f t="shared" si="12"/>
@@ -19439,29 +19425,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81">
-      <c r="H92" s="220" t="s">
+      <c r="H92" s="222" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="220">
+      <c r="I92" s="222">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>32323</v>
       </c>
-      <c r="J92" s="220"/>
+      <c r="J92" s="222"/>
     </row>
     <row r="93" spans="2:81">
-      <c r="H93" s="220"/>
-      <c r="I93" s="220"/>
-      <c r="J93" s="220"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
     </row>
     <row r="94" spans="2:81">
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="220"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
     </row>
     <row r="95" spans="2:81">
-      <c r="H95" s="220"/>
-      <c r="I95" s="220"/>
-      <c r="J95" s="220"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19477,8 +19463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BN55" sqref="BN55:BR55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AD59" sqref="AD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28975,7 +28961,7 @@
       <c r="BS51" s="86">
         <v>49</v>
       </c>
-      <c r="BT51" s="222" t="s">
+      <c r="BT51" s="219" t="s">
         <v>1078</v>
       </c>
       <c r="BU51" s="86">
@@ -29082,17 +29068,17 @@
       <c r="AL52" s="63"/>
       <c r="AM52" s="63"/>
       <c r="AN52" s="63"/>
-      <c r="AO52" s="86">
+      <c r="AO52" s="17">
         <v>50</v>
       </c>
-      <c r="AP52" s="222" t="s">
+      <c r="AP52" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="AQ52" s="86">
+      <c r="AQ52" s="17">
         <v>-415</v>
       </c>
-      <c r="AR52" s="86"/>
-      <c r="AS52" s="86"/>
+      <c r="AR52" s="17"/>
+      <c r="AS52" s="17"/>
       <c r="AT52" s="16">
         <v>50</v>
       </c>
@@ -29195,17 +29181,17 @@
       </c>
       <c r="N53" s="86"/>
       <c r="O53" s="214"/>
-      <c r="P53" s="224">
+      <c r="P53" s="32">
         <v>51</v>
       </c>
-      <c r="Q53" s="224" t="s">
+      <c r="Q53" s="32" t="s">
         <v>898</v>
       </c>
-      <c r="R53" s="224">
+      <c r="R53" s="32">
         <v>-112</v>
       </c>
-      <c r="S53" s="224"/>
-      <c r="T53" s="224"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
       <c r="U53" s="46">
         <v>51</v>
       </c>
@@ -29217,17 +29203,17 @@
       </c>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
-      <c r="Z53" s="215">
+      <c r="Z53" s="17">
         <v>51</v>
       </c>
-      <c r="AA53" s="222" t="s">
+      <c r="AA53" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="AB53" s="215">
+      <c r="AB53" s="17">
         <v>-65</v>
       </c>
-      <c r="AC53" s="215"/>
-      <c r="AD53" s="215"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
       <c r="AE53" s="57">
         <v>51</v>
       </c>
@@ -29245,7 +29231,7 @@
       <c r="AO53" s="74">
         <v>51</v>
       </c>
-      <c r="AP53" s="225" t="s">
+      <c r="AP53" s="221" t="s">
         <v>370</v>
       </c>
       <c r="AQ53" s="74"/>
@@ -29286,7 +29272,7 @@
       <c r="BI53" s="86">
         <v>51</v>
       </c>
-      <c r="BJ53" s="222" t="s">
+      <c r="BJ53" s="219" t="s">
         <v>555</v>
       </c>
       <c r="BK53" s="86">
@@ -29375,7 +29361,7 @@
       <c r="Z54" s="49">
         <v>52</v>
       </c>
-      <c r="AA54" s="216" t="s">
+      <c r="AA54" s="215" t="s">
         <v>1032</v>
       </c>
       <c r="AB54" s="49"/>
@@ -29398,7 +29384,7 @@
       <c r="AO54" s="74">
         <v>52</v>
       </c>
-      <c r="AP54" s="225" t="s">
+      <c r="AP54" s="221" t="s">
         <v>1073</v>
       </c>
       <c r="AQ54" s="74"/>
@@ -29507,7 +29493,7 @@
       <c r="Z55" s="49">
         <v>53</v>
       </c>
-      <c r="AA55" s="216" t="s">
+      <c r="AA55" s="215" t="s">
         <v>559</v>
       </c>
       <c r="AB55" s="49"/>
@@ -29530,7 +29516,7 @@
       <c r="AO55" s="74">
         <v>53</v>
       </c>
-      <c r="AP55" s="225" t="s">
+      <c r="AP55" s="221" t="s">
         <v>1074</v>
       </c>
       <c r="AQ55" s="74"/>
@@ -29567,7 +29553,7 @@
       <c r="BN55" s="86">
         <v>53</v>
       </c>
-      <c r="BO55" s="222" t="s">
+      <c r="BO55" s="219" t="s">
         <v>891</v>
       </c>
       <c r="BP55" s="86">
@@ -29639,7 +29625,7 @@
       <c r="Z56" s="49">
         <v>54</v>
       </c>
-      <c r="AA56" s="216" t="s">
+      <c r="AA56" s="215" t="s">
         <v>820</v>
       </c>
       <c r="AB56" s="49"/>
@@ -29662,7 +29648,7 @@
       <c r="AO56" s="74">
         <v>54</v>
       </c>
-      <c r="AP56" s="225" t="s">
+      <c r="AP56" s="221" t="s">
         <v>178</v>
       </c>
       <c r="AQ56" s="74"/>
@@ -29767,7 +29753,7 @@
       <c r="Z57" s="49">
         <v>55</v>
       </c>
-      <c r="AA57" s="216" t="s">
+      <c r="AA57" s="215" t="s">
         <v>1033</v>
       </c>
       <c r="AB57" s="49"/>
@@ -29790,7 +29776,7 @@
       <c r="AO57" s="74">
         <v>55</v>
       </c>
-      <c r="AP57" s="225" t="s">
+      <c r="AP57" s="221" t="s">
         <v>777</v>
       </c>
       <c r="AQ57" s="74"/>
@@ -29895,7 +29881,7 @@
       <c r="Z58" s="49">
         <v>56</v>
       </c>
-      <c r="AA58" s="216" t="s">
+      <c r="AA58" s="215" t="s">
         <v>568</v>
       </c>
       <c r="AB58" s="49"/>
@@ -29918,7 +29904,7 @@
       <c r="AO58" s="74">
         <v>56</v>
       </c>
-      <c r="AP58" s="225" t="s">
+      <c r="AP58" s="221" t="s">
         <v>830</v>
       </c>
       <c r="AQ58" s="74"/>
@@ -30023,7 +30009,7 @@
       <c r="Z59" s="49">
         <v>57</v>
       </c>
-      <c r="AA59" s="216" t="s">
+      <c r="AA59" s="215" t="s">
         <v>1022</v>
       </c>
       <c r="AB59" s="49"/>
@@ -30046,7 +30032,7 @@
       <c r="AO59" s="74">
         <v>57</v>
       </c>
-      <c r="AP59" s="225" t="s">
+      <c r="AP59" s="221" t="s">
         <v>784</v>
       </c>
       <c r="AQ59" s="74"/>
@@ -30151,7 +30137,7 @@
       <c r="Z60" s="49">
         <v>58</v>
       </c>
-      <c r="AA60" s="216" t="s">
+      <c r="AA60" s="215" t="s">
         <v>1034</v>
       </c>
       <c r="AB60" s="49"/>
@@ -30174,7 +30160,7 @@
       <c r="AO60" s="74">
         <v>58</v>
       </c>
-      <c r="AP60" s="225" t="s">
+      <c r="AP60" s="221" t="s">
         <v>790</v>
       </c>
       <c r="AQ60" s="74"/>
@@ -30279,7 +30265,7 @@
       <c r="Z61" s="49">
         <v>59</v>
       </c>
-      <c r="AA61" s="216" t="s">
+      <c r="AA61" s="215" t="s">
         <v>572</v>
       </c>
       <c r="AB61" s="49"/>
@@ -30302,7 +30288,7 @@
       <c r="AO61" s="74">
         <v>59</v>
       </c>
-      <c r="AP61" s="225" t="s">
+      <c r="AP61" s="221" t="s">
         <v>513</v>
       </c>
       <c r="AQ61" s="74"/>
@@ -30407,7 +30393,7 @@
       <c r="Z62" s="49">
         <v>60</v>
       </c>
-      <c r="AA62" s="216" t="s">
+      <c r="AA62" s="215" t="s">
         <v>1035</v>
       </c>
       <c r="AB62" s="49"/>
@@ -30430,7 +30416,7 @@
       <c r="AO62" s="74">
         <v>60</v>
       </c>
-      <c r="AP62" s="225" t="s">
+      <c r="AP62" s="221" t="s">
         <v>760</v>
       </c>
       <c r="AQ62" s="74"/>
@@ -30535,7 +30521,7 @@
       <c r="Z63" s="49">
         <v>61</v>
       </c>
-      <c r="AA63" s="216" t="s">
+      <c r="AA63" s="215" t="s">
         <v>926</v>
       </c>
       <c r="AB63" s="49"/>
@@ -30558,7 +30544,7 @@
       <c r="AO63" s="74">
         <v>61</v>
       </c>
-      <c r="AP63" s="225" t="s">
+      <c r="AP63" s="221" t="s">
         <v>1075</v>
       </c>
       <c r="AQ63" s="74"/>
@@ -30663,7 +30649,7 @@
       <c r="Z64" s="49">
         <v>62</v>
       </c>
-      <c r="AA64" s="216" t="s">
+      <c r="AA64" s="215" t="s">
         <v>1036</v>
       </c>
       <c r="AB64" s="49"/>
@@ -30686,7 +30672,7 @@
       <c r="AO64" s="74">
         <v>62</v>
       </c>
-      <c r="AP64" s="225" t="s">
+      <c r="AP64" s="221" t="s">
         <v>1076</v>
       </c>
       <c r="AQ64" s="74"/>
@@ -30791,7 +30777,7 @@
       <c r="Z65" s="49">
         <v>63</v>
       </c>
-      <c r="AA65" s="216" t="s">
+      <c r="AA65" s="215" t="s">
         <v>1037</v>
       </c>
       <c r="AB65" s="49"/>
@@ -30814,7 +30800,7 @@
       <c r="AO65" s="74">
         <v>63</v>
       </c>
-      <c r="AP65" s="225" t="s">
+      <c r="AP65" s="221" t="s">
         <v>1074</v>
       </c>
       <c r="AQ65" s="74"/>
@@ -30919,7 +30905,7 @@
       <c r="Z66" s="49">
         <v>64</v>
       </c>
-      <c r="AA66" s="216" t="s">
+      <c r="AA66" s="215" t="s">
         <v>1038</v>
       </c>
       <c r="AB66" s="49"/>
@@ -30942,7 +30928,7 @@
       <c r="AO66" s="74">
         <v>64</v>
       </c>
-      <c r="AP66" s="225" t="s">
+      <c r="AP66" s="221" t="s">
         <v>943</v>
       </c>
       <c r="AQ66" s="74"/>
@@ -31047,7 +31033,7 @@
       <c r="Z67" s="49">
         <v>65</v>
       </c>
-      <c r="AA67" s="216" t="s">
+      <c r="AA67" s="215" t="s">
         <v>646</v>
       </c>
       <c r="AB67" s="49"/>
@@ -31070,7 +31056,7 @@
       <c r="AO67" s="74">
         <v>65</v>
       </c>
-      <c r="AP67" s="225" t="s">
+      <c r="AP67" s="221" t="s">
         <v>760</v>
       </c>
       <c r="AQ67" s="74"/>
@@ -31175,7 +31161,7 @@
       <c r="Z68" s="49">
         <v>66</v>
       </c>
-      <c r="AA68" s="216" t="s">
+      <c r="AA68" s="215" t="s">
         <v>1039</v>
       </c>
       <c r="AB68" s="49"/>
@@ -31198,7 +31184,7 @@
       <c r="AO68" s="74">
         <v>66</v>
       </c>
-      <c r="AP68" s="225" t="s">
+      <c r="AP68" s="221" t="s">
         <v>1074</v>
       </c>
       <c r="AQ68" s="74"/>
@@ -31303,7 +31289,7 @@
       <c r="Z69" s="49">
         <v>67</v>
       </c>
-      <c r="AA69" s="216" t="s">
+      <c r="AA69" s="215" t="s">
         <v>1040</v>
       </c>
       <c r="AB69" s="49"/>
@@ -31326,7 +31312,7 @@
       <c r="AO69" s="74">
         <v>67</v>
       </c>
-      <c r="AP69" s="225" t="s">
+      <c r="AP69" s="221" t="s">
         <v>955</v>
       </c>
       <c r="AQ69" s="74"/>
@@ -31431,7 +31417,7 @@
       <c r="Z70" s="49">
         <v>68</v>
       </c>
-      <c r="AA70" s="216" t="s">
+      <c r="AA70" s="215" t="s">
         <v>1041</v>
       </c>
       <c r="AB70" s="49"/>
@@ -31454,7 +31440,7 @@
       <c r="AO70" s="74">
         <v>68</v>
       </c>
-      <c r="AP70" s="225" t="s">
+      <c r="AP70" s="221" t="s">
         <v>1075</v>
       </c>
       <c r="AQ70" s="74"/>
@@ -31559,7 +31545,7 @@
       <c r="Z71" s="49">
         <v>69</v>
       </c>
-      <c r="AA71" s="216" t="s">
+      <c r="AA71" s="215" t="s">
         <v>856</v>
       </c>
       <c r="AB71" s="49"/>
@@ -31582,7 +31568,7 @@
       <c r="AO71" s="74">
         <v>69</v>
       </c>
-      <c r="AP71" s="225" t="s">
+      <c r="AP71" s="221" t="s">
         <v>955</v>
       </c>
       <c r="AQ71" s="74"/>
@@ -31687,7 +31673,7 @@
       <c r="Z72" s="49">
         <v>70</v>
       </c>
-      <c r="AA72" s="216" t="s">
+      <c r="AA72" s="215" t="s">
         <v>718</v>
       </c>
       <c r="AB72" s="49"/>
@@ -31710,7 +31696,7 @@
       <c r="AO72" s="74">
         <v>70</v>
       </c>
-      <c r="AP72" s="225" t="s">
+      <c r="AP72" s="221" t="s">
         <v>1077</v>
       </c>
       <c r="AQ72" s="74"/>
@@ -31815,7 +31801,7 @@
       <c r="Z73" s="49">
         <v>71</v>
       </c>
-      <c r="AA73" s="216" t="s">
+      <c r="AA73" s="215" t="s">
         <v>1042</v>
       </c>
       <c r="AB73" s="49"/>
@@ -31838,7 +31824,7 @@
       <c r="AO73" s="74">
         <v>71</v>
       </c>
-      <c r="AP73" s="225" t="s">
+      <c r="AP73" s="221" t="s">
         <v>1075</v>
       </c>
       <c r="AQ73" s="74"/>
@@ -31943,7 +31929,7 @@
       <c r="Z74" s="49">
         <v>72</v>
       </c>
-      <c r="AA74" s="216" t="s">
+      <c r="AA74" s="215" t="s">
         <v>962</v>
       </c>
       <c r="AB74" s="49"/>
@@ -31966,7 +31952,7 @@
       <c r="AO74" s="74">
         <v>72</v>
       </c>
-      <c r="AP74" s="225" t="s">
+      <c r="AP74" s="221" t="s">
         <v>1076</v>
       </c>
       <c r="AQ74" s="74"/>
@@ -32071,7 +32057,7 @@
       <c r="Z75" s="49">
         <v>73</v>
       </c>
-      <c r="AA75" s="216" t="s">
+      <c r="AA75" s="215" t="s">
         <v>1038</v>
       </c>
       <c r="AB75" s="49"/>
@@ -32094,7 +32080,7 @@
       <c r="AO75" s="74">
         <v>73</v>
       </c>
-      <c r="AP75" s="225" t="s">
+      <c r="AP75" s="221" t="s">
         <v>1073</v>
       </c>
       <c r="AQ75" s="74"/>
@@ -32199,7 +32185,7 @@
       <c r="Z76" s="49">
         <v>74</v>
       </c>
-      <c r="AA76" s="216" t="s">
+      <c r="AA76" s="215" t="s">
         <v>689</v>
       </c>
       <c r="AB76" s="49"/>
@@ -32222,7 +32208,7 @@
       <c r="AO76" s="74">
         <v>74</v>
       </c>
-      <c r="AP76" s="225" t="s">
+      <c r="AP76" s="221" t="s">
         <v>197</v>
       </c>
       <c r="AQ76" s="74"/>
@@ -32327,7 +32313,7 @@
       <c r="Z77" s="49">
         <v>75</v>
       </c>
-      <c r="AA77" s="216" t="s">
+      <c r="AA77" s="215" t="s">
         <v>1043</v>
       </c>
       <c r="AB77" s="49"/>
@@ -32350,7 +32336,7 @@
       <c r="AO77" s="74">
         <v>75</v>
       </c>
-      <c r="AP77" s="225" t="s">
+      <c r="AP77" s="221" t="s">
         <v>943</v>
       </c>
       <c r="AQ77" s="74"/>
@@ -32455,7 +32441,7 @@
       <c r="Z78" s="49">
         <v>76</v>
       </c>
-      <c r="AA78" s="216" t="s">
+      <c r="AA78" s="215" t="s">
         <v>1033</v>
       </c>
       <c r="AB78" s="49"/>
@@ -32478,7 +32464,7 @@
       <c r="AO78" s="74">
         <v>76</v>
       </c>
-      <c r="AP78" s="225" t="s">
+      <c r="AP78" s="221" t="s">
         <v>830</v>
       </c>
       <c r="AQ78" s="74"/>
@@ -32583,7 +32569,7 @@
       <c r="Z79" s="49">
         <v>77</v>
       </c>
-      <c r="AA79" s="216" t="s">
+      <c r="AA79" s="215" t="s">
         <v>865</v>
       </c>
       <c r="AB79" s="49"/>
@@ -32606,7 +32592,7 @@
       <c r="AO79" s="74">
         <v>77</v>
       </c>
-      <c r="AP79" s="225" t="s">
+      <c r="AP79" s="221" t="s">
         <v>898</v>
       </c>
       <c r="AQ79" s="74"/>
@@ -32711,7 +32697,7 @@
       <c r="Z80" s="49">
         <v>78</v>
       </c>
-      <c r="AA80" s="216" t="s">
+      <c r="AA80" s="215" t="s">
         <v>926</v>
       </c>
       <c r="AB80" s="49"/>
@@ -32734,7 +32720,7 @@
       <c r="AO80" s="74">
         <v>78</v>
       </c>
-      <c r="AP80" s="225" t="s">
+      <c r="AP80" s="221" t="s">
         <v>943</v>
       </c>
       <c r="AQ80" s="74"/>
@@ -32839,7 +32825,7 @@
       <c r="Z81" s="49">
         <v>79</v>
       </c>
-      <c r="AA81" s="216" t="s">
+      <c r="AA81" s="215" t="s">
         <v>1044</v>
       </c>
       <c r="AB81" s="49"/>
@@ -32862,7 +32848,7 @@
       <c r="AO81" s="74">
         <v>79</v>
       </c>
-      <c r="AP81" s="225" t="s">
+      <c r="AP81" s="221" t="s">
         <v>1073</v>
       </c>
       <c r="AQ81" s="74"/>
@@ -32967,7 +32953,7 @@
       <c r="Z82" s="49">
         <v>80</v>
       </c>
-      <c r="AA82" s="216" t="s">
+      <c r="AA82" s="215" t="s">
         <v>1036</v>
       </c>
       <c r="AB82" s="49"/>
@@ -32990,7 +32976,7 @@
       <c r="AO82" s="74">
         <v>80</v>
       </c>
-      <c r="AP82" s="225" t="s">
+      <c r="AP82" s="221" t="s">
         <v>1076</v>
       </c>
       <c r="AQ82" s="74"/>
@@ -33095,7 +33081,7 @@
       <c r="Z83" s="49">
         <v>81</v>
       </c>
-      <c r="AA83" s="216" t="s">
+      <c r="AA83" s="215" t="s">
         <v>810</v>
       </c>
       <c r="AB83" s="49"/>
@@ -33118,7 +33104,7 @@
       <c r="AO83" s="74">
         <v>81</v>
       </c>
-      <c r="AP83" s="225" t="s">
+      <c r="AP83" s="221" t="s">
         <v>1077</v>
       </c>
       <c r="AQ83" s="74"/>
@@ -33223,7 +33209,7 @@
       <c r="Z84" s="49">
         <v>82</v>
       </c>
-      <c r="AA84" s="216" t="s">
+      <c r="AA84" s="215" t="s">
         <v>633</v>
       </c>
       <c r="AB84" s="49"/>
@@ -33246,7 +33232,7 @@
       <c r="AO84" s="74">
         <v>82</v>
       </c>
-      <c r="AP84" s="225" t="s">
+      <c r="AP84" s="221" t="s">
         <v>790</v>
       </c>
       <c r="AQ84" s="74"/>
@@ -33516,29 +33502,29 @@
       </c>
     </row>
     <row r="95" spans="1:81">
-      <c r="G95" s="220" t="s">
+      <c r="G95" s="222" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="220">
+      <c r="H95" s="222">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>25407</v>
       </c>
-      <c r="I95" s="220"/>
+      <c r="I95" s="222"/>
     </row>
     <row r="96" spans="1:81">
-      <c r="G96" s="220"/>
-      <c r="H96" s="220"/>
-      <c r="I96" s="220"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="220"/>
-      <c r="H97" s="220"/>
-      <c r="I97" s="220"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="220"/>
-      <c r="H98" s="220"/>
-      <c r="I98" s="220"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33561,11 +33547,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="221" t="s">
+      <c r="E1" s="223" t="s">
         <v>984</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1081">
   <si>
     <t>№ Матча</t>
   </si>
@@ -2756,9 +2756,6 @@
     <t>Чикаго - Рейнджерс</t>
   </si>
   <si>
-    <t>Флорида  - Колорадо</t>
-  </si>
-  <si>
     <t>Оттава - Анахайм</t>
   </si>
   <si>
@@ -3279,13 +3276,22 @@
   </si>
   <si>
     <t>Филадельфия - Виннипег</t>
+  </si>
+  <si>
+    <t>Каролина  - Колорадо</t>
+  </si>
+  <si>
+    <t>Миннесота - Питтсбург</t>
+  </si>
+  <si>
+    <t>Детройт - Ванкувер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3402,6 +3408,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -4478,7 +4499,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4836,12 +4857,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4851,6 +4870,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
@@ -5172,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="BD19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT51" sqref="BT51:BX51"/>
+    <sheetView tabSelected="1" topLeftCell="BF28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BY52" sqref="BY52:CC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13125,8 +13147,8 @@
       </c>
       <c r="J43" s="73"/>
       <c r="K43" s="73">
-        <f>K42*I52</f>
-        <v>4290</v>
+        <f>K42*I53</f>
+        <v>5500</v>
       </c>
       <c r="L43" s="73">
         <v>41</v>
@@ -14174,7 +14196,7 @@
         <v>46</v>
       </c>
       <c r="BA48" s="130" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="BB48" s="130">
         <v>-65</v>
@@ -14395,7 +14417,7 @@
         <v>47</v>
       </c>
       <c r="BK49" s="73" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="BL49" s="73">
         <v>-60</v>
@@ -14577,13 +14599,17 @@
       </c>
       <c r="BH50" s="73"/>
       <c r="BI50" s="73"/>
-      <c r="BJ50" s="198">
+      <c r="BJ50" s="118">
         <v>48</v>
       </c>
-      <c r="BK50" s="198"/>
-      <c r="BL50" s="198"/>
-      <c r="BM50" s="198"/>
-      <c r="BN50" s="198"/>
+      <c r="BK50" s="118" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BL50" s="118">
+        <v>-65</v>
+      </c>
+      <c r="BM50" s="118"/>
+      <c r="BN50" s="118"/>
       <c r="BO50" s="73">
         <v>48</v>
       </c>
@@ -14599,7 +14625,7 @@
         <v>48</v>
       </c>
       <c r="BU50" s="73" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="BV50" s="73">
         <v>-65</v>
@@ -14610,7 +14636,7 @@
         <v>48</v>
       </c>
       <c r="BZ50" s="73" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="CA50" s="73">
         <v>-60</v>
@@ -14640,10 +14666,7 @@
         <v>-700</v>
       </c>
       <c r="J51" s="73"/>
-      <c r="K51" s="73">
-        <f>K43+SUM(I40:I52)</f>
-        <v>120</v>
-      </c>
+      <c r="K51" s="73"/>
       <c r="L51" s="73">
         <v>49</v>
       </c>
@@ -14705,17 +14728,17 @@
         <v>260</v>
       </c>
       <c r="AJ51" s="130"/>
-      <c r="AK51" s="118">
+      <c r="AK51" s="73">
         <v>49</v>
       </c>
-      <c r="AL51" s="217" t="s">
+      <c r="AL51" s="73" t="s">
         <v>897</v>
       </c>
-      <c r="AM51" s="118">
+      <c r="AM51" s="73">
         <v>-90</v>
       </c>
-      <c r="AN51" s="118"/>
-      <c r="AO51" s="118"/>
+      <c r="AN51" s="73"/>
+      <c r="AO51" s="73"/>
       <c r="AP51" s="130">
         <v>49</v>
       </c>
@@ -14781,24 +14804,24 @@
         <v>49</v>
       </c>
       <c r="BU51" s="73" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="BV51" s="73">
         <v>-75</v>
       </c>
       <c r="BW51" s="73"/>
       <c r="BX51" s="73"/>
-      <c r="BY51" s="118">
+      <c r="BY51" s="73">
         <v>49</v>
       </c>
-      <c r="BZ51" s="217" t="s">
-        <v>1046</v>
-      </c>
-      <c r="CA51" s="118">
+      <c r="BZ51" s="73" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CA51" s="73">
         <v>-65</v>
       </c>
-      <c r="CB51" s="118"/>
-      <c r="CC51" s="118"/>
+      <c r="CB51" s="73"/>
+      <c r="CC51" s="73"/>
     </row>
     <row r="52" spans="2:81" ht="15.75">
       <c r="B52" s="73">
@@ -14823,22 +14846,22 @@
       </c>
       <c r="J52" s="73"/>
       <c r="K52" s="73"/>
-      <c r="L52" s="118">
+      <c r="L52" s="73">
         <v>50</v>
       </c>
-      <c r="M52" s="118" t="s">
+      <c r="M52" s="73" t="s">
         <v>554</v>
       </c>
-      <c r="N52" s="118">
+      <c r="N52" s="73">
         <v>-298</v>
       </c>
-      <c r="O52" s="118"/>
-      <c r="P52" s="218"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="139"/>
       <c r="Q52" s="73">
         <v>50</v>
       </c>
       <c r="R52" s="73" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="S52" s="73">
         <v>-65</v>
@@ -14863,7 +14886,7 @@
         <v>50</v>
       </c>
       <c r="AB52" s="73" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AC52" s="73">
         <v>-60</v>
@@ -14874,7 +14897,7 @@
         <v>50</v>
       </c>
       <c r="AG52" s="73" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AH52" s="73">
         <v>-60</v>
@@ -14892,7 +14915,7 @@
         <v>50</v>
       </c>
       <c r="AQ52" s="73" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AR52" s="73">
         <v>-60</v>
@@ -14903,7 +14926,7 @@
         <v>50</v>
       </c>
       <c r="AV52" s="130" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AW52" s="130">
         <v>-75</v>
@@ -14958,37 +14981,44 @@
       <c r="BV52" s="204"/>
       <c r="BW52" s="204"/>
       <c r="BX52" s="204"/>
-      <c r="BY52" s="209">
+      <c r="BY52" s="118">
         <v>50</v>
       </c>
       <c r="BZ52" s="216" t="s">
-        <v>1047</v>
-      </c>
-      <c r="CA52" s="209"/>
-      <c r="CB52" s="209"/>
-      <c r="CC52" s="209"/>
+        <v>1046</v>
+      </c>
+      <c r="CA52" s="118">
+        <v>-75</v>
+      </c>
+      <c r="CB52" s="118"/>
+      <c r="CC52" s="118"/>
     </row>
     <row r="53" spans="2:81" ht="15.75">
-      <c r="B53" s="118">
+      <c r="B53" s="73">
         <v>51</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="D53" s="118">
+      <c r="D53" s="73">
         <v>-75</v>
       </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="133">
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="118">
         <v>51</v>
       </c>
-      <c r="H53" s="133" t="s">
+      <c r="H53" s="118" t="s">
         <v>556</v>
       </c>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
+      <c r="I53" s="118">
+        <v>-1250</v>
+      </c>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118">
+        <f>K43+SUM(I40:I53)</f>
+        <v>80</v>
+      </c>
       <c r="L53" s="140">
         <v>51</v>
       </c>
@@ -15005,33 +15035,39 @@
       <c r="S53" s="152"/>
       <c r="T53" s="152"/>
       <c r="U53" s="152"/>
-      <c r="V53" s="153">
+      <c r="V53" s="118">
         <v>51</v>
       </c>
-      <c r="W53" s="153"/>
-      <c r="X53" s="153"/>
-      <c r="Y53" s="153"/>
-      <c r="Z53" s="153"/>
-      <c r="AA53" s="118">
+      <c r="W53" s="216" t="s">
+        <v>1080</v>
+      </c>
+      <c r="X53" s="118">
+        <v>-60</v>
+      </c>
+      <c r="Y53" s="118"/>
+      <c r="Z53" s="118"/>
+      <c r="AA53" s="73">
         <v>51</v>
       </c>
-      <c r="AB53" s="217" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC53" s="118">
+      <c r="AB53" s="73" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AC53" s="73">
         <v>-65</v>
       </c>
-      <c r="AD53" s="118"/>
-      <c r="AE53" s="118"/>
-      <c r="AF53" s="162">
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="118">
         <v>51</v>
       </c>
-      <c r="AG53" s="162" t="s">
+      <c r="AG53" s="118" t="s">
         <v>431</v>
       </c>
-      <c r="AH53" s="162"/>
-      <c r="AI53" s="162"/>
-      <c r="AJ53" s="162"/>
+      <c r="AH53" s="118">
+        <v>-65</v>
+      </c>
+      <c r="AI53" s="118"/>
+      <c r="AJ53" s="118"/>
       <c r="AK53" s="153">
         <v>51</v>
       </c>
@@ -15039,22 +15075,22 @@
       <c r="AM53" s="153"/>
       <c r="AN53" s="153"/>
       <c r="AO53" s="153"/>
-      <c r="AP53" s="118">
+      <c r="AP53" s="73">
         <v>51</v>
       </c>
-      <c r="AQ53" s="118" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AR53" s="118">
+      <c r="AQ53" s="73" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AR53" s="73">
         <v>-65</v>
       </c>
-      <c r="AS53" s="118"/>
-      <c r="AT53" s="118"/>
+      <c r="AS53" s="73"/>
+      <c r="AT53" s="73"/>
       <c r="AU53" s="73">
         <v>51</v>
       </c>
       <c r="AV53" s="73" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AW53" s="73">
         <v>-60</v>
@@ -15072,7 +15108,7 @@
         <v>51</v>
       </c>
       <c r="BF53" s="73" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="BG53" s="73">
         <v>-465</v>
@@ -15090,7 +15126,7 @@
         <v>51</v>
       </c>
       <c r="BP53" s="73" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="BQ53" s="73">
         <v>-298</v>
@@ -15101,7 +15137,7 @@
         <v>51</v>
       </c>
       <c r="BU53" s="204" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="BV53" s="204"/>
       <c r="BW53" s="204"/>
@@ -15109,23 +15145,25 @@
       <c r="BY53" s="209">
         <v>51</v>
       </c>
-      <c r="BZ53" s="216" t="s">
-        <v>1048</v>
+      <c r="BZ53" s="215" t="s">
+        <v>1047</v>
       </c>
       <c r="CA53" s="209"/>
       <c r="CB53" s="209"/>
       <c r="CC53" s="209"/>
     </row>
-    <row r="54" spans="2:81">
-      <c r="B54" s="132">
+    <row r="54" spans="2:81" ht="15.75">
+      <c r="B54" s="118">
         <v>52</v>
       </c>
-      <c r="C54" s="132" t="s">
+      <c r="C54" s="118" t="s">
         <v>557</v>
       </c>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
+      <c r="D54" s="118">
+        <v>-90</v>
+      </c>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
       <c r="G54" s="133">
         <v>52</v>
       </c>
@@ -15181,24 +15219,28 @@
       <c r="AM54" s="153"/>
       <c r="AN54" s="153"/>
       <c r="AO54" s="153"/>
-      <c r="AP54" s="181">
+      <c r="AP54" s="118">
         <v>52</v>
       </c>
-      <c r="AQ54" s="181" t="s">
+      <c r="AQ54" s="118" t="s">
         <v>902</v>
       </c>
-      <c r="AR54" s="181"/>
-      <c r="AS54" s="181"/>
-      <c r="AT54" s="181"/>
-      <c r="AU54" s="182">
+      <c r="AR54" s="118">
+        <v>-75</v>
+      </c>
+      <c r="AS54" s="118"/>
+      <c r="AT54" s="118"/>
+      <c r="AU54" s="118">
         <v>52</v>
       </c>
-      <c r="AV54" s="182" t="s">
+      <c r="AV54" s="118" t="s">
         <v>903</v>
       </c>
-      <c r="AW54" s="182"/>
-      <c r="AX54" s="182"/>
-      <c r="AY54" s="182"/>
+      <c r="AW54" s="118">
+        <v>-65</v>
+      </c>
+      <c r="AX54" s="118"/>
+      <c r="AY54" s="118"/>
       <c r="AZ54" s="190">
         <v>52</v>
       </c>
@@ -15206,17 +15248,17 @@
       <c r="BB54" s="190"/>
       <c r="BC54" s="190"/>
       <c r="BD54" s="190"/>
-      <c r="BE54" s="118">
+      <c r="BE54" s="73">
         <v>52</v>
       </c>
-      <c r="BF54" s="217" t="s">
-        <v>1078</v>
-      </c>
-      <c r="BG54" s="118">
+      <c r="BF54" s="73" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BG54" s="73">
         <v>-600</v>
       </c>
-      <c r="BH54" s="118"/>
-      <c r="BI54" s="118"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
       <c r="BJ54" s="198">
         <v>52</v>
       </c>
@@ -15224,22 +15266,22 @@
       <c r="BL54" s="198"/>
       <c r="BM54" s="198"/>
       <c r="BN54" s="198"/>
-      <c r="BO54" s="118">
+      <c r="BO54" s="73">
         <v>52</v>
       </c>
-      <c r="BP54" s="217" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BQ54" s="217">
+      <c r="BP54" s="73" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BQ54" s="73">
         <v>-415</v>
       </c>
-      <c r="BR54" s="118"/>
-      <c r="BS54" s="118"/>
+      <c r="BR54" s="73"/>
+      <c r="BS54" s="73"/>
       <c r="BT54" s="204">
         <v>52</v>
       </c>
       <c r="BU54" s="204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="BV54" s="204"/>
       <c r="BW54" s="204"/>
@@ -15247,8 +15289,8 @@
       <c r="BY54" s="209">
         <v>52</v>
       </c>
-      <c r="BZ54" s="216" t="s">
-        <v>907</v>
+      <c r="BZ54" s="215" t="s">
+        <v>906</v>
       </c>
       <c r="CA54" s="209"/>
       <c r="CB54" s="209"/>
@@ -15323,7 +15365,7 @@
         <v>53</v>
       </c>
       <c r="AQ55" s="181" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AR55" s="181"/>
       <c r="AS55" s="181"/>
@@ -15332,7 +15374,7 @@
         <v>53</v>
       </c>
       <c r="AV55" s="182" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AW55" s="182"/>
       <c r="AX55" s="182"/>
@@ -15361,7 +15403,7 @@
       <c r="BO55" s="152">
         <v>53</v>
       </c>
-      <c r="BP55" s="220" t="s">
+      <c r="BP55" s="218" t="s">
         <v>139</v>
       </c>
       <c r="BQ55" s="152"/>
@@ -15371,7 +15413,7 @@
         <v>53</v>
       </c>
       <c r="BU55" s="204" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BV55" s="204"/>
       <c r="BW55" s="204"/>
@@ -15379,7 +15421,7 @@
       <c r="BY55" s="209">
         <v>53</v>
       </c>
-      <c r="BZ55" s="216" t="s">
+      <c r="BZ55" s="215" t="s">
         <v>64</v>
       </c>
       <c r="CA55" s="209"/>
@@ -15439,7 +15481,7 @@
         <v>54</v>
       </c>
       <c r="AG56" s="162" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AH56" s="162"/>
       <c r="AI56" s="162"/>
@@ -15455,7 +15497,7 @@
         <v>54</v>
       </c>
       <c r="AQ56" s="181" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AR56" s="181"/>
       <c r="AS56" s="181"/>
@@ -15464,7 +15506,7 @@
         <v>54</v>
       </c>
       <c r="AV56" s="182" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AW56" s="182"/>
       <c r="AX56" s="182"/>
@@ -15493,7 +15535,7 @@
       <c r="BO56" s="152">
         <v>54</v>
       </c>
-      <c r="BP56" s="220" t="s">
+      <c r="BP56" s="218" t="s">
         <v>438</v>
       </c>
       <c r="BQ56" s="152"/>
@@ -15503,7 +15545,7 @@
         <v>54</v>
       </c>
       <c r="BU56" s="204" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="BV56" s="204"/>
       <c r="BW56" s="204"/>
@@ -15511,7 +15553,7 @@
       <c r="BY56" s="209">
         <v>54</v>
       </c>
-      <c r="BZ56" s="216" t="s">
+      <c r="BZ56" s="215" t="s">
         <v>428</v>
       </c>
       <c r="CA56" s="209"/>
@@ -15571,7 +15613,7 @@
         <v>55</v>
       </c>
       <c r="AG57" s="162" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AH57" s="162"/>
       <c r="AI57" s="162"/>
@@ -15596,7 +15638,7 @@
         <v>55</v>
       </c>
       <c r="AV57" s="182" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AW57" s="182"/>
       <c r="AX57" s="182"/>
@@ -15625,7 +15667,7 @@
       <c r="BO57" s="152">
         <v>55</v>
       </c>
-      <c r="BP57" s="220" t="s">
+      <c r="BP57" s="218" t="s">
         <v>278</v>
       </c>
       <c r="BQ57" s="152"/>
@@ -15635,7 +15677,7 @@
         <v>55</v>
       </c>
       <c r="BU57" s="204" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="BV57" s="204"/>
       <c r="BW57" s="204"/>
@@ -15643,8 +15685,8 @@
       <c r="BY57" s="209">
         <v>55</v>
       </c>
-      <c r="BZ57" s="216" t="s">
-        <v>1049</v>
+      <c r="BZ57" s="215" t="s">
+        <v>1048</v>
       </c>
       <c r="CA57" s="209"/>
       <c r="CB57" s="209"/>
@@ -15719,7 +15761,7 @@
         <v>56</v>
       </c>
       <c r="AQ58" s="181" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AR58" s="181"/>
       <c r="AS58" s="181"/>
@@ -15728,7 +15770,7 @@
         <v>56</v>
       </c>
       <c r="AV58" s="182" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AW58" s="182"/>
       <c r="AX58" s="182"/>
@@ -15757,8 +15799,8 @@
       <c r="BO58" s="152">
         <v>56</v>
       </c>
-      <c r="BP58" s="220" t="s">
-        <v>1067</v>
+      <c r="BP58" s="218" t="s">
+        <v>1066</v>
       </c>
       <c r="BQ58" s="152"/>
       <c r="BR58" s="152"/>
@@ -15767,7 +15809,7 @@
         <v>56</v>
       </c>
       <c r="BU58" s="204" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="BV58" s="204"/>
       <c r="BW58" s="204"/>
@@ -15775,8 +15817,8 @@
       <c r="BY58" s="209">
         <v>56</v>
       </c>
-      <c r="BZ58" s="216" t="s">
-        <v>1046</v>
+      <c r="BZ58" s="215" t="s">
+        <v>1045</v>
       </c>
       <c r="CA58" s="209"/>
       <c r="CB58" s="209"/>
@@ -15851,7 +15893,7 @@
         <v>57</v>
       </c>
       <c r="AQ59" s="181" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AR59" s="181"/>
       <c r="AS59" s="181"/>
@@ -15889,7 +15931,7 @@
       <c r="BO59" s="152">
         <v>57</v>
       </c>
-      <c r="BP59" s="220" t="s">
+      <c r="BP59" s="218" t="s">
         <v>53</v>
       </c>
       <c r="BQ59" s="152"/>
@@ -15899,7 +15941,7 @@
         <v>57</v>
       </c>
       <c r="BU59" s="204" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="BV59" s="204"/>
       <c r="BW59" s="204"/>
@@ -15907,8 +15949,8 @@
       <c r="BY59" s="209">
         <v>57</v>
       </c>
-      <c r="BZ59" s="216" t="s">
-        <v>1050</v>
+      <c r="BZ59" s="215" t="s">
+        <v>1049</v>
       </c>
       <c r="CA59" s="209"/>
       <c r="CB59" s="209"/>
@@ -15967,7 +16009,7 @@
         <v>58</v>
       </c>
       <c r="AG60" s="162" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AH60" s="162"/>
       <c r="AI60" s="162"/>
@@ -15983,7 +16025,7 @@
         <v>58</v>
       </c>
       <c r="AQ60" s="181" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AR60" s="181"/>
       <c r="AS60" s="181"/>
@@ -16021,7 +16063,7 @@
       <c r="BO60" s="152">
         <v>58</v>
       </c>
-      <c r="BP60" s="220" t="s">
+      <c r="BP60" s="218" t="s">
         <v>386</v>
       </c>
       <c r="BQ60" s="152"/>
@@ -16031,7 +16073,7 @@
         <v>58</v>
       </c>
       <c r="BU60" s="204" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BV60" s="204"/>
       <c r="BW60" s="204"/>
@@ -16039,8 +16081,8 @@
       <c r="BY60" s="209">
         <v>58</v>
       </c>
-      <c r="BZ60" s="216" t="s">
-        <v>1051</v>
+      <c r="BZ60" s="215" t="s">
+        <v>1050</v>
       </c>
       <c r="CA60" s="209"/>
       <c r="CB60" s="209"/>
@@ -16115,7 +16157,7 @@
         <v>59</v>
       </c>
       <c r="AQ61" s="181" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AR61" s="181"/>
       <c r="AS61" s="181"/>
@@ -16153,8 +16195,8 @@
       <c r="BO61" s="152">
         <v>59</v>
       </c>
-      <c r="BP61" s="220" t="s">
-        <v>1004</v>
+      <c r="BP61" s="218" t="s">
+        <v>1003</v>
       </c>
       <c r="BQ61" s="152"/>
       <c r="BR61" s="152"/>
@@ -16163,7 +16205,7 @@
         <v>59</v>
       </c>
       <c r="BU61" s="204" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="BV61" s="204"/>
       <c r="BW61" s="204"/>
@@ -16171,8 +16213,8 @@
       <c r="BY61" s="209">
         <v>59</v>
       </c>
-      <c r="BZ61" s="216" t="s">
-        <v>1052</v>
+      <c r="BZ61" s="215" t="s">
+        <v>1051</v>
       </c>
       <c r="CA61" s="209"/>
       <c r="CB61" s="209"/>
@@ -16285,8 +16327,8 @@
       <c r="BO62" s="152">
         <v>60</v>
       </c>
-      <c r="BP62" s="220" t="s">
-        <v>1068</v>
+      <c r="BP62" s="218" t="s">
+        <v>1067</v>
       </c>
       <c r="BQ62" s="152"/>
       <c r="BR62" s="152"/>
@@ -16303,8 +16345,8 @@
       <c r="BY62" s="209">
         <v>60</v>
       </c>
-      <c r="BZ62" s="216" t="s">
-        <v>931</v>
+      <c r="BZ62" s="215" t="s">
+        <v>930</v>
       </c>
       <c r="CA62" s="209"/>
       <c r="CB62" s="209"/>
@@ -16379,7 +16421,7 @@
         <v>61</v>
       </c>
       <c r="AQ63" s="181" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AR63" s="181"/>
       <c r="AS63" s="181"/>
@@ -16417,7 +16459,7 @@
       <c r="BO63" s="152">
         <v>61</v>
       </c>
-      <c r="BP63" s="220" t="s">
+      <c r="BP63" s="218" t="s">
         <v>544</v>
       </c>
       <c r="BQ63" s="152"/>
@@ -16435,8 +16477,8 @@
       <c r="BY63" s="209">
         <v>61</v>
       </c>
-      <c r="BZ63" s="216" t="s">
-        <v>1053</v>
+      <c r="BZ63" s="215" t="s">
+        <v>1052</v>
       </c>
       <c r="CA63" s="209"/>
       <c r="CB63" s="209"/>
@@ -16495,7 +16537,7 @@
         <v>62</v>
       </c>
       <c r="AG64" s="162" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AH64" s="162"/>
       <c r="AI64" s="162"/>
@@ -16511,7 +16553,7 @@
         <v>62</v>
       </c>
       <c r="AQ64" s="181" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AR64" s="181"/>
       <c r="AS64" s="181"/>
@@ -16520,7 +16562,7 @@
         <v>62</v>
       </c>
       <c r="AV64" s="182" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AW64" s="182"/>
       <c r="AX64" s="182"/>
@@ -16549,7 +16591,7 @@
       <c r="BO64" s="152">
         <v>62</v>
       </c>
-      <c r="BP64" s="220" t="s">
+      <c r="BP64" s="218" t="s">
         <v>68</v>
       </c>
       <c r="BQ64" s="152"/>
@@ -16567,8 +16609,8 @@
       <c r="BY64" s="209">
         <v>62</v>
       </c>
-      <c r="BZ64" s="216" t="s">
-        <v>939</v>
+      <c r="BZ64" s="215" t="s">
+        <v>938</v>
       </c>
       <c r="CA64" s="209"/>
       <c r="CB64" s="209"/>
@@ -16643,7 +16685,7 @@
         <v>63</v>
       </c>
       <c r="AQ65" s="181" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AR65" s="181"/>
       <c r="AS65" s="181"/>
@@ -16652,7 +16694,7 @@
         <v>63</v>
       </c>
       <c r="AV65" s="182" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AW65" s="182"/>
       <c r="AX65" s="182"/>
@@ -16681,7 +16723,7 @@
       <c r="BO65" s="152">
         <v>63</v>
       </c>
-      <c r="BP65" s="220" t="s">
+      <c r="BP65" s="218" t="s">
         <v>160</v>
       </c>
       <c r="BQ65" s="152"/>
@@ -16699,8 +16741,8 @@
       <c r="BY65" s="209">
         <v>63</v>
       </c>
-      <c r="BZ65" s="216" t="s">
-        <v>1054</v>
+      <c r="BZ65" s="215" t="s">
+        <v>1053</v>
       </c>
       <c r="CA65" s="209"/>
       <c r="CB65" s="209"/>
@@ -16775,7 +16817,7 @@
         <v>64</v>
       </c>
       <c r="AQ66" s="181" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AR66" s="181"/>
       <c r="AS66" s="181"/>
@@ -16784,7 +16826,7 @@
         <v>64</v>
       </c>
       <c r="AV66" s="182" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AW66" s="182"/>
       <c r="AX66" s="182"/>
@@ -16813,7 +16855,7 @@
       <c r="BO66" s="152">
         <v>64</v>
       </c>
-      <c r="BP66" s="220" t="s">
+      <c r="BP66" s="218" t="s">
         <v>396</v>
       </c>
       <c r="BQ66" s="152"/>
@@ -16823,7 +16865,7 @@
         <v>64</v>
       </c>
       <c r="BU66" s="204" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="BV66" s="204"/>
       <c r="BW66" s="204"/>
@@ -16831,8 +16873,8 @@
       <c r="BY66" s="209">
         <v>64</v>
       </c>
-      <c r="BZ66" s="216" t="s">
-        <v>1055</v>
+      <c r="BZ66" s="215" t="s">
+        <v>1054</v>
       </c>
       <c r="CA66" s="209"/>
       <c r="CB66" s="209"/>
@@ -16945,7 +16987,7 @@
       <c r="BO67" s="152">
         <v>65</v>
       </c>
-      <c r="BP67" s="220" t="s">
+      <c r="BP67" s="218" t="s">
         <v>544</v>
       </c>
       <c r="BQ67" s="152"/>
@@ -16955,7 +16997,7 @@
         <v>65</v>
       </c>
       <c r="BU67" s="204" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="BV67" s="204"/>
       <c r="BW67" s="204"/>
@@ -16963,8 +17005,8 @@
       <c r="BY67" s="209">
         <v>65</v>
       </c>
-      <c r="BZ67" s="216" t="s">
-        <v>1056</v>
+      <c r="BZ67" s="215" t="s">
+        <v>1055</v>
       </c>
       <c r="CA67" s="209"/>
       <c r="CB67" s="209"/>
@@ -17077,8 +17119,8 @@
       <c r="BO68" s="152">
         <v>66</v>
       </c>
-      <c r="BP68" s="220" t="s">
-        <v>1020</v>
+      <c r="BP68" s="218" t="s">
+        <v>1019</v>
       </c>
       <c r="BQ68" s="152"/>
       <c r="BR68" s="152"/>
@@ -17095,8 +17137,8 @@
       <c r="BY68" s="209">
         <v>66</v>
       </c>
-      <c r="BZ68" s="216" t="s">
-        <v>1057</v>
+      <c r="BZ68" s="215" t="s">
+        <v>1056</v>
       </c>
       <c r="CA68" s="209"/>
       <c r="CB68" s="209"/>
@@ -17155,7 +17197,7 @@
         <v>67</v>
       </c>
       <c r="AG69" s="162" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AH69" s="162"/>
       <c r="AI69" s="162"/>
@@ -17171,7 +17213,7 @@
         <v>67</v>
       </c>
       <c r="AQ69" s="181" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AR69" s="181"/>
       <c r="AS69" s="181"/>
@@ -17209,8 +17251,8 @@
       <c r="BO69" s="152">
         <v>67</v>
       </c>
-      <c r="BP69" s="220" t="s">
-        <v>1067</v>
+      <c r="BP69" s="218" t="s">
+        <v>1066</v>
       </c>
       <c r="BQ69" s="152"/>
       <c r="BR69" s="152"/>
@@ -17219,7 +17261,7 @@
         <v>67</v>
       </c>
       <c r="BU69" s="204" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="BV69" s="204"/>
       <c r="BW69" s="204"/>
@@ -17227,8 +17269,8 @@
       <c r="BY69" s="209">
         <v>67</v>
       </c>
-      <c r="BZ69" s="216" t="s">
-        <v>952</v>
+      <c r="BZ69" s="215" t="s">
+        <v>951</v>
       </c>
       <c r="CA69" s="209"/>
       <c r="CB69" s="209"/>
@@ -17287,7 +17329,7 @@
         <v>68</v>
       </c>
       <c r="AG70" s="162" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AH70" s="162"/>
       <c r="AI70" s="162"/>
@@ -17312,7 +17354,7 @@
         <v>68</v>
       </c>
       <c r="AV70" s="182" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW70" s="182"/>
       <c r="AX70" s="182"/>
@@ -17341,8 +17383,8 @@
       <c r="BO70" s="152">
         <v>68</v>
       </c>
-      <c r="BP70" s="220" t="s">
-        <v>1069</v>
+      <c r="BP70" s="218" t="s">
+        <v>1068</v>
       </c>
       <c r="BQ70" s="152"/>
       <c r="BR70" s="152"/>
@@ -17359,7 +17401,7 @@
       <c r="BY70" s="209">
         <v>68</v>
       </c>
-      <c r="BZ70" s="216" t="s">
+      <c r="BZ70" s="215" t="s">
         <v>83</v>
       </c>
       <c r="CA70" s="209"/>
@@ -17419,7 +17461,7 @@
         <v>69</v>
       </c>
       <c r="AG71" s="162" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AH71" s="162"/>
       <c r="AI71" s="162"/>
@@ -17435,7 +17477,7 @@
         <v>69</v>
       </c>
       <c r="AQ71" s="181" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AR71" s="181"/>
       <c r="AS71" s="181"/>
@@ -17444,7 +17486,7 @@
         <v>69</v>
       </c>
       <c r="AV71" s="182" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AW71" s="182"/>
       <c r="AX71" s="182"/>
@@ -17473,8 +17515,8 @@
       <c r="BO71" s="152">
         <v>69</v>
       </c>
-      <c r="BP71" s="220" t="s">
-        <v>1070</v>
+      <c r="BP71" s="218" t="s">
+        <v>1069</v>
       </c>
       <c r="BQ71" s="152"/>
       <c r="BR71" s="152"/>
@@ -17483,7 +17525,7 @@
         <v>69</v>
       </c>
       <c r="BU71" s="204" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BV71" s="204"/>
       <c r="BW71" s="204"/>
@@ -17491,7 +17533,7 @@
       <c r="BY71" s="209">
         <v>69</v>
       </c>
-      <c r="BZ71" s="216" t="s">
+      <c r="BZ71" s="215" t="s">
         <v>437</v>
       </c>
       <c r="CA71" s="209"/>
@@ -17551,7 +17593,7 @@
         <v>70</v>
       </c>
       <c r="AG72" s="162" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AH72" s="162"/>
       <c r="AI72" s="162"/>
@@ -17567,7 +17609,7 @@
         <v>70</v>
       </c>
       <c r="AQ72" s="181" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AR72" s="181"/>
       <c r="AS72" s="181"/>
@@ -17605,8 +17647,8 @@
       <c r="BO72" s="152">
         <v>70</v>
       </c>
-      <c r="BP72" s="220" t="s">
-        <v>1071</v>
+      <c r="BP72" s="218" t="s">
+        <v>1070</v>
       </c>
       <c r="BQ72" s="152"/>
       <c r="BR72" s="152"/>
@@ -17623,8 +17665,8 @@
       <c r="BY72" s="209">
         <v>70</v>
       </c>
-      <c r="BZ72" s="216" t="s">
-        <v>1054</v>
+      <c r="BZ72" s="215" t="s">
+        <v>1053</v>
       </c>
       <c r="CA72" s="209"/>
       <c r="CB72" s="209"/>
@@ -17683,7 +17725,7 @@
         <v>71</v>
       </c>
       <c r="AG73" s="162" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AH73" s="162"/>
       <c r="AI73" s="162"/>
@@ -17708,7 +17750,7 @@
         <v>71</v>
       </c>
       <c r="AV73" s="182" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AW73" s="182"/>
       <c r="AX73" s="182"/>
@@ -17737,8 +17779,8 @@
       <c r="BO73" s="152">
         <v>71</v>
       </c>
-      <c r="BP73" s="220" t="s">
-        <v>961</v>
+      <c r="BP73" s="218" t="s">
+        <v>960</v>
       </c>
       <c r="BQ73" s="152"/>
       <c r="BR73" s="152"/>
@@ -17747,7 +17789,7 @@
         <v>71</v>
       </c>
       <c r="BU73" s="204" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="BV73" s="204"/>
       <c r="BW73" s="204"/>
@@ -17755,8 +17797,8 @@
       <c r="BY73" s="209">
         <v>71</v>
       </c>
-      <c r="BZ73" s="216" t="s">
-        <v>1051</v>
+      <c r="BZ73" s="215" t="s">
+        <v>1050</v>
       </c>
       <c r="CA73" s="209"/>
       <c r="CB73" s="209"/>
@@ -17840,7 +17882,7 @@
         <v>72</v>
       </c>
       <c r="AV74" s="182" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AW74" s="182"/>
       <c r="AX74" s="182"/>
@@ -17869,7 +17911,7 @@
       <c r="BO74" s="152">
         <v>72</v>
       </c>
-      <c r="BP74" s="220" t="s">
+      <c r="BP74" s="218" t="s">
         <v>438</v>
       </c>
       <c r="BQ74" s="152"/>
@@ -17879,7 +17921,7 @@
         <v>72</v>
       </c>
       <c r="BU74" s="204" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="BV74" s="204"/>
       <c r="BW74" s="204"/>
@@ -17887,8 +17929,8 @@
       <c r="BY74" s="209">
         <v>72</v>
       </c>
-      <c r="BZ74" s="216" t="s">
-        <v>1002</v>
+      <c r="BZ74" s="215" t="s">
+        <v>1001</v>
       </c>
       <c r="CA74" s="209"/>
       <c r="CB74" s="209"/>
@@ -17963,7 +18005,7 @@
         <v>73</v>
       </c>
       <c r="AQ75" s="181" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AR75" s="181"/>
       <c r="AS75" s="181"/>
@@ -17972,7 +18014,7 @@
         <v>73</v>
       </c>
       <c r="AV75" s="182" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AW75" s="182"/>
       <c r="AX75" s="182"/>
@@ -18001,8 +18043,8 @@
       <c r="BO75" s="152">
         <v>73</v>
       </c>
-      <c r="BP75" s="220" t="s">
-        <v>1004</v>
+      <c r="BP75" s="218" t="s">
+        <v>1003</v>
       </c>
       <c r="BQ75" s="152"/>
       <c r="BR75" s="152"/>
@@ -18019,8 +18061,8 @@
       <c r="BY75" s="209">
         <v>73</v>
       </c>
-      <c r="BZ75" s="216" t="s">
-        <v>1047</v>
+      <c r="BZ75" s="215" t="s">
+        <v>1046</v>
       </c>
       <c r="CA75" s="209"/>
       <c r="CB75" s="209"/>
@@ -18095,7 +18137,7 @@
         <v>74</v>
       </c>
       <c r="AQ76" s="181" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AR76" s="181"/>
       <c r="AS76" s="181"/>
@@ -18104,7 +18146,7 @@
         <v>74</v>
       </c>
       <c r="AV76" s="182" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AW76" s="182"/>
       <c r="AX76" s="182"/>
@@ -18133,7 +18175,7 @@
       <c r="BO76" s="152">
         <v>74</v>
       </c>
-      <c r="BP76" s="220" t="s">
+      <c r="BP76" s="218" t="s">
         <v>36</v>
       </c>
       <c r="BQ76" s="152"/>
@@ -18151,7 +18193,7 @@
       <c r="BY76" s="209">
         <v>74</v>
       </c>
-      <c r="BZ76" s="216" t="s">
+      <c r="BZ76" s="215" t="s">
         <v>606</v>
       </c>
       <c r="CA76" s="209"/>
@@ -18227,7 +18269,7 @@
         <v>75</v>
       </c>
       <c r="AQ77" s="181" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AR77" s="181"/>
       <c r="AS77" s="181"/>
@@ -18236,7 +18278,7 @@
         <v>75</v>
       </c>
       <c r="AV77" s="182" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AW77" s="182"/>
       <c r="AX77" s="182"/>
@@ -18265,7 +18307,7 @@
       <c r="BO77" s="152">
         <v>75</v>
       </c>
-      <c r="BP77" s="220" t="s">
+      <c r="BP77" s="218" t="s">
         <v>167</v>
       </c>
       <c r="BQ77" s="152"/>
@@ -18283,8 +18325,8 @@
       <c r="BY77" s="209">
         <v>75</v>
       </c>
-      <c r="BZ77" s="216" t="s">
-        <v>1053</v>
+      <c r="BZ77" s="215" t="s">
+        <v>1052</v>
       </c>
       <c r="CA77" s="209"/>
       <c r="CB77" s="209"/>
@@ -18368,7 +18410,7 @@
         <v>76</v>
       </c>
       <c r="AV78" s="182" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AW78" s="182"/>
       <c r="AX78" s="182"/>
@@ -18397,7 +18439,7 @@
       <c r="BO78" s="152">
         <v>76</v>
       </c>
-      <c r="BP78" s="220" t="s">
+      <c r="BP78" s="218" t="s">
         <v>160</v>
       </c>
       <c r="BQ78" s="152"/>
@@ -18407,7 +18449,7 @@
         <v>76</v>
       </c>
       <c r="BU78" s="204" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="BV78" s="204"/>
       <c r="BW78" s="204"/>
@@ -18415,7 +18457,7 @@
       <c r="BY78" s="209">
         <v>76</v>
       </c>
-      <c r="BZ78" s="216" t="s">
+      <c r="BZ78" s="215" t="s">
         <v>353</v>
       </c>
       <c r="CA78" s="209"/>
@@ -18475,7 +18517,7 @@
         <v>77</v>
       </c>
       <c r="AG79" s="162" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AH79" s="162"/>
       <c r="AI79" s="162"/>
@@ -18491,7 +18533,7 @@
         <v>77</v>
       </c>
       <c r="AQ79" s="181" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AR79" s="181"/>
       <c r="AS79" s="181"/>
@@ -18500,7 +18542,7 @@
         <v>77</v>
       </c>
       <c r="AV79" s="182" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AW79" s="182"/>
       <c r="AX79" s="182"/>
@@ -18529,8 +18571,8 @@
       <c r="BO79" s="152">
         <v>77</v>
       </c>
-      <c r="BP79" s="220" t="s">
-        <v>1072</v>
+      <c r="BP79" s="218" t="s">
+        <v>1071</v>
       </c>
       <c r="BQ79" s="152"/>
       <c r="BR79" s="152"/>
@@ -18547,7 +18589,7 @@
       <c r="BY79" s="209">
         <v>77</v>
       </c>
-      <c r="BZ79" s="216" t="s">
+      <c r="BZ79" s="215" t="s">
         <v>57</v>
       </c>
       <c r="CA79" s="209"/>
@@ -18623,7 +18665,7 @@
         <v>78</v>
       </c>
       <c r="AQ80" s="181" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AR80" s="181"/>
       <c r="AS80" s="181"/>
@@ -18632,7 +18674,7 @@
         <v>78</v>
       </c>
       <c r="AV80" s="182" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AW80" s="182"/>
       <c r="AX80" s="182"/>
@@ -18661,7 +18703,7 @@
       <c r="BO80" s="152">
         <v>78</v>
       </c>
-      <c r="BP80" s="220" t="s">
+      <c r="BP80" s="218" t="s">
         <v>139</v>
       </c>
       <c r="BQ80" s="152"/>
@@ -18671,7 +18713,7 @@
         <v>78</v>
       </c>
       <c r="BU80" s="204" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BV80" s="204"/>
       <c r="BW80" s="204"/>
@@ -18679,8 +18721,8 @@
       <c r="BY80" s="209">
         <v>78</v>
       </c>
-      <c r="BZ80" s="216" t="s">
-        <v>1051</v>
+      <c r="BZ80" s="215" t="s">
+        <v>1050</v>
       </c>
       <c r="CA80" s="209"/>
       <c r="CB80" s="209"/>
@@ -18739,7 +18781,7 @@
         <v>79</v>
       </c>
       <c r="AG81" s="162" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AH81" s="162"/>
       <c r="AI81" s="162"/>
@@ -18755,7 +18797,7 @@
         <v>79</v>
       </c>
       <c r="AQ81" s="181" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AR81" s="181"/>
       <c r="AS81" s="181"/>
@@ -18764,7 +18806,7 @@
         <v>79</v>
       </c>
       <c r="AV81" s="182" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AW81" s="182"/>
       <c r="AX81" s="182"/>
@@ -18793,7 +18835,7 @@
       <c r="BO81" s="152">
         <v>79</v>
       </c>
-      <c r="BP81" s="220" t="s">
+      <c r="BP81" s="218" t="s">
         <v>53</v>
       </c>
       <c r="BQ81" s="152"/>
@@ -18803,7 +18845,7 @@
         <v>79</v>
       </c>
       <c r="BU81" s="204" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="BV81" s="204"/>
       <c r="BW81" s="204"/>
@@ -18811,7 +18853,7 @@
       <c r="BY81" s="209">
         <v>79</v>
       </c>
-      <c r="BZ81" s="216" t="s">
+      <c r="BZ81" s="215" t="s">
         <v>606</v>
       </c>
       <c r="CA81" s="209"/>
@@ -18887,7 +18929,7 @@
         <v>80</v>
       </c>
       <c r="AQ82" s="181" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AR82" s="181"/>
       <c r="AS82" s="181"/>
@@ -18896,7 +18938,7 @@
         <v>80</v>
       </c>
       <c r="AV82" s="182" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AW82" s="182"/>
       <c r="AX82" s="182"/>
@@ -18925,7 +18967,7 @@
       <c r="BO82" s="152">
         <v>80</v>
       </c>
-      <c r="BP82" s="220" t="s">
+      <c r="BP82" s="218" t="s">
         <v>386</v>
       </c>
       <c r="BQ82" s="152"/>
@@ -18943,8 +18985,8 @@
       <c r="BY82" s="209">
         <v>80</v>
       </c>
-      <c r="BZ82" s="216" t="s">
-        <v>1049</v>
+      <c r="BZ82" s="215" t="s">
+        <v>1048</v>
       </c>
       <c r="CA82" s="209"/>
       <c r="CB82" s="209"/>
@@ -19028,7 +19070,7 @@
         <v>81</v>
       </c>
       <c r="AV83" s="182" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW83" s="182"/>
       <c r="AX83" s="182"/>
@@ -19057,7 +19099,7 @@
       <c r="BO83" s="152">
         <v>81</v>
       </c>
-      <c r="BP83" s="220" t="s">
+      <c r="BP83" s="218" t="s">
         <v>68</v>
       </c>
       <c r="BQ83" s="152"/>
@@ -19075,8 +19117,8 @@
       <c r="BY83" s="209">
         <v>81</v>
       </c>
-      <c r="BZ83" s="216" t="s">
-        <v>1047</v>
+      <c r="BZ83" s="215" t="s">
+        <v>1046</v>
       </c>
       <c r="CA83" s="209"/>
       <c r="CB83" s="209"/>
@@ -19160,7 +19202,7 @@
         <v>82</v>
       </c>
       <c r="AV84" s="182" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AW84" s="182"/>
       <c r="AX84" s="182"/>
@@ -19189,7 +19231,7 @@
       <c r="BO84" s="152">
         <v>82</v>
       </c>
-      <c r="BP84" s="220" t="s">
+      <c r="BP84" s="218" t="s">
         <v>167</v>
       </c>
       <c r="BQ84" s="152"/>
@@ -19207,7 +19249,7 @@
       <c r="BY84" s="209">
         <v>82</v>
       </c>
-      <c r="BZ84" s="216" t="s">
+      <c r="BZ84" s="215" t="s">
         <v>329</v>
       </c>
       <c r="CA84" s="209"/>
@@ -19221,7 +19263,7 @@
       <c r="C85" s="212"/>
       <c r="D85" s="212">
         <f>SUM(D3:D84)</f>
-        <v>-4896</v>
+        <v>-4986</v>
       </c>
       <c r="E85" s="118">
         <f>SUM(E3:E84)</f>
@@ -19234,7 +19276,7 @@
       <c r="H85" s="212"/>
       <c r="I85" s="212">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-9079</v>
+        <v>-10329</v>
       </c>
       <c r="J85" s="118">
         <f t="shared" si="0"/>
@@ -19273,7 +19315,7 @@
       <c r="W85" s="212"/>
       <c r="X85" s="212">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-5224</v>
+        <v>-5284</v>
       </c>
       <c r="Y85" s="118">
         <f t="shared" si="3"/>
@@ -19299,7 +19341,7 @@
       <c r="AG85" s="212"/>
       <c r="AH85" s="212">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-5164</v>
+        <v>-5229</v>
       </c>
       <c r="AI85" s="118">
         <f t="shared" si="5"/>
@@ -19325,7 +19367,7 @@
       <c r="AQ85" s="212"/>
       <c r="AR85" s="212">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-3606</v>
+        <v>-3681</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="7"/>
@@ -19338,7 +19380,7 @@
       <c r="AV85" s="212"/>
       <c r="AW85" s="212">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-10957</v>
+        <v>-11022</v>
       </c>
       <c r="AX85" s="118">
         <f t="shared" si="8"/>
@@ -19377,7 +19419,7 @@
       <c r="BK85" s="212"/>
       <c r="BL85" s="212">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-6412</v>
+        <v>-6477</v>
       </c>
       <c r="BM85" s="118">
         <f t="shared" si="11"/>
@@ -19416,7 +19458,7 @@
       <c r="BZ85" s="212"/>
       <c r="CA85" s="212">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-6854</v>
+        <v>-6929</v>
       </c>
       <c r="CB85" s="118">
         <f t="shared" si="14"/>
@@ -19425,29 +19467,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81">
-      <c r="H92" s="222" t="s">
+      <c r="H92" s="220" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="222">
+      <c r="I92" s="220">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>32323</v>
       </c>
-      <c r="J92" s="222"/>
+      <c r="J92" s="220"/>
     </row>
     <row r="93" spans="2:81">
-      <c r="H93" s="222"/>
-      <c r="I93" s="222"/>
-      <c r="J93" s="222"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="220"/>
     </row>
     <row r="94" spans="2:81">
-      <c r="H94" s="222"/>
-      <c r="I94" s="222"/>
-      <c r="J94" s="222"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="220"/>
     </row>
     <row r="95" spans="2:81">
-      <c r="H95" s="222"/>
-      <c r="I95" s="222"/>
-      <c r="J95" s="222"/>
+      <c r="H95" s="220"/>
+      <c r="I95" s="220"/>
+      <c r="J95" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19463,8 +19505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView topLeftCell="A22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="BI54" sqref="BI54:BM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28320,7 +28362,7 @@
         <v>46</v>
       </c>
       <c r="AF48" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AG48" s="17">
         <v>-215</v>
@@ -28500,13 +28542,17 @@
       </c>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
-      <c r="AE49" s="57">
+      <c r="AE49" s="86">
         <v>47</v>
       </c>
-      <c r="AF49" s="57"/>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="57"/>
+      <c r="AF49" s="86" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG49" s="86">
+        <v>-298</v>
+      </c>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="86"/>
       <c r="AJ49" s="16">
         <v>47</v>
       </c>
@@ -28787,7 +28833,7 @@
         <v>48</v>
       </c>
       <c r="BT50" s="17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="BU50" s="17">
         <v>-65</v>
@@ -28818,17 +28864,17 @@
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="86">
+      <c r="F51" s="17">
         <v>49</v>
       </c>
-      <c r="G51" s="86" t="s">
+      <c r="G51" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="H51" s="86">
+      <c r="H51" s="17">
         <v>-215</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="214"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="17">
         <v>49</v>
       </c>
@@ -28926,7 +28972,7 @@
         <v>49</v>
       </c>
       <c r="BE51" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="BF51" s="17">
         <v>-60</v>
@@ -28958,17 +29004,17 @@
       </c>
       <c r="BQ51" s="17"/>
       <c r="BR51" s="17"/>
-      <c r="BS51" s="86">
+      <c r="BS51" s="17">
         <v>49</v>
       </c>
-      <c r="BT51" s="219" t="s">
-        <v>1078</v>
-      </c>
-      <c r="BU51" s="86">
+      <c r="BT51" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BU51" s="17">
         <v>-75</v>
       </c>
-      <c r="BV51" s="86"/>
-      <c r="BW51" s="86"/>
+      <c r="BV51" s="17"/>
+      <c r="BW51" s="17"/>
       <c r="BX51" s="16">
         <v>49</v>
       </c>
@@ -29083,7 +29129,7 @@
         <v>50</v>
       </c>
       <c r="AU52" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AV52" s="16">
         <v>-1000</v>
@@ -29096,20 +29142,24 @@
         <v>50</v>
       </c>
       <c r="AZ52" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BA52" s="17">
         <v>-65</v>
       </c>
       <c r="BB52" s="17"/>
       <c r="BC52" s="17"/>
-      <c r="BD52" s="87">
+      <c r="BD52" s="86">
         <v>50</v>
       </c>
-      <c r="BE52" s="87"/>
-      <c r="BF52" s="87"/>
-      <c r="BG52" s="87"/>
-      <c r="BH52" s="87"/>
+      <c r="BE52" s="86" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF52" s="86">
+        <v>-65</v>
+      </c>
+      <c r="BG52" s="86"/>
+      <c r="BH52" s="86"/>
       <c r="BI52" s="17">
         <v>50</v>
       </c>
@@ -29152,15 +29202,17 @@
       <c r="CB52" s="17"/>
     </row>
     <row r="53" spans="1:80" ht="15.75">
-      <c r="A53" s="20">
+      <c r="A53" s="86">
         <v>51</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="86" t="s">
         <v>839</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="C53" s="86">
+        <v>-60</v>
+      </c>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="19">
         <v>51</v>
       </c>
@@ -29170,17 +29222,17 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="36"/>
-      <c r="K53" s="86">
+      <c r="K53" s="17">
         <v>51</v>
       </c>
-      <c r="L53" s="86" t="s">
+      <c r="L53" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="M53" s="86">
+      <c r="M53" s="17">
         <v>-215</v>
       </c>
-      <c r="N53" s="86"/>
-      <c r="O53" s="214"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="31"/>
       <c r="P53" s="32">
         <v>51</v>
       </c>
@@ -29207,7 +29259,7 @@
         <v>51</v>
       </c>
       <c r="AA53" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AB53" s="17">
         <v>-65</v>
@@ -29228,15 +29280,17 @@
       <c r="AL53" s="63"/>
       <c r="AM53" s="63"/>
       <c r="AN53" s="63"/>
-      <c r="AO53" s="74">
+      <c r="AO53" s="86">
         <v>51</v>
       </c>
-      <c r="AP53" s="221" t="s">
+      <c r="AP53" s="217" t="s">
         <v>370</v>
       </c>
-      <c r="AQ53" s="74"/>
-      <c r="AR53" s="74"/>
-      <c r="AS53" s="74"/>
+      <c r="AQ53" s="86">
+        <v>-450</v>
+      </c>
+      <c r="AR53" s="86"/>
+      <c r="AS53" s="86"/>
       <c r="AT53" s="17">
         <v>51</v>
       </c>
@@ -29269,17 +29323,17 @@
       <c r="BF53" s="87"/>
       <c r="BG53" s="87"/>
       <c r="BH53" s="87"/>
-      <c r="BI53" s="86">
+      <c r="BI53" s="17">
         <v>51</v>
       </c>
-      <c r="BJ53" s="219" t="s">
+      <c r="BJ53" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="BK53" s="86">
+      <c r="BK53" s="17">
         <v>-65</v>
       </c>
-      <c r="BL53" s="86"/>
-      <c r="BM53" s="86"/>
+      <c r="BL53" s="17"/>
+      <c r="BM53" s="17"/>
       <c r="BN53" s="17">
         <v>51</v>
       </c>
@@ -29302,7 +29356,7 @@
         <v>51</v>
       </c>
       <c r="BY53" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BZ53" s="17">
         <v>-65</v>
@@ -29329,44 +29383,50 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="36"/>
-      <c r="K54" s="37">
+      <c r="K54" s="86">
         <v>52</v>
       </c>
-      <c r="L54" s="37" t="s">
+      <c r="L54" s="86" t="s">
         <v>902</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="39">
+      <c r="M54" s="86">
+        <v>-298</v>
+      </c>
+      <c r="N54" s="86"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="222">
         <v>52</v>
       </c>
-      <c r="Q54" s="39" t="s">
+      <c r="Q54" s="222" t="s">
         <v>903</v>
       </c>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="213">
+      <c r="R54" s="222">
+        <v>-155</v>
+      </c>
+      <c r="S54" s="222"/>
+      <c r="T54" s="222"/>
+      <c r="U54" s="46">
         <v>52</v>
       </c>
-      <c r="V54" s="86" t="s">
-        <v>904</v>
-      </c>
-      <c r="W54" s="86">
+      <c r="V54" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W54" s="17">
         <v>-65</v>
       </c>
-      <c r="X54" s="86"/>
-      <c r="Y54" s="86"/>
-      <c r="Z54" s="49">
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="223">
         <v>52</v>
       </c>
-      <c r="AA54" s="215" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="49"/>
-      <c r="AD54" s="49"/>
+      <c r="AA54" s="224" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AB54" s="223">
+        <v>-75</v>
+      </c>
+      <c r="AC54" s="223"/>
+      <c r="AD54" s="223"/>
       <c r="AE54" s="57">
         <v>52</v>
       </c>
@@ -29384,8 +29444,8 @@
       <c r="AO54" s="74">
         <v>52</v>
       </c>
-      <c r="AP54" s="221" t="s">
-        <v>1073</v>
+      <c r="AP54" s="219" t="s">
+        <v>1072</v>
       </c>
       <c r="AQ54" s="74"/>
       <c r="AR54" s="74"/>
@@ -29411,18 +29471,22 @@
       <c r="BF54" s="87"/>
       <c r="BG54" s="87"/>
       <c r="BH54" s="87"/>
-      <c r="BI54" s="99">
+      <c r="BI54" s="86">
         <v>52</v>
       </c>
-      <c r="BJ54" s="99"/>
-      <c r="BK54" s="99"/>
-      <c r="BL54" s="99"/>
-      <c r="BM54" s="99"/>
+      <c r="BJ54" s="217" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BK54" s="86">
+        <v>-75</v>
+      </c>
+      <c r="BL54" s="86"/>
+      <c r="BM54" s="86"/>
       <c r="BN54" s="17">
         <v>52</v>
       </c>
       <c r="BO54" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="BP54" s="17">
         <v>-90</v>
@@ -29444,12 +29508,12 @@
       <c r="CA54" s="88"/>
       <c r="CB54" s="88"/>
     </row>
-    <row r="55" spans="1:80">
+    <row r="55" spans="1:80" ht="15.75">
       <c r="A55" s="20">
         <v>53</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -29467,7 +29531,7 @@
         <v>53</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M55" s="37"/>
       <c r="N55" s="37"/>
@@ -29485,7 +29549,7 @@
         <v>53</v>
       </c>
       <c r="V55" s="44" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W55" s="44"/>
       <c r="X55" s="44"/>
@@ -29493,7 +29557,7 @@
       <c r="Z55" s="49">
         <v>53</v>
       </c>
-      <c r="AA55" s="215" t="s">
+      <c r="AA55" s="214" t="s">
         <v>559</v>
       </c>
       <c r="AB55" s="49"/>
@@ -29516,8 +29580,8 @@
       <c r="AO55" s="74">
         <v>53</v>
       </c>
-      <c r="AP55" s="221" t="s">
-        <v>1074</v>
+      <c r="AP55" s="219" t="s">
+        <v>1073</v>
       </c>
       <c r="AQ55" s="74"/>
       <c r="AR55" s="74"/>
@@ -29550,17 +29614,17 @@
       <c r="BK55" s="99"/>
       <c r="BL55" s="99"/>
       <c r="BM55" s="99"/>
-      <c r="BN55" s="86">
+      <c r="BN55" s="17">
         <v>53</v>
       </c>
-      <c r="BO55" s="219" t="s">
+      <c r="BO55" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="BP55" s="86">
+      <c r="BP55" s="17">
         <v>-112</v>
       </c>
-      <c r="BQ55" s="86"/>
-      <c r="BR55" s="86"/>
+      <c r="BQ55" s="17"/>
+      <c r="BR55" s="17"/>
       <c r="BS55" s="109">
         <v>53</v>
       </c>
@@ -29581,7 +29645,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -29599,7 +29663,7 @@
         <v>54</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M56" s="37"/>
       <c r="N56" s="37"/>
@@ -29608,7 +29672,7 @@
         <v>54</v>
       </c>
       <c r="Q56" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
@@ -29617,7 +29681,7 @@
         <v>54</v>
       </c>
       <c r="V56" s="44" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W56" s="44"/>
       <c r="X56" s="44"/>
@@ -29625,7 +29689,7 @@
       <c r="Z56" s="49">
         <v>54</v>
       </c>
-      <c r="AA56" s="215" t="s">
+      <c r="AA56" s="214" t="s">
         <v>820</v>
       </c>
       <c r="AB56" s="49"/>
@@ -29648,7 +29712,7 @@
       <c r="AO56" s="74">
         <v>54</v>
       </c>
-      <c r="AP56" s="221" t="s">
+      <c r="AP56" s="219" t="s">
         <v>178</v>
       </c>
       <c r="AQ56" s="74"/>
@@ -29718,7 +29782,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -29727,7 +29791,7 @@
         <v>55</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M57" s="37"/>
       <c r="N57" s="37"/>
@@ -29736,7 +29800,7 @@
         <v>55</v>
       </c>
       <c r="Q57" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R57" s="39"/>
       <c r="S57" s="39"/>
@@ -29753,8 +29817,8 @@
       <c r="Z57" s="49">
         <v>55</v>
       </c>
-      <c r="AA57" s="215" t="s">
-        <v>1033</v>
+      <c r="AA57" s="214" t="s">
+        <v>1032</v>
       </c>
       <c r="AB57" s="49"/>
       <c r="AC57" s="49"/>
@@ -29776,7 +29840,7 @@
       <c r="AO57" s="74">
         <v>55</v>
       </c>
-      <c r="AP57" s="221" t="s">
+      <c r="AP57" s="219" t="s">
         <v>777</v>
       </c>
       <c r="AQ57" s="74"/>
@@ -29837,7 +29901,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -29846,7 +29910,7 @@
         <v>56</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -29881,7 +29945,7 @@
       <c r="Z58" s="49">
         <v>56</v>
       </c>
-      <c r="AA58" s="215" t="s">
+      <c r="AA58" s="214" t="s">
         <v>568</v>
       </c>
       <c r="AB58" s="49"/>
@@ -29904,7 +29968,7 @@
       <c r="AO58" s="74">
         <v>56</v>
       </c>
-      <c r="AP58" s="221" t="s">
+      <c r="AP58" s="219" t="s">
         <v>830</v>
       </c>
       <c r="AQ58" s="74"/>
@@ -29965,7 +30029,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -29992,7 +30056,7 @@
         <v>57</v>
       </c>
       <c r="Q59" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R59" s="39"/>
       <c r="S59" s="39"/>
@@ -30001,7 +30065,7 @@
         <v>57</v>
       </c>
       <c r="V59" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W59" s="44"/>
       <c r="X59" s="44"/>
@@ -30009,8 +30073,8 @@
       <c r="Z59" s="49">
         <v>57</v>
       </c>
-      <c r="AA59" s="215" t="s">
-        <v>1022</v>
+      <c r="AA59" s="214" t="s">
+        <v>1021</v>
       </c>
       <c r="AB59" s="49"/>
       <c r="AC59" s="49"/>
@@ -30032,7 +30096,7 @@
       <c r="AO59" s="74">
         <v>57</v>
       </c>
-      <c r="AP59" s="221" t="s">
+      <c r="AP59" s="219" t="s">
         <v>784</v>
       </c>
       <c r="AQ59" s="74"/>
@@ -30093,7 +30157,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -30102,7 +30166,7 @@
         <v>58</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -30129,7 +30193,7 @@
         <v>58</v>
       </c>
       <c r="V60" s="44" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="W60" s="44"/>
       <c r="X60" s="44"/>
@@ -30137,8 +30201,8 @@
       <c r="Z60" s="49">
         <v>58</v>
       </c>
-      <c r="AA60" s="215" t="s">
-        <v>1034</v>
+      <c r="AA60" s="214" t="s">
+        <v>1033</v>
       </c>
       <c r="AB60" s="49"/>
       <c r="AC60" s="49"/>
@@ -30160,7 +30224,7 @@
       <c r="AO60" s="74">
         <v>58</v>
       </c>
-      <c r="AP60" s="221" t="s">
+      <c r="AP60" s="219" t="s">
         <v>790</v>
       </c>
       <c r="AQ60" s="74"/>
@@ -30230,7 +30294,7 @@
         <v>59</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -30239,7 +30303,7 @@
         <v>59</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
@@ -30248,7 +30312,7 @@
         <v>59</v>
       </c>
       <c r="Q61" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="R61" s="39"/>
       <c r="S61" s="39"/>
@@ -30257,7 +30321,7 @@
         <v>59</v>
       </c>
       <c r="V61" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W61" s="44"/>
       <c r="X61" s="44"/>
@@ -30265,7 +30329,7 @@
       <c r="Z61" s="49">
         <v>59</v>
       </c>
-      <c r="AA61" s="215" t="s">
+      <c r="AA61" s="214" t="s">
         <v>572</v>
       </c>
       <c r="AB61" s="49"/>
@@ -30288,7 +30352,7 @@
       <c r="AO61" s="74">
         <v>59</v>
       </c>
-      <c r="AP61" s="221" t="s">
+      <c r="AP61" s="219" t="s">
         <v>513</v>
       </c>
       <c r="AQ61" s="74"/>
@@ -30349,7 +30413,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -30358,7 +30422,7 @@
         <v>60</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -30367,7 +30431,7 @@
         <v>60</v>
       </c>
       <c r="L62" s="37" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
@@ -30385,7 +30449,7 @@
         <v>60</v>
       </c>
       <c r="V62" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W62" s="44"/>
       <c r="X62" s="44"/>
@@ -30393,8 +30457,8 @@
       <c r="Z62" s="49">
         <v>60</v>
       </c>
-      <c r="AA62" s="215" t="s">
-        <v>1035</v>
+      <c r="AA62" s="214" t="s">
+        <v>1034</v>
       </c>
       <c r="AB62" s="49"/>
       <c r="AC62" s="49"/>
@@ -30416,7 +30480,7 @@
       <c r="AO62" s="74">
         <v>60</v>
       </c>
-      <c r="AP62" s="221" t="s">
+      <c r="AP62" s="219" t="s">
         <v>760</v>
       </c>
       <c r="AQ62" s="74"/>
@@ -30477,7 +30541,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -30486,7 +30550,7 @@
         <v>61</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -30504,7 +30568,7 @@
         <v>61</v>
       </c>
       <c r="Q63" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
@@ -30521,8 +30585,8 @@
       <c r="Z63" s="49">
         <v>61</v>
       </c>
-      <c r="AA63" s="215" t="s">
-        <v>926</v>
+      <c r="AA63" s="214" t="s">
+        <v>925</v>
       </c>
       <c r="AB63" s="49"/>
       <c r="AC63" s="49"/>
@@ -30544,8 +30608,8 @@
       <c r="AO63" s="74">
         <v>61</v>
       </c>
-      <c r="AP63" s="221" t="s">
-        <v>1075</v>
+      <c r="AP63" s="219" t="s">
+        <v>1074</v>
       </c>
       <c r="AQ63" s="74"/>
       <c r="AR63" s="74"/>
@@ -30605,7 +30669,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -30623,7 +30687,7 @@
         <v>62</v>
       </c>
       <c r="L64" s="37" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -30649,8 +30713,8 @@
       <c r="Z64" s="49">
         <v>62</v>
       </c>
-      <c r="AA64" s="215" t="s">
-        <v>1036</v>
+      <c r="AA64" s="214" t="s">
+        <v>1035</v>
       </c>
       <c r="AB64" s="49"/>
       <c r="AC64" s="49"/>
@@ -30672,8 +30736,8 @@
       <c r="AO64" s="74">
         <v>62</v>
       </c>
-      <c r="AP64" s="221" t="s">
-        <v>1076</v>
+      <c r="AP64" s="219" t="s">
+        <v>1075</v>
       </c>
       <c r="AQ64" s="74"/>
       <c r="AR64" s="74"/>
@@ -30751,7 +30815,7 @@
         <v>63</v>
       </c>
       <c r="L65" s="37" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
@@ -30777,8 +30841,8 @@
       <c r="Z65" s="49">
         <v>63</v>
       </c>
-      <c r="AA65" s="215" t="s">
-        <v>1037</v>
+      <c r="AA65" s="214" t="s">
+        <v>1036</v>
       </c>
       <c r="AB65" s="49"/>
       <c r="AC65" s="49"/>
@@ -30800,8 +30864,8 @@
       <c r="AO65" s="74">
         <v>63</v>
       </c>
-      <c r="AP65" s="221" t="s">
-        <v>1074</v>
+      <c r="AP65" s="219" t="s">
+        <v>1073</v>
       </c>
       <c r="AQ65" s="74"/>
       <c r="AR65" s="74"/>
@@ -30861,7 +30925,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -30870,7 +30934,7 @@
         <v>64</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -30879,7 +30943,7 @@
         <v>64</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
@@ -30888,7 +30952,7 @@
         <v>64</v>
       </c>
       <c r="Q66" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
@@ -30897,7 +30961,7 @@
         <v>64</v>
       </c>
       <c r="V66" s="44" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
@@ -30905,8 +30969,8 @@
       <c r="Z66" s="49">
         <v>64</v>
       </c>
-      <c r="AA66" s="215" t="s">
-        <v>1038</v>
+      <c r="AA66" s="214" t="s">
+        <v>1037</v>
       </c>
       <c r="AB66" s="49"/>
       <c r="AC66" s="49"/>
@@ -30928,8 +30992,8 @@
       <c r="AO66" s="74">
         <v>64</v>
       </c>
-      <c r="AP66" s="221" t="s">
-        <v>943</v>
+      <c r="AP66" s="219" t="s">
+        <v>942</v>
       </c>
       <c r="AQ66" s="74"/>
       <c r="AR66" s="74"/>
@@ -30998,7 +31062,7 @@
         <v>65</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -31007,7 +31071,7 @@
         <v>65</v>
       </c>
       <c r="L67" s="37" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
@@ -31016,7 +31080,7 @@
         <v>65</v>
       </c>
       <c r="Q67" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
@@ -31025,7 +31089,7 @@
         <v>65</v>
       </c>
       <c r="V67" s="44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="W67" s="44"/>
       <c r="X67" s="44"/>
@@ -31033,7 +31097,7 @@
       <c r="Z67" s="49">
         <v>65</v>
       </c>
-      <c r="AA67" s="215" t="s">
+      <c r="AA67" s="214" t="s">
         <v>646</v>
       </c>
       <c r="AB67" s="49"/>
@@ -31056,7 +31120,7 @@
       <c r="AO67" s="74">
         <v>65</v>
       </c>
-      <c r="AP67" s="221" t="s">
+      <c r="AP67" s="219" t="s">
         <v>760</v>
       </c>
       <c r="AQ67" s="74"/>
@@ -31153,7 +31217,7 @@
         <v>66</v>
       </c>
       <c r="V68" s="44" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="W68" s="44"/>
       <c r="X68" s="44"/>
@@ -31161,8 +31225,8 @@
       <c r="Z68" s="49">
         <v>66</v>
       </c>
-      <c r="AA68" s="215" t="s">
-        <v>1039</v>
+      <c r="AA68" s="214" t="s">
+        <v>1038</v>
       </c>
       <c r="AB68" s="49"/>
       <c r="AC68" s="49"/>
@@ -31184,8 +31248,8 @@
       <c r="AO68" s="74">
         <v>66</v>
       </c>
-      <c r="AP68" s="221" t="s">
-        <v>1074</v>
+      <c r="AP68" s="219" t="s">
+        <v>1073</v>
       </c>
       <c r="AQ68" s="74"/>
       <c r="AR68" s="74"/>
@@ -31245,7 +31309,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -31254,7 +31318,7 @@
         <v>67</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -31263,7 +31327,7 @@
         <v>67</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
@@ -31272,7 +31336,7 @@
         <v>67</v>
       </c>
       <c r="Q69" s="39" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
@@ -31281,7 +31345,7 @@
         <v>67</v>
       </c>
       <c r="V69" s="44" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="W69" s="44"/>
       <c r="X69" s="44"/>
@@ -31289,8 +31353,8 @@
       <c r="Z69" s="49">
         <v>67</v>
       </c>
-      <c r="AA69" s="215" t="s">
-        <v>1040</v>
+      <c r="AA69" s="214" t="s">
+        <v>1039</v>
       </c>
       <c r="AB69" s="49"/>
       <c r="AC69" s="49"/>
@@ -31312,8 +31376,8 @@
       <c r="AO69" s="74">
         <v>67</v>
       </c>
-      <c r="AP69" s="221" t="s">
-        <v>955</v>
+      <c r="AP69" s="219" t="s">
+        <v>954</v>
       </c>
       <c r="AQ69" s="74"/>
       <c r="AR69" s="74"/>
@@ -31373,7 +31437,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -31382,7 +31446,7 @@
         <v>68</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -31391,7 +31455,7 @@
         <v>68</v>
       </c>
       <c r="L70" s="37" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M70" s="37"/>
       <c r="N70" s="37"/>
@@ -31400,7 +31464,7 @@
         <v>68</v>
       </c>
       <c r="Q70" s="39" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
@@ -31409,7 +31473,7 @@
         <v>68</v>
       </c>
       <c r="V70" s="44" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="W70" s="44"/>
       <c r="X70" s="44"/>
@@ -31417,8 +31481,8 @@
       <c r="Z70" s="49">
         <v>68</v>
       </c>
-      <c r="AA70" s="215" t="s">
-        <v>1041</v>
+      <c r="AA70" s="214" t="s">
+        <v>1040</v>
       </c>
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
@@ -31440,8 +31504,8 @@
       <c r="AO70" s="74">
         <v>68</v>
       </c>
-      <c r="AP70" s="221" t="s">
-        <v>1075</v>
+      <c r="AP70" s="219" t="s">
+        <v>1074</v>
       </c>
       <c r="AQ70" s="74"/>
       <c r="AR70" s="74"/>
@@ -31501,7 +31565,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -31519,7 +31583,7 @@
         <v>69</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
@@ -31528,7 +31592,7 @@
         <v>69</v>
       </c>
       <c r="Q71" s="39" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
@@ -31545,7 +31609,7 @@
       <c r="Z71" s="49">
         <v>69</v>
       </c>
-      <c r="AA71" s="215" t="s">
+      <c r="AA71" s="214" t="s">
         <v>856</v>
       </c>
       <c r="AB71" s="49"/>
@@ -31568,8 +31632,8 @@
       <c r="AO71" s="74">
         <v>69</v>
       </c>
-      <c r="AP71" s="221" t="s">
-        <v>955</v>
+      <c r="AP71" s="219" t="s">
+        <v>954</v>
       </c>
       <c r="AQ71" s="74"/>
       <c r="AR71" s="74"/>
@@ -31629,7 +31693,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -31647,7 +31711,7 @@
         <v>70</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
@@ -31656,7 +31720,7 @@
         <v>70</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="R72" s="39"/>
       <c r="S72" s="39"/>
@@ -31665,7 +31729,7 @@
         <v>70</v>
       </c>
       <c r="V72" s="44" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="W72" s="44"/>
       <c r="X72" s="44"/>
@@ -31673,7 +31737,7 @@
       <c r="Z72" s="49">
         <v>70</v>
       </c>
-      <c r="AA72" s="215" t="s">
+      <c r="AA72" s="214" t="s">
         <v>718</v>
       </c>
       <c r="AB72" s="49"/>
@@ -31696,8 +31760,8 @@
       <c r="AO72" s="74">
         <v>70</v>
       </c>
-      <c r="AP72" s="221" t="s">
-        <v>1077</v>
+      <c r="AP72" s="219" t="s">
+        <v>1076</v>
       </c>
       <c r="AQ72" s="74"/>
       <c r="AR72" s="74"/>
@@ -31757,7 +31821,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -31766,7 +31830,7 @@
         <v>71</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -31784,7 +31848,7 @@
         <v>71</v>
       </c>
       <c r="Q73" s="39" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R73" s="39"/>
       <c r="S73" s="39"/>
@@ -31793,7 +31857,7 @@
         <v>71</v>
       </c>
       <c r="V73" s="44" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="W73" s="44"/>
       <c r="X73" s="44"/>
@@ -31801,8 +31865,8 @@
       <c r="Z73" s="49">
         <v>71</v>
       </c>
-      <c r="AA73" s="215" t="s">
-        <v>1042</v>
+      <c r="AA73" s="214" t="s">
+        <v>1041</v>
       </c>
       <c r="AB73" s="49"/>
       <c r="AC73" s="49"/>
@@ -31824,8 +31888,8 @@
       <c r="AO73" s="74">
         <v>71</v>
       </c>
-      <c r="AP73" s="221" t="s">
-        <v>1075</v>
+      <c r="AP73" s="219" t="s">
+        <v>1074</v>
       </c>
       <c r="AQ73" s="74"/>
       <c r="AR73" s="74"/>
@@ -31885,7 +31949,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -31894,7 +31958,7 @@
         <v>72</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -31903,7 +31967,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
@@ -31921,7 +31985,7 @@
         <v>72</v>
       </c>
       <c r="V74" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="W74" s="44"/>
       <c r="X74" s="44"/>
@@ -31929,8 +31993,8 @@
       <c r="Z74" s="49">
         <v>72</v>
       </c>
-      <c r="AA74" s="215" t="s">
-        <v>962</v>
+      <c r="AA74" s="214" t="s">
+        <v>961</v>
       </c>
       <c r="AB74" s="49"/>
       <c r="AC74" s="49"/>
@@ -31952,8 +32016,8 @@
       <c r="AO74" s="74">
         <v>72</v>
       </c>
-      <c r="AP74" s="221" t="s">
-        <v>1076</v>
+      <c r="AP74" s="219" t="s">
+        <v>1075</v>
       </c>
       <c r="AQ74" s="74"/>
       <c r="AR74" s="74"/>
@@ -32013,7 +32077,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -32031,7 +32095,7 @@
         <v>73</v>
       </c>
       <c r="L75" s="37" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
@@ -32040,7 +32104,7 @@
         <v>73</v>
       </c>
       <c r="Q75" s="39" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="R75" s="39"/>
       <c r="S75" s="39"/>
@@ -32049,7 +32113,7 @@
         <v>73</v>
       </c>
       <c r="V75" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="W75" s="44"/>
       <c r="X75" s="44"/>
@@ -32057,8 +32121,8 @@
       <c r="Z75" s="49">
         <v>73</v>
       </c>
-      <c r="AA75" s="215" t="s">
-        <v>1038</v>
+      <c r="AA75" s="214" t="s">
+        <v>1037</v>
       </c>
       <c r="AB75" s="49"/>
       <c r="AC75" s="49"/>
@@ -32080,8 +32144,8 @@
       <c r="AO75" s="74">
         <v>73</v>
       </c>
-      <c r="AP75" s="221" t="s">
-        <v>1073</v>
+      <c r="AP75" s="219" t="s">
+        <v>1072</v>
       </c>
       <c r="AQ75" s="74"/>
       <c r="AR75" s="74"/>
@@ -32150,7 +32214,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -32159,7 +32223,7 @@
         <v>74</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M76" s="37"/>
       <c r="N76" s="37"/>
@@ -32168,7 +32232,7 @@
         <v>74</v>
       </c>
       <c r="Q76" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R76" s="39"/>
       <c r="S76" s="39"/>
@@ -32177,7 +32241,7 @@
         <v>74</v>
       </c>
       <c r="V76" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="W76" s="44"/>
       <c r="X76" s="44"/>
@@ -32185,7 +32249,7 @@
       <c r="Z76" s="49">
         <v>74</v>
       </c>
-      <c r="AA76" s="215" t="s">
+      <c r="AA76" s="214" t="s">
         <v>689</v>
       </c>
       <c r="AB76" s="49"/>
@@ -32208,7 +32272,7 @@
       <c r="AO76" s="74">
         <v>74</v>
       </c>
-      <c r="AP76" s="221" t="s">
+      <c r="AP76" s="219" t="s">
         <v>197</v>
       </c>
       <c r="AQ76" s="74"/>
@@ -32278,7 +32342,7 @@
         <v>75</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -32287,7 +32351,7 @@
         <v>75</v>
       </c>
       <c r="L77" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
@@ -32296,7 +32360,7 @@
         <v>75</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R77" s="39"/>
       <c r="S77" s="39"/>
@@ -32305,7 +32369,7 @@
         <v>75</v>
       </c>
       <c r="V77" s="44" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="W77" s="44"/>
       <c r="X77" s="44"/>
@@ -32313,8 +32377,8 @@
       <c r="Z77" s="49">
         <v>75</v>
       </c>
-      <c r="AA77" s="215" t="s">
-        <v>1043</v>
+      <c r="AA77" s="214" t="s">
+        <v>1042</v>
       </c>
       <c r="AB77" s="49"/>
       <c r="AC77" s="49"/>
@@ -32336,8 +32400,8 @@
       <c r="AO77" s="74">
         <v>75</v>
       </c>
-      <c r="AP77" s="221" t="s">
-        <v>943</v>
+      <c r="AP77" s="219" t="s">
+        <v>942</v>
       </c>
       <c r="AQ77" s="74"/>
       <c r="AR77" s="74"/>
@@ -32397,7 +32461,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -32441,8 +32505,8 @@
       <c r="Z78" s="49">
         <v>76</v>
       </c>
-      <c r="AA78" s="215" t="s">
-        <v>1033</v>
+      <c r="AA78" s="214" t="s">
+        <v>1032</v>
       </c>
       <c r="AB78" s="49"/>
       <c r="AC78" s="49"/>
@@ -32464,7 +32528,7 @@
       <c r="AO78" s="74">
         <v>76</v>
       </c>
-      <c r="AP78" s="221" t="s">
+      <c r="AP78" s="219" t="s">
         <v>830</v>
       </c>
       <c r="AQ78" s="74"/>
@@ -32543,7 +32607,7 @@
         <v>77</v>
       </c>
       <c r="L79" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
@@ -32561,7 +32625,7 @@
         <v>77</v>
       </c>
       <c r="V79" s="44" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="W79" s="44"/>
       <c r="X79" s="44"/>
@@ -32569,7 +32633,7 @@
       <c r="Z79" s="49">
         <v>77</v>
       </c>
-      <c r="AA79" s="215" t="s">
+      <c r="AA79" s="214" t="s">
         <v>865</v>
       </c>
       <c r="AB79" s="49"/>
@@ -32592,7 +32656,7 @@
       <c r="AO79" s="74">
         <v>77</v>
       </c>
-      <c r="AP79" s="221" t="s">
+      <c r="AP79" s="219" t="s">
         <v>898</v>
       </c>
       <c r="AQ79" s="74"/>
@@ -32662,7 +32726,7 @@
         <v>78</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -32689,7 +32753,7 @@
         <v>78</v>
       </c>
       <c r="V80" s="44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W80" s="44"/>
       <c r="X80" s="44"/>
@@ -32697,8 +32761,8 @@
       <c r="Z80" s="49">
         <v>78</v>
       </c>
-      <c r="AA80" s="215" t="s">
-        <v>926</v>
+      <c r="AA80" s="214" t="s">
+        <v>925</v>
       </c>
       <c r="AB80" s="49"/>
       <c r="AC80" s="49"/>
@@ -32720,8 +32784,8 @@
       <c r="AO80" s="74">
         <v>78</v>
       </c>
-      <c r="AP80" s="221" t="s">
-        <v>943</v>
+      <c r="AP80" s="219" t="s">
+        <v>942</v>
       </c>
       <c r="AQ80" s="74"/>
       <c r="AR80" s="74"/>
@@ -32817,7 +32881,7 @@
         <v>79</v>
       </c>
       <c r="V81" s="44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="W81" s="44"/>
       <c r="X81" s="44"/>
@@ -32825,8 +32889,8 @@
       <c r="Z81" s="49">
         <v>79</v>
       </c>
-      <c r="AA81" s="215" t="s">
-        <v>1044</v>
+      <c r="AA81" s="214" t="s">
+        <v>1043</v>
       </c>
       <c r="AB81" s="49"/>
       <c r="AC81" s="49"/>
@@ -32848,8 +32912,8 @@
       <c r="AO81" s="74">
         <v>79</v>
       </c>
-      <c r="AP81" s="221" t="s">
-        <v>1073</v>
+      <c r="AP81" s="219" t="s">
+        <v>1072</v>
       </c>
       <c r="AQ81" s="74"/>
       <c r="AR81" s="74"/>
@@ -32918,7 +32982,7 @@
         <v>80</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -32953,8 +33017,8 @@
       <c r="Z82" s="49">
         <v>80</v>
       </c>
-      <c r="AA82" s="215" t="s">
-        <v>1036</v>
+      <c r="AA82" s="214" t="s">
+        <v>1035</v>
       </c>
       <c r="AB82" s="49"/>
       <c r="AC82" s="49"/>
@@ -32976,8 +33040,8 @@
       <c r="AO82" s="74">
         <v>80</v>
       </c>
-      <c r="AP82" s="221" t="s">
-        <v>1076</v>
+      <c r="AP82" s="219" t="s">
+        <v>1075</v>
       </c>
       <c r="AQ82" s="74"/>
       <c r="AR82" s="74"/>
@@ -33037,7 +33101,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -33055,7 +33119,7 @@
         <v>81</v>
       </c>
       <c r="L83" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
@@ -33081,7 +33145,7 @@
       <c r="Z83" s="49">
         <v>81</v>
       </c>
-      <c r="AA83" s="215" t="s">
+      <c r="AA83" s="214" t="s">
         <v>810</v>
       </c>
       <c r="AB83" s="49"/>
@@ -33104,8 +33168,8 @@
       <c r="AO83" s="74">
         <v>81</v>
       </c>
-      <c r="AP83" s="221" t="s">
-        <v>1077</v>
+      <c r="AP83" s="219" t="s">
+        <v>1076</v>
       </c>
       <c r="AQ83" s="74"/>
       <c r="AR83" s="74"/>
@@ -33174,7 +33238,7 @@
         <v>82</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -33183,7 +33247,7 @@
         <v>82</v>
       </c>
       <c r="L84" s="37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M84" s="37"/>
       <c r="N84" s="37"/>
@@ -33192,7 +33256,7 @@
         <v>82</v>
       </c>
       <c r="Q84" s="39" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="R84" s="39"/>
       <c r="S84" s="39"/>
@@ -33201,7 +33265,7 @@
         <v>82</v>
       </c>
       <c r="V84" s="44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
@@ -33209,7 +33273,7 @@
       <c r="Z84" s="49">
         <v>82</v>
       </c>
-      <c r="AA84" s="215" t="s">
+      <c r="AA84" s="214" t="s">
         <v>633</v>
       </c>
       <c r="AB84" s="49"/>
@@ -33232,7 +33296,7 @@
       <c r="AO84" s="74">
         <v>82</v>
       </c>
-      <c r="AP84" s="221" t="s">
+      <c r="AP84" s="219" t="s">
         <v>790</v>
       </c>
       <c r="AQ84" s="74"/>
@@ -33295,7 +33359,7 @@
       <c r="B85" s="117"/>
       <c r="C85" s="117">
         <f>SUM(C3:C84)</f>
-        <v>-10711</v>
+        <v>-10771</v>
       </c>
       <c r="D85" s="118">
         <f>SUM(D3:D84)</f>
@@ -33321,7 +33385,7 @@
       <c r="L85" s="117"/>
       <c r="M85" s="117">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-9737</v>
+        <v>-10035</v>
       </c>
       <c r="N85" s="118">
         <f t="shared" si="1"/>
@@ -33334,7 +33398,7 @@
       <c r="Q85" s="117"/>
       <c r="R85" s="117">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-7238</v>
+        <v>-7393</v>
       </c>
       <c r="S85" s="118">
         <f t="shared" si="2"/>
@@ -33360,7 +33424,7 @@
       <c r="AA85" s="117"/>
       <c r="AB85" s="117">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-5985</v>
+        <v>-6060</v>
       </c>
       <c r="AC85" s="118">
         <f t="shared" si="4"/>
@@ -33373,7 +33437,7 @@
       <c r="AF85" s="117"/>
       <c r="AG85" s="117">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-7363</v>
+        <v>-7661</v>
       </c>
       <c r="AH85" s="118">
         <f t="shared" si="5"/>
@@ -33399,7 +33463,7 @@
       <c r="AP85" s="117"/>
       <c r="AQ85" s="117">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-5901</v>
+        <v>-6351</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="7"/>
@@ -33438,7 +33502,7 @@
       <c r="BE85" s="117"/>
       <c r="BF85" s="117">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-38014</v>
+        <v>-38079</v>
       </c>
       <c r="BG85" s="118">
         <f t="shared" si="10"/>
@@ -33451,7 +33515,7 @@
       <c r="BJ85" s="117"/>
       <c r="BK85" s="117">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-11110</v>
+        <v>-11185</v>
       </c>
       <c r="BL85" s="118">
         <f t="shared" si="11"/>
@@ -33502,29 +33566,29 @@
       </c>
     </row>
     <row r="95" spans="1:81">
-      <c r="G95" s="222" t="s">
+      <c r="G95" s="220" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="222">
+      <c r="H95" s="220">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>25407</v>
       </c>
-      <c r="I95" s="222"/>
+      <c r="I95" s="220"/>
     </row>
     <row r="96" spans="1:81">
-      <c r="G96" s="222"/>
-      <c r="H96" s="222"/>
-      <c r="I96" s="222"/>
+      <c r="G96" s="220"/>
+      <c r="H96" s="220"/>
+      <c r="I96" s="220"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="222"/>
-      <c r="H97" s="222"/>
-      <c r="I97" s="222"/>
+      <c r="G97" s="220"/>
+      <c r="H97" s="220"/>
+      <c r="I97" s="220"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="222"/>
-      <c r="H98" s="222"/>
-      <c r="I98" s="222"/>
+      <c r="G98" s="220"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33547,27 +33611,27 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="223" t="s">
-        <v>984</v>
-      </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
+      <c r="E1" s="221" t="s">
+        <v>983</v>
+      </c>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
     </row>
     <row r="2" spans="5:8" ht="15.75">
       <c r="E2" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="3" spans="5:8">

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1087">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3285,17 +3290,43 @@
   </si>
   <si>
     <t>Детройт - Ванкувер</t>
+  </si>
+  <si>
+    <t>Монреаль - Сент Луис</t>
+  </si>
+  <si>
+    <t>Кингс  - Эдмонтон</t>
+  </si>
+  <si>
+    <t>Виннипег - Питтсбург</t>
+  </si>
+  <si>
+    <t>Филадельфия - Сиэтл</t>
+  </si>
+  <si>
+    <t>Флорида - Колорадо</t>
+  </si>
+  <si>
+    <t>Нью Джерси - Сиэтл</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -3408,21 +3439,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -4495,73 +4511,73 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4570,115 +4586,115 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4688,167 +4704,167 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4858,24 +4874,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -4950,7 +4964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4982,9 +4996,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5016,6 +5031,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5191,14 +5207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BY52" sqref="BY52:CC52"/>
+    <sheetView topLeftCell="AV25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE56" sqref="BE56:BI56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -5219,7 +5235,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5413,7 @@
       <c r="CB1" s="206"/>
       <c r="CC1" s="206"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="125" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5559,7 @@
       <c r="CB2" s="206"/>
       <c r="CC2" s="206"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75">
+    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="127">
         <v>1</v>
       </c>
@@ -5727,7 +5743,7 @@
       <c r="CB3" s="127"/>
       <c r="CC3" s="127"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75">
+    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="73">
         <v>2</v>
       </c>
@@ -5914,7 +5930,7 @@
       </c>
       <c r="CC4" s="130"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75">
+    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="73">
         <v>3</v>
       </c>
@@ -6098,7 +6114,7 @@
       <c r="CB5" s="73"/>
       <c r="CC5" s="73"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75">
+    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="73">
         <v>4</v>
       </c>
@@ -6288,7 +6304,7 @@
       </c>
       <c r="CC6" s="130"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75">
+    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="73">
         <v>5</v>
       </c>
@@ -6477,7 +6493,7 @@
       <c r="CB7" s="73"/>
       <c r="CC7" s="73"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75">
+    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="73">
         <v>6</v>
       </c>
@@ -6664,7 +6680,7 @@
       <c r="CB8" s="73"/>
       <c r="CC8" s="73"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75">
+    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="130">
         <v>7</v>
       </c>
@@ -6857,7 +6873,7 @@
       </c>
       <c r="CC9" s="130"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75">
+    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="73">
         <v>8</v>
       </c>
@@ -7053,7 +7069,7 @@
       <c r="CB10" s="73"/>
       <c r="CC10" s="73"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75">
+    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="130">
         <v>9</v>
       </c>
@@ -7246,7 +7262,7 @@
       <c r="CB11" s="73"/>
       <c r="CC11" s="73"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75">
+    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="130">
         <v>10</v>
       </c>
@@ -7436,7 +7452,7 @@
       <c r="CB12" s="73"/>
       <c r="CC12" s="73"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75">
+    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="73">
         <v>11</v>
       </c>
@@ -7623,7 +7639,7 @@
       </c>
       <c r="CC13" s="129"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75">
+    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="73">
         <v>12</v>
       </c>
@@ -7819,7 +7835,7 @@
       <c r="CB14" s="73"/>
       <c r="CC14" s="73"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75">
+    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="73">
         <v>13</v>
       </c>
@@ -8006,7 +8022,7 @@
       <c r="CB15" s="73"/>
       <c r="CC15" s="73"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75">
+    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="130">
         <v>14</v>
       </c>
@@ -8202,7 +8218,7 @@
       <c r="CB16" s="73"/>
       <c r="CC16" s="73"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75">
+    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="73">
         <v>15</v>
       </c>
@@ -8389,7 +8405,7 @@
       <c r="CB17" s="73"/>
       <c r="CC17" s="73"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75">
+    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="73">
         <v>16</v>
       </c>
@@ -8575,7 +8591,7 @@
       </c>
       <c r="CC18" s="129"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75">
+    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="130">
         <v>17</v>
       </c>
@@ -8765,7 +8781,7 @@
       <c r="CB19" s="73"/>
       <c r="CC19" s="73"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75">
+    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="73">
         <v>18</v>
       </c>
@@ -8946,7 +8962,7 @@
       <c r="CB20" s="73"/>
       <c r="CC20" s="73"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75">
+    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="73">
         <v>19</v>
       </c>
@@ -9130,7 +9146,7 @@
       <c r="CB21" s="73"/>
       <c r="CC21" s="73"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75">
+    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="73">
         <v>20</v>
       </c>
@@ -9316,7 +9332,7 @@
       <c r="CB22" s="73"/>
       <c r="CC22" s="73"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75">
+    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="73">
         <v>21</v>
       </c>
@@ -9506,7 +9522,7 @@
       <c r="CB23" s="73"/>
       <c r="CC23" s="73"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75">
+    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="73">
         <v>22</v>
       </c>
@@ -9695,7 +9711,7 @@
       <c r="CB24" s="73"/>
       <c r="CC24" s="73"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75">
+    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="130">
         <v>23</v>
       </c>
@@ -9888,7 +9904,7 @@
       </c>
       <c r="CC25" s="129"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75">
+    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="73">
         <v>24</v>
       </c>
@@ -10078,7 +10094,7 @@
       <c r="CB26" s="73"/>
       <c r="CC26" s="73"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75">
+    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="73">
         <v>25</v>
       </c>
@@ -10265,7 +10281,7 @@
       <c r="CB27" s="73"/>
       <c r="CC27" s="73"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75">
+    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="73">
         <v>26</v>
       </c>
@@ -10449,7 +10465,7 @@
       </c>
       <c r="CC28" s="130"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75">
+    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="130">
         <v>27</v>
       </c>
@@ -10645,7 +10661,7 @@
       <c r="CB29" s="73"/>
       <c r="CC29" s="73"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75">
+    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="130">
         <v>28</v>
       </c>
@@ -10838,7 +10854,7 @@
       </c>
       <c r="CC30" s="130"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75">
+    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="130">
         <v>29</v>
       </c>
@@ -11037,7 +11053,7 @@
       </c>
       <c r="CC31" s="130"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75">
+    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="130">
         <v>30</v>
       </c>
@@ -11226,7 +11242,7 @@
       </c>
       <c r="CC32" s="130"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75">
+    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="73">
         <v>31</v>
       </c>
@@ -11422,7 +11438,7 @@
       </c>
       <c r="CC33" s="130"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75">
+    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="73">
         <v>32</v>
       </c>
@@ -11610,7 +11626,7 @@
       <c r="CB34" s="73"/>
       <c r="CC34" s="73"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75">
+    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="73">
         <v>33</v>
       </c>
@@ -11803,7 +11819,7 @@
       <c r="CB35" s="73"/>
       <c r="CC35" s="73"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75">
+    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="73">
         <v>34</v>
       </c>
@@ -11987,7 +12003,7 @@
       </c>
       <c r="CC36" s="130"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75">
+    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="73">
         <v>35</v>
       </c>
@@ -12174,7 +12190,7 @@
       <c r="CB37" s="73"/>
       <c r="CC37" s="73"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75">
+    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="73">
         <v>36</v>
       </c>
@@ -12361,7 +12377,7 @@
       <c r="CB38" s="73"/>
       <c r="CC38" s="73"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75">
+    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="73">
         <v>37</v>
       </c>
@@ -12548,7 +12564,7 @@
       <c r="CB39" s="73"/>
       <c r="CC39" s="73"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75">
+    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="73">
         <v>38</v>
       </c>
@@ -12735,7 +12751,7 @@
       <c r="CB40" s="73"/>
       <c r="CC40" s="73"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75">
+    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="130">
         <v>39</v>
       </c>
@@ -12928,7 +12944,7 @@
       <c r="CB41" s="73"/>
       <c r="CC41" s="73"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75">
+    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="130">
         <v>40</v>
       </c>
@@ -13121,7 +13137,7 @@
       <c r="CB42" s="73"/>
       <c r="CC42" s="73"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75">
+    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="130">
         <v>41</v>
       </c>
@@ -13324,7 +13340,7 @@
       <c r="CB43" s="73"/>
       <c r="CC43" s="73"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75">
+    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="130">
         <v>42</v>
       </c>
@@ -13516,7 +13532,7 @@
       <c r="CB44" s="73"/>
       <c r="CC44" s="73"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75">
+    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="73">
         <v>43</v>
       </c>
@@ -13699,7 +13715,7 @@
       <c r="CB45" s="73"/>
       <c r="CC45" s="73"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75">
+    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="73">
         <v>44</v>
       </c>
@@ -13889,7 +13905,7 @@
       <c r="CB46" s="73"/>
       <c r="CC46" s="73"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75">
+    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="73">
         <v>45</v>
       </c>
@@ -14028,7 +14044,7 @@
       </c>
       <c r="BH47" s="73"/>
       <c r="BI47" s="73">
-        <v>-4.4000000000000004</v>
+        <v>-4.3</v>
       </c>
       <c r="BJ47" s="130">
         <v>45</v>
@@ -14078,7 +14094,7 @@
       <c r="CB47" s="73"/>
       <c r="CC47" s="73"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75">
+    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="73">
         <v>46</v>
       </c>
@@ -14217,8 +14233,8 @@
       </c>
       <c r="BH48" s="73"/>
       <c r="BI48" s="73">
-        <f>BG54*BI47</f>
-        <v>2640</v>
+        <f>BG56*BI47</f>
+        <v>4515</v>
       </c>
       <c r="BJ48" s="130">
         <v>46</v>
@@ -14271,7 +14287,7 @@
       <c r="CB48" s="73"/>
       <c r="CC48" s="73"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75">
+    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="73">
         <v>47</v>
       </c>
@@ -14410,7 +14426,7 @@
       </c>
       <c r="BH49" s="73"/>
       <c r="BI49" s="73">
-        <f>BI48+SUM(BG45:BG54)</f>
+        <f>BI48+SUM(BG45:BG56)</f>
         <v>150</v>
       </c>
       <c r="BJ49" s="73">
@@ -14461,7 +14477,7 @@
       </c>
       <c r="CC49" s="130"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75">
+    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="130">
         <v>48</v>
       </c>
@@ -14581,13 +14597,17 @@
       </c>
       <c r="AX50" s="73"/>
       <c r="AY50" s="73"/>
-      <c r="AZ50" s="190">
+      <c r="AZ50" s="73">
         <v>48</v>
       </c>
-      <c r="BA50" s="190"/>
-      <c r="BB50" s="190"/>
-      <c r="BC50" s="190"/>
-      <c r="BD50" s="190"/>
+      <c r="BA50" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB50" s="73">
+        <v>-60</v>
+      </c>
+      <c r="BC50" s="73"/>
+      <c r="BD50" s="73"/>
       <c r="BE50" s="73">
         <v>48</v>
       </c>
@@ -14599,17 +14619,17 @@
       </c>
       <c r="BH50" s="73"/>
       <c r="BI50" s="73"/>
-      <c r="BJ50" s="118">
+      <c r="BJ50" s="73">
         <v>48</v>
       </c>
-      <c r="BK50" s="118" t="s">
+      <c r="BK50" s="73" t="s">
         <v>1079</v>
       </c>
-      <c r="BL50" s="118">
+      <c r="BL50" s="73">
         <v>-65</v>
       </c>
-      <c r="BM50" s="118"/>
-      <c r="BN50" s="118"/>
+      <c r="BM50" s="73"/>
+      <c r="BN50" s="73"/>
       <c r="BO50" s="73">
         <v>48</v>
       </c>
@@ -14644,7 +14664,7 @@
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75">
+    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="73">
         <v>49</v>
       </c>
@@ -14782,13 +14802,17 @@
       </c>
       <c r="BH51" s="73"/>
       <c r="BI51" s="73"/>
-      <c r="BJ51" s="198">
+      <c r="BJ51" s="73">
         <v>49</v>
       </c>
-      <c r="BK51" s="198"/>
-      <c r="BL51" s="198"/>
-      <c r="BM51" s="198"/>
-      <c r="BN51" s="198"/>
+      <c r="BK51" s="73" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BL51" s="73">
+        <v>-75</v>
+      </c>
+      <c r="BM51" s="73"/>
+      <c r="BN51" s="73"/>
       <c r="BO51" s="73">
         <v>49</v>
       </c>
@@ -14823,7 +14847,7 @@
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75">
+    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="73">
         <v>50</v>
       </c>
@@ -14904,13 +14928,20 @@
       </c>
       <c r="AI52" s="73"/>
       <c r="AJ52" s="73"/>
-      <c r="AK52" s="153">
+      <c r="AK52" s="130">
         <v>50</v>
       </c>
-      <c r="AL52" s="153"/>
-      <c r="AM52" s="153"/>
-      <c r="AN52" s="153"/>
-      <c r="AO52" s="153"/>
+      <c r="AL52" s="130" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM52" s="130">
+        <v>-112</v>
+      </c>
+      <c r="AN52" s="130">
+        <f>504+SUM(AM48:AM52)</f>
+        <v>102</v>
+      </c>
+      <c r="AO52" s="130"/>
       <c r="AP52" s="73">
         <v>50</v>
       </c>
@@ -14972,28 +15003,30 @@
       </c>
       <c r="BR52" s="73"/>
       <c r="BS52" s="73"/>
-      <c r="BT52" s="204">
+      <c r="BT52" s="73">
         <v>50</v>
       </c>
-      <c r="BU52" s="204" t="s">
+      <c r="BU52" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="BV52" s="204"/>
-      <c r="BW52" s="204"/>
-      <c r="BX52" s="204"/>
-      <c r="BY52" s="118">
+      <c r="BV52" s="73">
+        <v>-90</v>
+      </c>
+      <c r="BW52" s="73"/>
+      <c r="BX52" s="73"/>
+      <c r="BY52" s="73">
         <v>50</v>
       </c>
-      <c r="BZ52" s="216" t="s">
+      <c r="BZ52" s="73" t="s">
         <v>1046</v>
       </c>
-      <c r="CA52" s="118">
+      <c r="CA52" s="73">
         <v>-75</v>
       </c>
-      <c r="CB52" s="118"/>
-      <c r="CC52" s="118"/>
+      <c r="CB52" s="73"/>
+      <c r="CC52" s="73"/>
     </row>
-    <row r="53" spans="2:81" ht="15.75">
+    <row r="53" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="73">
         <v>51</v>
       </c>
@@ -15005,47 +15038,59 @@
       </c>
       <c r="E53" s="73"/>
       <c r="F53" s="73"/>
-      <c r="G53" s="118">
+      <c r="G53" s="73">
         <v>51</v>
       </c>
-      <c r="H53" s="118" t="s">
+      <c r="H53" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="I53" s="118">
+      <c r="I53" s="73">
         <v>-1250</v>
       </c>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118">
+      <c r="J53" s="73"/>
+      <c r="K53" s="73">
         <f>K43+SUM(I40:I53)</f>
         <v>80</v>
       </c>
-      <c r="L53" s="140">
+      <c r="L53" s="130">
         <v>51</v>
       </c>
-      <c r="M53" s="140" t="s">
+      <c r="M53" s="130" t="s">
         <v>526</v>
       </c>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="152">
+      <c r="N53" s="130">
+        <v>-415</v>
+      </c>
+      <c r="O53" s="130">
+        <f>1868+SUM(N45:N53)</f>
+        <v>383</v>
+      </c>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="73">
         <v>51</v>
       </c>
-      <c r="R53" s="152"/>
-      <c r="S53" s="152"/>
-      <c r="T53" s="152"/>
-      <c r="U53" s="152"/>
-      <c r="V53" s="118">
+      <c r="R53" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="S53" s="73">
+        <v>-75</v>
+      </c>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="130">
         <v>51</v>
       </c>
-      <c r="W53" s="216" t="s">
+      <c r="W53" s="130" t="s">
         <v>1080</v>
       </c>
-      <c r="X53" s="118">
-        <v>-60</v>
-      </c>
-      <c r="Y53" s="118"/>
-      <c r="Z53" s="118"/>
+      <c r="X53" s="130">
+        <v>-60</v>
+      </c>
+      <c r="Y53" s="130">
+        <f>258+X53</f>
+        <v>198</v>
+      </c>
+      <c r="Z53" s="130"/>
       <c r="AA53" s="73">
         <v>51</v>
       </c>
@@ -15057,24 +15102,28 @@
       </c>
       <c r="AD53" s="73"/>
       <c r="AE53" s="73"/>
-      <c r="AF53" s="118">
+      <c r="AF53" s="73">
         <v>51</v>
       </c>
-      <c r="AG53" s="118" t="s">
+      <c r="AG53" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="AH53" s="118">
+      <c r="AH53" s="73">
         <v>-65</v>
       </c>
-      <c r="AI53" s="118"/>
-      <c r="AJ53" s="118"/>
-      <c r="AK53" s="153">
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="118">
         <v>51</v>
       </c>
-      <c r="AL53" s="153"/>
-      <c r="AM53" s="153"/>
-      <c r="AN53" s="153"/>
-      <c r="AO53" s="153"/>
+      <c r="AL53" s="222" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AM53" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AN53" s="118"/>
+      <c r="AO53" s="118"/>
       <c r="AP53" s="73">
         <v>51</v>
       </c>
@@ -15142,28 +15191,33 @@
       <c r="BV53" s="204"/>
       <c r="BW53" s="204"/>
       <c r="BX53" s="204"/>
-      <c r="BY53" s="209">
+      <c r="BY53" s="130">
         <v>51</v>
       </c>
-      <c r="BZ53" s="215" t="s">
+      <c r="BZ53" s="130" t="s">
         <v>1047</v>
       </c>
-      <c r="CA53" s="209"/>
-      <c r="CB53" s="209"/>
-      <c r="CC53" s="209"/>
+      <c r="CA53" s="130">
+        <v>-90</v>
+      </c>
+      <c r="CB53" s="130">
+        <f>396+SUM(CA50:CA53)</f>
+        <v>106</v>
+      </c>
+      <c r="CC53" s="130"/>
     </row>
-    <row r="54" spans="2:81" ht="15.75">
-      <c r="B54" s="118">
+    <row r="54" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="73">
         <v>52</v>
       </c>
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="D54" s="118">
+      <c r="D54" s="73">
         <v>-90</v>
       </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
       <c r="G54" s="133">
         <v>52</v>
       </c>
@@ -15196,51 +15250,60 @@
       <c r="X54" s="153"/>
       <c r="Y54" s="153"/>
       <c r="Z54" s="153"/>
-      <c r="AA54" s="161">
+      <c r="AA54" s="73">
         <v>52</v>
       </c>
-      <c r="AB54" s="161"/>
-      <c r="AC54" s="161"/>
-      <c r="AD54" s="161"/>
-      <c r="AE54" s="161"/>
-      <c r="AF54" s="162">
+      <c r="AB54" s="73" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AC54" s="73">
+        <v>-75</v>
+      </c>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="73"/>
+      <c r="AF54" s="73">
         <v>52</v>
       </c>
-      <c r="AG54" s="162" t="s">
+      <c r="AG54" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="AH54" s="162"/>
-      <c r="AI54" s="162"/>
-      <c r="AJ54" s="162"/>
-      <c r="AK54" s="153">
+      <c r="AH54" s="73">
+        <v>-75</v>
+      </c>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="73">
         <v>52</v>
       </c>
       <c r="AL54" s="153"/>
       <c r="AM54" s="153"/>
       <c r="AN54" s="153"/>
       <c r="AO54" s="153"/>
-      <c r="AP54" s="118">
+      <c r="AP54" s="73">
         <v>52</v>
       </c>
-      <c r="AQ54" s="118" t="s">
+      <c r="AQ54" s="73" t="s">
         <v>902</v>
       </c>
-      <c r="AR54" s="118">
+      <c r="AR54" s="73">
         <v>-75</v>
       </c>
-      <c r="AS54" s="118"/>
-      <c r="AT54" s="118"/>
-      <c r="AU54" s="118">
+      <c r="AS54" s="73"/>
+      <c r="AT54" s="73"/>
+      <c r="AU54" s="130">
         <v>52</v>
       </c>
-      <c r="AV54" s="118" t="s">
+      <c r="AV54" s="130" t="s">
         <v>903</v>
       </c>
-      <c r="AW54" s="118">
+      <c r="AW54" s="130">
         <v>-65</v>
       </c>
-      <c r="AX54" s="118"/>
-      <c r="AY54" s="118"/>
+      <c r="AX54" s="130">
+        <f>319+SUM(AW53:AW54)</f>
+        <v>194</v>
+      </c>
+      <c r="AY54" s="130"/>
       <c r="AZ54" s="190">
         <v>52</v>
       </c>
@@ -15296,7 +15359,7 @@
       <c r="CB54" s="209"/>
       <c r="CC54" s="209"/>
     </row>
-    <row r="55" spans="2:81">
+    <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="132">
         <v>53</v>
       </c>
@@ -15370,15 +15433,17 @@
       <c r="AR55" s="181"/>
       <c r="AS55" s="181"/>
       <c r="AT55" s="181"/>
-      <c r="AU55" s="182">
+      <c r="AU55" s="118">
         <v>53</v>
       </c>
-      <c r="AV55" s="182" t="s">
+      <c r="AV55" s="118" t="s">
         <v>905</v>
       </c>
-      <c r="AW55" s="182"/>
-      <c r="AX55" s="182"/>
-      <c r="AY55" s="182"/>
+      <c r="AW55" s="118">
+        <v>-60</v>
+      </c>
+      <c r="AX55" s="118"/>
+      <c r="AY55" s="118"/>
       <c r="AZ55" s="190">
         <v>53</v>
       </c>
@@ -15386,13 +15451,17 @@
       <c r="BB55" s="190"/>
       <c r="BC55" s="190"/>
       <c r="BD55" s="190"/>
-      <c r="BE55" s="199">
+      <c r="BE55" s="73">
         <v>53</v>
       </c>
-      <c r="BF55" s="199"/>
-      <c r="BG55" s="199"/>
-      <c r="BH55" s="199"/>
-      <c r="BI55" s="199"/>
+      <c r="BF55" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="BG55" s="73">
+        <v>-825</v>
+      </c>
+      <c r="BH55" s="73"/>
+      <c r="BI55" s="73"/>
       <c r="BJ55" s="198">
         <v>53</v>
       </c>
@@ -15400,15 +15469,17 @@
       <c r="BL55" s="198"/>
       <c r="BM55" s="198"/>
       <c r="BN55" s="198"/>
-      <c r="BO55" s="152">
+      <c r="BO55" s="73">
         <v>53</v>
       </c>
-      <c r="BP55" s="218" t="s">
+      <c r="BP55" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="BQ55" s="152"/>
-      <c r="BR55" s="152"/>
-      <c r="BS55" s="152"/>
+      <c r="BQ55" s="73">
+        <v>-465</v>
+      </c>
+      <c r="BR55" s="73"/>
+      <c r="BS55" s="73"/>
       <c r="BT55" s="204">
         <v>53</v>
       </c>
@@ -15428,7 +15499,7 @@
       <c r="CB55" s="209"/>
       <c r="CC55" s="209"/>
     </row>
-    <row r="56" spans="2:81">
+    <row r="56" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B56" s="132">
         <v>54</v>
       </c>
@@ -15518,13 +15589,17 @@
       <c r="BB56" s="190"/>
       <c r="BC56" s="190"/>
       <c r="BD56" s="190"/>
-      <c r="BE56" s="199">
+      <c r="BE56" s="118">
         <v>54</v>
       </c>
-      <c r="BF56" s="199"/>
-      <c r="BG56" s="199"/>
-      <c r="BH56" s="199"/>
-      <c r="BI56" s="199"/>
+      <c r="BF56" s="222" t="s">
+        <v>896</v>
+      </c>
+      <c r="BG56" s="118">
+        <v>-1050</v>
+      </c>
+      <c r="BH56" s="118"/>
+      <c r="BI56" s="118"/>
       <c r="BJ56" s="198">
         <v>54</v>
       </c>
@@ -15535,7 +15610,7 @@
       <c r="BO56" s="152">
         <v>54</v>
       </c>
-      <c r="BP56" s="218" t="s">
+      <c r="BP56" s="217" t="s">
         <v>438</v>
       </c>
       <c r="BQ56" s="152"/>
@@ -15560,7 +15635,7 @@
       <c r="CB56" s="209"/>
       <c r="CC56" s="209"/>
     </row>
-    <row r="57" spans="2:81">
+    <row r="57" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B57" s="132">
         <v>55</v>
       </c>
@@ -15667,7 +15742,7 @@
       <c r="BO57" s="152">
         <v>55</v>
       </c>
-      <c r="BP57" s="218" t="s">
+      <c r="BP57" s="217" t="s">
         <v>278</v>
       </c>
       <c r="BQ57" s="152"/>
@@ -15692,7 +15767,7 @@
       <c r="CB57" s="209"/>
       <c r="CC57" s="209"/>
     </row>
-    <row r="58" spans="2:81">
+    <row r="58" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B58" s="132">
         <v>56</v>
       </c>
@@ -15799,7 +15874,7 @@
       <c r="BO58" s="152">
         <v>56</v>
       </c>
-      <c r="BP58" s="218" t="s">
+      <c r="BP58" s="217" t="s">
         <v>1066</v>
       </c>
       <c r="BQ58" s="152"/>
@@ -15824,7 +15899,7 @@
       <c r="CB58" s="209"/>
       <c r="CC58" s="209"/>
     </row>
-    <row r="59" spans="2:81">
+    <row r="59" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B59" s="132">
         <v>57</v>
       </c>
@@ -15931,7 +16006,7 @@
       <c r="BO59" s="152">
         <v>57</v>
       </c>
-      <c r="BP59" s="218" t="s">
+      <c r="BP59" s="217" t="s">
         <v>53</v>
       </c>
       <c r="BQ59" s="152"/>
@@ -15956,7 +16031,7 @@
       <c r="CB59" s="209"/>
       <c r="CC59" s="209"/>
     </row>
-    <row r="60" spans="2:81">
+    <row r="60" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B60" s="132">
         <v>58</v>
       </c>
@@ -16063,7 +16138,7 @@
       <c r="BO60" s="152">
         <v>58</v>
       </c>
-      <c r="BP60" s="218" t="s">
+      <c r="BP60" s="217" t="s">
         <v>386</v>
       </c>
       <c r="BQ60" s="152"/>
@@ -16088,7 +16163,7 @@
       <c r="CB60" s="209"/>
       <c r="CC60" s="209"/>
     </row>
-    <row r="61" spans="2:81">
+    <row r="61" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B61" s="132">
         <v>59</v>
       </c>
@@ -16195,7 +16270,7 @@
       <c r="BO61" s="152">
         <v>59</v>
       </c>
-      <c r="BP61" s="218" t="s">
+      <c r="BP61" s="217" t="s">
         <v>1003</v>
       </c>
       <c r="BQ61" s="152"/>
@@ -16220,7 +16295,7 @@
       <c r="CB61" s="209"/>
       <c r="CC61" s="209"/>
     </row>
-    <row r="62" spans="2:81">
+    <row r="62" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B62" s="132">
         <v>60</v>
       </c>
@@ -16327,7 +16402,7 @@
       <c r="BO62" s="152">
         <v>60</v>
       </c>
-      <c r="BP62" s="218" t="s">
+      <c r="BP62" s="217" t="s">
         <v>1067</v>
       </c>
       <c r="BQ62" s="152"/>
@@ -16352,7 +16427,7 @@
       <c r="CB62" s="209"/>
       <c r="CC62" s="209"/>
     </row>
-    <row r="63" spans="2:81">
+    <row r="63" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B63" s="132">
         <v>61</v>
       </c>
@@ -16459,7 +16534,7 @@
       <c r="BO63" s="152">
         <v>61</v>
       </c>
-      <c r="BP63" s="218" t="s">
+      <c r="BP63" s="217" t="s">
         <v>544</v>
       </c>
       <c r="BQ63" s="152"/>
@@ -16484,7 +16559,7 @@
       <c r="CB63" s="209"/>
       <c r="CC63" s="209"/>
     </row>
-    <row r="64" spans="2:81">
+    <row r="64" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B64" s="132">
         <v>62</v>
       </c>
@@ -16591,7 +16666,7 @@
       <c r="BO64" s="152">
         <v>62</v>
       </c>
-      <c r="BP64" s="218" t="s">
+      <c r="BP64" s="217" t="s">
         <v>68</v>
       </c>
       <c r="BQ64" s="152"/>
@@ -16616,7 +16691,7 @@
       <c r="CB64" s="209"/>
       <c r="CC64" s="209"/>
     </row>
-    <row r="65" spans="2:81">
+    <row r="65" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B65" s="132">
         <v>63</v>
       </c>
@@ -16723,7 +16798,7 @@
       <c r="BO65" s="152">
         <v>63</v>
       </c>
-      <c r="BP65" s="218" t="s">
+      <c r="BP65" s="217" t="s">
         <v>160</v>
       </c>
       <c r="BQ65" s="152"/>
@@ -16748,7 +16823,7 @@
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
     </row>
-    <row r="66" spans="2:81">
+    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B66" s="132">
         <v>64</v>
       </c>
@@ -16855,7 +16930,7 @@
       <c r="BO66" s="152">
         <v>64</v>
       </c>
-      <c r="BP66" s="218" t="s">
+      <c r="BP66" s="217" t="s">
         <v>396</v>
       </c>
       <c r="BQ66" s="152"/>
@@ -16880,7 +16955,7 @@
       <c r="CB66" s="209"/>
       <c r="CC66" s="209"/>
     </row>
-    <row r="67" spans="2:81">
+    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B67" s="132">
         <v>65</v>
       </c>
@@ -16987,7 +17062,7 @@
       <c r="BO67" s="152">
         <v>65</v>
       </c>
-      <c r="BP67" s="218" t="s">
+      <c r="BP67" s="217" t="s">
         <v>544</v>
       </c>
       <c r="BQ67" s="152"/>
@@ -17012,7 +17087,7 @@
       <c r="CB67" s="209"/>
       <c r="CC67" s="209"/>
     </row>
-    <row r="68" spans="2:81">
+    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B68" s="132">
         <v>66</v>
       </c>
@@ -17119,7 +17194,7 @@
       <c r="BO68" s="152">
         <v>66</v>
       </c>
-      <c r="BP68" s="218" t="s">
+      <c r="BP68" s="217" t="s">
         <v>1019</v>
       </c>
       <c r="BQ68" s="152"/>
@@ -17144,7 +17219,7 @@
       <c r="CB68" s="209"/>
       <c r="CC68" s="209"/>
     </row>
-    <row r="69" spans="2:81">
+    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B69" s="132">
         <v>67</v>
       </c>
@@ -17251,7 +17326,7 @@
       <c r="BO69" s="152">
         <v>67</v>
       </c>
-      <c r="BP69" s="218" t="s">
+      <c r="BP69" s="217" t="s">
         <v>1066</v>
       </c>
       <c r="BQ69" s="152"/>
@@ -17276,7 +17351,7 @@
       <c r="CB69" s="209"/>
       <c r="CC69" s="209"/>
     </row>
-    <row r="70" spans="2:81">
+    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B70" s="132">
         <v>68</v>
       </c>
@@ -17383,7 +17458,7 @@
       <c r="BO70" s="152">
         <v>68</v>
       </c>
-      <c r="BP70" s="218" t="s">
+      <c r="BP70" s="217" t="s">
         <v>1068</v>
       </c>
       <c r="BQ70" s="152"/>
@@ -17408,7 +17483,7 @@
       <c r="CB70" s="209"/>
       <c r="CC70" s="209"/>
     </row>
-    <row r="71" spans="2:81">
+    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B71" s="132">
         <v>69</v>
       </c>
@@ -17515,7 +17590,7 @@
       <c r="BO71" s="152">
         <v>69</v>
       </c>
-      <c r="BP71" s="218" t="s">
+      <c r="BP71" s="217" t="s">
         <v>1069</v>
       </c>
       <c r="BQ71" s="152"/>
@@ -17540,7 +17615,7 @@
       <c r="CB71" s="209"/>
       <c r="CC71" s="209"/>
     </row>
-    <row r="72" spans="2:81">
+    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B72" s="132">
         <v>70</v>
       </c>
@@ -17647,7 +17722,7 @@
       <c r="BO72" s="152">
         <v>70</v>
       </c>
-      <c r="BP72" s="218" t="s">
+      <c r="BP72" s="217" t="s">
         <v>1070</v>
       </c>
       <c r="BQ72" s="152"/>
@@ -17672,7 +17747,7 @@
       <c r="CB72" s="209"/>
       <c r="CC72" s="209"/>
     </row>
-    <row r="73" spans="2:81">
+    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B73" s="132">
         <v>71</v>
       </c>
@@ -17779,7 +17854,7 @@
       <c r="BO73" s="152">
         <v>71</v>
       </c>
-      <c r="BP73" s="218" t="s">
+      <c r="BP73" s="217" t="s">
         <v>960</v>
       </c>
       <c r="BQ73" s="152"/>
@@ -17804,7 +17879,7 @@
       <c r="CB73" s="209"/>
       <c r="CC73" s="209"/>
     </row>
-    <row r="74" spans="2:81">
+    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B74" s="132">
         <v>72</v>
       </c>
@@ -17911,7 +17986,7 @@
       <c r="BO74" s="152">
         <v>72</v>
       </c>
-      <c r="BP74" s="218" t="s">
+      <c r="BP74" s="217" t="s">
         <v>438</v>
       </c>
       <c r="BQ74" s="152"/>
@@ -17936,7 +18011,7 @@
       <c r="CB74" s="209"/>
       <c r="CC74" s="209"/>
     </row>
-    <row r="75" spans="2:81">
+    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B75" s="132">
         <v>73</v>
       </c>
@@ -18043,7 +18118,7 @@
       <c r="BO75" s="152">
         <v>73</v>
       </c>
-      <c r="BP75" s="218" t="s">
+      <c r="BP75" s="217" t="s">
         <v>1003</v>
       </c>
       <c r="BQ75" s="152"/>
@@ -18068,7 +18143,7 @@
       <c r="CB75" s="209"/>
       <c r="CC75" s="209"/>
     </row>
-    <row r="76" spans="2:81">
+    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B76" s="132">
         <v>74</v>
       </c>
@@ -18175,7 +18250,7 @@
       <c r="BO76" s="152">
         <v>74</v>
       </c>
-      <c r="BP76" s="218" t="s">
+      <c r="BP76" s="217" t="s">
         <v>36</v>
       </c>
       <c r="BQ76" s="152"/>
@@ -18200,7 +18275,7 @@
       <c r="CB76" s="209"/>
       <c r="CC76" s="209"/>
     </row>
-    <row r="77" spans="2:81">
+    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B77" s="132">
         <v>75</v>
       </c>
@@ -18307,7 +18382,7 @@
       <c r="BO77" s="152">
         <v>75</v>
       </c>
-      <c r="BP77" s="218" t="s">
+      <c r="BP77" s="217" t="s">
         <v>167</v>
       </c>
       <c r="BQ77" s="152"/>
@@ -18332,7 +18407,7 @@
       <c r="CB77" s="209"/>
       <c r="CC77" s="209"/>
     </row>
-    <row r="78" spans="2:81">
+    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B78" s="132">
         <v>76</v>
       </c>
@@ -18439,7 +18514,7 @@
       <c r="BO78" s="152">
         <v>76</v>
       </c>
-      <c r="BP78" s="218" t="s">
+      <c r="BP78" s="217" t="s">
         <v>160</v>
       </c>
       <c r="BQ78" s="152"/>
@@ -18464,7 +18539,7 @@
       <c r="CB78" s="209"/>
       <c r="CC78" s="209"/>
     </row>
-    <row r="79" spans="2:81">
+    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B79" s="132">
         <v>77</v>
       </c>
@@ -18571,7 +18646,7 @@
       <c r="BO79" s="152">
         <v>77</v>
       </c>
-      <c r="BP79" s="218" t="s">
+      <c r="BP79" s="217" t="s">
         <v>1071</v>
       </c>
       <c r="BQ79" s="152"/>
@@ -18596,7 +18671,7 @@
       <c r="CB79" s="209"/>
       <c r="CC79" s="209"/>
     </row>
-    <row r="80" spans="2:81">
+    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B80" s="132">
         <v>78</v>
       </c>
@@ -18703,7 +18778,7 @@
       <c r="BO80" s="152">
         <v>78</v>
       </c>
-      <c r="BP80" s="218" t="s">
+      <c r="BP80" s="217" t="s">
         <v>139</v>
       </c>
       <c r="BQ80" s="152"/>
@@ -18728,7 +18803,7 @@
       <c r="CB80" s="209"/>
       <c r="CC80" s="209"/>
     </row>
-    <row r="81" spans="2:81">
+    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B81" s="132">
         <v>79</v>
       </c>
@@ -18835,7 +18910,7 @@
       <c r="BO81" s="152">
         <v>79</v>
       </c>
-      <c r="BP81" s="218" t="s">
+      <c r="BP81" s="217" t="s">
         <v>53</v>
       </c>
       <c r="BQ81" s="152"/>
@@ -18860,7 +18935,7 @@
       <c r="CB81" s="209"/>
       <c r="CC81" s="209"/>
     </row>
-    <row r="82" spans="2:81">
+    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B82" s="132">
         <v>80</v>
       </c>
@@ -18967,7 +19042,7 @@
       <c r="BO82" s="152">
         <v>80</v>
       </c>
-      <c r="BP82" s="218" t="s">
+      <c r="BP82" s="217" t="s">
         <v>386</v>
       </c>
       <c r="BQ82" s="152"/>
@@ -18992,7 +19067,7 @@
       <c r="CB82" s="209"/>
       <c r="CC82" s="209"/>
     </row>
-    <row r="83" spans="2:81">
+    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B83" s="132">
         <v>81</v>
       </c>
@@ -19099,7 +19174,7 @@
       <c r="BO83" s="152">
         <v>81</v>
       </c>
-      <c r="BP83" s="218" t="s">
+      <c r="BP83" s="217" t="s">
         <v>68</v>
       </c>
       <c r="BQ83" s="152"/>
@@ -19124,7 +19199,7 @@
       <c r="CB83" s="209"/>
       <c r="CC83" s="209"/>
     </row>
-    <row r="84" spans="2:81">
+    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B84" s="210">
         <v>82</v>
       </c>
@@ -19231,7 +19306,7 @@
       <c r="BO84" s="152">
         <v>82</v>
       </c>
-      <c r="BP84" s="218" t="s">
+      <c r="BP84" s="217" t="s">
         <v>167</v>
       </c>
       <c r="BQ84" s="152"/>
@@ -19256,7 +19331,7 @@
       <c r="CB84" s="209"/>
       <c r="CC84" s="209"/>
     </row>
-    <row r="85" spans="2:81">
+    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B85" s="211" t="s">
         <v>612</v>
       </c>
@@ -19289,11 +19364,11 @@
       <c r="M85" s="212"/>
       <c r="N85" s="212">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-5739</v>
+        <v>-6154</v>
       </c>
       <c r="O85" s="118">
         <f t="shared" si="1"/>
-        <v>2105</v>
+        <v>2488</v>
       </c>
       <c r="P85" s="212"/>
       <c r="Q85" s="211" t="s">
@@ -19302,7 +19377,7 @@
       <c r="R85" s="212"/>
       <c r="S85" s="212">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-5986</v>
+        <v>-6061</v>
       </c>
       <c r="T85" s="118">
         <f t="shared" si="2"/>
@@ -19319,7 +19394,7 @@
       </c>
       <c r="Y85" s="118">
         <f t="shared" si="3"/>
-        <v>2347</v>
+        <v>2545</v>
       </c>
       <c r="Z85" s="212"/>
       <c r="AA85" s="211" t="s">
@@ -19328,7 +19403,7 @@
       <c r="AB85" s="212"/>
       <c r="AC85" s="212">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-23057</v>
+        <v>-23132</v>
       </c>
       <c r="AD85" s="118">
         <f t="shared" si="4"/>
@@ -19341,7 +19416,7 @@
       <c r="AG85" s="212"/>
       <c r="AH85" s="212">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-5229</v>
+        <v>-5304</v>
       </c>
       <c r="AI85" s="118">
         <f t="shared" si="5"/>
@@ -19354,11 +19429,11 @@
       <c r="AL85" s="212"/>
       <c r="AM85" s="212">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-13221</v>
+        <v>-13393</v>
       </c>
       <c r="AN85" s="118">
         <f t="shared" si="6"/>
-        <v>1627</v>
+        <v>1729</v>
       </c>
       <c r="AO85" s="212"/>
       <c r="AP85" s="211" t="s">
@@ -19380,11 +19455,11 @@
       <c r="AV85" s="212"/>
       <c r="AW85" s="212">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-11022</v>
+        <v>-11082</v>
       </c>
       <c r="AX85" s="118">
         <f t="shared" si="8"/>
-        <v>1987</v>
+        <v>2181</v>
       </c>
       <c r="AY85" s="212"/>
       <c r="AZ85" s="211" t="s">
@@ -19393,7 +19468,7 @@
       <c r="BA85" s="212"/>
       <c r="BB85" s="212">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-14320</v>
+        <v>-14380</v>
       </c>
       <c r="BC85" s="118">
         <f t="shared" si="9"/>
@@ -19406,7 +19481,7 @@
       <c r="BF85" s="212"/>
       <c r="BG85" s="212">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-7607</v>
+        <v>-9482</v>
       </c>
       <c r="BH85" s="118">
         <f t="shared" si="10"/>
@@ -19419,7 +19494,7 @@
       <c r="BK85" s="212"/>
       <c r="BL85" s="212">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-6477</v>
+        <v>-6552</v>
       </c>
       <c r="BM85" s="118">
         <f t="shared" si="11"/>
@@ -19432,7 +19507,7 @@
       <c r="BP85" s="212"/>
       <c r="BQ85" s="212">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-5936</v>
+        <v>-6401</v>
       </c>
       <c r="BR85" s="118">
         <f t="shared" si="12"/>
@@ -19445,7 +19520,7 @@
       <c r="BU85" s="212"/>
       <c r="BV85" s="212">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-3714</v>
+        <v>-3804</v>
       </c>
       <c r="BW85" s="118">
         <f t="shared" si="13"/>
@@ -19458,38 +19533,38 @@
       <c r="BZ85" s="212"/>
       <c r="CA85" s="212">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-6929</v>
+        <v>-7019</v>
       </c>
       <c r="CB85" s="118">
         <f t="shared" si="14"/>
-        <v>2038</v>
+        <v>2144</v>
       </c>
       <c r="CC85" s="212"/>
     </row>
-    <row r="92" spans="2:81">
-      <c r="H92" s="220" t="s">
+    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H92" s="219" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="220">
+      <c r="I92" s="219">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>32323</v>
-      </c>
-      <c r="J92" s="220"/>
+        <v>33306</v>
+      </c>
+      <c r="J92" s="219"/>
     </row>
-    <row r="93" spans="2:81">
-      <c r="H93" s="220"/>
-      <c r="I93" s="220"/>
-      <c r="J93" s="220"/>
+    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H93" s="219"/>
+      <c r="I93" s="219"/>
+      <c r="J93" s="219"/>
     </row>
-    <row r="94" spans="2:81">
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="220"/>
+    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H94" s="219"/>
+      <c r="I94" s="219"/>
+      <c r="J94" s="219"/>
     </row>
-    <row r="95" spans="2:81">
-      <c r="H95" s="220"/>
-      <c r="I95" s="220"/>
-      <c r="J95" s="220"/>
+    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H95" s="219"/>
+      <c r="I95" s="219"/>
+      <c r="J95" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19502,14 +19577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BI54" sqref="BI54:BM54"/>
+    <sheetView tabSelected="1" topLeftCell="AE31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AO54" sqref="AO54:AS54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -19532,7 +19607,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -19710,7 +19785,7 @@
       <c r="CA1" s="88"/>
       <c r="CB1" s="88"/>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -19856,7 +19931,7 @@
       <c r="CA2" s="88"/>
       <c r="CB2" s="88"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75">
+    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -20043,7 +20118,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75">
+    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -20236,7 +20311,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75">
+    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -20420,7 +20495,7 @@
       </c>
       <c r="CB5" s="114"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75">
+    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -20608,7 +20683,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75">
+    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -20801,7 +20876,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75">
+    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -20984,7 +21059,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75">
+    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -21171,7 +21246,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75">
+    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -21375,7 +21450,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75">
+    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -21565,7 +21640,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75">
+    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -21752,7 +21827,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75">
+    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -21933,7 +22008,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75">
+    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -22114,7 +22189,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75">
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -22301,7 +22376,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75">
+    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -22479,7 +22554,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75">
+    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -22666,7 +22741,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75">
+    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -22851,7 +22926,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75">
+    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -23038,7 +23113,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75">
+    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -23234,7 +23309,7 @@
       </c>
       <c r="CB20" s="114"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75">
+    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -23412,7 +23487,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75">
+    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -23599,7 +23674,7 @@
       </c>
       <c r="CB22" s="114"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75">
+    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -23786,7 +23861,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75">
+    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -23978,7 +24053,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75">
+    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -24163,7 +24238,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75">
+    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -24356,7 +24431,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75">
+    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -24540,7 +24615,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75">
+    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -24728,7 +24803,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75">
+    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -24921,7 +24996,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75">
+    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -25108,7 +25183,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75">
+    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -25298,7 +25373,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75">
+    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -25494,7 +25569,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75">
+    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -25677,7 +25752,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75">
+    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -25858,7 +25933,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75">
+    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -26047,7 +26122,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75">
+    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -26237,7 +26312,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75">
+    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -26424,7 +26499,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75">
+    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -26605,7 +26680,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75">
+    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -26797,7 +26872,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75">
+    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -26990,7 +27065,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75">
+    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -27177,7 +27252,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75">
+    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -27355,7 +27430,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75">
+    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -27542,7 +27617,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75">
+    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -27726,7 +27801,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75">
+    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -27910,7 +27985,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75">
+    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -28104,7 +28179,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75">
+    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -28285,7 +28360,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75">
+    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -28390,7 +28465,9 @@
         <v>-112</v>
       </c>
       <c r="AR48" s="17"/>
-      <c r="AS48" s="17"/>
+      <c r="AS48" s="17">
+        <v>-4.4000000000000004</v>
+      </c>
       <c r="AT48" s="17">
         <v>46</v>
       </c>
@@ -28475,7 +28552,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75">
+    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -28542,17 +28619,17 @@
       </c>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
-      <c r="AE49" s="86">
+      <c r="AE49" s="17">
         <v>47</v>
       </c>
-      <c r="AF49" s="86" t="s">
+      <c r="AF49" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="AG49" s="86">
+      <c r="AG49" s="17">
         <v>-298</v>
       </c>
-      <c r="AH49" s="86"/>
-      <c r="AI49" s="86"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
       <c r="AJ49" s="16">
         <v>47</v>
       </c>
@@ -28577,7 +28654,10 @@
         <v>-155</v>
       </c>
       <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
+      <c r="AS49" s="17">
+        <f>AS48*AQ54</f>
+        <v>2640</v>
+      </c>
       <c r="AT49" s="17">
         <v>47</v>
       </c>
@@ -28661,7 +28741,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75">
+    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -28734,13 +28814,17 @@
         <v>220</v>
       </c>
       <c r="AD50" s="16"/>
-      <c r="AE50" s="57">
+      <c r="AE50" s="17">
         <v>48</v>
       </c>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="57"/>
+      <c r="AF50" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="AG50" s="17">
+        <v>-415</v>
+      </c>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
       <c r="AJ50" s="17">
         <v>48</v>
       </c>
@@ -28852,7 +28936,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75">
+    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -28928,13 +29012,17 @@
       <c r="AG51" s="57"/>
       <c r="AH51" s="57"/>
       <c r="AI51" s="57"/>
-      <c r="AJ51" s="63">
+      <c r="AJ51" s="17">
         <v>49</v>
       </c>
-      <c r="AK51" s="63"/>
-      <c r="AL51" s="63"/>
-      <c r="AM51" s="63"/>
-      <c r="AN51" s="63"/>
+      <c r="AK51" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AL51" s="17">
+        <v>-65</v>
+      </c>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
       <c r="AO51" s="17">
         <v>49</v>
       </c>
@@ -29029,7 +29117,7 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75">
+    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -29044,15 +29132,20 @@
         <v>168</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="19">
+      <c r="F52" s="16">
         <v>50</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="36"/>
+      <c r="H52" s="16">
+        <v>-298</v>
+      </c>
+      <c r="I52" s="16">
+        <f>1311+SUM(H45:H52)</f>
+        <v>241</v>
+      </c>
+      <c r="J52" s="28"/>
       <c r="K52" s="17">
         <v>50</v>
       </c>
@@ -29149,17 +29242,17 @@
       </c>
       <c r="BB52" s="17"/>
       <c r="BC52" s="17"/>
-      <c r="BD52" s="86">
+      <c r="BD52" s="17">
         <v>50</v>
       </c>
-      <c r="BE52" s="86" t="s">
+      <c r="BE52" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="BF52" s="86">
+      <c r="BF52" s="17">
         <v>-65</v>
       </c>
-      <c r="BG52" s="86"/>
-      <c r="BH52" s="86"/>
+      <c r="BG52" s="17"/>
+      <c r="BH52" s="17"/>
       <c r="BI52" s="17">
         <v>50</v>
       </c>
@@ -29201,27 +29294,29 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75">
-      <c r="A53" s="86">
+    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <v>51</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="C53" s="86">
-        <v>-60</v>
-      </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="19">
+      <c r="C53" s="17">
+        <v>-60</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="86">
         <v>51</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="86" t="s">
         <v>896</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="36"/>
+      <c r="H53" s="86">
+        <v>-60</v>
+      </c>
+      <c r="I53" s="86"/>
+      <c r="J53" s="213"/>
       <c r="K53" s="17">
         <v>51</v>
       </c>
@@ -29280,17 +29375,17 @@
       <c r="AL53" s="63"/>
       <c r="AM53" s="63"/>
       <c r="AN53" s="63"/>
-      <c r="AO53" s="86">
+      <c r="AO53" s="17">
         <v>51</v>
       </c>
-      <c r="AP53" s="217" t="s">
+      <c r="AP53" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="AQ53" s="86">
+      <c r="AQ53" s="17">
         <v>-450</v>
       </c>
-      <c r="AR53" s="86"/>
-      <c r="AS53" s="86"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
       <c r="AT53" s="17">
         <v>51</v>
       </c>
@@ -29316,13 +29411,17 @@
         <v>138</v>
       </c>
       <c r="BC53" s="16"/>
-      <c r="BD53" s="87">
+      <c r="BD53" s="17">
         <v>51</v>
       </c>
-      <c r="BE53" s="87"/>
-      <c r="BF53" s="87"/>
-      <c r="BG53" s="87"/>
-      <c r="BH53" s="87"/>
+      <c r="BE53" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BF53" s="17">
+        <v>-75</v>
+      </c>
+      <c r="BG53" s="17"/>
+      <c r="BH53" s="17"/>
       <c r="BI53" s="17">
         <v>51</v>
       </c>
@@ -29364,7 +29463,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" ht="15.75">
+    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -29383,28 +29482,31 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="36"/>
-      <c r="K54" s="86">
+      <c r="K54" s="17">
         <v>52</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="M54" s="86">
+      <c r="M54" s="17">
         <v>-298</v>
       </c>
-      <c r="N54" s="86"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="222">
+      <c r="N54" s="17"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="34">
         <v>52</v>
       </c>
-      <c r="Q54" s="222" t="s">
+      <c r="Q54" s="34" t="s">
         <v>903</v>
       </c>
-      <c r="R54" s="222">
+      <c r="R54" s="34">
         <v>-155</v>
       </c>
-      <c r="S54" s="222"/>
-      <c r="T54" s="222"/>
+      <c r="S54" s="34">
+        <f>760+SUM(R49:R54)</f>
+        <v>203</v>
+      </c>
+      <c r="T54" s="34"/>
       <c r="U54" s="46">
         <v>52</v>
       </c>
@@ -29416,17 +29518,17 @@
       </c>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="223">
+      <c r="Z54" s="17">
         <v>52</v>
       </c>
-      <c r="AA54" s="224" t="s">
+      <c r="AA54" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="AB54" s="223">
+      <c r="AB54" s="17">
         <v>-75</v>
       </c>
-      <c r="AC54" s="223"/>
-      <c r="AD54" s="223"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
       <c r="AE54" s="57">
         <v>52</v>
       </c>
@@ -29441,22 +29543,34 @@
       <c r="AL54" s="63"/>
       <c r="AM54" s="63"/>
       <c r="AN54" s="63"/>
-      <c r="AO54" s="74">
+      <c r="AO54" s="86">
         <v>52</v>
       </c>
-      <c r="AP54" s="219" t="s">
+      <c r="AP54" s="216" t="s">
         <v>1072</v>
       </c>
-      <c r="AQ54" s="74"/>
-      <c r="AR54" s="74"/>
-      <c r="AS54" s="74"/>
-      <c r="AT54" s="57">
+      <c r="AQ54" s="86">
+        <v>-600</v>
+      </c>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86">
+        <f>AS49+SUM(AQ44:AQ54)</f>
+        <v>105</v>
+      </c>
+      <c r="AT54" s="114">
         <v>52</v>
       </c>
-      <c r="AU54" s="57"/>
-      <c r="AV54" s="57"/>
-      <c r="AW54" s="57"/>
-      <c r="AX54" s="57"/>
+      <c r="AU54" s="114" t="s">
+        <v>712</v>
+      </c>
+      <c r="AV54" s="114">
+        <v>-65</v>
+      </c>
+      <c r="AW54" s="114">
+        <f>286+SUM(AV53:AV54)</f>
+        <v>161</v>
+      </c>
+      <c r="AX54" s="114"/>
       <c r="AY54" s="88">
         <v>52</v>
       </c>
@@ -29471,17 +29585,20 @@
       <c r="BF54" s="87"/>
       <c r="BG54" s="87"/>
       <c r="BH54" s="87"/>
-      <c r="BI54" s="86">
+      <c r="BI54" s="16">
         <v>52</v>
       </c>
-      <c r="BJ54" s="217" t="s">
+      <c r="BJ54" s="16" t="s">
         <v>1080</v>
       </c>
-      <c r="BK54" s="86">
+      <c r="BK54" s="16">
         <v>-75</v>
       </c>
-      <c r="BL54" s="86"/>
-      <c r="BM54" s="86"/>
+      <c r="BL54" s="16">
+        <f>323+SUM(BK52:BK54)</f>
+        <v>123</v>
+      </c>
+      <c r="BM54" s="16"/>
       <c r="BN54" s="17">
         <v>52</v>
       </c>
@@ -29500,15 +29617,19 @@
       <c r="BU54" s="99"/>
       <c r="BV54" s="99"/>
       <c r="BW54" s="99"/>
-      <c r="BX54" s="88">
+      <c r="BX54" s="17">
         <v>52</v>
       </c>
-      <c r="BY54" s="88"/>
-      <c r="BZ54" s="88"/>
-      <c r="CA54" s="88"/>
-      <c r="CB54" s="88"/>
+      <c r="BY54" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BZ54" s="17">
+        <v>-75</v>
+      </c>
+      <c r="CA54" s="17"/>
+      <c r="CB54" s="17"/>
     </row>
-    <row r="55" spans="1:80" ht="15.75">
+    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>53</v>
       </c>
@@ -29527,15 +29648,17 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="36"/>
-      <c r="K55" s="37">
+      <c r="K55" s="86">
         <v>53</v>
       </c>
-      <c r="L55" s="37" t="s">
+      <c r="L55" s="86" t="s">
         <v>905</v>
       </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="38"/>
+      <c r="M55" s="86">
+        <v>-415</v>
+      </c>
+      <c r="N55" s="86"/>
+      <c r="O55" s="213"/>
       <c r="P55" s="39">
         <v>53</v>
       </c>
@@ -29545,15 +29668,17 @@
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
-      <c r="U55" s="42">
+      <c r="U55" s="46">
         <v>53</v>
       </c>
-      <c r="V55" s="44" t="s">
+      <c r="V55" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
+      <c r="W55" s="17">
+        <v>-75</v>
+      </c>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
       <c r="Z55" s="49">
         <v>53</v>
       </c>
@@ -29580,7 +29705,7 @@
       <c r="AO55" s="74">
         <v>53</v>
       </c>
-      <c r="AP55" s="219" t="s">
+      <c r="AP55" s="218" t="s">
         <v>1073</v>
       </c>
       <c r="AQ55" s="74"/>
@@ -29607,13 +29732,20 @@
       <c r="BF55" s="87"/>
       <c r="BG55" s="87"/>
       <c r="BH55" s="87"/>
-      <c r="BI55" s="99">
+      <c r="BI55" s="16">
         <v>53</v>
       </c>
-      <c r="BJ55" s="99"/>
-      <c r="BK55" s="99"/>
-      <c r="BL55" s="99"/>
-      <c r="BM55" s="99"/>
+      <c r="BJ55" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BK55" s="16">
+        <v>-60</v>
+      </c>
+      <c r="BL55" s="16">
+        <f>264+BK55</f>
+        <v>204</v>
+      </c>
+      <c r="BM55" s="16"/>
       <c r="BN55" s="17">
         <v>53</v>
       </c>
@@ -29632,15 +29764,19 @@
       <c r="BU55" s="99"/>
       <c r="BV55" s="99"/>
       <c r="BW55" s="99"/>
-      <c r="BX55" s="88">
+      <c r="BX55" s="86">
         <v>53</v>
       </c>
-      <c r="BY55" s="88"/>
-      <c r="BZ55" s="88"/>
-      <c r="CA55" s="88"/>
-      <c r="CB55" s="88"/>
+      <c r="BY55" s="221" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BZ55" s="86">
+        <v>-90</v>
+      </c>
+      <c r="CA55" s="86"/>
+      <c r="CB55" s="86"/>
     </row>
-    <row r="56" spans="1:80">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>54</v>
       </c>
@@ -29712,7 +29848,7 @@
       <c r="AO56" s="74">
         <v>54</v>
       </c>
-      <c r="AP56" s="219" t="s">
+      <c r="AP56" s="218" t="s">
         <v>178</v>
       </c>
       <c r="AQ56" s="74"/>
@@ -29746,13 +29882,17 @@
       <c r="BK56" s="99"/>
       <c r="BL56" s="99"/>
       <c r="BM56" s="99"/>
-      <c r="BN56" s="110">
+      <c r="BN56" s="86">
         <v>54</v>
       </c>
-      <c r="BO56" s="110"/>
-      <c r="BP56" s="110"/>
-      <c r="BQ56" s="110"/>
-      <c r="BR56" s="110"/>
+      <c r="BO56" s="221" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BP56" s="86">
+        <v>-155</v>
+      </c>
+      <c r="BQ56" s="86"/>
+      <c r="BR56" s="86"/>
       <c r="BS56" s="109">
         <v>54</v>
       </c>
@@ -29768,7 +29908,7 @@
       <c r="CA56" s="88"/>
       <c r="CB56" s="88"/>
     </row>
-    <row r="57" spans="1:80">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>55</v>
       </c>
@@ -29840,7 +29980,7 @@
       <c r="AO57" s="74">
         <v>55</v>
       </c>
-      <c r="AP57" s="219" t="s">
+      <c r="AP57" s="218" t="s">
         <v>777</v>
       </c>
       <c r="AQ57" s="74"/>
@@ -29896,7 +30036,7 @@
       <c r="CA57" s="88"/>
       <c r="CB57" s="88"/>
     </row>
-    <row r="58" spans="1:80">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>56</v>
       </c>
@@ -29968,7 +30108,7 @@
       <c r="AO58" s="74">
         <v>56</v>
       </c>
-      <c r="AP58" s="219" t="s">
+      <c r="AP58" s="218" t="s">
         <v>830</v>
       </c>
       <c r="AQ58" s="74"/>
@@ -30024,7 +30164,7 @@
       <c r="CA58" s="88"/>
       <c r="CB58" s="88"/>
     </row>
-    <row r="59" spans="1:80">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -30096,7 +30236,7 @@
       <c r="AO59" s="74">
         <v>57</v>
       </c>
-      <c r="AP59" s="219" t="s">
+      <c r="AP59" s="218" t="s">
         <v>784</v>
       </c>
       <c r="AQ59" s="74"/>
@@ -30152,7 +30292,7 @@
       <c r="CA59" s="88"/>
       <c r="CB59" s="88"/>
     </row>
-    <row r="60" spans="1:80">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>58</v>
       </c>
@@ -30224,7 +30364,7 @@
       <c r="AO60" s="74">
         <v>58</v>
       </c>
-      <c r="AP60" s="219" t="s">
+      <c r="AP60" s="218" t="s">
         <v>790</v>
       </c>
       <c r="AQ60" s="74"/>
@@ -30280,7 +30420,7 @@
       <c r="CA60" s="88"/>
       <c r="CB60" s="88"/>
     </row>
-    <row r="61" spans="1:80">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>59</v>
       </c>
@@ -30352,7 +30492,7 @@
       <c r="AO61" s="74">
         <v>59</v>
       </c>
-      <c r="AP61" s="219" t="s">
+      <c r="AP61" s="218" t="s">
         <v>513</v>
       </c>
       <c r="AQ61" s="74"/>
@@ -30408,7 +30548,7 @@
       <c r="CA61" s="88"/>
       <c r="CB61" s="88"/>
     </row>
-    <row r="62" spans="1:80">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -30480,7 +30620,7 @@
       <c r="AO62" s="74">
         <v>60</v>
       </c>
-      <c r="AP62" s="219" t="s">
+      <c r="AP62" s="218" t="s">
         <v>760</v>
       </c>
       <c r="AQ62" s="74"/>
@@ -30536,7 +30676,7 @@
       <c r="CA62" s="88"/>
       <c r="CB62" s="88"/>
     </row>
-    <row r="63" spans="1:80">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>61</v>
       </c>
@@ -30608,7 +30748,7 @@
       <c r="AO63" s="74">
         <v>61</v>
       </c>
-      <c r="AP63" s="219" t="s">
+      <c r="AP63" s="218" t="s">
         <v>1074</v>
       </c>
       <c r="AQ63" s="74"/>
@@ -30664,7 +30804,7 @@
       <c r="CA63" s="88"/>
       <c r="CB63" s="88"/>
     </row>
-    <row r="64" spans="1:80">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -30736,7 +30876,7 @@
       <c r="AO64" s="74">
         <v>62</v>
       </c>
-      <c r="AP64" s="219" t="s">
+      <c r="AP64" s="218" t="s">
         <v>1075</v>
       </c>
       <c r="AQ64" s="74"/>
@@ -30792,7 +30932,7 @@
       <c r="CA64" s="88"/>
       <c r="CB64" s="88"/>
     </row>
-    <row r="65" spans="1:80">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -30864,7 +31004,7 @@
       <c r="AO65" s="74">
         <v>63</v>
       </c>
-      <c r="AP65" s="219" t="s">
+      <c r="AP65" s="218" t="s">
         <v>1073</v>
       </c>
       <c r="AQ65" s="74"/>
@@ -30920,7 +31060,7 @@
       <c r="CA65" s="88"/>
       <c r="CB65" s="88"/>
     </row>
-    <row r="66" spans="1:80">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -30992,7 +31132,7 @@
       <c r="AO66" s="74">
         <v>64</v>
       </c>
-      <c r="AP66" s="219" t="s">
+      <c r="AP66" s="218" t="s">
         <v>942</v>
       </c>
       <c r="AQ66" s="74"/>
@@ -31048,7 +31188,7 @@
       <c r="CA66" s="88"/>
       <c r="CB66" s="88"/>
     </row>
-    <row r="67" spans="1:80">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -31120,7 +31260,7 @@
       <c r="AO67" s="74">
         <v>65</v>
       </c>
-      <c r="AP67" s="219" t="s">
+      <c r="AP67" s="218" t="s">
         <v>760</v>
       </c>
       <c r="AQ67" s="74"/>
@@ -31176,7 +31316,7 @@
       <c r="CA67" s="88"/>
       <c r="CB67" s="88"/>
     </row>
-    <row r="68" spans="1:80">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -31248,7 +31388,7 @@
       <c r="AO68" s="74">
         <v>66</v>
       </c>
-      <c r="AP68" s="219" t="s">
+      <c r="AP68" s="218" t="s">
         <v>1073</v>
       </c>
       <c r="AQ68" s="74"/>
@@ -31304,7 +31444,7 @@
       <c r="CA68" s="88"/>
       <c r="CB68" s="88"/>
     </row>
-    <row r="69" spans="1:80">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -31376,7 +31516,7 @@
       <c r="AO69" s="74">
         <v>67</v>
       </c>
-      <c r="AP69" s="219" t="s">
+      <c r="AP69" s="218" t="s">
         <v>954</v>
       </c>
       <c r="AQ69" s="74"/>
@@ -31432,7 +31572,7 @@
       <c r="CA69" s="88"/>
       <c r="CB69" s="88"/>
     </row>
-    <row r="70" spans="1:80">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -31504,7 +31644,7 @@
       <c r="AO70" s="74">
         <v>68</v>
       </c>
-      <c r="AP70" s="219" t="s">
+      <c r="AP70" s="218" t="s">
         <v>1074</v>
       </c>
       <c r="AQ70" s="74"/>
@@ -31560,7 +31700,7 @@
       <c r="CA70" s="88"/>
       <c r="CB70" s="88"/>
     </row>
-    <row r="71" spans="1:80">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -31632,7 +31772,7 @@
       <c r="AO71" s="74">
         <v>69</v>
       </c>
-      <c r="AP71" s="219" t="s">
+      <c r="AP71" s="218" t="s">
         <v>954</v>
       </c>
       <c r="AQ71" s="74"/>
@@ -31688,7 +31828,7 @@
       <c r="CA71" s="88"/>
       <c r="CB71" s="88"/>
     </row>
-    <row r="72" spans="1:80">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -31760,7 +31900,7 @@
       <c r="AO72" s="74">
         <v>70</v>
       </c>
-      <c r="AP72" s="219" t="s">
+      <c r="AP72" s="218" t="s">
         <v>1076</v>
       </c>
       <c r="AQ72" s="74"/>
@@ -31816,7 +31956,7 @@
       <c r="CA72" s="88"/>
       <c r="CB72" s="88"/>
     </row>
-    <row r="73" spans="1:80">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -31888,7 +32028,7 @@
       <c r="AO73" s="74">
         <v>71</v>
       </c>
-      <c r="AP73" s="219" t="s">
+      <c r="AP73" s="218" t="s">
         <v>1074</v>
       </c>
       <c r="AQ73" s="74"/>
@@ -31944,7 +32084,7 @@
       <c r="CA73" s="88"/>
       <c r="CB73" s="88"/>
     </row>
-    <row r="74" spans="1:80">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -32016,7 +32156,7 @@
       <c r="AO74" s="74">
         <v>72</v>
       </c>
-      <c r="AP74" s="219" t="s">
+      <c r="AP74" s="218" t="s">
         <v>1075</v>
       </c>
       <c r="AQ74" s="74"/>
@@ -32072,7 +32212,7 @@
       <c r="CA74" s="88"/>
       <c r="CB74" s="88"/>
     </row>
-    <row r="75" spans="1:80">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>73</v>
       </c>
@@ -32144,7 +32284,7 @@
       <c r="AO75" s="74">
         <v>73</v>
       </c>
-      <c r="AP75" s="219" t="s">
+      <c r="AP75" s="218" t="s">
         <v>1072</v>
       </c>
       <c r="AQ75" s="74"/>
@@ -32200,7 +32340,7 @@
       <c r="CA75" s="88"/>
       <c r="CB75" s="88"/>
     </row>
-    <row r="76" spans="1:80">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -32272,7 +32412,7 @@
       <c r="AO76" s="74">
         <v>74</v>
       </c>
-      <c r="AP76" s="219" t="s">
+      <c r="AP76" s="218" t="s">
         <v>197</v>
       </c>
       <c r="AQ76" s="74"/>
@@ -32328,7 +32468,7 @@
       <c r="CA76" s="88"/>
       <c r="CB76" s="88"/>
     </row>
-    <row r="77" spans="1:80">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>75</v>
       </c>
@@ -32400,7 +32540,7 @@
       <c r="AO77" s="74">
         <v>75</v>
       </c>
-      <c r="AP77" s="219" t="s">
+      <c r="AP77" s="218" t="s">
         <v>942</v>
       </c>
       <c r="AQ77" s="74"/>
@@ -32456,7 +32596,7 @@
       <c r="CA77" s="88"/>
       <c r="CB77" s="88"/>
     </row>
-    <row r="78" spans="1:80">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -32528,7 +32668,7 @@
       <c r="AO78" s="74">
         <v>76</v>
       </c>
-      <c r="AP78" s="219" t="s">
+      <c r="AP78" s="218" t="s">
         <v>830</v>
       </c>
       <c r="AQ78" s="74"/>
@@ -32584,7 +32724,7 @@
       <c r="CA78" s="88"/>
       <c r="CB78" s="88"/>
     </row>
-    <row r="79" spans="1:80">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>77</v>
       </c>
@@ -32656,7 +32796,7 @@
       <c r="AO79" s="74">
         <v>77</v>
       </c>
-      <c r="AP79" s="219" t="s">
+      <c r="AP79" s="218" t="s">
         <v>898</v>
       </c>
       <c r="AQ79" s="74"/>
@@ -32712,7 +32852,7 @@
       <c r="CA79" s="88"/>
       <c r="CB79" s="88"/>
     </row>
-    <row r="80" spans="1:80">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -32784,7 +32924,7 @@
       <c r="AO80" s="74">
         <v>78</v>
       </c>
-      <c r="AP80" s="219" t="s">
+      <c r="AP80" s="218" t="s">
         <v>942</v>
       </c>
       <c r="AQ80" s="74"/>
@@ -32840,7 +32980,7 @@
       <c r="CA80" s="88"/>
       <c r="CB80" s="88"/>
     </row>
-    <row r="81" spans="1:81">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>79</v>
       </c>
@@ -32912,7 +33052,7 @@
       <c r="AO81" s="74">
         <v>79</v>
       </c>
-      <c r="AP81" s="219" t="s">
+      <c r="AP81" s="218" t="s">
         <v>1072</v>
       </c>
       <c r="AQ81" s="74"/>
@@ -32968,7 +33108,7 @@
       <c r="CA81" s="88"/>
       <c r="CB81" s="88"/>
     </row>
-    <row r="82" spans="1:81">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -33040,7 +33180,7 @@
       <c r="AO82" s="74">
         <v>80</v>
       </c>
-      <c r="AP82" s="219" t="s">
+      <c r="AP82" s="218" t="s">
         <v>1075</v>
       </c>
       <c r="AQ82" s="74"/>
@@ -33096,7 +33236,7 @@
       <c r="CA82" s="88"/>
       <c r="CB82" s="88"/>
     </row>
-    <row r="83" spans="1:81">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -33168,7 +33308,7 @@
       <c r="AO83" s="74">
         <v>81</v>
       </c>
-      <c r="AP83" s="219" t="s">
+      <c r="AP83" s="218" t="s">
         <v>1076</v>
       </c>
       <c r="AQ83" s="74"/>
@@ -33224,7 +33364,7 @@
       <c r="CA83" s="88"/>
       <c r="CB83" s="88"/>
     </row>
-    <row r="84" spans="1:81">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A84" s="115">
         <v>82</v>
       </c>
@@ -33296,7 +33436,7 @@
       <c r="AO84" s="74">
         <v>82</v>
       </c>
-      <c r="AP84" s="219" t="s">
+      <c r="AP84" s="218" t="s">
         <v>790</v>
       </c>
       <c r="AQ84" s="74"/>
@@ -33352,7 +33492,7 @@
       <c r="CA84" s="88"/>
       <c r="CB84" s="88"/>
     </row>
-    <row r="85" spans="1:81">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A85" s="116" t="s">
         <v>612</v>
       </c>
@@ -33372,11 +33512,11 @@
       <c r="G85" s="117"/>
       <c r="H85" s="117">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-6929</v>
+        <v>-7287</v>
       </c>
       <c r="I85" s="118">
         <f t="shared" si="0"/>
-        <v>1403</v>
+        <v>1644</v>
       </c>
       <c r="J85" s="117"/>
       <c r="K85" s="116" t="s">
@@ -33385,7 +33525,7 @@
       <c r="L85" s="117"/>
       <c r="M85" s="117">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-10035</v>
+        <v>-10450</v>
       </c>
       <c r="N85" s="118">
         <f t="shared" si="1"/>
@@ -33402,7 +33542,7 @@
       </c>
       <c r="S85" s="118">
         <f t="shared" si="2"/>
-        <v>1406</v>
+        <v>1609</v>
       </c>
       <c r="T85" s="117"/>
       <c r="U85" s="116" t="s">
@@ -33411,7 +33551,7 @@
       <c r="V85" s="117"/>
       <c r="W85" s="117">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-24119</v>
+        <v>-24194</v>
       </c>
       <c r="X85" s="118">
         <f t="shared" si="3"/>
@@ -33437,7 +33577,7 @@
       <c r="AF85" s="117"/>
       <c r="AG85" s="117">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-7661</v>
+        <v>-8076</v>
       </c>
       <c r="AH85" s="118">
         <f t="shared" si="5"/>
@@ -33450,7 +33590,7 @@
       <c r="AK85" s="117"/>
       <c r="AL85" s="117">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-4578</v>
+        <v>-4643</v>
       </c>
       <c r="AM85" s="118">
         <f t="shared" si="6"/>
@@ -33463,7 +33603,7 @@
       <c r="AP85" s="117"/>
       <c r="AQ85" s="117">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-6351</v>
+        <v>-6951</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="7"/>
@@ -33476,11 +33616,11 @@
       <c r="AU85" s="117"/>
       <c r="AV85" s="117">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-10965</v>
+        <v>-11030</v>
       </c>
       <c r="AW85" s="118">
         <f t="shared" si="8"/>
-        <v>1246</v>
+        <v>1407</v>
       </c>
       <c r="AX85" s="117"/>
       <c r="AY85" s="116" t="s">
@@ -33502,7 +33642,7 @@
       <c r="BE85" s="117"/>
       <c r="BF85" s="117">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-38079</v>
+        <v>-38154</v>
       </c>
       <c r="BG85" s="118">
         <f t="shared" si="10"/>
@@ -33515,11 +33655,11 @@
       <c r="BJ85" s="117"/>
       <c r="BK85" s="117">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-11185</v>
+        <v>-11245</v>
       </c>
       <c r="BL85" s="118">
         <f t="shared" si="11"/>
-        <v>1386</v>
+        <v>1713</v>
       </c>
       <c r="BM85" s="117"/>
       <c r="BN85" s="116" t="s">
@@ -33528,7 +33668,7 @@
       <c r="BO85" s="117"/>
       <c r="BP85" s="117">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-7744</v>
+        <v>-7899</v>
       </c>
       <c r="BQ85" s="118">
         <f t="shared" si="12"/>
@@ -33554,7 +33694,7 @@
       <c r="BY85" s="117"/>
       <c r="BZ85" s="117">
         <f t="shared" ref="BZ85:CA85" si="14">SUM(BZ3:BZ84)</f>
-        <v>-5970</v>
+        <v>-6135</v>
       </c>
       <c r="CA85" s="118">
         <f t="shared" si="14"/>
@@ -33565,30 +33705,30 @@
         <v>612</v>
       </c>
     </row>
-    <row r="95" spans="1:81">
-      <c r="G95" s="220" t="s">
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="G95" s="219" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="220">
+      <c r="H95" s="219">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>25407</v>
-      </c>
-      <c r="I95" s="220"/>
+        <v>26339</v>
+      </c>
+      <c r="I95" s="219"/>
     </row>
-    <row r="96" spans="1:81">
-      <c r="G96" s="220"/>
-      <c r="H96" s="220"/>
-      <c r="I96" s="220"/>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="G96" s="219"/>
+      <c r="H96" s="219"/>
+      <c r="I96" s="219"/>
     </row>
-    <row r="97" spans="7:9">
-      <c r="G97" s="220"/>
-      <c r="H97" s="220"/>
-      <c r="I97" s="220"/>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="219"/>
+      <c r="H97" s="219"/>
+      <c r="I97" s="219"/>
     </row>
-    <row r="98" spans="7:9">
-      <c r="G98" s="220"/>
-      <c r="H98" s="220"/>
-      <c r="I98" s="220"/>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="219"/>
+      <c r="H98" s="219"/>
+      <c r="I98" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33601,26 +33741,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="221" t="s">
+    <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="220" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="2" spans="5:8" ht="15.75">
+    <row r="2" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>984</v>
       </c>
@@ -33634,7 +33774,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="3" spans="5:8">
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -33650,7 +33790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -33666,7 +33806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="5:8">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -33682,7 +33822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -33698,7 +33838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:8">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -33714,7 +33854,7 @@
         <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -33730,7 +33870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -33746,7 +33886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -33762,7 +33902,7 @@
         <v>2.7999999999999545</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -33778,7 +33918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -33794,7 +33934,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -33810,7 +33950,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -33826,7 +33966,7 @@
         <v>5.8000000000001819</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -33842,7 +33982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -33858,7 +33998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -33874,7 +34014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -33890,7 +34030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -33906,7 +34046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -33922,7 +34062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -33938,7 +34078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -33954,7 +34094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -33970,7 +34110,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -33981,7 +34121,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -33992,7 +34132,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1091">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3308,6 +3308,18 @@
   </si>
   <si>
     <t>Нью Джерси - Сиэтл</t>
+  </si>
+  <si>
+    <t>Оттава - Коламбус</t>
+  </si>
+  <si>
+    <t>Нэшвилл - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Эдмонтон -Детройт</t>
+  </si>
+  <si>
+    <t>Эдмонтон - Детройт</t>
   </si>
 </sst>
 </file>
@@ -4515,7 +4527,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4873,7 +4885,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4885,8 +4896,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="17" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5210,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AV25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE56" sqref="BE56:BI56"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12969,7 +12987,7 @@
       </c>
       <c r="J42" s="73"/>
       <c r="K42" s="73">
-        <v>-4.4000000000000004</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="L42" s="130">
         <v>40</v>
@@ -13163,8 +13181,8 @@
       </c>
       <c r="J43" s="73"/>
       <c r="K43" s="73">
-        <f>K42*I53</f>
-        <v>5500</v>
+        <f>K42*I54</f>
+        <v>7129.9999999999991</v>
       </c>
       <c r="L43" s="73">
         <v>41</v>
@@ -13364,7 +13382,10 @@
         <v>-112</v>
       </c>
       <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="73">
+        <f>K43+SUM(I40:I54)</f>
+        <v>159.99999999999909</v>
+      </c>
       <c r="L44" s="130">
         <v>42</v>
       </c>
@@ -14450,7 +14471,9 @@
         <v>-90</v>
       </c>
       <c r="BR49" s="73"/>
-      <c r="BS49" s="73"/>
+      <c r="BS49" s="73">
+        <v>-4.8</v>
+      </c>
       <c r="BT49" s="73">
         <v>47</v>
       </c>
@@ -14640,7 +14663,10 @@
         <v>-112</v>
       </c>
       <c r="BR50" s="73"/>
-      <c r="BS50" s="73"/>
+      <c r="BS50" s="73">
+        <f>BQ56*BS49</f>
+        <v>2640</v>
+      </c>
       <c r="BT50" s="73">
         <v>48</v>
       </c>
@@ -14784,13 +14810,17 @@
       </c>
       <c r="AX51" s="73"/>
       <c r="AY51" s="73"/>
-      <c r="AZ51" s="190">
+      <c r="AZ51" s="118">
         <v>49</v>
       </c>
-      <c r="BA51" s="190"/>
-      <c r="BB51" s="190"/>
-      <c r="BC51" s="190"/>
-      <c r="BD51" s="190"/>
+      <c r="BA51" s="118" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BB51" s="118">
+        <v>-65</v>
+      </c>
+      <c r="BC51" s="118"/>
+      <c r="BD51" s="118"/>
       <c r="BE51" s="73">
         <v>49</v>
       </c>
@@ -14823,7 +14853,10 @@
         <v>-155</v>
       </c>
       <c r="BR51" s="73"/>
-      <c r="BS51" s="73"/>
+      <c r="BS51" s="73">
+        <f>BS50+SUM(BQ46:BQ56)</f>
+        <v>140</v>
+      </c>
       <c r="BT51" s="73">
         <v>49</v>
       </c>
@@ -15048,10 +15081,7 @@
         <v>-1250</v>
       </c>
       <c r="J53" s="73"/>
-      <c r="K53" s="73">
-        <f>K43+SUM(I40:I53)</f>
-        <v>80</v>
-      </c>
+      <c r="K53" s="73"/>
       <c r="L53" s="130">
         <v>51</v>
       </c>
@@ -15113,17 +15143,17 @@
       </c>
       <c r="AI53" s="73"/>
       <c r="AJ53" s="73"/>
-      <c r="AK53" s="118">
+      <c r="AK53" s="73">
         <v>51</v>
       </c>
-      <c r="AL53" s="222" t="s">
+      <c r="AL53" s="73" t="s">
         <v>1086</v>
       </c>
-      <c r="AM53" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AN53" s="118"/>
-      <c r="AO53" s="118"/>
+      <c r="AM53" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AN53" s="73"/>
+      <c r="AO53" s="73"/>
       <c r="AP53" s="73">
         <v>51</v>
       </c>
@@ -15182,15 +15212,17 @@
       </c>
       <c r="BR53" s="73"/>
       <c r="BS53" s="73"/>
-      <c r="BT53" s="204">
+      <c r="BT53" s="118">
         <v>51</v>
       </c>
-      <c r="BU53" s="204" t="s">
+      <c r="BU53" s="118" t="s">
         <v>992</v>
       </c>
-      <c r="BV53" s="204"/>
-      <c r="BW53" s="204"/>
-      <c r="BX53" s="204"/>
+      <c r="BV53" s="118">
+        <v>-112</v>
+      </c>
+      <c r="BW53" s="118"/>
+      <c r="BX53" s="118"/>
       <c r="BY53" s="130">
         <v>51</v>
       </c>
@@ -15218,38 +15250,50 @@
       </c>
       <c r="E54" s="73"/>
       <c r="F54" s="73"/>
-      <c r="G54" s="133">
+      <c r="G54" s="118">
         <v>52</v>
       </c>
-      <c r="H54" s="133" t="s">
+      <c r="H54" s="118" t="s">
         <v>558</v>
       </c>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="140">
+      <c r="I54" s="118">
+        <v>-1550</v>
+      </c>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118">
         <v>52</v>
       </c>
-      <c r="M54" s="140" t="s">
+      <c r="M54" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="141"/>
-      <c r="Q54" s="152">
+      <c r="N54" s="118">
+        <v>-60</v>
+      </c>
+      <c r="O54" s="118"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="118">
         <v>52</v>
       </c>
-      <c r="R54" s="152"/>
-      <c r="S54" s="152"/>
-      <c r="T54" s="152"/>
-      <c r="U54" s="152"/>
-      <c r="V54" s="153">
+      <c r="R54" s="118" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S54" s="118">
+        <v>-90</v>
+      </c>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="118">
         <v>52</v>
       </c>
-      <c r="W54" s="153"/>
-      <c r="X54" s="153"/>
-      <c r="Y54" s="153"/>
-      <c r="Z54" s="153"/>
+      <c r="W54" s="227" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X54" s="118">
+        <v>-60</v>
+      </c>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="118"/>
       <c r="AA54" s="73">
         <v>52</v>
       </c>
@@ -15272,13 +15316,17 @@
       </c>
       <c r="AI54" s="73"/>
       <c r="AJ54" s="73"/>
-      <c r="AK54" s="73">
+      <c r="AK54" s="226">
         <v>52</v>
       </c>
-      <c r="AL54" s="153"/>
-      <c r="AM54" s="153"/>
-      <c r="AN54" s="153"/>
-      <c r="AO54" s="153"/>
+      <c r="AL54" s="227" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AM54" s="118">
+        <v>-65</v>
+      </c>
+      <c r="AN54" s="118"/>
+      <c r="AO54" s="118"/>
       <c r="AP54" s="73">
         <v>52</v>
       </c>
@@ -15349,26 +15397,30 @@
       <c r="BV54" s="204"/>
       <c r="BW54" s="204"/>
       <c r="BX54" s="204"/>
-      <c r="BY54" s="209">
+      <c r="BY54" s="118">
         <v>52</v>
       </c>
-      <c r="BZ54" s="215" t="s">
+      <c r="BZ54" s="220" t="s">
         <v>906</v>
       </c>
-      <c r="CA54" s="209"/>
-      <c r="CB54" s="209"/>
-      <c r="CC54" s="209"/>
+      <c r="CA54" s="118">
+        <v>-60</v>
+      </c>
+      <c r="CB54" s="118"/>
+      <c r="CC54" s="118"/>
     </row>
     <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="132">
+      <c r="B55" s="118">
         <v>53</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="118" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
+      <c r="D55" s="118">
+        <v>-112</v>
+      </c>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
       <c r="G55" s="133">
         <v>53</v>
       </c>
@@ -15408,15 +15460,17 @@
       <c r="AC55" s="161"/>
       <c r="AD55" s="161"/>
       <c r="AE55" s="161"/>
-      <c r="AF55" s="162">
+      <c r="AF55" s="118">
         <v>53</v>
       </c>
-      <c r="AG55" s="162" t="s">
+      <c r="AG55" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="AH55" s="162"/>
-      <c r="AI55" s="162"/>
-      <c r="AJ55" s="162"/>
+      <c r="AH55" s="118">
+        <v>-90</v>
+      </c>
+      <c r="AI55" s="118"/>
+      <c r="AJ55" s="118"/>
       <c r="AK55" s="153">
         <v>53</v>
       </c>
@@ -15424,26 +15478,28 @@
       <c r="AM55" s="153"/>
       <c r="AN55" s="153"/>
       <c r="AO55" s="153"/>
-      <c r="AP55" s="181">
+      <c r="AP55" s="118">
         <v>53</v>
       </c>
-      <c r="AQ55" s="181" t="s">
+      <c r="AQ55" s="118" t="s">
         <v>1004</v>
       </c>
-      <c r="AR55" s="181"/>
-      <c r="AS55" s="181"/>
-      <c r="AT55" s="181"/>
-      <c r="AU55" s="118">
+      <c r="AR55" s="118">
+        <v>-90</v>
+      </c>
+      <c r="AS55" s="118"/>
+      <c r="AT55" s="118"/>
+      <c r="AU55" s="73">
         <v>53</v>
       </c>
-      <c r="AV55" s="118" t="s">
+      <c r="AV55" s="73" t="s">
         <v>905</v>
       </c>
-      <c r="AW55" s="118">
-        <v>-60</v>
-      </c>
-      <c r="AX55" s="118"/>
-      <c r="AY55" s="118"/>
+      <c r="AW55" s="73">
+        <v>-60</v>
+      </c>
+      <c r="AX55" s="73"/>
+      <c r="AY55" s="73"/>
       <c r="AZ55" s="190">
         <v>53</v>
       </c>
@@ -15492,14 +15548,14 @@
       <c r="BY55" s="209">
         <v>53</v>
       </c>
-      <c r="BZ55" s="215" t="s">
+      <c r="BZ55" s="214" t="s">
         <v>64</v>
       </c>
       <c r="CA55" s="209"/>
       <c r="CB55" s="209"/>
       <c r="CC55" s="209"/>
     </row>
-    <row r="56" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="132">
         <v>54</v>
       </c>
@@ -15589,17 +15645,17 @@
       <c r="BB56" s="190"/>
       <c r="BC56" s="190"/>
       <c r="BD56" s="190"/>
-      <c r="BE56" s="118">
+      <c r="BE56" s="73">
         <v>54</v>
       </c>
-      <c r="BF56" s="222" t="s">
+      <c r="BF56" s="73" t="s">
         <v>896</v>
       </c>
-      <c r="BG56" s="118">
+      <c r="BG56" s="73">
         <v>-1050</v>
       </c>
-      <c r="BH56" s="118"/>
-      <c r="BI56" s="118"/>
+      <c r="BH56" s="73"/>
+      <c r="BI56" s="73"/>
       <c r="BJ56" s="198">
         <v>54</v>
       </c>
@@ -15607,15 +15663,17 @@
       <c r="BL56" s="198"/>
       <c r="BM56" s="198"/>
       <c r="BN56" s="198"/>
-      <c r="BO56" s="152">
+      <c r="BO56" s="118">
         <v>54</v>
       </c>
-      <c r="BP56" s="217" t="s">
+      <c r="BP56" s="220" t="s">
         <v>438</v>
       </c>
-      <c r="BQ56" s="152"/>
-      <c r="BR56" s="152"/>
-      <c r="BS56" s="152"/>
+      <c r="BQ56" s="118">
+        <v>-550</v>
+      </c>
+      <c r="BR56" s="118"/>
+      <c r="BS56" s="118"/>
       <c r="BT56" s="204">
         <v>54</v>
       </c>
@@ -15628,7 +15686,7 @@
       <c r="BY56" s="209">
         <v>54</v>
       </c>
-      <c r="BZ56" s="215" t="s">
+      <c r="BZ56" s="214" t="s">
         <v>428</v>
       </c>
       <c r="CA56" s="209"/>
@@ -15742,7 +15800,7 @@
       <c r="BO57" s="152">
         <v>55</v>
       </c>
-      <c r="BP57" s="217" t="s">
+      <c r="BP57" s="216" t="s">
         <v>278</v>
       </c>
       <c r="BQ57" s="152"/>
@@ -15760,7 +15818,7 @@
       <c r="BY57" s="209">
         <v>55</v>
       </c>
-      <c r="BZ57" s="215" t="s">
+      <c r="BZ57" s="214" t="s">
         <v>1048</v>
       </c>
       <c r="CA57" s="209"/>
@@ -15874,7 +15932,7 @@
       <c r="BO58" s="152">
         <v>56</v>
       </c>
-      <c r="BP58" s="217" t="s">
+      <c r="BP58" s="216" t="s">
         <v>1066</v>
       </c>
       <c r="BQ58" s="152"/>
@@ -15892,7 +15950,7 @@
       <c r="BY58" s="209">
         <v>56</v>
       </c>
-      <c r="BZ58" s="215" t="s">
+      <c r="BZ58" s="214" t="s">
         <v>1045</v>
       </c>
       <c r="CA58" s="209"/>
@@ -16006,7 +16064,7 @@
       <c r="BO59" s="152">
         <v>57</v>
       </c>
-      <c r="BP59" s="217" t="s">
+      <c r="BP59" s="216" t="s">
         <v>53</v>
       </c>
       <c r="BQ59" s="152"/>
@@ -16024,7 +16082,7 @@
       <c r="BY59" s="209">
         <v>57</v>
       </c>
-      <c r="BZ59" s="215" t="s">
+      <c r="BZ59" s="214" t="s">
         <v>1049</v>
       </c>
       <c r="CA59" s="209"/>
@@ -16138,7 +16196,7 @@
       <c r="BO60" s="152">
         <v>58</v>
       </c>
-      <c r="BP60" s="217" t="s">
+      <c r="BP60" s="216" t="s">
         <v>386</v>
       </c>
       <c r="BQ60" s="152"/>
@@ -16156,7 +16214,7 @@
       <c r="BY60" s="209">
         <v>58</v>
       </c>
-      <c r="BZ60" s="215" t="s">
+      <c r="BZ60" s="214" t="s">
         <v>1050</v>
       </c>
       <c r="CA60" s="209"/>
@@ -16270,7 +16328,7 @@
       <c r="BO61" s="152">
         <v>59</v>
       </c>
-      <c r="BP61" s="217" t="s">
+      <c r="BP61" s="216" t="s">
         <v>1003</v>
       </c>
       <c r="BQ61" s="152"/>
@@ -16288,7 +16346,7 @@
       <c r="BY61" s="209">
         <v>59</v>
       </c>
-      <c r="BZ61" s="215" t="s">
+      <c r="BZ61" s="214" t="s">
         <v>1051</v>
       </c>
       <c r="CA61" s="209"/>
@@ -16402,7 +16460,7 @@
       <c r="BO62" s="152">
         <v>60</v>
       </c>
-      <c r="BP62" s="217" t="s">
+      <c r="BP62" s="216" t="s">
         <v>1067</v>
       </c>
       <c r="BQ62" s="152"/>
@@ -16420,7 +16478,7 @@
       <c r="BY62" s="209">
         <v>60</v>
       </c>
-      <c r="BZ62" s="215" t="s">
+      <c r="BZ62" s="214" t="s">
         <v>930</v>
       </c>
       <c r="CA62" s="209"/>
@@ -16534,7 +16592,7 @@
       <c r="BO63" s="152">
         <v>61</v>
       </c>
-      <c r="BP63" s="217" t="s">
+      <c r="BP63" s="216" t="s">
         <v>544</v>
       </c>
       <c r="BQ63" s="152"/>
@@ -16552,7 +16610,7 @@
       <c r="BY63" s="209">
         <v>61</v>
       </c>
-      <c r="BZ63" s="215" t="s">
+      <c r="BZ63" s="214" t="s">
         <v>1052</v>
       </c>
       <c r="CA63" s="209"/>
@@ -16666,7 +16724,7 @@
       <c r="BO64" s="152">
         <v>62</v>
       </c>
-      <c r="BP64" s="217" t="s">
+      <c r="BP64" s="216" t="s">
         <v>68</v>
       </c>
       <c r="BQ64" s="152"/>
@@ -16684,7 +16742,7 @@
       <c r="BY64" s="209">
         <v>62</v>
       </c>
-      <c r="BZ64" s="215" t="s">
+      <c r="BZ64" s="214" t="s">
         <v>938</v>
       </c>
       <c r="CA64" s="209"/>
@@ -16798,7 +16856,7 @@
       <c r="BO65" s="152">
         <v>63</v>
       </c>
-      <c r="BP65" s="217" t="s">
+      <c r="BP65" s="216" t="s">
         <v>160</v>
       </c>
       <c r="BQ65" s="152"/>
@@ -16816,7 +16874,7 @@
       <c r="BY65" s="209">
         <v>63</v>
       </c>
-      <c r="BZ65" s="215" t="s">
+      <c r="BZ65" s="214" t="s">
         <v>1053</v>
       </c>
       <c r="CA65" s="209"/>
@@ -16930,7 +16988,7 @@
       <c r="BO66" s="152">
         <v>64</v>
       </c>
-      <c r="BP66" s="217" t="s">
+      <c r="BP66" s="216" t="s">
         <v>396</v>
       </c>
       <c r="BQ66" s="152"/>
@@ -16948,7 +17006,7 @@
       <c r="BY66" s="209">
         <v>64</v>
       </c>
-      <c r="BZ66" s="215" t="s">
+      <c r="BZ66" s="214" t="s">
         <v>1054</v>
       </c>
       <c r="CA66" s="209"/>
@@ -17062,7 +17120,7 @@
       <c r="BO67" s="152">
         <v>65</v>
       </c>
-      <c r="BP67" s="217" t="s">
+      <c r="BP67" s="216" t="s">
         <v>544</v>
       </c>
       <c r="BQ67" s="152"/>
@@ -17080,7 +17138,7 @@
       <c r="BY67" s="209">
         <v>65</v>
       </c>
-      <c r="BZ67" s="215" t="s">
+      <c r="BZ67" s="214" t="s">
         <v>1055</v>
       </c>
       <c r="CA67" s="209"/>
@@ -17194,7 +17252,7 @@
       <c r="BO68" s="152">
         <v>66</v>
       </c>
-      <c r="BP68" s="217" t="s">
+      <c r="BP68" s="216" t="s">
         <v>1019</v>
       </c>
       <c r="BQ68" s="152"/>
@@ -17212,7 +17270,7 @@
       <c r="BY68" s="209">
         <v>66</v>
       </c>
-      <c r="BZ68" s="215" t="s">
+      <c r="BZ68" s="214" t="s">
         <v>1056</v>
       </c>
       <c r="CA68" s="209"/>
@@ -17326,7 +17384,7 @@
       <c r="BO69" s="152">
         <v>67</v>
       </c>
-      <c r="BP69" s="217" t="s">
+      <c r="BP69" s="216" t="s">
         <v>1066</v>
       </c>
       <c r="BQ69" s="152"/>
@@ -17344,7 +17402,7 @@
       <c r="BY69" s="209">
         <v>67</v>
       </c>
-      <c r="BZ69" s="215" t="s">
+      <c r="BZ69" s="214" t="s">
         <v>951</v>
       </c>
       <c r="CA69" s="209"/>
@@ -17458,7 +17516,7 @@
       <c r="BO70" s="152">
         <v>68</v>
       </c>
-      <c r="BP70" s="217" t="s">
+      <c r="BP70" s="216" t="s">
         <v>1068</v>
       </c>
       <c r="BQ70" s="152"/>
@@ -17476,7 +17534,7 @@
       <c r="BY70" s="209">
         <v>68</v>
       </c>
-      <c r="BZ70" s="215" t="s">
+      <c r="BZ70" s="214" t="s">
         <v>83</v>
       </c>
       <c r="CA70" s="209"/>
@@ -17590,7 +17648,7 @@
       <c r="BO71" s="152">
         <v>69</v>
       </c>
-      <c r="BP71" s="217" t="s">
+      <c r="BP71" s="216" t="s">
         <v>1069</v>
       </c>
       <c r="BQ71" s="152"/>
@@ -17608,7 +17666,7 @@
       <c r="BY71" s="209">
         <v>69</v>
       </c>
-      <c r="BZ71" s="215" t="s">
+      <c r="BZ71" s="214" t="s">
         <v>437</v>
       </c>
       <c r="CA71" s="209"/>
@@ -17722,7 +17780,7 @@
       <c r="BO72" s="152">
         <v>70</v>
       </c>
-      <c r="BP72" s="217" t="s">
+      <c r="BP72" s="216" t="s">
         <v>1070</v>
       </c>
       <c r="BQ72" s="152"/>
@@ -17740,7 +17798,7 @@
       <c r="BY72" s="209">
         <v>70</v>
       </c>
-      <c r="BZ72" s="215" t="s">
+      <c r="BZ72" s="214" t="s">
         <v>1053</v>
       </c>
       <c r="CA72" s="209"/>
@@ -17854,7 +17912,7 @@
       <c r="BO73" s="152">
         <v>71</v>
       </c>
-      <c r="BP73" s="217" t="s">
+      <c r="BP73" s="216" t="s">
         <v>960</v>
       </c>
       <c r="BQ73" s="152"/>
@@ -17872,7 +17930,7 @@
       <c r="BY73" s="209">
         <v>71</v>
       </c>
-      <c r="BZ73" s="215" t="s">
+      <c r="BZ73" s="214" t="s">
         <v>1050</v>
       </c>
       <c r="CA73" s="209"/>
@@ -17986,7 +18044,7 @@
       <c r="BO74" s="152">
         <v>72</v>
       </c>
-      <c r="BP74" s="217" t="s">
+      <c r="BP74" s="216" t="s">
         <v>438</v>
       </c>
       <c r="BQ74" s="152"/>
@@ -18004,7 +18062,7 @@
       <c r="BY74" s="209">
         <v>72</v>
       </c>
-      <c r="BZ74" s="215" t="s">
+      <c r="BZ74" s="214" t="s">
         <v>1001</v>
       </c>
       <c r="CA74" s="209"/>
@@ -18118,7 +18176,7 @@
       <c r="BO75" s="152">
         <v>73</v>
       </c>
-      <c r="BP75" s="217" t="s">
+      <c r="BP75" s="216" t="s">
         <v>1003</v>
       </c>
       <c r="BQ75" s="152"/>
@@ -18136,7 +18194,7 @@
       <c r="BY75" s="209">
         <v>73</v>
       </c>
-      <c r="BZ75" s="215" t="s">
+      <c r="BZ75" s="214" t="s">
         <v>1046</v>
       </c>
       <c r="CA75" s="209"/>
@@ -18250,7 +18308,7 @@
       <c r="BO76" s="152">
         <v>74</v>
       </c>
-      <c r="BP76" s="217" t="s">
+      <c r="BP76" s="216" t="s">
         <v>36</v>
       </c>
       <c r="BQ76" s="152"/>
@@ -18268,7 +18326,7 @@
       <c r="BY76" s="209">
         <v>74</v>
       </c>
-      <c r="BZ76" s="215" t="s">
+      <c r="BZ76" s="214" t="s">
         <v>606</v>
       </c>
       <c r="CA76" s="209"/>
@@ -18382,7 +18440,7 @@
       <c r="BO77" s="152">
         <v>75</v>
       </c>
-      <c r="BP77" s="217" t="s">
+      <c r="BP77" s="216" t="s">
         <v>167</v>
       </c>
       <c r="BQ77" s="152"/>
@@ -18400,7 +18458,7 @@
       <c r="BY77" s="209">
         <v>75</v>
       </c>
-      <c r="BZ77" s="215" t="s">
+      <c r="BZ77" s="214" t="s">
         <v>1052</v>
       </c>
       <c r="CA77" s="209"/>
@@ -18514,7 +18572,7 @@
       <c r="BO78" s="152">
         <v>76</v>
       </c>
-      <c r="BP78" s="217" t="s">
+      <c r="BP78" s="216" t="s">
         <v>160</v>
       </c>
       <c r="BQ78" s="152"/>
@@ -18532,7 +18590,7 @@
       <c r="BY78" s="209">
         <v>76</v>
       </c>
-      <c r="BZ78" s="215" t="s">
+      <c r="BZ78" s="214" t="s">
         <v>353</v>
       </c>
       <c r="CA78" s="209"/>
@@ -18646,7 +18704,7 @@
       <c r="BO79" s="152">
         <v>77</v>
       </c>
-      <c r="BP79" s="217" t="s">
+      <c r="BP79" s="216" t="s">
         <v>1071</v>
       </c>
       <c r="BQ79" s="152"/>
@@ -18664,7 +18722,7 @@
       <c r="BY79" s="209">
         <v>77</v>
       </c>
-      <c r="BZ79" s="215" t="s">
+      <c r="BZ79" s="214" t="s">
         <v>57</v>
       </c>
       <c r="CA79" s="209"/>
@@ -18778,7 +18836,7 @@
       <c r="BO80" s="152">
         <v>78</v>
       </c>
-      <c r="BP80" s="217" t="s">
+      <c r="BP80" s="216" t="s">
         <v>139</v>
       </c>
       <c r="BQ80" s="152"/>
@@ -18796,7 +18854,7 @@
       <c r="BY80" s="209">
         <v>78</v>
       </c>
-      <c r="BZ80" s="215" t="s">
+      <c r="BZ80" s="214" t="s">
         <v>1050</v>
       </c>
       <c r="CA80" s="209"/>
@@ -18910,7 +18968,7 @@
       <c r="BO81" s="152">
         <v>79</v>
       </c>
-      <c r="BP81" s="217" t="s">
+      <c r="BP81" s="216" t="s">
         <v>53</v>
       </c>
       <c r="BQ81" s="152"/>
@@ -18928,7 +18986,7 @@
       <c r="BY81" s="209">
         <v>79</v>
       </c>
-      <c r="BZ81" s="215" t="s">
+      <c r="BZ81" s="214" t="s">
         <v>606</v>
       </c>
       <c r="CA81" s="209"/>
@@ -19042,7 +19100,7 @@
       <c r="BO82" s="152">
         <v>80</v>
       </c>
-      <c r="BP82" s="217" t="s">
+      <c r="BP82" s="216" t="s">
         <v>386</v>
       </c>
       <c r="BQ82" s="152"/>
@@ -19060,7 +19118,7 @@
       <c r="BY82" s="209">
         <v>80</v>
       </c>
-      <c r="BZ82" s="215" t="s">
+      <c r="BZ82" s="214" t="s">
         <v>1048</v>
       </c>
       <c r="CA82" s="209"/>
@@ -19174,7 +19232,7 @@
       <c r="BO83" s="152">
         <v>81</v>
       </c>
-      <c r="BP83" s="217" t="s">
+      <c r="BP83" s="216" t="s">
         <v>68</v>
       </c>
       <c r="BQ83" s="152"/>
@@ -19192,7 +19250,7 @@
       <c r="BY83" s="209">
         <v>81</v>
       </c>
-      <c r="BZ83" s="215" t="s">
+      <c r="BZ83" s="214" t="s">
         <v>1046</v>
       </c>
       <c r="CA83" s="209"/>
@@ -19306,7 +19364,7 @@
       <c r="BO84" s="152">
         <v>82</v>
       </c>
-      <c r="BP84" s="217" t="s">
+      <c r="BP84" s="216" t="s">
         <v>167</v>
       </c>
       <c r="BQ84" s="152"/>
@@ -19324,7 +19382,7 @@
       <c r="BY84" s="209">
         <v>82</v>
       </c>
-      <c r="BZ84" s="215" t="s">
+      <c r="BZ84" s="214" t="s">
         <v>329</v>
       </c>
       <c r="CA84" s="209"/>
@@ -19338,7 +19396,7 @@
       <c r="C85" s="212"/>
       <c r="D85" s="212">
         <f>SUM(D3:D84)</f>
-        <v>-4986</v>
+        <v>-5098</v>
       </c>
       <c r="E85" s="118">
         <f>SUM(E3:E84)</f>
@@ -19351,7 +19409,7 @@
       <c r="H85" s="212"/>
       <c r="I85" s="212">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-10329</v>
+        <v>-11879</v>
       </c>
       <c r="J85" s="118">
         <f t="shared" si="0"/>
@@ -19364,7 +19422,7 @@
       <c r="M85" s="212"/>
       <c r="N85" s="212">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-6154</v>
+        <v>-6214</v>
       </c>
       <c r="O85" s="118">
         <f t="shared" si="1"/>
@@ -19377,7 +19435,7 @@
       <c r="R85" s="212"/>
       <c r="S85" s="212">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-6061</v>
+        <v>-6151</v>
       </c>
       <c r="T85" s="118">
         <f t="shared" si="2"/>
@@ -19390,7 +19448,7 @@
       <c r="W85" s="212"/>
       <c r="X85" s="212">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-5284</v>
+        <v>-5344</v>
       </c>
       <c r="Y85" s="118">
         <f t="shared" si="3"/>
@@ -19416,7 +19474,7 @@
       <c r="AG85" s="212"/>
       <c r="AH85" s="212">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-5304</v>
+        <v>-5394</v>
       </c>
       <c r="AI85" s="118">
         <f t="shared" si="5"/>
@@ -19429,7 +19487,7 @@
       <c r="AL85" s="212"/>
       <c r="AM85" s="212">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-13393</v>
+        <v>-13458</v>
       </c>
       <c r="AN85" s="118">
         <f t="shared" si="6"/>
@@ -19442,7 +19500,7 @@
       <c r="AQ85" s="212"/>
       <c r="AR85" s="212">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-3681</v>
+        <v>-3771</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="7"/>
@@ -19468,7 +19526,7 @@
       <c r="BA85" s="212"/>
       <c r="BB85" s="212">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-14380</v>
+        <v>-14445</v>
       </c>
       <c r="BC85" s="118">
         <f t="shared" si="9"/>
@@ -19507,7 +19565,7 @@
       <c r="BP85" s="212"/>
       <c r="BQ85" s="212">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-6401</v>
+        <v>-6951</v>
       </c>
       <c r="BR85" s="118">
         <f t="shared" si="12"/>
@@ -19520,7 +19578,7 @@
       <c r="BU85" s="212"/>
       <c r="BV85" s="212">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-3804</v>
+        <v>-3916</v>
       </c>
       <c r="BW85" s="118">
         <f t="shared" si="13"/>
@@ -19533,7 +19591,7 @@
       <c r="BZ85" s="212"/>
       <c r="CA85" s="212">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-7019</v>
+        <v>-7079</v>
       </c>
       <c r="CB85" s="118">
         <f t="shared" si="14"/>
@@ -19542,29 +19600,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="219" t="s">
+      <c r="H92" s="218" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="219">
+      <c r="I92" s="218">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>33306</v>
       </c>
-      <c r="J92" s="219"/>
+      <c r="J92" s="218"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="219"/>
-      <c r="I93" s="219"/>
-      <c r="J93" s="219"/>
+      <c r="H93" s="218"/>
+      <c r="I93" s="218"/>
+      <c r="J93" s="218"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="219"/>
-      <c r="I94" s="219"/>
-      <c r="J94" s="219"/>
+      <c r="H94" s="218"/>
+      <c r="I94" s="218"/>
+      <c r="J94" s="218"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="219"/>
-      <c r="I95" s="219"/>
-      <c r="J95" s="219"/>
+      <c r="H95" s="218"/>
+      <c r="I95" s="218"/>
+      <c r="J95" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19580,8 +19638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AO54" sqref="AO54:AS54"/>
+    <sheetView topLeftCell="S34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AE51" sqref="AE51:AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29005,13 +29063,17 @@
         <v>222</v>
       </c>
       <c r="AD51" s="16"/>
-      <c r="AE51" s="57">
+      <c r="AE51" s="86">
         <v>49</v>
       </c>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="57"/>
+      <c r="AF51" s="221" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AG51" s="86">
+        <v>-465</v>
+      </c>
+      <c r="AH51" s="86"/>
+      <c r="AI51" s="86"/>
       <c r="AJ51" s="17">
         <v>49</v>
       </c>
@@ -29200,13 +29262,17 @@
       <c r="AG52" s="57"/>
       <c r="AH52" s="57"/>
       <c r="AI52" s="57"/>
-      <c r="AJ52" s="63">
+      <c r="AJ52" s="221">
         <v>50</v>
       </c>
-      <c r="AK52" s="63"/>
-      <c r="AL52" s="63"/>
-      <c r="AM52" s="63"/>
-      <c r="AN52" s="63"/>
+      <c r="AK52" s="221" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL52" s="221">
+        <v>-75</v>
+      </c>
+      <c r="AM52" s="221"/>
+      <c r="AN52" s="221"/>
       <c r="AO52" s="17">
         <v>50</v>
       </c>
@@ -29306,17 +29372,17 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="86">
+      <c r="F53" s="17">
         <v>51</v>
       </c>
-      <c r="G53" s="86" t="s">
+      <c r="G53" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="H53" s="86">
-        <v>-60</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="213"/>
+      <c r="H53" s="17">
+        <v>-60</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="17">
         <v>51</v>
       </c>
@@ -29464,15 +29530,17 @@
       <c r="CB53" s="17"/>
     </row>
     <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="A54" s="86">
         <v>52</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="86" t="s">
         <v>900</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="C54" s="86">
+        <v>-65</v>
+      </c>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="19">
         <v>52</v>
       </c>
@@ -29543,17 +29611,17 @@
       <c r="AL54" s="63"/>
       <c r="AM54" s="63"/>
       <c r="AN54" s="63"/>
-      <c r="AO54" s="86">
+      <c r="AO54" s="17">
         <v>52</v>
       </c>
-      <c r="AP54" s="216" t="s">
+      <c r="AP54" s="17" t="s">
         <v>1072</v>
       </c>
-      <c r="AQ54" s="86">
+      <c r="AQ54" s="17">
         <v>-600</v>
       </c>
-      <c r="AR54" s="86"/>
-      <c r="AS54" s="86">
+      <c r="AR54" s="17"/>
+      <c r="AS54" s="17">
         <f>AS49+SUM(AQ44:AQ54)</f>
         <v>105</v>
       </c>
@@ -29578,13 +29646,17 @@
       <c r="BA54" s="88"/>
       <c r="BB54" s="88"/>
       <c r="BC54" s="88"/>
-      <c r="BD54" s="87">
+      <c r="BD54" s="86">
         <v>52</v>
       </c>
-      <c r="BE54" s="87"/>
-      <c r="BF54" s="87"/>
-      <c r="BG54" s="87"/>
-      <c r="BH54" s="87"/>
+      <c r="BE54" s="221" t="s">
+        <v>992</v>
+      </c>
+      <c r="BF54" s="86">
+        <v>-90</v>
+      </c>
+      <c r="BG54" s="86"/>
+      <c r="BH54" s="86"/>
       <c r="BI54" s="16">
         <v>52</v>
       </c>
@@ -29648,46 +29720,50 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="36"/>
-      <c r="K55" s="86">
+      <c r="K55" s="17">
         <v>53</v>
       </c>
-      <c r="L55" s="86" t="s">
+      <c r="L55" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="M55" s="86">
+      <c r="M55" s="17">
         <v>-415</v>
       </c>
-      <c r="N55" s="86"/>
-      <c r="O55" s="213"/>
-      <c r="P55" s="39">
+      <c r="N55" s="17"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="228">
         <v>53</v>
       </c>
-      <c r="Q55" s="39" t="s">
+      <c r="Q55" s="228" t="s">
         <v>809</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="46">
+      <c r="R55" s="228">
+        <v>-60</v>
+      </c>
+      <c r="S55" s="228"/>
+      <c r="T55" s="228"/>
+      <c r="U55" s="222">
         <v>53</v>
       </c>
-      <c r="V55" s="17" t="s">
+      <c r="V55" s="223" t="s">
         <v>906</v>
       </c>
-      <c r="W55" s="17">
+      <c r="W55" s="223">
         <v>-75</v>
       </c>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="49">
+      <c r="X55" s="223"/>
+      <c r="Y55" s="223"/>
+      <c r="Z55" s="224">
         <v>53</v>
       </c>
-      <c r="AA55" s="214" t="s">
+      <c r="AA55" s="215" t="s">
         <v>559</v>
       </c>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
+      <c r="AB55" s="224">
+        <v>-90</v>
+      </c>
+      <c r="AC55" s="224"/>
+      <c r="AD55" s="224"/>
       <c r="AE55" s="57">
         <v>53</v>
       </c>
@@ -29705,19 +29781,23 @@
       <c r="AO55" s="74">
         <v>53</v>
       </c>
-      <c r="AP55" s="218" t="s">
+      <c r="AP55" s="217" t="s">
         <v>1073</v>
       </c>
       <c r="AQ55" s="74"/>
       <c r="AR55" s="74"/>
       <c r="AS55" s="74"/>
-      <c r="AT55" s="57">
+      <c r="AT55" s="86">
         <v>53</v>
       </c>
-      <c r="AU55" s="57"/>
-      <c r="AV55" s="57"/>
-      <c r="AW55" s="57"/>
-      <c r="AX55" s="57"/>
+      <c r="AU55" s="221" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AV55" s="86">
+        <v>-60</v>
+      </c>
+      <c r="AW55" s="86"/>
+      <c r="AX55" s="86"/>
       <c r="AY55" s="88">
         <v>53</v>
       </c>
@@ -29764,19 +29844,19 @@
       <c r="BU55" s="99"/>
       <c r="BV55" s="99"/>
       <c r="BW55" s="99"/>
-      <c r="BX55" s="86">
+      <c r="BX55" s="17">
         <v>53</v>
       </c>
-      <c r="BY55" s="221" t="s">
+      <c r="BY55" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="BZ55" s="86">
+      <c r="BZ55" s="17">
         <v>-90</v>
       </c>
-      <c r="CA55" s="86"/>
-      <c r="CB55" s="86"/>
+      <c r="CA55" s="17"/>
+      <c r="CB55" s="17"/>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>54</v>
       </c>
@@ -29825,7 +29905,7 @@
       <c r="Z56" s="49">
         <v>54</v>
       </c>
-      <c r="AA56" s="214" t="s">
+      <c r="AA56" s="213" t="s">
         <v>820</v>
       </c>
       <c r="AB56" s="49"/>
@@ -29848,7 +29928,7 @@
       <c r="AO56" s="74">
         <v>54</v>
       </c>
-      <c r="AP56" s="218" t="s">
+      <c r="AP56" s="217" t="s">
         <v>178</v>
       </c>
       <c r="AQ56" s="74"/>
@@ -29875,24 +29955,28 @@
       <c r="BF56" s="87"/>
       <c r="BG56" s="87"/>
       <c r="BH56" s="87"/>
-      <c r="BI56" s="99">
+      <c r="BI56" s="86">
         <v>54</v>
       </c>
-      <c r="BJ56" s="99"/>
-      <c r="BK56" s="99"/>
-      <c r="BL56" s="99"/>
-      <c r="BM56" s="99"/>
-      <c r="BN56" s="86">
+      <c r="BJ56" s="221" t="s">
+        <v>809</v>
+      </c>
+      <c r="BK56" s="86">
+        <v>-60</v>
+      </c>
+      <c r="BL56" s="86"/>
+      <c r="BM56" s="86"/>
+      <c r="BN56" s="17">
         <v>54</v>
       </c>
-      <c r="BO56" s="221" t="s">
+      <c r="BO56" s="17" t="s">
         <v>1072</v>
       </c>
-      <c r="BP56" s="86">
+      <c r="BP56" s="17">
         <v>-155</v>
       </c>
-      <c r="BQ56" s="86"/>
-      <c r="BR56" s="86"/>
+      <c r="BQ56" s="17"/>
+      <c r="BR56" s="17"/>
       <c r="BS56" s="109">
         <v>54</v>
       </c>
@@ -29900,13 +29984,17 @@
       <c r="BU56" s="99"/>
       <c r="BV56" s="99"/>
       <c r="BW56" s="99"/>
-      <c r="BX56" s="88">
+      <c r="BX56" s="86">
         <v>54</v>
       </c>
-      <c r="BY56" s="88"/>
-      <c r="BZ56" s="88"/>
-      <c r="CA56" s="88"/>
-      <c r="CB56" s="88"/>
+      <c r="BY56" s="221" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BZ56" s="86">
+        <v>-112</v>
+      </c>
+      <c r="CA56" s="86"/>
+      <c r="CB56" s="86"/>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
@@ -29957,7 +30045,7 @@
       <c r="Z57" s="49">
         <v>55</v>
       </c>
-      <c r="AA57" s="214" t="s">
+      <c r="AA57" s="213" t="s">
         <v>1032</v>
       </c>
       <c r="AB57" s="49"/>
@@ -29980,7 +30068,7 @@
       <c r="AO57" s="74">
         <v>55</v>
       </c>
-      <c r="AP57" s="218" t="s">
+      <c r="AP57" s="217" t="s">
         <v>777</v>
       </c>
       <c r="AQ57" s="74"/>
@@ -30085,7 +30173,7 @@
       <c r="Z58" s="49">
         <v>56</v>
       </c>
-      <c r="AA58" s="214" t="s">
+      <c r="AA58" s="213" t="s">
         <v>568</v>
       </c>
       <c r="AB58" s="49"/>
@@ -30108,7 +30196,7 @@
       <c r="AO58" s="74">
         <v>56</v>
       </c>
-      <c r="AP58" s="218" t="s">
+      <c r="AP58" s="217" t="s">
         <v>830</v>
       </c>
       <c r="AQ58" s="74"/>
@@ -30213,7 +30301,7 @@
       <c r="Z59" s="49">
         <v>57</v>
       </c>
-      <c r="AA59" s="214" t="s">
+      <c r="AA59" s="213" t="s">
         <v>1021</v>
       </c>
       <c r="AB59" s="49"/>
@@ -30236,7 +30324,7 @@
       <c r="AO59" s="74">
         <v>57</v>
       </c>
-      <c r="AP59" s="218" t="s">
+      <c r="AP59" s="217" t="s">
         <v>784</v>
       </c>
       <c r="AQ59" s="74"/>
@@ -30341,7 +30429,7 @@
       <c r="Z60" s="49">
         <v>58</v>
       </c>
-      <c r="AA60" s="214" t="s">
+      <c r="AA60" s="213" t="s">
         <v>1033</v>
       </c>
       <c r="AB60" s="49"/>
@@ -30364,7 +30452,7 @@
       <c r="AO60" s="74">
         <v>58</v>
       </c>
-      <c r="AP60" s="218" t="s">
+      <c r="AP60" s="217" t="s">
         <v>790</v>
       </c>
       <c r="AQ60" s="74"/>
@@ -30469,7 +30557,7 @@
       <c r="Z61" s="49">
         <v>59</v>
       </c>
-      <c r="AA61" s="214" t="s">
+      <c r="AA61" s="213" t="s">
         <v>572</v>
       </c>
       <c r="AB61" s="49"/>
@@ -30492,7 +30580,7 @@
       <c r="AO61" s="74">
         <v>59</v>
       </c>
-      <c r="AP61" s="218" t="s">
+      <c r="AP61" s="217" t="s">
         <v>513</v>
       </c>
       <c r="AQ61" s="74"/>
@@ -30597,7 +30685,7 @@
       <c r="Z62" s="49">
         <v>60</v>
       </c>
-      <c r="AA62" s="214" t="s">
+      <c r="AA62" s="213" t="s">
         <v>1034</v>
       </c>
       <c r="AB62" s="49"/>
@@ -30620,7 +30708,7 @@
       <c r="AO62" s="74">
         <v>60</v>
       </c>
-      <c r="AP62" s="218" t="s">
+      <c r="AP62" s="217" t="s">
         <v>760</v>
       </c>
       <c r="AQ62" s="74"/>
@@ -30725,7 +30813,7 @@
       <c r="Z63" s="49">
         <v>61</v>
       </c>
-      <c r="AA63" s="214" t="s">
+      <c r="AA63" s="213" t="s">
         <v>925</v>
       </c>
       <c r="AB63" s="49"/>
@@ -30748,7 +30836,7 @@
       <c r="AO63" s="74">
         <v>61</v>
       </c>
-      <c r="AP63" s="218" t="s">
+      <c r="AP63" s="217" t="s">
         <v>1074</v>
       </c>
       <c r="AQ63" s="74"/>
@@ -30853,7 +30941,7 @@
       <c r="Z64" s="49">
         <v>62</v>
       </c>
-      <c r="AA64" s="214" t="s">
+      <c r="AA64" s="213" t="s">
         <v>1035</v>
       </c>
       <c r="AB64" s="49"/>
@@ -30876,7 +30964,7 @@
       <c r="AO64" s="74">
         <v>62</v>
       </c>
-      <c r="AP64" s="218" t="s">
+      <c r="AP64" s="217" t="s">
         <v>1075</v>
       </c>
       <c r="AQ64" s="74"/>
@@ -30981,7 +31069,7 @@
       <c r="Z65" s="49">
         <v>63</v>
       </c>
-      <c r="AA65" s="214" t="s">
+      <c r="AA65" s="213" t="s">
         <v>1036</v>
       </c>
       <c r="AB65" s="49"/>
@@ -31004,7 +31092,7 @@
       <c r="AO65" s="74">
         <v>63</v>
       </c>
-      <c r="AP65" s="218" t="s">
+      <c r="AP65" s="217" t="s">
         <v>1073</v>
       </c>
       <c r="AQ65" s="74"/>
@@ -31109,7 +31197,7 @@
       <c r="Z66" s="49">
         <v>64</v>
       </c>
-      <c r="AA66" s="214" t="s">
+      <c r="AA66" s="213" t="s">
         <v>1037</v>
       </c>
       <c r="AB66" s="49"/>
@@ -31132,7 +31220,7 @@
       <c r="AO66" s="74">
         <v>64</v>
       </c>
-      <c r="AP66" s="218" t="s">
+      <c r="AP66" s="217" t="s">
         <v>942</v>
       </c>
       <c r="AQ66" s="74"/>
@@ -31237,7 +31325,7 @@
       <c r="Z67" s="49">
         <v>65</v>
       </c>
-      <c r="AA67" s="214" t="s">
+      <c r="AA67" s="213" t="s">
         <v>646</v>
       </c>
       <c r="AB67" s="49"/>
@@ -31260,7 +31348,7 @@
       <c r="AO67" s="74">
         <v>65</v>
       </c>
-      <c r="AP67" s="218" t="s">
+      <c r="AP67" s="217" t="s">
         <v>760</v>
       </c>
       <c r="AQ67" s="74"/>
@@ -31365,7 +31453,7 @@
       <c r="Z68" s="49">
         <v>66</v>
       </c>
-      <c r="AA68" s="214" t="s">
+      <c r="AA68" s="213" t="s">
         <v>1038</v>
       </c>
       <c r="AB68" s="49"/>
@@ -31388,7 +31476,7 @@
       <c r="AO68" s="74">
         <v>66</v>
       </c>
-      <c r="AP68" s="218" t="s">
+      <c r="AP68" s="217" t="s">
         <v>1073</v>
       </c>
       <c r="AQ68" s="74"/>
@@ -31493,7 +31581,7 @@
       <c r="Z69" s="49">
         <v>67</v>
       </c>
-      <c r="AA69" s="214" t="s">
+      <c r="AA69" s="213" t="s">
         <v>1039</v>
       </c>
       <c r="AB69" s="49"/>
@@ -31516,7 +31604,7 @@
       <c r="AO69" s="74">
         <v>67</v>
       </c>
-      <c r="AP69" s="218" t="s">
+      <c r="AP69" s="217" t="s">
         <v>954</v>
       </c>
       <c r="AQ69" s="74"/>
@@ -31621,7 +31709,7 @@
       <c r="Z70" s="49">
         <v>68</v>
       </c>
-      <c r="AA70" s="214" t="s">
+      <c r="AA70" s="213" t="s">
         <v>1040</v>
       </c>
       <c r="AB70" s="49"/>
@@ -31644,7 +31732,7 @@
       <c r="AO70" s="74">
         <v>68</v>
       </c>
-      <c r="AP70" s="218" t="s">
+      <c r="AP70" s="217" t="s">
         <v>1074</v>
       </c>
       <c r="AQ70" s="74"/>
@@ -31749,7 +31837,7 @@
       <c r="Z71" s="49">
         <v>69</v>
       </c>
-      <c r="AA71" s="214" t="s">
+      <c r="AA71" s="213" t="s">
         <v>856</v>
       </c>
       <c r="AB71" s="49"/>
@@ -31772,7 +31860,7 @@
       <c r="AO71" s="74">
         <v>69</v>
       </c>
-      <c r="AP71" s="218" t="s">
+      <c r="AP71" s="217" t="s">
         <v>954</v>
       </c>
       <c r="AQ71" s="74"/>
@@ -31877,7 +31965,7 @@
       <c r="Z72" s="49">
         <v>70</v>
       </c>
-      <c r="AA72" s="214" t="s">
+      <c r="AA72" s="213" t="s">
         <v>718</v>
       </c>
       <c r="AB72" s="49"/>
@@ -31900,7 +31988,7 @@
       <c r="AO72" s="74">
         <v>70</v>
       </c>
-      <c r="AP72" s="218" t="s">
+      <c r="AP72" s="217" t="s">
         <v>1076</v>
       </c>
       <c r="AQ72" s="74"/>
@@ -32005,7 +32093,7 @@
       <c r="Z73" s="49">
         <v>71</v>
       </c>
-      <c r="AA73" s="214" t="s">
+      <c r="AA73" s="213" t="s">
         <v>1041</v>
       </c>
       <c r="AB73" s="49"/>
@@ -32028,7 +32116,7 @@
       <c r="AO73" s="74">
         <v>71</v>
       </c>
-      <c r="AP73" s="218" t="s">
+      <c r="AP73" s="217" t="s">
         <v>1074</v>
       </c>
       <c r="AQ73" s="74"/>
@@ -32133,7 +32221,7 @@
       <c r="Z74" s="49">
         <v>72</v>
       </c>
-      <c r="AA74" s="214" t="s">
+      <c r="AA74" s="213" t="s">
         <v>961</v>
       </c>
       <c r="AB74" s="49"/>
@@ -32156,7 +32244,7 @@
       <c r="AO74" s="74">
         <v>72</v>
       </c>
-      <c r="AP74" s="218" t="s">
+      <c r="AP74" s="217" t="s">
         <v>1075</v>
       </c>
       <c r="AQ74" s="74"/>
@@ -32261,7 +32349,7 @@
       <c r="Z75" s="49">
         <v>73</v>
       </c>
-      <c r="AA75" s="214" t="s">
+      <c r="AA75" s="213" t="s">
         <v>1037</v>
       </c>
       <c r="AB75" s="49"/>
@@ -32284,7 +32372,7 @@
       <c r="AO75" s="74">
         <v>73</v>
       </c>
-      <c r="AP75" s="218" t="s">
+      <c r="AP75" s="217" t="s">
         <v>1072</v>
       </c>
       <c r="AQ75" s="74"/>
@@ -32389,7 +32477,7 @@
       <c r="Z76" s="49">
         <v>74</v>
       </c>
-      <c r="AA76" s="214" t="s">
+      <c r="AA76" s="213" t="s">
         <v>689</v>
       </c>
       <c r="AB76" s="49"/>
@@ -32412,7 +32500,7 @@
       <c r="AO76" s="74">
         <v>74</v>
       </c>
-      <c r="AP76" s="218" t="s">
+      <c r="AP76" s="217" t="s">
         <v>197</v>
       </c>
       <c r="AQ76" s="74"/>
@@ -32517,7 +32605,7 @@
       <c r="Z77" s="49">
         <v>75</v>
       </c>
-      <c r="AA77" s="214" t="s">
+      <c r="AA77" s="213" t="s">
         <v>1042</v>
       </c>
       <c r="AB77" s="49"/>
@@ -32540,7 +32628,7 @@
       <c r="AO77" s="74">
         <v>75</v>
       </c>
-      <c r="AP77" s="218" t="s">
+      <c r="AP77" s="217" t="s">
         <v>942</v>
       </c>
       <c r="AQ77" s="74"/>
@@ -32645,7 +32733,7 @@
       <c r="Z78" s="49">
         <v>76</v>
       </c>
-      <c r="AA78" s="214" t="s">
+      <c r="AA78" s="213" t="s">
         <v>1032</v>
       </c>
       <c r="AB78" s="49"/>
@@ -32668,7 +32756,7 @@
       <c r="AO78" s="74">
         <v>76</v>
       </c>
-      <c r="AP78" s="218" t="s">
+      <c r="AP78" s="217" t="s">
         <v>830</v>
       </c>
       <c r="AQ78" s="74"/>
@@ -32773,7 +32861,7 @@
       <c r="Z79" s="49">
         <v>77</v>
       </c>
-      <c r="AA79" s="214" t="s">
+      <c r="AA79" s="213" t="s">
         <v>865</v>
       </c>
       <c r="AB79" s="49"/>
@@ -32796,7 +32884,7 @@
       <c r="AO79" s="74">
         <v>77</v>
       </c>
-      <c r="AP79" s="218" t="s">
+      <c r="AP79" s="217" t="s">
         <v>898</v>
       </c>
       <c r="AQ79" s="74"/>
@@ -32901,7 +32989,7 @@
       <c r="Z80" s="49">
         <v>78</v>
       </c>
-      <c r="AA80" s="214" t="s">
+      <c r="AA80" s="213" t="s">
         <v>925</v>
       </c>
       <c r="AB80" s="49"/>
@@ -32924,7 +33012,7 @@
       <c r="AO80" s="74">
         <v>78</v>
       </c>
-      <c r="AP80" s="218" t="s">
+      <c r="AP80" s="217" t="s">
         <v>942</v>
       </c>
       <c r="AQ80" s="74"/>
@@ -33029,7 +33117,7 @@
       <c r="Z81" s="49">
         <v>79</v>
       </c>
-      <c r="AA81" s="214" t="s">
+      <c r="AA81" s="213" t="s">
         <v>1043</v>
       </c>
       <c r="AB81" s="49"/>
@@ -33052,7 +33140,7 @@
       <c r="AO81" s="74">
         <v>79</v>
       </c>
-      <c r="AP81" s="218" t="s">
+      <c r="AP81" s="217" t="s">
         <v>1072</v>
       </c>
       <c r="AQ81" s="74"/>
@@ -33157,7 +33245,7 @@
       <c r="Z82" s="49">
         <v>80</v>
       </c>
-      <c r="AA82" s="214" t="s">
+      <c r="AA82" s="213" t="s">
         <v>1035</v>
       </c>
       <c r="AB82" s="49"/>
@@ -33180,7 +33268,7 @@
       <c r="AO82" s="74">
         <v>80</v>
       </c>
-      <c r="AP82" s="218" t="s">
+      <c r="AP82" s="217" t="s">
         <v>1075</v>
       </c>
       <c r="AQ82" s="74"/>
@@ -33285,7 +33373,7 @@
       <c r="Z83" s="49">
         <v>81</v>
       </c>
-      <c r="AA83" s="214" t="s">
+      <c r="AA83" s="213" t="s">
         <v>810</v>
       </c>
       <c r="AB83" s="49"/>
@@ -33308,7 +33396,7 @@
       <c r="AO83" s="74">
         <v>81</v>
       </c>
-      <c r="AP83" s="218" t="s">
+      <c r="AP83" s="217" t="s">
         <v>1076</v>
       </c>
       <c r="AQ83" s="74"/>
@@ -33413,7 +33501,7 @@
       <c r="Z84" s="49">
         <v>82</v>
       </c>
-      <c r="AA84" s="214" t="s">
+      <c r="AA84" s="213" t="s">
         <v>633</v>
       </c>
       <c r="AB84" s="49"/>
@@ -33436,7 +33524,7 @@
       <c r="AO84" s="74">
         <v>82</v>
       </c>
-      <c r="AP84" s="218" t="s">
+      <c r="AP84" s="217" t="s">
         <v>790</v>
       </c>
       <c r="AQ84" s="74"/>
@@ -33499,7 +33587,7 @@
       <c r="B85" s="117"/>
       <c r="C85" s="117">
         <f>SUM(C3:C84)</f>
-        <v>-10771</v>
+        <v>-10836</v>
       </c>
       <c r="D85" s="118">
         <f>SUM(D3:D84)</f>
@@ -33538,7 +33626,7 @@
       <c r="Q85" s="117"/>
       <c r="R85" s="117">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-7393</v>
+        <v>-7453</v>
       </c>
       <c r="S85" s="118">
         <f t="shared" si="2"/>
@@ -33564,7 +33652,7 @@
       <c r="AA85" s="117"/>
       <c r="AB85" s="117">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-6060</v>
+        <v>-6150</v>
       </c>
       <c r="AC85" s="118">
         <f t="shared" si="4"/>
@@ -33577,7 +33665,7 @@
       <c r="AF85" s="117"/>
       <c r="AG85" s="117">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-8076</v>
+        <v>-8541</v>
       </c>
       <c r="AH85" s="118">
         <f t="shared" si="5"/>
@@ -33590,7 +33678,7 @@
       <c r="AK85" s="117"/>
       <c r="AL85" s="117">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-4643</v>
+        <v>-4718</v>
       </c>
       <c r="AM85" s="118">
         <f t="shared" si="6"/>
@@ -33616,7 +33704,7 @@
       <c r="AU85" s="117"/>
       <c r="AV85" s="117">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-11030</v>
+        <v>-11090</v>
       </c>
       <c r="AW85" s="118">
         <f t="shared" si="8"/>
@@ -33642,7 +33730,7 @@
       <c r="BE85" s="117"/>
       <c r="BF85" s="117">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-38154</v>
+        <v>-38244</v>
       </c>
       <c r="BG85" s="118">
         <f t="shared" si="10"/>
@@ -33655,7 +33743,7 @@
       <c r="BJ85" s="117"/>
       <c r="BK85" s="117">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-11245</v>
+        <v>-11305</v>
       </c>
       <c r="BL85" s="118">
         <f t="shared" si="11"/>
@@ -33694,7 +33782,7 @@
       <c r="BY85" s="117"/>
       <c r="BZ85" s="117">
         <f t="shared" ref="BZ85:CA85" si="14">SUM(BZ3:BZ84)</f>
-        <v>-6135</v>
+        <v>-6247</v>
       </c>
       <c r="CA85" s="118">
         <f t="shared" si="14"/>
@@ -33706,29 +33794,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="219" t="s">
+      <c r="G95" s="218" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="219">
+      <c r="H95" s="218">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>26339</v>
       </c>
-      <c r="I95" s="219"/>
+      <c r="I95" s="218"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="219"/>
-      <c r="H96" s="219"/>
-      <c r="I96" s="219"/>
+      <c r="G96" s="218"/>
+      <c r="H96" s="218"/>
+      <c r="I96" s="218"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="219"/>
-      <c r="H97" s="219"/>
-      <c r="I97" s="219"/>
+      <c r="G97" s="218"/>
+      <c r="H97" s="218"/>
+      <c r="I97" s="218"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="219"/>
-      <c r="H98" s="219"/>
-      <c r="I98" s="219"/>
+      <c r="G98" s="218"/>
+      <c r="H98" s="218"/>
+      <c r="I98" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33751,11 +33839,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="220" t="s">
+      <c r="E1" s="219" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -4890,12 +4890,6 @@
     <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="17" xfId="2" applyFill="1" applyBorder="1"/>
@@ -4905,6 +4899,12 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5229,7 +5229,7 @@
   <dimension ref="B1:CC95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X55" sqref="X55"/>
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15271,7 +15271,7 @@
         <v>-60</v>
       </c>
       <c r="O54" s="118"/>
-      <c r="P54" s="225"/>
+      <c r="P54" s="223"/>
       <c r="Q54" s="118">
         <v>52</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="V54" s="118">
         <v>52</v>
       </c>
-      <c r="W54" s="227" t="s">
+      <c r="W54" s="225" t="s">
         <v>1090</v>
       </c>
       <c r="X54" s="118">
@@ -15316,10 +15316,10 @@
       </c>
       <c r="AI54" s="73"/>
       <c r="AJ54" s="73"/>
-      <c r="AK54" s="226">
+      <c r="AK54" s="224">
         <v>52</v>
       </c>
-      <c r="AL54" s="227" t="s">
+      <c r="AL54" s="225" t="s">
         <v>1088</v>
       </c>
       <c r="AM54" s="118">
@@ -15400,7 +15400,7 @@
       <c r="BY54" s="118">
         <v>52</v>
       </c>
-      <c r="BZ54" s="220" t="s">
+      <c r="BZ54" s="218" t="s">
         <v>906</v>
       </c>
       <c r="CA54" s="118">
@@ -15443,7 +15443,9 @@
         <v>53</v>
       </c>
       <c r="R55" s="152"/>
-      <c r="S55" s="152"/>
+      <c r="S55" s="152">
+        <v>1252123</v>
+      </c>
       <c r="T55" s="152"/>
       <c r="U55" s="152"/>
       <c r="V55" s="153">
@@ -15666,7 +15668,7 @@
       <c r="BO56" s="118">
         <v>54</v>
       </c>
-      <c r="BP56" s="220" t="s">
+      <c r="BP56" s="218" t="s">
         <v>438</v>
       </c>
       <c r="BQ56" s="118">
@@ -19435,7 +19437,7 @@
       <c r="R85" s="212"/>
       <c r="S85" s="212">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-6151</v>
+        <v>1245972</v>
       </c>
       <c r="T85" s="118">
         <f t="shared" si="2"/>
@@ -19600,29 +19602,29 @@
       <c r="CC85" s="212"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="218" t="s">
+      <c r="H92" s="227" t="s">
         <v>613</v>
       </c>
-      <c r="I92" s="218">
+      <c r="I92" s="227">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>33306</v>
       </c>
-      <c r="J92" s="218"/>
+      <c r="J92" s="227"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="218"/>
-      <c r="I93" s="218"/>
-      <c r="J93" s="218"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="227"/>
+      <c r="J93" s="227"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="218"/>
-      <c r="I94" s="218"/>
-      <c r="J94" s="218"/>
+      <c r="H94" s="227"/>
+      <c r="I94" s="227"/>
+      <c r="J94" s="227"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="218"/>
-      <c r="I95" s="218"/>
-      <c r="J95" s="218"/>
+      <c r="H95" s="227"/>
+      <c r="I95" s="227"/>
+      <c r="J95" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29066,7 +29068,7 @@
       <c r="AE51" s="86">
         <v>49</v>
       </c>
-      <c r="AF51" s="221" t="s">
+      <c r="AF51" s="219" t="s">
         <v>1089</v>
       </c>
       <c r="AG51" s="86">
@@ -29262,17 +29264,17 @@
       <c r="AG52" s="57"/>
       <c r="AH52" s="57"/>
       <c r="AI52" s="57"/>
-      <c r="AJ52" s="221">
+      <c r="AJ52" s="219">
         <v>50</v>
       </c>
-      <c r="AK52" s="221" t="s">
+      <c r="AK52" s="219" t="s">
         <v>558</v>
       </c>
-      <c r="AL52" s="221">
+      <c r="AL52" s="219">
         <v>-75</v>
       </c>
-      <c r="AM52" s="221"/>
-      <c r="AN52" s="221"/>
+      <c r="AM52" s="219"/>
+      <c r="AN52" s="219"/>
       <c r="AO52" s="17">
         <v>50</v>
       </c>
@@ -29649,7 +29651,7 @@
       <c r="BD54" s="86">
         <v>52</v>
       </c>
-      <c r="BE54" s="221" t="s">
+      <c r="BE54" s="219" t="s">
         <v>992</v>
       </c>
       <c r="BF54" s="86">
@@ -29731,39 +29733,39 @@
       </c>
       <c r="N55" s="17"/>
       <c r="O55" s="31"/>
-      <c r="P55" s="228">
+      <c r="P55" s="226">
         <v>53</v>
       </c>
-      <c r="Q55" s="228" t="s">
+      <c r="Q55" s="226" t="s">
         <v>809</v>
       </c>
-      <c r="R55" s="228">
-        <v>-60</v>
-      </c>
-      <c r="S55" s="228"/>
-      <c r="T55" s="228"/>
-      <c r="U55" s="222">
+      <c r="R55" s="226">
+        <v>-60</v>
+      </c>
+      <c r="S55" s="226"/>
+      <c r="T55" s="226"/>
+      <c r="U55" s="220">
         <v>53</v>
       </c>
-      <c r="V55" s="223" t="s">
+      <c r="V55" s="221" t="s">
         <v>906</v>
       </c>
-      <c r="W55" s="223">
+      <c r="W55" s="221">
         <v>-75</v>
       </c>
-      <c r="X55" s="223"/>
-      <c r="Y55" s="223"/>
-      <c r="Z55" s="224">
+      <c r="X55" s="221"/>
+      <c r="Y55" s="221"/>
+      <c r="Z55" s="222">
         <v>53</v>
       </c>
       <c r="AA55" s="215" t="s">
         <v>559</v>
       </c>
-      <c r="AB55" s="224">
+      <c r="AB55" s="222">
         <v>-90</v>
       </c>
-      <c r="AC55" s="224"/>
-      <c r="AD55" s="224"/>
+      <c r="AC55" s="222"/>
+      <c r="AD55" s="222"/>
       <c r="AE55" s="57">
         <v>53</v>
       </c>
@@ -29790,7 +29792,7 @@
       <c r="AT55" s="86">
         <v>53</v>
       </c>
-      <c r="AU55" s="221" t="s">
+      <c r="AU55" s="219" t="s">
         <v>1088</v>
       </c>
       <c r="AV55" s="86">
@@ -29958,7 +29960,7 @@
       <c r="BI56" s="86">
         <v>54</v>
       </c>
-      <c r="BJ56" s="221" t="s">
+      <c r="BJ56" s="219" t="s">
         <v>809</v>
       </c>
       <c r="BK56" s="86">
@@ -29987,7 +29989,7 @@
       <c r="BX56" s="86">
         <v>54</v>
       </c>
-      <c r="BY56" s="221" t="s">
+      <c r="BY56" s="219" t="s">
         <v>1004</v>
       </c>
       <c r="BZ56" s="86">
@@ -33794,29 +33796,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="218" t="s">
+      <c r="G95" s="227" t="s">
         <v>613</v>
       </c>
-      <c r="H95" s="218">
+      <c r="H95" s="227">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>26339</v>
       </c>
-      <c r="I95" s="218"/>
+      <c r="I95" s="227"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="218"/>
-      <c r="H96" s="218"/>
-      <c r="I96" s="218"/>
+      <c r="G96" s="227"/>
+      <c r="H96" s="227"/>
+      <c r="I96" s="227"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="218"/>
-      <c r="H97" s="218"/>
-      <c r="I97" s="218"/>
+      <c r="G97" s="227"/>
+      <c r="H97" s="227"/>
+      <c r="I97" s="227"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="218"/>
-      <c r="H98" s="218"/>
-      <c r="I98" s="218"/>
+      <c r="G98" s="227"/>
+      <c r="H98" s="227"/>
+      <c r="I98" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33839,11 +33841,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="219" t="s">
+      <c r="E1" s="228" t="s">
         <v>983</v>
       </c>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="1092">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3320,6 +3320,9 @@
   </si>
   <si>
     <t>Эдмонтон - Детройт</t>
+  </si>
+  <si>
+    <t>Виннипег - Сан Хосе</t>
   </si>
 </sst>
 </file>
@@ -4527,7 +4530,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4905,6 +4908,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -4916,8 +4923,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFF64040"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FFF7C263"/>
       <color rgb="FF996600"/>
       <color rgb="FF009900"/>
@@ -5228,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA55" sqref="AA55:AE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15018,13 +15025,17 @@
       </c>
       <c r="BH52" s="73"/>
       <c r="BI52" s="73"/>
-      <c r="BJ52" s="198">
+      <c r="BJ52" s="230">
         <v>50</v>
       </c>
-      <c r="BK52" s="198"/>
-      <c r="BL52" s="198"/>
-      <c r="BM52" s="198"/>
-      <c r="BN52" s="198"/>
+      <c r="BK52" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL52" s="230">
+        <v>-90</v>
+      </c>
+      <c r="BM52" s="230"/>
+      <c r="BN52" s="230"/>
       <c r="BO52" s="73">
         <v>50</v>
       </c>
@@ -15455,13 +15466,17 @@
       <c r="X55" s="153"/>
       <c r="Y55" s="153"/>
       <c r="Z55" s="153"/>
-      <c r="AA55" s="161">
+      <c r="AA55" s="230">
         <v>53</v>
       </c>
-      <c r="AB55" s="161"/>
-      <c r="AC55" s="161"/>
-      <c r="AD55" s="161"/>
-      <c r="AE55" s="161"/>
+      <c r="AB55" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC55" s="230">
+        <v>-90</v>
+      </c>
+      <c r="AD55" s="230"/>
+      <c r="AE55" s="230"/>
       <c r="AF55" s="118">
         <v>53</v>
       </c>
@@ -19463,7 +19478,7 @@
       <c r="AB85" s="212"/>
       <c r="AC85" s="212">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-23132</v>
+        <v>-23222</v>
       </c>
       <c r="AD85" s="118">
         <f t="shared" si="4"/>
@@ -19554,7 +19569,7 @@
       <c r="BK85" s="212"/>
       <c r="BL85" s="212">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-6552</v>
+        <v>-6642</v>
       </c>
       <c r="BM85" s="118">
         <f t="shared" si="11"/>
@@ -19640,8 +19655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="S34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51:AI51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28715,8 +28730,8 @@
       </c>
       <c r="AR49" s="17"/>
       <c r="AS49" s="17">
-        <f>AS48*AQ54</f>
-        <v>2640</v>
+        <f>AS48*AQ55</f>
+        <v>3520.0000000000005</v>
       </c>
       <c r="AT49" s="17">
         <v>47</v>
@@ -29343,13 +29358,17 @@
       </c>
       <c r="BQ52" s="17"/>
       <c r="BR52" s="17"/>
-      <c r="BS52" s="109">
+      <c r="BS52" s="229">
         <v>50</v>
       </c>
-      <c r="BT52" s="99"/>
-      <c r="BU52" s="99"/>
-      <c r="BV52" s="99"/>
-      <c r="BW52" s="99"/>
+      <c r="BT52" s="229" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BU52" s="229">
+        <v>-90</v>
+      </c>
+      <c r="BV52" s="229"/>
+      <c r="BW52" s="229"/>
       <c r="BX52" s="17">
         <v>50</v>
       </c>
@@ -29543,15 +29562,17 @@
       </c>
       <c r="D54" s="86"/>
       <c r="E54" s="86"/>
-      <c r="F54" s="19">
+      <c r="F54" s="229">
         <v>52</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="229" t="s">
         <v>901</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="36"/>
+      <c r="H54" s="229">
+        <v>-65</v>
+      </c>
+      <c r="I54" s="229"/>
+      <c r="J54" s="232"/>
       <c r="K54" s="17">
         <v>52</v>
       </c>
@@ -29624,8 +29645,8 @@
       </c>
       <c r="AR54" s="17"/>
       <c r="AS54" s="17">
-        <f>AS49+SUM(AQ44:AQ54)</f>
-        <v>105</v>
+        <f>AS49+SUM(AQ44:AQ55)</f>
+        <v>185.00000000000045</v>
       </c>
       <c r="AT54" s="114">
         <v>52</v>
@@ -29641,13 +29662,17 @@
         <v>161</v>
       </c>
       <c r="AX54" s="114"/>
-      <c r="AY54" s="88">
+      <c r="AY54" s="229">
         <v>52</v>
       </c>
-      <c r="AZ54" s="88"/>
-      <c r="BA54" s="88"/>
-      <c r="BB54" s="88"/>
-      <c r="BC54" s="88"/>
+      <c r="AZ54" s="229" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BA54" s="229">
+        <v>-60</v>
+      </c>
+      <c r="BB54" s="229"/>
+      <c r="BC54" s="229"/>
       <c r="BD54" s="86">
         <v>52</v>
       </c>
@@ -29780,15 +29805,17 @@
       <c r="AL55" s="63"/>
       <c r="AM55" s="63"/>
       <c r="AN55" s="63"/>
-      <c r="AO55" s="74">
+      <c r="AO55" s="229">
         <v>53</v>
       </c>
-      <c r="AP55" s="217" t="s">
+      <c r="AP55" s="231" t="s">
         <v>1073</v>
       </c>
-      <c r="AQ55" s="74"/>
-      <c r="AR55" s="74"/>
-      <c r="AS55" s="74"/>
+      <c r="AQ55" s="229">
+        <v>-800</v>
+      </c>
+      <c r="AR55" s="229"/>
+      <c r="AS55" s="229"/>
       <c r="AT55" s="86">
         <v>53</v>
       </c>
@@ -33602,7 +33629,7 @@
       <c r="G85" s="117"/>
       <c r="H85" s="117">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-7287</v>
+        <v>-7352</v>
       </c>
       <c r="I85" s="118">
         <f t="shared" si="0"/>
@@ -33693,7 +33720,7 @@
       <c r="AP85" s="117"/>
       <c r="AQ85" s="117">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-6951</v>
+        <v>-7751</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="7"/>
@@ -33719,7 +33746,7 @@
       <c r="AZ85" s="117"/>
       <c r="BA85" s="117">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-19654</v>
+        <v>-19714</v>
       </c>
       <c r="BB85" s="118">
         <f t="shared" si="9"/>
@@ -33771,7 +33798,7 @@
       <c r="BT85" s="117"/>
       <c r="BU85" s="117">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-8357</v>
+        <v>-8447</v>
       </c>
       <c r="BV85" s="118">
         <f t="shared" si="13"/>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="11010"/>
+    <workbookView windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -3336,7 +3336,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3381,13 +3381,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -3595,7 +3588,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="68">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3652,13 +3645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3874,12 +3867,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3898,12 +3885,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3917,12 +3898,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4912,28 +4887,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="62" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="62" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4942,116 +4920,113 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5107,8 +5082,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="23" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5147,8 +5122,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5158,38 +5133,38 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="22"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5198,42 +5173,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5249,13 +5224,13 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5264,14 +5239,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="23" applyBorder="1"/>
@@ -5283,7 +5258,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="23" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5291,22 +5266,23 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5314,12 +5290,12 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5333,7 +5309,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5344,42 +5320,42 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5406,18 +5382,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5787,8 +5763,8 @@
   <sheetPr/>
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I31" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55:Z55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="I31" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55:P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5846,17 +5822,17 @@
       </c>
       <c r="O1" s="144"/>
       <c r="P1" s="144"/>
-      <c r="Q1" s="151" t="s">
+      <c r="Q1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="152" t="s">
+      <c r="R1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="153" t="s">
+      <c r="S1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="155"/>
       <c r="V1" s="144" t="s">
         <v>0</v>
       </c>
@@ -5867,128 +5843,128 @@
         <v>2</v>
       </c>
       <c r="Y1" s="144"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="164" t="s">
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="165" t="s">
+      <c r="AB1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="164" t="s">
+      <c r="AC1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="166" t="s">
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="172" t="s">
+      <c r="AG1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="173" t="s">
+      <c r="AH1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="174" t="s">
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="175" t="s">
+      <c r="AL1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="176" t="s">
+      <c r="AM1" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="180" t="s">
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="181" t="s">
+      <c r="AQ1" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="AR1" s="182" t="s">
+      <c r="AR1" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="182"/>
-      <c r="AT1" s="182"/>
-      <c r="AU1" s="183" t="s">
+      <c r="AS1" s="183"/>
+      <c r="AT1" s="183"/>
+      <c r="AU1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="AV1" s="184" t="s">
+      <c r="AV1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="AW1" s="192" t="s">
+      <c r="AW1" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="192"/>
-      <c r="AY1" s="193"/>
-      <c r="AZ1" s="194" t="s">
+      <c r="AX1" s="193"/>
+      <c r="AY1" s="194"/>
+      <c r="AZ1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="BA1" s="195" t="s">
+      <c r="BA1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="194" t="s">
+      <c r="BB1" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="BC1" s="194"/>
-      <c r="BD1" s="194"/>
-      <c r="BE1" s="200" t="s">
+      <c r="BC1" s="195"/>
+      <c r="BD1" s="195"/>
+      <c r="BE1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="BF1" s="201" t="s">
+      <c r="BF1" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="200" t="s">
+      <c r="BG1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="BH1" s="200"/>
-      <c r="BI1" s="200"/>
-      <c r="BJ1" s="202" t="s">
+      <c r="BH1" s="201"/>
+      <c r="BI1" s="201"/>
+      <c r="BJ1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="BK1" s="203" t="s">
+      <c r="BK1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="204" t="s">
+      <c r="BL1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" s="204"/>
-      <c r="BN1" s="204"/>
-      <c r="BO1" s="209" t="s">
+      <c r="BM1" s="205"/>
+      <c r="BN1" s="205"/>
+      <c r="BO1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="BP1" s="210" t="s">
+      <c r="BP1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="BQ1" s="211" t="s">
+      <c r="BQ1" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="BR1" s="211"/>
-      <c r="BS1" s="211"/>
-      <c r="BT1" s="209" t="s">
+      <c r="BR1" s="212"/>
+      <c r="BS1" s="212"/>
+      <c r="BT1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="BU1" s="210" t="s">
+      <c r="BU1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="BV1" s="211" t="s">
+      <c r="BV1" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="BW1" s="211"/>
-      <c r="BX1" s="216"/>
-      <c r="BY1" s="217" t="s">
+      <c r="BW1" s="212"/>
+      <c r="BX1" s="217"/>
+      <c r="BY1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="BZ1" s="218" t="s">
+      <c r="BZ1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="217" t="s">
+      <c r="CA1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="CB1" s="217"/>
-      <c r="CC1" s="217"/>
+      <c r="CB1" s="218"/>
+      <c r="CC1" s="218"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:81">
       <c r="B2" s="134" t="s">
@@ -6018,16 +5994,16 @@
       <c r="N2" s="144"/>
       <c r="O2" s="144"/>
       <c r="P2" s="144"/>
-      <c r="Q2" s="155" t="s">
+      <c r="Q2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="156" t="s">
+      <c r="R2" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="159" t="s">
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="160" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="145" t="s">
@@ -6035,106 +6011,106 @@
       </c>
       <c r="X2" s="144"/>
       <c r="Y2" s="144"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="167" t="s">
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="165" t="s">
+      <c r="AB2" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="168" t="s">
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="172" t="s">
+      <c r="AG2" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="178" t="s">
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="179" t="s">
+      <c r="AL2" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="185" t="s">
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="186" t="s">
+      <c r="AQ2" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="187"/>
-      <c r="AT2" s="187"/>
-      <c r="AU2" s="188" t="s">
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+      <c r="AT2" s="188"/>
+      <c r="AU2" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="189" t="s">
+      <c r="AV2" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" s="196"/>
-      <c r="AX2" s="196"/>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="198" t="s">
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="BA2" s="195" t="s">
+      <c r="BA2" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="BB2" s="194"/>
-      <c r="BC2" s="194"/>
-      <c r="BD2" s="194"/>
-      <c r="BE2" s="205" t="s">
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" s="201" t="s">
+      <c r="BF2" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="BG2" s="200"/>
-      <c r="BH2" s="200"/>
-      <c r="BI2" s="200"/>
-      <c r="BJ2" s="206" t="s">
+      <c r="BG2" s="201"/>
+      <c r="BH2" s="201"/>
+      <c r="BI2" s="201"/>
+      <c r="BJ2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="BK2" s="203" t="s">
+      <c r="BK2" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="BL2" s="204"/>
-      <c r="BM2" s="204"/>
-      <c r="BN2" s="204"/>
-      <c r="BO2" s="212" t="s">
+      <c r="BL2" s="205"/>
+      <c r="BM2" s="205"/>
+      <c r="BN2" s="205"/>
+      <c r="BO2" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="210" t="s">
+      <c r="BP2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="BQ2" s="211"/>
-      <c r="BR2" s="211"/>
-      <c r="BS2" s="211"/>
-      <c r="BT2" s="212" t="s">
+      <c r="BQ2" s="212"/>
+      <c r="BR2" s="212"/>
+      <c r="BS2" s="212"/>
+      <c r="BT2" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="BU2" s="210" t="s">
+      <c r="BU2" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="BV2" s="211"/>
-      <c r="BW2" s="211"/>
-      <c r="BX2" s="216"/>
-      <c r="BY2" s="219" t="s">
+      <c r="BV2" s="212"/>
+      <c r="BW2" s="212"/>
+      <c r="BX2" s="217"/>
+      <c r="BY2" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="BZ2" s="218" t="s">
+      <c r="BZ2" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="CA2" s="217"/>
-      <c r="CB2" s="217"/>
-      <c r="CC2" s="217"/>
+      <c r="CA2" s="218"/>
+      <c r="CB2" s="218"/>
+      <c r="CC2" s="218"/>
     </row>
     <row r="3" ht="15.75" spans="2:81">
       <c r="B3" s="136">
@@ -6203,20 +6179,20 @@
       </c>
       <c r="AD3" s="136"/>
       <c r="AE3" s="136"/>
-      <c r="AF3" s="169">
+      <c r="AF3" s="170">
         <v>1</v>
       </c>
-      <c r="AG3" s="169" t="s">
+      <c r="AG3" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="AH3" s="169">
-        <v>-60</v>
-      </c>
-      <c r="AI3" s="169">
+      <c r="AH3" s="170">
+        <v>-60</v>
+      </c>
+      <c r="AI3" s="170">
         <f>300+AH3</f>
         <v>240</v>
       </c>
-      <c r="AJ3" s="169"/>
+      <c r="AJ3" s="170"/>
       <c r="AK3" s="136">
         <v>1</v>
       </c>
@@ -6736,17 +6712,17 @@
       </c>
       <c r="T6" s="81"/>
       <c r="U6" s="81"/>
-      <c r="V6" s="160">
+      <c r="V6" s="161">
         <v>4</v>
       </c>
-      <c r="W6" s="160" t="s">
+      <c r="W6" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="160">
+      <c r="X6" s="161">
         <v>-90</v>
       </c>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
       <c r="AA6" s="81">
         <v>4</v>
       </c>
@@ -15735,13 +15711,13 @@
       </c>
       <c r="AX53" s="81"/>
       <c r="AY53" s="81"/>
-      <c r="AZ53" s="199">
+      <c r="AZ53" s="200">
         <v>51</v>
       </c>
-      <c r="BA53" s="199"/>
-      <c r="BB53" s="199"/>
-      <c r="BC53" s="199"/>
-      <c r="BD53" s="199"/>
+      <c r="BA53" s="200"/>
+      <c r="BB53" s="200"/>
+      <c r="BC53" s="200"/>
+      <c r="BD53" s="200"/>
       <c r="BE53" s="81">
         <v>51</v>
       </c>
@@ -15915,13 +15891,13 @@
         <v>194</v>
       </c>
       <c r="AY54" s="139"/>
-      <c r="AZ54" s="199">
+      <c r="AZ54" s="200">
         <v>52</v>
       </c>
-      <c r="BA54" s="199"/>
-      <c r="BB54" s="199"/>
-      <c r="BC54" s="199"/>
-      <c r="BD54" s="199"/>
+      <c r="BA54" s="200"/>
+      <c r="BB54" s="200"/>
+      <c r="BC54" s="200"/>
+      <c r="BD54" s="200"/>
       <c r="BE54" s="81">
         <v>52</v>
       </c>
@@ -15933,13 +15909,13 @@
       </c>
       <c r="BH54" s="81"/>
       <c r="BI54" s="81"/>
-      <c r="BJ54" s="207">
+      <c r="BJ54" s="208">
         <v>52</v>
       </c>
-      <c r="BK54" s="207"/>
-      <c r="BL54" s="207"/>
-      <c r="BM54" s="207"/>
-      <c r="BN54" s="207"/>
+      <c r="BK54" s="208"/>
+      <c r="BL54" s="208"/>
+      <c r="BM54" s="208"/>
+      <c r="BN54" s="208"/>
       <c r="BO54" s="81">
         <v>52</v>
       </c>
@@ -16000,24 +15976,26 @@
       </c>
       <c r="J55" s="126"/>
       <c r="K55" s="126"/>
-      <c r="L55" s="149">
+      <c r="L55" s="126">
         <v>53</v>
       </c>
-      <c r="M55" s="149" t="s">
+      <c r="M55" s="126" t="s">
         <v>591</v>
       </c>
-      <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="150"/>
-      <c r="Q55" s="161">
+      <c r="N55" s="126">
+        <v>-65</v>
+      </c>
+      <c r="O55" s="126"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="162">
         <v>53</v>
       </c>
-      <c r="R55" s="161"/>
-      <c r="S55" s="161">
+      <c r="R55" s="162"/>
+      <c r="S55" s="162">
         <v>1252123</v>
       </c>
-      <c r="T55" s="161"/>
-      <c r="U55" s="161"/>
+      <c r="T55" s="162"/>
+      <c r="U55" s="162"/>
       <c r="V55" s="126">
         <v>53</v>
       </c>
@@ -16087,13 +16065,13 @@
       </c>
       <c r="AX55" s="81"/>
       <c r="AY55" s="81"/>
-      <c r="AZ55" s="199">
+      <c r="AZ55" s="200">
         <v>53</v>
       </c>
-      <c r="BA55" s="199"/>
-      <c r="BB55" s="199"/>
-      <c r="BC55" s="199"/>
-      <c r="BD55" s="199"/>
+      <c r="BA55" s="200"/>
+      <c r="BB55" s="200"/>
+      <c r="BC55" s="200"/>
+      <c r="BD55" s="200"/>
       <c r="BE55" s="81">
         <v>53</v>
       </c>
@@ -16105,13 +16083,13 @@
       </c>
       <c r="BH55" s="81"/>
       <c r="BI55" s="81"/>
-      <c r="BJ55" s="207">
+      <c r="BJ55" s="208">
         <v>53</v>
       </c>
-      <c r="BK55" s="207"/>
-      <c r="BL55" s="207"/>
-      <c r="BM55" s="207"/>
-      <c r="BN55" s="207"/>
+      <c r="BK55" s="208"/>
+      <c r="BL55" s="208"/>
+      <c r="BM55" s="208"/>
+      <c r="BN55" s="208"/>
       <c r="BO55" s="81">
         <v>53</v>
       </c>
@@ -16123,24 +16101,24 @@
       </c>
       <c r="BR55" s="81"/>
       <c r="BS55" s="81"/>
-      <c r="BT55" s="213">
+      <c r="BT55" s="214">
         <v>53</v>
       </c>
-      <c r="BU55" s="213" t="s">
+      <c r="BU55" s="214" t="s">
         <v>595</v>
       </c>
-      <c r="BV55" s="213"/>
-      <c r="BW55" s="213"/>
-      <c r="BX55" s="213"/>
-      <c r="BY55" s="220">
+      <c r="BV55" s="214"/>
+      <c r="BW55" s="214"/>
+      <c r="BX55" s="214"/>
+      <c r="BY55" s="221">
         <v>53</v>
       </c>
-      <c r="BZ55" s="221" t="s">
+      <c r="BZ55" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="CA55" s="220"/>
-      <c r="CB55" s="220"/>
-      <c r="CC55" s="220"/>
+      <c r="CA55" s="221"/>
+      <c r="CB55" s="221"/>
+      <c r="CC55" s="221"/>
     </row>
     <row r="56" ht="15" spans="2:81">
       <c r="B56" s="126">
@@ -16163,29 +16141,29 @@
       <c r="I56" s="141"/>
       <c r="J56" s="141"/>
       <c r="K56" s="141"/>
-      <c r="L56" s="149">
+      <c r="L56" s="150">
         <v>54</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="150" t="s">
         <v>598</v>
       </c>
-      <c r="N56" s="149"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="161">
+      <c r="N56" s="150"/>
+      <c r="O56" s="150"/>
+      <c r="P56" s="151"/>
+      <c r="Q56" s="162">
         <v>54</v>
       </c>
-      <c r="R56" s="161"/>
-      <c r="S56" s="161"/>
-      <c r="T56" s="161"/>
-      <c r="U56" s="161"/>
-      <c r="V56" s="162">
+      <c r="R56" s="162"/>
+      <c r="S56" s="162"/>
+      <c r="T56" s="162"/>
+      <c r="U56" s="162"/>
+      <c r="V56" s="163">
         <v>54</v>
       </c>
-      <c r="W56" s="162"/>
-      <c r="X56" s="162"/>
-      <c r="Y56" s="162"/>
-      <c r="Z56" s="162"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Y56" s="163"/>
+      <c r="Z56" s="163"/>
       <c r="AA56" s="126">
         <v>54</v>
       </c>
@@ -16208,22 +16186,22 @@
       </c>
       <c r="AI56" s="126"/>
       <c r="AJ56" s="126"/>
-      <c r="AK56" s="162">
+      <c r="AK56" s="163">
         <v>54</v>
       </c>
-      <c r="AL56" s="162"/>
-      <c r="AM56" s="162"/>
-      <c r="AN56" s="162"/>
-      <c r="AO56" s="162"/>
-      <c r="AP56" s="190">
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="163"/>
+      <c r="AN56" s="163"/>
+      <c r="AO56" s="163"/>
+      <c r="AP56" s="191">
         <v>54</v>
       </c>
-      <c r="AQ56" s="190" t="s">
+      <c r="AQ56" s="191" t="s">
         <v>600</v>
       </c>
-      <c r="AR56" s="190"/>
-      <c r="AS56" s="190"/>
-      <c r="AT56" s="190"/>
+      <c r="AR56" s="191"/>
+      <c r="AS56" s="191"/>
+      <c r="AT56" s="191"/>
       <c r="AU56" s="126">
         <v>54</v>
       </c>
@@ -16235,13 +16213,13 @@
       </c>
       <c r="AX56" s="126"/>
       <c r="AY56" s="126"/>
-      <c r="AZ56" s="199">
+      <c r="AZ56" s="200">
         <v>54</v>
       </c>
-      <c r="BA56" s="199"/>
-      <c r="BB56" s="199"/>
-      <c r="BC56" s="199"/>
-      <c r="BD56" s="199"/>
+      <c r="BA56" s="200"/>
+      <c r="BB56" s="200"/>
+      <c r="BC56" s="200"/>
+      <c r="BD56" s="200"/>
       <c r="BE56" s="81">
         <v>54</v>
       </c>
@@ -16253,13 +16231,13 @@
       </c>
       <c r="BH56" s="81"/>
       <c r="BI56" s="81"/>
-      <c r="BJ56" s="207">
+      <c r="BJ56" s="208">
         <v>54</v>
       </c>
-      <c r="BK56" s="207"/>
-      <c r="BL56" s="207"/>
-      <c r="BM56" s="207"/>
-      <c r="BN56" s="207"/>
+      <c r="BK56" s="208"/>
+      <c r="BL56" s="208"/>
+      <c r="BM56" s="208"/>
+      <c r="BN56" s="208"/>
       <c r="BO56" s="139">
         <v>54</v>
       </c>
@@ -16274,24 +16252,24 @@
         <v>140</v>
       </c>
       <c r="BS56" s="139"/>
-      <c r="BT56" s="213">
+      <c r="BT56" s="214">
         <v>54</v>
       </c>
-      <c r="BU56" s="213" t="s">
+      <c r="BU56" s="214" t="s">
         <v>602</v>
       </c>
-      <c r="BV56" s="213"/>
-      <c r="BW56" s="213"/>
-      <c r="BX56" s="213"/>
-      <c r="BY56" s="220">
+      <c r="BV56" s="214"/>
+      <c r="BW56" s="214"/>
+      <c r="BX56" s="214"/>
+      <c r="BY56" s="221">
         <v>54</v>
       </c>
-      <c r="BZ56" s="221" t="s">
+      <c r="BZ56" s="222" t="s">
         <v>428</v>
       </c>
-      <c r="CA56" s="220"/>
-      <c r="CB56" s="220"/>
-      <c r="CC56" s="220"/>
+      <c r="CA56" s="221"/>
+      <c r="CB56" s="221"/>
+      <c r="CC56" s="221"/>
     </row>
     <row r="57" spans="2:81">
       <c r="B57" s="142">
@@ -16312,77 +16290,77 @@
       <c r="I57" s="141"/>
       <c r="J57" s="141"/>
       <c r="K57" s="141"/>
-      <c r="L57" s="149">
+      <c r="L57" s="150">
         <v>55</v>
       </c>
-      <c r="M57" s="149" t="s">
+      <c r="M57" s="150" t="s">
         <v>605</v>
       </c>
-      <c r="N57" s="149"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="161">
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="151"/>
+      <c r="Q57" s="162">
         <v>55</v>
       </c>
-      <c r="R57" s="161"/>
-      <c r="S57" s="161"/>
-      <c r="T57" s="161"/>
-      <c r="U57" s="161"/>
-      <c r="V57" s="162">
+      <c r="R57" s="162"/>
+      <c r="S57" s="162"/>
+      <c r="T57" s="162"/>
+      <c r="U57" s="162"/>
+      <c r="V57" s="163">
         <v>55</v>
       </c>
-      <c r="W57" s="162"/>
-      <c r="X57" s="162"/>
-      <c r="Y57" s="162"/>
-      <c r="Z57" s="162"/>
-      <c r="AA57" s="170">
+      <c r="W57" s="163"/>
+      <c r="X57" s="163"/>
+      <c r="Y57" s="163"/>
+      <c r="Z57" s="163"/>
+      <c r="AA57" s="171">
         <v>55</v>
       </c>
-      <c r="AB57" s="170"/>
-      <c r="AC57" s="170"/>
-      <c r="AD57" s="170"/>
-      <c r="AE57" s="170"/>
-      <c r="AF57" s="171">
+      <c r="AB57" s="171"/>
+      <c r="AC57" s="171"/>
+      <c r="AD57" s="171"/>
+      <c r="AE57" s="171"/>
+      <c r="AF57" s="172">
         <v>55</v>
       </c>
-      <c r="AG57" s="171" t="s">
+      <c r="AG57" s="172" t="s">
         <v>549</v>
       </c>
-      <c r="AH57" s="171"/>
-      <c r="AI57" s="171"/>
-      <c r="AJ57" s="171"/>
-      <c r="AK57" s="162">
+      <c r="AH57" s="172"/>
+      <c r="AI57" s="172"/>
+      <c r="AJ57" s="172"/>
+      <c r="AK57" s="163">
         <v>55</v>
       </c>
-      <c r="AL57" s="162"/>
-      <c r="AM57" s="162"/>
-      <c r="AN57" s="162"/>
-      <c r="AO57" s="162"/>
-      <c r="AP57" s="190">
+      <c r="AL57" s="163"/>
+      <c r="AM57" s="163"/>
+      <c r="AN57" s="163"/>
+      <c r="AO57" s="163"/>
+      <c r="AP57" s="191">
         <v>55</v>
       </c>
-      <c r="AQ57" s="190" t="s">
+      <c r="AQ57" s="191" t="s">
         <v>421</v>
       </c>
-      <c r="AR57" s="190"/>
-      <c r="AS57" s="190"/>
-      <c r="AT57" s="190"/>
-      <c r="AU57" s="191">
+      <c r="AR57" s="191"/>
+      <c r="AS57" s="191"/>
+      <c r="AT57" s="191"/>
+      <c r="AU57" s="192">
         <v>55</v>
       </c>
-      <c r="AV57" s="191" t="s">
+      <c r="AV57" s="192" t="s">
         <v>600</v>
       </c>
-      <c r="AW57" s="191"/>
-      <c r="AX57" s="191"/>
-      <c r="AY57" s="191"/>
-      <c r="AZ57" s="199">
+      <c r="AW57" s="192"/>
+      <c r="AX57" s="192"/>
+      <c r="AY57" s="192"/>
+      <c r="AZ57" s="200">
         <v>55</v>
       </c>
-      <c r="BA57" s="199"/>
-      <c r="BB57" s="199"/>
-      <c r="BC57" s="199"/>
-      <c r="BD57" s="199"/>
+      <c r="BA57" s="200"/>
+      <c r="BB57" s="200"/>
+      <c r="BC57" s="200"/>
+      <c r="BD57" s="200"/>
       <c r="BE57" s="126">
         <v>55</v>
       </c>
@@ -16394,17 +16372,17 @@
       </c>
       <c r="BH57" s="126"/>
       <c r="BI57" s="126"/>
-      <c r="BJ57" s="207">
+      <c r="BJ57" s="208">
         <v>55</v>
       </c>
-      <c r="BK57" s="207"/>
-      <c r="BL57" s="207"/>
-      <c r="BM57" s="207"/>
-      <c r="BN57" s="207"/>
+      <c r="BK57" s="208"/>
+      <c r="BL57" s="208"/>
+      <c r="BM57" s="208"/>
+      <c r="BN57" s="208"/>
       <c r="BO57" s="126">
         <v>55</v>
       </c>
-      <c r="BP57" s="214" t="s">
+      <c r="BP57" s="215" t="s">
         <v>278</v>
       </c>
       <c r="BQ57" s="126">
@@ -16412,24 +16390,24 @@
       </c>
       <c r="BR57" s="126"/>
       <c r="BS57" s="126"/>
-      <c r="BT57" s="213">
+      <c r="BT57" s="214">
         <v>55</v>
       </c>
-      <c r="BU57" s="213" t="s">
+      <c r="BU57" s="214" t="s">
         <v>606</v>
       </c>
-      <c r="BV57" s="213"/>
-      <c r="BW57" s="213"/>
-      <c r="BX57" s="213"/>
-      <c r="BY57" s="220">
+      <c r="BV57" s="214"/>
+      <c r="BW57" s="214"/>
+      <c r="BX57" s="214"/>
+      <c r="BY57" s="221">
         <v>55</v>
       </c>
-      <c r="BZ57" s="221" t="s">
+      <c r="BZ57" s="222" t="s">
         <v>607</v>
       </c>
-      <c r="CA57" s="220"/>
-      <c r="CB57" s="220"/>
-      <c r="CC57" s="220"/>
+      <c r="CA57" s="221"/>
+      <c r="CB57" s="221"/>
+      <c r="CC57" s="221"/>
     </row>
     <row r="58" spans="2:81">
       <c r="B58" s="142">
@@ -16450,118 +16428,118 @@
       <c r="I58" s="141"/>
       <c r="J58" s="141"/>
       <c r="K58" s="141"/>
-      <c r="L58" s="149">
+      <c r="L58" s="150">
         <v>56</v>
       </c>
-      <c r="M58" s="149" t="s">
+      <c r="M58" s="150" t="s">
         <v>609</v>
       </c>
-      <c r="N58" s="149"/>
-      <c r="O58" s="149"/>
-      <c r="P58" s="150"/>
-      <c r="Q58" s="161">
+      <c r="N58" s="150"/>
+      <c r="O58" s="150"/>
+      <c r="P58" s="151"/>
+      <c r="Q58" s="162">
         <v>56</v>
       </c>
-      <c r="R58" s="161"/>
-      <c r="S58" s="161"/>
-      <c r="T58" s="161"/>
-      <c r="U58" s="161"/>
-      <c r="V58" s="162">
+      <c r="R58" s="162"/>
+      <c r="S58" s="162"/>
+      <c r="T58" s="162"/>
+      <c r="U58" s="162"/>
+      <c r="V58" s="163">
         <v>56</v>
       </c>
-      <c r="W58" s="162"/>
-      <c r="X58" s="162"/>
-      <c r="Y58" s="162"/>
-      <c r="Z58" s="162"/>
-      <c r="AA58" s="170">
+      <c r="W58" s="163"/>
+      <c r="X58" s="163"/>
+      <c r="Y58" s="163"/>
+      <c r="Z58" s="163"/>
+      <c r="AA58" s="171">
         <v>56</v>
       </c>
-      <c r="AB58" s="170"/>
-      <c r="AC58" s="170"/>
-      <c r="AD58" s="170"/>
-      <c r="AE58" s="170"/>
-      <c r="AF58" s="171">
+      <c r="AB58" s="171"/>
+      <c r="AC58" s="171"/>
+      <c r="AD58" s="171"/>
+      <c r="AE58" s="171"/>
+      <c r="AF58" s="172">
         <v>56</v>
       </c>
-      <c r="AG58" s="171" t="s">
+      <c r="AG58" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="AH58" s="171"/>
-      <c r="AI58" s="171"/>
-      <c r="AJ58" s="171"/>
-      <c r="AK58" s="162">
+      <c r="AH58" s="172"/>
+      <c r="AI58" s="172"/>
+      <c r="AJ58" s="172"/>
+      <c r="AK58" s="163">
         <v>56</v>
       </c>
-      <c r="AL58" s="162"/>
-      <c r="AM58" s="162"/>
-      <c r="AN58" s="162"/>
-      <c r="AO58" s="162"/>
-      <c r="AP58" s="190">
+      <c r="AL58" s="163"/>
+      <c r="AM58" s="163"/>
+      <c r="AN58" s="163"/>
+      <c r="AO58" s="163"/>
+      <c r="AP58" s="191">
         <v>56</v>
       </c>
-      <c r="AQ58" s="190" t="s">
+      <c r="AQ58" s="191" t="s">
         <v>610</v>
       </c>
-      <c r="AR58" s="190"/>
-      <c r="AS58" s="190"/>
-      <c r="AT58" s="190"/>
-      <c r="AU58" s="191">
+      <c r="AR58" s="191"/>
+      <c r="AS58" s="191"/>
+      <c r="AT58" s="191"/>
+      <c r="AU58" s="192">
         <v>56</v>
       </c>
-      <c r="AV58" s="191" t="s">
+      <c r="AV58" s="192" t="s">
         <v>611</v>
       </c>
-      <c r="AW58" s="191"/>
-      <c r="AX58" s="191"/>
-      <c r="AY58" s="191"/>
-      <c r="AZ58" s="199">
+      <c r="AW58" s="192"/>
+      <c r="AX58" s="192"/>
+      <c r="AY58" s="192"/>
+      <c r="AZ58" s="200">
         <v>56</v>
       </c>
-      <c r="BA58" s="199"/>
-      <c r="BB58" s="199"/>
-      <c r="BC58" s="199"/>
-      <c r="BD58" s="199"/>
-      <c r="BE58" s="208">
+      <c r="BA58" s="200"/>
+      <c r="BB58" s="200"/>
+      <c r="BC58" s="200"/>
+      <c r="BD58" s="200"/>
+      <c r="BE58" s="209">
         <v>56</v>
       </c>
-      <c r="BF58" s="208"/>
-      <c r="BG58" s="208"/>
-      <c r="BH58" s="208"/>
-      <c r="BI58" s="208"/>
-      <c r="BJ58" s="207">
+      <c r="BF58" s="209"/>
+      <c r="BG58" s="209"/>
+      <c r="BH58" s="209"/>
+      <c r="BI58" s="209"/>
+      <c r="BJ58" s="208">
         <v>56</v>
       </c>
-      <c r="BK58" s="207"/>
-      <c r="BL58" s="207"/>
-      <c r="BM58" s="207"/>
-      <c r="BN58" s="207"/>
-      <c r="BO58" s="161">
+      <c r="BK58" s="208"/>
+      <c r="BL58" s="208"/>
+      <c r="BM58" s="208"/>
+      <c r="BN58" s="208"/>
+      <c r="BO58" s="162">
         <v>56</v>
       </c>
-      <c r="BP58" s="215" t="s">
+      <c r="BP58" s="216" t="s">
         <v>612</v>
       </c>
-      <c r="BQ58" s="161"/>
-      <c r="BR58" s="161"/>
-      <c r="BS58" s="161"/>
-      <c r="BT58" s="213">
+      <c r="BQ58" s="162"/>
+      <c r="BR58" s="162"/>
+      <c r="BS58" s="162"/>
+      <c r="BT58" s="214">
         <v>56</v>
       </c>
-      <c r="BU58" s="213" t="s">
+      <c r="BU58" s="214" t="s">
         <v>613</v>
       </c>
-      <c r="BV58" s="213"/>
-      <c r="BW58" s="213"/>
-      <c r="BX58" s="213"/>
-      <c r="BY58" s="220">
+      <c r="BV58" s="214"/>
+      <c r="BW58" s="214"/>
+      <c r="BX58" s="214"/>
+      <c r="BY58" s="221">
         <v>56</v>
       </c>
-      <c r="BZ58" s="221" t="s">
+      <c r="BZ58" s="222" t="s">
         <v>561</v>
       </c>
-      <c r="CA58" s="220"/>
-      <c r="CB58" s="220"/>
-      <c r="CC58" s="220"/>
+      <c r="CA58" s="221"/>
+      <c r="CB58" s="221"/>
+      <c r="CC58" s="221"/>
     </row>
     <row r="59" spans="2:81">
       <c r="B59" s="142">
@@ -16582,118 +16560,118 @@
       <c r="I59" s="141"/>
       <c r="J59" s="141"/>
       <c r="K59" s="141"/>
-      <c r="L59" s="149">
+      <c r="L59" s="150">
         <v>57</v>
       </c>
-      <c r="M59" s="149" t="s">
+      <c r="M59" s="150" t="s">
         <v>616</v>
       </c>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="161">
+      <c r="N59" s="150"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="151"/>
+      <c r="Q59" s="162">
         <v>57</v>
       </c>
-      <c r="R59" s="161"/>
-      <c r="S59" s="161"/>
-      <c r="T59" s="161"/>
-      <c r="U59" s="161"/>
-      <c r="V59" s="162">
+      <c r="R59" s="162"/>
+      <c r="S59" s="162"/>
+      <c r="T59" s="162"/>
+      <c r="U59" s="162"/>
+      <c r="V59" s="163">
         <v>57</v>
       </c>
-      <c r="W59" s="162"/>
-      <c r="X59" s="162"/>
-      <c r="Y59" s="162"/>
-      <c r="Z59" s="162"/>
-      <c r="AA59" s="170">
+      <c r="W59" s="163"/>
+      <c r="X59" s="163"/>
+      <c r="Y59" s="163"/>
+      <c r="Z59" s="163"/>
+      <c r="AA59" s="171">
         <v>57</v>
       </c>
-      <c r="AB59" s="170"/>
-      <c r="AC59" s="170"/>
-      <c r="AD59" s="170"/>
-      <c r="AE59" s="170"/>
-      <c r="AF59" s="171">
+      <c r="AB59" s="171"/>
+      <c r="AC59" s="171"/>
+      <c r="AD59" s="171"/>
+      <c r="AE59" s="171"/>
+      <c r="AF59" s="172">
         <v>57</v>
       </c>
-      <c r="AG59" s="171" t="s">
+      <c r="AG59" s="172" t="s">
         <v>530</v>
       </c>
-      <c r="AH59" s="171"/>
-      <c r="AI59" s="171"/>
-      <c r="AJ59" s="171"/>
-      <c r="AK59" s="162">
+      <c r="AH59" s="172"/>
+      <c r="AI59" s="172"/>
+      <c r="AJ59" s="172"/>
+      <c r="AK59" s="163">
         <v>57</v>
       </c>
-      <c r="AL59" s="162"/>
-      <c r="AM59" s="162"/>
-      <c r="AN59" s="162"/>
-      <c r="AO59" s="162"/>
-      <c r="AP59" s="190">
+      <c r="AL59" s="163"/>
+      <c r="AM59" s="163"/>
+      <c r="AN59" s="163"/>
+      <c r="AO59" s="163"/>
+      <c r="AP59" s="191">
         <v>57</v>
       </c>
-      <c r="AQ59" s="190" t="s">
+      <c r="AQ59" s="191" t="s">
         <v>574</v>
       </c>
-      <c r="AR59" s="190"/>
-      <c r="AS59" s="190"/>
-      <c r="AT59" s="190"/>
-      <c r="AU59" s="191">
+      <c r="AR59" s="191"/>
+      <c r="AS59" s="191"/>
+      <c r="AT59" s="191"/>
+      <c r="AU59" s="192">
         <v>57</v>
       </c>
-      <c r="AV59" s="191" t="s">
+      <c r="AV59" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="AW59" s="191"/>
-      <c r="AX59" s="191"/>
-      <c r="AY59" s="191"/>
-      <c r="AZ59" s="199">
+      <c r="AW59" s="192"/>
+      <c r="AX59" s="192"/>
+      <c r="AY59" s="192"/>
+      <c r="AZ59" s="200">
         <v>57</v>
       </c>
-      <c r="BA59" s="199"/>
-      <c r="BB59" s="199"/>
-      <c r="BC59" s="199"/>
-      <c r="BD59" s="199"/>
-      <c r="BE59" s="208">
+      <c r="BA59" s="200"/>
+      <c r="BB59" s="200"/>
+      <c r="BC59" s="200"/>
+      <c r="BD59" s="200"/>
+      <c r="BE59" s="209">
         <v>57</v>
       </c>
-      <c r="BF59" s="208"/>
-      <c r="BG59" s="208"/>
-      <c r="BH59" s="208"/>
-      <c r="BI59" s="208"/>
-      <c r="BJ59" s="207">
+      <c r="BF59" s="209"/>
+      <c r="BG59" s="209"/>
+      <c r="BH59" s="209"/>
+      <c r="BI59" s="209"/>
+      <c r="BJ59" s="208">
         <v>57</v>
       </c>
-      <c r="BK59" s="207"/>
-      <c r="BL59" s="207"/>
-      <c r="BM59" s="207"/>
-      <c r="BN59" s="207"/>
-      <c r="BO59" s="161">
+      <c r="BK59" s="208"/>
+      <c r="BL59" s="208"/>
+      <c r="BM59" s="208"/>
+      <c r="BN59" s="208"/>
+      <c r="BO59" s="162">
         <v>57</v>
       </c>
-      <c r="BP59" s="215" t="s">
+      <c r="BP59" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="BQ59" s="161"/>
-      <c r="BR59" s="161"/>
-      <c r="BS59" s="161"/>
-      <c r="BT59" s="213">
+      <c r="BQ59" s="162"/>
+      <c r="BR59" s="162"/>
+      <c r="BS59" s="162"/>
+      <c r="BT59" s="214">
         <v>57</v>
       </c>
-      <c r="BU59" s="213" t="s">
+      <c r="BU59" s="214" t="s">
         <v>617</v>
       </c>
-      <c r="BV59" s="213"/>
-      <c r="BW59" s="213"/>
-      <c r="BX59" s="213"/>
-      <c r="BY59" s="220">
+      <c r="BV59" s="214"/>
+      <c r="BW59" s="214"/>
+      <c r="BX59" s="214"/>
+      <c r="BY59" s="221">
         <v>57</v>
       </c>
-      <c r="BZ59" s="221" t="s">
+      <c r="BZ59" s="222" t="s">
         <v>618</v>
       </c>
-      <c r="CA59" s="220"/>
-      <c r="CB59" s="220"/>
-      <c r="CC59" s="220"/>
+      <c r="CA59" s="221"/>
+      <c r="CB59" s="221"/>
+      <c r="CC59" s="221"/>
     </row>
     <row r="60" spans="2:81">
       <c r="B60" s="142">
@@ -16714,118 +16692,118 @@
       <c r="I60" s="141"/>
       <c r="J60" s="141"/>
       <c r="K60" s="141"/>
-      <c r="L60" s="149">
+      <c r="L60" s="150">
         <v>58</v>
       </c>
-      <c r="M60" s="149" t="s">
+      <c r="M60" s="150" t="s">
         <v>620</v>
       </c>
-      <c r="N60" s="149"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="150"/>
-      <c r="Q60" s="161">
+      <c r="N60" s="150"/>
+      <c r="O60" s="150"/>
+      <c r="P60" s="151"/>
+      <c r="Q60" s="162">
         <v>58</v>
       </c>
-      <c r="R60" s="161"/>
-      <c r="S60" s="161"/>
-      <c r="T60" s="161"/>
-      <c r="U60" s="161"/>
-      <c r="V60" s="162">
+      <c r="R60" s="162"/>
+      <c r="S60" s="162"/>
+      <c r="T60" s="162"/>
+      <c r="U60" s="162"/>
+      <c r="V60" s="163">
         <v>58</v>
       </c>
-      <c r="W60" s="162"/>
-      <c r="X60" s="162"/>
-      <c r="Y60" s="162"/>
-      <c r="Z60" s="162"/>
-      <c r="AA60" s="170">
+      <c r="W60" s="163"/>
+      <c r="X60" s="163"/>
+      <c r="Y60" s="163"/>
+      <c r="Z60" s="163"/>
+      <c r="AA60" s="171">
         <v>58</v>
       </c>
-      <c r="AB60" s="170"/>
-      <c r="AC60" s="170"/>
-      <c r="AD60" s="170"/>
-      <c r="AE60" s="170"/>
-      <c r="AF60" s="171">
+      <c r="AB60" s="171"/>
+      <c r="AC60" s="171"/>
+      <c r="AD60" s="171"/>
+      <c r="AE60" s="171"/>
+      <c r="AF60" s="172">
         <v>58</v>
       </c>
-      <c r="AG60" s="171" t="s">
+      <c r="AG60" s="172" t="s">
         <v>621</v>
       </c>
-      <c r="AH60" s="171"/>
-      <c r="AI60" s="171"/>
-      <c r="AJ60" s="171"/>
-      <c r="AK60" s="162">
+      <c r="AH60" s="172"/>
+      <c r="AI60" s="172"/>
+      <c r="AJ60" s="172"/>
+      <c r="AK60" s="163">
         <v>58</v>
       </c>
-      <c r="AL60" s="162"/>
-      <c r="AM60" s="162"/>
-      <c r="AN60" s="162"/>
-      <c r="AO60" s="162"/>
-      <c r="AP60" s="190">
+      <c r="AL60" s="163"/>
+      <c r="AM60" s="163"/>
+      <c r="AN60" s="163"/>
+      <c r="AO60" s="163"/>
+      <c r="AP60" s="191">
         <v>58</v>
       </c>
-      <c r="AQ60" s="190" t="s">
+      <c r="AQ60" s="191" t="s">
         <v>622</v>
       </c>
-      <c r="AR60" s="190"/>
-      <c r="AS60" s="190"/>
-      <c r="AT60" s="190"/>
-      <c r="AU60" s="191">
+      <c r="AR60" s="191"/>
+      <c r="AS60" s="191"/>
+      <c r="AT60" s="191"/>
+      <c r="AU60" s="192">
         <v>58</v>
       </c>
-      <c r="AV60" s="191" t="s">
+      <c r="AV60" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="AW60" s="191"/>
-      <c r="AX60" s="191"/>
-      <c r="AY60" s="191"/>
-      <c r="AZ60" s="199">
+      <c r="AW60" s="192"/>
+      <c r="AX60" s="192"/>
+      <c r="AY60" s="192"/>
+      <c r="AZ60" s="200">
         <v>58</v>
       </c>
-      <c r="BA60" s="199"/>
-      <c r="BB60" s="199"/>
-      <c r="BC60" s="199"/>
-      <c r="BD60" s="199"/>
-      <c r="BE60" s="208">
+      <c r="BA60" s="200"/>
+      <c r="BB60" s="200"/>
+      <c r="BC60" s="200"/>
+      <c r="BD60" s="200"/>
+      <c r="BE60" s="209">
         <v>58</v>
       </c>
-      <c r="BF60" s="208"/>
-      <c r="BG60" s="208"/>
-      <c r="BH60" s="208"/>
-      <c r="BI60" s="208"/>
-      <c r="BJ60" s="207">
+      <c r="BF60" s="209"/>
+      <c r="BG60" s="209"/>
+      <c r="BH60" s="209"/>
+      <c r="BI60" s="209"/>
+      <c r="BJ60" s="208">
         <v>58</v>
       </c>
-      <c r="BK60" s="207"/>
-      <c r="BL60" s="207"/>
-      <c r="BM60" s="207"/>
-      <c r="BN60" s="207"/>
-      <c r="BO60" s="161">
+      <c r="BK60" s="208"/>
+      <c r="BL60" s="208"/>
+      <c r="BM60" s="208"/>
+      <c r="BN60" s="208"/>
+      <c r="BO60" s="162">
         <v>58</v>
       </c>
-      <c r="BP60" s="215" t="s">
+      <c r="BP60" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="BQ60" s="161"/>
-      <c r="BR60" s="161"/>
-      <c r="BS60" s="161"/>
-      <c r="BT60" s="213">
+      <c r="BQ60" s="162"/>
+      <c r="BR60" s="162"/>
+      <c r="BS60" s="162"/>
+      <c r="BT60" s="214">
         <v>58</v>
       </c>
-      <c r="BU60" s="213" t="s">
+      <c r="BU60" s="214" t="s">
         <v>623</v>
       </c>
-      <c r="BV60" s="213"/>
-      <c r="BW60" s="213"/>
-      <c r="BX60" s="213"/>
-      <c r="BY60" s="220">
+      <c r="BV60" s="214"/>
+      <c r="BW60" s="214"/>
+      <c r="BX60" s="214"/>
+      <c r="BY60" s="221">
         <v>58</v>
       </c>
-      <c r="BZ60" s="221" t="s">
+      <c r="BZ60" s="222" t="s">
         <v>624</v>
       </c>
-      <c r="CA60" s="220"/>
-      <c r="CB60" s="220"/>
-      <c r="CC60" s="220"/>
+      <c r="CA60" s="221"/>
+      <c r="CB60" s="221"/>
+      <c r="CC60" s="221"/>
     </row>
     <row r="61" spans="2:81">
       <c r="B61" s="142">
@@ -16846,118 +16824,118 @@
       <c r="I61" s="141"/>
       <c r="J61" s="141"/>
       <c r="K61" s="141"/>
-      <c r="L61" s="149">
+      <c r="L61" s="150">
         <v>59</v>
       </c>
-      <c r="M61" s="149" t="s">
+      <c r="M61" s="150" t="s">
         <v>627</v>
       </c>
-      <c r="N61" s="149"/>
-      <c r="O61" s="149"/>
-      <c r="P61" s="150"/>
-      <c r="Q61" s="161">
+      <c r="N61" s="150"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="151"/>
+      <c r="Q61" s="162">
         <v>59</v>
       </c>
-      <c r="R61" s="161"/>
-      <c r="S61" s="161"/>
-      <c r="T61" s="161"/>
-      <c r="U61" s="161"/>
-      <c r="V61" s="162">
+      <c r="R61" s="162"/>
+      <c r="S61" s="162"/>
+      <c r="T61" s="162"/>
+      <c r="U61" s="162"/>
+      <c r="V61" s="163">
         <v>59</v>
       </c>
-      <c r="W61" s="162"/>
-      <c r="X61" s="162"/>
-      <c r="Y61" s="162"/>
-      <c r="Z61" s="162"/>
-      <c r="AA61" s="170">
+      <c r="W61" s="163"/>
+      <c r="X61" s="163"/>
+      <c r="Y61" s="163"/>
+      <c r="Z61" s="163"/>
+      <c r="AA61" s="171">
         <v>59</v>
       </c>
-      <c r="AB61" s="170"/>
-      <c r="AC61" s="170"/>
-      <c r="AD61" s="170"/>
-      <c r="AE61" s="170"/>
-      <c r="AF61" s="171">
+      <c r="AB61" s="171"/>
+      <c r="AC61" s="171"/>
+      <c r="AD61" s="171"/>
+      <c r="AE61" s="171"/>
+      <c r="AF61" s="172">
         <v>59</v>
       </c>
-      <c r="AG61" s="171" t="s">
+      <c r="AG61" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="AH61" s="171"/>
-      <c r="AI61" s="171"/>
-      <c r="AJ61" s="171"/>
-      <c r="AK61" s="162">
+      <c r="AH61" s="172"/>
+      <c r="AI61" s="172"/>
+      <c r="AJ61" s="172"/>
+      <c r="AK61" s="163">
         <v>59</v>
       </c>
-      <c r="AL61" s="162"/>
-      <c r="AM61" s="162"/>
-      <c r="AN61" s="162"/>
-      <c r="AO61" s="162"/>
-      <c r="AP61" s="190">
+      <c r="AL61" s="163"/>
+      <c r="AM61" s="163"/>
+      <c r="AN61" s="163"/>
+      <c r="AO61" s="163"/>
+      <c r="AP61" s="191">
         <v>59</v>
       </c>
-      <c r="AQ61" s="190" t="s">
+      <c r="AQ61" s="191" t="s">
         <v>628</v>
       </c>
-      <c r="AR61" s="190"/>
-      <c r="AS61" s="190"/>
-      <c r="AT61" s="190"/>
-      <c r="AU61" s="191">
+      <c r="AR61" s="191"/>
+      <c r="AS61" s="191"/>
+      <c r="AT61" s="191"/>
+      <c r="AU61" s="192">
         <v>59</v>
       </c>
-      <c r="AV61" s="191" t="s">
+      <c r="AV61" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="AW61" s="191"/>
-      <c r="AX61" s="191"/>
-      <c r="AY61" s="191"/>
-      <c r="AZ61" s="199">
+      <c r="AW61" s="192"/>
+      <c r="AX61" s="192"/>
+      <c r="AY61" s="192"/>
+      <c r="AZ61" s="200">
         <v>59</v>
       </c>
-      <c r="BA61" s="199"/>
-      <c r="BB61" s="199"/>
-      <c r="BC61" s="199"/>
-      <c r="BD61" s="199"/>
-      <c r="BE61" s="208">
+      <c r="BA61" s="200"/>
+      <c r="BB61" s="200"/>
+      <c r="BC61" s="200"/>
+      <c r="BD61" s="200"/>
+      <c r="BE61" s="209">
         <v>59</v>
       </c>
-      <c r="BF61" s="208"/>
-      <c r="BG61" s="208"/>
-      <c r="BH61" s="208"/>
-      <c r="BI61" s="208"/>
-      <c r="BJ61" s="207">
+      <c r="BF61" s="209"/>
+      <c r="BG61" s="209"/>
+      <c r="BH61" s="209"/>
+      <c r="BI61" s="209"/>
+      <c r="BJ61" s="208">
         <v>59</v>
       </c>
-      <c r="BK61" s="207"/>
-      <c r="BL61" s="207"/>
-      <c r="BM61" s="207"/>
-      <c r="BN61" s="207"/>
-      <c r="BO61" s="161">
+      <c r="BK61" s="208"/>
+      <c r="BL61" s="208"/>
+      <c r="BM61" s="208"/>
+      <c r="BN61" s="208"/>
+      <c r="BO61" s="162">
         <v>59</v>
       </c>
-      <c r="BP61" s="215" t="s">
+      <c r="BP61" s="216" t="s">
         <v>574</v>
       </c>
-      <c r="BQ61" s="161"/>
-      <c r="BR61" s="161"/>
-      <c r="BS61" s="161"/>
-      <c r="BT61" s="213">
+      <c r="BQ61" s="162"/>
+      <c r="BR61" s="162"/>
+      <c r="BS61" s="162"/>
+      <c r="BT61" s="214">
         <v>59</v>
       </c>
-      <c r="BU61" s="213" t="s">
+      <c r="BU61" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="BV61" s="213"/>
-      <c r="BW61" s="213"/>
-      <c r="BX61" s="213"/>
-      <c r="BY61" s="220">
+      <c r="BV61" s="214"/>
+      <c r="BW61" s="214"/>
+      <c r="BX61" s="214"/>
+      <c r="BY61" s="221">
         <v>59</v>
       </c>
-      <c r="BZ61" s="221" t="s">
+      <c r="BZ61" s="222" t="s">
         <v>630</v>
       </c>
-      <c r="CA61" s="220"/>
-      <c r="CB61" s="220"/>
-      <c r="CC61" s="220"/>
+      <c r="CA61" s="221"/>
+      <c r="CB61" s="221"/>
+      <c r="CC61" s="221"/>
     </row>
     <row r="62" spans="2:81">
       <c r="B62" s="142">
@@ -16978,118 +16956,118 @@
       <c r="I62" s="141"/>
       <c r="J62" s="141"/>
       <c r="K62" s="141"/>
-      <c r="L62" s="149">
+      <c r="L62" s="150">
         <v>60</v>
       </c>
-      <c r="M62" s="149" t="s">
+      <c r="M62" s="150" t="s">
         <v>633</v>
       </c>
-      <c r="N62" s="149"/>
-      <c r="O62" s="149"/>
-      <c r="P62" s="150"/>
-      <c r="Q62" s="161">
+      <c r="N62" s="150"/>
+      <c r="O62" s="150"/>
+      <c r="P62" s="151"/>
+      <c r="Q62" s="162">
         <v>60</v>
       </c>
-      <c r="R62" s="161"/>
-      <c r="S62" s="161"/>
-      <c r="T62" s="161"/>
-      <c r="U62" s="161"/>
-      <c r="V62" s="162">
+      <c r="R62" s="162"/>
+      <c r="S62" s="162"/>
+      <c r="T62" s="162"/>
+      <c r="U62" s="162"/>
+      <c r="V62" s="163">
         <v>60</v>
       </c>
-      <c r="W62" s="162"/>
-      <c r="X62" s="162"/>
-      <c r="Y62" s="162"/>
-      <c r="Z62" s="162"/>
-      <c r="AA62" s="170">
+      <c r="W62" s="163"/>
+      <c r="X62" s="163"/>
+      <c r="Y62" s="163"/>
+      <c r="Z62" s="163"/>
+      <c r="AA62" s="171">
         <v>60</v>
       </c>
-      <c r="AB62" s="170"/>
-      <c r="AC62" s="170"/>
-      <c r="AD62" s="170"/>
-      <c r="AE62" s="170"/>
-      <c r="AF62" s="171">
+      <c r="AB62" s="171"/>
+      <c r="AC62" s="171"/>
+      <c r="AD62" s="171"/>
+      <c r="AE62" s="171"/>
+      <c r="AF62" s="172">
         <v>60</v>
       </c>
-      <c r="AG62" s="171" t="s">
+      <c r="AG62" s="172" t="s">
         <v>417</v>
       </c>
-      <c r="AH62" s="171"/>
-      <c r="AI62" s="171"/>
-      <c r="AJ62" s="171"/>
-      <c r="AK62" s="162">
+      <c r="AH62" s="172"/>
+      <c r="AI62" s="172"/>
+      <c r="AJ62" s="172"/>
+      <c r="AK62" s="163">
         <v>60</v>
       </c>
-      <c r="AL62" s="162"/>
-      <c r="AM62" s="162"/>
-      <c r="AN62" s="162"/>
-      <c r="AO62" s="162"/>
-      <c r="AP62" s="190">
+      <c r="AL62" s="163"/>
+      <c r="AM62" s="163"/>
+      <c r="AN62" s="163"/>
+      <c r="AO62" s="163"/>
+      <c r="AP62" s="191">
         <v>60</v>
       </c>
-      <c r="AQ62" s="190" t="s">
+      <c r="AQ62" s="191" t="s">
         <v>341</v>
       </c>
-      <c r="AR62" s="190"/>
-      <c r="AS62" s="190"/>
-      <c r="AT62" s="190"/>
-      <c r="AU62" s="191">
+      <c r="AR62" s="191"/>
+      <c r="AS62" s="191"/>
+      <c r="AT62" s="191"/>
+      <c r="AU62" s="192">
         <v>60</v>
       </c>
-      <c r="AV62" s="191" t="s">
+      <c r="AV62" s="192" t="s">
         <v>184</v>
       </c>
-      <c r="AW62" s="191"/>
-      <c r="AX62" s="191"/>
-      <c r="AY62" s="191"/>
-      <c r="AZ62" s="199">
+      <c r="AW62" s="192"/>
+      <c r="AX62" s="192"/>
+      <c r="AY62" s="192"/>
+      <c r="AZ62" s="200">
         <v>60</v>
       </c>
-      <c r="BA62" s="199"/>
-      <c r="BB62" s="199"/>
-      <c r="BC62" s="199"/>
-      <c r="BD62" s="199"/>
-      <c r="BE62" s="208">
+      <c r="BA62" s="200"/>
+      <c r="BB62" s="200"/>
+      <c r="BC62" s="200"/>
+      <c r="BD62" s="200"/>
+      <c r="BE62" s="209">
         <v>60</v>
       </c>
-      <c r="BF62" s="208"/>
-      <c r="BG62" s="208"/>
-      <c r="BH62" s="208"/>
-      <c r="BI62" s="208"/>
-      <c r="BJ62" s="207">
+      <c r="BF62" s="209"/>
+      <c r="BG62" s="209"/>
+      <c r="BH62" s="209"/>
+      <c r="BI62" s="209"/>
+      <c r="BJ62" s="208">
         <v>60</v>
       </c>
-      <c r="BK62" s="207"/>
-      <c r="BL62" s="207"/>
-      <c r="BM62" s="207"/>
-      <c r="BN62" s="207"/>
-      <c r="BO62" s="161">
+      <c r="BK62" s="208"/>
+      <c r="BL62" s="208"/>
+      <c r="BM62" s="208"/>
+      <c r="BN62" s="208"/>
+      <c r="BO62" s="162">
         <v>60</v>
       </c>
-      <c r="BP62" s="215" t="s">
+      <c r="BP62" s="216" t="s">
         <v>634</v>
       </c>
-      <c r="BQ62" s="161"/>
-      <c r="BR62" s="161"/>
-      <c r="BS62" s="161"/>
-      <c r="BT62" s="213">
+      <c r="BQ62" s="162"/>
+      <c r="BR62" s="162"/>
+      <c r="BS62" s="162"/>
+      <c r="BT62" s="214">
         <v>60</v>
       </c>
-      <c r="BU62" s="213" t="s">
+      <c r="BU62" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="BV62" s="213"/>
-      <c r="BW62" s="213"/>
-      <c r="BX62" s="213"/>
-      <c r="BY62" s="220">
+      <c r="BV62" s="214"/>
+      <c r="BW62" s="214"/>
+      <c r="BX62" s="214"/>
+      <c r="BY62" s="221">
         <v>60</v>
       </c>
-      <c r="BZ62" s="221" t="s">
+      <c r="BZ62" s="222" t="s">
         <v>635</v>
       </c>
-      <c r="CA62" s="220"/>
-      <c r="CB62" s="220"/>
-      <c r="CC62" s="220"/>
+      <c r="CA62" s="221"/>
+      <c r="CB62" s="221"/>
+      <c r="CC62" s="221"/>
     </row>
     <row r="63" spans="2:81">
       <c r="B63" s="142">
@@ -17110,118 +17088,118 @@
       <c r="I63" s="141"/>
       <c r="J63" s="141"/>
       <c r="K63" s="141"/>
-      <c r="L63" s="149">
+      <c r="L63" s="150">
         <v>61</v>
       </c>
-      <c r="M63" s="149" t="s">
+      <c r="M63" s="150" t="s">
         <v>638</v>
       </c>
-      <c r="N63" s="149"/>
-      <c r="O63" s="149"/>
-      <c r="P63" s="150"/>
-      <c r="Q63" s="161">
+      <c r="N63" s="150"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="162">
         <v>61</v>
       </c>
-      <c r="R63" s="161"/>
-      <c r="S63" s="161"/>
-      <c r="T63" s="161"/>
-      <c r="U63" s="161"/>
-      <c r="V63" s="162">
+      <c r="R63" s="162"/>
+      <c r="S63" s="162"/>
+      <c r="T63" s="162"/>
+      <c r="U63" s="162"/>
+      <c r="V63" s="163">
         <v>61</v>
       </c>
-      <c r="W63" s="162"/>
-      <c r="X63" s="162"/>
-      <c r="Y63" s="162"/>
-      <c r="Z63" s="162"/>
-      <c r="AA63" s="170">
+      <c r="W63" s="163"/>
+      <c r="X63" s="163"/>
+      <c r="Y63" s="163"/>
+      <c r="Z63" s="163"/>
+      <c r="AA63" s="171">
         <v>61</v>
       </c>
-      <c r="AB63" s="170"/>
-      <c r="AC63" s="170"/>
-      <c r="AD63" s="170"/>
-      <c r="AE63" s="170"/>
-      <c r="AF63" s="171">
+      <c r="AB63" s="171"/>
+      <c r="AC63" s="171"/>
+      <c r="AD63" s="171"/>
+      <c r="AE63" s="171"/>
+      <c r="AF63" s="172">
         <v>61</v>
       </c>
-      <c r="AG63" s="171" t="s">
+      <c r="AG63" s="172" t="s">
         <v>423</v>
       </c>
-      <c r="AH63" s="171"/>
-      <c r="AI63" s="171"/>
-      <c r="AJ63" s="171"/>
-      <c r="AK63" s="162">
+      <c r="AH63" s="172"/>
+      <c r="AI63" s="172"/>
+      <c r="AJ63" s="172"/>
+      <c r="AK63" s="163">
         <v>61</v>
       </c>
-      <c r="AL63" s="162"/>
-      <c r="AM63" s="162"/>
-      <c r="AN63" s="162"/>
-      <c r="AO63" s="162"/>
-      <c r="AP63" s="190">
+      <c r="AL63" s="163"/>
+      <c r="AM63" s="163"/>
+      <c r="AN63" s="163"/>
+      <c r="AO63" s="163"/>
+      <c r="AP63" s="191">
         <v>61</v>
       </c>
-      <c r="AQ63" s="190" t="s">
+      <c r="AQ63" s="191" t="s">
         <v>639</v>
       </c>
-      <c r="AR63" s="190"/>
-      <c r="AS63" s="190"/>
-      <c r="AT63" s="190"/>
-      <c r="AU63" s="191">
+      <c r="AR63" s="191"/>
+      <c r="AS63" s="191"/>
+      <c r="AT63" s="191"/>
+      <c r="AU63" s="192">
         <v>61</v>
       </c>
-      <c r="AV63" s="191" t="s">
+      <c r="AV63" s="192" t="s">
         <v>362</v>
       </c>
-      <c r="AW63" s="191"/>
-      <c r="AX63" s="191"/>
-      <c r="AY63" s="191"/>
-      <c r="AZ63" s="199">
+      <c r="AW63" s="192"/>
+      <c r="AX63" s="192"/>
+      <c r="AY63" s="192"/>
+      <c r="AZ63" s="200">
         <v>61</v>
       </c>
-      <c r="BA63" s="199"/>
-      <c r="BB63" s="199"/>
-      <c r="BC63" s="199"/>
-      <c r="BD63" s="199"/>
-      <c r="BE63" s="208">
+      <c r="BA63" s="200"/>
+      <c r="BB63" s="200"/>
+      <c r="BC63" s="200"/>
+      <c r="BD63" s="200"/>
+      <c r="BE63" s="209">
         <v>61</v>
       </c>
-      <c r="BF63" s="208"/>
-      <c r="BG63" s="208"/>
-      <c r="BH63" s="208"/>
-      <c r="BI63" s="208"/>
-      <c r="BJ63" s="207">
+      <c r="BF63" s="209"/>
+      <c r="BG63" s="209"/>
+      <c r="BH63" s="209"/>
+      <c r="BI63" s="209"/>
+      <c r="BJ63" s="208">
         <v>61</v>
       </c>
-      <c r="BK63" s="207"/>
-      <c r="BL63" s="207"/>
-      <c r="BM63" s="207"/>
-      <c r="BN63" s="207"/>
-      <c r="BO63" s="161">
+      <c r="BK63" s="208"/>
+      <c r="BL63" s="208"/>
+      <c r="BM63" s="208"/>
+      <c r="BN63" s="208"/>
+      <c r="BO63" s="162">
         <v>61</v>
       </c>
-      <c r="BP63" s="215" t="s">
+      <c r="BP63" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="BQ63" s="161"/>
-      <c r="BR63" s="161"/>
-      <c r="BS63" s="161"/>
-      <c r="BT63" s="213">
+      <c r="BQ63" s="162"/>
+      <c r="BR63" s="162"/>
+      <c r="BS63" s="162"/>
+      <c r="BT63" s="214">
         <v>61</v>
       </c>
-      <c r="BU63" s="213" t="s">
+      <c r="BU63" s="214" t="s">
         <v>279</v>
       </c>
-      <c r="BV63" s="213"/>
-      <c r="BW63" s="213"/>
-      <c r="BX63" s="213"/>
-      <c r="BY63" s="220">
+      <c r="BV63" s="214"/>
+      <c r="BW63" s="214"/>
+      <c r="BX63" s="214"/>
+      <c r="BY63" s="221">
         <v>61</v>
       </c>
-      <c r="BZ63" s="221" t="s">
+      <c r="BZ63" s="222" t="s">
         <v>640</v>
       </c>
-      <c r="CA63" s="220"/>
-      <c r="CB63" s="220"/>
-      <c r="CC63" s="220"/>
+      <c r="CA63" s="221"/>
+      <c r="CB63" s="221"/>
+      <c r="CC63" s="221"/>
     </row>
     <row r="64" spans="2:81">
       <c r="B64" s="142">
@@ -17242,118 +17220,118 @@
       <c r="I64" s="141"/>
       <c r="J64" s="141"/>
       <c r="K64" s="141"/>
-      <c r="L64" s="149">
+      <c r="L64" s="150">
         <v>62</v>
       </c>
-      <c r="M64" s="149" t="s">
+      <c r="M64" s="150" t="s">
         <v>408</v>
       </c>
-      <c r="N64" s="149"/>
-      <c r="O64" s="149"/>
-      <c r="P64" s="150"/>
-      <c r="Q64" s="161">
+      <c r="N64" s="150"/>
+      <c r="O64" s="150"/>
+      <c r="P64" s="151"/>
+      <c r="Q64" s="162">
         <v>62</v>
       </c>
-      <c r="R64" s="161"/>
-      <c r="S64" s="161"/>
-      <c r="T64" s="161"/>
-      <c r="U64" s="161"/>
-      <c r="V64" s="162">
+      <c r="R64" s="162"/>
+      <c r="S64" s="162"/>
+      <c r="T64" s="162"/>
+      <c r="U64" s="162"/>
+      <c r="V64" s="163">
         <v>62</v>
       </c>
-      <c r="W64" s="162"/>
-      <c r="X64" s="162"/>
-      <c r="Y64" s="162"/>
-      <c r="Z64" s="162"/>
-      <c r="AA64" s="170">
+      <c r="W64" s="163"/>
+      <c r="X64" s="163"/>
+      <c r="Y64" s="163"/>
+      <c r="Z64" s="163"/>
+      <c r="AA64" s="171">
         <v>62</v>
       </c>
-      <c r="AB64" s="170"/>
-      <c r="AC64" s="170"/>
-      <c r="AD64" s="170"/>
-      <c r="AE64" s="170"/>
-      <c r="AF64" s="171">
+      <c r="AB64" s="171"/>
+      <c r="AC64" s="171"/>
+      <c r="AD64" s="171"/>
+      <c r="AE64" s="171"/>
+      <c r="AF64" s="172">
         <v>62</v>
       </c>
-      <c r="AG64" s="171" t="s">
+      <c r="AG64" s="172" t="s">
         <v>642</v>
       </c>
-      <c r="AH64" s="171"/>
-      <c r="AI64" s="171"/>
-      <c r="AJ64" s="171"/>
-      <c r="AK64" s="162">
+      <c r="AH64" s="172"/>
+      <c r="AI64" s="172"/>
+      <c r="AJ64" s="172"/>
+      <c r="AK64" s="163">
         <v>62</v>
       </c>
-      <c r="AL64" s="162"/>
-      <c r="AM64" s="162"/>
-      <c r="AN64" s="162"/>
-      <c r="AO64" s="162"/>
-      <c r="AP64" s="190">
+      <c r="AL64" s="163"/>
+      <c r="AM64" s="163"/>
+      <c r="AN64" s="163"/>
+      <c r="AO64" s="163"/>
+      <c r="AP64" s="191">
         <v>62</v>
       </c>
-      <c r="AQ64" s="190" t="s">
+      <c r="AQ64" s="191" t="s">
         <v>643</v>
       </c>
-      <c r="AR64" s="190"/>
-      <c r="AS64" s="190"/>
-      <c r="AT64" s="190"/>
-      <c r="AU64" s="191">
+      <c r="AR64" s="191"/>
+      <c r="AS64" s="191"/>
+      <c r="AT64" s="191"/>
+      <c r="AU64" s="192">
         <v>62</v>
       </c>
-      <c r="AV64" s="191" t="s">
+      <c r="AV64" s="192" t="s">
         <v>644</v>
       </c>
-      <c r="AW64" s="191"/>
-      <c r="AX64" s="191"/>
-      <c r="AY64" s="191"/>
-      <c r="AZ64" s="199">
+      <c r="AW64" s="192"/>
+      <c r="AX64" s="192"/>
+      <c r="AY64" s="192"/>
+      <c r="AZ64" s="200">
         <v>62</v>
       </c>
-      <c r="BA64" s="199"/>
-      <c r="BB64" s="199"/>
-      <c r="BC64" s="199"/>
-      <c r="BD64" s="199"/>
-      <c r="BE64" s="208">
+      <c r="BA64" s="200"/>
+      <c r="BB64" s="200"/>
+      <c r="BC64" s="200"/>
+      <c r="BD64" s="200"/>
+      <c r="BE64" s="209">
         <v>62</v>
       </c>
-      <c r="BF64" s="208"/>
-      <c r="BG64" s="208"/>
-      <c r="BH64" s="208"/>
-      <c r="BI64" s="208"/>
-      <c r="BJ64" s="207">
+      <c r="BF64" s="209"/>
+      <c r="BG64" s="209"/>
+      <c r="BH64" s="209"/>
+      <c r="BI64" s="209"/>
+      <c r="BJ64" s="208">
         <v>62</v>
       </c>
-      <c r="BK64" s="207"/>
-      <c r="BL64" s="207"/>
-      <c r="BM64" s="207"/>
-      <c r="BN64" s="207"/>
-      <c r="BO64" s="161">
+      <c r="BK64" s="208"/>
+      <c r="BL64" s="208"/>
+      <c r="BM64" s="208"/>
+      <c r="BN64" s="208"/>
+      <c r="BO64" s="162">
         <v>62</v>
       </c>
-      <c r="BP64" s="215" t="s">
+      <c r="BP64" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="BQ64" s="161"/>
-      <c r="BR64" s="161"/>
-      <c r="BS64" s="161"/>
-      <c r="BT64" s="213">
+      <c r="BQ64" s="162"/>
+      <c r="BR64" s="162"/>
+      <c r="BS64" s="162"/>
+      <c r="BT64" s="214">
         <v>62</v>
       </c>
-      <c r="BU64" s="213" t="s">
+      <c r="BU64" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="BV64" s="213"/>
-      <c r="BW64" s="213"/>
-      <c r="BX64" s="213"/>
-      <c r="BY64" s="220">
+      <c r="BV64" s="214"/>
+      <c r="BW64" s="214"/>
+      <c r="BX64" s="214"/>
+      <c r="BY64" s="221">
         <v>62</v>
       </c>
-      <c r="BZ64" s="221" t="s">
+      <c r="BZ64" s="222" t="s">
         <v>645</v>
       </c>
-      <c r="CA64" s="220"/>
-      <c r="CB64" s="220"/>
-      <c r="CC64" s="220"/>
+      <c r="CA64" s="221"/>
+      <c r="CB64" s="221"/>
+      <c r="CC64" s="221"/>
     </row>
     <row r="65" spans="2:81">
       <c r="B65" s="142">
@@ -17374,118 +17352,118 @@
       <c r="I65" s="141"/>
       <c r="J65" s="141"/>
       <c r="K65" s="141"/>
-      <c r="L65" s="149">
+      <c r="L65" s="150">
         <v>63</v>
       </c>
-      <c r="M65" s="149" t="s">
+      <c r="M65" s="150" t="s">
         <v>646</v>
       </c>
-      <c r="N65" s="149"/>
-      <c r="O65" s="149"/>
-      <c r="P65" s="150"/>
-      <c r="Q65" s="161">
+      <c r="N65" s="150"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="162">
         <v>63</v>
       </c>
-      <c r="R65" s="161"/>
-      <c r="S65" s="161"/>
-      <c r="T65" s="161"/>
-      <c r="U65" s="161"/>
-      <c r="V65" s="162">
+      <c r="R65" s="162"/>
+      <c r="S65" s="162"/>
+      <c r="T65" s="162"/>
+      <c r="U65" s="162"/>
+      <c r="V65" s="163">
         <v>63</v>
       </c>
-      <c r="W65" s="162"/>
-      <c r="X65" s="162"/>
-      <c r="Y65" s="162"/>
-      <c r="Z65" s="162"/>
-      <c r="AA65" s="170">
+      <c r="W65" s="163"/>
+      <c r="X65" s="163"/>
+      <c r="Y65" s="163"/>
+      <c r="Z65" s="163"/>
+      <c r="AA65" s="171">
         <v>63</v>
       </c>
-      <c r="AB65" s="170"/>
-      <c r="AC65" s="170"/>
-      <c r="AD65" s="170"/>
-      <c r="AE65" s="170"/>
-      <c r="AF65" s="171">
+      <c r="AB65" s="171"/>
+      <c r="AC65" s="171"/>
+      <c r="AD65" s="171"/>
+      <c r="AE65" s="171"/>
+      <c r="AF65" s="172">
         <v>63</v>
       </c>
-      <c r="AG65" s="171" t="s">
+      <c r="AG65" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="AH65" s="171"/>
-      <c r="AI65" s="171"/>
-      <c r="AJ65" s="171"/>
-      <c r="AK65" s="162">
+      <c r="AH65" s="172"/>
+      <c r="AI65" s="172"/>
+      <c r="AJ65" s="172"/>
+      <c r="AK65" s="163">
         <v>63</v>
       </c>
-      <c r="AL65" s="162"/>
-      <c r="AM65" s="162"/>
-      <c r="AN65" s="162"/>
-      <c r="AO65" s="162"/>
-      <c r="AP65" s="190">
+      <c r="AL65" s="163"/>
+      <c r="AM65" s="163"/>
+      <c r="AN65" s="163"/>
+      <c r="AO65" s="163"/>
+      <c r="AP65" s="191">
         <v>63</v>
       </c>
-      <c r="AQ65" s="190" t="s">
+      <c r="AQ65" s="191" t="s">
         <v>647</v>
       </c>
-      <c r="AR65" s="190"/>
-      <c r="AS65" s="190"/>
-      <c r="AT65" s="190"/>
-      <c r="AU65" s="191">
+      <c r="AR65" s="191"/>
+      <c r="AS65" s="191"/>
+      <c r="AT65" s="191"/>
+      <c r="AU65" s="192">
         <v>63</v>
       </c>
-      <c r="AV65" s="191" t="s">
+      <c r="AV65" s="192" t="s">
         <v>648</v>
       </c>
-      <c r="AW65" s="191"/>
-      <c r="AX65" s="191"/>
-      <c r="AY65" s="191"/>
-      <c r="AZ65" s="199">
+      <c r="AW65" s="192"/>
+      <c r="AX65" s="192"/>
+      <c r="AY65" s="192"/>
+      <c r="AZ65" s="200">
         <v>63</v>
       </c>
-      <c r="BA65" s="199"/>
-      <c r="BB65" s="199"/>
-      <c r="BC65" s="199"/>
-      <c r="BD65" s="199"/>
-      <c r="BE65" s="208">
+      <c r="BA65" s="200"/>
+      <c r="BB65" s="200"/>
+      <c r="BC65" s="200"/>
+      <c r="BD65" s="200"/>
+      <c r="BE65" s="209">
         <v>63</v>
       </c>
-      <c r="BF65" s="208"/>
-      <c r="BG65" s="208"/>
-      <c r="BH65" s="208"/>
-      <c r="BI65" s="208"/>
-      <c r="BJ65" s="207">
+      <c r="BF65" s="209"/>
+      <c r="BG65" s="209"/>
+      <c r="BH65" s="209"/>
+      <c r="BI65" s="209"/>
+      <c r="BJ65" s="208">
         <v>63</v>
       </c>
-      <c r="BK65" s="207"/>
-      <c r="BL65" s="207"/>
-      <c r="BM65" s="207"/>
-      <c r="BN65" s="207"/>
-      <c r="BO65" s="161">
+      <c r="BK65" s="208"/>
+      <c r="BL65" s="208"/>
+      <c r="BM65" s="208"/>
+      <c r="BN65" s="208"/>
+      <c r="BO65" s="162">
         <v>63</v>
       </c>
-      <c r="BP65" s="215" t="s">
+      <c r="BP65" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="BQ65" s="161"/>
-      <c r="BR65" s="161"/>
-      <c r="BS65" s="161"/>
-      <c r="BT65" s="213">
+      <c r="BQ65" s="162"/>
+      <c r="BR65" s="162"/>
+      <c r="BS65" s="162"/>
+      <c r="BT65" s="214">
         <v>63</v>
       </c>
-      <c r="BU65" s="213" t="s">
+      <c r="BU65" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="BV65" s="213"/>
-      <c r="BW65" s="213"/>
-      <c r="BX65" s="213"/>
-      <c r="BY65" s="220">
+      <c r="BV65" s="214"/>
+      <c r="BW65" s="214"/>
+      <c r="BX65" s="214"/>
+      <c r="BY65" s="221">
         <v>63</v>
       </c>
-      <c r="BZ65" s="221" t="s">
+      <c r="BZ65" s="222" t="s">
         <v>649</v>
       </c>
-      <c r="CA65" s="220"/>
-      <c r="CB65" s="220"/>
-      <c r="CC65" s="220"/>
+      <c r="CA65" s="221"/>
+      <c r="CB65" s="221"/>
+      <c r="CC65" s="221"/>
     </row>
     <row r="66" spans="2:81">
       <c r="B66" s="142">
@@ -17506,118 +17484,118 @@
       <c r="I66" s="141"/>
       <c r="J66" s="141"/>
       <c r="K66" s="141"/>
-      <c r="L66" s="149">
+      <c r="L66" s="150">
         <v>64</v>
       </c>
-      <c r="M66" s="149" t="s">
+      <c r="M66" s="150" t="s">
         <v>652</v>
       </c>
-      <c r="N66" s="149"/>
-      <c r="O66" s="149"/>
-      <c r="P66" s="150"/>
-      <c r="Q66" s="161">
+      <c r="N66" s="150"/>
+      <c r="O66" s="150"/>
+      <c r="P66" s="151"/>
+      <c r="Q66" s="162">
         <v>64</v>
       </c>
-      <c r="R66" s="161"/>
-      <c r="S66" s="161"/>
-      <c r="T66" s="161"/>
-      <c r="U66" s="161"/>
-      <c r="V66" s="162">
+      <c r="R66" s="162"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="162"/>
+      <c r="U66" s="162"/>
+      <c r="V66" s="163">
         <v>64</v>
       </c>
-      <c r="W66" s="162"/>
-      <c r="X66" s="162"/>
-      <c r="Y66" s="162"/>
-      <c r="Z66" s="162"/>
-      <c r="AA66" s="170">
+      <c r="W66" s="163"/>
+      <c r="X66" s="163"/>
+      <c r="Y66" s="163"/>
+      <c r="Z66" s="163"/>
+      <c r="AA66" s="171">
         <v>64</v>
       </c>
-      <c r="AB66" s="170"/>
-      <c r="AC66" s="170"/>
-      <c r="AD66" s="170"/>
-      <c r="AE66" s="170"/>
-      <c r="AF66" s="171">
+      <c r="AB66" s="171"/>
+      <c r="AC66" s="171"/>
+      <c r="AD66" s="171"/>
+      <c r="AE66" s="171"/>
+      <c r="AF66" s="172">
         <v>64</v>
       </c>
-      <c r="AG66" s="171" t="s">
+      <c r="AG66" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="AH66" s="171"/>
-      <c r="AI66" s="171"/>
-      <c r="AJ66" s="171"/>
-      <c r="AK66" s="162">
+      <c r="AH66" s="172"/>
+      <c r="AI66" s="172"/>
+      <c r="AJ66" s="172"/>
+      <c r="AK66" s="163">
         <v>64</v>
       </c>
-      <c r="AL66" s="162"/>
-      <c r="AM66" s="162"/>
-      <c r="AN66" s="162"/>
-      <c r="AO66" s="162"/>
-      <c r="AP66" s="190">
+      <c r="AL66" s="163"/>
+      <c r="AM66" s="163"/>
+      <c r="AN66" s="163"/>
+      <c r="AO66" s="163"/>
+      <c r="AP66" s="191">
         <v>64</v>
       </c>
-      <c r="AQ66" s="190" t="s">
+      <c r="AQ66" s="191" t="s">
         <v>653</v>
       </c>
-      <c r="AR66" s="190"/>
-      <c r="AS66" s="190"/>
-      <c r="AT66" s="190"/>
-      <c r="AU66" s="191">
+      <c r="AR66" s="191"/>
+      <c r="AS66" s="191"/>
+      <c r="AT66" s="191"/>
+      <c r="AU66" s="192">
         <v>64</v>
       </c>
-      <c r="AV66" s="191" t="s">
+      <c r="AV66" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="AW66" s="191"/>
-      <c r="AX66" s="191"/>
-      <c r="AY66" s="191"/>
-      <c r="AZ66" s="199">
+      <c r="AW66" s="192"/>
+      <c r="AX66" s="192"/>
+      <c r="AY66" s="192"/>
+      <c r="AZ66" s="200">
         <v>64</v>
       </c>
-      <c r="BA66" s="199"/>
-      <c r="BB66" s="199"/>
-      <c r="BC66" s="199"/>
-      <c r="BD66" s="199"/>
-      <c r="BE66" s="208">
+      <c r="BA66" s="200"/>
+      <c r="BB66" s="200"/>
+      <c r="BC66" s="200"/>
+      <c r="BD66" s="200"/>
+      <c r="BE66" s="209">
         <v>64</v>
       </c>
-      <c r="BF66" s="208"/>
-      <c r="BG66" s="208"/>
-      <c r="BH66" s="208"/>
-      <c r="BI66" s="208"/>
-      <c r="BJ66" s="207">
+      <c r="BF66" s="209"/>
+      <c r="BG66" s="209"/>
+      <c r="BH66" s="209"/>
+      <c r="BI66" s="209"/>
+      <c r="BJ66" s="208">
         <v>64</v>
       </c>
-      <c r="BK66" s="207"/>
-      <c r="BL66" s="207"/>
-      <c r="BM66" s="207"/>
-      <c r="BN66" s="207"/>
-      <c r="BO66" s="161">
+      <c r="BK66" s="208"/>
+      <c r="BL66" s="208"/>
+      <c r="BM66" s="208"/>
+      <c r="BN66" s="208"/>
+      <c r="BO66" s="162">
         <v>64</v>
       </c>
-      <c r="BP66" s="215" t="s">
+      <c r="BP66" s="216" t="s">
         <v>396</v>
       </c>
-      <c r="BQ66" s="161"/>
-      <c r="BR66" s="161"/>
-      <c r="BS66" s="161"/>
-      <c r="BT66" s="213">
+      <c r="BQ66" s="162"/>
+      <c r="BR66" s="162"/>
+      <c r="BS66" s="162"/>
+      <c r="BT66" s="214">
         <v>64</v>
       </c>
-      <c r="BU66" s="213" t="s">
+      <c r="BU66" s="214" t="s">
         <v>655</v>
       </c>
-      <c r="BV66" s="213"/>
-      <c r="BW66" s="213"/>
-      <c r="BX66" s="213"/>
-      <c r="BY66" s="220">
+      <c r="BV66" s="214"/>
+      <c r="BW66" s="214"/>
+      <c r="BX66" s="214"/>
+      <c r="BY66" s="221">
         <v>64</v>
       </c>
-      <c r="BZ66" s="221" t="s">
+      <c r="BZ66" s="222" t="s">
         <v>656</v>
       </c>
-      <c r="CA66" s="220"/>
-      <c r="CB66" s="220"/>
-      <c r="CC66" s="220"/>
+      <c r="CA66" s="221"/>
+      <c r="CB66" s="221"/>
+      <c r="CC66" s="221"/>
     </row>
     <row r="67" spans="2:81">
       <c r="B67" s="142">
@@ -17638,118 +17616,118 @@
       <c r="I67" s="141"/>
       <c r="J67" s="141"/>
       <c r="K67" s="141"/>
-      <c r="L67" s="149">
+      <c r="L67" s="150">
         <v>65</v>
       </c>
-      <c r="M67" s="149" t="s">
+      <c r="M67" s="150" t="s">
         <v>658</v>
       </c>
-      <c r="N67" s="149"/>
-      <c r="O67" s="149"/>
-      <c r="P67" s="150"/>
-      <c r="Q67" s="161">
+      <c r="N67" s="150"/>
+      <c r="O67" s="150"/>
+      <c r="P67" s="151"/>
+      <c r="Q67" s="162">
         <v>65</v>
       </c>
-      <c r="R67" s="161"/>
-      <c r="S67" s="161"/>
-      <c r="T67" s="161"/>
-      <c r="U67" s="161"/>
-      <c r="V67" s="162">
+      <c r="R67" s="162"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="162"/>
+      <c r="U67" s="162"/>
+      <c r="V67" s="163">
         <v>65</v>
       </c>
-      <c r="W67" s="162"/>
-      <c r="X67" s="162"/>
-      <c r="Y67" s="162"/>
-      <c r="Z67" s="162"/>
-      <c r="AA67" s="170">
+      <c r="W67" s="163"/>
+      <c r="X67" s="163"/>
+      <c r="Y67" s="163"/>
+      <c r="Z67" s="163"/>
+      <c r="AA67" s="171">
         <v>65</v>
       </c>
-      <c r="AB67" s="170"/>
-      <c r="AC67" s="170"/>
-      <c r="AD67" s="170"/>
-      <c r="AE67" s="170"/>
-      <c r="AF67" s="171">
+      <c r="AB67" s="171"/>
+      <c r="AC67" s="171"/>
+      <c r="AD67" s="171"/>
+      <c r="AE67" s="171"/>
+      <c r="AF67" s="172">
         <v>65</v>
       </c>
-      <c r="AG67" s="171" t="s">
+      <c r="AG67" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="AH67" s="171"/>
-      <c r="AI67" s="171"/>
-      <c r="AJ67" s="171"/>
-      <c r="AK67" s="162">
+      <c r="AH67" s="172"/>
+      <c r="AI67" s="172"/>
+      <c r="AJ67" s="172"/>
+      <c r="AK67" s="163">
         <v>65</v>
       </c>
-      <c r="AL67" s="162"/>
-      <c r="AM67" s="162"/>
-      <c r="AN67" s="162"/>
-      <c r="AO67" s="162"/>
-      <c r="AP67" s="190">
+      <c r="AL67" s="163"/>
+      <c r="AM67" s="163"/>
+      <c r="AN67" s="163"/>
+      <c r="AO67" s="163"/>
+      <c r="AP67" s="191">
         <v>65</v>
       </c>
-      <c r="AQ67" s="190" t="s">
+      <c r="AQ67" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="AR67" s="190"/>
-      <c r="AS67" s="190"/>
-      <c r="AT67" s="190"/>
-      <c r="AU67" s="191">
+      <c r="AR67" s="191"/>
+      <c r="AS67" s="191"/>
+      <c r="AT67" s="191"/>
+      <c r="AU67" s="192">
         <v>65</v>
       </c>
-      <c r="AV67" s="191" t="s">
+      <c r="AV67" s="192" t="s">
         <v>658</v>
       </c>
-      <c r="AW67" s="191"/>
-      <c r="AX67" s="191"/>
-      <c r="AY67" s="191"/>
-      <c r="AZ67" s="199">
+      <c r="AW67" s="192"/>
+      <c r="AX67" s="192"/>
+      <c r="AY67" s="192"/>
+      <c r="AZ67" s="200">
         <v>65</v>
       </c>
-      <c r="BA67" s="199"/>
-      <c r="BB67" s="199"/>
-      <c r="BC67" s="199"/>
-      <c r="BD67" s="199"/>
-      <c r="BE67" s="208">
+      <c r="BA67" s="200"/>
+      <c r="BB67" s="200"/>
+      <c r="BC67" s="200"/>
+      <c r="BD67" s="200"/>
+      <c r="BE67" s="209">
         <v>65</v>
       </c>
-      <c r="BF67" s="208"/>
-      <c r="BG67" s="208"/>
-      <c r="BH67" s="208"/>
-      <c r="BI67" s="208"/>
-      <c r="BJ67" s="207">
+      <c r="BF67" s="209"/>
+      <c r="BG67" s="209"/>
+      <c r="BH67" s="209"/>
+      <c r="BI67" s="209"/>
+      <c r="BJ67" s="208">
         <v>65</v>
       </c>
-      <c r="BK67" s="207"/>
-      <c r="BL67" s="207"/>
-      <c r="BM67" s="207"/>
-      <c r="BN67" s="207"/>
-      <c r="BO67" s="161">
+      <c r="BK67" s="208"/>
+      <c r="BL67" s="208"/>
+      <c r="BM67" s="208"/>
+      <c r="BN67" s="208"/>
+      <c r="BO67" s="162">
         <v>65</v>
       </c>
-      <c r="BP67" s="215" t="s">
+      <c r="BP67" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="BQ67" s="161"/>
-      <c r="BR67" s="161"/>
-      <c r="BS67" s="161"/>
-      <c r="BT67" s="213">
+      <c r="BQ67" s="162"/>
+      <c r="BR67" s="162"/>
+      <c r="BS67" s="162"/>
+      <c r="BT67" s="214">
         <v>65</v>
       </c>
-      <c r="BU67" s="213" t="s">
+      <c r="BU67" s="214" t="s">
         <v>659</v>
       </c>
-      <c r="BV67" s="213"/>
-      <c r="BW67" s="213"/>
-      <c r="BX67" s="213"/>
-      <c r="BY67" s="220">
+      <c r="BV67" s="214"/>
+      <c r="BW67" s="214"/>
+      <c r="BX67" s="214"/>
+      <c r="BY67" s="221">
         <v>65</v>
       </c>
-      <c r="BZ67" s="221" t="s">
+      <c r="BZ67" s="222" t="s">
         <v>660</v>
       </c>
-      <c r="CA67" s="220"/>
-      <c r="CB67" s="220"/>
-      <c r="CC67" s="220"/>
+      <c r="CA67" s="221"/>
+      <c r="CB67" s="221"/>
+      <c r="CC67" s="221"/>
     </row>
     <row r="68" spans="2:81">
       <c r="B68" s="142">
@@ -17770,118 +17748,118 @@
       <c r="I68" s="141"/>
       <c r="J68" s="141"/>
       <c r="K68" s="141"/>
-      <c r="L68" s="149">
+      <c r="L68" s="150">
         <v>66</v>
       </c>
-      <c r="M68" s="149" t="s">
+      <c r="M68" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="N68" s="149"/>
-      <c r="O68" s="149"/>
-      <c r="P68" s="150"/>
-      <c r="Q68" s="161">
+      <c r="N68" s="150"/>
+      <c r="O68" s="150"/>
+      <c r="P68" s="151"/>
+      <c r="Q68" s="162">
         <v>66</v>
       </c>
-      <c r="R68" s="161"/>
-      <c r="S68" s="161"/>
-      <c r="T68" s="161"/>
-      <c r="U68" s="161"/>
-      <c r="V68" s="162">
+      <c r="R68" s="162"/>
+      <c r="S68" s="162"/>
+      <c r="T68" s="162"/>
+      <c r="U68" s="162"/>
+      <c r="V68" s="163">
         <v>66</v>
       </c>
-      <c r="W68" s="162"/>
-      <c r="X68" s="162"/>
-      <c r="Y68" s="162"/>
-      <c r="Z68" s="162"/>
-      <c r="AA68" s="170">
+      <c r="W68" s="163"/>
+      <c r="X68" s="163"/>
+      <c r="Y68" s="163"/>
+      <c r="Z68" s="163"/>
+      <c r="AA68" s="171">
         <v>66</v>
       </c>
-      <c r="AB68" s="170"/>
-      <c r="AC68" s="170"/>
-      <c r="AD68" s="170"/>
-      <c r="AE68" s="170"/>
-      <c r="AF68" s="171">
+      <c r="AB68" s="171"/>
+      <c r="AC68" s="171"/>
+      <c r="AD68" s="171"/>
+      <c r="AE68" s="171"/>
+      <c r="AF68" s="172">
         <v>66</v>
       </c>
-      <c r="AG68" s="171" t="s">
+      <c r="AG68" s="172" t="s">
         <v>200</v>
       </c>
-      <c r="AH68" s="171"/>
-      <c r="AI68" s="171"/>
-      <c r="AJ68" s="171"/>
-      <c r="AK68" s="162">
+      <c r="AH68" s="172"/>
+      <c r="AI68" s="172"/>
+      <c r="AJ68" s="172"/>
+      <c r="AK68" s="163">
         <v>66</v>
       </c>
-      <c r="AL68" s="162"/>
-      <c r="AM68" s="162"/>
-      <c r="AN68" s="162"/>
-      <c r="AO68" s="162"/>
-      <c r="AP68" s="190">
+      <c r="AL68" s="163"/>
+      <c r="AM68" s="163"/>
+      <c r="AN68" s="163"/>
+      <c r="AO68" s="163"/>
+      <c r="AP68" s="191">
         <v>66</v>
       </c>
-      <c r="AQ68" s="190" t="s">
+      <c r="AQ68" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="AR68" s="190"/>
-      <c r="AS68" s="190"/>
-      <c r="AT68" s="190"/>
-      <c r="AU68" s="191">
+      <c r="AR68" s="191"/>
+      <c r="AS68" s="191"/>
+      <c r="AT68" s="191"/>
+      <c r="AU68" s="192">
         <v>66</v>
       </c>
-      <c r="AV68" s="191" t="s">
+      <c r="AV68" s="192" t="s">
         <v>418</v>
       </c>
-      <c r="AW68" s="191"/>
-      <c r="AX68" s="191"/>
-      <c r="AY68" s="191"/>
-      <c r="AZ68" s="199">
+      <c r="AW68" s="192"/>
+      <c r="AX68" s="192"/>
+      <c r="AY68" s="192"/>
+      <c r="AZ68" s="200">
         <v>66</v>
       </c>
-      <c r="BA68" s="199"/>
-      <c r="BB68" s="199"/>
-      <c r="BC68" s="199"/>
-      <c r="BD68" s="199"/>
-      <c r="BE68" s="208">
+      <c r="BA68" s="200"/>
+      <c r="BB68" s="200"/>
+      <c r="BC68" s="200"/>
+      <c r="BD68" s="200"/>
+      <c r="BE68" s="209">
         <v>66</v>
       </c>
-      <c r="BF68" s="208"/>
-      <c r="BG68" s="208"/>
-      <c r="BH68" s="208"/>
-      <c r="BI68" s="208"/>
-      <c r="BJ68" s="207">
+      <c r="BF68" s="209"/>
+      <c r="BG68" s="209"/>
+      <c r="BH68" s="209"/>
+      <c r="BI68" s="209"/>
+      <c r="BJ68" s="208">
         <v>66</v>
       </c>
-      <c r="BK68" s="207"/>
-      <c r="BL68" s="207"/>
-      <c r="BM68" s="207"/>
-      <c r="BN68" s="207"/>
-      <c r="BO68" s="161">
+      <c r="BK68" s="208"/>
+      <c r="BL68" s="208"/>
+      <c r="BM68" s="208"/>
+      <c r="BN68" s="208"/>
+      <c r="BO68" s="162">
         <v>66</v>
       </c>
-      <c r="BP68" s="215" t="s">
+      <c r="BP68" s="216" t="s">
         <v>575</v>
       </c>
-      <c r="BQ68" s="161"/>
-      <c r="BR68" s="161"/>
-      <c r="BS68" s="161"/>
-      <c r="BT68" s="213">
+      <c r="BQ68" s="162"/>
+      <c r="BR68" s="162"/>
+      <c r="BS68" s="162"/>
+      <c r="BT68" s="214">
         <v>66</v>
       </c>
-      <c r="BU68" s="213" t="s">
+      <c r="BU68" s="214" t="s">
         <v>413</v>
       </c>
-      <c r="BV68" s="213"/>
-      <c r="BW68" s="213"/>
-      <c r="BX68" s="213"/>
-      <c r="BY68" s="220">
+      <c r="BV68" s="214"/>
+      <c r="BW68" s="214"/>
+      <c r="BX68" s="214"/>
+      <c r="BY68" s="221">
         <v>66</v>
       </c>
-      <c r="BZ68" s="221" t="s">
+      <c r="BZ68" s="222" t="s">
         <v>662</v>
       </c>
-      <c r="CA68" s="220"/>
-      <c r="CB68" s="220"/>
-      <c r="CC68" s="220"/>
+      <c r="CA68" s="221"/>
+      <c r="CB68" s="221"/>
+      <c r="CC68" s="221"/>
     </row>
     <row r="69" spans="2:81">
       <c r="B69" s="142">
@@ -17902,118 +17880,118 @@
       <c r="I69" s="141"/>
       <c r="J69" s="141"/>
       <c r="K69" s="141"/>
-      <c r="L69" s="149">
+      <c r="L69" s="150">
         <v>67</v>
       </c>
-      <c r="M69" s="149" t="s">
+      <c r="M69" s="150" t="s">
         <v>413</v>
       </c>
-      <c r="N69" s="149"/>
-      <c r="O69" s="149"/>
-      <c r="P69" s="150"/>
-      <c r="Q69" s="161">
+      <c r="N69" s="150"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="151"/>
+      <c r="Q69" s="162">
         <v>67</v>
       </c>
-      <c r="R69" s="161"/>
-      <c r="S69" s="161"/>
-      <c r="T69" s="161"/>
-      <c r="U69" s="161"/>
-      <c r="V69" s="162">
+      <c r="R69" s="162"/>
+      <c r="S69" s="162"/>
+      <c r="T69" s="162"/>
+      <c r="U69" s="162"/>
+      <c r="V69" s="163">
         <v>67</v>
       </c>
-      <c r="W69" s="162"/>
-      <c r="X69" s="162"/>
-      <c r="Y69" s="162"/>
-      <c r="Z69" s="162"/>
-      <c r="AA69" s="170">
+      <c r="W69" s="163"/>
+      <c r="X69" s="163"/>
+      <c r="Y69" s="163"/>
+      <c r="Z69" s="163"/>
+      <c r="AA69" s="171">
         <v>67</v>
       </c>
-      <c r="AB69" s="170"/>
-      <c r="AC69" s="170"/>
-      <c r="AD69" s="170"/>
-      <c r="AE69" s="170"/>
-      <c r="AF69" s="171">
+      <c r="AB69" s="171"/>
+      <c r="AC69" s="171"/>
+      <c r="AD69" s="171"/>
+      <c r="AE69" s="171"/>
+      <c r="AF69" s="172">
         <v>67</v>
       </c>
-      <c r="AG69" s="171" t="s">
+      <c r="AG69" s="172" t="s">
         <v>665</v>
       </c>
-      <c r="AH69" s="171"/>
-      <c r="AI69" s="171"/>
-      <c r="AJ69" s="171"/>
-      <c r="AK69" s="162">
+      <c r="AH69" s="172"/>
+      <c r="AI69" s="172"/>
+      <c r="AJ69" s="172"/>
+      <c r="AK69" s="163">
         <v>67</v>
       </c>
-      <c r="AL69" s="162"/>
-      <c r="AM69" s="162"/>
-      <c r="AN69" s="162"/>
-      <c r="AO69" s="162"/>
-      <c r="AP69" s="190">
+      <c r="AL69" s="163"/>
+      <c r="AM69" s="163"/>
+      <c r="AN69" s="163"/>
+      <c r="AO69" s="163"/>
+      <c r="AP69" s="191">
         <v>67</v>
       </c>
-      <c r="AQ69" s="190" t="s">
+      <c r="AQ69" s="191" t="s">
         <v>666</v>
       </c>
-      <c r="AR69" s="190"/>
-      <c r="AS69" s="190"/>
-      <c r="AT69" s="190"/>
-      <c r="AU69" s="191">
+      <c r="AR69" s="191"/>
+      <c r="AS69" s="191"/>
+      <c r="AT69" s="191"/>
+      <c r="AU69" s="192">
         <v>67</v>
       </c>
-      <c r="AV69" s="191" t="s">
+      <c r="AV69" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="AW69" s="191"/>
-      <c r="AX69" s="191"/>
-      <c r="AY69" s="191"/>
-      <c r="AZ69" s="199">
+      <c r="AW69" s="192"/>
+      <c r="AX69" s="192"/>
+      <c r="AY69" s="192"/>
+      <c r="AZ69" s="200">
         <v>67</v>
       </c>
-      <c r="BA69" s="199"/>
-      <c r="BB69" s="199"/>
-      <c r="BC69" s="199"/>
-      <c r="BD69" s="199"/>
-      <c r="BE69" s="208">
+      <c r="BA69" s="200"/>
+      <c r="BB69" s="200"/>
+      <c r="BC69" s="200"/>
+      <c r="BD69" s="200"/>
+      <c r="BE69" s="209">
         <v>67</v>
       </c>
-      <c r="BF69" s="208"/>
-      <c r="BG69" s="208"/>
-      <c r="BH69" s="208"/>
-      <c r="BI69" s="208"/>
-      <c r="BJ69" s="207">
+      <c r="BF69" s="209"/>
+      <c r="BG69" s="209"/>
+      <c r="BH69" s="209"/>
+      <c r="BI69" s="209"/>
+      <c r="BJ69" s="208">
         <v>67</v>
       </c>
-      <c r="BK69" s="207"/>
-      <c r="BL69" s="207"/>
-      <c r="BM69" s="207"/>
-      <c r="BN69" s="207"/>
-      <c r="BO69" s="161">
+      <c r="BK69" s="208"/>
+      <c r="BL69" s="208"/>
+      <c r="BM69" s="208"/>
+      <c r="BN69" s="208"/>
+      <c r="BO69" s="162">
         <v>67</v>
       </c>
-      <c r="BP69" s="215" t="s">
+      <c r="BP69" s="216" t="s">
         <v>612</v>
       </c>
-      <c r="BQ69" s="161"/>
-      <c r="BR69" s="161"/>
-      <c r="BS69" s="161"/>
-      <c r="BT69" s="213">
+      <c r="BQ69" s="162"/>
+      <c r="BR69" s="162"/>
+      <c r="BS69" s="162"/>
+      <c r="BT69" s="214">
         <v>67</v>
       </c>
-      <c r="BU69" s="213" t="s">
+      <c r="BU69" s="214" t="s">
         <v>659</v>
       </c>
-      <c r="BV69" s="213"/>
-      <c r="BW69" s="213"/>
-      <c r="BX69" s="213"/>
-      <c r="BY69" s="220">
+      <c r="BV69" s="214"/>
+      <c r="BW69" s="214"/>
+      <c r="BX69" s="214"/>
+      <c r="BY69" s="221">
         <v>67</v>
       </c>
-      <c r="BZ69" s="221" t="s">
+      <c r="BZ69" s="222" t="s">
         <v>667</v>
       </c>
-      <c r="CA69" s="220"/>
-      <c r="CB69" s="220"/>
-      <c r="CC69" s="220"/>
+      <c r="CA69" s="221"/>
+      <c r="CB69" s="221"/>
+      <c r="CC69" s="221"/>
     </row>
     <row r="70" spans="2:81">
       <c r="B70" s="142">
@@ -18034,118 +18012,118 @@
       <c r="I70" s="141"/>
       <c r="J70" s="141"/>
       <c r="K70" s="141"/>
-      <c r="L70" s="149">
+      <c r="L70" s="150">
         <v>68</v>
       </c>
-      <c r="M70" s="149" t="s">
+      <c r="M70" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="N70" s="149"/>
-      <c r="O70" s="149"/>
-      <c r="P70" s="150"/>
-      <c r="Q70" s="161">
+      <c r="N70" s="150"/>
+      <c r="O70" s="150"/>
+      <c r="P70" s="151"/>
+      <c r="Q70" s="162">
         <v>68</v>
       </c>
-      <c r="R70" s="161"/>
-      <c r="S70" s="161"/>
-      <c r="T70" s="161"/>
-      <c r="U70" s="161"/>
-      <c r="V70" s="162">
+      <c r="R70" s="162"/>
+      <c r="S70" s="162"/>
+      <c r="T70" s="162"/>
+      <c r="U70" s="162"/>
+      <c r="V70" s="163">
         <v>68</v>
       </c>
-      <c r="W70" s="162"/>
-      <c r="X70" s="162"/>
-      <c r="Y70" s="162"/>
-      <c r="Z70" s="162"/>
-      <c r="AA70" s="170">
+      <c r="W70" s="163"/>
+      <c r="X70" s="163"/>
+      <c r="Y70" s="163"/>
+      <c r="Z70" s="163"/>
+      <c r="AA70" s="171">
         <v>68</v>
       </c>
-      <c r="AB70" s="170"/>
-      <c r="AC70" s="170"/>
-      <c r="AD70" s="170"/>
-      <c r="AE70" s="170"/>
-      <c r="AF70" s="171">
+      <c r="AB70" s="171"/>
+      <c r="AC70" s="171"/>
+      <c r="AD70" s="171"/>
+      <c r="AE70" s="171"/>
+      <c r="AF70" s="172">
         <v>68</v>
       </c>
-      <c r="AG70" s="171" t="s">
+      <c r="AG70" s="172" t="s">
         <v>669</v>
       </c>
-      <c r="AH70" s="171"/>
-      <c r="AI70" s="171"/>
-      <c r="AJ70" s="171"/>
-      <c r="AK70" s="162">
+      <c r="AH70" s="172"/>
+      <c r="AI70" s="172"/>
+      <c r="AJ70" s="172"/>
+      <c r="AK70" s="163">
         <v>68</v>
       </c>
-      <c r="AL70" s="162"/>
-      <c r="AM70" s="162"/>
-      <c r="AN70" s="162"/>
-      <c r="AO70" s="162"/>
-      <c r="AP70" s="190">
+      <c r="AL70" s="163"/>
+      <c r="AM70" s="163"/>
+      <c r="AN70" s="163"/>
+      <c r="AO70" s="163"/>
+      <c r="AP70" s="191">
         <v>68</v>
       </c>
-      <c r="AQ70" s="190" t="s">
+      <c r="AQ70" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="AR70" s="190"/>
-      <c r="AS70" s="190"/>
-      <c r="AT70" s="190"/>
-      <c r="AU70" s="191">
+      <c r="AR70" s="191"/>
+      <c r="AS70" s="191"/>
+      <c r="AT70" s="191"/>
+      <c r="AU70" s="192">
         <v>68</v>
       </c>
-      <c r="AV70" s="191" t="s">
+      <c r="AV70" s="192" t="s">
         <v>666</v>
       </c>
-      <c r="AW70" s="191"/>
-      <c r="AX70" s="191"/>
-      <c r="AY70" s="191"/>
-      <c r="AZ70" s="199">
+      <c r="AW70" s="192"/>
+      <c r="AX70" s="192"/>
+      <c r="AY70" s="192"/>
+      <c r="AZ70" s="200">
         <v>68</v>
       </c>
-      <c r="BA70" s="199"/>
-      <c r="BB70" s="199"/>
-      <c r="BC70" s="199"/>
-      <c r="BD70" s="199"/>
-      <c r="BE70" s="208">
+      <c r="BA70" s="200"/>
+      <c r="BB70" s="200"/>
+      <c r="BC70" s="200"/>
+      <c r="BD70" s="200"/>
+      <c r="BE70" s="209">
         <v>68</v>
       </c>
-      <c r="BF70" s="208"/>
-      <c r="BG70" s="208"/>
-      <c r="BH70" s="208"/>
-      <c r="BI70" s="208"/>
-      <c r="BJ70" s="207">
+      <c r="BF70" s="209"/>
+      <c r="BG70" s="209"/>
+      <c r="BH70" s="209"/>
+      <c r="BI70" s="209"/>
+      <c r="BJ70" s="208">
         <v>68</v>
       </c>
-      <c r="BK70" s="207"/>
-      <c r="BL70" s="207"/>
-      <c r="BM70" s="207"/>
-      <c r="BN70" s="207"/>
-      <c r="BO70" s="161">
+      <c r="BK70" s="208"/>
+      <c r="BL70" s="208"/>
+      <c r="BM70" s="208"/>
+      <c r="BN70" s="208"/>
+      <c r="BO70" s="162">
         <v>68</v>
       </c>
-      <c r="BP70" s="215" t="s">
+      <c r="BP70" s="216" t="s">
         <v>670</v>
       </c>
-      <c r="BQ70" s="161"/>
-      <c r="BR70" s="161"/>
-      <c r="BS70" s="161"/>
-      <c r="BT70" s="213">
+      <c r="BQ70" s="162"/>
+      <c r="BR70" s="162"/>
+      <c r="BS70" s="162"/>
+      <c r="BT70" s="214">
         <v>68</v>
       </c>
-      <c r="BU70" s="213" t="s">
+      <c r="BU70" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="BV70" s="213"/>
-      <c r="BW70" s="213"/>
-      <c r="BX70" s="213"/>
-      <c r="BY70" s="220">
+      <c r="BV70" s="214"/>
+      <c r="BW70" s="214"/>
+      <c r="BX70" s="214"/>
+      <c r="BY70" s="221">
         <v>68</v>
       </c>
-      <c r="BZ70" s="221" t="s">
+      <c r="BZ70" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="CA70" s="220"/>
-      <c r="CB70" s="220"/>
-      <c r="CC70" s="220"/>
+      <c r="CA70" s="221"/>
+      <c r="CB70" s="221"/>
+      <c r="CC70" s="221"/>
     </row>
     <row r="71" spans="2:81">
       <c r="B71" s="142">
@@ -18166,118 +18144,118 @@
       <c r="I71" s="141"/>
       <c r="J71" s="141"/>
       <c r="K71" s="141"/>
-      <c r="L71" s="149">
+      <c r="L71" s="150">
         <v>69</v>
       </c>
-      <c r="M71" s="149" t="s">
+      <c r="M71" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="N71" s="149"/>
-      <c r="O71" s="149"/>
-      <c r="P71" s="150"/>
-      <c r="Q71" s="161">
+      <c r="N71" s="150"/>
+      <c r="O71" s="150"/>
+      <c r="P71" s="151"/>
+      <c r="Q71" s="162">
         <v>69</v>
       </c>
-      <c r="R71" s="161"/>
-      <c r="S71" s="161"/>
-      <c r="T71" s="161"/>
-      <c r="U71" s="161"/>
-      <c r="V71" s="162">
+      <c r="R71" s="162"/>
+      <c r="S71" s="162"/>
+      <c r="T71" s="162"/>
+      <c r="U71" s="162"/>
+      <c r="V71" s="163">
         <v>69</v>
       </c>
-      <c r="W71" s="162"/>
-      <c r="X71" s="162"/>
-      <c r="Y71" s="162"/>
-      <c r="Z71" s="162"/>
-      <c r="AA71" s="170">
+      <c r="W71" s="163"/>
+      <c r="X71" s="163"/>
+      <c r="Y71" s="163"/>
+      <c r="Z71" s="163"/>
+      <c r="AA71" s="171">
         <v>69</v>
       </c>
-      <c r="AB71" s="170"/>
-      <c r="AC71" s="170"/>
-      <c r="AD71" s="170"/>
-      <c r="AE71" s="170"/>
-      <c r="AF71" s="171">
+      <c r="AB71" s="171"/>
+      <c r="AC71" s="171"/>
+      <c r="AD71" s="171"/>
+      <c r="AE71" s="171"/>
+      <c r="AF71" s="172">
         <v>69</v>
       </c>
-      <c r="AG71" s="171" t="s">
+      <c r="AG71" s="172" t="s">
         <v>673</v>
       </c>
-      <c r="AH71" s="171"/>
-      <c r="AI71" s="171"/>
-      <c r="AJ71" s="171"/>
-      <c r="AK71" s="162">
+      <c r="AH71" s="172"/>
+      <c r="AI71" s="172"/>
+      <c r="AJ71" s="172"/>
+      <c r="AK71" s="163">
         <v>69</v>
       </c>
-      <c r="AL71" s="162"/>
-      <c r="AM71" s="162"/>
-      <c r="AN71" s="162"/>
-      <c r="AO71" s="162"/>
-      <c r="AP71" s="190">
+      <c r="AL71" s="163"/>
+      <c r="AM71" s="163"/>
+      <c r="AN71" s="163"/>
+      <c r="AO71" s="163"/>
+      <c r="AP71" s="191">
         <v>69</v>
       </c>
-      <c r="AQ71" s="190" t="s">
+      <c r="AQ71" s="191" t="s">
         <v>628</v>
       </c>
-      <c r="AR71" s="190"/>
-      <c r="AS71" s="190"/>
-      <c r="AT71" s="190"/>
-      <c r="AU71" s="191">
+      <c r="AR71" s="191"/>
+      <c r="AS71" s="191"/>
+      <c r="AT71" s="191"/>
+      <c r="AU71" s="192">
         <v>69</v>
       </c>
-      <c r="AV71" s="191" t="s">
+      <c r="AV71" s="192" t="s">
         <v>674</v>
       </c>
-      <c r="AW71" s="191"/>
-      <c r="AX71" s="191"/>
-      <c r="AY71" s="191"/>
-      <c r="AZ71" s="199">
+      <c r="AW71" s="192"/>
+      <c r="AX71" s="192"/>
+      <c r="AY71" s="192"/>
+      <c r="AZ71" s="200">
         <v>69</v>
       </c>
-      <c r="BA71" s="199"/>
-      <c r="BB71" s="199"/>
-      <c r="BC71" s="199"/>
-      <c r="BD71" s="199"/>
-      <c r="BE71" s="208">
+      <c r="BA71" s="200"/>
+      <c r="BB71" s="200"/>
+      <c r="BC71" s="200"/>
+      <c r="BD71" s="200"/>
+      <c r="BE71" s="209">
         <v>69</v>
       </c>
-      <c r="BF71" s="208"/>
-      <c r="BG71" s="208"/>
-      <c r="BH71" s="208"/>
-      <c r="BI71" s="208"/>
-      <c r="BJ71" s="207">
+      <c r="BF71" s="209"/>
+      <c r="BG71" s="209"/>
+      <c r="BH71" s="209"/>
+      <c r="BI71" s="209"/>
+      <c r="BJ71" s="208">
         <v>69</v>
       </c>
-      <c r="BK71" s="207"/>
-      <c r="BL71" s="207"/>
-      <c r="BM71" s="207"/>
-      <c r="BN71" s="207"/>
-      <c r="BO71" s="161">
+      <c r="BK71" s="208"/>
+      <c r="BL71" s="208"/>
+      <c r="BM71" s="208"/>
+      <c r="BN71" s="208"/>
+      <c r="BO71" s="162">
         <v>69</v>
       </c>
-      <c r="BP71" s="215" t="s">
+      <c r="BP71" s="216" t="s">
         <v>675</v>
       </c>
-      <c r="BQ71" s="161"/>
-      <c r="BR71" s="161"/>
-      <c r="BS71" s="161"/>
-      <c r="BT71" s="213">
+      <c r="BQ71" s="162"/>
+      <c r="BR71" s="162"/>
+      <c r="BS71" s="162"/>
+      <c r="BT71" s="214">
         <v>69</v>
       </c>
-      <c r="BU71" s="213" t="s">
+      <c r="BU71" s="214" t="s">
         <v>676</v>
       </c>
-      <c r="BV71" s="213"/>
-      <c r="BW71" s="213"/>
-      <c r="BX71" s="213"/>
-      <c r="BY71" s="220">
+      <c r="BV71" s="214"/>
+      <c r="BW71" s="214"/>
+      <c r="BX71" s="214"/>
+      <c r="BY71" s="221">
         <v>69</v>
       </c>
-      <c r="BZ71" s="221" t="s">
+      <c r="BZ71" s="222" t="s">
         <v>437</v>
       </c>
-      <c r="CA71" s="220"/>
-      <c r="CB71" s="220"/>
-      <c r="CC71" s="220"/>
+      <c r="CA71" s="221"/>
+      <c r="CB71" s="221"/>
+      <c r="CC71" s="221"/>
     </row>
     <row r="72" spans="2:81">
       <c r="B72" s="142">
@@ -18298,118 +18276,118 @@
       <c r="I72" s="141"/>
       <c r="J72" s="141"/>
       <c r="K72" s="141"/>
-      <c r="L72" s="149">
+      <c r="L72" s="150">
         <v>70</v>
       </c>
-      <c r="M72" s="149" t="s">
+      <c r="M72" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="N72" s="149"/>
-      <c r="O72" s="149"/>
-      <c r="P72" s="150"/>
-      <c r="Q72" s="161">
+      <c r="N72" s="150"/>
+      <c r="O72" s="150"/>
+      <c r="P72" s="151"/>
+      <c r="Q72" s="162">
         <v>70</v>
       </c>
-      <c r="R72" s="161"/>
-      <c r="S72" s="161"/>
-      <c r="T72" s="161"/>
-      <c r="U72" s="161"/>
-      <c r="V72" s="162">
+      <c r="R72" s="162"/>
+      <c r="S72" s="162"/>
+      <c r="T72" s="162"/>
+      <c r="U72" s="162"/>
+      <c r="V72" s="163">
         <v>70</v>
       </c>
-      <c r="W72" s="162"/>
-      <c r="X72" s="162"/>
-      <c r="Y72" s="162"/>
-      <c r="Z72" s="162"/>
-      <c r="AA72" s="170">
+      <c r="W72" s="163"/>
+      <c r="X72" s="163"/>
+      <c r="Y72" s="163"/>
+      <c r="Z72" s="163"/>
+      <c r="AA72" s="171">
         <v>70</v>
       </c>
-      <c r="AB72" s="170"/>
-      <c r="AC72" s="170"/>
-      <c r="AD72" s="170"/>
-      <c r="AE72" s="170"/>
-      <c r="AF72" s="171">
+      <c r="AB72" s="171"/>
+      <c r="AC72" s="171"/>
+      <c r="AD72" s="171"/>
+      <c r="AE72" s="171"/>
+      <c r="AF72" s="172">
         <v>70</v>
       </c>
-      <c r="AG72" s="171" t="s">
+      <c r="AG72" s="172" t="s">
         <v>679</v>
       </c>
-      <c r="AH72" s="171"/>
-      <c r="AI72" s="171"/>
-      <c r="AJ72" s="171"/>
-      <c r="AK72" s="162">
+      <c r="AH72" s="172"/>
+      <c r="AI72" s="172"/>
+      <c r="AJ72" s="172"/>
+      <c r="AK72" s="163">
         <v>70</v>
       </c>
-      <c r="AL72" s="162"/>
-      <c r="AM72" s="162"/>
-      <c r="AN72" s="162"/>
-      <c r="AO72" s="162"/>
-      <c r="AP72" s="190">
+      <c r="AL72" s="163"/>
+      <c r="AM72" s="163"/>
+      <c r="AN72" s="163"/>
+      <c r="AO72" s="163"/>
+      <c r="AP72" s="191">
         <v>70</v>
       </c>
-      <c r="AQ72" s="190" t="s">
+      <c r="AQ72" s="191" t="s">
         <v>680</v>
       </c>
-      <c r="AR72" s="190"/>
-      <c r="AS72" s="190"/>
-      <c r="AT72" s="190"/>
-      <c r="AU72" s="191">
+      <c r="AR72" s="191"/>
+      <c r="AS72" s="191"/>
+      <c r="AT72" s="191"/>
+      <c r="AU72" s="192">
         <v>70</v>
       </c>
-      <c r="AV72" s="191" t="s">
+      <c r="AV72" s="192" t="s">
         <v>354</v>
       </c>
-      <c r="AW72" s="191"/>
-      <c r="AX72" s="191"/>
-      <c r="AY72" s="191"/>
-      <c r="AZ72" s="199">
+      <c r="AW72" s="192"/>
+      <c r="AX72" s="192"/>
+      <c r="AY72" s="192"/>
+      <c r="AZ72" s="200">
         <v>70</v>
       </c>
-      <c r="BA72" s="199"/>
-      <c r="BB72" s="199"/>
-      <c r="BC72" s="199"/>
-      <c r="BD72" s="199"/>
-      <c r="BE72" s="208">
+      <c r="BA72" s="200"/>
+      <c r="BB72" s="200"/>
+      <c r="BC72" s="200"/>
+      <c r="BD72" s="200"/>
+      <c r="BE72" s="209">
         <v>70</v>
       </c>
-      <c r="BF72" s="208"/>
-      <c r="BG72" s="208"/>
-      <c r="BH72" s="208"/>
-      <c r="BI72" s="208"/>
-      <c r="BJ72" s="207">
+      <c r="BF72" s="209"/>
+      <c r="BG72" s="209"/>
+      <c r="BH72" s="209"/>
+      <c r="BI72" s="209"/>
+      <c r="BJ72" s="208">
         <v>70</v>
       </c>
-      <c r="BK72" s="207"/>
-      <c r="BL72" s="207"/>
-      <c r="BM72" s="207"/>
-      <c r="BN72" s="207"/>
-      <c r="BO72" s="161">
+      <c r="BK72" s="208"/>
+      <c r="BL72" s="208"/>
+      <c r="BM72" s="208"/>
+      <c r="BN72" s="208"/>
+      <c r="BO72" s="162">
         <v>70</v>
       </c>
-      <c r="BP72" s="215" t="s">
+      <c r="BP72" s="216" t="s">
         <v>681</v>
       </c>
-      <c r="BQ72" s="161"/>
-      <c r="BR72" s="161"/>
-      <c r="BS72" s="161"/>
-      <c r="BT72" s="213">
+      <c r="BQ72" s="162"/>
+      <c r="BR72" s="162"/>
+      <c r="BS72" s="162"/>
+      <c r="BT72" s="214">
         <v>70</v>
       </c>
-      <c r="BU72" s="213" t="s">
+      <c r="BU72" s="214" t="s">
         <v>682</v>
       </c>
-      <c r="BV72" s="213"/>
-      <c r="BW72" s="213"/>
-      <c r="BX72" s="213"/>
-      <c r="BY72" s="220">
+      <c r="BV72" s="214"/>
+      <c r="BW72" s="214"/>
+      <c r="BX72" s="214"/>
+      <c r="BY72" s="221">
         <v>70</v>
       </c>
-      <c r="BZ72" s="221" t="s">
+      <c r="BZ72" s="222" t="s">
         <v>649</v>
       </c>
-      <c r="CA72" s="220"/>
-      <c r="CB72" s="220"/>
-      <c r="CC72" s="220"/>
+      <c r="CA72" s="221"/>
+      <c r="CB72" s="221"/>
+      <c r="CC72" s="221"/>
     </row>
     <row r="73" spans="2:81">
       <c r="B73" s="142">
@@ -18430,118 +18408,118 @@
       <c r="I73" s="141"/>
       <c r="J73" s="141"/>
       <c r="K73" s="141"/>
-      <c r="L73" s="149">
+      <c r="L73" s="150">
         <v>71</v>
       </c>
-      <c r="M73" s="149" t="s">
+      <c r="M73" s="150" t="s">
         <v>437</v>
       </c>
-      <c r="N73" s="149"/>
-      <c r="O73" s="149"/>
-      <c r="P73" s="150"/>
-      <c r="Q73" s="161">
+      <c r="N73" s="150"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="151"/>
+      <c r="Q73" s="162">
         <v>71</v>
       </c>
-      <c r="R73" s="161"/>
-      <c r="S73" s="161"/>
-      <c r="T73" s="161"/>
-      <c r="U73" s="161"/>
-      <c r="V73" s="162">
+      <c r="R73" s="162"/>
+      <c r="S73" s="162"/>
+      <c r="T73" s="162"/>
+      <c r="U73" s="162"/>
+      <c r="V73" s="163">
         <v>71</v>
       </c>
-      <c r="W73" s="162"/>
-      <c r="X73" s="162"/>
-      <c r="Y73" s="162"/>
-      <c r="Z73" s="162"/>
-      <c r="AA73" s="170">
+      <c r="W73" s="163"/>
+      <c r="X73" s="163"/>
+      <c r="Y73" s="163"/>
+      <c r="Z73" s="163"/>
+      <c r="AA73" s="171">
         <v>71</v>
       </c>
-      <c r="AB73" s="170"/>
-      <c r="AC73" s="170"/>
-      <c r="AD73" s="170"/>
-      <c r="AE73" s="170"/>
-      <c r="AF73" s="171">
+      <c r="AB73" s="171"/>
+      <c r="AC73" s="171"/>
+      <c r="AD73" s="171"/>
+      <c r="AE73" s="171"/>
+      <c r="AF73" s="172">
         <v>71</v>
       </c>
-      <c r="AG73" s="171" t="s">
+      <c r="AG73" s="172" t="s">
         <v>684</v>
       </c>
-      <c r="AH73" s="171"/>
-      <c r="AI73" s="171"/>
-      <c r="AJ73" s="171"/>
-      <c r="AK73" s="162">
+      <c r="AH73" s="172"/>
+      <c r="AI73" s="172"/>
+      <c r="AJ73" s="172"/>
+      <c r="AK73" s="163">
         <v>71</v>
       </c>
-      <c r="AL73" s="162"/>
-      <c r="AM73" s="162"/>
-      <c r="AN73" s="162"/>
-      <c r="AO73" s="162"/>
-      <c r="AP73" s="190">
+      <c r="AL73" s="163"/>
+      <c r="AM73" s="163"/>
+      <c r="AN73" s="163"/>
+      <c r="AO73" s="163"/>
+      <c r="AP73" s="191">
         <v>71</v>
       </c>
-      <c r="AQ73" s="190" t="s">
+      <c r="AQ73" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="AR73" s="190"/>
-      <c r="AS73" s="190"/>
-      <c r="AT73" s="190"/>
-      <c r="AU73" s="191">
+      <c r="AR73" s="191"/>
+      <c r="AS73" s="191"/>
+      <c r="AT73" s="191"/>
+      <c r="AU73" s="192">
         <v>71</v>
       </c>
-      <c r="AV73" s="191" t="s">
+      <c r="AV73" s="192" t="s">
         <v>644</v>
       </c>
-      <c r="AW73" s="191"/>
-      <c r="AX73" s="191"/>
-      <c r="AY73" s="191"/>
-      <c r="AZ73" s="199">
+      <c r="AW73" s="192"/>
+      <c r="AX73" s="192"/>
+      <c r="AY73" s="192"/>
+      <c r="AZ73" s="200">
         <v>71</v>
       </c>
-      <c r="BA73" s="199"/>
-      <c r="BB73" s="199"/>
-      <c r="BC73" s="199"/>
-      <c r="BD73" s="199"/>
-      <c r="BE73" s="208">
+      <c r="BA73" s="200"/>
+      <c r="BB73" s="200"/>
+      <c r="BC73" s="200"/>
+      <c r="BD73" s="200"/>
+      <c r="BE73" s="209">
         <v>71</v>
       </c>
-      <c r="BF73" s="208"/>
-      <c r="BG73" s="208"/>
-      <c r="BH73" s="208"/>
-      <c r="BI73" s="208"/>
-      <c r="BJ73" s="207">
+      <c r="BF73" s="209"/>
+      <c r="BG73" s="209"/>
+      <c r="BH73" s="209"/>
+      <c r="BI73" s="209"/>
+      <c r="BJ73" s="208">
         <v>71</v>
       </c>
-      <c r="BK73" s="207"/>
-      <c r="BL73" s="207"/>
-      <c r="BM73" s="207"/>
-      <c r="BN73" s="207"/>
-      <c r="BO73" s="161">
+      <c r="BK73" s="208"/>
+      <c r="BL73" s="208"/>
+      <c r="BM73" s="208"/>
+      <c r="BN73" s="208"/>
+      <c r="BO73" s="162">
         <v>71</v>
       </c>
-      <c r="BP73" s="215" t="s">
+      <c r="BP73" s="216" t="s">
         <v>685</v>
       </c>
-      <c r="BQ73" s="161"/>
-      <c r="BR73" s="161"/>
-      <c r="BS73" s="161"/>
-      <c r="BT73" s="213">
+      <c r="BQ73" s="162"/>
+      <c r="BR73" s="162"/>
+      <c r="BS73" s="162"/>
+      <c r="BT73" s="214">
         <v>71</v>
       </c>
-      <c r="BU73" s="213" t="s">
+      <c r="BU73" s="214" t="s">
         <v>686</v>
       </c>
-      <c r="BV73" s="213"/>
-      <c r="BW73" s="213"/>
-      <c r="BX73" s="213"/>
-      <c r="BY73" s="220">
+      <c r="BV73" s="214"/>
+      <c r="BW73" s="214"/>
+      <c r="BX73" s="214"/>
+      <c r="BY73" s="221">
         <v>71</v>
       </c>
-      <c r="BZ73" s="221" t="s">
+      <c r="BZ73" s="222" t="s">
         <v>624</v>
       </c>
-      <c r="CA73" s="220"/>
-      <c r="CB73" s="220"/>
-      <c r="CC73" s="220"/>
+      <c r="CA73" s="221"/>
+      <c r="CB73" s="221"/>
+      <c r="CC73" s="221"/>
     </row>
     <row r="74" spans="2:81">
       <c r="B74" s="142">
@@ -18562,118 +18540,118 @@
       <c r="I74" s="141"/>
       <c r="J74" s="141"/>
       <c r="K74" s="141"/>
-      <c r="L74" s="149">
+      <c r="L74" s="150">
         <v>72</v>
       </c>
-      <c r="M74" s="149" t="s">
+      <c r="M74" s="150" t="s">
         <v>682</v>
       </c>
-      <c r="N74" s="149"/>
-      <c r="O74" s="149"/>
-      <c r="P74" s="150"/>
-      <c r="Q74" s="161">
+      <c r="N74" s="150"/>
+      <c r="O74" s="150"/>
+      <c r="P74" s="151"/>
+      <c r="Q74" s="162">
         <v>72</v>
       </c>
-      <c r="R74" s="161"/>
-      <c r="S74" s="161"/>
-      <c r="T74" s="161"/>
-      <c r="U74" s="161"/>
-      <c r="V74" s="162">
+      <c r="R74" s="162"/>
+      <c r="S74" s="162"/>
+      <c r="T74" s="162"/>
+      <c r="U74" s="162"/>
+      <c r="V74" s="163">
         <v>72</v>
       </c>
-      <c r="W74" s="162"/>
-      <c r="X74" s="162"/>
-      <c r="Y74" s="162"/>
-      <c r="Z74" s="162"/>
-      <c r="AA74" s="170">
+      <c r="W74" s="163"/>
+      <c r="X74" s="163"/>
+      <c r="Y74" s="163"/>
+      <c r="Z74" s="163"/>
+      <c r="AA74" s="171">
         <v>72</v>
       </c>
-      <c r="AB74" s="170"/>
-      <c r="AC74" s="170"/>
-      <c r="AD74" s="170"/>
-      <c r="AE74" s="170"/>
-      <c r="AF74" s="171">
+      <c r="AB74" s="171"/>
+      <c r="AC74" s="171"/>
+      <c r="AD74" s="171"/>
+      <c r="AE74" s="171"/>
+      <c r="AF74" s="172">
         <v>72</v>
       </c>
-      <c r="AG74" s="171" t="s">
+      <c r="AG74" s="172" t="s">
         <v>460</v>
       </c>
-      <c r="AH74" s="171"/>
-      <c r="AI74" s="171"/>
-      <c r="AJ74" s="171"/>
-      <c r="AK74" s="162">
+      <c r="AH74" s="172"/>
+      <c r="AI74" s="172"/>
+      <c r="AJ74" s="172"/>
+      <c r="AK74" s="163">
         <v>72</v>
       </c>
-      <c r="AL74" s="162"/>
-      <c r="AM74" s="162"/>
-      <c r="AN74" s="162"/>
-      <c r="AO74" s="162"/>
-      <c r="AP74" s="190">
+      <c r="AL74" s="163"/>
+      <c r="AM74" s="163"/>
+      <c r="AN74" s="163"/>
+      <c r="AO74" s="163"/>
+      <c r="AP74" s="191">
         <v>72</v>
       </c>
-      <c r="AQ74" s="190" t="s">
+      <c r="AQ74" s="191" t="s">
         <v>286</v>
       </c>
-      <c r="AR74" s="190"/>
-      <c r="AS74" s="190"/>
-      <c r="AT74" s="190"/>
-      <c r="AU74" s="191">
+      <c r="AR74" s="191"/>
+      <c r="AS74" s="191"/>
+      <c r="AT74" s="191"/>
+      <c r="AU74" s="192">
         <v>72</v>
       </c>
-      <c r="AV74" s="191" t="s">
+      <c r="AV74" s="192" t="s">
         <v>688</v>
       </c>
-      <c r="AW74" s="191"/>
-      <c r="AX74" s="191"/>
-      <c r="AY74" s="191"/>
-      <c r="AZ74" s="199">
+      <c r="AW74" s="192"/>
+      <c r="AX74" s="192"/>
+      <c r="AY74" s="192"/>
+      <c r="AZ74" s="200">
         <v>72</v>
       </c>
-      <c r="BA74" s="199"/>
-      <c r="BB74" s="199"/>
-      <c r="BC74" s="199"/>
-      <c r="BD74" s="199"/>
-      <c r="BE74" s="208">
+      <c r="BA74" s="200"/>
+      <c r="BB74" s="200"/>
+      <c r="BC74" s="200"/>
+      <c r="BD74" s="200"/>
+      <c r="BE74" s="209">
         <v>72</v>
       </c>
-      <c r="BF74" s="208"/>
-      <c r="BG74" s="208"/>
-      <c r="BH74" s="208"/>
-      <c r="BI74" s="208"/>
-      <c r="BJ74" s="207">
+      <c r="BF74" s="209"/>
+      <c r="BG74" s="209"/>
+      <c r="BH74" s="209"/>
+      <c r="BI74" s="209"/>
+      <c r="BJ74" s="208">
         <v>72</v>
       </c>
-      <c r="BK74" s="207"/>
-      <c r="BL74" s="207"/>
-      <c r="BM74" s="207"/>
-      <c r="BN74" s="207"/>
-      <c r="BO74" s="161">
+      <c r="BK74" s="208"/>
+      <c r="BL74" s="208"/>
+      <c r="BM74" s="208"/>
+      <c r="BN74" s="208"/>
+      <c r="BO74" s="162">
         <v>72</v>
       </c>
-      <c r="BP74" s="215" t="s">
+      <c r="BP74" s="216" t="s">
         <v>438</v>
       </c>
-      <c r="BQ74" s="161"/>
-      <c r="BR74" s="161"/>
-      <c r="BS74" s="161"/>
-      <c r="BT74" s="213">
+      <c r="BQ74" s="162"/>
+      <c r="BR74" s="162"/>
+      <c r="BS74" s="162"/>
+      <c r="BT74" s="214">
         <v>72</v>
       </c>
-      <c r="BU74" s="213" t="s">
+      <c r="BU74" s="214" t="s">
         <v>689</v>
       </c>
-      <c r="BV74" s="213"/>
-      <c r="BW74" s="213"/>
-      <c r="BX74" s="213"/>
-      <c r="BY74" s="220">
+      <c r="BV74" s="214"/>
+      <c r="BW74" s="214"/>
+      <c r="BX74" s="214"/>
+      <c r="BY74" s="221">
         <v>72</v>
       </c>
-      <c r="BZ74" s="221" t="s">
+      <c r="BZ74" s="222" t="s">
         <v>689</v>
       </c>
-      <c r="CA74" s="220"/>
-      <c r="CB74" s="220"/>
-      <c r="CC74" s="220"/>
+      <c r="CA74" s="221"/>
+      <c r="CB74" s="221"/>
+      <c r="CC74" s="221"/>
     </row>
     <row r="75" spans="2:81">
       <c r="B75" s="142">
@@ -18694,118 +18672,118 @@
       <c r="I75" s="141"/>
       <c r="J75" s="141"/>
       <c r="K75" s="141"/>
-      <c r="L75" s="149">
+      <c r="L75" s="150">
         <v>73</v>
       </c>
-      <c r="M75" s="149" t="s">
+      <c r="M75" s="150" t="s">
         <v>399</v>
       </c>
-      <c r="N75" s="149"/>
-      <c r="O75" s="149"/>
-      <c r="P75" s="150"/>
-      <c r="Q75" s="161">
+      <c r="N75" s="150"/>
+      <c r="O75" s="150"/>
+      <c r="P75" s="151"/>
+      <c r="Q75" s="162">
         <v>73</v>
       </c>
-      <c r="R75" s="161"/>
-      <c r="S75" s="161"/>
-      <c r="T75" s="161"/>
-      <c r="U75" s="161"/>
-      <c r="V75" s="162">
+      <c r="R75" s="162"/>
+      <c r="S75" s="162"/>
+      <c r="T75" s="162"/>
+      <c r="U75" s="162"/>
+      <c r="V75" s="163">
         <v>73</v>
       </c>
-      <c r="W75" s="162"/>
-      <c r="X75" s="162"/>
-      <c r="Y75" s="162"/>
-      <c r="Z75" s="162"/>
-      <c r="AA75" s="170">
+      <c r="W75" s="163"/>
+      <c r="X75" s="163"/>
+      <c r="Y75" s="163"/>
+      <c r="Z75" s="163"/>
+      <c r="AA75" s="171">
         <v>73</v>
       </c>
-      <c r="AB75" s="170"/>
-      <c r="AC75" s="170"/>
-      <c r="AD75" s="170"/>
-      <c r="AE75" s="170"/>
-      <c r="AF75" s="171">
+      <c r="AB75" s="171"/>
+      <c r="AC75" s="171"/>
+      <c r="AD75" s="171"/>
+      <c r="AE75" s="171"/>
+      <c r="AF75" s="172">
         <v>73</v>
       </c>
-      <c r="AG75" s="171" t="s">
+      <c r="AG75" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="AH75" s="171"/>
-      <c r="AI75" s="171"/>
-      <c r="AJ75" s="171"/>
-      <c r="AK75" s="162">
+      <c r="AH75" s="172"/>
+      <c r="AI75" s="172"/>
+      <c r="AJ75" s="172"/>
+      <c r="AK75" s="163">
         <v>73</v>
       </c>
-      <c r="AL75" s="162"/>
-      <c r="AM75" s="162"/>
-      <c r="AN75" s="162"/>
-      <c r="AO75" s="162"/>
-      <c r="AP75" s="190">
+      <c r="AL75" s="163"/>
+      <c r="AM75" s="163"/>
+      <c r="AN75" s="163"/>
+      <c r="AO75" s="163"/>
+      <c r="AP75" s="191">
         <v>73</v>
       </c>
-      <c r="AQ75" s="190" t="s">
+      <c r="AQ75" s="191" t="s">
         <v>690</v>
       </c>
-      <c r="AR75" s="190"/>
-      <c r="AS75" s="190"/>
-      <c r="AT75" s="190"/>
-      <c r="AU75" s="191">
+      <c r="AR75" s="191"/>
+      <c r="AS75" s="191"/>
+      <c r="AT75" s="191"/>
+      <c r="AU75" s="192">
         <v>73</v>
       </c>
-      <c r="AV75" s="191" t="s">
+      <c r="AV75" s="192" t="s">
         <v>691</v>
       </c>
-      <c r="AW75" s="191"/>
-      <c r="AX75" s="191"/>
-      <c r="AY75" s="191"/>
-      <c r="AZ75" s="199">
+      <c r="AW75" s="192"/>
+      <c r="AX75" s="192"/>
+      <c r="AY75" s="192"/>
+      <c r="AZ75" s="200">
         <v>73</v>
       </c>
-      <c r="BA75" s="199"/>
-      <c r="BB75" s="199"/>
-      <c r="BC75" s="199"/>
-      <c r="BD75" s="199"/>
-      <c r="BE75" s="208">
+      <c r="BA75" s="200"/>
+      <c r="BB75" s="200"/>
+      <c r="BC75" s="200"/>
+      <c r="BD75" s="200"/>
+      <c r="BE75" s="209">
         <v>73</v>
       </c>
-      <c r="BF75" s="208"/>
-      <c r="BG75" s="208"/>
-      <c r="BH75" s="208"/>
-      <c r="BI75" s="208"/>
-      <c r="BJ75" s="207">
+      <c r="BF75" s="209"/>
+      <c r="BG75" s="209"/>
+      <c r="BH75" s="209"/>
+      <c r="BI75" s="209"/>
+      <c r="BJ75" s="208">
         <v>73</v>
       </c>
-      <c r="BK75" s="207"/>
-      <c r="BL75" s="207"/>
-      <c r="BM75" s="207"/>
-      <c r="BN75" s="207"/>
-      <c r="BO75" s="161">
+      <c r="BK75" s="208"/>
+      <c r="BL75" s="208"/>
+      <c r="BM75" s="208"/>
+      <c r="BN75" s="208"/>
+      <c r="BO75" s="162">
         <v>73</v>
       </c>
-      <c r="BP75" s="215" t="s">
+      <c r="BP75" s="216" t="s">
         <v>574</v>
       </c>
-      <c r="BQ75" s="161"/>
-      <c r="BR75" s="161"/>
-      <c r="BS75" s="161"/>
-      <c r="BT75" s="213">
+      <c r="BQ75" s="162"/>
+      <c r="BR75" s="162"/>
+      <c r="BS75" s="162"/>
+      <c r="BT75" s="214">
         <v>73</v>
       </c>
-      <c r="BU75" s="213" t="s">
+      <c r="BU75" s="214" t="s">
         <v>372</v>
       </c>
-      <c r="BV75" s="213"/>
-      <c r="BW75" s="213"/>
-      <c r="BX75" s="213"/>
-      <c r="BY75" s="220">
+      <c r="BV75" s="214"/>
+      <c r="BW75" s="214"/>
+      <c r="BX75" s="214"/>
+      <c r="BY75" s="221">
         <v>73</v>
       </c>
-      <c r="BZ75" s="221" t="s">
+      <c r="BZ75" s="222" t="s">
         <v>569</v>
       </c>
-      <c r="CA75" s="220"/>
-      <c r="CB75" s="220"/>
-      <c r="CC75" s="220"/>
+      <c r="CA75" s="221"/>
+      <c r="CB75" s="221"/>
+      <c r="CC75" s="221"/>
     </row>
     <row r="76" spans="2:81">
       <c r="B76" s="142">
@@ -18826,118 +18804,118 @@
       <c r="I76" s="141"/>
       <c r="J76" s="141"/>
       <c r="K76" s="141"/>
-      <c r="L76" s="149">
+      <c r="L76" s="150">
         <v>74</v>
       </c>
-      <c r="M76" s="149" t="s">
+      <c r="M76" s="150" t="s">
         <v>501</v>
       </c>
-      <c r="N76" s="149"/>
-      <c r="O76" s="149"/>
-      <c r="P76" s="150"/>
-      <c r="Q76" s="161">
+      <c r="N76" s="150"/>
+      <c r="O76" s="150"/>
+      <c r="P76" s="151"/>
+      <c r="Q76" s="162">
         <v>74</v>
       </c>
-      <c r="R76" s="161"/>
-      <c r="S76" s="161"/>
-      <c r="T76" s="161"/>
-      <c r="U76" s="161"/>
-      <c r="V76" s="162">
+      <c r="R76" s="162"/>
+      <c r="S76" s="162"/>
+      <c r="T76" s="162"/>
+      <c r="U76" s="162"/>
+      <c r="V76" s="163">
         <v>74</v>
       </c>
-      <c r="W76" s="162"/>
-      <c r="X76" s="162"/>
-      <c r="Y76" s="162"/>
-      <c r="Z76" s="162"/>
-      <c r="AA76" s="170">
+      <c r="W76" s="163"/>
+      <c r="X76" s="163"/>
+      <c r="Y76" s="163"/>
+      <c r="Z76" s="163"/>
+      <c r="AA76" s="171">
         <v>74</v>
       </c>
-      <c r="AB76" s="170"/>
-      <c r="AC76" s="170"/>
-      <c r="AD76" s="170"/>
-      <c r="AE76" s="170"/>
-      <c r="AF76" s="171">
+      <c r="AB76" s="171"/>
+      <c r="AC76" s="171"/>
+      <c r="AD76" s="171"/>
+      <c r="AE76" s="171"/>
+      <c r="AF76" s="172">
         <v>74</v>
       </c>
-      <c r="AG76" s="171" t="s">
+      <c r="AG76" s="172" t="s">
         <v>417</v>
       </c>
-      <c r="AH76" s="171"/>
-      <c r="AI76" s="171"/>
-      <c r="AJ76" s="171"/>
-      <c r="AK76" s="162">
+      <c r="AH76" s="172"/>
+      <c r="AI76" s="172"/>
+      <c r="AJ76" s="172"/>
+      <c r="AK76" s="163">
         <v>74</v>
       </c>
-      <c r="AL76" s="162"/>
-      <c r="AM76" s="162"/>
-      <c r="AN76" s="162"/>
-      <c r="AO76" s="162"/>
-      <c r="AP76" s="190">
+      <c r="AL76" s="163"/>
+      <c r="AM76" s="163"/>
+      <c r="AN76" s="163"/>
+      <c r="AO76" s="163"/>
+      <c r="AP76" s="191">
         <v>74</v>
       </c>
-      <c r="AQ76" s="190" t="s">
+      <c r="AQ76" s="191" t="s">
         <v>693</v>
       </c>
-      <c r="AR76" s="190"/>
-      <c r="AS76" s="190"/>
-      <c r="AT76" s="190"/>
-      <c r="AU76" s="191">
+      <c r="AR76" s="191"/>
+      <c r="AS76" s="191"/>
+      <c r="AT76" s="191"/>
+      <c r="AU76" s="192">
         <v>74</v>
       </c>
-      <c r="AV76" s="191" t="s">
+      <c r="AV76" s="192" t="s">
         <v>694</v>
       </c>
-      <c r="AW76" s="191"/>
-      <c r="AX76" s="191"/>
-      <c r="AY76" s="191"/>
-      <c r="AZ76" s="199">
+      <c r="AW76" s="192"/>
+      <c r="AX76" s="192"/>
+      <c r="AY76" s="192"/>
+      <c r="AZ76" s="200">
         <v>74</v>
       </c>
-      <c r="BA76" s="199"/>
-      <c r="BB76" s="199"/>
-      <c r="BC76" s="199"/>
-      <c r="BD76" s="199"/>
-      <c r="BE76" s="208">
+      <c r="BA76" s="200"/>
+      <c r="BB76" s="200"/>
+      <c r="BC76" s="200"/>
+      <c r="BD76" s="200"/>
+      <c r="BE76" s="209">
         <v>74</v>
       </c>
-      <c r="BF76" s="208"/>
-      <c r="BG76" s="208"/>
-      <c r="BH76" s="208"/>
-      <c r="BI76" s="208"/>
-      <c r="BJ76" s="207">
+      <c r="BF76" s="209"/>
+      <c r="BG76" s="209"/>
+      <c r="BH76" s="209"/>
+      <c r="BI76" s="209"/>
+      <c r="BJ76" s="208">
         <v>74</v>
       </c>
-      <c r="BK76" s="207"/>
-      <c r="BL76" s="207"/>
-      <c r="BM76" s="207"/>
-      <c r="BN76" s="207"/>
-      <c r="BO76" s="161">
+      <c r="BK76" s="208"/>
+      <c r="BL76" s="208"/>
+      <c r="BM76" s="208"/>
+      <c r="BN76" s="208"/>
+      <c r="BO76" s="162">
         <v>74</v>
       </c>
-      <c r="BP76" s="215" t="s">
+      <c r="BP76" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="BQ76" s="161"/>
-      <c r="BR76" s="161"/>
-      <c r="BS76" s="161"/>
-      <c r="BT76" s="213">
+      <c r="BQ76" s="162"/>
+      <c r="BR76" s="162"/>
+      <c r="BS76" s="162"/>
+      <c r="BT76" s="214">
         <v>74</v>
       </c>
-      <c r="BU76" s="213" t="s">
+      <c r="BU76" s="214" t="s">
         <v>272</v>
       </c>
-      <c r="BV76" s="213"/>
-      <c r="BW76" s="213"/>
-      <c r="BX76" s="213"/>
-      <c r="BY76" s="220">
+      <c r="BV76" s="214"/>
+      <c r="BW76" s="214"/>
+      <c r="BX76" s="214"/>
+      <c r="BY76" s="221">
         <v>74</v>
       </c>
-      <c r="BZ76" s="221" t="s">
+      <c r="BZ76" s="222" t="s">
         <v>695</v>
       </c>
-      <c r="CA76" s="220"/>
-      <c r="CB76" s="220"/>
-      <c r="CC76" s="220"/>
+      <c r="CA76" s="221"/>
+      <c r="CB76" s="221"/>
+      <c r="CC76" s="221"/>
     </row>
     <row r="77" spans="2:81">
       <c r="B77" s="142">
@@ -18958,118 +18936,118 @@
       <c r="I77" s="141"/>
       <c r="J77" s="141"/>
       <c r="K77" s="141"/>
-      <c r="L77" s="149">
+      <c r="L77" s="150">
         <v>75</v>
       </c>
-      <c r="M77" s="149" t="s">
+      <c r="M77" s="150" t="s">
         <v>697</v>
       </c>
-      <c r="N77" s="149"/>
-      <c r="O77" s="149"/>
-      <c r="P77" s="150"/>
-      <c r="Q77" s="161">
+      <c r="N77" s="150"/>
+      <c r="O77" s="150"/>
+      <c r="P77" s="151"/>
+      <c r="Q77" s="162">
         <v>75</v>
       </c>
-      <c r="R77" s="161"/>
-      <c r="S77" s="161"/>
-      <c r="T77" s="161"/>
-      <c r="U77" s="161"/>
-      <c r="V77" s="162">
+      <c r="R77" s="162"/>
+      <c r="S77" s="162"/>
+      <c r="T77" s="162"/>
+      <c r="U77" s="162"/>
+      <c r="V77" s="163">
         <v>75</v>
       </c>
-      <c r="W77" s="162"/>
-      <c r="X77" s="162"/>
-      <c r="Y77" s="162"/>
-      <c r="Z77" s="162"/>
-      <c r="AA77" s="170">
+      <c r="W77" s="163"/>
+      <c r="X77" s="163"/>
+      <c r="Y77" s="163"/>
+      <c r="Z77" s="163"/>
+      <c r="AA77" s="171">
         <v>75</v>
       </c>
-      <c r="AB77" s="170"/>
-      <c r="AC77" s="170"/>
-      <c r="AD77" s="170"/>
-      <c r="AE77" s="170"/>
-      <c r="AF77" s="171">
+      <c r="AB77" s="171"/>
+      <c r="AC77" s="171"/>
+      <c r="AD77" s="171"/>
+      <c r="AE77" s="171"/>
+      <c r="AF77" s="172">
         <v>75</v>
       </c>
-      <c r="AG77" s="171" t="s">
+      <c r="AG77" s="172" t="s">
         <v>423</v>
       </c>
-      <c r="AH77" s="171"/>
-      <c r="AI77" s="171"/>
-      <c r="AJ77" s="171"/>
-      <c r="AK77" s="162">
+      <c r="AH77" s="172"/>
+      <c r="AI77" s="172"/>
+      <c r="AJ77" s="172"/>
+      <c r="AK77" s="163">
         <v>75</v>
       </c>
-      <c r="AL77" s="162"/>
-      <c r="AM77" s="162"/>
-      <c r="AN77" s="162"/>
-      <c r="AO77" s="162"/>
-      <c r="AP77" s="190">
+      <c r="AL77" s="163"/>
+      <c r="AM77" s="163"/>
+      <c r="AN77" s="163"/>
+      <c r="AO77" s="163"/>
+      <c r="AP77" s="191">
         <v>75</v>
       </c>
-      <c r="AQ77" s="190" t="s">
+      <c r="AQ77" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="AR77" s="190"/>
-      <c r="AS77" s="190"/>
-      <c r="AT77" s="190"/>
-      <c r="AU77" s="191">
+      <c r="AR77" s="191"/>
+      <c r="AS77" s="191"/>
+      <c r="AT77" s="191"/>
+      <c r="AU77" s="192">
         <v>75</v>
       </c>
-      <c r="AV77" s="191" t="s">
+      <c r="AV77" s="192" t="s">
         <v>699</v>
       </c>
-      <c r="AW77" s="191"/>
-      <c r="AX77" s="191"/>
-      <c r="AY77" s="191"/>
-      <c r="AZ77" s="199">
+      <c r="AW77" s="192"/>
+      <c r="AX77" s="192"/>
+      <c r="AY77" s="192"/>
+      <c r="AZ77" s="200">
         <v>75</v>
       </c>
-      <c r="BA77" s="199"/>
-      <c r="BB77" s="199"/>
-      <c r="BC77" s="199"/>
-      <c r="BD77" s="199"/>
-      <c r="BE77" s="208">
+      <c r="BA77" s="200"/>
+      <c r="BB77" s="200"/>
+      <c r="BC77" s="200"/>
+      <c r="BD77" s="200"/>
+      <c r="BE77" s="209">
         <v>75</v>
       </c>
-      <c r="BF77" s="208"/>
-      <c r="BG77" s="208"/>
-      <c r="BH77" s="208"/>
-      <c r="BI77" s="208"/>
-      <c r="BJ77" s="207">
+      <c r="BF77" s="209"/>
+      <c r="BG77" s="209"/>
+      <c r="BH77" s="209"/>
+      <c r="BI77" s="209"/>
+      <c r="BJ77" s="208">
         <v>75</v>
       </c>
-      <c r="BK77" s="207"/>
-      <c r="BL77" s="207"/>
-      <c r="BM77" s="207"/>
-      <c r="BN77" s="207"/>
-      <c r="BO77" s="161">
+      <c r="BK77" s="208"/>
+      <c r="BL77" s="208"/>
+      <c r="BM77" s="208"/>
+      <c r="BN77" s="208"/>
+      <c r="BO77" s="162">
         <v>75</v>
       </c>
-      <c r="BP77" s="215" t="s">
+      <c r="BP77" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="BQ77" s="161"/>
-      <c r="BR77" s="161"/>
-      <c r="BS77" s="161"/>
-      <c r="BT77" s="213">
+      <c r="BQ77" s="162"/>
+      <c r="BR77" s="162"/>
+      <c r="BS77" s="162"/>
+      <c r="BT77" s="214">
         <v>75</v>
       </c>
-      <c r="BU77" s="213" t="s">
+      <c r="BU77" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="BV77" s="213"/>
-      <c r="BW77" s="213"/>
-      <c r="BX77" s="213"/>
-      <c r="BY77" s="220">
+      <c r="BV77" s="214"/>
+      <c r="BW77" s="214"/>
+      <c r="BX77" s="214"/>
+      <c r="BY77" s="221">
         <v>75</v>
       </c>
-      <c r="BZ77" s="221" t="s">
+      <c r="BZ77" s="222" t="s">
         <v>640</v>
       </c>
-      <c r="CA77" s="220"/>
-      <c r="CB77" s="220"/>
-      <c r="CC77" s="220"/>
+      <c r="CA77" s="221"/>
+      <c r="CB77" s="221"/>
+      <c r="CC77" s="221"/>
     </row>
     <row r="78" spans="2:81">
       <c r="B78" s="142">
@@ -19090,118 +19068,118 @@
       <c r="I78" s="141"/>
       <c r="J78" s="141"/>
       <c r="K78" s="141"/>
-      <c r="L78" s="149">
+      <c r="L78" s="150">
         <v>76</v>
       </c>
-      <c r="M78" s="149" t="s">
+      <c r="M78" s="150" t="s">
         <v>701</v>
       </c>
-      <c r="N78" s="149"/>
-      <c r="O78" s="149"/>
-      <c r="P78" s="150"/>
-      <c r="Q78" s="161">
+      <c r="N78" s="150"/>
+      <c r="O78" s="150"/>
+      <c r="P78" s="151"/>
+      <c r="Q78" s="162">
         <v>76</v>
       </c>
-      <c r="R78" s="161"/>
-      <c r="S78" s="161"/>
-      <c r="T78" s="161"/>
-      <c r="U78" s="161"/>
-      <c r="V78" s="162">
+      <c r="R78" s="162"/>
+      <c r="S78" s="162"/>
+      <c r="T78" s="162"/>
+      <c r="U78" s="162"/>
+      <c r="V78" s="163">
         <v>76</v>
       </c>
-      <c r="W78" s="162"/>
-      <c r="X78" s="162"/>
-      <c r="Y78" s="162"/>
-      <c r="Z78" s="162"/>
-      <c r="AA78" s="170">
+      <c r="W78" s="163"/>
+      <c r="X78" s="163"/>
+      <c r="Y78" s="163"/>
+      <c r="Z78" s="163"/>
+      <c r="AA78" s="171">
         <v>76</v>
       </c>
-      <c r="AB78" s="170"/>
-      <c r="AC78" s="170"/>
-      <c r="AD78" s="170"/>
-      <c r="AE78" s="170"/>
-      <c r="AF78" s="171">
+      <c r="AB78" s="171"/>
+      <c r="AC78" s="171"/>
+      <c r="AD78" s="171"/>
+      <c r="AE78" s="171"/>
+      <c r="AF78" s="172">
         <v>76</v>
       </c>
-      <c r="AG78" s="171" t="s">
+      <c r="AG78" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="AH78" s="171"/>
-      <c r="AI78" s="171"/>
-      <c r="AJ78" s="171"/>
-      <c r="AK78" s="162">
+      <c r="AH78" s="172"/>
+      <c r="AI78" s="172"/>
+      <c r="AJ78" s="172"/>
+      <c r="AK78" s="163">
         <v>76</v>
       </c>
-      <c r="AL78" s="162"/>
-      <c r="AM78" s="162"/>
-      <c r="AN78" s="162"/>
-      <c r="AO78" s="162"/>
-      <c r="AP78" s="190">
+      <c r="AL78" s="163"/>
+      <c r="AM78" s="163"/>
+      <c r="AN78" s="163"/>
+      <c r="AO78" s="163"/>
+      <c r="AP78" s="191">
         <v>76</v>
       </c>
-      <c r="AQ78" s="190" t="s">
+      <c r="AQ78" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="AR78" s="190"/>
-      <c r="AS78" s="190"/>
-      <c r="AT78" s="190"/>
-      <c r="AU78" s="191">
+      <c r="AR78" s="191"/>
+      <c r="AS78" s="191"/>
+      <c r="AT78" s="191"/>
+      <c r="AU78" s="192">
         <v>76</v>
       </c>
-      <c r="AV78" s="191" t="s">
+      <c r="AV78" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="AW78" s="191"/>
-      <c r="AX78" s="191"/>
-      <c r="AY78" s="191"/>
-      <c r="AZ78" s="199">
+      <c r="AW78" s="192"/>
+      <c r="AX78" s="192"/>
+      <c r="AY78" s="192"/>
+      <c r="AZ78" s="200">
         <v>76</v>
       </c>
-      <c r="BA78" s="199"/>
-      <c r="BB78" s="199"/>
-      <c r="BC78" s="199"/>
-      <c r="BD78" s="199"/>
-      <c r="BE78" s="208">
+      <c r="BA78" s="200"/>
+      <c r="BB78" s="200"/>
+      <c r="BC78" s="200"/>
+      <c r="BD78" s="200"/>
+      <c r="BE78" s="209">
         <v>76</v>
       </c>
-      <c r="BF78" s="208"/>
-      <c r="BG78" s="208"/>
-      <c r="BH78" s="208"/>
-      <c r="BI78" s="208"/>
-      <c r="BJ78" s="207">
+      <c r="BF78" s="209"/>
+      <c r="BG78" s="209"/>
+      <c r="BH78" s="209"/>
+      <c r="BI78" s="209"/>
+      <c r="BJ78" s="208">
         <v>76</v>
       </c>
-      <c r="BK78" s="207"/>
-      <c r="BL78" s="207"/>
-      <c r="BM78" s="207"/>
-      <c r="BN78" s="207"/>
-      <c r="BO78" s="161">
+      <c r="BK78" s="208"/>
+      <c r="BL78" s="208"/>
+      <c r="BM78" s="208"/>
+      <c r="BN78" s="208"/>
+      <c r="BO78" s="162">
         <v>76</v>
       </c>
-      <c r="BP78" s="215" t="s">
+      <c r="BP78" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="BQ78" s="161"/>
-      <c r="BR78" s="161"/>
-      <c r="BS78" s="161"/>
-      <c r="BT78" s="213">
+      <c r="BQ78" s="162"/>
+      <c r="BR78" s="162"/>
+      <c r="BS78" s="162"/>
+      <c r="BT78" s="214">
         <v>76</v>
       </c>
-      <c r="BU78" s="213" t="s">
+      <c r="BU78" s="214" t="s">
         <v>655</v>
       </c>
-      <c r="BV78" s="213"/>
-      <c r="BW78" s="213"/>
-      <c r="BX78" s="213"/>
-      <c r="BY78" s="220">
+      <c r="BV78" s="214"/>
+      <c r="BW78" s="214"/>
+      <c r="BX78" s="214"/>
+      <c r="BY78" s="221">
         <v>76</v>
       </c>
-      <c r="BZ78" s="221" t="s">
+      <c r="BZ78" s="222" t="s">
         <v>353</v>
       </c>
-      <c r="CA78" s="220"/>
-      <c r="CB78" s="220"/>
-      <c r="CC78" s="220"/>
+      <c r="CA78" s="221"/>
+      <c r="CB78" s="221"/>
+      <c r="CC78" s="221"/>
     </row>
     <row r="79" spans="2:81">
       <c r="B79" s="142">
@@ -19222,118 +19200,118 @@
       <c r="I79" s="141"/>
       <c r="J79" s="141"/>
       <c r="K79" s="141"/>
-      <c r="L79" s="149">
+      <c r="L79" s="150">
         <v>77</v>
       </c>
-      <c r="M79" s="149" t="s">
+      <c r="M79" s="150" t="s">
         <v>353</v>
       </c>
-      <c r="N79" s="149"/>
-      <c r="O79" s="149"/>
-      <c r="P79" s="150"/>
-      <c r="Q79" s="161">
+      <c r="N79" s="150"/>
+      <c r="O79" s="150"/>
+      <c r="P79" s="151"/>
+      <c r="Q79" s="162">
         <v>77</v>
       </c>
-      <c r="R79" s="161"/>
-      <c r="S79" s="161"/>
-      <c r="T79" s="161"/>
-      <c r="U79" s="161"/>
-      <c r="V79" s="162">
+      <c r="R79" s="162"/>
+      <c r="S79" s="162"/>
+      <c r="T79" s="162"/>
+      <c r="U79" s="162"/>
+      <c r="V79" s="163">
         <v>77</v>
       </c>
-      <c r="W79" s="162"/>
-      <c r="X79" s="162"/>
-      <c r="Y79" s="162"/>
-      <c r="Z79" s="162"/>
-      <c r="AA79" s="170">
+      <c r="W79" s="163"/>
+      <c r="X79" s="163"/>
+      <c r="Y79" s="163"/>
+      <c r="Z79" s="163"/>
+      <c r="AA79" s="171">
         <v>77</v>
       </c>
-      <c r="AB79" s="170"/>
-      <c r="AC79" s="170"/>
-      <c r="AD79" s="170"/>
-      <c r="AE79" s="170"/>
-      <c r="AF79" s="171">
+      <c r="AB79" s="171"/>
+      <c r="AC79" s="171"/>
+      <c r="AD79" s="171"/>
+      <c r="AE79" s="171"/>
+      <c r="AF79" s="172">
         <v>77</v>
       </c>
-      <c r="AG79" s="171" t="s">
+      <c r="AG79" s="172" t="s">
         <v>599</v>
       </c>
-      <c r="AH79" s="171"/>
-      <c r="AI79" s="171"/>
-      <c r="AJ79" s="171"/>
-      <c r="AK79" s="162">
+      <c r="AH79" s="172"/>
+      <c r="AI79" s="172"/>
+      <c r="AJ79" s="172"/>
+      <c r="AK79" s="163">
         <v>77</v>
       </c>
-      <c r="AL79" s="162"/>
-      <c r="AM79" s="162"/>
-      <c r="AN79" s="162"/>
-      <c r="AO79" s="162"/>
-      <c r="AP79" s="190">
+      <c r="AL79" s="163"/>
+      <c r="AM79" s="163"/>
+      <c r="AN79" s="163"/>
+      <c r="AO79" s="163"/>
+      <c r="AP79" s="191">
         <v>77</v>
       </c>
-      <c r="AQ79" s="190" t="s">
+      <c r="AQ79" s="191" t="s">
         <v>702</v>
       </c>
-      <c r="AR79" s="190"/>
-      <c r="AS79" s="190"/>
-      <c r="AT79" s="190"/>
-      <c r="AU79" s="191">
+      <c r="AR79" s="191"/>
+      <c r="AS79" s="191"/>
+      <c r="AT79" s="191"/>
+      <c r="AU79" s="192">
         <v>77</v>
       </c>
-      <c r="AV79" s="191" t="s">
+      <c r="AV79" s="192" t="s">
         <v>703</v>
       </c>
-      <c r="AW79" s="191"/>
-      <c r="AX79" s="191"/>
-      <c r="AY79" s="191"/>
-      <c r="AZ79" s="199">
+      <c r="AW79" s="192"/>
+      <c r="AX79" s="192"/>
+      <c r="AY79" s="192"/>
+      <c r="AZ79" s="200">
         <v>77</v>
       </c>
-      <c r="BA79" s="199"/>
-      <c r="BB79" s="199"/>
-      <c r="BC79" s="199"/>
-      <c r="BD79" s="199"/>
-      <c r="BE79" s="208">
+      <c r="BA79" s="200"/>
+      <c r="BB79" s="200"/>
+      <c r="BC79" s="200"/>
+      <c r="BD79" s="200"/>
+      <c r="BE79" s="209">
         <v>77</v>
       </c>
-      <c r="BF79" s="208"/>
-      <c r="BG79" s="208"/>
-      <c r="BH79" s="208"/>
-      <c r="BI79" s="208"/>
-      <c r="BJ79" s="207">
+      <c r="BF79" s="209"/>
+      <c r="BG79" s="209"/>
+      <c r="BH79" s="209"/>
+      <c r="BI79" s="209"/>
+      <c r="BJ79" s="208">
         <v>77</v>
       </c>
-      <c r="BK79" s="207"/>
-      <c r="BL79" s="207"/>
-      <c r="BM79" s="207"/>
-      <c r="BN79" s="207"/>
-      <c r="BO79" s="161">
+      <c r="BK79" s="208"/>
+      <c r="BL79" s="208"/>
+      <c r="BM79" s="208"/>
+      <c r="BN79" s="208"/>
+      <c r="BO79" s="162">
         <v>77</v>
       </c>
-      <c r="BP79" s="215" t="s">
+      <c r="BP79" s="216" t="s">
         <v>704</v>
       </c>
-      <c r="BQ79" s="161"/>
-      <c r="BR79" s="161"/>
-      <c r="BS79" s="161"/>
-      <c r="BT79" s="213">
+      <c r="BQ79" s="162"/>
+      <c r="BR79" s="162"/>
+      <c r="BS79" s="162"/>
+      <c r="BT79" s="214">
         <v>77</v>
       </c>
-      <c r="BU79" s="213" t="s">
+      <c r="BU79" s="214" t="s">
         <v>352</v>
       </c>
-      <c r="BV79" s="213"/>
-      <c r="BW79" s="213"/>
-      <c r="BX79" s="213"/>
-      <c r="BY79" s="220">
+      <c r="BV79" s="214"/>
+      <c r="BW79" s="214"/>
+      <c r="BX79" s="214"/>
+      <c r="BY79" s="221">
         <v>77</v>
       </c>
-      <c r="BZ79" s="221" t="s">
+      <c r="BZ79" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="CA79" s="220"/>
-      <c r="CB79" s="220"/>
-      <c r="CC79" s="220"/>
+      <c r="CA79" s="221"/>
+      <c r="CB79" s="221"/>
+      <c r="CC79" s="221"/>
     </row>
     <row r="80" spans="2:81">
       <c r="B80" s="142">
@@ -19354,118 +19332,118 @@
       <c r="I80" s="141"/>
       <c r="J80" s="141"/>
       <c r="K80" s="141"/>
-      <c r="L80" s="149">
+      <c r="L80" s="150">
         <v>78</v>
       </c>
-      <c r="M80" s="149" t="s">
+      <c r="M80" s="150" t="s">
         <v>270</v>
       </c>
-      <c r="N80" s="149"/>
-      <c r="O80" s="149"/>
-      <c r="P80" s="150"/>
-      <c r="Q80" s="161">
+      <c r="N80" s="150"/>
+      <c r="O80" s="150"/>
+      <c r="P80" s="151"/>
+      <c r="Q80" s="162">
         <v>78</v>
       </c>
-      <c r="R80" s="161"/>
-      <c r="S80" s="161"/>
-      <c r="T80" s="161"/>
-      <c r="U80" s="161"/>
-      <c r="V80" s="162">
+      <c r="R80" s="162"/>
+      <c r="S80" s="162"/>
+      <c r="T80" s="162"/>
+      <c r="U80" s="162"/>
+      <c r="V80" s="163">
         <v>78</v>
       </c>
-      <c r="W80" s="162"/>
-      <c r="X80" s="162"/>
-      <c r="Y80" s="162"/>
-      <c r="Z80" s="162"/>
-      <c r="AA80" s="170">
+      <c r="W80" s="163"/>
+      <c r="X80" s="163"/>
+      <c r="Y80" s="163"/>
+      <c r="Z80" s="163"/>
+      <c r="AA80" s="171">
         <v>78</v>
       </c>
-      <c r="AB80" s="170"/>
-      <c r="AC80" s="170"/>
-      <c r="AD80" s="170"/>
-      <c r="AE80" s="170"/>
-      <c r="AF80" s="171">
+      <c r="AB80" s="171"/>
+      <c r="AC80" s="171"/>
+      <c r="AD80" s="171"/>
+      <c r="AE80" s="171"/>
+      <c r="AF80" s="172">
         <v>78</v>
       </c>
-      <c r="AG80" s="171" t="s">
+      <c r="AG80" s="172" t="s">
         <v>460</v>
       </c>
-      <c r="AH80" s="171"/>
-      <c r="AI80" s="171"/>
-      <c r="AJ80" s="171"/>
-      <c r="AK80" s="162">
+      <c r="AH80" s="172"/>
+      <c r="AI80" s="172"/>
+      <c r="AJ80" s="172"/>
+      <c r="AK80" s="163">
         <v>78</v>
       </c>
-      <c r="AL80" s="162"/>
-      <c r="AM80" s="162"/>
-      <c r="AN80" s="162"/>
-      <c r="AO80" s="162"/>
-      <c r="AP80" s="190">
+      <c r="AL80" s="163"/>
+      <c r="AM80" s="163"/>
+      <c r="AN80" s="163"/>
+      <c r="AO80" s="163"/>
+      <c r="AP80" s="191">
         <v>78</v>
       </c>
-      <c r="AQ80" s="190" t="s">
+      <c r="AQ80" s="191" t="s">
         <v>600</v>
       </c>
-      <c r="AR80" s="190"/>
-      <c r="AS80" s="190"/>
-      <c r="AT80" s="190"/>
-      <c r="AU80" s="191">
+      <c r="AR80" s="191"/>
+      <c r="AS80" s="191"/>
+      <c r="AT80" s="191"/>
+      <c r="AU80" s="192">
         <v>78</v>
       </c>
-      <c r="AV80" s="191" t="s">
+      <c r="AV80" s="192" t="s">
         <v>599</v>
       </c>
-      <c r="AW80" s="191"/>
-      <c r="AX80" s="191"/>
-      <c r="AY80" s="191"/>
-      <c r="AZ80" s="199">
+      <c r="AW80" s="192"/>
+      <c r="AX80" s="192"/>
+      <c r="AY80" s="192"/>
+      <c r="AZ80" s="200">
         <v>78</v>
       </c>
-      <c r="BA80" s="199"/>
-      <c r="BB80" s="199"/>
-      <c r="BC80" s="199"/>
-      <c r="BD80" s="199"/>
-      <c r="BE80" s="208">
+      <c r="BA80" s="200"/>
+      <c r="BB80" s="200"/>
+      <c r="BC80" s="200"/>
+      <c r="BD80" s="200"/>
+      <c r="BE80" s="209">
         <v>78</v>
       </c>
-      <c r="BF80" s="208"/>
-      <c r="BG80" s="208"/>
-      <c r="BH80" s="208"/>
-      <c r="BI80" s="208"/>
-      <c r="BJ80" s="207">
+      <c r="BF80" s="209"/>
+      <c r="BG80" s="209"/>
+      <c r="BH80" s="209"/>
+      <c r="BI80" s="209"/>
+      <c r="BJ80" s="208">
         <v>78</v>
       </c>
-      <c r="BK80" s="207"/>
-      <c r="BL80" s="207"/>
-      <c r="BM80" s="207"/>
-      <c r="BN80" s="207"/>
-      <c r="BO80" s="161">
+      <c r="BK80" s="208"/>
+      <c r="BL80" s="208"/>
+      <c r="BM80" s="208"/>
+      <c r="BN80" s="208"/>
+      <c r="BO80" s="162">
         <v>78</v>
       </c>
-      <c r="BP80" s="215" t="s">
+      <c r="BP80" s="216" t="s">
         <v>139</v>
       </c>
-      <c r="BQ80" s="161"/>
-      <c r="BR80" s="161"/>
-      <c r="BS80" s="161"/>
-      <c r="BT80" s="213">
+      <c r="BQ80" s="162"/>
+      <c r="BR80" s="162"/>
+      <c r="BS80" s="162"/>
+      <c r="BT80" s="214">
         <v>78</v>
       </c>
-      <c r="BU80" s="213" t="s">
+      <c r="BU80" s="214" t="s">
         <v>705</v>
       </c>
-      <c r="BV80" s="213"/>
-      <c r="BW80" s="213"/>
-      <c r="BX80" s="213"/>
-      <c r="BY80" s="220">
+      <c r="BV80" s="214"/>
+      <c r="BW80" s="214"/>
+      <c r="BX80" s="214"/>
+      <c r="BY80" s="221">
         <v>78</v>
       </c>
-      <c r="BZ80" s="221" t="s">
+      <c r="BZ80" s="222" t="s">
         <v>624</v>
       </c>
-      <c r="CA80" s="220"/>
-      <c r="CB80" s="220"/>
-      <c r="CC80" s="220"/>
+      <c r="CA80" s="221"/>
+      <c r="CB80" s="221"/>
+      <c r="CC80" s="221"/>
     </row>
     <row r="81" spans="2:81">
       <c r="B81" s="142">
@@ -19486,118 +19464,118 @@
       <c r="I81" s="141"/>
       <c r="J81" s="141"/>
       <c r="K81" s="141"/>
-      <c r="L81" s="149">
+      <c r="L81" s="150">
         <v>79</v>
       </c>
-      <c r="M81" s="149" t="s">
+      <c r="M81" s="150" t="s">
         <v>523</v>
       </c>
-      <c r="N81" s="149"/>
-      <c r="O81" s="149"/>
-      <c r="P81" s="150"/>
-      <c r="Q81" s="161">
+      <c r="N81" s="150"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="151"/>
+      <c r="Q81" s="162">
         <v>79</v>
       </c>
-      <c r="R81" s="161"/>
-      <c r="S81" s="161"/>
-      <c r="T81" s="161"/>
-      <c r="U81" s="161"/>
-      <c r="V81" s="162">
+      <c r="R81" s="162"/>
+      <c r="S81" s="162"/>
+      <c r="T81" s="162"/>
+      <c r="U81" s="162"/>
+      <c r="V81" s="163">
         <v>79</v>
       </c>
-      <c r="W81" s="162"/>
-      <c r="X81" s="162"/>
-      <c r="Y81" s="162"/>
-      <c r="Z81" s="162"/>
-      <c r="AA81" s="170">
+      <c r="W81" s="163"/>
+      <c r="X81" s="163"/>
+      <c r="Y81" s="163"/>
+      <c r="Z81" s="163"/>
+      <c r="AA81" s="171">
         <v>79</v>
       </c>
-      <c r="AB81" s="170"/>
-      <c r="AC81" s="170"/>
-      <c r="AD81" s="170"/>
-      <c r="AE81" s="170"/>
-      <c r="AF81" s="171">
+      <c r="AB81" s="171"/>
+      <c r="AC81" s="171"/>
+      <c r="AD81" s="171"/>
+      <c r="AE81" s="171"/>
+      <c r="AF81" s="172">
         <v>79</v>
       </c>
-      <c r="AG81" s="171" t="s">
+      <c r="AG81" s="172" t="s">
         <v>707</v>
       </c>
-      <c r="AH81" s="171"/>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
-      <c r="AK81" s="162">
+      <c r="AH81" s="172"/>
+      <c r="AI81" s="172"/>
+      <c r="AJ81" s="172"/>
+      <c r="AK81" s="163">
         <v>79</v>
       </c>
-      <c r="AL81" s="162"/>
-      <c r="AM81" s="162"/>
-      <c r="AN81" s="162"/>
-      <c r="AO81" s="162"/>
-      <c r="AP81" s="190">
+      <c r="AL81" s="163"/>
+      <c r="AM81" s="163"/>
+      <c r="AN81" s="163"/>
+      <c r="AO81" s="163"/>
+      <c r="AP81" s="191">
         <v>79</v>
       </c>
-      <c r="AQ81" s="190" t="s">
+      <c r="AQ81" s="191" t="s">
         <v>707</v>
       </c>
-      <c r="AR81" s="190"/>
-      <c r="AS81" s="190"/>
-      <c r="AT81" s="190"/>
-      <c r="AU81" s="191">
+      <c r="AR81" s="191"/>
+      <c r="AS81" s="191"/>
+      <c r="AT81" s="191"/>
+      <c r="AU81" s="192">
         <v>79</v>
       </c>
-      <c r="AV81" s="191" t="s">
+      <c r="AV81" s="192" t="s">
         <v>600</v>
       </c>
-      <c r="AW81" s="191"/>
-      <c r="AX81" s="191"/>
-      <c r="AY81" s="191"/>
-      <c r="AZ81" s="199">
+      <c r="AW81" s="192"/>
+      <c r="AX81" s="192"/>
+      <c r="AY81" s="192"/>
+      <c r="AZ81" s="200">
         <v>79</v>
       </c>
-      <c r="BA81" s="199"/>
-      <c r="BB81" s="199"/>
-      <c r="BC81" s="199"/>
-      <c r="BD81" s="199"/>
-      <c r="BE81" s="208">
+      <c r="BA81" s="200"/>
+      <c r="BB81" s="200"/>
+      <c r="BC81" s="200"/>
+      <c r="BD81" s="200"/>
+      <c r="BE81" s="209">
         <v>79</v>
       </c>
-      <c r="BF81" s="208"/>
-      <c r="BG81" s="208"/>
-      <c r="BH81" s="208"/>
-      <c r="BI81" s="208"/>
-      <c r="BJ81" s="207">
+      <c r="BF81" s="209"/>
+      <c r="BG81" s="209"/>
+      <c r="BH81" s="209"/>
+      <c r="BI81" s="209"/>
+      <c r="BJ81" s="208">
         <v>79</v>
       </c>
-      <c r="BK81" s="207"/>
-      <c r="BL81" s="207"/>
-      <c r="BM81" s="207"/>
-      <c r="BN81" s="207"/>
-      <c r="BO81" s="161">
+      <c r="BK81" s="208"/>
+      <c r="BL81" s="208"/>
+      <c r="BM81" s="208"/>
+      <c r="BN81" s="208"/>
+      <c r="BO81" s="162">
         <v>79</v>
       </c>
-      <c r="BP81" s="215" t="s">
+      <c r="BP81" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="BQ81" s="161"/>
-      <c r="BR81" s="161"/>
-      <c r="BS81" s="161"/>
-      <c r="BT81" s="213">
+      <c r="BQ81" s="162"/>
+      <c r="BR81" s="162"/>
+      <c r="BS81" s="162"/>
+      <c r="BT81" s="214">
         <v>79</v>
       </c>
-      <c r="BU81" s="213" t="s">
+      <c r="BU81" s="214" t="s">
         <v>686</v>
       </c>
-      <c r="BV81" s="213"/>
-      <c r="BW81" s="213"/>
-      <c r="BX81" s="213"/>
-      <c r="BY81" s="220">
+      <c r="BV81" s="214"/>
+      <c r="BW81" s="214"/>
+      <c r="BX81" s="214"/>
+      <c r="BY81" s="221">
         <v>79</v>
       </c>
-      <c r="BZ81" s="221" t="s">
+      <c r="BZ81" s="222" t="s">
         <v>695</v>
       </c>
-      <c r="CA81" s="220"/>
-      <c r="CB81" s="220"/>
-      <c r="CC81" s="220"/>
+      <c r="CA81" s="221"/>
+      <c r="CB81" s="221"/>
+      <c r="CC81" s="221"/>
     </row>
     <row r="82" spans="2:81">
       <c r="B82" s="142">
@@ -19618,118 +19596,118 @@
       <c r="I82" s="141"/>
       <c r="J82" s="141"/>
       <c r="K82" s="141"/>
-      <c r="L82" s="149">
+      <c r="L82" s="150">
         <v>80</v>
       </c>
-      <c r="M82" s="149" t="s">
+      <c r="M82" s="150" t="s">
         <v>709</v>
       </c>
-      <c r="N82" s="149"/>
-      <c r="O82" s="149"/>
-      <c r="P82" s="150"/>
-      <c r="Q82" s="161">
+      <c r="N82" s="150"/>
+      <c r="O82" s="150"/>
+      <c r="P82" s="151"/>
+      <c r="Q82" s="162">
         <v>80</v>
       </c>
-      <c r="R82" s="161"/>
-      <c r="S82" s="161"/>
-      <c r="T82" s="161"/>
-      <c r="U82" s="161"/>
-      <c r="V82" s="162">
+      <c r="R82" s="162"/>
+      <c r="S82" s="162"/>
+      <c r="T82" s="162"/>
+      <c r="U82" s="162"/>
+      <c r="V82" s="163">
         <v>80</v>
       </c>
-      <c r="W82" s="162"/>
-      <c r="X82" s="162"/>
-      <c r="Y82" s="162"/>
-      <c r="Z82" s="162"/>
-      <c r="AA82" s="170">
+      <c r="W82" s="163"/>
+      <c r="X82" s="163"/>
+      <c r="Y82" s="163"/>
+      <c r="Z82" s="163"/>
+      <c r="AA82" s="171">
         <v>80</v>
       </c>
-      <c r="AB82" s="170"/>
-      <c r="AC82" s="170"/>
-      <c r="AD82" s="170"/>
-      <c r="AE82" s="170"/>
-      <c r="AF82" s="171">
+      <c r="AB82" s="171"/>
+      <c r="AC82" s="171"/>
+      <c r="AD82" s="171"/>
+      <c r="AE82" s="171"/>
+      <c r="AF82" s="172">
         <v>80</v>
       </c>
-      <c r="AG82" s="171" t="s">
+      <c r="AG82" s="172" t="s">
         <v>463</v>
       </c>
-      <c r="AH82" s="171"/>
-      <c r="AI82" s="171"/>
-      <c r="AJ82" s="171"/>
-      <c r="AK82" s="162">
+      <c r="AH82" s="172"/>
+      <c r="AI82" s="172"/>
+      <c r="AJ82" s="172"/>
+      <c r="AK82" s="163">
         <v>80</v>
       </c>
-      <c r="AL82" s="162"/>
-      <c r="AM82" s="162"/>
-      <c r="AN82" s="162"/>
-      <c r="AO82" s="162"/>
-      <c r="AP82" s="190">
+      <c r="AL82" s="163"/>
+      <c r="AM82" s="163"/>
+      <c r="AN82" s="163"/>
+      <c r="AO82" s="163"/>
+      <c r="AP82" s="191">
         <v>80</v>
       </c>
-      <c r="AQ82" s="190" t="s">
+      <c r="AQ82" s="191" t="s">
         <v>666</v>
       </c>
-      <c r="AR82" s="190"/>
-      <c r="AS82" s="190"/>
-      <c r="AT82" s="190"/>
-      <c r="AU82" s="191">
+      <c r="AR82" s="191"/>
+      <c r="AS82" s="191"/>
+      <c r="AT82" s="191"/>
+      <c r="AU82" s="192">
         <v>80</v>
       </c>
-      <c r="AV82" s="191" t="s">
+      <c r="AV82" s="192" t="s">
         <v>644</v>
       </c>
-      <c r="AW82" s="191"/>
-      <c r="AX82" s="191"/>
-      <c r="AY82" s="191"/>
-      <c r="AZ82" s="199">
+      <c r="AW82" s="192"/>
+      <c r="AX82" s="192"/>
+      <c r="AY82" s="192"/>
+      <c r="AZ82" s="200">
         <v>80</v>
       </c>
-      <c r="BA82" s="199"/>
-      <c r="BB82" s="199"/>
-      <c r="BC82" s="199"/>
-      <c r="BD82" s="199"/>
-      <c r="BE82" s="208">
+      <c r="BA82" s="200"/>
+      <c r="BB82" s="200"/>
+      <c r="BC82" s="200"/>
+      <c r="BD82" s="200"/>
+      <c r="BE82" s="209">
         <v>80</v>
       </c>
-      <c r="BF82" s="208"/>
-      <c r="BG82" s="208"/>
-      <c r="BH82" s="208"/>
-      <c r="BI82" s="208"/>
-      <c r="BJ82" s="207">
+      <c r="BF82" s="209"/>
+      <c r="BG82" s="209"/>
+      <c r="BH82" s="209"/>
+      <c r="BI82" s="209"/>
+      <c r="BJ82" s="208">
         <v>80</v>
       </c>
-      <c r="BK82" s="207"/>
-      <c r="BL82" s="207"/>
-      <c r="BM82" s="207"/>
-      <c r="BN82" s="207"/>
-      <c r="BO82" s="161">
+      <c r="BK82" s="208"/>
+      <c r="BL82" s="208"/>
+      <c r="BM82" s="208"/>
+      <c r="BN82" s="208"/>
+      <c r="BO82" s="162">
         <v>80</v>
       </c>
-      <c r="BP82" s="215" t="s">
+      <c r="BP82" s="216" t="s">
         <v>386</v>
       </c>
-      <c r="BQ82" s="161"/>
-      <c r="BR82" s="161"/>
-      <c r="BS82" s="161"/>
-      <c r="BT82" s="213">
+      <c r="BQ82" s="162"/>
+      <c r="BR82" s="162"/>
+      <c r="BS82" s="162"/>
+      <c r="BT82" s="214">
         <v>80</v>
       </c>
-      <c r="BU82" s="213" t="s">
+      <c r="BU82" s="214" t="s">
         <v>475</v>
       </c>
-      <c r="BV82" s="213"/>
-      <c r="BW82" s="213"/>
-      <c r="BX82" s="213"/>
-      <c r="BY82" s="220">
+      <c r="BV82" s="214"/>
+      <c r="BW82" s="214"/>
+      <c r="BX82" s="214"/>
+      <c r="BY82" s="221">
         <v>80</v>
       </c>
-      <c r="BZ82" s="221" t="s">
+      <c r="BZ82" s="222" t="s">
         <v>607</v>
       </c>
-      <c r="CA82" s="220"/>
-      <c r="CB82" s="220"/>
-      <c r="CC82" s="220"/>
+      <c r="CA82" s="221"/>
+      <c r="CB82" s="221"/>
+      <c r="CC82" s="221"/>
     </row>
     <row r="83" spans="2:81">
       <c r="B83" s="142">
@@ -19750,129 +19728,129 @@
       <c r="I83" s="141"/>
       <c r="J83" s="141"/>
       <c r="K83" s="141"/>
-      <c r="L83" s="149">
+      <c r="L83" s="150">
         <v>81</v>
       </c>
-      <c r="M83" s="149" t="s">
+      <c r="M83" s="150" t="s">
         <v>710</v>
       </c>
-      <c r="N83" s="149"/>
-      <c r="O83" s="149"/>
-      <c r="P83" s="150"/>
-      <c r="Q83" s="161">
+      <c r="N83" s="150"/>
+      <c r="O83" s="150"/>
+      <c r="P83" s="151"/>
+      <c r="Q83" s="162">
         <v>81</v>
       </c>
-      <c r="R83" s="161"/>
-      <c r="S83" s="161"/>
-      <c r="T83" s="161"/>
-      <c r="U83" s="161"/>
-      <c r="V83" s="162">
+      <c r="R83" s="162"/>
+      <c r="S83" s="162"/>
+      <c r="T83" s="162"/>
+      <c r="U83" s="162"/>
+      <c r="V83" s="163">
         <v>81</v>
       </c>
-      <c r="W83" s="162"/>
-      <c r="X83" s="162"/>
-      <c r="Y83" s="162"/>
-      <c r="Z83" s="162"/>
-      <c r="AA83" s="170">
+      <c r="W83" s="163"/>
+      <c r="X83" s="163"/>
+      <c r="Y83" s="163"/>
+      <c r="Z83" s="163"/>
+      <c r="AA83" s="171">
         <v>81</v>
       </c>
-      <c r="AB83" s="170"/>
-      <c r="AC83" s="170"/>
-      <c r="AD83" s="170"/>
-      <c r="AE83" s="170"/>
-      <c r="AF83" s="171">
+      <c r="AB83" s="171"/>
+      <c r="AC83" s="171"/>
+      <c r="AD83" s="171"/>
+      <c r="AE83" s="171"/>
+      <c r="AF83" s="172">
         <v>81</v>
       </c>
-      <c r="AG83" s="171" t="s">
+      <c r="AG83" s="172" t="s">
         <v>171</v>
       </c>
-      <c r="AH83" s="171"/>
-      <c r="AI83" s="171"/>
-      <c r="AJ83" s="171"/>
-      <c r="AK83" s="162">
+      <c r="AH83" s="172"/>
+      <c r="AI83" s="172"/>
+      <c r="AJ83" s="172"/>
+      <c r="AK83" s="163">
         <v>81</v>
       </c>
-      <c r="AL83" s="162"/>
-      <c r="AM83" s="162"/>
-      <c r="AN83" s="162"/>
-      <c r="AO83" s="162"/>
-      <c r="AP83" s="190">
+      <c r="AL83" s="163"/>
+      <c r="AM83" s="163"/>
+      <c r="AN83" s="163"/>
+      <c r="AO83" s="163"/>
+      <c r="AP83" s="191">
         <v>81</v>
       </c>
-      <c r="AQ83" s="190" t="s">
+      <c r="AQ83" s="191" t="s">
         <v>253</v>
       </c>
-      <c r="AR83" s="190"/>
-      <c r="AS83" s="190"/>
-      <c r="AT83" s="190"/>
-      <c r="AU83" s="191">
+      <c r="AR83" s="191"/>
+      <c r="AS83" s="191"/>
+      <c r="AT83" s="191"/>
+      <c r="AU83" s="192">
         <v>81</v>
       </c>
-      <c r="AV83" s="191" t="s">
+      <c r="AV83" s="192" t="s">
         <v>666</v>
       </c>
-      <c r="AW83" s="191"/>
-      <c r="AX83" s="191"/>
-      <c r="AY83" s="191"/>
-      <c r="AZ83" s="199">
+      <c r="AW83" s="192"/>
+      <c r="AX83" s="192"/>
+      <c r="AY83" s="192"/>
+      <c r="AZ83" s="200">
         <v>81</v>
       </c>
-      <c r="BA83" s="199"/>
-      <c r="BB83" s="199"/>
-      <c r="BC83" s="199"/>
-      <c r="BD83" s="199"/>
-      <c r="BE83" s="208">
+      <c r="BA83" s="200"/>
+      <c r="BB83" s="200"/>
+      <c r="BC83" s="200"/>
+      <c r="BD83" s="200"/>
+      <c r="BE83" s="209">
         <v>81</v>
       </c>
-      <c r="BF83" s="208"/>
-      <c r="BG83" s="208"/>
-      <c r="BH83" s="208"/>
-      <c r="BI83" s="208"/>
-      <c r="BJ83" s="207">
+      <c r="BF83" s="209"/>
+      <c r="BG83" s="209"/>
+      <c r="BH83" s="209"/>
+      <c r="BI83" s="209"/>
+      <c r="BJ83" s="208">
         <v>81</v>
       </c>
-      <c r="BK83" s="207"/>
-      <c r="BL83" s="207"/>
-      <c r="BM83" s="207"/>
-      <c r="BN83" s="207"/>
-      <c r="BO83" s="161">
+      <c r="BK83" s="208"/>
+      <c r="BL83" s="208"/>
+      <c r="BM83" s="208"/>
+      <c r="BN83" s="208"/>
+      <c r="BO83" s="162">
         <v>81</v>
       </c>
-      <c r="BP83" s="215" t="s">
+      <c r="BP83" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="BQ83" s="161"/>
-      <c r="BR83" s="161"/>
-      <c r="BS83" s="161"/>
-      <c r="BT83" s="213">
+      <c r="BQ83" s="162"/>
+      <c r="BR83" s="162"/>
+      <c r="BS83" s="162"/>
+      <c r="BT83" s="214">
         <v>81</v>
       </c>
-      <c r="BU83" s="213" t="s">
+      <c r="BU83" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="BV83" s="213"/>
-      <c r="BW83" s="213"/>
-      <c r="BX83" s="213"/>
-      <c r="BY83" s="220">
+      <c r="BV83" s="214"/>
+      <c r="BW83" s="214"/>
+      <c r="BX83" s="214"/>
+      <c r="BY83" s="221">
         <v>81</v>
       </c>
-      <c r="BZ83" s="221" t="s">
+      <c r="BZ83" s="222" t="s">
         <v>569</v>
       </c>
-      <c r="CA83" s="220"/>
-      <c r="CB83" s="220"/>
-      <c r="CC83" s="220"/>
+      <c r="CA83" s="221"/>
+      <c r="CB83" s="221"/>
+      <c r="CC83" s="221"/>
     </row>
     <row r="84" spans="2:81">
-      <c r="B84" s="222">
+      <c r="B84" s="223">
         <v>82</v>
       </c>
-      <c r="C84" s="222" t="s">
+      <c r="C84" s="223" t="s">
         <v>677</v>
       </c>
-      <c r="D84" s="222"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="222"/>
+      <c r="D84" s="223"/>
+      <c r="E84" s="223"/>
+      <c r="F84" s="223"/>
       <c r="G84" s="141">
         <v>82</v>
       </c>
@@ -19882,125 +19860,125 @@
       <c r="I84" s="141"/>
       <c r="J84" s="141"/>
       <c r="K84" s="141"/>
-      <c r="L84" s="149">
+      <c r="L84" s="150">
         <v>82</v>
       </c>
-      <c r="M84" s="149" t="s">
+      <c r="M84" s="150" t="s">
         <v>633</v>
       </c>
-      <c r="N84" s="149"/>
-      <c r="O84" s="149"/>
-      <c r="P84" s="150"/>
-      <c r="Q84" s="161">
+      <c r="N84" s="150"/>
+      <c r="O84" s="150"/>
+      <c r="P84" s="151"/>
+      <c r="Q84" s="162">
         <v>82</v>
       </c>
-      <c r="R84" s="161"/>
-      <c r="S84" s="161"/>
-      <c r="T84" s="161"/>
-      <c r="U84" s="161"/>
-      <c r="V84" s="162">
+      <c r="R84" s="162"/>
+      <c r="S84" s="162"/>
+      <c r="T84" s="162"/>
+      <c r="U84" s="162"/>
+      <c r="V84" s="163">
         <v>82</v>
       </c>
-      <c r="W84" s="162"/>
-      <c r="X84" s="162"/>
-      <c r="Y84" s="162"/>
-      <c r="Z84" s="162"/>
-      <c r="AA84" s="170">
+      <c r="W84" s="163"/>
+      <c r="X84" s="163"/>
+      <c r="Y84" s="163"/>
+      <c r="Z84" s="163"/>
+      <c r="AA84" s="171">
         <v>82</v>
       </c>
-      <c r="AB84" s="170"/>
-      <c r="AC84" s="170"/>
-      <c r="AD84" s="170"/>
-      <c r="AE84" s="170"/>
-      <c r="AF84" s="171">
+      <c r="AB84" s="171"/>
+      <c r="AC84" s="171"/>
+      <c r="AD84" s="171"/>
+      <c r="AE84" s="171"/>
+      <c r="AF84" s="172">
         <v>82</v>
       </c>
-      <c r="AG84" s="171" t="s">
+      <c r="AG84" s="172" t="s">
         <v>171</v>
       </c>
-      <c r="AH84" s="171"/>
-      <c r="AI84" s="171"/>
-      <c r="AJ84" s="171"/>
-      <c r="AK84" s="162">
+      <c r="AH84" s="172"/>
+      <c r="AI84" s="172"/>
+      <c r="AJ84" s="172"/>
+      <c r="AK84" s="163">
         <v>82</v>
       </c>
-      <c r="AL84" s="162"/>
-      <c r="AM84" s="162"/>
-      <c r="AN84" s="162"/>
-      <c r="AO84" s="162"/>
-      <c r="AP84" s="190">
+      <c r="AL84" s="163"/>
+      <c r="AM84" s="163"/>
+      <c r="AN84" s="163"/>
+      <c r="AO84" s="163"/>
+      <c r="AP84" s="191">
         <v>82</v>
       </c>
-      <c r="AQ84" s="190" t="s">
+      <c r="AQ84" s="191" t="s">
         <v>403</v>
       </c>
-      <c r="AR84" s="190"/>
-      <c r="AS84" s="190"/>
-      <c r="AT84" s="190"/>
-      <c r="AU84" s="191">
+      <c r="AR84" s="191"/>
+      <c r="AS84" s="191"/>
+      <c r="AT84" s="191"/>
+      <c r="AU84" s="192">
         <v>82</v>
       </c>
-      <c r="AV84" s="191" t="s">
+      <c r="AV84" s="192" t="s">
         <v>711</v>
       </c>
-      <c r="AW84" s="191"/>
-      <c r="AX84" s="191"/>
-      <c r="AY84" s="191"/>
-      <c r="AZ84" s="199">
+      <c r="AW84" s="192"/>
+      <c r="AX84" s="192"/>
+      <c r="AY84" s="192"/>
+      <c r="AZ84" s="200">
         <v>82</v>
       </c>
-      <c r="BA84" s="199"/>
-      <c r="BB84" s="199"/>
-      <c r="BC84" s="199"/>
-      <c r="BD84" s="199"/>
-      <c r="BE84" s="208">
+      <c r="BA84" s="200"/>
+      <c r="BB84" s="200"/>
+      <c r="BC84" s="200"/>
+      <c r="BD84" s="200"/>
+      <c r="BE84" s="209">
         <v>82</v>
       </c>
-      <c r="BF84" s="208"/>
-      <c r="BG84" s="208"/>
-      <c r="BH84" s="208"/>
-      <c r="BI84" s="208"/>
-      <c r="BJ84" s="207">
+      <c r="BF84" s="209"/>
+      <c r="BG84" s="209"/>
+      <c r="BH84" s="209"/>
+      <c r="BI84" s="209"/>
+      <c r="BJ84" s="208">
         <v>82</v>
       </c>
-      <c r="BK84" s="207"/>
-      <c r="BL84" s="207"/>
-      <c r="BM84" s="207"/>
-      <c r="BN84" s="207"/>
-      <c r="BO84" s="161">
+      <c r="BK84" s="208"/>
+      <c r="BL84" s="208"/>
+      <c r="BM84" s="208"/>
+      <c r="BN84" s="208"/>
+      <c r="BO84" s="162">
         <v>82</v>
       </c>
-      <c r="BP84" s="215" t="s">
+      <c r="BP84" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="BQ84" s="161"/>
-      <c r="BR84" s="161"/>
-      <c r="BS84" s="161"/>
-      <c r="BT84" s="213">
+      <c r="BQ84" s="162"/>
+      <c r="BR84" s="162"/>
+      <c r="BS84" s="162"/>
+      <c r="BT84" s="214">
         <v>82</v>
       </c>
-      <c r="BU84" s="213" t="s">
+      <c r="BU84" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="BV84" s="213"/>
-      <c r="BW84" s="213"/>
-      <c r="BX84" s="213"/>
-      <c r="BY84" s="220">
+      <c r="BV84" s="214"/>
+      <c r="BW84" s="214"/>
+      <c r="BX84" s="214"/>
+      <c r="BY84" s="221">
         <v>82</v>
       </c>
-      <c r="BZ84" s="221" t="s">
+      <c r="BZ84" s="222" t="s">
         <v>329</v>
       </c>
-      <c r="CA84" s="220"/>
-      <c r="CB84" s="220"/>
-      <c r="CC84" s="220"/>
+      <c r="CA84" s="221"/>
+      <c r="CB84" s="221"/>
+      <c r="CC84" s="221"/>
     </row>
     <row r="85" spans="2:81">
-      <c r="B85" s="223" t="s">
+      <c r="B85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="C85" s="224"/>
-      <c r="D85" s="224">
+      <c r="C85" s="225"/>
+      <c r="D85" s="225">
         <f>SUM(D3:D84)</f>
         <v>-5158</v>
       </c>
@@ -20008,12 +19986,12 @@
         <f>SUM(E3:E84)</f>
         <v>3095</v>
       </c>
-      <c r="F85" s="224"/>
-      <c r="G85" s="223" t="s">
+      <c r="F85" s="225"/>
+      <c r="G85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="H85" s="224"/>
-      <c r="I85" s="224">
+      <c r="H85" s="225"/>
+      <c r="I85" s="225">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
         <v>-13979</v>
       </c>
@@ -20021,25 +19999,25 @@
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="K85" s="224"/>
-      <c r="L85" s="223" t="s">
+      <c r="K85" s="225"/>
+      <c r="L85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="M85" s="224"/>
-      <c r="N85" s="224">
+      <c r="M85" s="225"/>
+      <c r="N85" s="225">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-6214</v>
+        <v>-6279</v>
       </c>
       <c r="O85" s="126">
         <f t="shared" si="1"/>
         <v>2488</v>
       </c>
-      <c r="P85" s="224"/>
-      <c r="Q85" s="223" t="s">
+      <c r="P85" s="225"/>
+      <c r="Q85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="R85" s="224"/>
-      <c r="S85" s="224">
+      <c r="R85" s="225"/>
+      <c r="S85" s="225">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
         <v>1245972</v>
       </c>
@@ -20047,12 +20025,12 @@
         <f t="shared" si="2"/>
         <v>2611</v>
       </c>
-      <c r="U85" s="224"/>
-      <c r="V85" s="223" t="s">
+      <c r="U85" s="225"/>
+      <c r="V85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="W85" s="224"/>
-      <c r="X85" s="224">
+      <c r="W85" s="225"/>
+      <c r="X85" s="225">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
         <v>-5409</v>
       </c>
@@ -20060,12 +20038,12 @@
         <f t="shared" si="3"/>
         <v>2545</v>
       </c>
-      <c r="Z85" s="224"/>
-      <c r="AA85" s="223" t="s">
+      <c r="Z85" s="225"/>
+      <c r="AA85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="AB85" s="224"/>
-      <c r="AC85" s="224">
+      <c r="AB85" s="225"/>
+      <c r="AC85" s="225">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
         <v>-23334</v>
       </c>
@@ -20073,12 +20051,12 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="AE85" s="224"/>
-      <c r="AF85" s="223" t="s">
+      <c r="AE85" s="225"/>
+      <c r="AF85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="AG85" s="224"/>
-      <c r="AH85" s="224">
+      <c r="AG85" s="225"/>
+      <c r="AH85" s="225">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
         <v>-5506</v>
       </c>
@@ -20086,12 +20064,12 @@
         <f t="shared" si="5"/>
         <v>3017</v>
       </c>
-      <c r="AJ85" s="224"/>
-      <c r="AK85" s="223" t="s">
+      <c r="AJ85" s="225"/>
+      <c r="AK85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="AL85" s="224"/>
-      <c r="AM85" s="224">
+      <c r="AL85" s="225"/>
+      <c r="AM85" s="225">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
         <v>-13533</v>
       </c>
@@ -20099,12 +20077,12 @@
         <f t="shared" si="6"/>
         <v>1729</v>
       </c>
-      <c r="AO85" s="224"/>
-      <c r="AP85" s="223" t="s">
+      <c r="AO85" s="225"/>
+      <c r="AP85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="AQ85" s="224"/>
-      <c r="AR85" s="224">
+      <c r="AQ85" s="225"/>
+      <c r="AR85" s="225">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
         <v>-3771</v>
       </c>
@@ -20112,12 +20090,12 @@
         <f t="shared" si="7"/>
         <v>2861</v>
       </c>
-      <c r="AT85" s="224"/>
-      <c r="AU85" s="223" t="s">
+      <c r="AT85" s="225"/>
+      <c r="AU85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="AV85" s="224"/>
-      <c r="AW85" s="224">
+      <c r="AV85" s="225"/>
+      <c r="AW85" s="225">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
         <v>-11147</v>
       </c>
@@ -20125,12 +20103,12 @@
         <f t="shared" si="8"/>
         <v>2181</v>
       </c>
-      <c r="AY85" s="224"/>
-      <c r="AZ85" s="223" t="s">
+      <c r="AY85" s="225"/>
+      <c r="AZ85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BA85" s="224"/>
-      <c r="BB85" s="224">
+      <c r="BA85" s="225"/>
+      <c r="BB85" s="225">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
         <v>-14520</v>
       </c>
@@ -20138,12 +20116,12 @@
         <f t="shared" si="9"/>
         <v>661</v>
       </c>
-      <c r="BD85" s="224"/>
-      <c r="BE85" s="223" t="s">
+      <c r="BD85" s="225"/>
+      <c r="BE85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BF85" s="224"/>
-      <c r="BG85" s="224">
+      <c r="BF85" s="225"/>
+      <c r="BG85" s="225">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
         <v>-10782</v>
       </c>
@@ -20151,12 +20129,12 @@
         <f t="shared" si="10"/>
         <v>2138</v>
       </c>
-      <c r="BI85" s="224"/>
-      <c r="BJ85" s="223" t="s">
+      <c r="BI85" s="225"/>
+      <c r="BJ85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BK85" s="224"/>
-      <c r="BL85" s="224">
+      <c r="BK85" s="225"/>
+      <c r="BL85" s="225">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
         <v>-6754</v>
       </c>
@@ -20164,12 +20142,12 @@
         <f t="shared" si="11"/>
         <v>1665</v>
       </c>
-      <c r="BN85" s="224"/>
-      <c r="BO85" s="223" t="s">
+      <c r="BN85" s="225"/>
+      <c r="BO85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BP85" s="224"/>
-      <c r="BQ85" s="224">
+      <c r="BP85" s="225"/>
+      <c r="BQ85" s="225">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
         <v>-7011</v>
       </c>
@@ -20177,12 +20155,12 @@
         <f t="shared" si="12"/>
         <v>1946</v>
       </c>
-      <c r="BS85" s="224"/>
-      <c r="BT85" s="223" t="s">
+      <c r="BS85" s="225"/>
+      <c r="BT85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BU85" s="224"/>
-      <c r="BV85" s="224">
+      <c r="BU85" s="225"/>
+      <c r="BV85" s="225">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
         <v>-4071</v>
       </c>
@@ -20190,12 +20168,12 @@
         <f t="shared" si="13"/>
         <v>3030</v>
       </c>
-      <c r="BX85" s="224"/>
-      <c r="BY85" s="223" t="s">
+      <c r="BX85" s="225"/>
+      <c r="BY85" s="224" t="s">
         <v>712</v>
       </c>
-      <c r="BZ85" s="224"/>
-      <c r="CA85" s="224">
+      <c r="BZ85" s="225"/>
+      <c r="CA85" s="225">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
         <v>-7079</v>
       </c>
@@ -20203,7 +20181,7 @@
         <f t="shared" si="14"/>
         <v>2144</v>
       </c>
-      <c r="CC85" s="224"/>
+      <c r="CC85" s="225"/>
     </row>
     <row r="92" spans="8:10">
       <c r="H92" s="127" t="s">
@@ -20246,8 +20224,8 @@
   <sheetPr/>
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="AZ25" workbookViewId="0">
-      <selection activeCell="BI57" sqref="BI57:BM57"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30339,14 +30317,16 @@
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="20">
+      <c r="F55" s="19">
         <v>53</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="H55" s="19">
+        <v>-75</v>
+      </c>
+      <c r="I55" s="19"/>
       <c r="J55" s="37"/>
       <c r="K55" s="17">
         <v>53</v>
@@ -30495,24 +30475,24 @@
       <c r="CB55" s="17"/>
     </row>
     <row r="56" ht="15.75" spans="1:80">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="20">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21">
         <v>54</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="37"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="38"/>
       <c r="K56" s="19">
         <v>54</v>
       </c>
@@ -30523,7 +30503,7 @@
         <v>-450</v>
       </c>
       <c r="N56" s="19"/>
-      <c r="O56" s="38"/>
+      <c r="O56" s="37"/>
       <c r="P56" s="39">
         <v>54</v>
       </c>
@@ -30650,24 +30630,24 @@
       <c r="CB56" s="16"/>
     </row>
     <row r="57" ht="15" spans="1:80">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>55</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="20">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21">
         <v>55</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="37"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="40">
         <v>55</v>
       </c>
@@ -30786,24 +30766,24 @@
       <c r="CB57" s="19"/>
     </row>
     <row r="58" ht="15" spans="1:80">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>1019</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="20">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21">
         <v>56</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="37"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="38"/>
       <c r="K58" s="40">
         <v>56</v>
       </c>
@@ -30914,24 +30894,24 @@
       <c r="CB58" s="96"/>
     </row>
     <row r="59" ht="15" spans="1:80">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>57</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>1020</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="20">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21">
         <v>57</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="37"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="40">
         <v>57</v>
       </c>
@@ -31042,24 +31022,24 @@
       <c r="CB59" s="96"/>
     </row>
     <row r="60" ht="15" spans="1:80">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>58</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="20">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21">
         <v>58</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="37"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="40">
         <v>58</v>
       </c>
@@ -31170,24 +31150,24 @@
       <c r="CB60" s="96"/>
     </row>
     <row r="61" ht="15" spans="1:80">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>59</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="20">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21">
         <v>59</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="37"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="38"/>
       <c r="K61" s="40">
         <v>59</v>
       </c>
@@ -31298,24 +31278,24 @@
       <c r="CB61" s="96"/>
     </row>
     <row r="62" ht="15" spans="1:80">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>60</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="20">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21">
         <v>60</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="37"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="38"/>
       <c r="K62" s="40">
         <v>60</v>
       </c>
@@ -31426,24 +31406,24 @@
       <c r="CB62" s="96"/>
     </row>
     <row r="63" ht="15" spans="1:80">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>61</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>1033</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="20">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21">
         <v>61</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="37"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="38"/>
       <c r="K63" s="40">
         <v>61</v>
       </c>
@@ -31554,24 +31534,24 @@
       <c r="CB63" s="96"/>
     </row>
     <row r="64" ht="15" spans="1:80">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>62</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="20">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21">
         <v>62</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="37"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="38"/>
       <c r="K64" s="40">
         <v>62</v>
       </c>
@@ -31682,24 +31662,24 @@
       <c r="CB64" s="96"/>
     </row>
     <row r="65" ht="15" spans="1:80">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>63</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="20">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21">
         <v>63</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="21" t="s">
         <v>1006</v>
       </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="37"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="38"/>
       <c r="K65" s="40">
         <v>63</v>
       </c>
@@ -31810,24 +31790,24 @@
       <c r="CB65" s="96"/>
     </row>
     <row r="66" ht="15" spans="1:80">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>64</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="20">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21">
         <v>64</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="21" t="s">
         <v>1042</v>
       </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="37"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="38"/>
       <c r="K66" s="40">
         <v>64</v>
       </c>
@@ -31938,24 +31918,24 @@
       <c r="CB66" s="96"/>
     </row>
     <row r="67" ht="15" spans="1:80">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>65</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="20">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21">
         <v>65</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="21" t="s">
         <v>1047</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="37"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="38"/>
       <c r="K67" s="40">
         <v>65</v>
       </c>
@@ -32066,24 +32046,24 @@
       <c r="CB67" s="96"/>
     </row>
     <row r="68" ht="15" spans="1:80">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>66</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>991</v>
       </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="20">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21">
         <v>66</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="21" t="s">
         <v>954</v>
       </c>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="37"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="38"/>
       <c r="K68" s="40">
         <v>66</v>
       </c>
@@ -32194,24 +32174,24 @@
       <c r="CB68" s="96"/>
     </row>
     <row r="69" ht="15" spans="1:80">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>67</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>1051</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="20">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21">
         <v>67</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="37"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="38"/>
       <c r="K69" s="40">
         <v>67</v>
       </c>
@@ -32322,24 +32302,24 @@
       <c r="CB69" s="96"/>
     </row>
     <row r="70" ht="15" spans="1:80">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>68</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>1057</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="20">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21">
         <v>68</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="21" t="s">
         <v>1058</v>
       </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="37"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="38"/>
       <c r="K70" s="40">
         <v>68</v>
       </c>
@@ -32450,24 +32430,24 @@
       <c r="CB70" s="96"/>
     </row>
     <row r="71" ht="15" spans="1:80">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>69</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="20">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21">
         <v>69</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="37"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="38"/>
       <c r="K71" s="40">
         <v>69</v>
       </c>
@@ -32578,24 +32558,24 @@
       <c r="CB71" s="96"/>
     </row>
     <row r="72" ht="15" spans="1:80">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>70</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>1064</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="20">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21">
         <v>70</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="37"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="38"/>
       <c r="K72" s="40">
         <v>70</v>
       </c>
@@ -32706,24 +32686,24 @@
       <c r="CB72" s="96"/>
     </row>
     <row r="73" ht="15" spans="1:80">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>71</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="20">
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21">
         <v>71</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="21" t="s">
         <v>1068</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="37"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="38"/>
       <c r="K73" s="40">
         <v>71</v>
       </c>
@@ -32834,24 +32814,24 @@
       <c r="CB73" s="96"/>
     </row>
     <row r="74" ht="15" spans="1:80">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>72</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>1072</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="20">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21">
         <v>72</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="21" t="s">
         <v>1073</v>
       </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="37"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="38"/>
       <c r="K74" s="40">
         <v>72</v>
       </c>
@@ -32962,24 +32942,24 @@
       <c r="CB74" s="96"/>
     </row>
     <row r="75" ht="15" spans="1:80">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>73</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>1072</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="20">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21">
         <v>73</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="37"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="38"/>
       <c r="K75" s="40">
         <v>73</v>
       </c>
@@ -33090,24 +33070,24 @@
       <c r="CB75" s="96"/>
     </row>
     <row r="76" ht="15" spans="1:80">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>74</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="20">
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21">
         <v>74</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="21" t="s">
         <v>694</v>
       </c>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="37"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="38"/>
       <c r="K76" s="40">
         <v>74</v>
       </c>
@@ -33218,24 +33198,24 @@
       <c r="CB76" s="96"/>
     </row>
     <row r="77" ht="15" spans="1:80">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>75</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="20">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21">
         <v>75</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="21" t="s">
         <v>1081</v>
       </c>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="37"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="38"/>
       <c r="K77" s="40">
         <v>75</v>
       </c>
@@ -33346,24 +33326,24 @@
       <c r="CB77" s="96"/>
     </row>
     <row r="78" ht="15" spans="1:80">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>76</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="20">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21">
         <v>76</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="37"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="38"/>
       <c r="K78" s="40">
         <v>76</v>
       </c>
@@ -33474,24 +33454,24 @@
       <c r="CB78" s="96"/>
     </row>
     <row r="79" ht="15" spans="1:80">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>77</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="20">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21">
         <v>77</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="37"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="38"/>
       <c r="K79" s="40">
         <v>77</v>
       </c>
@@ -33602,24 +33582,24 @@
       <c r="CB79" s="96"/>
     </row>
     <row r="80" ht="15" spans="1:80">
-      <c r="A80" s="21">
+      <c r="A80" s="20">
         <v>78</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="20">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21">
         <v>78</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="21" t="s">
         <v>1086</v>
       </c>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="37"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="38"/>
       <c r="K80" s="40">
         <v>78</v>
       </c>
@@ -33730,24 +33710,24 @@
       <c r="CB80" s="96"/>
     </row>
     <row r="81" ht="15" spans="1:80">
-      <c r="A81" s="21">
+      <c r="A81" s="20">
         <v>79</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="20">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21">
         <v>79</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="37"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="38"/>
       <c r="K81" s="40">
         <v>79</v>
       </c>
@@ -33858,24 +33838,24 @@
       <c r="CB81" s="96"/>
     </row>
     <row r="82" ht="15" spans="1:80">
-      <c r="A82" s="21">
+      <c r="A82" s="20">
         <v>80</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="20">
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21">
         <v>80</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="21" t="s">
         <v>1088</v>
       </c>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="37"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="38"/>
       <c r="K82" s="40">
         <v>80</v>
       </c>
@@ -33986,24 +33966,24 @@
       <c r="CB82" s="96"/>
     </row>
     <row r="83" ht="15" spans="1:80">
-      <c r="A83" s="21">
+      <c r="A83" s="20">
         <v>81</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="20" t="s">
         <v>1020</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="20">
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21">
         <v>81</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="37"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="38"/>
       <c r="K83" s="40">
         <v>81</v>
       </c>
@@ -34123,15 +34103,15 @@
       <c r="C84" s="123"/>
       <c r="D84" s="123"/>
       <c r="E84" s="123"/>
-      <c r="F84" s="20">
+      <c r="F84" s="21">
         <v>82</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="37"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="38"/>
       <c r="K84" s="40">
         <v>82</v>
       </c>
@@ -34261,7 +34241,7 @@
       <c r="G85" s="125"/>
       <c r="H85" s="125">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-7352</v>
+        <v>-7427</v>
       </c>
       <c r="I85" s="126">
         <f t="shared" si="0"/>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1100">
   <si>
     <t>№ Матча</t>
   </si>
@@ -4560,7 +4560,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4922,12 +4922,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4936,6 +4930,15 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5013,7 +5016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5048,7 +5051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5259,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57:Z57"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15383,13 +15386,17 @@
         <v>194</v>
       </c>
       <c r="AY54" s="132"/>
-      <c r="AZ54" s="192">
+      <c r="AZ54" s="217">
         <v>52</v>
       </c>
-      <c r="BA54" s="192"/>
-      <c r="BB54" s="192"/>
-      <c r="BC54" s="192"/>
-      <c r="BD54" s="192"/>
+      <c r="BA54" s="217" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB54" s="217">
+        <v>-112</v>
+      </c>
+      <c r="BC54" s="217"/>
+      <c r="BD54" s="217"/>
       <c r="BE54" s="74">
         <v>52</v>
       </c>
@@ -15401,17 +15408,17 @@
       </c>
       <c r="BH54" s="74"/>
       <c r="BI54" s="74"/>
-      <c r="BJ54" s="219">
+      <c r="BJ54" s="217">
         <v>52</v>
       </c>
-      <c r="BK54" s="219" t="s">
+      <c r="BK54" s="217" t="s">
         <v>1099</v>
       </c>
-      <c r="BL54" s="219">
+      <c r="BL54" s="217">
         <v>-155</v>
       </c>
-      <c r="BM54" s="219"/>
-      <c r="BN54" s="219"/>
+      <c r="BM54" s="217"/>
+      <c r="BN54" s="217"/>
       <c r="BO54" s="74">
         <v>52</v>
       </c>
@@ -15773,17 +15780,17 @@
         <v>140</v>
       </c>
       <c r="BS56" s="132"/>
-      <c r="BT56" s="219">
+      <c r="BT56" s="217">
         <v>54</v>
       </c>
-      <c r="BU56" s="219" t="s">
+      <c r="BU56" s="217" t="s">
         <v>605</v>
       </c>
-      <c r="BV56" s="219">
+      <c r="BV56" s="217">
         <v>-65</v>
       </c>
-      <c r="BW56" s="219"/>
-      <c r="BX56" s="219"/>
+      <c r="BW56" s="217"/>
+      <c r="BX56" s="217"/>
       <c r="BY56" s="212">
         <v>54</v>
       </c>
@@ -15809,26 +15816,28 @@
         <v>226</v>
       </c>
       <c r="F57" s="132"/>
-      <c r="G57" s="219">
+      <c r="G57" s="217">
         <v>55</v>
       </c>
-      <c r="H57" s="219" t="s">
+      <c r="H57" s="217" t="s">
         <v>607</v>
       </c>
-      <c r="I57" s="219">
-        <v>-60</v>
-      </c>
-      <c r="J57" s="219"/>
-      <c r="K57" s="219"/>
-      <c r="L57" s="142">
+      <c r="I57" s="217">
+        <v>-60</v>
+      </c>
+      <c r="J57" s="217"/>
+      <c r="K57" s="217"/>
+      <c r="L57" s="217">
         <v>55</v>
       </c>
-      <c r="M57" s="142" t="s">
+      <c r="M57" s="217" t="s">
         <v>608</v>
       </c>
-      <c r="N57" s="142"/>
-      <c r="O57" s="142"/>
-      <c r="P57" s="143"/>
+      <c r="N57" s="217">
+        <v>-90</v>
+      </c>
+      <c r="O57" s="217"/>
+      <c r="P57" s="228"/>
       <c r="Q57" s="154">
         <v>55</v>
       </c>
@@ -15836,17 +15845,17 @@
       <c r="S57" s="154"/>
       <c r="T57" s="154"/>
       <c r="U57" s="154"/>
-      <c r="V57" s="219">
+      <c r="V57" s="217">
         <v>55</v>
       </c>
-      <c r="W57" s="226" t="s">
+      <c r="W57" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="X57" s="219">
+      <c r="X57" s="217">
         <v>-90</v>
       </c>
-      <c r="Y57" s="219"/>
-      <c r="Z57" s="219"/>
+      <c r="Y57" s="217"/>
+      <c r="Z57" s="217"/>
       <c r="AA57" s="74">
         <v>55</v>
       </c>
@@ -15954,17 +15963,17 @@
       <c r="CC57" s="212"/>
     </row>
     <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="219">
+      <c r="B58" s="217">
         <v>56</v>
       </c>
-      <c r="C58" s="219" t="s">
+      <c r="C58" s="217" t="s">
         <v>612</v>
       </c>
-      <c r="D58" s="219">
-        <v>-60</v>
-      </c>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
+      <c r="D58" s="217">
+        <v>-60</v>
+      </c>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
       <c r="G58" s="134">
         <v>56</v>
       </c>
@@ -16197,15 +16206,17 @@
       <c r="BL59" s="200"/>
       <c r="BM59" s="200"/>
       <c r="BN59" s="200"/>
-      <c r="BO59" s="154">
+      <c r="BO59" s="217">
         <v>57</v>
       </c>
-      <c r="BP59" s="207" t="s">
+      <c r="BP59" s="227" t="s">
         <v>53</v>
       </c>
-      <c r="BQ59" s="154"/>
-      <c r="BR59" s="154"/>
-      <c r="BS59" s="154"/>
+      <c r="BQ59" s="217">
+        <v>-75</v>
+      </c>
+      <c r="BR59" s="217"/>
+      <c r="BS59" s="217"/>
       <c r="BT59" s="206">
         <v>57</v>
       </c>
@@ -19558,7 +19569,7 @@
       <c r="M85" s="216"/>
       <c r="N85" s="216">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-6354</v>
+        <v>-6444</v>
       </c>
       <c r="O85" s="120">
         <f t="shared" si="1"/>
@@ -19662,7 +19673,7 @@
       <c r="BA85" s="216"/>
       <c r="BB85" s="216">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-14610</v>
+        <v>-14722</v>
       </c>
       <c r="BC85" s="120">
         <f t="shared" si="9"/>
@@ -19701,7 +19712,7 @@
       <c r="BP85" s="216"/>
       <c r="BQ85" s="216">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-7076</v>
+        <v>-7151</v>
       </c>
       <c r="BR85" s="120">
         <f t="shared" si="12"/>
@@ -19736,29 +19747,29 @@
       <c r="CC85" s="216"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="217" t="s">
+      <c r="H92" s="225" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="217">
+      <c r="I92" s="225">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>34341</v>
       </c>
-      <c r="J92" s="217"/>
+      <c r="J92" s="225"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="217"/>
-      <c r="I93" s="217"/>
-      <c r="J93" s="217"/>
+      <c r="H93" s="225"/>
+      <c r="I93" s="225"/>
+      <c r="J93" s="225"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="217"/>
-      <c r="I94" s="217"/>
-      <c r="J94" s="217"/>
+      <c r="H94" s="225"/>
+      <c r="I94" s="225"/>
+      <c r="J94" s="225"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="217"/>
-      <c r="I95" s="217"/>
-      <c r="J95" s="217"/>
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
+      <c r="J95" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19774,8 +19785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="BF25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BX58" sqref="BX58:CB58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58:T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29164,7 +29175,7 @@
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="31">
-        <v>-4.5</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="P51" s="32">
         <v>49</v>
@@ -29357,8 +29368,8 @@
       </c>
       <c r="N52" s="17"/>
       <c r="O52" s="31">
-        <f>O51*M57</f>
-        <v>2700</v>
+        <f>O51*M58</f>
+        <v>3520.0000000000005</v>
       </c>
       <c r="P52" s="32">
         <v>50</v>
@@ -29543,8 +29554,8 @@
       </c>
       <c r="N53" s="17"/>
       <c r="O53" s="31">
-        <f>O52+SUM(M47:M57)</f>
-        <v>165</v>
+        <f>O52+SUM(M47:M58)</f>
+        <v>185.00000000000045</v>
       </c>
       <c r="P53" s="32">
         <v>51</v>
@@ -29765,13 +29776,17 @@
       </c>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
-      <c r="AE54" s="57">
+      <c r="AE54" s="111">
         <v>52</v>
       </c>
-      <c r="AF54" s="57"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="57"/>
-      <c r="AI54" s="57"/>
+      <c r="AF54" s="111" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AG54" s="111">
+        <v>-60</v>
+      </c>
+      <c r="AH54" s="111"/>
+      <c r="AI54" s="111"/>
       <c r="AJ54" s="16">
         <v>52</v>
       </c>
@@ -29861,13 +29876,17 @@
       </c>
       <c r="BQ54" s="17"/>
       <c r="BR54" s="17"/>
-      <c r="BS54" s="112">
+      <c r="BS54" s="111">
         <v>52</v>
       </c>
-      <c r="BT54" s="101"/>
-      <c r="BU54" s="101"/>
-      <c r="BV54" s="101"/>
-      <c r="BW54" s="101"/>
+      <c r="BT54" s="111" t="s">
+        <v>734</v>
+      </c>
+      <c r="BU54" s="111">
+        <v>-155</v>
+      </c>
+      <c r="BV54" s="111"/>
+      <c r="BW54" s="111"/>
       <c r="BX54" s="17">
         <v>52</v>
       </c>
@@ -29954,17 +29973,17 @@
       <c r="AG55" s="57"/>
       <c r="AH55" s="57"/>
       <c r="AI55" s="57"/>
-      <c r="AJ55" s="220">
+      <c r="AJ55" s="218">
         <v>53</v>
       </c>
-      <c r="AK55" s="220" t="s">
+      <c r="AK55" s="218" t="s">
         <v>1099</v>
       </c>
-      <c r="AL55" s="220">
-        <v>-60</v>
-      </c>
-      <c r="AM55" s="220"/>
-      <c r="AN55" s="220"/>
+      <c r="AL55" s="218">
+        <v>-60</v>
+      </c>
+      <c r="AM55" s="218"/>
+      <c r="AN55" s="218"/>
       <c r="AO55" s="17">
         <v>53</v>
       </c>
@@ -30075,7 +30094,7 @@
         <v>-90</v>
       </c>
       <c r="I56" s="111"/>
-      <c r="J56" s="222"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="17">
         <v>54</v>
       </c>
@@ -30236,15 +30255,17 @@
       </c>
       <c r="D57" s="111"/>
       <c r="E57" s="111"/>
-      <c r="F57" s="19">
+      <c r="F57" s="111">
         <v>55</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="111" t="s">
         <v>1023</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="36"/>
+      <c r="H57" s="111">
+        <v>-112</v>
+      </c>
+      <c r="I57" s="111"/>
+      <c r="J57" s="220"/>
       <c r="K57" s="17">
         <v>55</v>
       </c>
@@ -30267,7 +30288,7 @@
       </c>
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="221">
+      <c r="U57" s="219">
         <v>55</v>
       </c>
       <c r="V57" s="111" t="s">
@@ -30309,7 +30330,7 @@
       <c r="AO57" s="111">
         <v>55</v>
       </c>
-      <c r="AP57" s="225" t="s">
+      <c r="AP57" s="223" t="s">
         <v>880</v>
       </c>
       <c r="AQ57" s="111">
@@ -30328,17 +30349,21 @@
       </c>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
-      <c r="AY57" s="89">
+      <c r="AY57" s="111">
         <v>55</v>
       </c>
-      <c r="AZ57" s="89"/>
-      <c r="BA57" s="89"/>
-      <c r="BB57" s="89"/>
-      <c r="BC57" s="89"/>
+      <c r="AZ57" s="111" t="s">
+        <v>740</v>
+      </c>
+      <c r="BA57" s="111">
+        <v>-90</v>
+      </c>
+      <c r="BB57" s="111"/>
+      <c r="BC57" s="111"/>
       <c r="BD57" s="111">
         <v>55</v>
       </c>
-      <c r="BE57" s="223" t="s">
+      <c r="BE57" s="221" t="s">
         <v>578</v>
       </c>
       <c r="BF57" s="111">
@@ -30406,24 +30431,28 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="37">
+      <c r="K58" s="111">
         <v>56</v>
       </c>
-      <c r="L58" s="37" t="s">
+      <c r="L58" s="111" t="s">
         <v>734</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="39">
+      <c r="M58" s="111">
+        <v>-800</v>
+      </c>
+      <c r="N58" s="111"/>
+      <c r="O58" s="220"/>
+      <c r="P58" s="229">
         <v>56</v>
       </c>
-      <c r="Q58" s="39" t="s">
+      <c r="Q58" s="229" t="s">
         <v>608</v>
       </c>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
+      <c r="R58" s="229">
+        <v>-90</v>
+      </c>
+      <c r="S58" s="229"/>
+      <c r="T58" s="229"/>
       <c r="U58" s="42">
         <v>56</v>
       </c>
@@ -30433,17 +30462,17 @@
       <c r="W58" s="44"/>
       <c r="X58" s="44"/>
       <c r="Y58" s="44"/>
-      <c r="Z58" s="224">
+      <c r="Z58" s="222">
         <v>56</v>
       </c>
-      <c r="AA58" s="225" t="s">
+      <c r="AA58" s="223" t="s">
         <v>612</v>
       </c>
-      <c r="AB58" s="224">
-        <v>-60</v>
-      </c>
-      <c r="AC58" s="224"/>
-      <c r="AD58" s="224"/>
+      <c r="AB58" s="222">
+        <v>-60</v>
+      </c>
+      <c r="AC58" s="222"/>
+      <c r="AD58" s="222"/>
       <c r="AE58" s="57">
         <v>56</v>
       </c>
@@ -30499,13 +30528,17 @@
       </c>
       <c r="BL58" s="17"/>
       <c r="BM58" s="17"/>
-      <c r="BN58" s="113">
+      <c r="BN58" s="111">
         <v>56</v>
       </c>
-      <c r="BO58" s="113"/>
-      <c r="BP58" s="113"/>
-      <c r="BQ58" s="113"/>
-      <c r="BR58" s="113"/>
+      <c r="BO58" s="111" t="s">
+        <v>740</v>
+      </c>
+      <c r="BP58" s="111">
+        <v>-298</v>
+      </c>
+      <c r="BQ58" s="111"/>
+      <c r="BR58" s="111"/>
       <c r="BS58" s="112">
         <v>56</v>
       </c>
@@ -30516,7 +30549,7 @@
       <c r="BX58" s="111">
         <v>56</v>
       </c>
-      <c r="BY58" s="223" t="s">
+      <c r="BY58" s="221" t="s">
         <v>99</v>
       </c>
       <c r="BZ58" s="111">
@@ -30627,7 +30660,7 @@
       <c r="BI59" s="111">
         <v>57</v>
       </c>
-      <c r="BJ59" s="223" t="s">
+      <c r="BJ59" s="221" t="s">
         <v>901</v>
       </c>
       <c r="BK59" s="111">
@@ -33877,7 +33910,7 @@
       <c r="G85" s="119"/>
       <c r="H85" s="119">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-7517</v>
+        <v>-7629</v>
       </c>
       <c r="I85" s="120">
         <f t="shared" si="0"/>
@@ -33890,7 +33923,7 @@
       <c r="L85" s="119"/>
       <c r="M85" s="119">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-11500</v>
+        <v>-12300</v>
       </c>
       <c r="N85" s="120">
         <f t="shared" si="1"/>
@@ -33903,7 +33936,7 @@
       <c r="Q85" s="119"/>
       <c r="R85" s="119">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-7593</v>
+        <v>-7683</v>
       </c>
       <c r="S85" s="120">
         <f t="shared" si="2"/>
@@ -33942,7 +33975,7 @@
       <c r="AF85" s="119"/>
       <c r="AG85" s="119">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-9841</v>
+        <v>-9901</v>
       </c>
       <c r="AH85" s="120">
         <f t="shared" si="5"/>
@@ -33994,7 +34027,7 @@
       <c r="AZ85" s="119"/>
       <c r="BA85" s="119">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-19854</v>
+        <v>-19944</v>
       </c>
       <c r="BB85" s="120">
         <f t="shared" si="9"/>
@@ -34033,7 +34066,7 @@
       <c r="BO85" s="119"/>
       <c r="BP85" s="119">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-8114</v>
+        <v>-8412</v>
       </c>
       <c r="BQ85" s="120">
         <f t="shared" si="12"/>
@@ -34046,7 +34079,7 @@
       <c r="BT85" s="119"/>
       <c r="BU85" s="119">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-8559</v>
+        <v>-8714</v>
       </c>
       <c r="BV85" s="120">
         <f t="shared" si="13"/>
@@ -34071,29 +34104,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="217" t="s">
+      <c r="G95" s="225" t="s">
         <v>716</v>
       </c>
-      <c r="H95" s="217">
+      <c r="H95" s="225">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>26953</v>
       </c>
-      <c r="I95" s="217"/>
+      <c r="I95" s="225"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="217"/>
-      <c r="H96" s="217"/>
-      <c r="I96" s="217"/>
+      <c r="G96" s="225"/>
+      <c r="H96" s="225"/>
+      <c r="I96" s="225"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="217"/>
-      <c r="H97" s="217"/>
-      <c r="I97" s="217"/>
+      <c r="G97" s="225"/>
+      <c r="H97" s="225"/>
+      <c r="I97" s="225"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="217"/>
-      <c r="H98" s="217"/>
-      <c r="I98" s="217"/>
+      <c r="G98" s="225"/>
+      <c r="H98" s="225"/>
+      <c r="I98" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34116,11 +34149,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="226" t="s">
         <v>1095</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1104">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3347,25 +3347,29 @@
   </si>
   <si>
     <t>Питтсбург - Кингс</t>
+  </si>
+  <si>
+    <t>Флорида - Оттава</t>
+  </si>
+  <si>
+    <t>Питтсбург  - Айлендерс</t>
+  </si>
+  <si>
+    <t>Виннипег - тМиннесота</t>
+  </si>
+  <si>
+    <t>Кингс - Коламбус</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -3474,14 +3478,6 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4556,73 +4552,73 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4631,117 +4627,117 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4758,161 +4754,161 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="46" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4923,22 +4919,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5262,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57:P57"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56:U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15386,17 +15377,17 @@
         <v>194</v>
       </c>
       <c r="AY54" s="132"/>
-      <c r="AZ54" s="217">
+      <c r="AZ54" s="74">
         <v>52</v>
       </c>
-      <c r="BA54" s="217" t="s">
+      <c r="BA54" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BB54" s="217">
+      <c r="BB54" s="74">
         <v>-112</v>
       </c>
-      <c r="BC54" s="217"/>
-      <c r="BD54" s="217"/>
+      <c r="BC54" s="74"/>
+      <c r="BD54" s="74"/>
       <c r="BE54" s="74">
         <v>52</v>
       </c>
@@ -15408,17 +15399,17 @@
       </c>
       <c r="BH54" s="74"/>
       <c r="BI54" s="74"/>
-      <c r="BJ54" s="217">
+      <c r="BJ54" s="74">
         <v>52</v>
       </c>
-      <c r="BK54" s="217" t="s">
+      <c r="BK54" s="74" t="s">
         <v>1099</v>
       </c>
-      <c r="BL54" s="217">
+      <c r="BL54" s="74">
         <v>-155</v>
       </c>
-      <c r="BM54" s="217"/>
-      <c r="BN54" s="217"/>
+      <c r="BM54" s="74"/>
+      <c r="BN54" s="74"/>
       <c r="BO54" s="74">
         <v>52</v>
       </c>
@@ -15573,13 +15564,17 @@
       </c>
       <c r="AX55" s="74"/>
       <c r="AY55" s="74"/>
-      <c r="AZ55" s="192">
+      <c r="AZ55" s="217">
         <v>53</v>
       </c>
-      <c r="BA55" s="192"/>
-      <c r="BB55" s="192"/>
-      <c r="BC55" s="192"/>
-      <c r="BD55" s="192"/>
+      <c r="BA55" s="217" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BB55" s="217">
+        <v>-155</v>
+      </c>
+      <c r="BC55" s="217"/>
+      <c r="BD55" s="217"/>
       <c r="BE55" s="74">
         <v>53</v>
       </c>
@@ -15591,13 +15586,17 @@
       </c>
       <c r="BH55" s="74"/>
       <c r="BI55" s="74"/>
-      <c r="BJ55" s="200">
+      <c r="BJ55" s="217">
         <v>53</v>
       </c>
-      <c r="BK55" s="200"/>
-      <c r="BL55" s="200"/>
-      <c r="BM55" s="200"/>
-      <c r="BN55" s="200"/>
+      <c r="BK55" s="217" t="s">
+        <v>1101</v>
+      </c>
+      <c r="BL55" s="217">
+        <v>-215</v>
+      </c>
+      <c r="BM55" s="217"/>
+      <c r="BN55" s="217"/>
       <c r="BO55" s="74">
         <v>53</v>
       </c>
@@ -15668,13 +15667,17 @@
       </c>
       <c r="O56" s="74"/>
       <c r="P56" s="141"/>
-      <c r="Q56" s="154">
+      <c r="Q56" s="217">
         <v>54</v>
       </c>
-      <c r="R56" s="154"/>
-      <c r="S56" s="154"/>
-      <c r="T56" s="154"/>
-      <c r="U56" s="154"/>
+      <c r="R56" s="217" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S56" s="217">
+        <v>-155</v>
+      </c>
+      <c r="T56" s="217"/>
+      <c r="U56" s="217"/>
       <c r="V56" s="74">
         <v>54</v>
       </c>
@@ -15719,17 +15722,20 @@
       </c>
       <c r="AN56" s="74"/>
       <c r="AO56" s="74"/>
-      <c r="AP56" s="120">
+      <c r="AP56" s="132">
         <v>54</v>
       </c>
-      <c r="AQ56" s="120" t="s">
+      <c r="AQ56" s="132" t="s">
         <v>603</v>
       </c>
-      <c r="AR56" s="120">
-        <v>-60</v>
-      </c>
-      <c r="AS56" s="120"/>
-      <c r="AT56" s="120"/>
+      <c r="AR56" s="132">
+        <v>-60</v>
+      </c>
+      <c r="AS56" s="132">
+        <f>210</f>
+        <v>210</v>
+      </c>
+      <c r="AT56" s="132"/>
       <c r="AU56" s="74">
         <v>54</v>
       </c>
@@ -15780,26 +15786,28 @@
         <v>140</v>
       </c>
       <c r="BS56" s="132"/>
-      <c r="BT56" s="217">
+      <c r="BT56" s="74">
         <v>54</v>
       </c>
-      <c r="BU56" s="217" t="s">
+      <c r="BU56" s="74" t="s">
         <v>605</v>
       </c>
-      <c r="BV56" s="217">
+      <c r="BV56" s="74">
         <v>-65</v>
       </c>
-      <c r="BW56" s="217"/>
-      <c r="BX56" s="217"/>
-      <c r="BY56" s="212">
+      <c r="BW56" s="74"/>
+      <c r="BX56" s="74"/>
+      <c r="BY56" s="217">
         <v>54</v>
       </c>
-      <c r="BZ56" s="213" t="s">
+      <c r="BZ56" s="221" t="s">
         <v>428</v>
       </c>
-      <c r="CA56" s="212"/>
-      <c r="CB56" s="212"/>
-      <c r="CC56" s="212"/>
+      <c r="CA56" s="217">
+        <v>-75</v>
+      </c>
+      <c r="CB56" s="217"/>
+      <c r="CC56" s="217"/>
     </row>
     <row r="57" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="132">
@@ -15816,28 +15824,28 @@
         <v>226</v>
       </c>
       <c r="F57" s="132"/>
-      <c r="G57" s="217">
+      <c r="G57" s="74">
         <v>55</v>
       </c>
-      <c r="H57" s="217" t="s">
+      <c r="H57" s="74" t="s">
         <v>607</v>
       </c>
-      <c r="I57" s="217">
-        <v>-60</v>
-      </c>
-      <c r="J57" s="217"/>
-      <c r="K57" s="217"/>
-      <c r="L57" s="217">
+      <c r="I57" s="74">
+        <v>-60</v>
+      </c>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74">
         <v>55</v>
       </c>
-      <c r="M57" s="217" t="s">
+      <c r="M57" s="74" t="s">
         <v>608</v>
       </c>
-      <c r="N57" s="217">
+      <c r="N57" s="74">
         <v>-90</v>
       </c>
-      <c r="O57" s="217"/>
-      <c r="P57" s="228"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="141"/>
       <c r="Q57" s="154">
         <v>55</v>
       </c>
@@ -15845,17 +15853,20 @@
       <c r="S57" s="154"/>
       <c r="T57" s="154"/>
       <c r="U57" s="154"/>
-      <c r="V57" s="217">
+      <c r="V57" s="132">
         <v>55</v>
       </c>
-      <c r="W57" s="224" t="s">
+      <c r="W57" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="X57" s="217">
+      <c r="X57" s="132">
         <v>-90</v>
       </c>
-      <c r="Y57" s="217"/>
-      <c r="Z57" s="217"/>
+      <c r="Y57" s="132">
+        <f>396+SUM(X54:X57)</f>
+        <v>106</v>
+      </c>
+      <c r="Z57" s="132"/>
       <c r="AA57" s="74">
         <v>55</v>
       </c>
@@ -15878,33 +15889,42 @@
       </c>
       <c r="AI57" s="74"/>
       <c r="AJ57" s="74"/>
-      <c r="AK57" s="155">
+      <c r="AK57" s="217">
         <v>55</v>
       </c>
-      <c r="AL57" s="155"/>
-      <c r="AM57" s="155"/>
-      <c r="AN57" s="155"/>
-      <c r="AO57" s="155"/>
-      <c r="AP57" s="183">
+      <c r="AL57" s="217" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM57" s="217">
+        <v>-112</v>
+      </c>
+      <c r="AN57" s="217"/>
+      <c r="AO57" s="217"/>
+      <c r="AP57" s="217">
         <v>55</v>
       </c>
-      <c r="AQ57" s="183" t="s">
+      <c r="AQ57" s="217" t="s">
         <v>421</v>
       </c>
-      <c r="AR57" s="183"/>
-      <c r="AS57" s="183"/>
-      <c r="AT57" s="183"/>
-      <c r="AU57" s="120">
+      <c r="AR57" s="217">
+        <v>-60</v>
+      </c>
+      <c r="AS57" s="217"/>
+      <c r="AT57" s="217"/>
+      <c r="AU57" s="132">
         <v>55</v>
       </c>
-      <c r="AV57" s="120" t="s">
+      <c r="AV57" s="132" t="s">
         <v>603</v>
       </c>
-      <c r="AW57" s="120">
+      <c r="AW57" s="132">
         <v>-75</v>
       </c>
-      <c r="AX57" s="120"/>
-      <c r="AY57" s="120"/>
+      <c r="AX57" s="132">
+        <f>338+SUM(AW55:AW57)</f>
+        <v>138</v>
+      </c>
+      <c r="AY57" s="132"/>
       <c r="AZ57" s="192">
         <v>55</v>
       </c>
@@ -15963,17 +15983,19 @@
       <c r="CC57" s="212"/>
     </row>
     <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="217">
+      <c r="B58" s="132">
         <v>56</v>
       </c>
-      <c r="C58" s="217" t="s">
+      <c r="C58" s="132" t="s">
         <v>612</v>
       </c>
-      <c r="D58" s="217">
-        <v>-60</v>
-      </c>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
+      <c r="D58" s="132">
+        <v>-60</v>
+      </c>
+      <c r="E58" s="132">
+        <v>204</v>
+      </c>
+      <c r="F58" s="132"/>
       <c r="G58" s="134">
         <v>56</v>
       </c>
@@ -16006,13 +16028,17 @@
       <c r="X58" s="155"/>
       <c r="Y58" s="155"/>
       <c r="Z58" s="155"/>
-      <c r="AA58" s="163">
+      <c r="AA58" s="217">
         <v>56</v>
       </c>
-      <c r="AB58" s="163"/>
-      <c r="AC58" s="163"/>
-      <c r="AD58" s="163"/>
-      <c r="AE58" s="163"/>
+      <c r="AB58" s="217" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AC58" s="217">
+        <v>-215</v>
+      </c>
+      <c r="AD58" s="217"/>
+      <c r="AE58" s="217"/>
       <c r="AF58" s="164">
         <v>56</v>
       </c>
@@ -16038,15 +16064,17 @@
       <c r="AR58" s="183"/>
       <c r="AS58" s="183"/>
       <c r="AT58" s="183"/>
-      <c r="AU58" s="184">
+      <c r="AU58" s="217">
         <v>56</v>
       </c>
-      <c r="AV58" s="184" t="s">
+      <c r="AV58" s="217" t="s">
         <v>615</v>
       </c>
-      <c r="AW58" s="184"/>
-      <c r="AX58" s="184"/>
-      <c r="AY58" s="184"/>
+      <c r="AW58" s="217">
+        <v>-60</v>
+      </c>
+      <c r="AX58" s="217"/>
+      <c r="AY58" s="217"/>
       <c r="AZ58" s="192">
         <v>56</v>
       </c>
@@ -16102,7 +16130,7 @@
       <c r="CB58" s="212"/>
       <c r="CC58" s="212"/>
     </row>
-    <row r="59" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="135">
         <v>57</v>
       </c>
@@ -16206,17 +16234,17 @@
       <c r="BL59" s="200"/>
       <c r="BM59" s="200"/>
       <c r="BN59" s="200"/>
-      <c r="BO59" s="217">
+      <c r="BO59" s="74">
         <v>57</v>
       </c>
-      <c r="BP59" s="227" t="s">
+      <c r="BP59" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BQ59" s="217">
+      <c r="BQ59" s="74">
         <v>-75</v>
       </c>
-      <c r="BR59" s="217"/>
-      <c r="BS59" s="217"/>
+      <c r="BR59" s="74"/>
+      <c r="BS59" s="74"/>
       <c r="BT59" s="206">
         <v>57</v>
       </c>
@@ -19547,7 +19575,7 @@
       </c>
       <c r="E85" s="120">
         <f>SUM(E3:E84)</f>
-        <v>3321</v>
+        <v>3525</v>
       </c>
       <c r="F85" s="216"/>
       <c r="G85" s="215" t="s">
@@ -19582,7 +19610,7 @@
       <c r="R85" s="216"/>
       <c r="S85" s="216">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-6263</v>
+        <v>-6418</v>
       </c>
       <c r="T85" s="120">
         <f t="shared" si="2"/>
@@ -19599,7 +19627,7 @@
       </c>
       <c r="Y85" s="120">
         <f t="shared" si="3"/>
-        <v>2545</v>
+        <v>2651</v>
       </c>
       <c r="Z85" s="216"/>
       <c r="AA85" s="215" t="s">
@@ -19608,7 +19636,7 @@
       <c r="AB85" s="216"/>
       <c r="AC85" s="216">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-23489</v>
+        <v>-23704</v>
       </c>
       <c r="AD85" s="120">
         <f t="shared" si="4"/>
@@ -19634,7 +19662,7 @@
       <c r="AL85" s="216"/>
       <c r="AM85" s="216">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-13623</v>
+        <v>-13735</v>
       </c>
       <c r="AN85" s="120">
         <f t="shared" si="6"/>
@@ -19647,11 +19675,11 @@
       <c r="AQ85" s="216"/>
       <c r="AR85" s="216">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-3831</v>
+        <v>-3891</v>
       </c>
       <c r="AS85" s="120">
         <f t="shared" si="7"/>
-        <v>2861</v>
+        <v>3071</v>
       </c>
       <c r="AT85" s="216"/>
       <c r="AU85" s="215" t="s">
@@ -19660,11 +19688,11 @@
       <c r="AV85" s="216"/>
       <c r="AW85" s="216">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-11222</v>
+        <v>-11282</v>
       </c>
       <c r="AX85" s="120">
         <f t="shared" si="8"/>
-        <v>2181</v>
+        <v>2319</v>
       </c>
       <c r="AY85" s="216"/>
       <c r="AZ85" s="215" t="s">
@@ -19673,7 +19701,7 @@
       <c r="BA85" s="216"/>
       <c r="BB85" s="216">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-14722</v>
+        <v>-14877</v>
       </c>
       <c r="BC85" s="120">
         <f t="shared" si="9"/>
@@ -19699,7 +19727,7 @@
       <c r="BK85" s="216"/>
       <c r="BL85" s="216">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-6909</v>
+        <v>-7124</v>
       </c>
       <c r="BM85" s="120">
         <f t="shared" si="11"/>
@@ -19738,7 +19766,7 @@
       <c r="BZ85" s="216"/>
       <c r="CA85" s="216">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-7144</v>
+        <v>-7219</v>
       </c>
       <c r="CB85" s="120">
         <f t="shared" si="14"/>
@@ -19747,29 +19775,29 @@
       <c r="CC85" s="216"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="225" t="s">
+      <c r="H92" s="222" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="225">
+      <c r="I92" s="222">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>34341</v>
-      </c>
-      <c r="J92" s="225"/>
+        <v>34999</v>
+      </c>
+      <c r="J92" s="222"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="225"/>
-      <c r="I93" s="225"/>
-      <c r="J93" s="225"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="225"/>
-      <c r="I94" s="225"/>
-      <c r="J94" s="225"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="225"/>
-      <c r="I95" s="225"/>
-      <c r="J95" s="225"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19785,8 +19813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58:T58"/>
+    <sheetView topLeftCell="V25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56:AN56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29776,17 +29804,17 @@
       </c>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
-      <c r="AE54" s="111">
+      <c r="AE54" s="17">
         <v>52</v>
       </c>
-      <c r="AF54" s="111" t="s">
+      <c r="AF54" s="17" t="s">
         <v>1023</v>
       </c>
-      <c r="AG54" s="111">
-        <v>-60</v>
-      </c>
-      <c r="AH54" s="111"/>
-      <c r="AI54" s="111"/>
+      <c r="AG54" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
       <c r="AJ54" s="16">
         <v>52</v>
       </c>
@@ -29876,17 +29904,17 @@
       </c>
       <c r="BQ54" s="17"/>
       <c r="BR54" s="17"/>
-      <c r="BS54" s="111">
+      <c r="BS54" s="17">
         <v>52</v>
       </c>
-      <c r="BT54" s="111" t="s">
+      <c r="BT54" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="BU54" s="111">
+      <c r="BU54" s="17">
         <v>-155</v>
       </c>
-      <c r="BV54" s="111"/>
-      <c r="BW54" s="111"/>
+      <c r="BV54" s="17"/>
+      <c r="BW54" s="17"/>
       <c r="BX54" s="17">
         <v>52</v>
       </c>
@@ -29973,17 +30001,17 @@
       <c r="AG55" s="57"/>
       <c r="AH55" s="57"/>
       <c r="AI55" s="57"/>
-      <c r="AJ55" s="218">
+      <c r="AJ55" s="17">
         <v>53</v>
       </c>
-      <c r="AK55" s="218" t="s">
+      <c r="AK55" s="17" t="s">
         <v>1099</v>
       </c>
-      <c r="AL55" s="218">
-        <v>-60</v>
-      </c>
-      <c r="AM55" s="218"/>
-      <c r="AN55" s="218"/>
+      <c r="AL55" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AM55" s="17"/>
+      <c r="AN55" s="17"/>
       <c r="AO55" s="17">
         <v>53</v>
       </c>
@@ -30053,13 +30081,17 @@
       </c>
       <c r="BQ55" s="17"/>
       <c r="BR55" s="17"/>
-      <c r="BS55" s="112">
+      <c r="BS55" s="111">
         <v>53</v>
       </c>
-      <c r="BT55" s="101"/>
-      <c r="BU55" s="101"/>
-      <c r="BV55" s="101"/>
-      <c r="BW55" s="101"/>
+      <c r="BT55" s="111" t="s">
+        <v>1102</v>
+      </c>
+      <c r="BU55" s="111">
+        <v>-215</v>
+      </c>
+      <c r="BV55" s="111"/>
+      <c r="BW55" s="111"/>
       <c r="BX55" s="17">
         <v>53</v>
       </c>
@@ -30084,17 +30116,17 @@
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="111">
+      <c r="F56" s="17">
         <v>54</v>
       </c>
-      <c r="G56" s="111" t="s">
+      <c r="G56" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="H56" s="111">
+      <c r="H56" s="17">
         <v>-90</v>
       </c>
-      <c r="I56" s="111"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="17">
         <v>54</v>
       </c>
@@ -30146,13 +30178,17 @@
       <c r="AG56" s="57"/>
       <c r="AH56" s="57"/>
       <c r="AI56" s="57"/>
-      <c r="AJ56" s="64">
+      <c r="AJ56" s="224">
         <v>54</v>
       </c>
-      <c r="AK56" s="64"/>
-      <c r="AL56" s="64"/>
-      <c r="AM56" s="64"/>
-      <c r="AN56" s="64"/>
+      <c r="AK56" s="224" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AL56" s="224">
+        <v>-65</v>
+      </c>
+      <c r="AM56" s="224"/>
+      <c r="AN56" s="224"/>
       <c r="AO56" s="16">
         <v>54</v>
       </c>
@@ -30244,28 +30280,28 @@
       <c r="CB56" s="16"/>
     </row>
     <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="111">
+      <c r="A57" s="17">
         <v>55</v>
       </c>
-      <c r="B57" s="111" t="s">
+      <c r="B57" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C57" s="111">
+      <c r="C57" s="17">
         <v>-112</v>
       </c>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111">
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17">
         <v>55</v>
       </c>
-      <c r="G57" s="111" t="s">
+      <c r="G57" s="17" t="s">
         <v>1023</v>
       </c>
-      <c r="H57" s="111">
+      <c r="H57" s="17">
         <v>-112</v>
       </c>
-      <c r="I57" s="111"/>
-      <c r="J57" s="220"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="17">
         <v>55</v>
       </c>
@@ -30288,17 +30324,17 @@
       </c>
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="219">
+      <c r="U57" s="46">
         <v>55</v>
       </c>
-      <c r="V57" s="111" t="s">
+      <c r="V57" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="W57" s="111">
+      <c r="W57" s="17">
         <v>-112</v>
       </c>
-      <c r="X57" s="111"/>
-      <c r="Y57" s="111"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
       <c r="Z57" s="16">
         <v>55</v>
       </c>
@@ -30327,17 +30363,17 @@
       <c r="AL57" s="64"/>
       <c r="AM57" s="64"/>
       <c r="AN57" s="64"/>
-      <c r="AO57" s="111">
+      <c r="AO57" s="17">
         <v>55</v>
       </c>
-      <c r="AP57" s="223" t="s">
+      <c r="AP57" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="AQ57" s="111">
-        <v>-60</v>
-      </c>
-      <c r="AR57" s="111"/>
-      <c r="AS57" s="111"/>
+      <c r="AQ57" s="17">
+        <v>-60</v>
+      </c>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
       <c r="AT57" s="17">
         <v>55</v>
       </c>
@@ -30349,28 +30385,28 @@
       </c>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
-      <c r="AY57" s="111">
+      <c r="AY57" s="17">
         <v>55</v>
       </c>
-      <c r="AZ57" s="111" t="s">
+      <c r="AZ57" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="BA57" s="111">
+      <c r="BA57" s="17">
         <v>-90</v>
       </c>
-      <c r="BB57" s="111"/>
-      <c r="BC57" s="111"/>
-      <c r="BD57" s="111">
+      <c r="BB57" s="17"/>
+      <c r="BC57" s="17"/>
+      <c r="BD57" s="17">
         <v>55</v>
       </c>
-      <c r="BE57" s="221" t="s">
+      <c r="BE57" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="BF57" s="111">
+      <c r="BF57" s="17">
         <v>-215</v>
       </c>
-      <c r="BG57" s="111"/>
-      <c r="BH57" s="111"/>
+      <c r="BG57" s="17"/>
+      <c r="BH57" s="17"/>
       <c r="BI57" s="17">
         <v>55</v>
       </c>
@@ -30431,48 +30467,52 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="36"/>
-      <c r="K58" s="111">
+      <c r="K58" s="17">
         <v>56</v>
       </c>
-      <c r="L58" s="111" t="s">
+      <c r="L58" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="M58" s="111">
+      <c r="M58" s="17">
         <v>-800</v>
       </c>
-      <c r="N58" s="111"/>
-      <c r="O58" s="220"/>
-      <c r="P58" s="229">
+      <c r="N58" s="17"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="32">
         <v>56</v>
       </c>
-      <c r="Q58" s="229" t="s">
+      <c r="Q58" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="R58" s="229">
+      <c r="R58" s="32">
         <v>-90</v>
       </c>
-      <c r="S58" s="229"/>
-      <c r="T58" s="229"/>
-      <c r="U58" s="42">
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="218">
         <v>56</v>
       </c>
-      <c r="V58" s="44" t="s">
+      <c r="V58" s="111" t="s">
         <v>837</v>
       </c>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="222">
+      <c r="W58" s="111">
+        <v>-155</v>
+      </c>
+      <c r="X58" s="111"/>
+      <c r="Y58" s="111"/>
+      <c r="Z58" s="16">
         <v>56</v>
       </c>
-      <c r="AA58" s="223" t="s">
+      <c r="AA58" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="AB58" s="222">
-        <v>-60</v>
-      </c>
-      <c r="AC58" s="222"/>
-      <c r="AD58" s="222"/>
+      <c r="AB58" s="16">
+        <v>-60</v>
+      </c>
+      <c r="AC58" s="16">
+        <v>204</v>
+      </c>
+      <c r="AD58" s="16"/>
       <c r="AE58" s="57">
         <v>56</v>
       </c>
@@ -30487,22 +30527,28 @@
       <c r="AL58" s="64"/>
       <c r="AM58" s="64"/>
       <c r="AN58" s="64"/>
-      <c r="AO58" s="76">
+      <c r="AO58" s="111">
         <v>56</v>
       </c>
-      <c r="AP58" s="77" t="s">
+      <c r="AP58" s="220" t="s">
         <v>933</v>
       </c>
-      <c r="AQ58" s="76"/>
-      <c r="AR58" s="76"/>
-      <c r="AS58" s="76"/>
-      <c r="AT58" s="57">
+      <c r="AQ58" s="111">
+        <v>-65</v>
+      </c>
+      <c r="AR58" s="111"/>
+      <c r="AS58" s="111"/>
+      <c r="AT58" s="111">
         <v>56</v>
       </c>
-      <c r="AU58" s="57"/>
-      <c r="AV58" s="57"/>
-      <c r="AW58" s="57"/>
-      <c r="AX58" s="57"/>
+      <c r="AU58" s="111" t="s">
+        <v>974</v>
+      </c>
+      <c r="AV58" s="111">
+        <v>-90</v>
+      </c>
+      <c r="AW58" s="111"/>
+      <c r="AX58" s="111"/>
       <c r="AY58" s="89">
         <v>56</v>
       </c>
@@ -30528,17 +30574,17 @@
       </c>
       <c r="BL58" s="17"/>
       <c r="BM58" s="17"/>
-      <c r="BN58" s="111">
+      <c r="BN58" s="17">
         <v>56</v>
       </c>
-      <c r="BO58" s="111" t="s">
+      <c r="BO58" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="BP58" s="111">
+      <c r="BP58" s="17">
         <v>-298</v>
       </c>
-      <c r="BQ58" s="111"/>
-      <c r="BR58" s="111"/>
+      <c r="BQ58" s="17"/>
+      <c r="BR58" s="17"/>
       <c r="BS58" s="112">
         <v>56</v>
       </c>
@@ -30546,19 +30592,22 @@
       <c r="BU58" s="101"/>
       <c r="BV58" s="101"/>
       <c r="BW58" s="101"/>
-      <c r="BX58" s="111">
+      <c r="BX58" s="75">
         <v>56</v>
       </c>
-      <c r="BY58" s="221" t="s">
+      <c r="BY58" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="BZ58" s="111">
+      <c r="BZ58" s="75">
         <v>-65</v>
       </c>
-      <c r="CA58" s="111"/>
-      <c r="CB58" s="111"/>
+      <c r="CA58" s="75">
+        <f>286+SUM(BZ57:BZ58)</f>
+        <v>161</v>
+      </c>
+      <c r="CB58" s="75"/>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -30604,15 +30653,17 @@
       <c r="W59" s="44"/>
       <c r="X59" s="44"/>
       <c r="Y59" s="44"/>
-      <c r="Z59" s="49">
+      <c r="Z59" s="219">
         <v>57</v>
       </c>
-      <c r="AA59" s="58" t="s">
+      <c r="AA59" s="220" t="s">
         <v>615</v>
       </c>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
+      <c r="AB59" s="219">
+        <v>-60</v>
+      </c>
+      <c r="AC59" s="219"/>
+      <c r="AD59" s="219"/>
       <c r="AE59" s="57">
         <v>57</v>
       </c>
@@ -30657,24 +30708,28 @@
       <c r="BF59" s="90"/>
       <c r="BG59" s="90"/>
       <c r="BH59" s="90"/>
-      <c r="BI59" s="111">
+      <c r="BI59" s="17">
         <v>57</v>
       </c>
-      <c r="BJ59" s="221" t="s">
+      <c r="BJ59" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="BK59" s="111">
+      <c r="BK59" s="17">
         <v>-90</v>
       </c>
-      <c r="BL59" s="111"/>
-      <c r="BM59" s="111"/>
-      <c r="BN59" s="113">
+      <c r="BL59" s="17"/>
+      <c r="BM59" s="17"/>
+      <c r="BN59" s="111">
         <v>57</v>
       </c>
-      <c r="BO59" s="113"/>
-      <c r="BP59" s="113"/>
-      <c r="BQ59" s="113"/>
-      <c r="BR59" s="113"/>
+      <c r="BO59" s="111" t="s">
+        <v>974</v>
+      </c>
+      <c r="BP59" s="111">
+        <v>-415</v>
+      </c>
+      <c r="BQ59" s="111"/>
+      <c r="BR59" s="111"/>
       <c r="BS59" s="112">
         <v>57</v>
       </c>
@@ -30789,13 +30844,17 @@
       <c r="BF60" s="90"/>
       <c r="BG60" s="90"/>
       <c r="BH60" s="90"/>
-      <c r="BI60" s="101">
+      <c r="BI60" s="111">
         <v>58</v>
       </c>
-      <c r="BJ60" s="101"/>
-      <c r="BK60" s="101"/>
-      <c r="BL60" s="101"/>
-      <c r="BM60" s="101"/>
+      <c r="BJ60" s="111" t="s">
+        <v>837</v>
+      </c>
+      <c r="BK60" s="111">
+        <v>-112</v>
+      </c>
+      <c r="BL60" s="111"/>
+      <c r="BM60" s="111"/>
       <c r="BN60" s="113">
         <v>58</v>
       </c>
@@ -33949,7 +34008,7 @@
       <c r="V85" s="119"/>
       <c r="W85" s="119">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-24396</v>
+        <v>-24551</v>
       </c>
       <c r="X85" s="120">
         <f t="shared" si="3"/>
@@ -33962,11 +34021,11 @@
       <c r="AA85" s="119"/>
       <c r="AB85" s="119">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-6477</v>
+        <v>-6537</v>
       </c>
       <c r="AC85" s="120">
         <f t="shared" si="4"/>
-        <v>2728</v>
+        <v>2932</v>
       </c>
       <c r="AD85" s="119"/>
       <c r="AE85" s="118" t="s">
@@ -33988,7 +34047,7 @@
       <c r="AK85" s="119"/>
       <c r="AL85" s="119">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-4980</v>
+        <v>-5045</v>
       </c>
       <c r="AM85" s="120">
         <f t="shared" si="6"/>
@@ -34001,7 +34060,7 @@
       <c r="AP85" s="119"/>
       <c r="AQ85" s="119">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-8811</v>
+        <v>-8876</v>
       </c>
       <c r="AR85" s="120">
         <f t="shared" si="7"/>
@@ -34014,7 +34073,7 @@
       <c r="AU85" s="119"/>
       <c r="AV85" s="119">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-11230</v>
+        <v>-11320</v>
       </c>
       <c r="AW85" s="120">
         <f t="shared" si="8"/>
@@ -34053,7 +34112,7 @@
       <c r="BJ85" s="119"/>
       <c r="BK85" s="119">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-11535</v>
+        <v>-11647</v>
       </c>
       <c r="BL85" s="120">
         <f t="shared" si="11"/>
@@ -34066,7 +34125,7 @@
       <c r="BO85" s="119"/>
       <c r="BP85" s="119">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-8412</v>
+        <v>-8827</v>
       </c>
       <c r="BQ85" s="120">
         <f t="shared" si="12"/>
@@ -34079,7 +34138,7 @@
       <c r="BT85" s="119"/>
       <c r="BU85" s="119">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-8714</v>
+        <v>-8929</v>
       </c>
       <c r="BV85" s="120">
         <f t="shared" si="13"/>
@@ -34096,7 +34155,7 @@
       </c>
       <c r="CA85" s="120">
         <f t="shared" si="14"/>
-        <v>2160</v>
+        <v>2321</v>
       </c>
       <c r="CB85" s="119"/>
       <c r="CC85" s="118" t="s">
@@ -34104,29 +34163,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="225" t="s">
+      <c r="G95" s="222" t="s">
         <v>716</v>
       </c>
-      <c r="H95" s="225">
+      <c r="H95" s="222">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>26953</v>
-      </c>
-      <c r="I95" s="225"/>
+        <v>27318</v>
+      </c>
+      <c r="I95" s="222"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="225"/>
-      <c r="H96" s="225"/>
-      <c r="I96" s="225"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="225"/>
-      <c r="H97" s="225"/>
-      <c r="I97" s="225"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="225"/>
-      <c r="H98" s="225"/>
-      <c r="I98" s="225"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34149,11 +34208,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="223" t="s">
         <v>1095</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1105">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3359,6 +3359,9 @@
   </si>
   <si>
     <t>Кингс - Коламбус</t>
+  </si>
+  <si>
+    <t>Чикаго - Филадельфия</t>
   </si>
 </sst>
 </file>
@@ -4556,7 +4559,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4923,13 +4926,15 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5253,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56:U56"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15846,13 +15851,17 @@
       </c>
       <c r="O57" s="74"/>
       <c r="P57" s="141"/>
-      <c r="Q57" s="154">
+      <c r="Q57" s="217">
         <v>55</v>
       </c>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="154"/>
-      <c r="U57" s="154"/>
+      <c r="R57" s="217" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S57" s="217">
+        <v>-315</v>
+      </c>
+      <c r="T57" s="217"/>
+      <c r="U57" s="217"/>
       <c r="V57" s="132">
         <v>55</v>
       </c>
@@ -15963,15 +15972,17 @@
       </c>
       <c r="BR57" s="74"/>
       <c r="BS57" s="74"/>
-      <c r="BT57" s="206">
+      <c r="BT57" s="217">
         <v>55</v>
       </c>
-      <c r="BU57" s="206" t="s">
+      <c r="BU57" s="217" t="s">
         <v>610</v>
       </c>
-      <c r="BV57" s="206"/>
-      <c r="BW57" s="206"/>
-      <c r="BX57" s="206"/>
+      <c r="BV57" s="217">
+        <v>-175</v>
+      </c>
+      <c r="BW57" s="217"/>
+      <c r="BX57" s="217"/>
       <c r="BY57" s="212">
         <v>55</v>
       </c>
@@ -15996,15 +16007,17 @@
         <v>204</v>
       </c>
       <c r="F58" s="132"/>
-      <c r="G58" s="134">
+      <c r="G58" s="217">
         <v>56</v>
       </c>
-      <c r="H58" s="134" t="s">
+      <c r="H58" s="217" t="s">
         <v>447</v>
       </c>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
+      <c r="I58" s="217">
+        <v>-65</v>
+      </c>
+      <c r="J58" s="217"/>
+      <c r="K58" s="217"/>
       <c r="L58" s="142">
         <v>56</v>
       </c>
@@ -16035,19 +16048,21 @@
         <v>1100</v>
       </c>
       <c r="AC58" s="217">
-        <v>-215</v>
+        <v>-315</v>
       </c>
       <c r="AD58" s="217"/>
       <c r="AE58" s="217"/>
-      <c r="AF58" s="164">
+      <c r="AF58" s="217">
         <v>56</v>
       </c>
-      <c r="AG58" s="164" t="s">
+      <c r="AG58" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="AH58" s="164"/>
-      <c r="AI58" s="164"/>
-      <c r="AJ58" s="164"/>
+      <c r="AH58" s="217">
+        <v>-215</v>
+      </c>
+      <c r="AI58" s="217"/>
+      <c r="AJ58" s="217"/>
       <c r="AK58" s="155">
         <v>56</v>
       </c>
@@ -16131,15 +16146,17 @@
       <c r="CC58" s="212"/>
     </row>
     <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="135">
+      <c r="B59" s="217">
         <v>57</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="217" t="s">
         <v>617</v>
       </c>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
+      <c r="D59" s="217">
+        <v>-165</v>
+      </c>
+      <c r="E59" s="217"/>
+      <c r="F59" s="217"/>
       <c r="G59" s="134">
         <v>57</v>
       </c>
@@ -16220,13 +16237,17 @@
       <c r="BB59" s="192"/>
       <c r="BC59" s="192"/>
       <c r="BD59" s="192"/>
-      <c r="BE59" s="201">
+      <c r="BE59" s="217">
         <v>57</v>
       </c>
-      <c r="BF59" s="201"/>
-      <c r="BG59" s="201"/>
-      <c r="BH59" s="201"/>
-      <c r="BI59" s="201"/>
+      <c r="BF59" s="217" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BG59" s="217">
+        <v>-165</v>
+      </c>
+      <c r="BH59" s="217"/>
+      <c r="BI59" s="217"/>
       <c r="BJ59" s="200">
         <v>57</v>
       </c>
@@ -19571,7 +19592,7 @@
       <c r="C85" s="216"/>
       <c r="D85" s="216">
         <f>SUM(D3:D84)</f>
-        <v>-5283</v>
+        <v>-5448</v>
       </c>
       <c r="E85" s="120">
         <f>SUM(E3:E84)</f>
@@ -19584,7 +19605,7 @@
       <c r="H85" s="216"/>
       <c r="I85" s="216">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-16739</v>
+        <v>-16804</v>
       </c>
       <c r="J85" s="120">
         <f t="shared" si="0"/>
@@ -19610,7 +19631,7 @@
       <c r="R85" s="216"/>
       <c r="S85" s="216">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-6418</v>
+        <v>-6733</v>
       </c>
       <c r="T85" s="120">
         <f t="shared" si="2"/>
@@ -19636,7 +19657,7 @@
       <c r="AB85" s="216"/>
       <c r="AC85" s="216">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-23704</v>
+        <v>-23804</v>
       </c>
       <c r="AD85" s="120">
         <f t="shared" si="4"/>
@@ -19649,7 +19670,7 @@
       <c r="AG85" s="216"/>
       <c r="AH85" s="216">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-5661</v>
+        <v>-5876</v>
       </c>
       <c r="AI85" s="120">
         <f t="shared" si="5"/>
@@ -19714,7 +19735,7 @@
       <c r="BF85" s="216"/>
       <c r="BG85" s="216">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-10842</v>
+        <v>-11007</v>
       </c>
       <c r="BH85" s="120">
         <f t="shared" si="10"/>
@@ -19753,7 +19774,7 @@
       <c r="BU85" s="216"/>
       <c r="BV85" s="216">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-4196</v>
+        <v>-4371</v>
       </c>
       <c r="BW85" s="120">
         <f t="shared" si="13"/>
@@ -19775,29 +19796,29 @@
       <c r="CC85" s="216"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="222" t="s">
+      <c r="H92" s="223" t="s">
         <v>716</v>
       </c>
-      <c r="I92" s="222">
+      <c r="I92" s="223">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>34999</v>
       </c>
-      <c r="J92" s="222"/>
+      <c r="J92" s="223"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="222"/>
-      <c r="I93" s="222"/>
-      <c r="J93" s="222"/>
+      <c r="H93" s="223"/>
+      <c r="I93" s="223"/>
+      <c r="J93" s="223"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="222"/>
-      <c r="I94" s="222"/>
-      <c r="J94" s="222"/>
+      <c r="H94" s="223"/>
+      <c r="I94" s="223"/>
+      <c r="J94" s="223"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="222"/>
-      <c r="I95" s="222"/>
-      <c r="J95" s="222"/>
+      <c r="H95" s="223"/>
+      <c r="I95" s="223"/>
+      <c r="J95" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19813,8 +19834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="V25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56:AN56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29994,13 +30015,17 @@
       </c>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
-      <c r="AE55" s="57">
+      <c r="AE55" s="111">
         <v>53</v>
       </c>
-      <c r="AF55" s="57"/>
-      <c r="AG55" s="57"/>
-      <c r="AH55" s="57"/>
-      <c r="AI55" s="57"/>
+      <c r="AF55" s="111" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG55" s="111">
+        <v>-165</v>
+      </c>
+      <c r="AH55" s="111"/>
+      <c r="AI55" s="111"/>
       <c r="AJ55" s="17">
         <v>53</v>
       </c>
@@ -30178,17 +30203,17 @@
       <c r="AG56" s="57"/>
       <c r="AH56" s="57"/>
       <c r="AI56" s="57"/>
-      <c r="AJ56" s="224">
+      <c r="AJ56" s="222">
         <v>54</v>
       </c>
-      <c r="AK56" s="224" t="s">
+      <c r="AK56" s="222" t="s">
         <v>1103</v>
       </c>
-      <c r="AL56" s="224">
+      <c r="AL56" s="222">
         <v>-65</v>
       </c>
-      <c r="AM56" s="224"/>
-      <c r="AN56" s="224"/>
+      <c r="AM56" s="222"/>
+      <c r="AN56" s="222"/>
       <c r="AO56" s="16">
         <v>54</v>
       </c>
@@ -30449,24 +30474,28 @@
       <c r="CB57" s="17"/>
     </row>
     <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
+      <c r="A58" s="111">
         <v>56</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="111" t="s">
         <v>1024</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="19">
+      <c r="C58" s="111">
+        <v>-155</v>
+      </c>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111">
         <v>56</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="111" t="s">
         <v>610</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="36"/>
+      <c r="H58" s="111">
+        <v>-155</v>
+      </c>
+      <c r="I58" s="111"/>
+      <c r="J58" s="226"/>
       <c r="K58" s="17">
         <v>56</v>
       </c>
@@ -30635,15 +30664,17 @@
       <c r="M59" s="37"/>
       <c r="N59" s="37"/>
       <c r="O59" s="38"/>
-      <c r="P59" s="39">
+      <c r="P59" s="225">
         <v>57</v>
       </c>
-      <c r="Q59" s="39" t="s">
+      <c r="Q59" s="225" t="s">
         <v>1026</v>
       </c>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
+      <c r="R59" s="225">
+        <v>-212</v>
+      </c>
+      <c r="S59" s="225"/>
+      <c r="T59" s="225"/>
       <c r="U59" s="42">
         <v>57</v>
       </c>
@@ -33956,7 +33987,7 @@
       <c r="B85" s="119"/>
       <c r="C85" s="119">
         <f>SUM(C3:C84)</f>
-        <v>-11113</v>
+        <v>-11268</v>
       </c>
       <c r="D85" s="120">
         <f>SUM(D3:D84)</f>
@@ -33969,7 +34000,7 @@
       <c r="G85" s="119"/>
       <c r="H85" s="119">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-7629</v>
+        <v>-7784</v>
       </c>
       <c r="I85" s="120">
         <f t="shared" si="0"/>
@@ -33995,7 +34026,7 @@
       <c r="Q85" s="119"/>
       <c r="R85" s="119">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-7683</v>
+        <v>-7895</v>
       </c>
       <c r="S85" s="120">
         <f t="shared" si="2"/>
@@ -34034,7 +34065,7 @@
       <c r="AF85" s="119"/>
       <c r="AG85" s="119">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-9901</v>
+        <v>-10066</v>
       </c>
       <c r="AH85" s="120">
         <f t="shared" si="5"/>
@@ -34163,29 +34194,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="222" t="s">
+      <c r="G95" s="223" t="s">
         <v>716</v>
       </c>
-      <c r="H95" s="222">
+      <c r="H95" s="223">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>27318</v>
       </c>
-      <c r="I95" s="222"/>
+      <c r="I95" s="223"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="222"/>
-      <c r="H96" s="222"/>
-      <c r="I96" s="222"/>
+      <c r="G96" s="223"/>
+      <c r="H96" s="223"/>
+      <c r="I96" s="223"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="222"/>
-      <c r="H97" s="222"/>
-      <c r="I97" s="222"/>
+      <c r="G97" s="223"/>
+      <c r="H97" s="223"/>
+      <c r="I97" s="223"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="222"/>
-      <c r="H98" s="222"/>
-      <c r="I98" s="222"/>
+      <c r="G98" s="223"/>
+      <c r="H98" s="223"/>
+      <c r="I98" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34208,11 +34239,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="223" t="s">
+      <c r="E1" s="224" t="s">
         <v>1095</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1115">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3194,9 +3194,6 @@
     <t>Даллас - Айлендерс</t>
   </si>
   <si>
-    <t>Вакувер - Бостон</t>
-  </si>
-  <si>
     <t>Анахайм - Ванкувер</t>
   </si>
   <si>
@@ -3381,13 +3378,22 @@
   </si>
   <si>
     <t>Эдмонтон - Кингс</t>
+  </si>
+  <si>
+    <t>Нэшвилл - Оттава</t>
+  </si>
+  <si>
+    <t>Ванкувер - Питтсбург</t>
+  </si>
+  <si>
+    <t>Сан Хосе - Нью Джерси</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3525,6 +3531,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4603,7 +4616,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4965,17 +4978,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
@@ -5296,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:F62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK61" sqref="AK61:AO61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15570,7 +15589,9 @@
         <v>-90</v>
       </c>
       <c r="AI55" s="74"/>
-      <c r="AJ55" s="74"/>
+      <c r="AJ55" s="74">
+        <v>-4.5999999999999996</v>
+      </c>
       <c r="AK55" s="74">
         <v>53</v>
       </c>
@@ -15759,7 +15780,10 @@
         <v>-112</v>
       </c>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="74"/>
+      <c r="AJ56" s="74">
+        <f>AH61*AJ55</f>
+        <v>2530</v>
+      </c>
       <c r="AK56" s="74">
         <v>54</v>
       </c>
@@ -15949,7 +15973,10 @@
         <v>-155</v>
       </c>
       <c r="AI57" s="74"/>
-      <c r="AJ57" s="74"/>
+      <c r="AJ57" s="74">
+        <f>AJ56+SUM(AH52:AH61)</f>
+        <v>295</v>
+      </c>
       <c r="AK57" s="74">
         <v>55</v>
       </c>
@@ -16180,17 +16207,17 @@
       </c>
       <c r="AX58" s="74"/>
       <c r="AY58" s="74"/>
-      <c r="AZ58" s="219">
+      <c r="AZ58" s="74">
         <v>56</v>
       </c>
-      <c r="BA58" s="219" t="s">
+      <c r="BA58" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="BB58" s="219">
+      <c r="BB58" s="74">
         <v>-160</v>
       </c>
-      <c r="BC58" s="219"/>
-      <c r="BD58" s="219"/>
+      <c r="BC58" s="74"/>
+      <c r="BD58" s="74"/>
       <c r="BE58" s="74">
         <v>56</v>
       </c>
@@ -16202,13 +16229,17 @@
       </c>
       <c r="BH58" s="74"/>
       <c r="BI58" s="74"/>
-      <c r="BJ58" s="200">
+      <c r="BJ58" s="217">
         <v>56</v>
       </c>
-      <c r="BK58" s="200"/>
-      <c r="BL58" s="200"/>
-      <c r="BM58" s="200"/>
-      <c r="BN58" s="200"/>
+      <c r="BK58" s="229" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BL58" s="217">
+        <v>-175</v>
+      </c>
+      <c r="BM58" s="217"/>
+      <c r="BN58" s="217"/>
       <c r="BO58" s="74">
         <v>56</v>
       </c>
@@ -16359,13 +16390,17 @@
       </c>
       <c r="AX59" s="74"/>
       <c r="AY59" s="74"/>
-      <c r="AZ59" s="192">
+      <c r="AZ59" s="217">
         <v>57</v>
       </c>
-      <c r="BA59" s="192"/>
-      <c r="BB59" s="192"/>
-      <c r="BC59" s="192"/>
-      <c r="BD59" s="192"/>
+      <c r="BA59" s="217" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BB59" s="217">
+        <v>-165</v>
+      </c>
+      <c r="BC59" s="217"/>
+      <c r="BD59" s="217"/>
       <c r="BE59" s="74">
         <v>57</v>
       </c>
@@ -16406,17 +16441,17 @@
       </c>
       <c r="BW59" s="74"/>
       <c r="BX59" s="74"/>
-      <c r="BY59" s="219">
+      <c r="BY59" s="74">
         <v>57</v>
       </c>
-      <c r="BZ59" s="220" t="s">
+      <c r="BZ59" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="CA59" s="219">
+      <c r="CA59" s="74">
         <v>-160</v>
       </c>
-      <c r="CB59" s="219"/>
-      <c r="CC59" s="219"/>
+      <c r="CB59" s="74"/>
+      <c r="CC59" s="74"/>
     </row>
     <row r="60" spans="2:81" ht="15.75">
       <c r="B60" s="132">
@@ -16518,17 +16553,20 @@
       </c>
       <c r="AN60" s="74"/>
       <c r="AO60" s="74"/>
-      <c r="AP60" s="219">
+      <c r="AP60" s="132">
         <v>58</v>
       </c>
-      <c r="AQ60" s="219" t="s">
+      <c r="AQ60" s="132" t="s">
         <v>638</v>
       </c>
-      <c r="AR60" s="219">
+      <c r="AR60" s="132">
         <v>-175</v>
       </c>
-      <c r="AS60" s="219"/>
-      <c r="AT60" s="219"/>
+      <c r="AS60" s="132">
+        <f>770+SUM(AR58:AR60)</f>
+        <v>270</v>
+      </c>
+      <c r="AT60" s="132"/>
       <c r="AU60" s="74">
         <v>58</v>
       </c>
@@ -16576,24 +16614,28 @@
       </c>
       <c r="BR60" s="74"/>
       <c r="BS60" s="74"/>
-      <c r="BT60" s="206">
+      <c r="BT60" s="217">
         <v>58</v>
       </c>
-      <c r="BU60" s="206" t="s">
+      <c r="BU60" s="217" t="s">
         <v>639</v>
       </c>
-      <c r="BV60" s="206"/>
-      <c r="BW60" s="206"/>
-      <c r="BX60" s="206"/>
-      <c r="BY60" s="212">
+      <c r="BV60" s="217">
+        <v>-255</v>
+      </c>
+      <c r="BW60" s="217"/>
+      <c r="BX60" s="217"/>
+      <c r="BY60" s="217">
         <v>58</v>
       </c>
-      <c r="BZ60" s="213" t="s">
+      <c r="BZ60" s="218" t="s">
         <v>640</v>
       </c>
-      <c r="CA60" s="212"/>
-      <c r="CB60" s="212"/>
-      <c r="CC60" s="212"/>
+      <c r="CA60" s="217">
+        <v>-165</v>
+      </c>
+      <c r="CB60" s="217"/>
+      <c r="CC60" s="217"/>
     </row>
     <row r="61" spans="2:81" ht="15.75">
       <c r="B61" s="132">
@@ -16610,24 +16652,28 @@
         <v>544</v>
       </c>
       <c r="F61" s="132"/>
-      <c r="G61" s="134">
+      <c r="G61" s="217">
         <v>59</v>
       </c>
-      <c r="H61" s="134" t="s">
+      <c r="H61" s="217" t="s">
         <v>642</v>
       </c>
-      <c r="I61" s="134"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="142">
+      <c r="I61" s="217">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="217"/>
+      <c r="K61" s="217"/>
+      <c r="L61" s="217">
         <v>59</v>
       </c>
-      <c r="M61" s="142" t="s">
+      <c r="M61" s="217" t="s">
         <v>643</v>
       </c>
-      <c r="N61" s="142"/>
-      <c r="O61" s="142"/>
-      <c r="P61" s="143"/>
+      <c r="N61" s="217">
+        <v>-160</v>
+      </c>
+      <c r="O61" s="217"/>
+      <c r="P61" s="226"/>
       <c r="Q61" s="154">
         <v>59</v>
       </c>
@@ -16635,36 +16681,50 @@
       <c r="S61" s="154"/>
       <c r="T61" s="154"/>
       <c r="U61" s="154"/>
-      <c r="V61" s="155">
+      <c r="V61" s="217">
         <v>59</v>
       </c>
-      <c r="W61" s="155"/>
-      <c r="X61" s="155"/>
-      <c r="Y61" s="155"/>
-      <c r="Z61" s="155"/>
-      <c r="AA61" s="163">
+      <c r="W61" s="217" t="s">
+        <v>640</v>
+      </c>
+      <c r="X61" s="217">
+        <v>-160</v>
+      </c>
+      <c r="Y61" s="217"/>
+      <c r="Z61" s="217"/>
+      <c r="AA61" s="217">
         <v>59</v>
       </c>
-      <c r="AB61" s="163"/>
-      <c r="AC61" s="163"/>
-      <c r="AD61" s="163"/>
-      <c r="AE61" s="163"/>
-      <c r="AF61" s="164">
+      <c r="AB61" s="217" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC61" s="217">
+        <v>-160</v>
+      </c>
+      <c r="AD61" s="217"/>
+      <c r="AE61" s="217"/>
+      <c r="AF61" s="217">
         <v>59</v>
       </c>
-      <c r="AG61" s="164" t="s">
+      <c r="AG61" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="AH61" s="164"/>
-      <c r="AI61" s="164"/>
-      <c r="AJ61" s="164"/>
-      <c r="AK61" s="155">
+      <c r="AH61" s="217">
+        <v>-550</v>
+      </c>
+      <c r="AI61" s="217"/>
+      <c r="AJ61" s="217"/>
+      <c r="AK61" s="217">
         <v>59</v>
       </c>
-      <c r="AL61" s="155"/>
-      <c r="AM61" s="155"/>
-      <c r="AN61" s="155"/>
-      <c r="AO61" s="155"/>
+      <c r="AL61" s="229" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AM61" s="217">
+        <v>-470</v>
+      </c>
+      <c r="AN61" s="217"/>
+      <c r="AO61" s="217"/>
       <c r="AP61" s="183">
         <v>59</v>
       </c>
@@ -16741,17 +16801,20 @@
       <c r="CC61" s="212"/>
     </row>
     <row r="62" spans="2:81" ht="15.75">
-      <c r="B62" s="219">
+      <c r="B62" s="132">
         <v>60</v>
       </c>
-      <c r="C62" s="219" t="s">
+      <c r="C62" s="132" t="s">
         <v>647</v>
       </c>
-      <c r="D62" s="219">
+      <c r="D62" s="132">
         <v>-160</v>
       </c>
-      <c r="E62" s="219"/>
-      <c r="F62" s="219"/>
+      <c r="E62" s="132">
+        <f>688+D62</f>
+        <v>528</v>
+      </c>
+      <c r="F62" s="132"/>
       <c r="G62" s="134">
         <v>60</v>
       </c>
@@ -16832,13 +16895,17 @@
       <c r="BB62" s="192"/>
       <c r="BC62" s="192"/>
       <c r="BD62" s="192"/>
-      <c r="BE62" s="201">
+      <c r="BE62" s="217">
         <v>60</v>
       </c>
-      <c r="BF62" s="201"/>
-      <c r="BG62" s="201"/>
-      <c r="BH62" s="201"/>
-      <c r="BI62" s="201"/>
+      <c r="BF62" s="217" t="s">
+        <v>546</v>
+      </c>
+      <c r="BG62" s="217">
+        <v>-212</v>
+      </c>
+      <c r="BH62" s="217"/>
+      <c r="BI62" s="217"/>
       <c r="BJ62" s="200">
         <v>60</v>
       </c>
@@ -16980,15 +17047,17 @@
       <c r="BL63" s="200"/>
       <c r="BM63" s="200"/>
       <c r="BN63" s="200"/>
-      <c r="BO63" s="154">
+      <c r="BO63" s="217">
         <v>61</v>
       </c>
-      <c r="BP63" s="207" t="s">
+      <c r="BP63" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="BQ63" s="154"/>
-      <c r="BR63" s="154"/>
-      <c r="BS63" s="154"/>
+      <c r="BQ63" s="217">
+        <v>-315</v>
+      </c>
+      <c r="BR63" s="217"/>
+      <c r="BS63" s="217"/>
       <c r="BT63" s="206">
         <v>61</v>
       </c>
@@ -19791,7 +19860,7 @@
       </c>
       <c r="E85" s="120">
         <f>SUM(E3:E84)</f>
-        <v>4613</v>
+        <v>5141</v>
       </c>
       <c r="F85" s="216"/>
       <c r="G85" s="215" t="s">
@@ -19800,7 +19869,7 @@
       <c r="H85" s="216"/>
       <c r="I85" s="216">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-17169</v>
+        <v>-17269</v>
       </c>
       <c r="J85" s="120">
         <f t="shared" si="0"/>
@@ -19813,7 +19882,7 @@
       <c r="M85" s="216"/>
       <c r="N85" s="216">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-7226</v>
+        <v>-7386</v>
       </c>
       <c r="O85" s="120">
         <f t="shared" si="1"/>
@@ -19839,7 +19908,7 @@
       <c r="W85" s="216"/>
       <c r="X85" s="216">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-6059</v>
+        <v>-6219</v>
       </c>
       <c r="Y85" s="120">
         <f t="shared" si="3"/>
@@ -19852,7 +19921,7 @@
       <c r="AB85" s="216"/>
       <c r="AC85" s="216">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-24029</v>
+        <v>-24189</v>
       </c>
       <c r="AD85" s="120">
         <f t="shared" si="4"/>
@@ -19865,7 +19934,7 @@
       <c r="AG85" s="216"/>
       <c r="AH85" s="216">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-6789</v>
+        <v>-7339</v>
       </c>
       <c r="AI85" s="120">
         <f t="shared" si="5"/>
@@ -19878,7 +19947,7 @@
       <c r="AL85" s="216"/>
       <c r="AM85" s="216">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-14660</v>
+        <v>-15130</v>
       </c>
       <c r="AN85" s="120">
         <f t="shared" si="6"/>
@@ -19895,7 +19964,7 @@
       </c>
       <c r="AS85" s="120">
         <f t="shared" si="7"/>
-        <v>3269</v>
+        <v>3539</v>
       </c>
       <c r="AT85" s="216"/>
       <c r="AU85" s="215" t="s">
@@ -19917,7 +19986,7 @@
       <c r="BA85" s="216"/>
       <c r="BB85" s="216">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-15362</v>
+        <v>-15527</v>
       </c>
       <c r="BC85" s="120">
         <f t="shared" si="9"/>
@@ -19930,7 +19999,7 @@
       <c r="BF85" s="216"/>
       <c r="BG85" s="216">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-11372</v>
+        <v>-11584</v>
       </c>
       <c r="BH85" s="120">
         <f t="shared" si="10"/>
@@ -19943,7 +20012,7 @@
       <c r="BK85" s="216"/>
       <c r="BL85" s="216">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-7449</v>
+        <v>-7624</v>
       </c>
       <c r="BM85" s="120">
         <f t="shared" si="11"/>
@@ -19956,7 +20025,7 @@
       <c r="BP85" s="216"/>
       <c r="BQ85" s="216">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-7808</v>
+        <v>-8123</v>
       </c>
       <c r="BR85" s="120">
         <f t="shared" si="12"/>
@@ -19969,7 +20038,7 @@
       <c r="BU85" s="216"/>
       <c r="BV85" s="216">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-4773</v>
+        <v>-5028</v>
       </c>
       <c r="BW85" s="120">
         <f t="shared" si="13"/>
@@ -19982,7 +20051,7 @@
       <c r="BZ85" s="216"/>
       <c r="CA85" s="216">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-7781</v>
+        <v>-7946</v>
       </c>
       <c r="CB85" s="120">
         <f t="shared" si="14"/>
@@ -19991,29 +20060,29 @@
       <c r="CC85" s="216"/>
     </row>
     <row r="92" spans="2:81">
-      <c r="H92" s="217" t="s">
+      <c r="H92" s="222" t="s">
         <v>728</v>
       </c>
-      <c r="I92" s="217">
+      <c r="I92" s="222">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>40194</v>
-      </c>
-      <c r="J92" s="217"/>
+        <v>40992</v>
+      </c>
+      <c r="J92" s="222"/>
     </row>
     <row r="93" spans="2:81">
-      <c r="H93" s="217"/>
-      <c r="I93" s="217"/>
-      <c r="J93" s="217"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
     </row>
     <row r="94" spans="2:81">
-      <c r="H94" s="217"/>
-      <c r="I94" s="217"/>
-      <c r="J94" s="217"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
     </row>
     <row r="95" spans="2:81">
-      <c r="H95" s="217"/>
-      <c r="I95" s="217"/>
-      <c r="J95" s="217"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20029,8 +20098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="BF34" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BX61" sqref="BX61:CB61"/>
+    <sheetView topLeftCell="AY31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AY59" sqref="AY59:BC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -30753,17 +30822,17 @@
         <v>204</v>
       </c>
       <c r="AD58" s="16"/>
-      <c r="AE58" s="111">
+      <c r="AE58" s="17">
         <v>56</v>
       </c>
-      <c r="AF58" s="223" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AG58" s="111">
+      <c r="AF58" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AG58" s="17">
         <v>-175</v>
       </c>
-      <c r="AH58" s="111"/>
-      <c r="AI58" s="111"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
       <c r="AJ58" s="16">
         <v>56</v>
       </c>
@@ -30844,13 +30913,17 @@
       </c>
       <c r="BQ58" s="17"/>
       <c r="BR58" s="17"/>
-      <c r="BS58" s="112">
+      <c r="BS58" s="111">
         <v>56</v>
       </c>
-      <c r="BT58" s="101"/>
-      <c r="BU58" s="101"/>
-      <c r="BV58" s="101"/>
-      <c r="BW58" s="101"/>
+      <c r="BT58" s="111" t="s">
+        <v>783</v>
+      </c>
+      <c r="BU58" s="111">
+        <v>-160</v>
+      </c>
+      <c r="BV58" s="111"/>
+      <c r="BW58" s="111"/>
       <c r="BX58" s="75">
         <v>56</v>
       </c>
@@ -30951,17 +31024,17 @@
       <c r="AG59" s="57"/>
       <c r="AH59" s="57"/>
       <c r="AI59" s="57"/>
-      <c r="AJ59" s="222">
+      <c r="AJ59" s="17">
         <v>57</v>
       </c>
-      <c r="AK59" s="222" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AL59" s="222">
+      <c r="AK59" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AL59" s="17">
         <v>-160</v>
       </c>
-      <c r="AM59" s="222"/>
-      <c r="AN59" s="222"/>
+      <c r="AM59" s="17"/>
+      <c r="AN59" s="17"/>
       <c r="AO59" s="17">
         <v>57</v>
       </c>
@@ -30984,13 +31057,17 @@
       </c>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
-      <c r="AY59" s="89">
+      <c r="AY59" s="111">
         <v>57</v>
       </c>
-      <c r="AZ59" s="89"/>
-      <c r="BA59" s="89"/>
-      <c r="BB59" s="89"/>
-      <c r="BC59" s="89"/>
+      <c r="AZ59" s="221" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BA59" s="111">
+        <v>-155</v>
+      </c>
+      <c r="BB59" s="111"/>
+      <c r="BC59" s="111"/>
       <c r="BD59" s="17">
         <v>57</v>
       </c>
@@ -31055,15 +31132,17 @@
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="19">
+      <c r="F60" s="111">
         <v>58</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="111" t="s">
         <v>1042</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="36"/>
+      <c r="H60" s="111">
+        <v>-160</v>
+      </c>
+      <c r="I60" s="111"/>
+      <c r="J60" s="224"/>
       <c r="K60" s="17">
         <v>58</v>
       </c>
@@ -31118,13 +31197,17 @@
       <c r="AG60" s="57"/>
       <c r="AH60" s="57"/>
       <c r="AI60" s="57"/>
-      <c r="AJ60" s="64">
+      <c r="AJ60" s="220">
         <v>58</v>
       </c>
-      <c r="AK60" s="64"/>
-      <c r="AL60" s="64"/>
-      <c r="AM60" s="64"/>
-      <c r="AN60" s="64"/>
+      <c r="AK60" s="220" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AL60" s="220">
+        <v>-165</v>
+      </c>
+      <c r="AM60" s="220"/>
+      <c r="AN60" s="220"/>
       <c r="AO60" s="17">
         <v>58</v>
       </c>
@@ -31154,13 +31237,17 @@
       <c r="BA60" s="89"/>
       <c r="BB60" s="89"/>
       <c r="BC60" s="89"/>
-      <c r="BD60" s="90">
+      <c r="BD60" s="111">
         <v>58</v>
       </c>
-      <c r="BE60" s="90"/>
-      <c r="BF60" s="90"/>
-      <c r="BG60" s="90"/>
-      <c r="BH60" s="90"/>
+      <c r="BE60" s="111" t="s">
+        <v>777</v>
+      </c>
+      <c r="BF60" s="111">
+        <v>-498</v>
+      </c>
+      <c r="BG60" s="111"/>
+      <c r="BH60" s="111"/>
       <c r="BI60" s="17">
         <v>58</v>
       </c>
@@ -31221,15 +31308,17 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="36"/>
-      <c r="K61" s="37">
+      <c r="K61" s="111">
         <v>59</v>
       </c>
-      <c r="L61" s="37" t="s">
+      <c r="L61" s="111" t="s">
         <v>1043</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="38"/>
+      <c r="M61" s="111">
+        <v>-65</v>
+      </c>
+      <c r="N61" s="111"/>
+      <c r="O61" s="224"/>
       <c r="P61" s="34">
         <v>59</v>
       </c>
@@ -31244,15 +31333,17 @@
         <v>608</v>
       </c>
       <c r="T61" s="34"/>
-      <c r="U61" s="42">
+      <c r="U61" s="227">
         <v>59</v>
       </c>
-      <c r="V61" s="44" t="s">
+      <c r="V61" s="111" t="s">
         <v>1044</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
+      <c r="W61" s="111">
+        <v>-165</v>
+      </c>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
       <c r="Z61" s="17">
         <v>59</v>
       </c>
@@ -31278,15 +31369,17 @@
       <c r="AL61" s="64"/>
       <c r="AM61" s="64"/>
       <c r="AN61" s="64"/>
-      <c r="AO61" s="76">
+      <c r="AO61" s="111">
         <v>59</v>
       </c>
-      <c r="AP61" s="77" t="s">
+      <c r="AP61" s="225" t="s">
         <v>513</v>
       </c>
-      <c r="AQ61" s="76"/>
-      <c r="AR61" s="76"/>
-      <c r="AS61" s="76"/>
+      <c r="AQ61" s="111">
+        <v>-212</v>
+      </c>
+      <c r="AR61" s="111"/>
+      <c r="AS61" s="111"/>
       <c r="AT61" s="17">
         <v>59</v>
       </c>
@@ -31343,17 +31436,20 @@
       <c r="BU61" s="101"/>
       <c r="BV61" s="101"/>
       <c r="BW61" s="101"/>
-      <c r="BX61" s="111">
+      <c r="BX61" s="16">
         <v>59</v>
       </c>
-      <c r="BY61" s="223" t="s">
+      <c r="BY61" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="BZ61" s="111">
+      <c r="BZ61" s="16">
         <v>-175</v>
       </c>
-      <c r="CA61" s="111"/>
-      <c r="CB61" s="111"/>
+      <c r="CA61" s="16">
+        <f>753+SUM(BZ59:BZ61)</f>
+        <v>253</v>
+      </c>
+      <c r="CB61" s="16"/>
     </row>
     <row r="62" spans="1:80" ht="15.75">
       <c r="A62" s="20">
@@ -31401,17 +31497,20 @@
       <c r="W62" s="44"/>
       <c r="X62" s="44"/>
       <c r="Y62" s="44"/>
-      <c r="Z62" s="221">
+      <c r="Z62" s="16">
         <v>60</v>
       </c>
-      <c r="AA62" s="222" t="s">
+      <c r="AA62" s="16" t="s">
         <v>1049</v>
       </c>
-      <c r="AB62" s="221">
+      <c r="AB62" s="16">
         <v>-190</v>
       </c>
-      <c r="AC62" s="221"/>
-      <c r="AD62" s="221"/>
+      <c r="AC62" s="16">
+        <f>836+SUM(AB59:AB62)</f>
+        <v>246</v>
+      </c>
+      <c r="AD62" s="16"/>
       <c r="AE62" s="57">
         <v>60</v>
       </c>
@@ -31435,13 +31534,17 @@
       <c r="AQ62" s="76"/>
       <c r="AR62" s="76"/>
       <c r="AS62" s="76"/>
-      <c r="AT62" s="57">
+      <c r="AT62" s="111">
         <v>60</v>
       </c>
-      <c r="AU62" s="57"/>
-      <c r="AV62" s="57"/>
-      <c r="AW62" s="57"/>
-      <c r="AX62" s="57"/>
+      <c r="AU62" s="111" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AV62" s="111">
+        <v>-398</v>
+      </c>
+      <c r="AW62" s="111"/>
+      <c r="AX62" s="111"/>
       <c r="AY62" s="89">
         <v>60</v>
       </c>
@@ -31459,8 +31562,8 @@
       <c r="BI62" s="16">
         <v>60</v>
       </c>
-      <c r="BJ62" s="16" t="s">
-        <v>1050</v>
+      <c r="BJ62" s="228" t="s">
+        <v>641</v>
       </c>
       <c r="BK62" s="16">
         <v>-315</v>
@@ -31470,13 +31573,17 @@
         <v>414</v>
       </c>
       <c r="BM62" s="16"/>
-      <c r="BN62" s="113">
+      <c r="BN62" s="111">
         <v>60</v>
       </c>
-      <c r="BO62" s="113"/>
-      <c r="BP62" s="113"/>
-      <c r="BQ62" s="113"/>
-      <c r="BR62" s="113"/>
+      <c r="BO62" s="111" t="s">
+        <v>639</v>
+      </c>
+      <c r="BP62" s="111">
+        <v>-160</v>
+      </c>
+      <c r="BQ62" s="111"/>
+      <c r="BR62" s="111"/>
       <c r="BS62" s="112">
         <v>60</v>
       </c>
@@ -31497,7 +31604,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -31524,7 +31631,7 @@
         <v>61</v>
       </c>
       <c r="Q63" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
@@ -31538,15 +31645,17 @@
       <c r="W63" s="44"/>
       <c r="X63" s="44"/>
       <c r="Y63" s="44"/>
-      <c r="Z63" s="49">
+      <c r="Z63" s="219">
         <v>61</v>
       </c>
-      <c r="AA63" s="58" t="s">
+      <c r="AA63" s="220" t="s">
         <v>1044</v>
       </c>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
+      <c r="AB63" s="219">
+        <v>-160</v>
+      </c>
+      <c r="AC63" s="219"/>
+      <c r="AD63" s="219"/>
       <c r="AE63" s="57">
         <v>61</v>
       </c>
@@ -31565,7 +31674,7 @@
         <v>61</v>
       </c>
       <c r="AP63" s="77" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AQ63" s="76"/>
       <c r="AR63" s="76"/>
@@ -31591,13 +31700,17 @@
       <c r="BF63" s="90"/>
       <c r="BG63" s="90"/>
       <c r="BH63" s="90"/>
-      <c r="BI63" s="101">
+      <c r="BI63" s="111">
         <v>61</v>
       </c>
-      <c r="BJ63" s="101"/>
-      <c r="BK63" s="101"/>
-      <c r="BL63" s="101"/>
-      <c r="BM63" s="101"/>
+      <c r="BJ63" s="221" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BK63" s="111">
+        <v>-160</v>
+      </c>
+      <c r="BL63" s="111"/>
+      <c r="BM63" s="111"/>
       <c r="BN63" s="113">
         <v>61</v>
       </c>
@@ -31625,7 +31738,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -31643,7 +31756,7 @@
         <v>62</v>
       </c>
       <c r="L64" s="37" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -31670,7 +31783,7 @@
         <v>62</v>
       </c>
       <c r="AA64" s="58" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AB64" s="49"/>
       <c r="AC64" s="49"/>
@@ -31693,7 +31806,7 @@
         <v>62</v>
       </c>
       <c r="AP64" s="77" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AQ64" s="76"/>
       <c r="AR64" s="76"/>
@@ -31771,7 +31884,7 @@
         <v>63</v>
       </c>
       <c r="L65" s="37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
@@ -31798,7 +31911,7 @@
         <v>63</v>
       </c>
       <c r="AA65" s="58" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AB65" s="49"/>
       <c r="AC65" s="49"/>
@@ -31890,7 +32003,7 @@
         <v>64</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -31899,7 +32012,7 @@
         <v>64</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
@@ -31917,7 +32030,7 @@
         <v>64</v>
       </c>
       <c r="V66" s="44" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
@@ -31926,7 +32039,7 @@
         <v>64</v>
       </c>
       <c r="AA66" s="58" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AB66" s="49"/>
       <c r="AC66" s="49"/>
@@ -31949,7 +32062,7 @@
         <v>64</v>
       </c>
       <c r="AP66" s="77" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AQ66" s="76"/>
       <c r="AR66" s="76"/>
@@ -32018,7 +32131,7 @@
         <v>65</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -32027,7 +32140,7 @@
         <v>65</v>
       </c>
       <c r="L67" s="37" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
@@ -32036,7 +32149,7 @@
         <v>65</v>
       </c>
       <c r="Q67" s="39" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
@@ -32045,7 +32158,7 @@
         <v>65</v>
       </c>
       <c r="V67" s="44" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="W67" s="44"/>
       <c r="X67" s="44"/>
@@ -32173,7 +32286,7 @@
         <v>66</v>
       </c>
       <c r="V68" s="44" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="W68" s="44"/>
       <c r="X68" s="44"/>
@@ -32182,7 +32295,7 @@
         <v>66</v>
       </c>
       <c r="AA68" s="58" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AB68" s="49"/>
       <c r="AC68" s="49"/>
@@ -32265,7 +32378,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -32274,7 +32387,7 @@
         <v>67</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -32292,7 +32405,7 @@
         <v>67</v>
       </c>
       <c r="Q69" s="39" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
@@ -32301,7 +32414,7 @@
         <v>67</v>
       </c>
       <c r="V69" s="44" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="W69" s="44"/>
       <c r="X69" s="44"/>
@@ -32310,7 +32423,7 @@
         <v>67</v>
       </c>
       <c r="AA69" s="58" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AB69" s="49"/>
       <c r="AC69" s="49"/>
@@ -32333,7 +32446,7 @@
         <v>67</v>
       </c>
       <c r="AP69" s="77" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AQ69" s="76"/>
       <c r="AR69" s="76"/>
@@ -32393,7 +32506,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -32402,7 +32515,7 @@
         <v>68</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -32420,7 +32533,7 @@
         <v>68</v>
       </c>
       <c r="Q70" s="39" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
@@ -32429,7 +32542,7 @@
         <v>68</v>
       </c>
       <c r="V70" s="44" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W70" s="44"/>
       <c r="X70" s="44"/>
@@ -32438,7 +32551,7 @@
         <v>68</v>
       </c>
       <c r="AA70" s="58" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AB70" s="49"/>
       <c r="AC70" s="49"/>
@@ -32461,7 +32574,7 @@
         <v>68</v>
       </c>
       <c r="AP70" s="77" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AQ70" s="76"/>
       <c r="AR70" s="76"/>
@@ -32521,7 +32634,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -32539,7 +32652,7 @@
         <v>69</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
@@ -32548,7 +32661,7 @@
         <v>69</v>
       </c>
       <c r="Q71" s="39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
@@ -32589,7 +32702,7 @@
         <v>69</v>
       </c>
       <c r="AP71" s="77" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AQ71" s="76"/>
       <c r="AR71" s="76"/>
@@ -32649,7 +32762,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -32667,7 +32780,7 @@
         <v>70</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
@@ -32676,7 +32789,7 @@
         <v>70</v>
       </c>
       <c r="Q72" s="39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R72" s="39"/>
       <c r="S72" s="39"/>
@@ -32685,7 +32798,7 @@
         <v>70</v>
       </c>
       <c r="V72" s="44" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W72" s="44"/>
       <c r="X72" s="44"/>
@@ -32717,7 +32830,7 @@
         <v>70</v>
       </c>
       <c r="AP72" s="77" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AQ72" s="76"/>
       <c r="AR72" s="76"/>
@@ -32786,7 +32899,7 @@
         <v>71</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -32804,7 +32917,7 @@
         <v>71</v>
       </c>
       <c r="Q73" s="39" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R73" s="39"/>
       <c r="S73" s="39"/>
@@ -32813,7 +32926,7 @@
         <v>71</v>
       </c>
       <c r="V73" s="44" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W73" s="44"/>
       <c r="X73" s="44"/>
@@ -32822,7 +32935,7 @@
         <v>71</v>
       </c>
       <c r="AA73" s="58" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AB73" s="49"/>
       <c r="AC73" s="49"/>
@@ -32845,7 +32958,7 @@
         <v>71</v>
       </c>
       <c r="AP73" s="77" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AQ73" s="76"/>
       <c r="AR73" s="76"/>
@@ -32905,7 +33018,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
@@ -32914,7 +33027,7 @@
         <v>72</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -32923,7 +33036,7 @@
         <v>72</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
@@ -32950,7 +33063,7 @@
         <v>72</v>
       </c>
       <c r="AA74" s="58" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AB74" s="49"/>
       <c r="AC74" s="49"/>
@@ -32973,7 +33086,7 @@
         <v>72</v>
       </c>
       <c r="AP74" s="77" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AQ74" s="76"/>
       <c r="AR74" s="76"/>
@@ -33033,7 +33146,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -33051,7 +33164,7 @@
         <v>73</v>
       </c>
       <c r="L75" s="37" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
@@ -33060,7 +33173,7 @@
         <v>73</v>
       </c>
       <c r="Q75" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R75" s="39"/>
       <c r="S75" s="39"/>
@@ -33069,7 +33182,7 @@
         <v>73</v>
       </c>
       <c r="V75" s="44" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="W75" s="44"/>
       <c r="X75" s="44"/>
@@ -33078,7 +33191,7 @@
         <v>73</v>
       </c>
       <c r="AA75" s="58" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AB75" s="49"/>
       <c r="AC75" s="49"/>
@@ -33179,7 +33292,7 @@
         <v>74</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M76" s="37"/>
       <c r="N76" s="37"/>
@@ -33188,7 +33301,7 @@
         <v>74</v>
       </c>
       <c r="Q76" s="39" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R76" s="39"/>
       <c r="S76" s="39"/>
@@ -33197,7 +33310,7 @@
         <v>74</v>
       </c>
       <c r="V76" s="44" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="W76" s="44"/>
       <c r="X76" s="44"/>
@@ -33298,7 +33411,7 @@
         <v>75</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -33307,7 +33420,7 @@
         <v>75</v>
       </c>
       <c r="L77" s="37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
@@ -33325,7 +33438,7 @@
         <v>75</v>
       </c>
       <c r="V77" s="44" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W77" s="44"/>
       <c r="X77" s="44"/>
@@ -33334,7 +33447,7 @@
         <v>75</v>
       </c>
       <c r="AA77" s="58" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AB77" s="49"/>
       <c r="AC77" s="49"/>
@@ -33357,7 +33470,7 @@
         <v>75</v>
       </c>
       <c r="AP77" s="77" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AQ77" s="76"/>
       <c r="AR77" s="76"/>
@@ -33417,7 +33530,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -33563,7 +33676,7 @@
         <v>77</v>
       </c>
       <c r="L79" s="37" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
@@ -33581,7 +33694,7 @@
         <v>77</v>
       </c>
       <c r="V79" s="44" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="W79" s="44"/>
       <c r="X79" s="44"/>
@@ -33682,7 +33795,7 @@
         <v>78</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -33741,7 +33854,7 @@
         <v>78</v>
       </c>
       <c r="AP80" s="77" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AQ80" s="76"/>
       <c r="AR80" s="76"/>
@@ -33837,7 +33950,7 @@
         <v>79</v>
       </c>
       <c r="V81" s="44" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="W81" s="44"/>
       <c r="X81" s="44"/>
@@ -33846,7 +33959,7 @@
         <v>79</v>
       </c>
       <c r="AA81" s="58" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AB81" s="49"/>
       <c r="AC81" s="49"/>
@@ -33938,7 +34051,7 @@
         <v>80</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -33974,7 +34087,7 @@
         <v>80</v>
       </c>
       <c r="AA82" s="58" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AB82" s="49"/>
       <c r="AC82" s="49"/>
@@ -33997,7 +34110,7 @@
         <v>80</v>
       </c>
       <c r="AP82" s="77" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AQ82" s="76"/>
       <c r="AR82" s="76"/>
@@ -34075,7 +34188,7 @@
         <v>81</v>
       </c>
       <c r="L83" s="37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
@@ -34125,7 +34238,7 @@
         <v>81</v>
       </c>
       <c r="AP83" s="77" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AQ83" s="76"/>
       <c r="AR83" s="76"/>
@@ -34212,7 +34325,7 @@
         <v>82</v>
       </c>
       <c r="Q84" s="39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R84" s="39"/>
       <c r="S84" s="39"/>
@@ -34221,7 +34334,7 @@
         <v>82</v>
       </c>
       <c r="V84" s="44" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
@@ -34328,7 +34441,7 @@
       <c r="G85" s="119"/>
       <c r="H85" s="119">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-7999</v>
+        <v>-8159</v>
       </c>
       <c r="I85" s="120">
         <f t="shared" si="0"/>
@@ -34341,7 +34454,7 @@
       <c r="L85" s="119"/>
       <c r="M85" s="119">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-13360</v>
+        <v>-13425</v>
       </c>
       <c r="N85" s="120">
         <f t="shared" si="1"/>
@@ -34367,7 +34480,7 @@
       <c r="V85" s="119"/>
       <c r="W85" s="119">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-24926</v>
+        <v>-25091</v>
       </c>
       <c r="X85" s="120">
         <f t="shared" si="3"/>
@@ -34380,11 +34493,11 @@
       <c r="AA85" s="119"/>
       <c r="AB85" s="119">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-7067</v>
+        <v>-7227</v>
       </c>
       <c r="AC85" s="120">
         <f t="shared" si="4"/>
-        <v>2932</v>
+        <v>3178</v>
       </c>
       <c r="AD85" s="119"/>
       <c r="AE85" s="118" t="s">
@@ -34406,7 +34519,7 @@
       <c r="AK85" s="119"/>
       <c r="AL85" s="119">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-5570</v>
+        <v>-5735</v>
       </c>
       <c r="AM85" s="120">
         <f t="shared" si="6"/>
@@ -34419,7 +34532,7 @@
       <c r="AP85" s="119"/>
       <c r="AQ85" s="119">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-9241</v>
+        <v>-9453</v>
       </c>
       <c r="AR85" s="120">
         <f t="shared" si="7"/>
@@ -34432,7 +34545,7 @@
       <c r="AU85" s="119"/>
       <c r="AV85" s="119">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-12102</v>
+        <v>-12500</v>
       </c>
       <c r="AW85" s="120">
         <f t="shared" si="8"/>
@@ -34445,7 +34558,7 @@
       <c r="AZ85" s="119"/>
       <c r="BA85" s="119">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-20056</v>
+        <v>-20211</v>
       </c>
       <c r="BB85" s="120">
         <f t="shared" si="9"/>
@@ -34458,7 +34571,7 @@
       <c r="BE85" s="119"/>
       <c r="BF85" s="119">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-39439</v>
+        <v>-39937</v>
       </c>
       <c r="BG85" s="120">
         <f t="shared" si="10"/>
@@ -34471,7 +34584,7 @@
       <c r="BJ85" s="119"/>
       <c r="BK85" s="119">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-12217</v>
+        <v>-12377</v>
       </c>
       <c r="BL85" s="120">
         <f t="shared" si="11"/>
@@ -34484,7 +34597,7 @@
       <c r="BO85" s="119"/>
       <c r="BP85" s="119">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-9947</v>
+        <v>-10107</v>
       </c>
       <c r="BQ85" s="120">
         <f t="shared" si="12"/>
@@ -34497,7 +34610,7 @@
       <c r="BT85" s="119"/>
       <c r="BU85" s="119">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-9387</v>
+        <v>-9547</v>
       </c>
       <c r="BV85" s="120">
         <f t="shared" si="13"/>
@@ -34514,7 +34627,7 @@
       </c>
       <c r="CA85" s="120">
         <f t="shared" si="14"/>
-        <v>2321</v>
+        <v>2574</v>
       </c>
       <c r="CB85" s="119"/>
       <c r="CC85" s="118" t="s">
@@ -34522,29 +34635,29 @@
       </c>
     </row>
     <row r="95" spans="1:81">
-      <c r="G95" s="217" t="s">
+      <c r="G95" s="222" t="s">
         <v>728</v>
       </c>
-      <c r="H95" s="217">
+      <c r="H95" s="222">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>31894</v>
-      </c>
-      <c r="I95" s="217"/>
+        <v>32393</v>
+      </c>
+      <c r="I95" s="222"/>
     </row>
     <row r="96" spans="1:81">
-      <c r="G96" s="217"/>
-      <c r="H96" s="217"/>
-      <c r="I96" s="217"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="217"/>
-      <c r="H97" s="217"/>
-      <c r="I97" s="217"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="217"/>
-      <c r="H98" s="217"/>
-      <c r="I98" s="217"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34567,27 +34680,27 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="218" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="E1" s="223" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
     </row>
     <row r="2" spans="5:8" ht="15.75">
       <c r="E2" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="5:8">

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1116">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3387,13 +3392,16 @@
   </si>
   <si>
     <t>Сан Хосе - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Эдмонтон - Сент Луис</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4983,21 +4991,21 @@
     <xf numFmtId="0" fontId="16" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -5021,6 +5029,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5312,14 +5323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK61" sqref="AK61:AO61"/>
+    <sheetView topLeftCell="AJ43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU62" sqref="AU62:AY62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -5340,7 +5351,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +5529,7 @@
       <c r="CB1" s="209"/>
       <c r="CC1" s="209"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="127" t="s">
         <v>4</v>
       </c>
@@ -5664,7 +5675,7 @@
       <c r="CB2" s="209"/>
       <c r="CC2" s="209"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75">
+    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="129">
         <v>1</v>
       </c>
@@ -5848,7 +5859,7 @@
       <c r="CB3" s="129"/>
       <c r="CC3" s="129"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75">
+    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="74">
         <v>2</v>
       </c>
@@ -6035,7 +6046,7 @@
       </c>
       <c r="CC4" s="132"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75">
+    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="74">
         <v>3</v>
       </c>
@@ -6219,7 +6230,7 @@
       <c r="CB5" s="74"/>
       <c r="CC5" s="74"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75">
+    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="74">
         <v>4</v>
       </c>
@@ -6409,7 +6420,7 @@
       </c>
       <c r="CC6" s="132"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75">
+    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="74">
         <v>5</v>
       </c>
@@ -6598,7 +6609,7 @@
       <c r="CB7" s="74"/>
       <c r="CC7" s="74"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75">
+    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="74">
         <v>6</v>
       </c>
@@ -6785,7 +6796,7 @@
       <c r="CB8" s="74"/>
       <c r="CC8" s="74"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75">
+    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="132">
         <v>7</v>
       </c>
@@ -6978,7 +6989,7 @@
       </c>
       <c r="CC9" s="132"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75">
+    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="74">
         <v>8</v>
       </c>
@@ -7174,7 +7185,7 @@
       <c r="CB10" s="74"/>
       <c r="CC10" s="74"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75">
+    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="132">
         <v>9</v>
       </c>
@@ -7367,7 +7378,7 @@
       <c r="CB11" s="74"/>
       <c r="CC11" s="74"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75">
+    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="132">
         <v>10</v>
       </c>
@@ -7557,7 +7568,7 @@
       <c r="CB12" s="74"/>
       <c r="CC12" s="74"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75">
+    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="74">
         <v>11</v>
       </c>
@@ -7744,7 +7755,7 @@
       </c>
       <c r="CC13" s="131"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75">
+    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="74">
         <v>12</v>
       </c>
@@ -7940,7 +7951,7 @@
       <c r="CB14" s="74"/>
       <c r="CC14" s="74"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75">
+    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="74">
         <v>13</v>
       </c>
@@ -8127,7 +8138,7 @@
       <c r="CB15" s="74"/>
       <c r="CC15" s="74"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75">
+    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="132">
         <v>14</v>
       </c>
@@ -8323,7 +8334,7 @@
       <c r="CB16" s="74"/>
       <c r="CC16" s="74"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75">
+    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="74">
         <v>15</v>
       </c>
@@ -8510,7 +8521,7 @@
       <c r="CB17" s="74"/>
       <c r="CC17" s="74"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75">
+    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="74">
         <v>16</v>
       </c>
@@ -8696,7 +8707,7 @@
       </c>
       <c r="CC18" s="131"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75">
+    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="132">
         <v>17</v>
       </c>
@@ -8886,7 +8897,7 @@
       <c r="CB19" s="74"/>
       <c r="CC19" s="74"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75">
+    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="74">
         <v>18</v>
       </c>
@@ -9067,7 +9078,7 @@
       <c r="CB20" s="74"/>
       <c r="CC20" s="74"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75">
+    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="74">
         <v>19</v>
       </c>
@@ -9251,7 +9262,7 @@
       <c r="CB21" s="74"/>
       <c r="CC21" s="74"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75">
+    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="74">
         <v>20</v>
       </c>
@@ -9437,7 +9448,7 @@
       <c r="CB22" s="74"/>
       <c r="CC22" s="74"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75">
+    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="74">
         <v>21</v>
       </c>
@@ -9627,7 +9638,7 @@
       <c r="CB23" s="74"/>
       <c r="CC23" s="74"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75">
+    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="74">
         <v>22</v>
       </c>
@@ -9816,7 +9827,7 @@
       <c r="CB24" s="74"/>
       <c r="CC24" s="74"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75">
+    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="132">
         <v>23</v>
       </c>
@@ -10009,7 +10020,7 @@
       </c>
       <c r="CC25" s="131"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75">
+    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="74">
         <v>24</v>
       </c>
@@ -10199,7 +10210,7 @@
       <c r="CB26" s="74"/>
       <c r="CC26" s="74"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75">
+    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="74">
         <v>25</v>
       </c>
@@ -10386,7 +10397,7 @@
       <c r="CB27" s="74"/>
       <c r="CC27" s="74"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75">
+    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="74">
         <v>26</v>
       </c>
@@ -10570,7 +10581,7 @@
       </c>
       <c r="CC28" s="132"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75">
+    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="132">
         <v>27</v>
       </c>
@@ -10766,7 +10777,7 @@
       <c r="CB29" s="74"/>
       <c r="CC29" s="74"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75">
+    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="132">
         <v>28</v>
       </c>
@@ -10959,7 +10970,7 @@
       </c>
       <c r="CC30" s="132"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75">
+    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="132">
         <v>29</v>
       </c>
@@ -11158,7 +11169,7 @@
       </c>
       <c r="CC31" s="132"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75">
+    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="132">
         <v>30</v>
       </c>
@@ -11347,7 +11358,7 @@
       </c>
       <c r="CC32" s="132"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75">
+    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="74">
         <v>31</v>
       </c>
@@ -11543,7 +11554,7 @@
       </c>
       <c r="CC33" s="132"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75">
+    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="74">
         <v>32</v>
       </c>
@@ -11731,7 +11742,7 @@
       <c r="CB34" s="74"/>
       <c r="CC34" s="74"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75">
+    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="74">
         <v>33</v>
       </c>
@@ -11924,7 +11935,7 @@
       <c r="CB35" s="74"/>
       <c r="CC35" s="74"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75">
+    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74">
         <v>34</v>
       </c>
@@ -12108,7 +12119,7 @@
       </c>
       <c r="CC36" s="132"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75">
+    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="74">
         <v>35</v>
       </c>
@@ -12295,7 +12306,7 @@
       <c r="CB37" s="74"/>
       <c r="CC37" s="74"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75">
+    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="74">
         <v>36</v>
       </c>
@@ -12482,7 +12493,7 @@
       <c r="CB38" s="74"/>
       <c r="CC38" s="74"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75">
+    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="74">
         <v>37</v>
       </c>
@@ -12669,7 +12680,7 @@
       <c r="CB39" s="74"/>
       <c r="CC39" s="74"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75">
+    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="74">
         <v>38</v>
       </c>
@@ -12856,7 +12867,7 @@
       <c r="CB40" s="74"/>
       <c r="CC40" s="74"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75">
+    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="132">
         <v>39</v>
       </c>
@@ -13049,7 +13060,7 @@
       <c r="CB41" s="74"/>
       <c r="CC41" s="74"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75">
+    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="132">
         <v>40</v>
       </c>
@@ -13242,7 +13253,7 @@
       <c r="CB42" s="74"/>
       <c r="CC42" s="74"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75">
+    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="132">
         <v>41</v>
       </c>
@@ -13269,7 +13280,7 @@
       <c r="J43" s="74"/>
       <c r="K43" s="74">
         <f>K42*I56</f>
-        <v>11880</v>
+        <v>11880.000000000002</v>
       </c>
       <c r="L43" s="74">
         <v>41</v>
@@ -13445,7 +13456,7 @@
       <c r="CB43" s="74"/>
       <c r="CC43" s="74"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75">
+    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="132">
         <v>42</v>
       </c>
@@ -13471,7 +13482,7 @@
       <c r="J44" s="74"/>
       <c r="K44" s="74">
         <f>K43+SUM(I40:I56)</f>
-        <v>110.000000000002</v>
+        <v>110.00000000000182</v>
       </c>
       <c r="L44" s="132">
         <v>42</v>
@@ -13640,7 +13651,7 @@
       <c r="CB44" s="74"/>
       <c r="CC44" s="74"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75">
+    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="74">
         <v>43</v>
       </c>
@@ -13823,7 +13834,7 @@
       <c r="CB45" s="74"/>
       <c r="CC45" s="74"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75">
+    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="74">
         <v>44</v>
       </c>
@@ -14013,7 +14024,7 @@
       <c r="CB46" s="74"/>
       <c r="CC46" s="74"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75">
+    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="74">
         <v>45</v>
       </c>
@@ -14200,7 +14211,7 @@
       <c r="CB47" s="74"/>
       <c r="CC47" s="74"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75">
+    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="74">
         <v>46</v>
       </c>
@@ -14390,7 +14401,7 @@
       <c r="CB48" s="74"/>
       <c r="CC48" s="74"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75">
+    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="74">
         <v>47</v>
       </c>
@@ -14577,7 +14588,7 @@
       </c>
       <c r="CC49" s="132"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75">
+    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="132">
         <v>48</v>
       </c>
@@ -14764,7 +14775,7 @@
       <c r="CB50" s="74"/>
       <c r="CC50" s="74"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75">
+    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="74">
         <v>49</v>
       </c>
@@ -14951,7 +14962,7 @@
       <c r="CB51" s="74"/>
       <c r="CC51" s="74"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75">
+    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="74">
         <v>50</v>
       </c>
@@ -15138,7 +15149,7 @@
       <c r="CB52" s="74"/>
       <c r="CC52" s="74"/>
     </row>
-    <row r="53" spans="2:81" ht="15.75">
+    <row r="53" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="74">
         <v>51</v>
       </c>
@@ -15325,7 +15336,7 @@
       </c>
       <c r="CC53" s="132"/>
     </row>
-    <row r="54" spans="2:81" ht="15.75">
+    <row r="54" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="74">
         <v>52</v>
       </c>
@@ -15369,7 +15380,9 @@
         <v>-90</v>
       </c>
       <c r="T54" s="74"/>
-      <c r="U54" s="74"/>
+      <c r="U54" s="74">
+        <v>-4.9000000000000004</v>
+      </c>
       <c r="V54" s="74">
         <v>52</v>
       </c>
@@ -15509,7 +15522,7 @@
       <c r="CB54" s="74"/>
       <c r="CC54" s="74"/>
     </row>
-    <row r="55" spans="2:81" ht="15.75">
+    <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="132">
         <v>53</v>
       </c>
@@ -15556,7 +15569,10 @@
         <v>-112</v>
       </c>
       <c r="T55" s="74"/>
-      <c r="U55" s="74"/>
+      <c r="U55" s="74">
+        <f>U54*S60</f>
+        <v>2695</v>
+      </c>
       <c r="V55" s="74">
         <v>53</v>
       </c>
@@ -15701,7 +15717,7 @@
       <c r="CB55" s="74"/>
       <c r="CC55" s="74"/>
     </row>
-    <row r="56" spans="2:81" ht="15.75">
+    <row r="56" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="74">
         <v>54</v>
       </c>
@@ -15747,7 +15763,10 @@
         <v>-155</v>
       </c>
       <c r="T56" s="74"/>
-      <c r="U56" s="74"/>
+      <c r="U56" s="74">
+        <f>U55+SUM(S51:S60)</f>
+        <v>360</v>
+      </c>
       <c r="V56" s="74">
         <v>54</v>
       </c>
@@ -15890,7 +15909,7 @@
       <c r="CB56" s="74"/>
       <c r="CC56" s="74"/>
     </row>
-    <row r="57" spans="2:81" ht="15.75">
+    <row r="57" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="132">
         <v>55</v>
       </c>
@@ -16088,7 +16107,7 @@
       <c r="CB57" s="74"/>
       <c r="CC57" s="74"/>
     </row>
-    <row r="58" spans="2:81" ht="15.75">
+    <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="132">
         <v>56</v>
       </c>
@@ -16232,7 +16251,7 @@
       <c r="BJ58" s="217">
         <v>56</v>
       </c>
-      <c r="BK58" s="229" t="s">
+      <c r="BK58" s="227" t="s">
         <v>1113</v>
       </c>
       <c r="BL58" s="217">
@@ -16277,7 +16296,7 @@
       </c>
       <c r="CC58" s="132"/>
     </row>
-    <row r="59" spans="2:81" ht="15.75">
+    <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="132">
         <v>57</v>
       </c>
@@ -16453,7 +16472,7 @@
       <c r="CB59" s="74"/>
       <c r="CC59" s="74"/>
     </row>
-    <row r="60" spans="2:81" ht="15.75">
+    <row r="60" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="132">
         <v>58</v>
       </c>
@@ -16496,13 +16515,17 @@
         <v>409</v>
       </c>
       <c r="P60" s="140"/>
-      <c r="Q60" s="154">
+      <c r="Q60" s="217">
         <v>58</v>
       </c>
-      <c r="R60" s="154"/>
-      <c r="S60" s="154"/>
-      <c r="T60" s="154"/>
-      <c r="U60" s="154"/>
+      <c r="R60" s="217" t="s">
+        <v>184</v>
+      </c>
+      <c r="S60" s="217">
+        <v>-550</v>
+      </c>
+      <c r="T60" s="217"/>
+      <c r="U60" s="217"/>
       <c r="V60" s="132">
         <v>58</v>
       </c>
@@ -16637,7 +16660,7 @@
       <c r="CB60" s="217"/>
       <c r="CC60" s="217"/>
     </row>
-    <row r="61" spans="2:81" ht="15.75">
+    <row r="61" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="132">
         <v>59</v>
       </c>
@@ -16673,7 +16696,7 @@
         <v>-160</v>
       </c>
       <c r="O61" s="217"/>
-      <c r="P61" s="226"/>
+      <c r="P61" s="224"/>
       <c r="Q61" s="154">
         <v>59</v>
       </c>
@@ -16717,7 +16740,7 @@
       <c r="AK61" s="217">
         <v>59</v>
       </c>
-      <c r="AL61" s="229" t="s">
+      <c r="AL61" s="227" t="s">
         <v>1114</v>
       </c>
       <c r="AM61" s="217">
@@ -16800,7 +16823,7 @@
       <c r="CB61" s="212"/>
       <c r="CC61" s="212"/>
     </row>
-    <row r="62" spans="2:81" ht="15.75">
+    <row r="62" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="132">
         <v>60</v>
       </c>
@@ -16879,15 +16902,17 @@
       <c r="AR62" s="183"/>
       <c r="AS62" s="183"/>
       <c r="AT62" s="183"/>
-      <c r="AU62" s="184">
+      <c r="AU62" s="217">
         <v>60</v>
       </c>
-      <c r="AV62" s="184" t="s">
+      <c r="AV62" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="AW62" s="184"/>
-      <c r="AX62" s="184"/>
-      <c r="AY62" s="184"/>
+      <c r="AW62" s="217">
+        <v>-212</v>
+      </c>
+      <c r="AX62" s="217"/>
+      <c r="AY62" s="217"/>
       <c r="AZ62" s="192">
         <v>60</v>
       </c>
@@ -16943,7 +16968,7 @@
       <c r="CB62" s="212"/>
       <c r="CC62" s="212"/>
     </row>
-    <row r="63" spans="2:81">
+    <row r="63" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B63" s="135">
         <v>61</v>
       </c>
@@ -17077,7 +17102,7 @@
       <c r="CB63" s="212"/>
       <c r="CC63" s="212"/>
     </row>
-    <row r="64" spans="2:81">
+    <row r="64" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B64" s="135">
         <v>62</v>
       </c>
@@ -17209,7 +17234,7 @@
       <c r="CB64" s="212"/>
       <c r="CC64" s="212"/>
     </row>
-    <row r="65" spans="2:81">
+    <row r="65" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B65" s="135">
         <v>63</v>
       </c>
@@ -17341,7 +17366,7 @@
       <c r="CB65" s="212"/>
       <c r="CC65" s="212"/>
     </row>
-    <row r="66" spans="2:81">
+    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B66" s="135">
         <v>64</v>
       </c>
@@ -17473,7 +17498,7 @@
       <c r="CB66" s="212"/>
       <c r="CC66" s="212"/>
     </row>
-    <row r="67" spans="2:81">
+    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B67" s="135">
         <v>65</v>
       </c>
@@ -17605,7 +17630,7 @@
       <c r="CB67" s="212"/>
       <c r="CC67" s="212"/>
     </row>
-    <row r="68" spans="2:81">
+    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B68" s="135">
         <v>66</v>
       </c>
@@ -17737,7 +17762,7 @@
       <c r="CB68" s="212"/>
       <c r="CC68" s="212"/>
     </row>
-    <row r="69" spans="2:81">
+    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B69" s="135">
         <v>67</v>
       </c>
@@ -17869,7 +17894,7 @@
       <c r="CB69" s="212"/>
       <c r="CC69" s="212"/>
     </row>
-    <row r="70" spans="2:81">
+    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B70" s="135">
         <v>68</v>
       </c>
@@ -18001,7 +18026,7 @@
       <c r="CB70" s="212"/>
       <c r="CC70" s="212"/>
     </row>
-    <row r="71" spans="2:81">
+    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B71" s="135">
         <v>69</v>
       </c>
@@ -18133,7 +18158,7 @@
       <c r="CB71" s="212"/>
       <c r="CC71" s="212"/>
     </row>
-    <row r="72" spans="2:81">
+    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B72" s="135">
         <v>70</v>
       </c>
@@ -18265,7 +18290,7 @@
       <c r="CB72" s="212"/>
       <c r="CC72" s="212"/>
     </row>
-    <row r="73" spans="2:81">
+    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B73" s="135">
         <v>71</v>
       </c>
@@ -18397,7 +18422,7 @@
       <c r="CB73" s="212"/>
       <c r="CC73" s="212"/>
     </row>
-    <row r="74" spans="2:81">
+    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B74" s="135">
         <v>72</v>
       </c>
@@ -18529,7 +18554,7 @@
       <c r="CB74" s="212"/>
       <c r="CC74" s="212"/>
     </row>
-    <row r="75" spans="2:81">
+    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B75" s="135">
         <v>73</v>
       </c>
@@ -18661,7 +18686,7 @@
       <c r="CB75" s="212"/>
       <c r="CC75" s="212"/>
     </row>
-    <row r="76" spans="2:81">
+    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B76" s="135">
         <v>74</v>
       </c>
@@ -18793,7 +18818,7 @@
       <c r="CB76" s="212"/>
       <c r="CC76" s="212"/>
     </row>
-    <row r="77" spans="2:81">
+    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B77" s="135">
         <v>75</v>
       </c>
@@ -18925,7 +18950,7 @@
       <c r="CB77" s="212"/>
       <c r="CC77" s="212"/>
     </row>
-    <row r="78" spans="2:81">
+    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B78" s="135">
         <v>76</v>
       </c>
@@ -19057,7 +19082,7 @@
       <c r="CB78" s="212"/>
       <c r="CC78" s="212"/>
     </row>
-    <row r="79" spans="2:81">
+    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B79" s="135">
         <v>77</v>
       </c>
@@ -19189,7 +19214,7 @@
       <c r="CB79" s="212"/>
       <c r="CC79" s="212"/>
     </row>
-    <row r="80" spans="2:81">
+    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B80" s="135">
         <v>78</v>
       </c>
@@ -19321,7 +19346,7 @@
       <c r="CB80" s="212"/>
       <c r="CC80" s="212"/>
     </row>
-    <row r="81" spans="2:81">
+    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B81" s="135">
         <v>79</v>
       </c>
@@ -19453,7 +19478,7 @@
       <c r="CB81" s="212"/>
       <c r="CC81" s="212"/>
     </row>
-    <row r="82" spans="2:81">
+    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B82" s="135">
         <v>80</v>
       </c>
@@ -19585,7 +19610,7 @@
       <c r="CB82" s="212"/>
       <c r="CC82" s="212"/>
     </row>
-    <row r="83" spans="2:81">
+    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B83" s="135">
         <v>81</v>
       </c>
@@ -19717,7 +19742,7 @@
       <c r="CB83" s="212"/>
       <c r="CC83" s="212"/>
     </row>
-    <row r="84" spans="2:81">
+    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B84" s="214">
         <v>82</v>
       </c>
@@ -19849,7 +19874,7 @@
       <c r="CB84" s="212"/>
       <c r="CC84" s="212"/>
     </row>
-    <row r="85" spans="2:81">
+    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B85" s="215" t="s">
         <v>727</v>
       </c>
@@ -19895,7 +19920,7 @@
       <c r="R85" s="216"/>
       <c r="S85" s="216">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-7646</v>
+        <v>-8196</v>
       </c>
       <c r="T85" s="120">
         <f t="shared" si="2"/>
@@ -19973,7 +19998,7 @@
       <c r="AV85" s="216"/>
       <c r="AW85" s="216">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-11812</v>
+        <v>-12024</v>
       </c>
       <c r="AX85" s="120">
         <f t="shared" si="8"/>
@@ -20059,30 +20084,30 @@
       </c>
       <c r="CC85" s="216"/>
     </row>
-    <row r="92" spans="2:81">
-      <c r="H92" s="222" t="s">
+    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H92" s="228" t="s">
         <v>728</v>
       </c>
-      <c r="I92" s="222">
+      <c r="I92" s="228">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
         <v>40992</v>
       </c>
-      <c r="J92" s="222"/>
+      <c r="J92" s="228"/>
     </row>
-    <row r="93" spans="2:81">
-      <c r="H93" s="222"/>
-      <c r="I93" s="222"/>
-      <c r="J93" s="222"/>
+    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H93" s="228"/>
+      <c r="I93" s="228"/>
+      <c r="J93" s="228"/>
     </row>
-    <row r="94" spans="2:81">
-      <c r="H94" s="222"/>
-      <c r="I94" s="222"/>
-      <c r="J94" s="222"/>
+    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H94" s="228"/>
+      <c r="I94" s="228"/>
+      <c r="J94" s="228"/>
     </row>
-    <row r="95" spans="2:81">
-      <c r="H95" s="222"/>
-      <c r="I95" s="222"/>
-      <c r="J95" s="222"/>
+    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="H95" s="228"/>
+      <c r="I95" s="228"/>
+      <c r="J95" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20095,14 +20120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="AY31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AY59" sqref="AY59:BC59"/>
+    <sheetView tabSelected="1" topLeftCell="AW31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="BD61" sqref="BD61:BH61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -20125,7 +20150,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20303,7 +20328,7 @@
       <c r="CA1" s="89"/>
       <c r="CB1" s="89"/>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -20449,7 +20474,7 @@
       <c r="CA2" s="89"/>
       <c r="CB2" s="89"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75">
+    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -20636,7 +20661,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75">
+    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -20829,7 +20854,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75">
+    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -21013,7 +21038,7 @@
       </c>
       <c r="CB5" s="75"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75">
+    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -21201,7 +21226,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75">
+    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -21394,7 +21419,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75">
+    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -21577,7 +21602,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75">
+    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -21615,7 +21640,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="31">
         <f>M15*O8</f>
-        <v>1840</v>
+        <v>1839.9999999999998</v>
       </c>
       <c r="P9" s="32">
         <v>7</v>
@@ -21764,7 +21789,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75">
+    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -21968,7 +21993,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75">
+    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -22158,7 +22183,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75">
+    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -22345,7 +22370,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75">
+    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -22526,7 +22551,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75">
+    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -22707,7 +22732,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75">
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -22894,7 +22919,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75">
+    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -23072,7 +23097,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75">
+    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -23259,7 +23284,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75">
+    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -23444,7 +23469,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75">
+    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -23631,7 +23656,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75">
+    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -23827,7 +23852,7 @@
       </c>
       <c r="CB20" s="75"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75">
+    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -24005,7 +24030,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75">
+    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -24192,7 +24217,7 @@
       </c>
       <c r="CB22" s="75"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75">
+    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -24379,7 +24404,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75">
+    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -24571,7 +24596,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75">
+    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -24756,7 +24781,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75">
+    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -24949,7 +24974,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75">
+    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -25133,7 +25158,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75">
+    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -25319,7 +25344,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75">
+    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -25509,7 +25534,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75">
+    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -25696,7 +25721,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75">
+    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -25886,7 +25911,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75">
+    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -26082,7 +26107,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75">
+    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -26265,7 +26290,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75">
+    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -26446,7 +26471,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75">
+    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -26635,7 +26660,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75">
+    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -26825,7 +26850,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75">
+    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -27012,7 +27037,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75">
+    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -27193,7 +27218,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75">
+    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -27385,7 +27410,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75">
+    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -27578,7 +27603,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75">
+    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -27765,7 +27790,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75">
+    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -27943,7 +27968,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75">
+    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -28130,7 +28155,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75">
+    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -28314,7 +28339,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75">
+    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -28498,7 +28523,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75">
+    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -28692,7 +28717,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75">
+    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -28873,7 +28898,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75">
+    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -29065,7 +29090,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75">
+    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -29254,7 +29279,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75">
+    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -29449,7 +29474,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75">
+    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -29634,7 +29659,7 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75">
+    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -29823,7 +29848,7 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75">
+    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>51</v>
       </c>
@@ -30006,7 +30031,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" ht="15.75">
+    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>52</v>
       </c>
@@ -30199,7 +30224,7 @@
       <c r="CA54" s="17"/>
       <c r="CB54" s="17"/>
     </row>
-    <row r="55" spans="1:80" ht="15.75">
+    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>53</v>
       </c>
@@ -30383,7 +30408,7 @@
       <c r="CA55" s="17"/>
       <c r="CB55" s="17"/>
     </row>
-    <row r="56" spans="1:80" ht="15.75">
+    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>54</v>
       </c>
@@ -30517,7 +30542,9 @@
         <v>-155</v>
       </c>
       <c r="BG56" s="17"/>
-      <c r="BH56" s="17"/>
+      <c r="BH56" s="17">
+        <v>-5.4</v>
+      </c>
       <c r="BI56" s="17">
         <v>54</v>
       </c>
@@ -30569,7 +30596,7 @@
       </c>
       <c r="CB56" s="16"/>
     </row>
-    <row r="57" spans="1:80" ht="15.75">
+    <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>55</v>
       </c>
@@ -30704,7 +30731,10 @@
         <v>-215</v>
       </c>
       <c r="BG57" s="17"/>
-      <c r="BH57" s="17"/>
+      <c r="BH57" s="17">
+        <f>BH56*BF61</f>
+        <v>2889</v>
+      </c>
       <c r="BI57" s="17">
         <v>55</v>
       </c>
@@ -30753,7 +30783,7 @@
       <c r="CA57" s="17"/>
       <c r="CB57" s="17"/>
     </row>
-    <row r="58" spans="1:80" ht="15.75">
+    <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>56</v>
       </c>
@@ -30890,7 +30920,10 @@
         <v>-298</v>
       </c>
       <c r="BG58" s="17"/>
-      <c r="BH58" s="17"/>
+      <c r="BH58" s="17">
+        <f>BH57+SUM(BF51:BF61)</f>
+        <v>371</v>
+      </c>
       <c r="BI58" s="17">
         <v>56</v>
       </c>
@@ -30913,17 +30946,17 @@
       </c>
       <c r="BQ58" s="17"/>
       <c r="BR58" s="17"/>
-      <c r="BS58" s="111">
+      <c r="BS58" s="17">
         <v>56</v>
       </c>
-      <c r="BT58" s="111" t="s">
+      <c r="BT58" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="BU58" s="111">
+      <c r="BU58" s="17">
         <v>-160</v>
       </c>
-      <c r="BV58" s="111"/>
-      <c r="BW58" s="111"/>
+      <c r="BV58" s="17"/>
+      <c r="BW58" s="17"/>
       <c r="BX58" s="75">
         <v>56</v>
       </c>
@@ -30939,7 +30972,7 @@
       </c>
       <c r="CB58" s="75"/>
     </row>
-    <row r="59" spans="1:80" ht="15.75">
+    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -31017,13 +31050,17 @@
       </c>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
-      <c r="AE59" s="57">
+      <c r="AE59" s="111">
         <v>57</v>
       </c>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="57"/>
-      <c r="AI59" s="57"/>
+      <c r="AF59" s="111" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AG59" s="111">
+        <v>-190</v>
+      </c>
+      <c r="AH59" s="111"/>
+      <c r="AI59" s="111"/>
       <c r="AJ59" s="17">
         <v>57</v>
       </c>
@@ -31120,7 +31157,7 @@
       <c r="CA59" s="17"/>
       <c r="CB59" s="17"/>
     </row>
-    <row r="60" spans="1:80" ht="15.75">
+    <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>58</v>
       </c>
@@ -31142,7 +31179,7 @@
         <v>-160</v>
       </c>
       <c r="I60" s="111"/>
-      <c r="J60" s="224"/>
+      <c r="J60" s="222"/>
       <c r="K60" s="17">
         <v>58</v>
       </c>
@@ -31237,17 +31274,17 @@
       <c r="BA60" s="89"/>
       <c r="BB60" s="89"/>
       <c r="BC60" s="89"/>
-      <c r="BD60" s="111">
+      <c r="BD60" s="17">
         <v>58</v>
       </c>
-      <c r="BE60" s="111" t="s">
+      <c r="BE60" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="BF60" s="111">
+      <c r="BF60" s="17">
         <v>-498</v>
       </c>
-      <c r="BG60" s="111"/>
-      <c r="BH60" s="111"/>
+      <c r="BG60" s="17"/>
+      <c r="BH60" s="17"/>
       <c r="BI60" s="17">
         <v>58</v>
       </c>
@@ -31289,7 +31326,7 @@
       <c r="CA60" s="17"/>
       <c r="CB60" s="17"/>
     </row>
-    <row r="61" spans="1:80" ht="15.75">
+    <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>59</v>
       </c>
@@ -31318,7 +31355,7 @@
         <v>-65</v>
       </c>
       <c r="N61" s="111"/>
-      <c r="O61" s="224"/>
+      <c r="O61" s="222"/>
       <c r="P61" s="34">
         <v>59</v>
       </c>
@@ -31333,7 +31370,7 @@
         <v>608</v>
       </c>
       <c r="T61" s="34"/>
-      <c r="U61" s="227">
+      <c r="U61" s="225">
         <v>59</v>
       </c>
       <c r="V61" s="111" t="s">
@@ -31372,7 +31409,7 @@
       <c r="AO61" s="111">
         <v>59</v>
       </c>
-      <c r="AP61" s="225" t="s">
+      <c r="AP61" s="223" t="s">
         <v>513</v>
       </c>
       <c r="AQ61" s="111">
@@ -31398,13 +31435,17 @@
       <c r="BA61" s="89"/>
       <c r="BB61" s="89"/>
       <c r="BC61" s="89"/>
-      <c r="BD61" s="90">
+      <c r="BD61" s="111">
         <v>59</v>
       </c>
-      <c r="BE61" s="90"/>
-      <c r="BF61" s="90"/>
-      <c r="BG61" s="90"/>
-      <c r="BH61" s="90"/>
+      <c r="BE61" s="111" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BF61" s="111">
+        <v>-535</v>
+      </c>
+      <c r="BG61" s="111"/>
+      <c r="BH61" s="111"/>
       <c r="BI61" s="17">
         <v>59</v>
       </c>
@@ -31451,7 +31492,7 @@
       </c>
       <c r="CB61" s="16"/>
     </row>
-    <row r="62" spans="1:80" ht="15.75">
+    <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -31562,7 +31603,7 @@
       <c r="BI62" s="16">
         <v>60</v>
       </c>
-      <c r="BJ62" s="228" t="s">
+      <c r="BJ62" s="226" t="s">
         <v>641</v>
       </c>
       <c r="BK62" s="16">
@@ -31599,7 +31640,7 @@
       <c r="CA62" s="89"/>
       <c r="CB62" s="89"/>
     </row>
-    <row r="63" spans="1:80">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>61</v>
       </c>
@@ -31733,7 +31774,7 @@
       <c r="CA63" s="89"/>
       <c r="CB63" s="89"/>
     </row>
-    <row r="64" spans="1:80">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -31861,7 +31902,7 @@
       <c r="CA64" s="89"/>
       <c r="CB64" s="89"/>
     </row>
-    <row r="65" spans="1:80">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -31989,7 +32030,7 @@
       <c r="CA65" s="89"/>
       <c r="CB65" s="89"/>
     </row>
-    <row r="66" spans="1:80">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -32117,7 +32158,7 @@
       <c r="CA66" s="89"/>
       <c r="CB66" s="89"/>
     </row>
-    <row r="67" spans="1:80">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -32245,7 +32286,7 @@
       <c r="CA67" s="89"/>
       <c r="CB67" s="89"/>
     </row>
-    <row r="68" spans="1:80">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -32373,7 +32414,7 @@
       <c r="CA68" s="89"/>
       <c r="CB68" s="89"/>
     </row>
-    <row r="69" spans="1:80">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -32501,7 +32542,7 @@
       <c r="CA69" s="89"/>
       <c r="CB69" s="89"/>
     </row>
-    <row r="70" spans="1:80">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -32629,7 +32670,7 @@
       <c r="CA70" s="89"/>
       <c r="CB70" s="89"/>
     </row>
-    <row r="71" spans="1:80">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -32757,7 +32798,7 @@
       <c r="CA71" s="89"/>
       <c r="CB71" s="89"/>
     </row>
-    <row r="72" spans="1:80">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -32885,7 +32926,7 @@
       <c r="CA72" s="89"/>
       <c r="CB72" s="89"/>
     </row>
-    <row r="73" spans="1:80">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -33013,7 +33054,7 @@
       <c r="CA73" s="89"/>
       <c r="CB73" s="89"/>
     </row>
-    <row r="74" spans="1:80">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -33141,7 +33182,7 @@
       <c r="CA74" s="89"/>
       <c r="CB74" s="89"/>
     </row>
-    <row r="75" spans="1:80">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>73</v>
       </c>
@@ -33269,7 +33310,7 @@
       <c r="CA75" s="89"/>
       <c r="CB75" s="89"/>
     </row>
-    <row r="76" spans="1:80">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -33397,7 +33438,7 @@
       <c r="CA76" s="89"/>
       <c r="CB76" s="89"/>
     </row>
-    <row r="77" spans="1:80">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>75</v>
       </c>
@@ -33525,7 +33566,7 @@
       <c r="CA77" s="89"/>
       <c r="CB77" s="89"/>
     </row>
-    <row r="78" spans="1:80">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -33653,7 +33694,7 @@
       <c r="CA78" s="89"/>
       <c r="CB78" s="89"/>
     </row>
-    <row r="79" spans="1:80">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>77</v>
       </c>
@@ -33781,7 +33822,7 @@
       <c r="CA79" s="89"/>
       <c r="CB79" s="89"/>
     </row>
-    <row r="80" spans="1:80">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -33909,7 +33950,7 @@
       <c r="CA80" s="89"/>
       <c r="CB80" s="89"/>
     </row>
-    <row r="81" spans="1:81">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>79</v>
       </c>
@@ -34037,7 +34078,7 @@
       <c r="CA81" s="89"/>
       <c r="CB81" s="89"/>
     </row>
-    <row r="82" spans="1:81">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -34165,7 +34206,7 @@
       <c r="CA82" s="89"/>
       <c r="CB82" s="89"/>
     </row>
-    <row r="83" spans="1:81">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -34293,7 +34334,7 @@
       <c r="CA83" s="89"/>
       <c r="CB83" s="89"/>
     </row>
-    <row r="84" spans="1:81">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A84" s="117">
         <v>82</v>
       </c>
@@ -34421,7 +34462,7 @@
       <c r="CA84" s="89"/>
       <c r="CB84" s="89"/>
     </row>
-    <row r="85" spans="1:81">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A85" s="118" t="s">
         <v>727</v>
       </c>
@@ -34506,7 +34547,7 @@
       <c r="AF85" s="119"/>
       <c r="AG85" s="119">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-10566</v>
+        <v>-10756</v>
       </c>
       <c r="AH85" s="120">
         <f t="shared" si="5"/>
@@ -34571,7 +34612,7 @@
       <c r="BE85" s="119"/>
       <c r="BF85" s="119">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-39937</v>
+        <v>-40472</v>
       </c>
       <c r="BG85" s="120">
         <f t="shared" si="10"/>
@@ -34634,30 +34675,30 @@
         <v>727</v>
       </c>
     </row>
-    <row r="95" spans="1:81">
-      <c r="G95" s="222" t="s">
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="G95" s="228" t="s">
         <v>728</v>
       </c>
-      <c r="H95" s="222">
+      <c r="H95" s="228">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
         <v>32393</v>
       </c>
-      <c r="I95" s="222"/>
+      <c r="I95" s="228"/>
     </row>
-    <row r="96" spans="1:81">
-      <c r="G96" s="222"/>
-      <c r="H96" s="222"/>
-      <c r="I96" s="222"/>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="G96" s="228"/>
+      <c r="H96" s="228"/>
+      <c r="I96" s="228"/>
     </row>
-    <row r="97" spans="7:9">
-      <c r="G97" s="222"/>
-      <c r="H97" s="222"/>
-      <c r="I97" s="222"/>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="228"/>
+      <c r="H97" s="228"/>
+      <c r="I97" s="228"/>
     </row>
-    <row r="98" spans="7:9">
-      <c r="G98" s="222"/>
-      <c r="H98" s="222"/>
-      <c r="I98" s="222"/>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="228"/>
+      <c r="H98" s="228"/>
+      <c r="I98" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34670,26 +34711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:8" ht="15.75">
-      <c r="E1" s="223" t="s">
+    <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="229" t="s">
         <v>1107</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="2" spans="5:8" ht="15.75">
+    <row r="2" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>1108</v>
       </c>
@@ -34703,7 +34744,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="3" spans="5:8">
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -34719,7 +34760,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -34735,7 +34776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="5:8">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -34751,7 +34792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -34767,7 +34808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:8">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -34780,10 +34821,10 @@
       </c>
       <c r="H7" s="3">
         <f>G7-SUM($F$3:F7)</f>
-        <v>1.19999999999999</v>
+        <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -34799,7 +34840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:8">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -34815,7 +34856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -34828,10 +34869,10 @@
       </c>
       <c r="H10" s="3">
         <f>G10-SUM($F$3:F10)</f>
-        <v>2.7999999999999501</v>
+        <v>2.7999999999999545</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -34847,7 +34888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -34856,14 +34897,14 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H12" s="3">
         <f>G12-SUM($F$3:F12)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -34872,14 +34913,14 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H13" s="3">
         <f>G13-SUM($F$3:F13)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -34892,10 +34933,10 @@
       </c>
       <c r="H14" s="3">
         <f>G14-SUM($F$3:F14)</f>
-        <v>5.8000000000001801</v>
+        <v>5.8000000000001819</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -34911,7 +34952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -34927,7 +34968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -34943,7 +34984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -34959,7 +35000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -34975,7 +35016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -34991,7 +35032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -35007,7 +35048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -35023,7 +35064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -35039,7 +35080,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -35050,7 +35091,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -35061,7 +35102,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1122">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3395,13 +3390,31 @@
   </si>
   <si>
     <t>Эдмонтон - Сент Луис</t>
+  </si>
+  <si>
+    <t>Ванкувер - Кингс</t>
+  </si>
+  <si>
+    <t>Сиэтл  - Питтсбург</t>
+  </si>
+  <si>
+    <t>Сиэтл - Питтсбург</t>
+  </si>
+  <si>
+    <t>Филадельфия  - Оттава</t>
+  </si>
+  <si>
+    <t>Кинг - Нью Джерси</t>
+  </si>
+  <si>
+    <t>Кингс - Нью Джерси</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3514,15 +3527,6 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4624,7 +4628,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4989,23 +4993,24 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -5112,7 +5117,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5147,7 +5151,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5323,14 +5326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU62" sqref="AU62:AY62"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK63" sqref="AK63:AO63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -5351,7 +5354,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1">
       <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5532,7 @@
       <c r="CB1" s="209"/>
       <c r="CC1" s="209"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1">
       <c r="B2" s="127" t="s">
         <v>4</v>
       </c>
@@ -5675,7 +5678,7 @@
       <c r="CB2" s="209"/>
       <c r="CC2" s="209"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:81" ht="15.75">
       <c r="B3" s="129">
         <v>1</v>
       </c>
@@ -5859,7 +5862,7 @@
       <c r="CB3" s="129"/>
       <c r="CC3" s="129"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="15.75">
       <c r="B4" s="74">
         <v>2</v>
       </c>
@@ -6046,7 +6049,7 @@
       </c>
       <c r="CC4" s="132"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:81" ht="15.75">
       <c r="B5" s="74">
         <v>3</v>
       </c>
@@ -6230,7 +6233,7 @@
       <c r="CB5" s="74"/>
       <c r="CC5" s="74"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:81" ht="15.75">
       <c r="B6" s="74">
         <v>4</v>
       </c>
@@ -6420,7 +6423,7 @@
       </c>
       <c r="CC6" s="132"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81" ht="15.75">
       <c r="B7" s="74">
         <v>5</v>
       </c>
@@ -6609,7 +6612,7 @@
       <c r="CB7" s="74"/>
       <c r="CC7" s="74"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:81" ht="15.75">
       <c r="B8" s="74">
         <v>6</v>
       </c>
@@ -6796,7 +6799,7 @@
       <c r="CB8" s="74"/>
       <c r="CC8" s="74"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:81" ht="15.75">
       <c r="B9" s="132">
         <v>7</v>
       </c>
@@ -6989,7 +6992,7 @@
       </c>
       <c r="CC9" s="132"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81" ht="15.75">
       <c r="B10" s="74">
         <v>8</v>
       </c>
@@ -7185,7 +7188,7 @@
       <c r="CB10" s="74"/>
       <c r="CC10" s="74"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:81" ht="15.75">
       <c r="B11" s="132">
         <v>9</v>
       </c>
@@ -7378,7 +7381,7 @@
       <c r="CB11" s="74"/>
       <c r="CC11" s="74"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:81" ht="15.75">
       <c r="B12" s="132">
         <v>10</v>
       </c>
@@ -7568,7 +7571,7 @@
       <c r="CB12" s="74"/>
       <c r="CC12" s="74"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:81" ht="15.75">
       <c r="B13" s="74">
         <v>11</v>
       </c>
@@ -7755,7 +7758,7 @@
       </c>
       <c r="CC13" s="131"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:81" ht="15.75">
       <c r="B14" s="74">
         <v>12</v>
       </c>
@@ -7951,7 +7954,7 @@
       <c r="CB14" s="74"/>
       <c r="CC14" s="74"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81" ht="15.75">
       <c r="B15" s="74">
         <v>13</v>
       </c>
@@ -8138,7 +8141,7 @@
       <c r="CB15" s="74"/>
       <c r="CC15" s="74"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:81" ht="15.75">
       <c r="B16" s="132">
         <v>14</v>
       </c>
@@ -8334,7 +8337,7 @@
       <c r="CB16" s="74"/>
       <c r="CC16" s="74"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:81" ht="15.75">
       <c r="B17" s="74">
         <v>15</v>
       </c>
@@ -8521,7 +8524,7 @@
       <c r="CB17" s="74"/>
       <c r="CC17" s="74"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:81" ht="15.75">
       <c r="B18" s="74">
         <v>16</v>
       </c>
@@ -8707,7 +8710,7 @@
       </c>
       <c r="CC18" s="131"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:81" ht="15.75">
       <c r="B19" s="132">
         <v>17</v>
       </c>
@@ -8897,7 +8900,7 @@
       <c r="CB19" s="74"/>
       <c r="CC19" s="74"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:81" ht="15.75">
       <c r="B20" s="74">
         <v>18</v>
       </c>
@@ -9078,7 +9081,7 @@
       <c r="CB20" s="74"/>
       <c r="CC20" s="74"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:81" ht="15.75">
       <c r="B21" s="74">
         <v>19</v>
       </c>
@@ -9262,7 +9265,7 @@
       <c r="CB21" s="74"/>
       <c r="CC21" s="74"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:81" ht="15.75">
       <c r="B22" s="74">
         <v>20</v>
       </c>
@@ -9448,7 +9451,7 @@
       <c r="CB22" s="74"/>
       <c r="CC22" s="74"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:81" ht="15.75">
       <c r="B23" s="74">
         <v>21</v>
       </c>
@@ -9638,7 +9641,7 @@
       <c r="CB23" s="74"/>
       <c r="CC23" s="74"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:81" ht="15.75">
       <c r="B24" s="74">
         <v>22</v>
       </c>
@@ -9827,7 +9830,7 @@
       <c r="CB24" s="74"/>
       <c r="CC24" s="74"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:81" ht="15.75">
       <c r="B25" s="132">
         <v>23</v>
       </c>
@@ -10020,7 +10023,7 @@
       </c>
       <c r="CC25" s="131"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:81" ht="15.75">
       <c r="B26" s="74">
         <v>24</v>
       </c>
@@ -10210,7 +10213,7 @@
       <c r="CB26" s="74"/>
       <c r="CC26" s="74"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:81" ht="15.75">
       <c r="B27" s="74">
         <v>25</v>
       </c>
@@ -10397,7 +10400,7 @@
       <c r="CB27" s="74"/>
       <c r="CC27" s="74"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:81" ht="15.75">
       <c r="B28" s="74">
         <v>26</v>
       </c>
@@ -10581,7 +10584,7 @@
       </c>
       <c r="CC28" s="132"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:81" ht="15.75">
       <c r="B29" s="132">
         <v>27</v>
       </c>
@@ -10777,7 +10780,7 @@
       <c r="CB29" s="74"/>
       <c r="CC29" s="74"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:81" ht="15.75">
       <c r="B30" s="132">
         <v>28</v>
       </c>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="CC30" s="132"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:81" ht="15.75">
       <c r="B31" s="132">
         <v>29</v>
       </c>
@@ -11169,7 +11172,7 @@
       </c>
       <c r="CC31" s="132"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:81" ht="15.75">
       <c r="B32" s="132">
         <v>30</v>
       </c>
@@ -11358,7 +11361,7 @@
       </c>
       <c r="CC32" s="132"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:81" ht="15.75">
       <c r="B33" s="74">
         <v>31</v>
       </c>
@@ -11554,7 +11557,7 @@
       </c>
       <c r="CC33" s="132"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:81" ht="15.75">
       <c r="B34" s="74">
         <v>32</v>
       </c>
@@ -11742,7 +11745,7 @@
       <c r="CB34" s="74"/>
       <c r="CC34" s="74"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:81" ht="15.75">
       <c r="B35" s="74">
         <v>33</v>
       </c>
@@ -11935,7 +11938,7 @@
       <c r="CB35" s="74"/>
       <c r="CC35" s="74"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:81" ht="15.75">
       <c r="B36" s="74">
         <v>34</v>
       </c>
@@ -12119,7 +12122,7 @@
       </c>
       <c r="CC36" s="132"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:81" ht="15.75">
       <c r="B37" s="74">
         <v>35</v>
       </c>
@@ -12306,7 +12309,7 @@
       <c r="CB37" s="74"/>
       <c r="CC37" s="74"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:81" ht="15.75">
       <c r="B38" s="74">
         <v>36</v>
       </c>
@@ -12493,7 +12496,7 @@
       <c r="CB38" s="74"/>
       <c r="CC38" s="74"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:81" ht="15.75">
       <c r="B39" s="74">
         <v>37</v>
       </c>
@@ -12680,7 +12683,7 @@
       <c r="CB39" s="74"/>
       <c r="CC39" s="74"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:81" ht="15.75">
       <c r="B40" s="74">
         <v>38</v>
       </c>
@@ -12867,7 +12870,7 @@
       <c r="CB40" s="74"/>
       <c r="CC40" s="74"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:81" ht="15.75">
       <c r="B41" s="132">
         <v>39</v>
       </c>
@@ -13060,7 +13063,7 @@
       <c r="CB41" s="74"/>
       <c r="CC41" s="74"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:81" ht="15.75">
       <c r="B42" s="132">
         <v>40</v>
       </c>
@@ -13253,7 +13256,7 @@
       <c r="CB42" s="74"/>
       <c r="CC42" s="74"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:81" ht="15.75">
       <c r="B43" s="132">
         <v>41</v>
       </c>
@@ -13456,7 +13459,7 @@
       <c r="CB43" s="74"/>
       <c r="CC43" s="74"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:81" ht="15.75">
       <c r="B44" s="132">
         <v>42</v>
       </c>
@@ -13651,7 +13654,7 @@
       <c r="CB44" s="74"/>
       <c r="CC44" s="74"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:81" ht="15.75">
       <c r="B45" s="74">
         <v>43</v>
       </c>
@@ -13834,7 +13837,7 @@
       <c r="CB45" s="74"/>
       <c r="CC45" s="74"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:81" ht="15.75">
       <c r="B46" s="74">
         <v>44</v>
       </c>
@@ -14024,7 +14027,7 @@
       <c r="CB46" s="74"/>
       <c r="CC46" s="74"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:81" ht="15.75">
       <c r="B47" s="74">
         <v>45</v>
       </c>
@@ -14211,7 +14214,7 @@
       <c r="CB47" s="74"/>
       <c r="CC47" s="74"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:81" ht="15.75">
       <c r="B48" s="74">
         <v>46</v>
       </c>
@@ -14401,7 +14404,7 @@
       <c r="CB48" s="74"/>
       <c r="CC48" s="74"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:81" ht="15.75">
       <c r="B49" s="74">
         <v>47</v>
       </c>
@@ -14588,7 +14591,7 @@
       </c>
       <c r="CC49" s="132"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:81" ht="15.75">
       <c r="B50" s="132">
         <v>48</v>
       </c>
@@ -14775,7 +14778,7 @@
       <c r="CB50" s="74"/>
       <c r="CC50" s="74"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:81" ht="15.75">
       <c r="B51" s="74">
         <v>49</v>
       </c>
@@ -14962,7 +14965,7 @@
       <c r="CB51" s="74"/>
       <c r="CC51" s="74"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:81" ht="15.75">
       <c r="B52" s="74">
         <v>50</v>
       </c>
@@ -15149,7 +15152,7 @@
       <c r="CB52" s="74"/>
       <c r="CC52" s="74"/>
     </row>
-    <row r="53" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:81" ht="15.75">
       <c r="B53" s="74">
         <v>51</v>
       </c>
@@ -15336,7 +15339,7 @@
       </c>
       <c r="CC53" s="132"/>
     </row>
-    <row r="54" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:81" ht="15.75">
       <c r="B54" s="74">
         <v>52</v>
       </c>
@@ -15381,7 +15384,7 @@
       </c>
       <c r="T54" s="74"/>
       <c r="U54" s="74">
-        <v>-4.9000000000000004</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="V54" s="74">
         <v>52</v>
@@ -15522,7 +15525,7 @@
       <c r="CB54" s="74"/>
       <c r="CC54" s="74"/>
     </row>
-    <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:81" ht="15.75">
       <c r="B55" s="132">
         <v>53</v>
       </c>
@@ -15570,8 +15573,8 @@
       </c>
       <c r="T55" s="74"/>
       <c r="U55" s="74">
-        <f>U54*S60</f>
-        <v>2695</v>
+        <f>U54*S62</f>
+        <v>3960.0000000000005</v>
       </c>
       <c r="V55" s="74">
         <v>53</v>
@@ -15605,9 +15608,7 @@
         <v>-90</v>
       </c>
       <c r="AI55" s="74"/>
-      <c r="AJ55" s="74">
-        <v>-4.5999999999999996</v>
-      </c>
+      <c r="AJ55" s="74"/>
       <c r="AK55" s="74">
         <v>53</v>
       </c>
@@ -15717,7 +15718,7 @@
       <c r="CB55" s="74"/>
       <c r="CC55" s="74"/>
     </row>
-    <row r="56" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:81" ht="15.75">
       <c r="B56" s="74">
         <v>54</v>
       </c>
@@ -15764,8 +15765,8 @@
       </c>
       <c r="T56" s="74"/>
       <c r="U56" s="74">
-        <f>U55+SUM(S51:S60)</f>
-        <v>360</v>
+        <f>U55+SUM(S51:S62)</f>
+        <v>75.000000000000455</v>
       </c>
       <c r="V56" s="74">
         <v>54</v>
@@ -15799,10 +15800,7 @@
         <v>-112</v>
       </c>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="74">
-        <f>AH61*AJ55</f>
-        <v>2530</v>
-      </c>
+      <c r="AJ56" s="74"/>
       <c r="AK56" s="74">
         <v>54</v>
       </c>
@@ -15909,7 +15907,7 @@
       <c r="CB56" s="74"/>
       <c r="CC56" s="74"/>
     </row>
-    <row r="57" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:81" ht="15.75">
       <c r="B57" s="132">
         <v>55</v>
       </c>
@@ -15992,10 +15990,7 @@
         <v>-155</v>
       </c>
       <c r="AI57" s="74"/>
-      <c r="AJ57" s="74">
-        <f>AJ56+SUM(AH52:AH61)</f>
-        <v>295</v>
-      </c>
+      <c r="AJ57" s="74"/>
       <c r="AK57" s="74">
         <v>55</v>
       </c>
@@ -16006,7 +16001,9 @@
         <v>-112</v>
       </c>
       <c r="AN57" s="74"/>
-      <c r="AO57" s="74"/>
+      <c r="AO57" s="74">
+        <v>-5.0999999999999996</v>
+      </c>
       <c r="AP57" s="132">
         <v>55</v>
       </c>
@@ -16107,7 +16104,7 @@
       <c r="CB57" s="74"/>
       <c r="CC57" s="74"/>
     </row>
-    <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:81" ht="15.75">
       <c r="B58" s="132">
         <v>56</v>
       </c>
@@ -16203,7 +16200,10 @@
         <v>-212</v>
       </c>
       <c r="AN58" s="74"/>
-      <c r="AO58" s="74"/>
+      <c r="AO58" s="74">
+        <f>AO57*AM62</f>
+        <v>2677.5</v>
+      </c>
       <c r="AP58" s="74">
         <v>56</v>
       </c>
@@ -16248,17 +16248,20 @@
       </c>
       <c r="BH58" s="74"/>
       <c r="BI58" s="74"/>
-      <c r="BJ58" s="217">
+      <c r="BJ58" s="132">
         <v>56</v>
       </c>
-      <c r="BK58" s="227" t="s">
+      <c r="BK58" s="132" t="s">
         <v>1113</v>
       </c>
-      <c r="BL58" s="217">
+      <c r="BL58" s="132">
         <v>-175</v>
       </c>
-      <c r="BM58" s="217"/>
-      <c r="BN58" s="217"/>
+      <c r="BM58" s="132">
+        <f>770+SUM(BL56:BL58)</f>
+        <v>270</v>
+      </c>
+      <c r="BN58" s="132"/>
       <c r="BO58" s="74">
         <v>56</v>
       </c>
@@ -16296,7 +16299,7 @@
       </c>
       <c r="CC58" s="132"/>
     </row>
-    <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:81" ht="15.75">
       <c r="B59" s="132">
         <v>57</v>
       </c>
@@ -16386,7 +16389,10 @@
         <v>-298</v>
       </c>
       <c r="AN59" s="74"/>
-      <c r="AO59" s="74"/>
+      <c r="AO59" s="74">
+        <f>AO58+SUM(AM53:AM62)</f>
+        <v>355.5</v>
+      </c>
       <c r="AP59" s="74">
         <v>57</v>
       </c>
@@ -16409,17 +16415,17 @@
       </c>
       <c r="AX59" s="74"/>
       <c r="AY59" s="74"/>
-      <c r="AZ59" s="217">
+      <c r="AZ59" s="74">
         <v>57</v>
       </c>
-      <c r="BA59" s="217" t="s">
+      <c r="BA59" s="74" t="s">
         <v>1112</v>
       </c>
-      <c r="BB59" s="217">
+      <c r="BB59" s="74">
         <v>-165</v>
       </c>
-      <c r="BC59" s="217"/>
-      <c r="BD59" s="217"/>
+      <c r="BC59" s="74"/>
+      <c r="BD59" s="74"/>
       <c r="BE59" s="74">
         <v>57</v>
       </c>
@@ -16431,13 +16437,17 @@
       </c>
       <c r="BH59" s="74"/>
       <c r="BI59" s="74"/>
-      <c r="BJ59" s="200">
+      <c r="BJ59" s="74">
         <v>57</v>
       </c>
-      <c r="BK59" s="200"/>
-      <c r="BL59" s="200"/>
-      <c r="BM59" s="200"/>
-      <c r="BN59" s="200"/>
+      <c r="BK59" s="74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BL59" s="74">
+        <v>-160</v>
+      </c>
+      <c r="BM59" s="74"/>
+      <c r="BN59" s="74"/>
       <c r="BO59" s="74">
         <v>57</v>
       </c>
@@ -16472,7 +16482,7 @@
       <c r="CB59" s="74"/>
       <c r="CC59" s="74"/>
     </row>
-    <row r="60" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:81" ht="15.75">
       <c r="B60" s="132">
         <v>58</v>
       </c>
@@ -16515,17 +16525,17 @@
         <v>409</v>
       </c>
       <c r="P60" s="140"/>
-      <c r="Q60" s="217">
+      <c r="Q60" s="74">
         <v>58</v>
       </c>
-      <c r="R60" s="217" t="s">
+      <c r="R60" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="S60" s="217">
+      <c r="S60" s="74">
         <v>-550</v>
       </c>
-      <c r="T60" s="217"/>
-      <c r="U60" s="217"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
       <c r="V60" s="132">
         <v>58</v>
       </c>
@@ -16601,13 +16611,17 @@
       </c>
       <c r="AX60" s="74"/>
       <c r="AY60" s="74"/>
-      <c r="AZ60" s="192">
+      <c r="AZ60" s="217">
         <v>58</v>
       </c>
-      <c r="BA60" s="192"/>
-      <c r="BB60" s="192"/>
-      <c r="BC60" s="192"/>
-      <c r="BD60" s="192"/>
+      <c r="BA60" s="217" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BB60" s="217">
+        <v>-175</v>
+      </c>
+      <c r="BC60" s="217"/>
+      <c r="BD60" s="217"/>
       <c r="BE60" s="74">
         <v>58</v>
       </c>
@@ -16619,13 +16633,17 @@
       </c>
       <c r="BH60" s="74"/>
       <c r="BI60" s="74"/>
-      <c r="BJ60" s="200">
+      <c r="BJ60" s="217">
         <v>58</v>
       </c>
-      <c r="BK60" s="200"/>
-      <c r="BL60" s="200"/>
-      <c r="BM60" s="200"/>
-      <c r="BN60" s="200"/>
+      <c r="BK60" s="217" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BL60" s="217">
+        <v>-165</v>
+      </c>
+      <c r="BM60" s="217"/>
+      <c r="BN60" s="217"/>
       <c r="BO60" s="74">
         <v>58</v>
       </c>
@@ -16637,30 +16655,30 @@
       </c>
       <c r="BR60" s="74"/>
       <c r="BS60" s="74"/>
-      <c r="BT60" s="217">
+      <c r="BT60" s="74">
         <v>58</v>
       </c>
-      <c r="BU60" s="217" t="s">
+      <c r="BU60" s="74" t="s">
         <v>639</v>
       </c>
-      <c r="BV60" s="217">
+      <c r="BV60" s="74">
         <v>-255</v>
       </c>
-      <c r="BW60" s="217"/>
-      <c r="BX60" s="217"/>
-      <c r="BY60" s="217">
+      <c r="BW60" s="74"/>
+      <c r="BX60" s="74"/>
+      <c r="BY60" s="74">
         <v>58</v>
       </c>
-      <c r="BZ60" s="218" t="s">
+      <c r="BZ60" s="74" t="s">
         <v>640</v>
       </c>
-      <c r="CA60" s="217">
+      <c r="CA60" s="74">
         <v>-165</v>
       </c>
-      <c r="CB60" s="217"/>
-      <c r="CC60" s="217"/>
+      <c r="CB60" s="74"/>
+      <c r="CC60" s="74"/>
     </row>
-    <row r="61" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:81" ht="15.75">
       <c r="B61" s="132">
         <v>59</v>
       </c>
@@ -16675,88 +16693,94 @@
         <v>544</v>
       </c>
       <c r="F61" s="132"/>
-      <c r="G61" s="217">
+      <c r="G61" s="74">
         <v>59</v>
       </c>
-      <c r="H61" s="217" t="s">
+      <c r="H61" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="I61" s="217">
+      <c r="I61" s="74">
         <v>-100</v>
       </c>
-      <c r="J61" s="217"/>
-      <c r="K61" s="217"/>
-      <c r="L61" s="217">
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74">
         <v>59</v>
       </c>
-      <c r="M61" s="217" t="s">
+      <c r="M61" s="74" t="s">
         <v>643</v>
       </c>
-      <c r="N61" s="217">
+      <c r="N61" s="74">
         <v>-160</v>
       </c>
-      <c r="O61" s="217"/>
-      <c r="P61" s="224"/>
-      <c r="Q61" s="154">
+      <c r="O61" s="74"/>
+      <c r="P61" s="141"/>
+      <c r="Q61" s="74">
         <v>59</v>
       </c>
-      <c r="R61" s="154"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="154"/>
-      <c r="V61" s="217">
+      <c r="R61" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="S61" s="74">
+        <v>-650</v>
+      </c>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="74">
         <v>59</v>
       </c>
-      <c r="W61" s="217" t="s">
+      <c r="W61" s="74" t="s">
         <v>640</v>
       </c>
-      <c r="X61" s="217">
+      <c r="X61" s="74">
         <v>-160</v>
       </c>
-      <c r="Y61" s="217"/>
-      <c r="Z61" s="217"/>
-      <c r="AA61" s="217">
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="74"/>
+      <c r="AA61" s="74">
         <v>59</v>
       </c>
-      <c r="AB61" s="217" t="s">
+      <c r="AB61" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="AC61" s="217">
+      <c r="AC61" s="74">
         <v>-160</v>
       </c>
-      <c r="AD61" s="217"/>
-      <c r="AE61" s="217"/>
-      <c r="AF61" s="217">
+      <c r="AD61" s="74"/>
+      <c r="AE61" s="74"/>
+      <c r="AF61" s="74">
         <v>59</v>
       </c>
-      <c r="AG61" s="217" t="s">
+      <c r="AG61" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="AH61" s="217">
+      <c r="AH61" s="74">
         <v>-550</v>
       </c>
-      <c r="AI61" s="217"/>
-      <c r="AJ61" s="217"/>
-      <c r="AK61" s="217">
+      <c r="AI61" s="74"/>
+      <c r="AJ61" s="74"/>
+      <c r="AK61" s="74">
         <v>59</v>
       </c>
-      <c r="AL61" s="227" t="s">
+      <c r="AL61" s="74" t="s">
         <v>1114</v>
       </c>
-      <c r="AM61" s="217">
+      <c r="AM61" s="74">
         <v>-470</v>
       </c>
-      <c r="AN61" s="217"/>
-      <c r="AO61" s="217"/>
-      <c r="AP61" s="183">
+      <c r="AN61" s="74"/>
+      <c r="AO61" s="74"/>
+      <c r="AP61" s="74">
         <v>59</v>
       </c>
-      <c r="AQ61" s="183" t="s">
+      <c r="AQ61" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="AR61" s="183"/>
-      <c r="AS61" s="183"/>
-      <c r="AT61" s="183"/>
+      <c r="AR61" s="74">
+        <v>-160</v>
+      </c>
+      <c r="AS61" s="74"/>
+      <c r="AT61" s="74"/>
       <c r="AU61" s="74">
         <v>59</v>
       </c>
@@ -16768,13 +16792,17 @@
       </c>
       <c r="AX61" s="74"/>
       <c r="AY61" s="74"/>
-      <c r="AZ61" s="192">
+      <c r="AZ61" s="217">
         <v>59</v>
       </c>
-      <c r="BA61" s="192"/>
-      <c r="BB61" s="192"/>
-      <c r="BC61" s="192"/>
-      <c r="BD61" s="192"/>
+      <c r="BA61" s="217" t="s">
+        <v>482</v>
+      </c>
+      <c r="BB61" s="217">
+        <v>-190</v>
+      </c>
+      <c r="BC61" s="217"/>
+      <c r="BD61" s="217"/>
       <c r="BE61" s="74">
         <v>59</v>
       </c>
@@ -16804,26 +16832,30 @@
       </c>
       <c r="BR61" s="74"/>
       <c r="BS61" s="74"/>
-      <c r="BT61" s="206">
+      <c r="BT61" s="74">
         <v>59</v>
       </c>
-      <c r="BU61" s="206" t="s">
+      <c r="BU61" s="74" t="s">
         <v>645</v>
       </c>
-      <c r="BV61" s="206"/>
-      <c r="BW61" s="206"/>
-      <c r="BX61" s="206"/>
-      <c r="BY61" s="212">
+      <c r="BV61" s="74">
+        <v>-315</v>
+      </c>
+      <c r="BW61" s="74"/>
+      <c r="BX61" s="74"/>
+      <c r="BY61" s="217">
         <v>59</v>
       </c>
-      <c r="BZ61" s="213" t="s">
+      <c r="BZ61" s="218" t="s">
         <v>646</v>
       </c>
-      <c r="CA61" s="212"/>
-      <c r="CB61" s="212"/>
-      <c r="CC61" s="212"/>
+      <c r="CA61" s="217">
+        <v>-175</v>
+      </c>
+      <c r="CB61" s="217"/>
+      <c r="CC61" s="217"/>
     </row>
-    <row r="62" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:81" ht="15.75">
       <c r="B62" s="132">
         <v>60</v>
       </c>
@@ -16838,81 +16870,113 @@
         <v>528</v>
       </c>
       <c r="F62" s="132"/>
-      <c r="G62" s="134">
+      <c r="G62" s="132">
         <v>60</v>
       </c>
-      <c r="H62" s="134" t="s">
+      <c r="H62" s="132" t="s">
         <v>648</v>
       </c>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="142">
+      <c r="I62" s="132">
+        <v>-150</v>
+      </c>
+      <c r="J62" s="132">
+        <f>660+SUM(I61:I62)</f>
+        <v>410</v>
+      </c>
+      <c r="K62" s="132"/>
+      <c r="L62" s="74">
         <v>60</v>
       </c>
-      <c r="M62" s="142" t="s">
+      <c r="M62" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="N62" s="142"/>
-      <c r="O62" s="142"/>
-      <c r="P62" s="143"/>
-      <c r="Q62" s="154">
+      <c r="N62" s="74">
+        <v>-165</v>
+      </c>
+      <c r="O62" s="74"/>
+      <c r="P62" s="141"/>
+      <c r="Q62" s="217">
         <v>60</v>
       </c>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-      <c r="V62" s="155">
+      <c r="R62" s="217" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S62" s="217">
+        <v>-900</v>
+      </c>
+      <c r="T62" s="217"/>
+      <c r="U62" s="217"/>
+      <c r="V62" s="74">
         <v>60</v>
       </c>
-      <c r="W62" s="155"/>
-      <c r="X62" s="155"/>
-      <c r="Y62" s="155"/>
-      <c r="Z62" s="155"/>
-      <c r="AA62" s="163">
+      <c r="W62" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="X62" s="74">
+        <v>-165</v>
+      </c>
+      <c r="Y62" s="74"/>
+      <c r="Z62" s="74"/>
+      <c r="AA62" s="132">
         <v>60</v>
       </c>
-      <c r="AB62" s="163"/>
-      <c r="AC62" s="163"/>
-      <c r="AD62" s="163"/>
-      <c r="AE62" s="163"/>
-      <c r="AF62" s="164">
+      <c r="AB62" s="132" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC62" s="132">
+        <v>-165</v>
+      </c>
+      <c r="AD62" s="132">
+        <f>858+SUM(AC61:AC62)</f>
+        <v>533</v>
+      </c>
+      <c r="AE62" s="132"/>
+      <c r="AF62" s="132">
         <v>60</v>
       </c>
-      <c r="AG62" s="164" t="s">
+      <c r="AG62" s="132" t="s">
         <v>417</v>
       </c>
-      <c r="AH62" s="164"/>
-      <c r="AI62" s="164"/>
-      <c r="AJ62" s="164"/>
-      <c r="AK62" s="155">
+      <c r="AH62" s="132">
+        <v>-600</v>
+      </c>
+      <c r="AI62" s="132">
+        <v>285</v>
+      </c>
+      <c r="AJ62" s="132"/>
+      <c r="AK62" s="217">
         <v>60</v>
       </c>
-      <c r="AL62" s="155"/>
-      <c r="AM62" s="155"/>
-      <c r="AN62" s="155"/>
-      <c r="AO62" s="155"/>
-      <c r="AP62" s="183">
+      <c r="AL62" s="217" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AM62" s="217">
+        <v>-525</v>
+      </c>
+      <c r="AN62" s="217"/>
+      <c r="AO62" s="217"/>
+      <c r="AP62" s="217">
         <v>60</v>
       </c>
-      <c r="AQ62" s="183" t="s">
+      <c r="AQ62" s="217" t="s">
         <v>341</v>
       </c>
-      <c r="AR62" s="183"/>
-      <c r="AS62" s="183"/>
-      <c r="AT62" s="183"/>
-      <c r="AU62" s="217">
+      <c r="AR62" s="217">
+        <v>-165</v>
+      </c>
+      <c r="AS62" s="217"/>
+      <c r="AT62" s="217"/>
+      <c r="AU62" s="74">
         <v>60</v>
       </c>
-      <c r="AV62" s="217" t="s">
+      <c r="AV62" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="AW62" s="217">
+      <c r="AW62" s="74">
         <v>-212</v>
       </c>
-      <c r="AX62" s="217"/>
-      <c r="AY62" s="217"/>
+      <c r="AX62" s="74"/>
+      <c r="AY62" s="74"/>
       <c r="AZ62" s="192">
         <v>60</v>
       </c>
@@ -16920,17 +16984,17 @@
       <c r="BB62" s="192"/>
       <c r="BC62" s="192"/>
       <c r="BD62" s="192"/>
-      <c r="BE62" s="217">
+      <c r="BE62" s="74">
         <v>60</v>
       </c>
-      <c r="BF62" s="217" t="s">
+      <c r="BF62" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="BG62" s="217">
+      <c r="BG62" s="74">
         <v>-212</v>
       </c>
-      <c r="BH62" s="217"/>
-      <c r="BI62" s="217"/>
+      <c r="BH62" s="74"/>
+      <c r="BI62" s="74"/>
       <c r="BJ62" s="200">
         <v>60</v>
       </c>
@@ -16949,53 +17013,63 @@
       </c>
       <c r="BR62" s="74"/>
       <c r="BS62" s="74"/>
-      <c r="BT62" s="206">
+      <c r="BT62" s="217">
         <v>60</v>
       </c>
-      <c r="BU62" s="206" t="s">
+      <c r="BU62" s="217" t="s">
         <v>362</v>
       </c>
-      <c r="BV62" s="206"/>
-      <c r="BW62" s="206"/>
-      <c r="BX62" s="206"/>
-      <c r="BY62" s="212">
+      <c r="BV62" s="217">
+        <v>-398</v>
+      </c>
+      <c r="BW62" s="217"/>
+      <c r="BX62" s="217"/>
+      <c r="BY62" s="217">
         <v>60</v>
       </c>
-      <c r="BZ62" s="213" t="s">
+      <c r="BZ62" s="218" t="s">
         <v>650</v>
       </c>
-      <c r="CA62" s="212"/>
-      <c r="CB62" s="212"/>
-      <c r="CC62" s="212"/>
+      <c r="CA62" s="217">
+        <v>-190</v>
+      </c>
+      <c r="CB62" s="217"/>
+      <c r="CC62" s="217"/>
     </row>
-    <row r="63" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B63" s="135">
+    <row r="63" spans="2:81" ht="15.75">
+      <c r="B63" s="74">
         <v>61</v>
       </c>
-      <c r="C63" s="135" t="s">
+      <c r="C63" s="74" t="s">
         <v>651</v>
       </c>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="134">
+      <c r="D63" s="74">
+        <v>-160</v>
+      </c>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="217">
         <v>61</v>
       </c>
-      <c r="H63" s="134" t="s">
+      <c r="H63" s="217" t="s">
         <v>652</v>
       </c>
-      <c r="I63" s="134"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="142">
+      <c r="I63" s="217">
+        <v>-160</v>
+      </c>
+      <c r="J63" s="217"/>
+      <c r="K63" s="217"/>
+      <c r="L63" s="217">
         <v>61</v>
       </c>
-      <c r="M63" s="142" t="s">
+      <c r="M63" s="217" t="s">
         <v>653</v>
       </c>
-      <c r="N63" s="142"/>
-      <c r="O63" s="142"/>
-      <c r="P63" s="143"/>
+      <c r="N63" s="217">
+        <v>-175</v>
+      </c>
+      <c r="O63" s="217"/>
+      <c r="P63" s="222"/>
       <c r="Q63" s="154">
         <v>61</v>
       </c>
@@ -17003,36 +17077,48 @@
       <c r="S63" s="154"/>
       <c r="T63" s="154"/>
       <c r="U63" s="154"/>
-      <c r="V63" s="155">
+      <c r="V63" s="217">
         <v>61</v>
       </c>
-      <c r="W63" s="155"/>
-      <c r="X63" s="155"/>
-      <c r="Y63" s="155"/>
-      <c r="Z63" s="155"/>
-      <c r="AA63" s="163">
+      <c r="W63" s="217" t="s">
+        <v>126</v>
+      </c>
+      <c r="X63" s="217">
+        <v>-175</v>
+      </c>
+      <c r="Y63" s="217"/>
+      <c r="Z63" s="217"/>
+      <c r="AA63" s="217">
         <v>61</v>
       </c>
-      <c r="AB63" s="163"/>
-      <c r="AC63" s="163"/>
-      <c r="AD63" s="163"/>
-      <c r="AE63" s="163"/>
-      <c r="AF63" s="164">
+      <c r="AB63" s="217" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC63" s="217">
+        <v>-160</v>
+      </c>
+      <c r="AD63" s="217"/>
+      <c r="AE63" s="217"/>
+      <c r="AF63" s="217">
         <v>61</v>
       </c>
-      <c r="AG63" s="164" t="s">
+      <c r="AG63" s="217" t="s">
         <v>423</v>
       </c>
-      <c r="AH63" s="164"/>
-      <c r="AI63" s="164"/>
-      <c r="AJ63" s="164"/>
-      <c r="AK63" s="155">
+      <c r="AH63" s="217">
+        <v>-160</v>
+      </c>
+      <c r="AI63" s="217"/>
+      <c r="AJ63" s="217"/>
+      <c r="AK63" s="229">
         <v>61</v>
       </c>
-      <c r="AL63" s="155"/>
-      <c r="AM63" s="155"/>
-      <c r="AN63" s="155"/>
-      <c r="AO63" s="155"/>
+      <c r="AL63" s="230" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AM63" s="229"/>
+      <c r="AN63" s="229"/>
+      <c r="AO63" s="229"/>
       <c r="AP63" s="183">
         <v>61</v>
       </c>
@@ -17042,15 +17128,17 @@
       <c r="AR63" s="183"/>
       <c r="AS63" s="183"/>
       <c r="AT63" s="183"/>
-      <c r="AU63" s="184">
+      <c r="AU63" s="217">
         <v>61</v>
       </c>
-      <c r="AV63" s="184" t="s">
+      <c r="AV63" s="217" t="s">
         <v>362</v>
       </c>
-      <c r="AW63" s="184"/>
-      <c r="AX63" s="184"/>
-      <c r="AY63" s="184"/>
+      <c r="AW63" s="217">
+        <v>-255</v>
+      </c>
+      <c r="AX63" s="217"/>
+      <c r="AY63" s="217"/>
       <c r="AZ63" s="192">
         <v>61</v>
       </c>
@@ -17058,13 +17146,17 @@
       <c r="BB63" s="192"/>
       <c r="BC63" s="192"/>
       <c r="BD63" s="192"/>
-      <c r="BE63" s="201">
+      <c r="BE63" s="217">
         <v>61</v>
       </c>
-      <c r="BF63" s="201"/>
-      <c r="BG63" s="201"/>
-      <c r="BH63" s="201"/>
-      <c r="BI63" s="201"/>
+      <c r="BF63" s="217" t="s">
+        <v>646</v>
+      </c>
+      <c r="BG63" s="217">
+        <v>-255</v>
+      </c>
+      <c r="BH63" s="217"/>
+      <c r="BI63" s="217"/>
       <c r="BJ63" s="200">
         <v>61</v>
       </c>
@@ -17072,17 +17164,17 @@
       <c r="BL63" s="200"/>
       <c r="BM63" s="200"/>
       <c r="BN63" s="200"/>
-      <c r="BO63" s="217">
+      <c r="BO63" s="74">
         <v>61</v>
       </c>
-      <c r="BP63" s="218" t="s">
+      <c r="BP63" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="BQ63" s="217">
+      <c r="BQ63" s="74">
         <v>-315</v>
       </c>
-      <c r="BR63" s="217"/>
-      <c r="BS63" s="217"/>
+      <c r="BR63" s="74"/>
+      <c r="BS63" s="74"/>
       <c r="BT63" s="206">
         <v>61</v>
       </c>
@@ -17102,16 +17194,18 @@
       <c r="CB63" s="212"/>
       <c r="CC63" s="212"/>
     </row>
-    <row r="64" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B64" s="135">
+    <row r="64" spans="2:81" ht="15.75">
+      <c r="B64" s="217">
         <v>62</v>
       </c>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="217" t="s">
         <v>341</v>
       </c>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
+      <c r="D64" s="217">
+        <v>-165</v>
+      </c>
+      <c r="E64" s="217"/>
+      <c r="F64" s="217"/>
       <c r="G64" s="134">
         <v>62</v>
       </c>
@@ -17192,13 +17286,17 @@
       <c r="BB64" s="192"/>
       <c r="BC64" s="192"/>
       <c r="BD64" s="192"/>
-      <c r="BE64" s="201">
+      <c r="BE64" s="217">
         <v>62</v>
       </c>
-      <c r="BF64" s="201"/>
-      <c r="BG64" s="201"/>
-      <c r="BH64" s="201"/>
-      <c r="BI64" s="201"/>
+      <c r="BF64" s="217" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BG64" s="217">
+        <v>-315</v>
+      </c>
+      <c r="BH64" s="217"/>
+      <c r="BI64" s="217"/>
       <c r="BJ64" s="200">
         <v>62</v>
       </c>
@@ -17206,15 +17304,20 @@
       <c r="BL64" s="200"/>
       <c r="BM64" s="200"/>
       <c r="BN64" s="200"/>
-      <c r="BO64" s="154">
+      <c r="BO64" s="132">
         <v>62</v>
       </c>
-      <c r="BP64" s="207" t="s">
+      <c r="BP64" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="BQ64" s="154"/>
-      <c r="BR64" s="154"/>
-      <c r="BS64" s="154"/>
+      <c r="BQ64" s="132">
+        <v>-398</v>
+      </c>
+      <c r="BR64" s="132">
+        <f>1751+SUM(BQ57:BQ64)</f>
+        <v>181</v>
+      </c>
+      <c r="BS64" s="132"/>
       <c r="BT64" s="206">
         <v>62</v>
       </c>
@@ -17234,7 +17337,7 @@
       <c r="CB64" s="212"/>
       <c r="CC64" s="212"/>
     </row>
-    <row r="65" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:81">
       <c r="B65" s="135">
         <v>63</v>
       </c>
@@ -17338,15 +17441,17 @@
       <c r="BL65" s="200"/>
       <c r="BM65" s="200"/>
       <c r="BN65" s="200"/>
-      <c r="BO65" s="154">
+      <c r="BO65" s="217">
         <v>63</v>
       </c>
-      <c r="BP65" s="207" t="s">
+      <c r="BP65" s="218" t="s">
         <v>160</v>
       </c>
-      <c r="BQ65" s="154"/>
-      <c r="BR65" s="154"/>
-      <c r="BS65" s="154"/>
+      <c r="BQ65" s="217">
+        <v>-160</v>
+      </c>
+      <c r="BR65" s="217"/>
+      <c r="BS65" s="217"/>
       <c r="BT65" s="206">
         <v>63</v>
       </c>
@@ -17366,7 +17471,7 @@
       <c r="CB65" s="212"/>
       <c r="CC65" s="212"/>
     </row>
-    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:81">
       <c r="B66" s="135">
         <v>64</v>
       </c>
@@ -17498,7 +17603,7 @@
       <c r="CB66" s="212"/>
       <c r="CC66" s="212"/>
     </row>
-    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:81">
       <c r="B67" s="135">
         <v>65</v>
       </c>
@@ -17630,7 +17735,7 @@
       <c r="CB67" s="212"/>
       <c r="CC67" s="212"/>
     </row>
-    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:81">
       <c r="B68" s="135">
         <v>66</v>
       </c>
@@ -17762,7 +17867,7 @@
       <c r="CB68" s="212"/>
       <c r="CC68" s="212"/>
     </row>
-    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:81">
       <c r="B69" s="135">
         <v>67</v>
       </c>
@@ -17894,7 +17999,7 @@
       <c r="CB69" s="212"/>
       <c r="CC69" s="212"/>
     </row>
-    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:81">
       <c r="B70" s="135">
         <v>68</v>
       </c>
@@ -18026,7 +18131,7 @@
       <c r="CB70" s="212"/>
       <c r="CC70" s="212"/>
     </row>
-    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:81">
       <c r="B71" s="135">
         <v>69</v>
       </c>
@@ -18158,7 +18263,7 @@
       <c r="CB71" s="212"/>
       <c r="CC71" s="212"/>
     </row>
-    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:81">
       <c r="B72" s="135">
         <v>70</v>
       </c>
@@ -18290,7 +18395,7 @@
       <c r="CB72" s="212"/>
       <c r="CC72" s="212"/>
     </row>
-    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:81">
       <c r="B73" s="135">
         <v>71</v>
       </c>
@@ -18422,7 +18527,7 @@
       <c r="CB73" s="212"/>
       <c r="CC73" s="212"/>
     </row>
-    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:81">
       <c r="B74" s="135">
         <v>72</v>
       </c>
@@ -18554,7 +18659,7 @@
       <c r="CB74" s="212"/>
       <c r="CC74" s="212"/>
     </row>
-    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:81">
       <c r="B75" s="135">
         <v>73</v>
       </c>
@@ -18686,7 +18791,7 @@
       <c r="CB75" s="212"/>
       <c r="CC75" s="212"/>
     </row>
-    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:81">
       <c r="B76" s="135">
         <v>74</v>
       </c>
@@ -18818,7 +18923,7 @@
       <c r="CB76" s="212"/>
       <c r="CC76" s="212"/>
     </row>
-    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:81">
       <c r="B77" s="135">
         <v>75</v>
       </c>
@@ -18950,7 +19055,7 @@
       <c r="CB77" s="212"/>
       <c r="CC77" s="212"/>
     </row>
-    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:81">
       <c r="B78" s="135">
         <v>76</v>
       </c>
@@ -19082,7 +19187,7 @@
       <c r="CB78" s="212"/>
       <c r="CC78" s="212"/>
     </row>
-    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:81">
       <c r="B79" s="135">
         <v>77</v>
       </c>
@@ -19214,7 +19319,7 @@
       <c r="CB79" s="212"/>
       <c r="CC79" s="212"/>
     </row>
-    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:81">
       <c r="B80" s="135">
         <v>78</v>
       </c>
@@ -19346,7 +19451,7 @@
       <c r="CB80" s="212"/>
       <c r="CC80" s="212"/>
     </row>
-    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:81">
       <c r="B81" s="135">
         <v>79</v>
       </c>
@@ -19478,7 +19583,7 @@
       <c r="CB81" s="212"/>
       <c r="CC81" s="212"/>
     </row>
-    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:81">
       <c r="B82" s="135">
         <v>80</v>
       </c>
@@ -19610,7 +19715,7 @@
       <c r="CB82" s="212"/>
       <c r="CC82" s="212"/>
     </row>
-    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:81">
       <c r="B83" s="135">
         <v>81</v>
       </c>
@@ -19742,7 +19847,7 @@
       <c r="CB83" s="212"/>
       <c r="CC83" s="212"/>
     </row>
-    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:81">
       <c r="B84" s="214">
         <v>82</v>
       </c>
@@ -19874,14 +19979,14 @@
       <c r="CB84" s="212"/>
       <c r="CC84" s="212"/>
     </row>
-    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:81">
       <c r="B85" s="215" t="s">
         <v>727</v>
       </c>
       <c r="C85" s="216"/>
       <c r="D85" s="216">
         <f>SUM(D3:D84)</f>
-        <v>-5763</v>
+        <v>-6088</v>
       </c>
       <c r="E85" s="120">
         <f>SUM(E3:E84)</f>
@@ -19894,11 +19999,11 @@
       <c r="H85" s="216"/>
       <c r="I85" s="216">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-17269</v>
+        <v>-17579</v>
       </c>
       <c r="J85" s="120">
         <f t="shared" si="0"/>
-        <v>1781</v>
+        <v>2191</v>
       </c>
       <c r="K85" s="216"/>
       <c r="L85" s="215" t="s">
@@ -19907,7 +20012,7 @@
       <c r="M85" s="216"/>
       <c r="N85" s="216">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-7386</v>
+        <v>-7726</v>
       </c>
       <c r="O85" s="120">
         <f t="shared" si="1"/>
@@ -19920,7 +20025,7 @@
       <c r="R85" s="216"/>
       <c r="S85" s="216">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-8196</v>
+        <v>-9746</v>
       </c>
       <c r="T85" s="120">
         <f t="shared" si="2"/>
@@ -19933,7 +20038,7 @@
       <c r="W85" s="216"/>
       <c r="X85" s="216">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-6219</v>
+        <v>-6559</v>
       </c>
       <c r="Y85" s="120">
         <f t="shared" si="3"/>
@@ -19946,11 +20051,11 @@
       <c r="AB85" s="216"/>
       <c r="AC85" s="216">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-24189</v>
+        <v>-24514</v>
       </c>
       <c r="AD85" s="120">
         <f t="shared" si="4"/>
-        <v>1130</v>
+        <v>1663</v>
       </c>
       <c r="AE85" s="216"/>
       <c r="AF85" s="215" t="s">
@@ -19959,11 +20064,11 @@
       <c r="AG85" s="216"/>
       <c r="AH85" s="216">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-7339</v>
+        <v>-8099</v>
       </c>
       <c r="AI85" s="120">
         <f t="shared" si="5"/>
-        <v>3017</v>
+        <v>3302</v>
       </c>
       <c r="AJ85" s="216"/>
       <c r="AK85" s="215" t="s">
@@ -19972,7 +20077,7 @@
       <c r="AL85" s="216"/>
       <c r="AM85" s="216">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-15130</v>
+        <v>-15655</v>
       </c>
       <c r="AN85" s="120">
         <f t="shared" si="6"/>
@@ -19985,7 +20090,7 @@
       <c r="AQ85" s="216"/>
       <c r="AR85" s="216">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-4391</v>
+        <v>-4716</v>
       </c>
       <c r="AS85" s="120">
         <f t="shared" si="7"/>
@@ -19998,7 +20103,7 @@
       <c r="AV85" s="216"/>
       <c r="AW85" s="216">
         <f t="shared" ref="AW85:AX85" si="8">SUM(AW3:AW84)</f>
-        <v>-12024</v>
+        <v>-12279</v>
       </c>
       <c r="AX85" s="120">
         <f t="shared" si="8"/>
@@ -20011,7 +20116,7 @@
       <c r="BA85" s="216"/>
       <c r="BB85" s="216">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-15527</v>
+        <v>-15892</v>
       </c>
       <c r="BC85" s="120">
         <f t="shared" si="9"/>
@@ -20024,7 +20129,7 @@
       <c r="BF85" s="216"/>
       <c r="BG85" s="216">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-11584</v>
+        <v>-12154</v>
       </c>
       <c r="BH85" s="120">
         <f t="shared" si="10"/>
@@ -20037,11 +20142,11 @@
       <c r="BK85" s="216"/>
       <c r="BL85" s="216">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-7624</v>
+        <v>-7949</v>
       </c>
       <c r="BM85" s="120">
         <f t="shared" si="11"/>
-        <v>1818</v>
+        <v>2088</v>
       </c>
       <c r="BN85" s="216"/>
       <c r="BO85" s="215" t="s">
@@ -20050,11 +20155,11 @@
       <c r="BP85" s="216"/>
       <c r="BQ85" s="216">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-8123</v>
+        <v>-8681</v>
       </c>
       <c r="BR85" s="120">
         <f t="shared" si="12"/>
-        <v>1946</v>
+        <v>2127</v>
       </c>
       <c r="BS85" s="216"/>
       <c r="BT85" s="215" t="s">
@@ -20063,7 +20168,7 @@
       <c r="BU85" s="216"/>
       <c r="BV85" s="216">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-5028</v>
+        <v>-5741</v>
       </c>
       <c r="BW85" s="120">
         <f t="shared" si="13"/>
@@ -20076,7 +20181,7 @@
       <c r="BZ85" s="216"/>
       <c r="CA85" s="216">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-7946</v>
+        <v>-8311</v>
       </c>
       <c r="CB85" s="120">
         <f t="shared" si="14"/>
@@ -20084,30 +20189,30 @@
       </c>
       <c r="CC85" s="216"/>
     </row>
-    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="228" t="s">
+    <row r="92" spans="2:81">
+      <c r="H92" s="227" t="s">
         <v>728</v>
       </c>
-      <c r="I92" s="228">
+      <c r="I92" s="227">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>40992</v>
-      </c>
-      <c r="J92" s="228"/>
+        <v>42671</v>
+      </c>
+      <c r="J92" s="227"/>
     </row>
-    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="228"/>
-      <c r="I93" s="228"/>
-      <c r="J93" s="228"/>
+    <row r="93" spans="2:81">
+      <c r="H93" s="227"/>
+      <c r="I93" s="227"/>
+      <c r="J93" s="227"/>
     </row>
-    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="228"/>
-      <c r="I94" s="228"/>
-      <c r="J94" s="228"/>
+    <row r="94" spans="2:81">
+      <c r="H94" s="227"/>
+      <c r="I94" s="227"/>
+      <c r="J94" s="227"/>
     </row>
-    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="228"/>
-      <c r="I95" s="228"/>
-      <c r="J95" s="228"/>
+    <row r="95" spans="2:81">
+      <c r="H95" s="227"/>
+      <c r="I95" s="227"/>
+      <c r="J95" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20120,14 +20225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BD61" sqref="BD61:BH61"/>
+    <sheetView tabSelected="1" topLeftCell="BF31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AJ62" sqref="AJ62:AN62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -20150,7 +20255,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20328,7 +20433,7 @@
       <c r="CA1" s="89"/>
       <c r="CB1" s="89"/>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -20474,7 +20579,7 @@
       <c r="CA2" s="89"/>
       <c r="CB2" s="89"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="15.75">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -20661,7 +20766,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" ht="15.75">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -20854,7 +20959,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" ht="15.75">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -21038,7 +21143,7 @@
       </c>
       <c r="CB5" s="75"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" ht="15.75">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -21226,7 +21331,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" ht="15.75">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -21419,7 +21524,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" ht="15.75">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -21602,7 +21707,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" ht="15.75">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -21789,7 +21894,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" ht="15.75">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -21993,7 +22098,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" ht="15.75">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -22183,7 +22288,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" ht="15.75">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -22370,7 +22475,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" ht="15.75">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -22551,7 +22656,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" ht="15.75">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -22732,7 +22837,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" ht="15.75">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -22919,7 +23024,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" ht="15.75">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -23097,7 +23202,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" ht="15.75">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -23284,7 +23389,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" ht="15.75">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -23469,7 +23574,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" ht="15.75">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -23656,7 +23761,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" ht="15.75">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -23852,7 +23957,7 @@
       </c>
       <c r="CB20" s="75"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" ht="15.75">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -24030,7 +24135,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" ht="15.75">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -24217,7 +24322,7 @@
       </c>
       <c r="CB22" s="75"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" ht="15.75">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -24404,7 +24509,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" ht="15.75">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -24596,7 +24701,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" ht="15.75">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -24781,7 +24886,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" ht="15.75">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -24974,7 +25079,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" ht="15.75">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -25158,7 +25263,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" ht="15.75">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -25344,7 +25449,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" ht="15.75">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -25534,7 +25639,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" ht="15.75">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -25721,7 +25826,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" ht="15.75">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -25911,7 +26016,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" ht="15.75">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -26107,7 +26212,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" ht="15.75">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -26290,7 +26395,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" ht="15.75">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -26471,7 +26576,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" ht="15.75">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -26660,7 +26765,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" ht="15.75">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -26850,7 +26955,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" ht="15.75">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -27037,7 +27142,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" ht="15.75">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -27218,7 +27323,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" ht="15.75">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -27410,7 +27515,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" ht="15.75">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -27603,7 +27708,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" ht="15.75">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -27790,7 +27895,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" ht="15.75">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -27968,7 +28073,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" ht="15.75">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -28155,7 +28260,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" ht="15.75">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -28339,7 +28444,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" ht="15.75">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -28523,7 +28628,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" ht="15.75">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -28717,7 +28822,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" ht="15.75">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -28898,7 +29003,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" ht="15.75">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -29090,7 +29195,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" ht="15.75">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -29279,7 +29384,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" ht="15.75">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -29474,7 +29579,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" ht="15.75">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -29659,7 +29764,7 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" ht="15.75">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -29848,7 +29953,7 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" ht="15.75">
       <c r="A53" s="17">
         <v>51</v>
       </c>
@@ -30031,7 +30136,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" ht="15.75">
       <c r="A54" s="17">
         <v>52</v>
       </c>
@@ -30224,7 +30329,7 @@
       <c r="CA54" s="17"/>
       <c r="CB54" s="17"/>
     </row>
-    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" ht="15.75">
       <c r="A55" s="17">
         <v>53</v>
       </c>
@@ -30408,7 +30513,7 @@
       <c r="CA55" s="17"/>
       <c r="CB55" s="17"/>
     </row>
-    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" ht="15.75">
       <c r="A56" s="17">
         <v>54</v>
       </c>
@@ -30542,9 +30647,7 @@
         <v>-155</v>
       </c>
       <c r="BG56" s="17"/>
-      <c r="BH56" s="17">
-        <v>-5.4</v>
-      </c>
+      <c r="BH56" s="17"/>
       <c r="BI56" s="17">
         <v>54</v>
       </c>
@@ -30596,7 +30699,7 @@
       </c>
       <c r="CB56" s="16"/>
     </row>
-    <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" ht="15.75">
       <c r="A57" s="17">
         <v>55</v>
       </c>
@@ -30731,10 +30834,7 @@
         <v>-215</v>
       </c>
       <c r="BG57" s="17"/>
-      <c r="BH57" s="17">
-        <f>BH56*BF61</f>
-        <v>2889</v>
-      </c>
+      <c r="BH57" s="17"/>
       <c r="BI57" s="17">
         <v>55</v>
       </c>
@@ -30783,7 +30883,7 @@
       <c r="CA57" s="17"/>
       <c r="CB57" s="17"/>
     </row>
-    <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" ht="15.75">
       <c r="A58" s="17">
         <v>56</v>
       </c>
@@ -30898,7 +30998,9 @@
         <v>-90</v>
       </c>
       <c r="AW58" s="17"/>
-      <c r="AX58" s="17"/>
+      <c r="AX58" s="17">
+        <v>-4.5</v>
+      </c>
       <c r="AY58" s="17">
         <v>56</v>
       </c>
@@ -30920,10 +31022,7 @@
         <v>-298</v>
       </c>
       <c r="BG58" s="17"/>
-      <c r="BH58" s="17">
-        <f>BH57+SUM(BF51:BF61)</f>
-        <v>371</v>
-      </c>
+      <c r="BH58" s="17"/>
       <c r="BI58" s="17">
         <v>56</v>
       </c>
@@ -30972,7 +31071,7 @@
       </c>
       <c r="CB58" s="75"/>
     </row>
-    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" ht="15.75">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -31050,17 +31149,20 @@
       </c>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
-      <c r="AE59" s="111">
+      <c r="AE59" s="16">
         <v>57</v>
       </c>
-      <c r="AF59" s="111" t="s">
+      <c r="AF59" s="16" t="s">
         <v>1115</v>
       </c>
-      <c r="AG59" s="111">
+      <c r="AG59" s="16">
         <v>-190</v>
       </c>
-      <c r="AH59" s="111"/>
-      <c r="AI59" s="111"/>
+      <c r="AH59" s="16">
+        <f>1026+SUM(AG56:AG59)</f>
+        <v>336</v>
+      </c>
+      <c r="AI59" s="16"/>
       <c r="AJ59" s="17">
         <v>57</v>
       </c>
@@ -31093,18 +31195,21 @@
         <v>-212</v>
       </c>
       <c r="AW59" s="17"/>
-      <c r="AX59" s="17"/>
-      <c r="AY59" s="111">
+      <c r="AX59" s="17">
+        <f>AX58*AV64</f>
+        <v>2700</v>
+      </c>
+      <c r="AY59" s="17">
         <v>57</v>
       </c>
-      <c r="AZ59" s="221" t="s">
+      <c r="AZ59" s="17" t="s">
         <v>1114</v>
       </c>
-      <c r="BA59" s="111">
+      <c r="BA59" s="17">
         <v>-155</v>
       </c>
-      <c r="BB59" s="111"/>
-      <c r="BC59" s="111"/>
+      <c r="BB59" s="17"/>
+      <c r="BC59" s="17"/>
       <c r="BD59" s="17">
         <v>57</v>
       </c>
@@ -31138,13 +31243,17 @@
       </c>
       <c r="BQ59" s="17"/>
       <c r="BR59" s="17"/>
-      <c r="BS59" s="112">
+      <c r="BS59" s="17">
         <v>57</v>
       </c>
-      <c r="BT59" s="101"/>
-      <c r="BU59" s="101"/>
-      <c r="BV59" s="101"/>
-      <c r="BW59" s="101"/>
+      <c r="BT59" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BU59" s="17">
+        <v>-165</v>
+      </c>
+      <c r="BV59" s="17"/>
+      <c r="BW59" s="17"/>
       <c r="BX59" s="17">
         <v>57</v>
       </c>
@@ -31157,7 +31266,7 @@
       <c r="CA59" s="17"/>
       <c r="CB59" s="17"/>
     </row>
-    <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" ht="15.75">
       <c r="A60" s="17">
         <v>58</v>
       </c>
@@ -31169,17 +31278,17 @@
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="111">
+      <c r="F60" s="17">
         <v>58</v>
       </c>
-      <c r="G60" s="111" t="s">
+      <c r="G60" s="17" t="s">
         <v>1042</v>
       </c>
-      <c r="H60" s="111">
+      <c r="H60" s="17">
         <v>-160</v>
       </c>
-      <c r="I60" s="111"/>
-      <c r="J60" s="222"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="17">
         <v>58</v>
       </c>
@@ -31227,24 +31336,28 @@
       </c>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
-      <c r="AE60" s="57">
+      <c r="AE60" s="111">
         <v>58</v>
       </c>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="220">
+      <c r="AF60" s="111" t="s">
+        <v>823</v>
+      </c>
+      <c r="AG60" s="111">
+        <v>-160</v>
+      </c>
+      <c r="AH60" s="111"/>
+      <c r="AI60" s="111"/>
+      <c r="AJ60" s="17">
         <v>58</v>
       </c>
-      <c r="AK60" s="220" t="s">
+      <c r="AK60" s="17" t="s">
         <v>1092</v>
       </c>
-      <c r="AL60" s="220">
+      <c r="AL60" s="17">
         <v>-165</v>
       </c>
-      <c r="AM60" s="220"/>
-      <c r="AN60" s="220"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
       <c r="AO60" s="17">
         <v>58</v>
       </c>
@@ -31266,14 +31379,21 @@
         <v>-255</v>
       </c>
       <c r="AW60" s="17"/>
-      <c r="AX60" s="17"/>
-      <c r="AY60" s="89">
+      <c r="AX60" s="17">
+        <f>AX59+SUM(AV55:AV64)</f>
+        <v>115</v>
+      </c>
+      <c r="AY60" s="17">
         <v>58</v>
       </c>
-      <c r="AZ60" s="89"/>
-      <c r="BA60" s="89"/>
-      <c r="BB60" s="89"/>
-      <c r="BC60" s="89"/>
+      <c r="AZ60" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="BA60" s="17">
+        <v>-215</v>
+      </c>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
       <c r="BD60" s="17">
         <v>58</v>
       </c>
@@ -31307,13 +31427,17 @@
       </c>
       <c r="BQ60" s="17"/>
       <c r="BR60" s="17"/>
-      <c r="BS60" s="112">
+      <c r="BS60" s="111">
         <v>58</v>
       </c>
-      <c r="BT60" s="101"/>
-      <c r="BU60" s="101"/>
-      <c r="BV60" s="101"/>
-      <c r="BW60" s="101"/>
+      <c r="BT60" s="111" t="s">
+        <v>653</v>
+      </c>
+      <c r="BU60" s="111">
+        <v>-175</v>
+      </c>
+      <c r="BV60" s="111"/>
+      <c r="BW60" s="111"/>
       <c r="BX60" s="17">
         <v>58</v>
       </c>
@@ -31326,36 +31450,40 @@
       <c r="CA60" s="17"/>
       <c r="CB60" s="17"/>
     </row>
-    <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+    <row r="61" spans="1:80" ht="15.75">
+      <c r="A61" s="17">
         <v>59</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="19">
+      <c r="C61" s="17">
+        <v>-165</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17">
         <v>59</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="111">
+      <c r="H61" s="17">
+        <v>-165</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="17">
         <v>59</v>
       </c>
-      <c r="L61" s="111" t="s">
+      <c r="L61" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="M61" s="111">
+      <c r="M61" s="17">
         <v>-65</v>
       </c>
-      <c r="N61" s="111"/>
-      <c r="O61" s="222"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="31"/>
       <c r="P61" s="34">
         <v>59</v>
       </c>
@@ -31370,17 +31498,17 @@
         <v>608</v>
       </c>
       <c r="T61" s="34"/>
-      <c r="U61" s="225">
+      <c r="U61" s="46">
         <v>59</v>
       </c>
-      <c r="V61" s="111" t="s">
+      <c r="V61" s="17" t="s">
         <v>1044</v>
       </c>
-      <c r="W61" s="111">
+      <c r="W61" s="17">
         <v>-165</v>
       </c>
-      <c r="X61" s="111"/>
-      <c r="Y61" s="111"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
       <c r="Z61" s="17">
         <v>59</v>
       </c>
@@ -31399,24 +31527,28 @@
       <c r="AG61" s="57"/>
       <c r="AH61" s="57"/>
       <c r="AI61" s="57"/>
-      <c r="AJ61" s="64">
+      <c r="AJ61" s="17">
         <v>59</v>
       </c>
-      <c r="AK61" s="64"/>
-      <c r="AL61" s="64"/>
-      <c r="AM61" s="64"/>
-      <c r="AN61" s="64"/>
-      <c r="AO61" s="111">
+      <c r="AK61" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AL61" s="17">
+        <v>-175</v>
+      </c>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="17"/>
+      <c r="AO61" s="17">
         <v>59</v>
       </c>
-      <c r="AP61" s="223" t="s">
+      <c r="AP61" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="AQ61" s="111">
+      <c r="AQ61" s="17">
         <v>-212</v>
       </c>
-      <c r="AR61" s="111"/>
-      <c r="AS61" s="111"/>
+      <c r="AR61" s="17"/>
+      <c r="AS61" s="17"/>
       <c r="AT61" s="17">
         <v>59</v>
       </c>
@@ -31428,24 +31560,30 @@
       </c>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
-      <c r="AY61" s="89">
+      <c r="AY61" s="111">
         <v>59</v>
       </c>
-      <c r="AZ61" s="89"/>
-      <c r="BA61" s="89"/>
-      <c r="BB61" s="89"/>
-      <c r="BC61" s="89"/>
-      <c r="BD61" s="111">
+      <c r="AZ61" s="111" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BA61" s="111">
+        <v>-255</v>
+      </c>
+      <c r="BB61" s="111"/>
+      <c r="BC61" s="111"/>
+      <c r="BD61" s="16">
         <v>59</v>
       </c>
-      <c r="BE61" s="111" t="s">
+      <c r="BE61" s="16" t="s">
         <v>1115</v>
       </c>
-      <c r="BF61" s="111">
+      <c r="BF61" s="16">
         <v>-535</v>
       </c>
-      <c r="BG61" s="111"/>
-      <c r="BH61" s="111"/>
+      <c r="BG61" s="16">
+        <v>371</v>
+      </c>
+      <c r="BH61" s="16"/>
       <c r="BI61" s="17">
         <v>59</v>
       </c>
@@ -31492,52 +31630,62 @@
       </c>
       <c r="CB61" s="16"/>
     </row>
-    <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
+    <row r="62" spans="1:80" ht="16.5" thickBot="1">
+      <c r="A62" s="111">
         <v>60</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="111" t="s">
         <v>1046</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="19">
+      <c r="C62" s="111">
+        <v>-175</v>
+      </c>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111">
         <v>60</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="111" t="s">
         <v>1047</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37">
+      <c r="H62" s="111">
+        <v>-175</v>
+      </c>
+      <c r="I62" s="111"/>
+      <c r="J62" s="220"/>
+      <c r="K62" s="111">
         <v>60</v>
       </c>
-      <c r="L62" s="37" t="s">
+      <c r="L62" s="111" t="s">
         <v>1048</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="39">
+      <c r="M62" s="111">
+        <v>-75</v>
+      </c>
+      <c r="N62" s="111"/>
+      <c r="O62" s="220"/>
+      <c r="P62" s="32">
         <v>60</v>
       </c>
-      <c r="Q62" s="39" t="s">
+      <c r="Q62" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="42">
+      <c r="R62" s="32">
+        <v>-160</v>
+      </c>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="46">
         <v>60</v>
       </c>
-      <c r="V62" s="44" t="s">
-        <v>1044</v>
-      </c>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
+      <c r="V62" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="W62" s="17">
+        <v>-175</v>
+      </c>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
       <c r="Z62" s="16">
         <v>60</v>
       </c>
@@ -31559,33 +31707,39 @@
       <c r="AG62" s="57"/>
       <c r="AH62" s="57"/>
       <c r="AI62" s="57"/>
-      <c r="AJ62" s="64">
+      <c r="AJ62" s="219">
         <v>60</v>
       </c>
-      <c r="AK62" s="64"/>
-      <c r="AL62" s="64"/>
-      <c r="AM62" s="64"/>
-      <c r="AN62" s="64"/>
-      <c r="AO62" s="76">
+      <c r="AK62" s="219" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AL62" s="219">
+        <v>-190</v>
+      </c>
+      <c r="AM62" s="219"/>
+      <c r="AN62" s="219"/>
+      <c r="AO62" s="17">
         <v>60</v>
       </c>
-      <c r="AP62" s="77" t="s">
+      <c r="AP62" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="AQ62" s="76"/>
-      <c r="AR62" s="76"/>
-      <c r="AS62" s="76"/>
-      <c r="AT62" s="111">
+      <c r="AQ62" s="17">
+        <v>-255</v>
+      </c>
+      <c r="AR62" s="17"/>
+      <c r="AS62" s="17"/>
+      <c r="AT62" s="17">
         <v>60</v>
       </c>
-      <c r="AU62" s="111" t="s">
+      <c r="AU62" s="17" t="s">
         <v>1112</v>
       </c>
-      <c r="AV62" s="111">
+      <c r="AV62" s="17">
         <v>-398</v>
       </c>
-      <c r="AW62" s="111"/>
-      <c r="AX62" s="111"/>
+      <c r="AW62" s="17"/>
+      <c r="AX62" s="17"/>
       <c r="AY62" s="89">
         <v>60</v>
       </c>
@@ -31593,17 +31747,21 @@
       <c r="BA62" s="89"/>
       <c r="BB62" s="89"/>
       <c r="BC62" s="89"/>
-      <c r="BD62" s="90">
+      <c r="BD62" s="111">
         <v>60</v>
       </c>
-      <c r="BE62" s="90"/>
-      <c r="BF62" s="90"/>
-      <c r="BG62" s="90"/>
-      <c r="BH62" s="90"/>
+      <c r="BE62" s="111" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BF62" s="111">
+        <v>-160</v>
+      </c>
+      <c r="BG62" s="111"/>
+      <c r="BH62" s="111"/>
       <c r="BI62" s="16">
         <v>60</v>
       </c>
-      <c r="BJ62" s="226" t="s">
+      <c r="BJ62" s="224" t="s">
         <v>641</v>
       </c>
       <c r="BK62" s="16">
@@ -31614,17 +31772,17 @@
         <v>414</v>
       </c>
       <c r="BM62" s="16"/>
-      <c r="BN62" s="111">
+      <c r="BN62" s="17">
         <v>60</v>
       </c>
-      <c r="BO62" s="111" t="s">
+      <c r="BO62" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="BP62" s="111">
+      <c r="BP62" s="17">
         <v>-160</v>
       </c>
-      <c r="BQ62" s="111"/>
-      <c r="BR62" s="111"/>
+      <c r="BQ62" s="17"/>
+      <c r="BR62" s="17"/>
       <c r="BS62" s="112">
         <v>60</v>
       </c>
@@ -31632,15 +31790,19 @@
       <c r="BU62" s="101"/>
       <c r="BV62" s="101"/>
       <c r="BW62" s="101"/>
-      <c r="BX62" s="89">
+      <c r="BX62" s="17">
         <v>60</v>
       </c>
-      <c r="BY62" s="89"/>
-      <c r="BZ62" s="89"/>
-      <c r="CA62" s="89"/>
-      <c r="CB62" s="89"/>
+      <c r="BY62" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BZ62" s="17">
+        <v>-160</v>
+      </c>
+      <c r="CA62" s="17"/>
+      <c r="CB62" s="17"/>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" ht="16.5" thickBot="1">
       <c r="A63" s="20">
         <v>61</v>
       </c>
@@ -31650,15 +31812,17 @@
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="19">
+      <c r="F63" s="111">
         <v>61</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="111" t="s">
         <v>650</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="36"/>
+      <c r="H63" s="111">
+        <v>-190</v>
+      </c>
+      <c r="I63" s="111"/>
+      <c r="J63" s="220"/>
       <c r="K63" s="37">
         <v>61</v>
       </c>
@@ -31668,35 +31832,39 @@
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
       <c r="O63" s="38"/>
-      <c r="P63" s="39">
+      <c r="P63" s="226">
         <v>61</v>
       </c>
-      <c r="Q63" s="39" t="s">
+      <c r="Q63" s="226" t="s">
         <v>1051</v>
       </c>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="42">
+      <c r="R63" s="226">
+        <v>-165</v>
+      </c>
+      <c r="S63" s="226"/>
+      <c r="T63" s="226"/>
+      <c r="U63" s="223">
         <v>61</v>
       </c>
-      <c r="V63" s="44" t="s">
-        <v>928</v>
-      </c>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="219">
+      <c r="V63" s="111" t="s">
+        <v>846</v>
+      </c>
+      <c r="W63" s="111">
+        <v>-190</v>
+      </c>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="17">
         <v>61</v>
       </c>
-      <c r="AA63" s="220" t="s">
+      <c r="AA63" s="17" t="s">
         <v>1044</v>
       </c>
-      <c r="AB63" s="219">
+      <c r="AB63" s="17">
         <v>-160</v>
       </c>
-      <c r="AC63" s="219"/>
-      <c r="AD63" s="219"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
       <c r="AE63" s="57">
         <v>61</v>
       </c>
@@ -31711,22 +31879,28 @@
       <c r="AL63" s="64"/>
       <c r="AM63" s="64"/>
       <c r="AN63" s="64"/>
-      <c r="AO63" s="76">
+      <c r="AO63" s="111">
         <v>61</v>
       </c>
-      <c r="AP63" s="77" t="s">
+      <c r="AP63" s="221" t="s">
         <v>1052</v>
       </c>
-      <c r="AQ63" s="76"/>
-      <c r="AR63" s="76"/>
-      <c r="AS63" s="76"/>
-      <c r="AT63" s="57">
+      <c r="AQ63" s="111">
+        <v>-315</v>
+      </c>
+      <c r="AR63" s="111"/>
+      <c r="AS63" s="111"/>
+      <c r="AT63" s="17">
         <v>61</v>
       </c>
-      <c r="AU63" s="57"/>
-      <c r="AV63" s="57"/>
-      <c r="AW63" s="57"/>
-      <c r="AX63" s="57"/>
+      <c r="AU63" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="AV63" s="17">
+        <v>-515</v>
+      </c>
+      <c r="AW63" s="17"/>
+      <c r="AX63" s="17"/>
       <c r="AY63" s="89">
         <v>61</v>
       </c>
@@ -31741,24 +31915,31 @@
       <c r="BF63" s="90"/>
       <c r="BG63" s="90"/>
       <c r="BH63" s="90"/>
-      <c r="BI63" s="111">
+      <c r="BI63" s="16">
         <v>61</v>
       </c>
-      <c r="BJ63" s="221" t="s">
+      <c r="BJ63" s="16" t="s">
         <v>1113</v>
       </c>
-      <c r="BK63" s="111">
+      <c r="BK63" s="16">
         <v>-160</v>
       </c>
-      <c r="BL63" s="111"/>
-      <c r="BM63" s="111"/>
-      <c r="BN63" s="113">
+      <c r="BL63" s="16">
+        <f>704+BK63</f>
+        <v>544</v>
+      </c>
+      <c r="BM63" s="16"/>
+      <c r="BN63" s="17">
         <v>61</v>
       </c>
-      <c r="BO63" s="113"/>
-      <c r="BP63" s="113"/>
-      <c r="BQ63" s="113"/>
-      <c r="BR63" s="113"/>
+      <c r="BO63" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="BP63" s="17">
+        <v>-165</v>
+      </c>
+      <c r="BQ63" s="17"/>
+      <c r="BR63" s="17"/>
       <c r="BS63" s="112">
         <v>61</v>
       </c>
@@ -31766,15 +31947,19 @@
       <c r="BU63" s="101"/>
       <c r="BV63" s="101"/>
       <c r="BW63" s="101"/>
-      <c r="BX63" s="89">
+      <c r="BX63" s="111">
         <v>61</v>
       </c>
-      <c r="BY63" s="89"/>
-      <c r="BZ63" s="89"/>
-      <c r="CA63" s="89"/>
-      <c r="CB63" s="89"/>
+      <c r="BY63" s="111" t="s">
+        <v>823</v>
+      </c>
+      <c r="BZ63" s="111">
+        <v>-165</v>
+      </c>
+      <c r="CA63" s="111"/>
+      <c r="CB63" s="111"/>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" ht="16.5" thickBot="1">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -31814,21 +31999,20 @@
       <c r="U64" s="42">
         <v>62</v>
       </c>
-      <c r="V64" s="44" t="s">
-        <v>846</v>
-      </c>
       <c r="W64" s="44"/>
       <c r="X64" s="44"/>
       <c r="Y64" s="44"/>
-      <c r="Z64" s="49">
+      <c r="Z64" s="17">
         <v>62</v>
       </c>
-      <c r="AA64" s="58" t="s">
+      <c r="AA64" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
+      <c r="AB64" s="17">
+        <v>-165</v>
+      </c>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
       <c r="AE64" s="57">
         <v>62</v>
       </c>
@@ -31852,13 +32036,17 @@
       <c r="AQ64" s="76"/>
       <c r="AR64" s="76"/>
       <c r="AS64" s="76"/>
-      <c r="AT64" s="57">
+      <c r="AT64" s="111">
         <v>62</v>
       </c>
-      <c r="AU64" s="57"/>
-      <c r="AV64" s="57"/>
-      <c r="AW64" s="57"/>
-      <c r="AX64" s="57"/>
+      <c r="AU64" s="111" t="s">
+        <v>846</v>
+      </c>
+      <c r="AV64" s="111">
+        <v>-600</v>
+      </c>
+      <c r="AW64" s="111"/>
+      <c r="AX64" s="111"/>
       <c r="AY64" s="89">
         <v>62</v>
       </c>
@@ -31873,20 +32061,28 @@
       <c r="BF64" s="90"/>
       <c r="BG64" s="90"/>
       <c r="BH64" s="90"/>
-      <c r="BI64" s="101">
+      <c r="BI64" s="17">
         <v>62</v>
       </c>
-      <c r="BJ64" s="101"/>
-      <c r="BK64" s="101"/>
-      <c r="BL64" s="101"/>
-      <c r="BM64" s="101"/>
-      <c r="BN64" s="113">
+      <c r="BJ64" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BK64" s="17">
+        <v>-160</v>
+      </c>
+      <c r="BL64" s="17"/>
+      <c r="BM64" s="17"/>
+      <c r="BN64" s="111">
         <v>62</v>
       </c>
-      <c r="BO64" s="113"/>
-      <c r="BP64" s="113"/>
-      <c r="BQ64" s="113"/>
-      <c r="BR64" s="113"/>
+      <c r="BO64" s="111" t="s">
+        <v>652</v>
+      </c>
+      <c r="BP64" s="111">
+        <v>-175</v>
+      </c>
+      <c r="BQ64" s="111"/>
+      <c r="BR64" s="111"/>
       <c r="BS64" s="112">
         <v>62</v>
       </c>
@@ -31902,7 +32098,7 @@
       <c r="CA64" s="89"/>
       <c r="CB64" s="89"/>
     </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80" ht="15.75" thickBot="1">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -31948,15 +32144,17 @@
       <c r="W65" s="44"/>
       <c r="X65" s="44"/>
       <c r="Y65" s="44"/>
-      <c r="Z65" s="49">
+      <c r="Z65" s="225">
         <v>63</v>
       </c>
-      <c r="AA65" s="58" t="s">
+      <c r="AA65" s="221" t="s">
         <v>1058</v>
       </c>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
+      <c r="AB65" s="225">
+        <v>-175</v>
+      </c>
+      <c r="AC65" s="225"/>
+      <c r="AD65" s="225"/>
       <c r="AE65" s="57">
         <v>63</v>
       </c>
@@ -32030,7 +32228,7 @@
       <c r="CA65" s="89"/>
       <c r="CB65" s="89"/>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -32158,7 +32356,7 @@
       <c r="CA66" s="89"/>
       <c r="CB66" s="89"/>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -32286,7 +32484,7 @@
       <c r="CA67" s="89"/>
       <c r="CB67" s="89"/>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -32414,7 +32612,7 @@
       <c r="CA68" s="89"/>
       <c r="CB68" s="89"/>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -32542,7 +32740,7 @@
       <c r="CA69" s="89"/>
       <c r="CB69" s="89"/>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -32670,7 +32868,7 @@
       <c r="CA70" s="89"/>
       <c r="CB70" s="89"/>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -32798,7 +32996,7 @@
       <c r="CA71" s="89"/>
       <c r="CB71" s="89"/>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -32926,7 +33124,7 @@
       <c r="CA72" s="89"/>
       <c r="CB72" s="89"/>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -33054,7 +33252,7 @@
       <c r="CA73" s="89"/>
       <c r="CB73" s="89"/>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -33182,7 +33380,7 @@
       <c r="CA74" s="89"/>
       <c r="CB74" s="89"/>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80">
       <c r="A75" s="20">
         <v>73</v>
       </c>
@@ -33310,7 +33508,7 @@
       <c r="CA75" s="89"/>
       <c r="CB75" s="89"/>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -33438,7 +33636,7 @@
       <c r="CA76" s="89"/>
       <c r="CB76" s="89"/>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80">
       <c r="A77" s="20">
         <v>75</v>
       </c>
@@ -33566,7 +33764,7 @@
       <c r="CA77" s="89"/>
       <c r="CB77" s="89"/>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -33694,7 +33892,7 @@
       <c r="CA78" s="89"/>
       <c r="CB78" s="89"/>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80">
       <c r="A79" s="20">
         <v>77</v>
       </c>
@@ -33822,7 +34020,7 @@
       <c r="CA79" s="89"/>
       <c r="CB79" s="89"/>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -33950,7 +34148,7 @@
       <c r="CA80" s="89"/>
       <c r="CB80" s="89"/>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81">
       <c r="A81" s="20">
         <v>79</v>
       </c>
@@ -34078,7 +34276,7 @@
       <c r="CA81" s="89"/>
       <c r="CB81" s="89"/>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:81">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -34206,7 +34404,7 @@
       <c r="CA82" s="89"/>
       <c r="CB82" s="89"/>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -34334,7 +34532,7 @@
       <c r="CA83" s="89"/>
       <c r="CB83" s="89"/>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81">
       <c r="A84" s="117">
         <v>82</v>
       </c>
@@ -34462,14 +34660,14 @@
       <c r="CA84" s="89"/>
       <c r="CB84" s="89"/>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:81">
       <c r="A85" s="118" t="s">
         <v>727</v>
       </c>
       <c r="B85" s="119"/>
       <c r="C85" s="119">
         <f>SUM(C3:C84)</f>
-        <v>-11643</v>
+        <v>-11983</v>
       </c>
       <c r="D85" s="120">
         <f>SUM(D3:D84)</f>
@@ -34482,7 +34680,7 @@
       <c r="G85" s="119"/>
       <c r="H85" s="119">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-8159</v>
+        <v>-8689</v>
       </c>
       <c r="I85" s="120">
         <f t="shared" si="0"/>
@@ -34495,7 +34693,7 @@
       <c r="L85" s="119"/>
       <c r="M85" s="119">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-13425</v>
+        <v>-13500</v>
       </c>
       <c r="N85" s="120">
         <f t="shared" si="1"/>
@@ -34508,7 +34706,7 @@
       <c r="Q85" s="119"/>
       <c r="R85" s="119">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-8310</v>
+        <v>-8635</v>
       </c>
       <c r="S85" s="120">
         <f t="shared" si="2"/>
@@ -34521,7 +34719,7 @@
       <c r="V85" s="119"/>
       <c r="W85" s="119">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-25091</v>
+        <v>-25456</v>
       </c>
       <c r="X85" s="120">
         <f t="shared" si="3"/>
@@ -34534,7 +34732,7 @@
       <c r="AA85" s="119"/>
       <c r="AB85" s="119">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-7227</v>
+        <v>-7567</v>
       </c>
       <c r="AC85" s="120">
         <f t="shared" si="4"/>
@@ -34547,11 +34745,11 @@
       <c r="AF85" s="119"/>
       <c r="AG85" s="119">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-10756</v>
+        <v>-10916</v>
       </c>
       <c r="AH85" s="120">
         <f t="shared" si="5"/>
-        <v>1897</v>
+        <v>2233</v>
       </c>
       <c r="AI85" s="119"/>
       <c r="AJ85" s="118" t="s">
@@ -34560,7 +34758,7 @@
       <c r="AK85" s="119"/>
       <c r="AL85" s="119">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-5735</v>
+        <v>-6100</v>
       </c>
       <c r="AM85" s="120">
         <f t="shared" si="6"/>
@@ -34573,7 +34771,7 @@
       <c r="AP85" s="119"/>
       <c r="AQ85" s="119">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-9453</v>
+        <v>-10023</v>
       </c>
       <c r="AR85" s="120">
         <f t="shared" si="7"/>
@@ -34586,7 +34784,7 @@
       <c r="AU85" s="119"/>
       <c r="AV85" s="119">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-12500</v>
+        <v>-13615</v>
       </c>
       <c r="AW85" s="120">
         <f t="shared" si="8"/>
@@ -34599,7 +34797,7 @@
       <c r="AZ85" s="119"/>
       <c r="BA85" s="119">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-20211</v>
+        <v>-20681</v>
       </c>
       <c r="BB85" s="120">
         <f t="shared" si="9"/>
@@ -34612,11 +34810,11 @@
       <c r="BE85" s="119"/>
       <c r="BF85" s="119">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-40472</v>
+        <v>-40632</v>
       </c>
       <c r="BG85" s="120">
         <f t="shared" si="10"/>
-        <v>792</v>
+        <v>1163</v>
       </c>
       <c r="BH85" s="119"/>
       <c r="BI85" s="118" t="s">
@@ -34625,11 +34823,11 @@
       <c r="BJ85" s="119"/>
       <c r="BK85" s="119">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-12377</v>
+        <v>-12537</v>
       </c>
       <c r="BL85" s="120">
         <f t="shared" si="11"/>
-        <v>2127</v>
+        <v>2671</v>
       </c>
       <c r="BM85" s="119"/>
       <c r="BN85" s="118" t="s">
@@ -34638,7 +34836,7 @@
       <c r="BO85" s="119"/>
       <c r="BP85" s="119">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-10107</v>
+        <v>-10447</v>
       </c>
       <c r="BQ85" s="120">
         <f t="shared" si="12"/>
@@ -34651,7 +34849,7 @@
       <c r="BT85" s="119"/>
       <c r="BU85" s="119">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-9547</v>
+        <v>-9887</v>
       </c>
       <c r="BV85" s="120">
         <f t="shared" si="13"/>
@@ -34664,7 +34862,7 @@
       <c r="BY85" s="119"/>
       <c r="BZ85" s="119">
         <f t="shared" ref="BZ85:CA85" si="14">SUM(BZ3:BZ84)</f>
-        <v>-6872</v>
+        <v>-7197</v>
       </c>
       <c r="CA85" s="120">
         <f t="shared" si="14"/>
@@ -34675,30 +34873,30 @@
         <v>727</v>
       </c>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="228" t="s">
+    <row r="95" spans="1:81">
+      <c r="G95" s="227" t="s">
         <v>728</v>
       </c>
-      <c r="H95" s="228">
+      <c r="H95" s="227">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>32393</v>
-      </c>
-      <c r="I95" s="228"/>
+        <v>33644</v>
+      </c>
+      <c r="I95" s="227"/>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="228"/>
-      <c r="H96" s="228"/>
-      <c r="I96" s="228"/>
+    <row r="96" spans="1:81">
+      <c r="G96" s="227"/>
+      <c r="H96" s="227"/>
+      <c r="I96" s="227"/>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="228"/>
-      <c r="H97" s="228"/>
-      <c r="I97" s="228"/>
+    <row r="97" spans="7:9">
+      <c r="G97" s="227"/>
+      <c r="H97" s="227"/>
+      <c r="I97" s="227"/>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="228"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="228"/>
+    <row r="98" spans="7:9">
+      <c r="G98" s="227"/>
+      <c r="H98" s="227"/>
+      <c r="I98" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34711,26 +34909,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="229" t="s">
+    <row r="1" spans="5:8" ht="15.75">
+      <c r="E1" s="228" t="s">
         <v>1107</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="2" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:8" ht="15.75">
       <c r="E2" s="1" t="s">
         <v>1108</v>
       </c>
@@ -34744,7 +34942,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:8">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -34760,7 +34958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:8">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -34776,7 +34974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:8">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -34792,7 +34990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -34808,7 +35006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -34824,7 +35022,7 @@
         <v>1.1999999999999886</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -34840,7 +35038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -34856,7 +35054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -34872,7 +35070,7 @@
         <v>2.7999999999999545</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:8">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -34888,7 +35086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -34904,7 +35102,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:8">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -34920,7 +35118,7 @@
         <v>2.2000000000002728</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:8">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -34936,7 +35134,7 @@
         <v>5.8000000000001819</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:8">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -34952,7 +35150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:8">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -34968,7 +35166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -34984,7 +35182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -35000,7 +35198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -35016,7 +35214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -35032,7 +35230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -35048,7 +35246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -35064,7 +35262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -35080,7 +35278,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -35091,7 +35289,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -35102,7 +35300,7 @@
         <v>-74232</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8">
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1130">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3425,13 +3420,25 @@
   </si>
   <si>
     <t>Филадельфия - Сент Луис</t>
+  </si>
+  <si>
+    <t>Питтсбург - Коламбус</t>
+  </si>
+  <si>
+    <t>Виннипег - Сиэтл</t>
+  </si>
+  <si>
+    <t>Кингс - Ванкувер</t>
+  </si>
+  <si>
+    <t>кэф 4,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3550,6 +3557,14 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4628,7 +4643,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4991,18 +5006,24 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -5318,14 +5339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="AP43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE65" sqref="BE65:BI65"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF64" sqref="AF64:AJ64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -5346,7 +5367,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1">
       <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5545,7 @@
       <c r="CB1" s="206"/>
       <c r="CC1" s="206"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1">
       <c r="B2" s="128" t="s">
         <v>4</v>
       </c>
@@ -5670,7 +5691,7 @@
       <c r="CB2" s="206"/>
       <c r="CC2" s="206"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:81" ht="15.75">
       <c r="B3" s="130">
         <v>1</v>
       </c>
@@ -5854,7 +5875,7 @@
       <c r="CB3" s="130"/>
       <c r="CC3" s="130"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="15.75">
       <c r="B4" s="73">
         <v>2</v>
       </c>
@@ -6041,7 +6062,7 @@
       </c>
       <c r="CC4" s="133"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:81" ht="15.75">
       <c r="B5" s="73">
         <v>3</v>
       </c>
@@ -6225,7 +6246,7 @@
       <c r="CB5" s="73"/>
       <c r="CC5" s="73"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:81" ht="15.75">
       <c r="B6" s="73">
         <v>4</v>
       </c>
@@ -6415,7 +6436,7 @@
       </c>
       <c r="CC6" s="133"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81" ht="15.75">
       <c r="B7" s="73">
         <v>5</v>
       </c>
@@ -6604,7 +6625,7 @@
       <c r="CB7" s="73"/>
       <c r="CC7" s="73"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:81" ht="15.75">
       <c r="B8" s="73">
         <v>6</v>
       </c>
@@ -6791,7 +6812,7 @@
       <c r="CB8" s="73"/>
       <c r="CC8" s="73"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:81" ht="15.75">
       <c r="B9" s="133">
         <v>7</v>
       </c>
@@ -6984,7 +7005,7 @@
       </c>
       <c r="CC9" s="133"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81" ht="15.75">
       <c r="B10" s="73">
         <v>8</v>
       </c>
@@ -7180,7 +7201,7 @@
       <c r="CB10" s="73"/>
       <c r="CC10" s="73"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:81" ht="15.75">
       <c r="B11" s="133">
         <v>9</v>
       </c>
@@ -7373,7 +7394,7 @@
       <c r="CB11" s="73"/>
       <c r="CC11" s="73"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:81" ht="15.75">
       <c r="B12" s="133">
         <v>10</v>
       </c>
@@ -7563,7 +7584,7 @@
       <c r="CB12" s="73"/>
       <c r="CC12" s="73"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:81" ht="15.75">
       <c r="B13" s="73">
         <v>11</v>
       </c>
@@ -7750,7 +7771,7 @@
       </c>
       <c r="CC13" s="132"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:81" ht="15.75">
       <c r="B14" s="73">
         <v>12</v>
       </c>
@@ -7946,7 +7967,7 @@
       <c r="CB14" s="73"/>
       <c r="CC14" s="73"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81" ht="15.75">
       <c r="B15" s="73">
         <v>13</v>
       </c>
@@ -8133,7 +8154,7 @@
       <c r="CB15" s="73"/>
       <c r="CC15" s="73"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:81" ht="15.75">
       <c r="B16" s="133">
         <v>14</v>
       </c>
@@ -8329,7 +8350,7 @@
       <c r="CB16" s="73"/>
       <c r="CC16" s="73"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:81" ht="15.75">
       <c r="B17" s="73">
         <v>15</v>
       </c>
@@ -8516,7 +8537,7 @@
       <c r="CB17" s="73"/>
       <c r="CC17" s="73"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:81" ht="15.75">
       <c r="B18" s="73">
         <v>16</v>
       </c>
@@ -8702,7 +8723,7 @@
       </c>
       <c r="CC18" s="132"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:81" ht="15.75">
       <c r="B19" s="133">
         <v>17</v>
       </c>
@@ -8892,7 +8913,7 @@
       <c r="CB19" s="73"/>
       <c r="CC19" s="73"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:81" ht="15.75">
       <c r="B20" s="73">
         <v>18</v>
       </c>
@@ -9073,7 +9094,7 @@
       <c r="CB20" s="73"/>
       <c r="CC20" s="73"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:81" ht="15.75">
       <c r="B21" s="73">
         <v>19</v>
       </c>
@@ -9257,7 +9278,7 @@
       <c r="CB21" s="73"/>
       <c r="CC21" s="73"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:81" ht="15.75">
       <c r="B22" s="73">
         <v>20</v>
       </c>
@@ -9443,7 +9464,7 @@
       <c r="CB22" s="73"/>
       <c r="CC22" s="73"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:81" ht="15.75">
       <c r="B23" s="73">
         <v>21</v>
       </c>
@@ -9633,7 +9654,7 @@
       <c r="CB23" s="73"/>
       <c r="CC23" s="73"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:81" ht="15.75">
       <c r="B24" s="73">
         <v>22</v>
       </c>
@@ -9822,7 +9843,7 @@
       <c r="CB24" s="73"/>
       <c r="CC24" s="73"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:81" ht="15.75">
       <c r="B25" s="133">
         <v>23</v>
       </c>
@@ -10015,7 +10036,7 @@
       </c>
       <c r="CC25" s="132"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:81" ht="15.75">
       <c r="B26" s="73">
         <v>24</v>
       </c>
@@ -10205,7 +10226,7 @@
       <c r="CB26" s="73"/>
       <c r="CC26" s="73"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:81" ht="15.75">
       <c r="B27" s="73">
         <v>25</v>
       </c>
@@ -10392,7 +10413,7 @@
       <c r="CB27" s="73"/>
       <c r="CC27" s="73"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:81" ht="15.75">
       <c r="B28" s="73">
         <v>26</v>
       </c>
@@ -10576,7 +10597,7 @@
       </c>
       <c r="CC28" s="133"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:81" ht="15.75">
       <c r="B29" s="133">
         <v>27</v>
       </c>
@@ -10772,7 +10793,7 @@
       <c r="CB29" s="73"/>
       <c r="CC29" s="73"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:81" ht="15.75">
       <c r="B30" s="133">
         <v>28</v>
       </c>
@@ -10965,7 +10986,7 @@
       </c>
       <c r="CC30" s="133"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:81" ht="15.75">
       <c r="B31" s="133">
         <v>29</v>
       </c>
@@ -11164,7 +11185,7 @@
       </c>
       <c r="CC31" s="133"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:81" ht="15.75">
       <c r="B32" s="133">
         <v>30</v>
       </c>
@@ -11353,7 +11374,7 @@
       </c>
       <c r="CC32" s="133"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:81" ht="15.75">
       <c r="B33" s="73">
         <v>31</v>
       </c>
@@ -11549,7 +11570,7 @@
       </c>
       <c r="CC33" s="133"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:81" ht="15.75">
       <c r="B34" s="73">
         <v>32</v>
       </c>
@@ -11737,7 +11758,7 @@
       <c r="CB34" s="73"/>
       <c r="CC34" s="73"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:81" ht="15.75">
       <c r="B35" s="73">
         <v>33</v>
       </c>
@@ -11930,7 +11951,7 @@
       <c r="CB35" s="73"/>
       <c r="CC35" s="73"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:81" ht="15.75">
       <c r="B36" s="73">
         <v>34</v>
       </c>
@@ -12114,7 +12135,7 @@
       </c>
       <c r="CC36" s="133"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:81" ht="15.75">
       <c r="B37" s="73">
         <v>35</v>
       </c>
@@ -12301,7 +12322,7 @@
       <c r="CB37" s="73"/>
       <c r="CC37" s="73"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:81" ht="15.75">
       <c r="B38" s="73">
         <v>36</v>
       </c>
@@ -12488,7 +12509,7 @@
       <c r="CB38" s="73"/>
       <c r="CC38" s="73"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:81" ht="15.75">
       <c r="B39" s="73">
         <v>37</v>
       </c>
@@ -12675,7 +12696,7 @@
       <c r="CB39" s="73"/>
       <c r="CC39" s="73"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:81" ht="15.75">
       <c r="B40" s="73">
         <v>38</v>
       </c>
@@ -12862,7 +12883,7 @@
       <c r="CB40" s="73"/>
       <c r="CC40" s="73"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:81" ht="15.75">
       <c r="B41" s="133">
         <v>39</v>
       </c>
@@ -13055,7 +13076,7 @@
       <c r="CB41" s="73"/>
       <c r="CC41" s="73"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:81" ht="15.75">
       <c r="B42" s="133">
         <v>40</v>
       </c>
@@ -13248,7 +13269,7 @@
       <c r="CB42" s="73"/>
       <c r="CC42" s="73"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:81" ht="15.75">
       <c r="B43" s="133">
         <v>41</v>
       </c>
@@ -13451,7 +13472,7 @@
       <c r="CB43" s="73"/>
       <c r="CC43" s="73"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:81" ht="15.75">
       <c r="B44" s="133">
         <v>42</v>
       </c>
@@ -13646,7 +13667,7 @@
       <c r="CB44" s="73"/>
       <c r="CC44" s="73"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:81" ht="15.75">
       <c r="B45" s="73">
         <v>43</v>
       </c>
@@ -13829,7 +13850,7 @@
       <c r="CB45" s="73"/>
       <c r="CC45" s="73"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:81" ht="15.75">
       <c r="B46" s="73">
         <v>44</v>
       </c>
@@ -14019,7 +14040,7 @@
       <c r="CB46" s="73"/>
       <c r="CC46" s="73"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:81" ht="15.75">
       <c r="B47" s="73">
         <v>45</v>
       </c>
@@ -14206,7 +14227,7 @@
       <c r="CB47" s="73"/>
       <c r="CC47" s="73"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:81" ht="15.75">
       <c r="B48" s="73">
         <v>46</v>
       </c>
@@ -14396,7 +14417,7 @@
       <c r="CB48" s="73"/>
       <c r="CC48" s="73"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:81" ht="15.75">
       <c r="B49" s="73">
         <v>47</v>
       </c>
@@ -14583,7 +14604,7 @@
       </c>
       <c r="CC49" s="133"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:81" ht="15.75">
       <c r="B50" s="133">
         <v>48</v>
       </c>
@@ -14770,7 +14791,7 @@
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:81" ht="15.75">
       <c r="B51" s="73">
         <v>49</v>
       </c>
@@ -14957,7 +14978,7 @@
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:81" ht="15.75">
       <c r="B52" s="73">
         <v>50</v>
       </c>
@@ -15144,7 +15165,7 @@
       <c r="CB52" s="73"/>
       <c r="CC52" s="73"/>
     </row>
-    <row r="53" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:81" ht="15.75">
       <c r="B53" s="73">
         <v>51</v>
       </c>
@@ -15331,7 +15352,7 @@
       </c>
       <c r="CC53" s="133"/>
     </row>
-    <row r="54" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:81" ht="15.75">
       <c r="B54" s="73">
         <v>52</v>
       </c>
@@ -15376,7 +15397,7 @@
       </c>
       <c r="T54" s="73"/>
       <c r="U54" s="73">
-        <v>-4.5999999999999996</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="V54" s="73">
         <v>52</v>
@@ -15517,7 +15538,7 @@
       <c r="CB54" s="73"/>
       <c r="CC54" s="73"/>
     </row>
-    <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:81" ht="15.75">
       <c r="B55" s="133">
         <v>53</v>
       </c>
@@ -15565,8 +15586,8 @@
       </c>
       <c r="T55" s="73"/>
       <c r="U55" s="73">
-        <f>U54*S63</f>
-        <v>5290</v>
+        <f>U54*S64</f>
+        <v>6615.0000000000009</v>
       </c>
       <c r="V55" s="73">
         <v>53</v>
@@ -15710,7 +15731,7 @@
       <c r="CB55" s="73"/>
       <c r="CC55" s="73"/>
     </row>
-    <row r="56" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:81" ht="15.75">
       <c r="B56" s="73">
         <v>54</v>
       </c>
@@ -15757,8 +15778,8 @@
       </c>
       <c r="T56" s="73"/>
       <c r="U56" s="73">
-        <f>U55+SUM(S51:S63)</f>
-        <v>255</v>
+        <f>U55+SUM(S51:S64)</f>
+        <v>230.00000000000091</v>
       </c>
       <c r="V56" s="73">
         <v>54</v>
@@ -15899,7 +15920,7 @@
       <c r="CB56" s="73"/>
       <c r="CC56" s="73"/>
     </row>
-    <row r="57" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:81" ht="15.75">
       <c r="B57" s="133">
         <v>55</v>
       </c>
@@ -15994,7 +16015,7 @@
       </c>
       <c r="AN57" s="73"/>
       <c r="AO57" s="73">
-        <v>-4.4000000000000004</v>
+        <v>-4.5</v>
       </c>
       <c r="AP57" s="133">
         <v>55</v>
@@ -16096,7 +16117,7 @@
       <c r="CB57" s="73"/>
       <c r="CC57" s="73"/>
     </row>
-    <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:81" ht="15.75">
       <c r="B58" s="133">
         <v>56</v>
       </c>
@@ -16193,8 +16214,8 @@
       </c>
       <c r="AN58" s="73"/>
       <c r="AO58" s="73">
-        <f>AO57*AM63</f>
-        <v>3300.0000000000005</v>
+        <f>AO57*AM64</f>
+        <v>4275</v>
       </c>
       <c r="AP58" s="73">
         <v>56</v>
@@ -16291,7 +16312,7 @@
       </c>
       <c r="CC58" s="133"/>
     </row>
-    <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:81" ht="15.75">
       <c r="B59" s="133">
         <v>57</v>
       </c>
@@ -16382,8 +16403,8 @@
       </c>
       <c r="AN59" s="73"/>
       <c r="AO59" s="73">
-        <f>AO58+SUM(AM53:AM63)</f>
-        <v>228.00000000000045</v>
+        <f>AO58+SUM(AM53:AM64)</f>
+        <v>253</v>
       </c>
       <c r="AP59" s="73">
         <v>57</v>
@@ -16474,7 +16495,7 @@
       <c r="CB59" s="73"/>
       <c r="CC59" s="73"/>
     </row>
-    <row r="60" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:81" ht="15.75">
       <c r="B60" s="133">
         <v>58</v>
       </c>
@@ -16670,7 +16691,7 @@
       <c r="CB60" s="73"/>
       <c r="CC60" s="73"/>
     </row>
-    <row r="61" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:81" ht="15.75">
       <c r="B61" s="133">
         <v>59</v>
       </c>
@@ -16851,7 +16872,7 @@
       <c r="CB61" s="73"/>
       <c r="CC61" s="73"/>
     </row>
-    <row r="62" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:81" ht="15.75">
       <c r="B62" s="133">
         <v>60</v>
       </c>
@@ -16991,13 +17012,17 @@
       </c>
       <c r="BH62" s="73"/>
       <c r="BI62" s="73"/>
-      <c r="BJ62" s="199">
+      <c r="BJ62" s="218">
         <v>60</v>
       </c>
-      <c r="BK62" s="199"/>
-      <c r="BL62" s="199"/>
-      <c r="BM62" s="199"/>
-      <c r="BN62" s="199"/>
+      <c r="BK62" s="218" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL62" s="218">
+        <v>-190</v>
+      </c>
+      <c r="BM62" s="218"/>
+      <c r="BN62" s="218"/>
       <c r="BO62" s="73">
         <v>60</v>
       </c>
@@ -17035,7 +17060,7 @@
       <c r="CB62" s="73"/>
       <c r="CC62" s="73"/>
     </row>
-    <row r="63" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:81" ht="15.75">
       <c r="B63" s="73">
         <v>61</v>
       </c>
@@ -17069,17 +17094,17 @@
       </c>
       <c r="O63" s="73"/>
       <c r="P63" s="140"/>
-      <c r="Q63" s="220">
+      <c r="Q63" s="73">
         <v>61</v>
       </c>
-      <c r="R63" s="220" t="s">
+      <c r="R63" s="73" t="s">
         <v>1124</v>
       </c>
-      <c r="S63" s="220">
+      <c r="S63" s="73">
         <v>-1150</v>
       </c>
-      <c r="T63" s="220"/>
-      <c r="U63" s="220"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
       <c r="V63" s="73">
         <v>61</v>
       </c>
@@ -17127,15 +17152,17 @@
       </c>
       <c r="AN63" s="73"/>
       <c r="AO63" s="73"/>
-      <c r="AP63" s="182">
+      <c r="AP63" s="218">
         <v>61</v>
       </c>
-      <c r="AQ63" s="182" t="s">
+      <c r="AQ63" s="218" t="s">
         <v>664</v>
       </c>
-      <c r="AR63" s="182"/>
-      <c r="AS63" s="182"/>
-      <c r="AT63" s="182"/>
+      <c r="AR63" s="218">
+        <v>-175</v>
+      </c>
+      <c r="AS63" s="218"/>
+      <c r="AT63" s="218"/>
       <c r="AU63" s="133">
         <v>61</v>
       </c>
@@ -17186,17 +17213,17 @@
       </c>
       <c r="BR63" s="73"/>
       <c r="BS63" s="73"/>
-      <c r="BT63" s="220">
+      <c r="BT63" s="73">
         <v>61</v>
       </c>
-      <c r="BU63" s="220" t="s">
+      <c r="BU63" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="BV63" s="220">
+      <c r="BV63" s="73">
         <v>-160</v>
       </c>
-      <c r="BW63" s="220"/>
-      <c r="BX63" s="220"/>
+      <c r="BW63" s="73"/>
+      <c r="BX63" s="73"/>
       <c r="BY63" s="209">
         <v>61</v>
       </c>
@@ -17207,7 +17234,7 @@
       <c r="CB63" s="209"/>
       <c r="CC63" s="209"/>
     </row>
-    <row r="64" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:81" ht="15.75">
       <c r="B64" s="73">
         <v>62</v>
       </c>
@@ -17239,13 +17266,17 @@
       <c r="N64" s="141"/>
       <c r="O64" s="141"/>
       <c r="P64" s="142"/>
-      <c r="Q64" s="153">
+      <c r="Q64" s="218">
         <v>62</v>
       </c>
-      <c r="R64" s="153"/>
-      <c r="S64" s="153"/>
-      <c r="T64" s="153"/>
-      <c r="U64" s="153"/>
+      <c r="R64" s="218" t="s">
+        <v>1126</v>
+      </c>
+      <c r="S64" s="218">
+        <v>-1350</v>
+      </c>
+      <c r="T64" s="218"/>
+      <c r="U64" s="218"/>
       <c r="V64" s="154">
         <v>62</v>
       </c>
@@ -17253,33 +17284,39 @@
       <c r="X64" s="154"/>
       <c r="Y64" s="154"/>
       <c r="Z64" s="154"/>
-      <c r="AA64" s="220">
+      <c r="AA64" s="73">
         <v>62</v>
       </c>
-      <c r="AB64" s="220" t="s">
+      <c r="AB64" s="73" t="s">
         <v>669</v>
       </c>
-      <c r="AC64" s="220">
+      <c r="AC64" s="73">
         <v>-165</v>
       </c>
-      <c r="AD64" s="220"/>
-      <c r="AE64" s="220"/>
-      <c r="AF64" s="163">
+      <c r="AD64" s="73"/>
+      <c r="AE64" s="73"/>
+      <c r="AF64" s="218">
         <v>62</v>
       </c>
-      <c r="AG64" s="163" t="s">
+      <c r="AG64" s="218" t="s">
         <v>667</v>
       </c>
-      <c r="AH64" s="163"/>
-      <c r="AI64" s="163"/>
-      <c r="AJ64" s="163"/>
-      <c r="AK64" s="154">
+      <c r="AH64" s="218">
+        <v>-160</v>
+      </c>
+      <c r="AI64" s="218"/>
+      <c r="AJ64" s="218"/>
+      <c r="AK64" s="218">
         <v>62</v>
       </c>
-      <c r="AL64" s="154"/>
-      <c r="AM64" s="154"/>
-      <c r="AN64" s="154"/>
-      <c r="AO64" s="154"/>
+      <c r="AL64" s="218" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM64" s="218">
+        <v>-950</v>
+      </c>
+      <c r="AN64" s="218"/>
+      <c r="AO64" s="218"/>
       <c r="AP64" s="182">
         <v>62</v>
       </c>
@@ -17289,17 +17326,17 @@
       <c r="AR64" s="182"/>
       <c r="AS64" s="182"/>
       <c r="AT64" s="182"/>
-      <c r="AU64" s="220">
+      <c r="AU64" s="73">
         <v>62</v>
       </c>
-      <c r="AV64" s="220" t="s">
+      <c r="AV64" s="73" t="s">
         <v>669</v>
       </c>
-      <c r="AW64" s="220">
+      <c r="AW64" s="73">
         <v>-160</v>
       </c>
-      <c r="AX64" s="220"/>
-      <c r="AY64" s="220"/>
+      <c r="AX64" s="73"/>
+      <c r="AY64" s="73"/>
       <c r="AZ64" s="191">
         <v>62</v>
       </c>
@@ -17358,18 +17395,18 @@
       <c r="CB64" s="209"/>
       <c r="CC64" s="209"/>
     </row>
-    <row r="65" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="220">
+    <row r="65" spans="2:81" ht="15.75">
+      <c r="B65" s="73">
         <v>63</v>
       </c>
-      <c r="C65" s="220" t="s">
+      <c r="C65" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="220">
+      <c r="D65" s="73">
         <v>-175</v>
       </c>
-      <c r="E65" s="220"/>
-      <c r="F65" s="220"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
       <c r="G65" s="212">
         <v>63</v>
       </c>
@@ -17402,13 +17439,17 @@
       <c r="X65" s="154"/>
       <c r="Y65" s="154"/>
       <c r="Z65" s="154"/>
-      <c r="AA65" s="162">
+      <c r="AA65" s="218">
         <v>63</v>
       </c>
-      <c r="AB65" s="162"/>
-      <c r="AC65" s="162"/>
-      <c r="AD65" s="162"/>
-      <c r="AE65" s="162"/>
+      <c r="AB65" s="218" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC65" s="218">
+        <v>-175</v>
+      </c>
+      <c r="AD65" s="218"/>
+      <c r="AE65" s="218"/>
       <c r="AF65" s="163">
         <v>63</v>
       </c>
@@ -17450,17 +17491,20 @@
       <c r="BB65" s="191"/>
       <c r="BC65" s="191"/>
       <c r="BD65" s="191"/>
-      <c r="BE65" s="220">
+      <c r="BE65" s="133">
         <v>63</v>
       </c>
-      <c r="BF65" s="220" t="s">
+      <c r="BF65" s="133" t="s">
         <v>1125</v>
       </c>
-      <c r="BG65" s="220">
+      <c r="BG65" s="133">
         <v>-398</v>
       </c>
-      <c r="BH65" s="220"/>
-      <c r="BI65" s="220"/>
+      <c r="BH65" s="133">
+        <f>1751+SUM(BG58:BG65)</f>
+        <v>-19</v>
+      </c>
+      <c r="BI65" s="133"/>
       <c r="BJ65" s="199">
         <v>63</v>
       </c>
@@ -17501,16 +17545,18 @@
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
     </row>
-    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B66" s="211">
+    <row r="66" spans="2:81">
+      <c r="B66" s="218">
         <v>64</v>
       </c>
-      <c r="C66" s="211" t="s">
+      <c r="C66" s="218" t="s">
         <v>676</v>
       </c>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
+      <c r="D66" s="218">
+        <v>-400</v>
+      </c>
+      <c r="E66" s="218"/>
+      <c r="F66" s="218"/>
       <c r="G66" s="212">
         <v>64</v>
       </c>
@@ -17633,7 +17679,7 @@
       <c r="CB66" s="209"/>
       <c r="CC66" s="209"/>
     </row>
-    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:81">
       <c r="B67" s="211">
         <v>65</v>
       </c>
@@ -17765,7 +17811,7 @@
       <c r="CB67" s="209"/>
       <c r="CC67" s="209"/>
     </row>
-    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:81">
       <c r="B68" s="211">
         <v>66</v>
       </c>
@@ -17897,7 +17943,7 @@
       <c r="CB68" s="209"/>
       <c r="CC68" s="209"/>
     </row>
-    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:81">
       <c r="B69" s="211">
         <v>67</v>
       </c>
@@ -18029,7 +18075,7 @@
       <c r="CB69" s="209"/>
       <c r="CC69" s="209"/>
     </row>
-    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:81">
       <c r="B70" s="211">
         <v>68</v>
       </c>
@@ -18161,7 +18207,7 @@
       <c r="CB70" s="209"/>
       <c r="CC70" s="209"/>
     </row>
-    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:81">
       <c r="B71" s="211">
         <v>69</v>
       </c>
@@ -18293,7 +18339,7 @@
       <c r="CB71" s="209"/>
       <c r="CC71" s="209"/>
     </row>
-    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:81">
       <c r="B72" s="211">
         <v>70</v>
       </c>
@@ -18425,7 +18471,7 @@
       <c r="CB72" s="209"/>
       <c r="CC72" s="209"/>
     </row>
-    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:81">
       <c r="B73" s="211">
         <v>71</v>
       </c>
@@ -18557,7 +18603,7 @@
       <c r="CB73" s="209"/>
       <c r="CC73" s="209"/>
     </row>
-    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:81">
       <c r="B74" s="211">
         <v>72</v>
       </c>
@@ -18689,7 +18735,7 @@
       <c r="CB74" s="209"/>
       <c r="CC74" s="209"/>
     </row>
-    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:81">
       <c r="B75" s="211">
         <v>73</v>
       </c>
@@ -18821,7 +18867,7 @@
       <c r="CB75" s="209"/>
       <c r="CC75" s="209"/>
     </row>
-    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:81">
       <c r="B76" s="211">
         <v>74</v>
       </c>
@@ -18953,7 +18999,7 @@
       <c r="CB76" s="209"/>
       <c r="CC76" s="209"/>
     </row>
-    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:81">
       <c r="B77" s="211">
         <v>75</v>
       </c>
@@ -19085,7 +19131,7 @@
       <c r="CB77" s="209"/>
       <c r="CC77" s="209"/>
     </row>
-    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:81">
       <c r="B78" s="211">
         <v>76</v>
       </c>
@@ -19217,7 +19263,7 @@
       <c r="CB78" s="209"/>
       <c r="CC78" s="209"/>
     </row>
-    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:81">
       <c r="B79" s="211">
         <v>77</v>
       </c>
@@ -19349,7 +19395,7 @@
       <c r="CB79" s="209"/>
       <c r="CC79" s="209"/>
     </row>
-    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:81">
       <c r="B80" s="211">
         <v>78</v>
       </c>
@@ -19481,7 +19527,7 @@
       <c r="CB80" s="209"/>
       <c r="CC80" s="209"/>
     </row>
-    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:81">
       <c r="B81" s="211">
         <v>79</v>
       </c>
@@ -19613,7 +19659,7 @@
       <c r="CB81" s="209"/>
       <c r="CC81" s="209"/>
     </row>
-    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:81">
       <c r="B82" s="211">
         <v>80</v>
       </c>
@@ -19745,7 +19791,7 @@
       <c r="CB82" s="209"/>
       <c r="CC82" s="209"/>
     </row>
-    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:81">
       <c r="B83" s="211">
         <v>81</v>
       </c>
@@ -19877,7 +19923,7 @@
       <c r="CB83" s="209"/>
       <c r="CC83" s="209"/>
     </row>
-    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:81">
       <c r="B84" s="213">
         <v>82</v>
       </c>
@@ -20009,14 +20055,14 @@
       <c r="CB84" s="209"/>
       <c r="CC84" s="209"/>
     </row>
-    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:81">
       <c r="B85" s="214" t="s">
         <v>738</v>
       </c>
       <c r="C85" s="215"/>
       <c r="D85" s="215">
         <f>SUM(D3:D84)</f>
-        <v>-6263</v>
+        <v>-6663</v>
       </c>
       <c r="E85" s="117">
         <f>SUM(E3:E84)</f>
@@ -20055,7 +20101,7 @@
       <c r="R85" s="215"/>
       <c r="S85" s="215">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-10896</v>
+        <v>-12246</v>
       </c>
       <c r="T85" s="117">
         <f t="shared" si="2"/>
@@ -20081,7 +20127,7 @@
       <c r="AB85" s="215"/>
       <c r="AC85" s="215">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-24679</v>
+        <v>-24854</v>
       </c>
       <c r="AD85" s="117">
         <f t="shared" si="4"/>
@@ -20094,7 +20140,7 @@
       <c r="AG85" s="215"/>
       <c r="AH85" s="215">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-8099</v>
+        <v>-8259</v>
       </c>
       <c r="AI85" s="117">
         <f t="shared" si="5"/>
@@ -20107,7 +20153,7 @@
       <c r="AL85" s="215"/>
       <c r="AM85" s="215">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-16405</v>
+        <v>-17355</v>
       </c>
       <c r="AN85" s="117">
         <f t="shared" si="6"/>
@@ -20120,7 +20166,7 @@
       <c r="AQ85" s="215"/>
       <c r="AR85" s="215">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-4716</v>
+        <v>-4891</v>
       </c>
       <c r="AS85" s="117">
         <f t="shared" si="7"/>
@@ -20163,7 +20209,7 @@
       </c>
       <c r="BH85" s="117">
         <f t="shared" si="10"/>
-        <v>2323</v>
+        <v>2304</v>
       </c>
       <c r="BI85" s="215"/>
       <c r="BJ85" s="214" t="s">
@@ -20172,7 +20218,7 @@
       <c r="BK85" s="215"/>
       <c r="BL85" s="215">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-8124</v>
+        <v>-8314</v>
       </c>
       <c r="BM85" s="117">
         <f t="shared" si="11"/>
@@ -20219,30 +20265,30 @@
       </c>
       <c r="CC85" s="215"/>
     </row>
-    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="218" t="s">
+    <row r="92" spans="2:81">
+      <c r="H92" s="225" t="s">
         <v>739</v>
       </c>
-      <c r="I92" s="218">
+      <c r="I92" s="225">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>44131</v>
-      </c>
-      <c r="J92" s="218"/>
+        <v>44112</v>
+      </c>
+      <c r="J92" s="225"/>
     </row>
-    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="218"/>
-      <c r="I93" s="218"/>
-      <c r="J93" s="218"/>
+    <row r="93" spans="2:81">
+      <c r="H93" s="225"/>
+      <c r="I93" s="225"/>
+      <c r="J93" s="225"/>
     </row>
-    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="218"/>
-      <c r="I94" s="218"/>
-      <c r="J94" s="218"/>
+    <row r="94" spans="2:81">
+      <c r="H94" s="225"/>
+      <c r="I94" s="225"/>
+      <c r="J94" s="225"/>
     </row>
-    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="218"/>
-      <c r="I95" s="218"/>
-      <c r="J95" s="218"/>
+    <row r="95" spans="2:81">
+      <c r="H95" s="225"/>
+      <c r="I95" s="225"/>
+      <c r="J95" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20255,14 +20301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF37" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BX64" sqref="BX64:CB64"/>
+    <sheetView topLeftCell="AW1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="BI66" sqref="BI66:BM66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -20285,7 +20331,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20463,7 +20509,7 @@
       <c r="CA1" s="86"/>
       <c r="CB1" s="86"/>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -20609,7 +20655,7 @@
       <c r="CA2" s="86"/>
       <c r="CB2" s="86"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="15.75">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -20796,7 +20842,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" ht="15.75">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -20989,7 +21035,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" ht="15.75">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -21173,7 +21219,7 @@
       </c>
       <c r="CB5" s="74"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" ht="15.75">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -21361,7 +21407,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" ht="15.75">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -21554,7 +21600,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" ht="15.75">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -21737,7 +21783,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" ht="15.75">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -21924,7 +21970,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" ht="15.75">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -22128,7 +22174,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" ht="15.75">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -22318,7 +22364,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" ht="15.75">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -22505,7 +22551,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" ht="15.75">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -22686,7 +22732,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" ht="15.75">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -22867,7 +22913,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" ht="15.75">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -23054,7 +23100,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" ht="15.75">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -23232,7 +23278,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" ht="15.75">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -23419,7 +23465,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" ht="15.75">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -23604,7 +23650,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" ht="15.75">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -23791,7 +23837,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" ht="15.75">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -23987,7 +24033,7 @@
       </c>
       <c r="CB20" s="74"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" ht="15.75">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -24165,7 +24211,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" ht="15.75">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -24352,7 +24398,7 @@
       </c>
       <c r="CB22" s="74"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" ht="15.75">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -24539,7 +24585,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" ht="15.75">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -24731,7 +24777,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" ht="15.75">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -24916,7 +24962,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" ht="15.75">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -25109,7 +25155,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" ht="15.75">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -25293,7 +25339,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" ht="15.75">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -25479,7 +25525,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" ht="15.75">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -25669,7 +25715,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" ht="15.75">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -25856,7 +25902,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" ht="15.75">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -26046,7 +26092,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" ht="15.75">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -26242,7 +26288,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" ht="15.75">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -26425,7 +26471,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" ht="15.75">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -26606,7 +26652,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" ht="15.75">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -26795,7 +26841,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" ht="15.75">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -26985,7 +27031,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" ht="15.75">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -27172,7 +27218,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" ht="15.75">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -27353,7 +27399,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" ht="15.75">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -27545,7 +27591,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" ht="15.75">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -27738,7 +27784,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" ht="15.75">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -27925,7 +27971,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" ht="15.75">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -28103,7 +28149,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" ht="15.75">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -28290,7 +28336,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" ht="15.75">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -28474,7 +28520,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" ht="15.75">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -28658,7 +28704,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" ht="15.75">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -28852,7 +28898,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" ht="15.75">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -29033,7 +29079,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" ht="15.75">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -29225,7 +29271,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" ht="15.75">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -29414,7 +29460,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" ht="15.75">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -29609,7 +29655,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" ht="15.75">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -29794,7 +29840,7 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" ht="15.75">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -29983,7 +30029,7 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" ht="15.75">
       <c r="A53" s="17">
         <v>51</v>
       </c>
@@ -30166,7 +30212,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" ht="15.75">
       <c r="A54" s="17">
         <v>52</v>
       </c>
@@ -30359,7 +30405,7 @@
       <c r="CA54" s="17"/>
       <c r="CB54" s="17"/>
     </row>
-    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" ht="15.75">
       <c r="A55" s="17">
         <v>53</v>
       </c>
@@ -30543,7 +30589,7 @@
       <c r="CA55" s="17"/>
       <c r="CB55" s="17"/>
     </row>
-    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" ht="15.75">
       <c r="A56" s="17">
         <v>54</v>
       </c>
@@ -30729,7 +30775,7 @@
       </c>
       <c r="CB56" s="16"/>
     </row>
-    <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" ht="15.75">
       <c r="A57" s="17">
         <v>55</v>
       </c>
@@ -30913,7 +30959,7 @@
       <c r="CA57" s="17"/>
       <c r="CB57" s="17"/>
     </row>
-    <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" ht="15.75">
       <c r="A58" s="17">
         <v>56</v>
       </c>
@@ -31029,7 +31075,7 @@
       </c>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17">
-        <v>-5.7</v>
+        <v>-4.8</v>
       </c>
       <c r="AY58" s="17">
         <v>56</v>
@@ -31101,7 +31147,7 @@
       </c>
       <c r="CB58" s="74"/>
     </row>
-    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" ht="15.75">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -31227,7 +31273,7 @@
       <c r="AW59" s="17"/>
       <c r="AX59" s="17">
         <f>AX58*AV65</f>
-        <v>3420</v>
+        <v>3600</v>
       </c>
       <c r="AY59" s="17">
         <v>57</v>
@@ -31296,7 +31342,7 @@
       <c r="CA59" s="17"/>
       <c r="CB59" s="17"/>
     </row>
-    <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" ht="15.75">
       <c r="A60" s="17">
         <v>58</v>
       </c>
@@ -31411,7 +31457,7 @@
       <c r="AW60" s="17"/>
       <c r="AX60" s="17">
         <f>AX59+SUM(AV55:AV65)</f>
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AY60" s="17">
         <v>58</v>
@@ -31480,7 +31526,7 @@
       <c r="CA60" s="17"/>
       <c r="CB60" s="17"/>
     </row>
-    <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80" ht="15.75">
       <c r="A61" s="17">
         <v>59</v>
       </c>
@@ -31671,7 +31717,7 @@
       </c>
       <c r="CB61" s="16"/>
     </row>
-    <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80" ht="15.75">
       <c r="A62" s="17">
         <v>60</v>
       </c>
@@ -31741,13 +31787,17 @@
         <v>246</v>
       </c>
       <c r="AD62" s="16"/>
-      <c r="AE62" s="57">
+      <c r="AE62" s="108">
         <v>60</v>
       </c>
-      <c r="AF62" s="57"/>
-      <c r="AG62" s="57"/>
-      <c r="AH62" s="57"/>
-      <c r="AI62" s="57"/>
+      <c r="AF62" s="108" t="s">
+        <v>676</v>
+      </c>
+      <c r="AG62" s="108">
+        <v>-175</v>
+      </c>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="108"/>
       <c r="AJ62" s="17">
         <v>60</v>
       </c>
@@ -31828,13 +31878,17 @@
       </c>
       <c r="BQ62" s="17"/>
       <c r="BR62" s="17"/>
-      <c r="BS62" s="109">
+      <c r="BS62" s="108">
         <v>60</v>
       </c>
-      <c r="BT62" s="110"/>
-      <c r="BU62" s="110"/>
-      <c r="BV62" s="110"/>
-      <c r="BW62" s="110"/>
+      <c r="BT62" s="108" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BU62" s="108">
+        <v>-212</v>
+      </c>
+      <c r="BV62" s="108"/>
+      <c r="BW62" s="108"/>
       <c r="BX62" s="17">
         <v>60</v>
       </c>
@@ -31847,7 +31901,7 @@
       <c r="CA62" s="17"/>
       <c r="CB62" s="17"/>
     </row>
-    <row r="63" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" ht="16.5" thickBot="1">
       <c r="A63" s="17">
         <v>61</v>
       </c>
@@ -31870,17 +31924,17 @@
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="31"/>
-      <c r="K63" s="108">
+      <c r="K63" s="17">
         <v>61</v>
       </c>
-      <c r="L63" s="108" t="s">
+      <c r="L63" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="M63" s="108">
+      <c r="M63" s="17">
         <v>-90</v>
       </c>
-      <c r="N63" s="108"/>
-      <c r="O63" s="222"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="31"/>
       <c r="P63" s="32">
         <v>61</v>
       </c>
@@ -31921,13 +31975,17 @@
       <c r="AG63" s="57"/>
       <c r="AH63" s="57"/>
       <c r="AI63" s="57"/>
-      <c r="AJ63" s="63">
+      <c r="AJ63" s="224">
         <v>61</v>
       </c>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="63"/>
-      <c r="AM63" s="63"/>
-      <c r="AN63" s="63"/>
+      <c r="AK63" s="224" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AL63" s="224">
+        <v>-212</v>
+      </c>
+      <c r="AM63" s="224"/>
+      <c r="AN63" s="224"/>
       <c r="AO63" s="17">
         <v>61</v>
       </c>
@@ -31950,24 +32008,31 @@
       </c>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
-      <c r="AY63" s="86">
+      <c r="AY63" s="108">
         <v>61</v>
       </c>
-      <c r="AZ63" s="86"/>
-      <c r="BA63" s="86"/>
-      <c r="BB63" s="86"/>
-      <c r="BC63" s="86"/>
-      <c r="BD63" s="108">
+      <c r="AZ63" s="108" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BA63" s="108">
+        <v>-65</v>
+      </c>
+      <c r="BB63" s="108"/>
+      <c r="BC63" s="108"/>
+      <c r="BD63" s="16">
         <v>61</v>
       </c>
-      <c r="BE63" s="108" t="s">
+      <c r="BE63" s="16" t="s">
         <v>1125</v>
       </c>
-      <c r="BF63" s="108">
+      <c r="BF63" s="16">
         <v>-165</v>
       </c>
-      <c r="BG63" s="108"/>
-      <c r="BH63" s="108"/>
+      <c r="BG63" s="16">
+        <f>726+SUM(BF62:BF63)</f>
+        <v>401</v>
+      </c>
+      <c r="BH63" s="16"/>
       <c r="BI63" s="16">
         <v>61</v>
       </c>
@@ -32012,7 +32077,7 @@
       <c r="CA63" s="17"/>
       <c r="CB63" s="17"/>
     </row>
-    <row r="64" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" ht="16.5" thickBot="1">
       <c r="A64" s="19">
         <v>62</v>
       </c>
@@ -32022,15 +32087,17 @@
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="20">
+      <c r="F64" s="108">
         <v>62</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="108" t="s">
         <v>801</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="38"/>
+      <c r="H64" s="108">
+        <v>-212</v>
+      </c>
+      <c r="I64" s="108"/>
+      <c r="J64" s="220"/>
       <c r="K64" s="36">
         <v>62</v>
       </c>
@@ -32040,23 +32107,28 @@
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
       <c r="O64" s="37"/>
-      <c r="P64" s="221">
+      <c r="P64" s="32">
         <v>62</v>
       </c>
-      <c r="Q64" s="221" t="s">
+      <c r="Q64" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="R64" s="221">
+      <c r="R64" s="32">
         <v>-175</v>
       </c>
-      <c r="S64" s="221"/>
-      <c r="T64" s="221"/>
-      <c r="U64" s="42">
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="46">
         <v>62</v>
       </c>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
+      <c r="V64" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="W64" s="17">
+        <v>-600</v>
+      </c>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
       <c r="Z64" s="17">
         <v>62</v>
       </c>
@@ -32111,13 +32183,17 @@
       <c r="BA64" s="86"/>
       <c r="BB64" s="86"/>
       <c r="BC64" s="86"/>
-      <c r="BD64" s="87">
+      <c r="BD64" s="108">
         <v>62</v>
       </c>
-      <c r="BE64" s="87"/>
-      <c r="BF64" s="87"/>
-      <c r="BG64" s="87"/>
-      <c r="BH64" s="87"/>
+      <c r="BE64" s="108" t="s">
+        <v>664</v>
+      </c>
+      <c r="BF64" s="108">
+        <v>-160</v>
+      </c>
+      <c r="BG64" s="108"/>
+      <c r="BH64" s="108"/>
       <c r="BI64" s="17">
         <v>62</v>
       </c>
@@ -32147,19 +32223,19 @@
       <c r="BU64" s="110"/>
       <c r="BV64" s="110"/>
       <c r="BW64" s="110"/>
-      <c r="BX64" s="108">
+      <c r="BX64" s="17">
         <v>62</v>
       </c>
-      <c r="BY64" s="108" t="s">
+      <c r="BY64" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="BZ64" s="108">
+      <c r="BZ64" s="17">
         <v>-175</v>
       </c>
-      <c r="CA64" s="108"/>
-      <c r="CB64" s="108"/>
+      <c r="CA64" s="17"/>
+      <c r="CB64" s="17"/>
     </row>
-    <row r="65" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80" ht="16.5" thickBot="1">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -32187,22 +32263,20 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="37"/>
-      <c r="P65" s="39">
+      <c r="P65" s="219">
         <v>63</v>
       </c>
-      <c r="Q65" s="39" t="s">
+      <c r="Q65" s="219" t="s">
         <v>801</v>
       </c>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
+      <c r="R65" s="219">
+        <v>-190</v>
+      </c>
+      <c r="S65" s="219"/>
+      <c r="T65" s="219"/>
       <c r="U65" s="42">
         <v>63</v>
       </c>
-      <c r="V65" s="44" t="s">
-        <v>780</v>
-      </c>
-      <c r="W65" s="44"/>
       <c r="X65" s="44"/>
       <c r="Y65" s="44"/>
       <c r="Z65" s="16">
@@ -32246,10 +32320,10 @@
         <v>63</v>
       </c>
       <c r="AU65" s="108" t="s">
-        <v>780</v>
+        <v>667</v>
       </c>
       <c r="AV65" s="108">
-        <v>-600</v>
+        <v>-750</v>
       </c>
       <c r="AW65" s="108"/>
       <c r="AX65" s="108"/>
@@ -32278,17 +32352,17 @@
       </c>
       <c r="BL65" s="17"/>
       <c r="BM65" s="17"/>
-      <c r="BN65" s="108">
+      <c r="BN65" s="17">
         <v>63</v>
       </c>
-      <c r="BO65" s="108" t="s">
+      <c r="BO65" s="17" t="s">
         <v>1124</v>
       </c>
-      <c r="BP65" s="108">
+      <c r="BP65" s="17">
         <v>-190</v>
       </c>
-      <c r="BQ65" s="108"/>
-      <c r="BR65" s="108"/>
+      <c r="BQ65" s="17"/>
+      <c r="BR65" s="17"/>
       <c r="BS65" s="109">
         <v>63</v>
       </c>
@@ -32296,15 +32370,19 @@
       <c r="BU65" s="110"/>
       <c r="BV65" s="110"/>
       <c r="BW65" s="110"/>
-      <c r="BX65" s="86">
+      <c r="BX65" s="108">
         <v>63</v>
       </c>
-      <c r="BY65" s="86"/>
-      <c r="BZ65" s="86"/>
-      <c r="CA65" s="86"/>
-      <c r="CB65" s="86"/>
+      <c r="BY65" s="108" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BZ65" s="108">
+        <v>-190</v>
+      </c>
+      <c r="CA65" s="108"/>
+      <c r="CB65" s="108"/>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80" ht="15.75" thickBot="1">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -32350,15 +32428,17 @@
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
       <c r="Y66" s="44"/>
-      <c r="Z66" s="49">
+      <c r="Z66" s="222">
         <v>64</v>
       </c>
-      <c r="AA66" s="118" t="s">
+      <c r="AA66" s="223" t="s">
         <v>1076</v>
       </c>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
+      <c r="AB66" s="222">
+        <v>-60</v>
+      </c>
+      <c r="AC66" s="222"/>
+      <c r="AD66" s="222"/>
       <c r="AE66" s="57">
         <v>64</v>
       </c>
@@ -32403,13 +32483,17 @@
       <c r="BF66" s="87"/>
       <c r="BG66" s="87"/>
       <c r="BH66" s="87"/>
-      <c r="BI66" s="110">
+      <c r="BI66" s="108">
         <v>64</v>
       </c>
-      <c r="BJ66" s="110"/>
-      <c r="BK66" s="110"/>
-      <c r="BL66" s="110"/>
-      <c r="BM66" s="110"/>
+      <c r="BJ66" s="224" t="s">
+        <v>1128</v>
+      </c>
+      <c r="BK66" s="108">
+        <v>-175</v>
+      </c>
+      <c r="BL66" s="108"/>
+      <c r="BM66" s="108"/>
       <c r="BN66" s="121">
         <v>64</v>
       </c>
@@ -32432,7 +32516,7 @@
       <c r="CA66" s="86"/>
       <c r="CB66" s="86"/>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -32560,7 +32644,7 @@
       <c r="CA67" s="86"/>
       <c r="CB67" s="86"/>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80">
       <c r="A68" s="19">
         <v>66</v>
       </c>
@@ -32688,7 +32772,7 @@
       <c r="CA68" s="86"/>
       <c r="CB68" s="86"/>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -32816,7 +32900,7 @@
       <c r="CA69" s="86"/>
       <c r="CB69" s="86"/>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -32944,7 +33028,7 @@
       <c r="CA70" s="86"/>
       <c r="CB70" s="86"/>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -33072,7 +33156,7 @@
       <c r="CA71" s="86"/>
       <c r="CB71" s="86"/>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80">
       <c r="A72" s="19">
         <v>70</v>
       </c>
@@ -33200,7 +33284,7 @@
       <c r="CA72" s="86"/>
       <c r="CB72" s="86"/>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -33328,7 +33412,7 @@
       <c r="CA73" s="86"/>
       <c r="CB73" s="86"/>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80">
       <c r="A74" s="19">
         <v>72</v>
       </c>
@@ -33456,7 +33540,7 @@
       <c r="CA74" s="86"/>
       <c r="CB74" s="86"/>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -33584,7 +33668,7 @@
       <c r="CA75" s="86"/>
       <c r="CB75" s="86"/>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80">
       <c r="A76" s="19">
         <v>74</v>
       </c>
@@ -33712,7 +33796,7 @@
       <c r="CA76" s="86"/>
       <c r="CB76" s="86"/>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -33840,7 +33924,7 @@
       <c r="CA77" s="86"/>
       <c r="CB77" s="86"/>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80">
       <c r="A78" s="19">
         <v>76</v>
       </c>
@@ -33968,7 +34052,7 @@
       <c r="CA78" s="86"/>
       <c r="CB78" s="86"/>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -34096,7 +34180,7 @@
       <c r="CA79" s="86"/>
       <c r="CB79" s="86"/>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80">
       <c r="A80" s="19">
         <v>78</v>
       </c>
@@ -34224,7 +34308,7 @@
       <c r="CA80" s="86"/>
       <c r="CB80" s="86"/>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -34352,7 +34436,7 @@
       <c r="CA81" s="86"/>
       <c r="CB81" s="86"/>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:81">
       <c r="A82" s="19">
         <v>80</v>
       </c>
@@ -34480,7 +34564,7 @@
       <c r="CA82" s="86"/>
       <c r="CB82" s="86"/>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -34608,7 +34692,7 @@
       <c r="CA83" s="86"/>
       <c r="CB83" s="86"/>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81">
       <c r="A84" s="114">
         <v>82</v>
       </c>
@@ -34736,7 +34820,7 @@
       <c r="CA84" s="86"/>
       <c r="CB84" s="86"/>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:81">
       <c r="A85" s="115" t="s">
         <v>738</v>
       </c>
@@ -34756,7 +34840,7 @@
       <c r="G85" s="116"/>
       <c r="H85" s="116">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-8689</v>
+        <v>-8901</v>
       </c>
       <c r="I85" s="117">
         <f t="shared" si="0"/>
@@ -34782,7 +34866,7 @@
       <c r="Q85" s="116"/>
       <c r="R85" s="116">
         <f t="shared" ref="R85:S85" si="2">SUM(R3:R84)</f>
-        <v>-8810</v>
+        <v>-9000</v>
       </c>
       <c r="S85" s="117">
         <f t="shared" si="2"/>
@@ -34795,7 +34879,7 @@
       <c r="V85" s="116"/>
       <c r="W85" s="116">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-25456</v>
+        <v>-26056</v>
       </c>
       <c r="X85" s="117">
         <f t="shared" si="3"/>
@@ -34808,7 +34892,7 @@
       <c r="AA85" s="116"/>
       <c r="AB85" s="116">
         <f t="shared" ref="AB85:AC85" si="4">SUM(AB3:AB84)</f>
-        <v>-7567</v>
+        <v>-7627</v>
       </c>
       <c r="AC85" s="117">
         <f t="shared" si="4"/>
@@ -34821,7 +34905,7 @@
       <c r="AF85" s="116"/>
       <c r="AG85" s="116">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-11081</v>
+        <v>-11256</v>
       </c>
       <c r="AH85" s="117">
         <f t="shared" si="5"/>
@@ -34834,7 +34918,7 @@
       <c r="AK85" s="116"/>
       <c r="AL85" s="116">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-6100</v>
+        <v>-6312</v>
       </c>
       <c r="AM85" s="117">
         <f t="shared" si="6"/>
@@ -34860,7 +34944,7 @@
       <c r="AU85" s="116"/>
       <c r="AV85" s="116">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-14215</v>
+        <v>-14365</v>
       </c>
       <c r="AW85" s="117">
         <f t="shared" si="8"/>
@@ -34873,7 +34957,7 @@
       <c r="AZ85" s="116"/>
       <c r="BA85" s="116">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-20741</v>
+        <v>-20806</v>
       </c>
       <c r="BB85" s="117">
         <f t="shared" si="9"/>
@@ -34886,11 +34970,11 @@
       <c r="BE85" s="116"/>
       <c r="BF85" s="116">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-40797</v>
+        <v>-40957</v>
       </c>
       <c r="BG85" s="117">
         <f t="shared" si="10"/>
-        <v>1163</v>
+        <v>1564</v>
       </c>
       <c r="BH85" s="116"/>
       <c r="BI85" s="115" t="s">
@@ -34899,7 +34983,7 @@
       <c r="BJ85" s="116"/>
       <c r="BK85" s="116">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-12702</v>
+        <v>-12877</v>
       </c>
       <c r="BL85" s="117">
         <f t="shared" si="11"/>
@@ -34925,7 +35009,7 @@
       <c r="BT85" s="116"/>
       <c r="BU85" s="116">
         <f t="shared" ref="BU85:BV85" si="13">SUM(BU3:BU84)</f>
-        <v>-10077</v>
+        <v>-10289</v>
       </c>
       <c r="BV85" s="117">
         <f t="shared" si="13"/>
@@ -34938,7 +35022,7 @@
       <c r="BY85" s="116"/>
       <c r="BZ85" s="116">
         <f t="shared" ref="BZ85:CA85" si="14">SUM(BZ3:BZ84)</f>
-        <v>-7372</v>
+        <v>-7562</v>
       </c>
       <c r="CA85" s="117">
         <f t="shared" si="14"/>
@@ -34949,30 +35033,30 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="218" t="s">
+    <row r="95" spans="1:81">
+      <c r="G95" s="225" t="s">
         <v>739</v>
       </c>
-      <c r="H95" s="218">
+      <c r="H95" s="225">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>34311</v>
-      </c>
-      <c r="I95" s="218"/>
+        <v>34712</v>
+      </c>
+      <c r="I95" s="225"/>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="218"/>
-      <c r="H96" s="218"/>
-      <c r="I96" s="218"/>
+    <row r="96" spans="1:81">
+      <c r="G96" s="225"/>
+      <c r="H96" s="225"/>
+      <c r="I96" s="225"/>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="218"/>
-      <c r="H97" s="218"/>
-      <c r="I97" s="218"/>
+    <row r="97" spans="7:9">
+      <c r="G97" s="225"/>
+      <c r="H97" s="225"/>
+      <c r="I97" s="225"/>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="218"/>
-      <c r="H98" s="218"/>
-      <c r="I98" s="218"/>
+    <row r="98" spans="7:9">
+      <c r="G98" s="225"/>
+      <c r="H98" s="225"/>
+      <c r="I98" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34980,31 +35064,42 @@
     <mergeCell ref="H95:I98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="219" t="s">
+    <row r="1" spans="5:14" ht="15.75">
+      <c r="E1" s="226" t="s">
         <v>1120</v>
       </c>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
+      <c r="K1" s="226" t="s">
+        <v>1129</v>
+      </c>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="2">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="2" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14" ht="15.75">
       <c r="E2" s="1" t="s">
         <v>1121</v>
       </c>
@@ -35017,8 +35112,20 @@
       <c r="H2" s="1" t="s">
         <v>1123</v>
       </c>
+      <c r="K2" s="221" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L2" s="221" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="221" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N2" s="221" t="s">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:14">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -35033,8 +35140,22 @@
         <f>G3-F3</f>
         <v>156</v>
       </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>200</v>
+      </c>
+      <c r="M3" s="3">
+        <f>$N$1 *$L3</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="N3" s="3">
+        <f>M3-SUM($L$3,)</f>
+        <v>680.00000000000011</v>
+      </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:14">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -35049,8 +35170,22 @@
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>300</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M21" si="0">$N$1 *$L4</f>
+        <v>1320</v>
+      </c>
+      <c r="N4" s="3">
+        <f>M4-SUM($L$3:L4)</f>
+        <v>820</v>
+      </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:14">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -35058,15 +35193,29 @@
         <v>75</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G23" si="0">$H$1*F5</f>
+        <f t="shared" ref="G5:G23" si="1">$H$1*F5</f>
         <v>270</v>
       </c>
       <c r="H5" s="3">
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>400</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="N5" s="3">
+        <f>M5-SUM($L$3:L5)</f>
+        <v>860.00000000000023</v>
+      </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:14">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -35074,15 +35223,29 @@
         <v>90</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H6" s="3">
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>500</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="N6" s="3">
+        <f>M6-SUM($L$3:L6)</f>
+        <v>800</v>
+      </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -35090,15 +35253,29 @@
         <v>112</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>403.2</v>
       </c>
       <c r="H7" s="3">
         <f>G7-SUM($F$3:F7)</f>
         <v>1.1999999999999886</v>
       </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>600</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="N7" s="3">
+        <f>M7-SUM($L$3:L7)</f>
+        <v>640</v>
+      </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:14">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -35106,15 +35283,29 @@
         <v>155</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>558</v>
       </c>
       <c r="H8" s="3">
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>3080.0000000000005</v>
+      </c>
+      <c r="N8" s="3">
+        <f>M8-SUM($L$3:L8)</f>
+        <v>380.00000000000045</v>
+      </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:14">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -35122,15 +35313,29 @@
         <v>215</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>774</v>
       </c>
       <c r="H9" s="3">
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <v>875</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="N9" s="3">
+        <f>M9-SUM($L$3:L9)</f>
+        <v>275.00000000000045</v>
+      </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:14">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -35138,15 +35343,29 @@
         <v>298</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1072.8</v>
       </c>
       <c r="H10" s="3">
         <f>G10-SUM($F$3:F10)</f>
         <v>2.7999999999999545</v>
       </c>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1100</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>4840</v>
+      </c>
+      <c r="N10" s="3">
+        <f>M10-SUM($L$3:L10)</f>
+        <v>165</v>
+      </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:14">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -35154,15 +35373,29 @@
         <v>415</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1494</v>
       </c>
       <c r="H11" s="3">
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1450</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>6380.0000000000009</v>
+      </c>
+      <c r="N11" s="3">
+        <f>M11-SUM($L$3:L11)</f>
+        <v>255.00000000000091</v>
+      </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:14">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -35170,15 +35403,29 @@
         <v>572</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2059.2000000000003</v>
       </c>
       <c r="H12" s="3">
         <f>G12-SUM($F$3:F12)</f>
         <v>2.2000000000002728</v>
       </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1805</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>7942.0000000000009</v>
+      </c>
+      <c r="N12" s="3">
+        <f>M12-SUM($L$3:L12)</f>
+        <v>12.000000000000909</v>
+      </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:14">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -35186,15 +35433,29 @@
         <v>792</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2851.2000000000003</v>
       </c>
       <c r="H13" s="3">
         <f>G13-SUM($F$3:F13)</f>
         <v>2.2000000000002728</v>
       </c>
+      <c r="K13" s="3">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2350</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>10340</v>
+      </c>
+      <c r="N13" s="3">
+        <f>M13-SUM($L$3:L13)</f>
+        <v>60</v>
+      </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:14">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -35202,15 +35463,29 @@
         <v>1098</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3952.8</v>
       </c>
       <c r="H14" s="3">
         <f>G14-SUM($F$3:F14)</f>
         <v>5.8000000000001819</v>
       </c>
+      <c r="K14" s="3">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3045</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>13398.000000000002</v>
+      </c>
+      <c r="N14" s="3">
+        <f>M14-SUM($L$3:L14)</f>
+        <v>73.000000000001819</v>
+      </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:14">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -35218,15 +35493,29 @@
         <v>1520</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5472</v>
       </c>
       <c r="H15" s="3">
         <f>G15-SUM($F$3:F15)</f>
         <v>5</v>
       </c>
+      <c r="K15" s="3">
+        <v>13</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3950</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="0"/>
+        <v>17380</v>
+      </c>
+      <c r="N15" s="3">
+        <f>M15-SUM($L$3:L15)</f>
+        <v>105</v>
+      </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:14">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -35234,15 +35523,29 @@
         <v>2105</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7578</v>
       </c>
       <c r="H16" s="3">
         <f>G16-SUM($F$3:F16)</f>
         <v>6</v>
       </c>
+      <c r="K16" s="3">
+        <v>14</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="N16" s="3">
+        <f>M16-SUM($L$3:L16)</f>
+        <v>-275</v>
+      </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -35250,15 +35553,29 @@
         <v>2915</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10494</v>
       </c>
       <c r="H17" s="3">
         <f>G17-SUM($F$3:F17)</f>
         <v>7</v>
       </c>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7000</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="0"/>
+        <v>30800.000000000004</v>
+      </c>
+      <c r="N17" s="3">
+        <f>M17-SUM($L$3:L17)</f>
+        <v>1525.0000000000036</v>
+      </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -35266,15 +35583,29 @@
         <v>4035</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14526</v>
       </c>
       <c r="H18" s="3">
         <f>G18-SUM($F$3:F18)</f>
         <v>4</v>
       </c>
+      <c r="K18" s="3">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9000</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="0"/>
+        <v>39600</v>
+      </c>
+      <c r="N18" s="3">
+        <f>M18-SUM($L$3:L18)</f>
+        <v>1325</v>
+      </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -35282,15 +35613,29 @@
         <v>5585</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20106</v>
       </c>
       <c r="H19" s="3">
         <f>G19-SUM($F$3:F19)</f>
         <v>-1</v>
       </c>
+      <c r="K19" s="3">
+        <v>17</v>
+      </c>
+      <c r="L19" s="4">
+        <v>11000</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="0"/>
+        <v>48400.000000000007</v>
+      </c>
+      <c r="N19" s="3">
+        <f>M19-SUM($L$3:L19)</f>
+        <v>-874.99999999999272</v>
+      </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -35298,15 +35643,29 @@
         <v>7735</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27846</v>
       </c>
       <c r="H20" s="3">
         <f>G20-SUM($F$3:F20)</f>
         <v>4</v>
       </c>
+      <c r="K20" s="3">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4">
+        <v>15000</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="N20" s="3">
+        <f>M20-SUM($L$3:L20)</f>
+        <v>1725</v>
+      </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -35314,15 +35673,29 @@
         <v>10710</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38556</v>
       </c>
       <c r="H21" s="3">
         <f>G21-SUM($F$3:F21)</f>
         <v>4</v>
       </c>
+      <c r="K21" s="3">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+      <c r="N21" s="3">
+        <f>M21-SUM($L$3:L21)</f>
+        <v>3725</v>
+      </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -35330,15 +35703,21 @@
         <v>14830</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53388</v>
       </c>
       <c r="H22" s="3">
         <f>G22-SUM($F$3:F22)</f>
         <v>6</v>
       </c>
+      <c r="K22" s="3">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -35346,15 +35725,21 @@
         <v>20850</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75060</v>
       </c>
       <c r="H23" s="3">
         <f>G23-SUM($F$3:F23)</f>
         <v>828</v>
       </c>
+      <c r="K23" s="3">
+        <v>21</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -35364,8 +35749,14 @@
         <f>G24-SUM($F$3:F24)</f>
         <v>-74232</v>
       </c>
+      <c r="K24" s="3">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -35375,8 +35766,14 @@
         <f>G25-SUM($F$3:F25)</f>
         <v>-74232</v>
       </c>
+      <c r="K25" s="3">
+        <v>23</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14">
       <c r="E26" s="3">
         <v>24</v>
       </c>
@@ -35386,10 +35783,17 @@
         <f>G26-SUM($F$3:F26)</f>
         <v>-74232</v>
       </c>
+      <c r="K26" s="3">
+        <v>24</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
     <sheet name="Запад" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1130">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3437,8 +3442,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3809,7 +3814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -4636,6 +4641,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4643,7 +4659,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5021,9 +5037,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="62" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Акцент4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -5098,7 +5116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5130,9 +5148,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5164,6 +5183,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5339,14 +5359,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF64" sqref="AF64:AJ64"/>
+    <sheetView tabSelected="1" topLeftCell="AT46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ62" sqref="AZ62:BD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
@@ -5367,7 +5387,7 @@
     <col min="78" max="78" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="17.25" customHeight="1">
+    <row r="1" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
@@ -5545,7 +5565,7 @@
       <c r="CB1" s="206"/>
       <c r="CC1" s="206"/>
     </row>
-    <row r="2" spans="2:81" ht="17.25" customHeight="1">
+    <row r="2" spans="2:81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="128" t="s">
         <v>4</v>
       </c>
@@ -5691,7 +5711,7 @@
       <c r="CB2" s="206"/>
       <c r="CC2" s="206"/>
     </row>
-    <row r="3" spans="2:81" ht="15.75">
+    <row r="3" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="130">
         <v>1</v>
       </c>
@@ -5875,7 +5895,7 @@
       <c r="CB3" s="130"/>
       <c r="CC3" s="130"/>
     </row>
-    <row r="4" spans="2:81" ht="15.75">
+    <row r="4" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="73">
         <v>2</v>
       </c>
@@ -6062,7 +6082,7 @@
       </c>
       <c r="CC4" s="133"/>
     </row>
-    <row r="5" spans="2:81" ht="15.75">
+    <row r="5" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="73">
         <v>3</v>
       </c>
@@ -6246,7 +6266,7 @@
       <c r="CB5" s="73"/>
       <c r="CC5" s="73"/>
     </row>
-    <row r="6" spans="2:81" ht="15.75">
+    <row r="6" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="73">
         <v>4</v>
       </c>
@@ -6436,7 +6456,7 @@
       </c>
       <c r="CC6" s="133"/>
     </row>
-    <row r="7" spans="2:81" ht="15.75">
+    <row r="7" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="73">
         <v>5</v>
       </c>
@@ -6625,7 +6645,7 @@
       <c r="CB7" s="73"/>
       <c r="CC7" s="73"/>
     </row>
-    <row r="8" spans="2:81" ht="15.75">
+    <row r="8" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="73">
         <v>6</v>
       </c>
@@ -6812,7 +6832,7 @@
       <c r="CB8" s="73"/>
       <c r="CC8" s="73"/>
     </row>
-    <row r="9" spans="2:81" ht="15.75">
+    <row r="9" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="133">
         <v>7</v>
       </c>
@@ -7005,7 +7025,7 @@
       </c>
       <c r="CC9" s="133"/>
     </row>
-    <row r="10" spans="2:81" ht="15.75">
+    <row r="10" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="73">
         <v>8</v>
       </c>
@@ -7201,7 +7221,7 @@
       <c r="CB10" s="73"/>
       <c r="CC10" s="73"/>
     </row>
-    <row r="11" spans="2:81" ht="15.75">
+    <row r="11" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="133">
         <v>9</v>
       </c>
@@ -7394,7 +7414,7 @@
       <c r="CB11" s="73"/>
       <c r="CC11" s="73"/>
     </row>
-    <row r="12" spans="2:81" ht="15.75">
+    <row r="12" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="133">
         <v>10</v>
       </c>
@@ -7584,7 +7604,7 @@
       <c r="CB12" s="73"/>
       <c r="CC12" s="73"/>
     </row>
-    <row r="13" spans="2:81" ht="15.75">
+    <row r="13" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="73">
         <v>11</v>
       </c>
@@ -7771,7 +7791,7 @@
       </c>
       <c r="CC13" s="132"/>
     </row>
-    <row r="14" spans="2:81" ht="15.75">
+    <row r="14" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="73">
         <v>12</v>
       </c>
@@ -7967,7 +7987,7 @@
       <c r="CB14" s="73"/>
       <c r="CC14" s="73"/>
     </row>
-    <row r="15" spans="2:81" ht="15.75">
+    <row r="15" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="73">
         <v>13</v>
       </c>
@@ -8154,7 +8174,7 @@
       <c r="CB15" s="73"/>
       <c r="CC15" s="73"/>
     </row>
-    <row r="16" spans="2:81" ht="15.75">
+    <row r="16" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="133">
         <v>14</v>
       </c>
@@ -8350,7 +8370,7 @@
       <c r="CB16" s="73"/>
       <c r="CC16" s="73"/>
     </row>
-    <row r="17" spans="2:81" ht="15.75">
+    <row r="17" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="73">
         <v>15</v>
       </c>
@@ -8537,7 +8557,7 @@
       <c r="CB17" s="73"/>
       <c r="CC17" s="73"/>
     </row>
-    <row r="18" spans="2:81" ht="15.75">
+    <row r="18" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="73">
         <v>16</v>
       </c>
@@ -8723,7 +8743,7 @@
       </c>
       <c r="CC18" s="132"/>
     </row>
-    <row r="19" spans="2:81" ht="15.75">
+    <row r="19" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="133">
         <v>17</v>
       </c>
@@ -8913,7 +8933,7 @@
       <c r="CB19" s="73"/>
       <c r="CC19" s="73"/>
     </row>
-    <row r="20" spans="2:81" ht="15.75">
+    <row r="20" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="73">
         <v>18</v>
       </c>
@@ -9094,7 +9114,7 @@
       <c r="CB20" s="73"/>
       <c r="CC20" s="73"/>
     </row>
-    <row r="21" spans="2:81" ht="15.75">
+    <row r="21" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="73">
         <v>19</v>
       </c>
@@ -9278,7 +9298,7 @@
       <c r="CB21" s="73"/>
       <c r="CC21" s="73"/>
     </row>
-    <row r="22" spans="2:81" ht="15.75">
+    <row r="22" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="73">
         <v>20</v>
       </c>
@@ -9464,7 +9484,7 @@
       <c r="CB22" s="73"/>
       <c r="CC22" s="73"/>
     </row>
-    <row r="23" spans="2:81" ht="15.75">
+    <row r="23" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="73">
         <v>21</v>
       </c>
@@ -9654,7 +9674,7 @@
       <c r="CB23" s="73"/>
       <c r="CC23" s="73"/>
     </row>
-    <row r="24" spans="2:81" ht="15.75">
+    <row r="24" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="73">
         <v>22</v>
       </c>
@@ -9843,7 +9863,7 @@
       <c r="CB24" s="73"/>
       <c r="CC24" s="73"/>
     </row>
-    <row r="25" spans="2:81" ht="15.75">
+    <row r="25" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="133">
         <v>23</v>
       </c>
@@ -10036,7 +10056,7 @@
       </c>
       <c r="CC25" s="132"/>
     </row>
-    <row r="26" spans="2:81" ht="15.75">
+    <row r="26" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="73">
         <v>24</v>
       </c>
@@ -10226,7 +10246,7 @@
       <c r="CB26" s="73"/>
       <c r="CC26" s="73"/>
     </row>
-    <row r="27" spans="2:81" ht="15.75">
+    <row r="27" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="73">
         <v>25</v>
       </c>
@@ -10413,7 +10433,7 @@
       <c r="CB27" s="73"/>
       <c r="CC27" s="73"/>
     </row>
-    <row r="28" spans="2:81" ht="15.75">
+    <row r="28" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="73">
         <v>26</v>
       </c>
@@ -10597,7 +10617,7 @@
       </c>
       <c r="CC28" s="133"/>
     </row>
-    <row r="29" spans="2:81" ht="15.75">
+    <row r="29" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="133">
         <v>27</v>
       </c>
@@ -10793,7 +10813,7 @@
       <c r="CB29" s="73"/>
       <c r="CC29" s="73"/>
     </row>
-    <row r="30" spans="2:81" ht="15.75">
+    <row r="30" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="133">
         <v>28</v>
       </c>
@@ -10986,7 +11006,7 @@
       </c>
       <c r="CC30" s="133"/>
     </row>
-    <row r="31" spans="2:81" ht="15.75">
+    <row r="31" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="133">
         <v>29</v>
       </c>
@@ -11185,7 +11205,7 @@
       </c>
       <c r="CC31" s="133"/>
     </row>
-    <row r="32" spans="2:81" ht="15.75">
+    <row r="32" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="133">
         <v>30</v>
       </c>
@@ -11374,7 +11394,7 @@
       </c>
       <c r="CC32" s="133"/>
     </row>
-    <row r="33" spans="2:81" ht="15.75">
+    <row r="33" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="73">
         <v>31</v>
       </c>
@@ -11570,7 +11590,7 @@
       </c>
       <c r="CC33" s="133"/>
     </row>
-    <row r="34" spans="2:81" ht="15.75">
+    <row r="34" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="73">
         <v>32</v>
       </c>
@@ -11758,7 +11778,7 @@
       <c r="CB34" s="73"/>
       <c r="CC34" s="73"/>
     </row>
-    <row r="35" spans="2:81" ht="15.75">
+    <row r="35" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="73">
         <v>33</v>
       </c>
@@ -11951,7 +11971,7 @@
       <c r="CB35" s="73"/>
       <c r="CC35" s="73"/>
     </row>
-    <row r="36" spans="2:81" ht="15.75">
+    <row r="36" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="73">
         <v>34</v>
       </c>
@@ -12135,7 +12155,7 @@
       </c>
       <c r="CC36" s="133"/>
     </row>
-    <row r="37" spans="2:81" ht="15.75">
+    <row r="37" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="73">
         <v>35</v>
       </c>
@@ -12322,7 +12342,7 @@
       <c r="CB37" s="73"/>
       <c r="CC37" s="73"/>
     </row>
-    <row r="38" spans="2:81" ht="15.75">
+    <row r="38" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="73">
         <v>36</v>
       </c>
@@ -12509,7 +12529,7 @@
       <c r="CB38" s="73"/>
       <c r="CC38" s="73"/>
     </row>
-    <row r="39" spans="2:81" ht="15.75">
+    <row r="39" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="73">
         <v>37</v>
       </c>
@@ -12696,7 +12716,7 @@
       <c r="CB39" s="73"/>
       <c r="CC39" s="73"/>
     </row>
-    <row r="40" spans="2:81" ht="15.75">
+    <row r="40" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="73">
         <v>38</v>
       </c>
@@ -12883,7 +12903,7 @@
       <c r="CB40" s="73"/>
       <c r="CC40" s="73"/>
     </row>
-    <row r="41" spans="2:81" ht="15.75">
+    <row r="41" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="133">
         <v>39</v>
       </c>
@@ -13076,7 +13096,7 @@
       <c r="CB41" s="73"/>
       <c r="CC41" s="73"/>
     </row>
-    <row r="42" spans="2:81" ht="15.75">
+    <row r="42" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="133">
         <v>40</v>
       </c>
@@ -13269,7 +13289,7 @@
       <c r="CB42" s="73"/>
       <c r="CC42" s="73"/>
     </row>
-    <row r="43" spans="2:81" ht="15.75">
+    <row r="43" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="133">
         <v>41</v>
       </c>
@@ -13472,7 +13492,7 @@
       <c r="CB43" s="73"/>
       <c r="CC43" s="73"/>
     </row>
-    <row r="44" spans="2:81" ht="15.75">
+    <row r="44" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="133">
         <v>42</v>
       </c>
@@ -13667,7 +13687,7 @@
       <c r="CB44" s="73"/>
       <c r="CC44" s="73"/>
     </row>
-    <row r="45" spans="2:81" ht="15.75">
+    <row r="45" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="73">
         <v>43</v>
       </c>
@@ -13850,7 +13870,7 @@
       <c r="CB45" s="73"/>
       <c r="CC45" s="73"/>
     </row>
-    <row r="46" spans="2:81" ht="15.75">
+    <row r="46" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="73">
         <v>44</v>
       </c>
@@ -14040,7 +14060,7 @@
       <c r="CB46" s="73"/>
       <c r="CC46" s="73"/>
     </row>
-    <row r="47" spans="2:81" ht="15.75">
+    <row r="47" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="73">
         <v>45</v>
       </c>
@@ -14227,7 +14247,7 @@
       <c r="CB47" s="73"/>
       <c r="CC47" s="73"/>
     </row>
-    <row r="48" spans="2:81" ht="15.75">
+    <row r="48" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="73">
         <v>46</v>
       </c>
@@ -14417,7 +14437,7 @@
       <c r="CB48" s="73"/>
       <c r="CC48" s="73"/>
     </row>
-    <row r="49" spans="2:81" ht="15.75">
+    <row r="49" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="73">
         <v>47</v>
       </c>
@@ -14604,7 +14624,7 @@
       </c>
       <c r="CC49" s="133"/>
     </row>
-    <row r="50" spans="2:81" ht="15.75">
+    <row r="50" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="133">
         <v>48</v>
       </c>
@@ -14791,7 +14811,7 @@
       <c r="CB50" s="73"/>
       <c r="CC50" s="73"/>
     </row>
-    <row r="51" spans="2:81" ht="15.75">
+    <row r="51" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="73">
         <v>49</v>
       </c>
@@ -14978,7 +14998,7 @@
       <c r="CB51" s="73"/>
       <c r="CC51" s="73"/>
     </row>
-    <row r="52" spans="2:81" ht="15.75">
+    <row r="52" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="73">
         <v>50</v>
       </c>
@@ -15165,7 +15185,7 @@
       <c r="CB52" s="73"/>
       <c r="CC52" s="73"/>
     </row>
-    <row r="53" spans="2:81" ht="15.75">
+    <row r="53" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="73">
         <v>51</v>
       </c>
@@ -15352,7 +15372,7 @@
       </c>
       <c r="CC53" s="133"/>
     </row>
-    <row r="54" spans="2:81" ht="15.75">
+    <row r="54" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="73">
         <v>52</v>
       </c>
@@ -15538,7 +15558,7 @@
       <c r="CB54" s="73"/>
       <c r="CC54" s="73"/>
     </row>
-    <row r="55" spans="2:81" ht="15.75">
+    <row r="55" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="133">
         <v>53</v>
       </c>
@@ -15731,7 +15751,7 @@
       <c r="CB55" s="73"/>
       <c r="CC55" s="73"/>
     </row>
-    <row r="56" spans="2:81" ht="15.75">
+    <row r="56" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="73">
         <v>54</v>
       </c>
@@ -15920,7 +15940,7 @@
       <c r="CB56" s="73"/>
       <c r="CC56" s="73"/>
     </row>
-    <row r="57" spans="2:81" ht="15.75">
+    <row r="57" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="133">
         <v>55</v>
       </c>
@@ -16117,7 +16137,7 @@
       <c r="CB57" s="73"/>
       <c r="CC57" s="73"/>
     </row>
-    <row r="58" spans="2:81" ht="15.75">
+    <row r="58" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="133">
         <v>56</v>
       </c>
@@ -16312,7 +16332,7 @@
       </c>
       <c r="CC58" s="133"/>
     </row>
-    <row r="59" spans="2:81" ht="15.75">
+    <row r="59" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="133">
         <v>57</v>
       </c>
@@ -16495,7 +16515,7 @@
       <c r="CB59" s="73"/>
       <c r="CC59" s="73"/>
     </row>
-    <row r="60" spans="2:81" ht="15.75">
+    <row r="60" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="133">
         <v>58</v>
       </c>
@@ -16691,7 +16711,7 @@
       <c r="CB60" s="73"/>
       <c r="CC60" s="73"/>
     </row>
-    <row r="61" spans="2:81" ht="15.75">
+    <row r="61" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="133">
         <v>59</v>
       </c>
@@ -16872,7 +16892,7 @@
       <c r="CB61" s="73"/>
       <c r="CC61" s="73"/>
     </row>
-    <row r="62" spans="2:81" ht="15.75">
+    <row r="62" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="133">
         <v>60</v>
       </c>
@@ -16994,13 +17014,17 @@
       </c>
       <c r="AX62" s="73"/>
       <c r="AY62" s="73"/>
-      <c r="AZ62" s="191">
+      <c r="AZ62" s="218">
         <v>60</v>
       </c>
-      <c r="BA62" s="191"/>
-      <c r="BB62" s="191"/>
-      <c r="BC62" s="191"/>
-      <c r="BD62" s="191"/>
+      <c r="BA62" s="218" t="s">
+        <v>1069</v>
+      </c>
+      <c r="BB62" s="218">
+        <v>-212</v>
+      </c>
+      <c r="BC62" s="218"/>
+      <c r="BD62" s="218"/>
       <c r="BE62" s="73">
         <v>60</v>
       </c>
@@ -17060,7 +17084,7 @@
       <c r="CB62" s="73"/>
       <c r="CC62" s="73"/>
     </row>
-    <row r="63" spans="2:81" ht="15.75">
+    <row r="63" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="73">
         <v>61</v>
       </c>
@@ -17234,7 +17258,7 @@
       <c r="CB63" s="209"/>
       <c r="CC63" s="209"/>
     </row>
-    <row r="64" spans="2:81" ht="15.75">
+    <row r="64" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="73">
         <v>62</v>
       </c>
@@ -17277,13 +17301,17 @@
       </c>
       <c r="T64" s="218"/>
       <c r="U64" s="218"/>
-      <c r="V64" s="154">
+      <c r="V64" s="218">
         <v>62</v>
       </c>
-      <c r="W64" s="154"/>
-      <c r="X64" s="154"/>
-      <c r="Y64" s="154"/>
-      <c r="Z64" s="154"/>
+      <c r="W64" s="218" t="s">
+        <v>1075</v>
+      </c>
+      <c r="X64" s="218">
+        <v>-190</v>
+      </c>
+      <c r="Y64" s="218"/>
+      <c r="Z64" s="218"/>
       <c r="AA64" s="73">
         <v>62</v>
       </c>
@@ -17376,15 +17404,17 @@
         <v>181</v>
       </c>
       <c r="BS64" s="133"/>
-      <c r="BT64" s="204">
+      <c r="BT64" s="218">
         <v>62</v>
       </c>
-      <c r="BU64" s="204" t="s">
+      <c r="BU64" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="BV64" s="204"/>
-      <c r="BW64" s="204"/>
-      <c r="BX64" s="204"/>
+      <c r="BV64" s="218">
+        <v>-165</v>
+      </c>
+      <c r="BW64" s="218"/>
+      <c r="BX64" s="218"/>
       <c r="BY64" s="209">
         <v>62</v>
       </c>
@@ -17395,7 +17425,7 @@
       <c r="CB64" s="209"/>
       <c r="CC64" s="209"/>
     </row>
-    <row r="65" spans="2:81" ht="15.75">
+    <row r="65" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="73">
         <v>63</v>
       </c>
@@ -17407,15 +17437,17 @@
       </c>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
-      <c r="G65" s="212">
+      <c r="G65" s="218">
         <v>63</v>
       </c>
-      <c r="H65" s="212" t="s">
+      <c r="H65" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="I65" s="212"/>
-      <c r="J65" s="212"/>
-      <c r="K65" s="212"/>
+      <c r="I65" s="218">
+        <v>-175</v>
+      </c>
+      <c r="J65" s="218"/>
+      <c r="K65" s="218"/>
       <c r="L65" s="141">
         <v>63</v>
       </c>
@@ -17545,7 +17577,7 @@
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
     </row>
-    <row r="66" spans="2:81">
+    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B66" s="218">
         <v>64</v>
       </c>
@@ -17679,7 +17711,7 @@
       <c r="CB66" s="209"/>
       <c r="CC66" s="209"/>
     </row>
-    <row r="67" spans="2:81">
+    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B67" s="211">
         <v>65</v>
       </c>
@@ -17811,7 +17843,7 @@
       <c r="CB67" s="209"/>
       <c r="CC67" s="209"/>
     </row>
-    <row r="68" spans="2:81">
+    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B68" s="211">
         <v>66</v>
       </c>
@@ -17943,7 +17975,7 @@
       <c r="CB68" s="209"/>
       <c r="CC68" s="209"/>
     </row>
-    <row r="69" spans="2:81">
+    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B69" s="211">
         <v>67</v>
       </c>
@@ -18075,7 +18107,7 @@
       <c r="CB69" s="209"/>
       <c r="CC69" s="209"/>
     </row>
-    <row r="70" spans="2:81">
+    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B70" s="211">
         <v>68</v>
       </c>
@@ -18207,7 +18239,7 @@
       <c r="CB70" s="209"/>
       <c r="CC70" s="209"/>
     </row>
-    <row r="71" spans="2:81">
+    <row r="71" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B71" s="211">
         <v>69</v>
       </c>
@@ -18339,7 +18371,7 @@
       <c r="CB71" s="209"/>
       <c r="CC71" s="209"/>
     </row>
-    <row r="72" spans="2:81">
+    <row r="72" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B72" s="211">
         <v>70</v>
       </c>
@@ -18471,7 +18503,7 @@
       <c r="CB72" s="209"/>
       <c r="CC72" s="209"/>
     </row>
-    <row r="73" spans="2:81">
+    <row r="73" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B73" s="211">
         <v>71</v>
       </c>
@@ -18603,7 +18635,7 @@
       <c r="CB73" s="209"/>
       <c r="CC73" s="209"/>
     </row>
-    <row r="74" spans="2:81">
+    <row r="74" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B74" s="211">
         <v>72</v>
       </c>
@@ -18735,7 +18767,7 @@
       <c r="CB74" s="209"/>
       <c r="CC74" s="209"/>
     </row>
-    <row r="75" spans="2:81">
+    <row r="75" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B75" s="211">
         <v>73</v>
       </c>
@@ -18867,7 +18899,7 @@
       <c r="CB75" s="209"/>
       <c r="CC75" s="209"/>
     </row>
-    <row r="76" spans="2:81">
+    <row r="76" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B76" s="211">
         <v>74</v>
       </c>
@@ -18999,7 +19031,7 @@
       <c r="CB76" s="209"/>
       <c r="CC76" s="209"/>
     </row>
-    <row r="77" spans="2:81">
+    <row r="77" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B77" s="211">
         <v>75</v>
       </c>
@@ -19131,7 +19163,7 @@
       <c r="CB77" s="209"/>
       <c r="CC77" s="209"/>
     </row>
-    <row r="78" spans="2:81">
+    <row r="78" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B78" s="211">
         <v>76</v>
       </c>
@@ -19263,7 +19295,7 @@
       <c r="CB78" s="209"/>
       <c r="CC78" s="209"/>
     </row>
-    <row r="79" spans="2:81">
+    <row r="79" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B79" s="211">
         <v>77</v>
       </c>
@@ -19395,7 +19427,7 @@
       <c r="CB79" s="209"/>
       <c r="CC79" s="209"/>
     </row>
-    <row r="80" spans="2:81">
+    <row r="80" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B80" s="211">
         <v>78</v>
       </c>
@@ -19527,7 +19559,7 @@
       <c r="CB80" s="209"/>
       <c r="CC80" s="209"/>
     </row>
-    <row r="81" spans="2:81">
+    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B81" s="211">
         <v>79</v>
       </c>
@@ -19659,7 +19691,7 @@
       <c r="CB81" s="209"/>
       <c r="CC81" s="209"/>
     </row>
-    <row r="82" spans="2:81">
+    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B82" s="211">
         <v>80</v>
       </c>
@@ -19791,7 +19823,7 @@
       <c r="CB82" s="209"/>
       <c r="CC82" s="209"/>
     </row>
-    <row r="83" spans="2:81">
+    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B83" s="211">
         <v>81</v>
       </c>
@@ -19923,7 +19955,7 @@
       <c r="CB83" s="209"/>
       <c r="CC83" s="209"/>
     </row>
-    <row r="84" spans="2:81">
+    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B84" s="213">
         <v>82</v>
       </c>
@@ -20055,7 +20087,7 @@
       <c r="CB84" s="209"/>
       <c r="CC84" s="209"/>
     </row>
-    <row r="85" spans="2:81">
+    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B85" s="214" t="s">
         <v>738</v>
       </c>
@@ -20075,7 +20107,7 @@
       <c r="H85" s="215"/>
       <c r="I85" s="215">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-17744</v>
+        <v>-17919</v>
       </c>
       <c r="J85" s="117">
         <f t="shared" si="0"/>
@@ -20114,7 +20146,7 @@
       <c r="W85" s="215"/>
       <c r="X85" s="215">
         <f t="shared" ref="X85:Y85" si="3">SUM(X3:X84)</f>
-        <v>-6559</v>
+        <v>-6749</v>
       </c>
       <c r="Y85" s="117">
         <f t="shared" si="3"/>
@@ -20192,7 +20224,7 @@
       <c r="BA85" s="215"/>
       <c r="BB85" s="215">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-15892</v>
+        <v>-16104</v>
       </c>
       <c r="BC85" s="117">
         <f t="shared" si="9"/>
@@ -20244,7 +20276,7 @@
       <c r="BU85" s="215"/>
       <c r="BV85" s="215">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-5901</v>
+        <v>-6066</v>
       </c>
       <c r="BW85" s="117">
         <f t="shared" si="13"/>
@@ -20265,7 +20297,7 @@
       </c>
       <c r="CC85" s="215"/>
     </row>
-    <row r="92" spans="2:81">
+    <row r="92" spans="2:81" x14ac:dyDescent="0.25">
       <c r="H92" s="225" t="s">
         <v>739</v>
       </c>
@@ -20275,17 +20307,17 @@
       </c>
       <c r="J92" s="225"/>
     </row>
-    <row r="93" spans="2:81">
+    <row r="93" spans="2:81" x14ac:dyDescent="0.25">
       <c r="H93" s="225"/>
       <c r="I93" s="225"/>
       <c r="J93" s="225"/>
     </row>
-    <row r="94" spans="2:81">
+    <row r="94" spans="2:81" x14ac:dyDescent="0.25">
       <c r="H94" s="225"/>
       <c r="I94" s="225"/>
       <c r="J94" s="225"/>
     </row>
-    <row r="95" spans="2:81">
+    <row r="95" spans="2:81" x14ac:dyDescent="0.25">
       <c r="H95" s="225"/>
       <c r="I95" s="225"/>
       <c r="J95" s="225"/>
@@ -20301,14 +20333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="BI66" sqref="BI66:BM66"/>
+    <sheetView topLeftCell="A49" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
@@ -20331,7 +20363,7 @@
     <col min="82" max="82" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20509,7 +20541,7 @@
       <c r="CA1" s="86"/>
       <c r="CB1" s="86"/>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -20655,7 +20687,7 @@
       <c r="CA2" s="86"/>
       <c r="CB2" s="86"/>
     </row>
-    <row r="3" spans="1:80" ht="15.75">
+    <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -20842,7 +20874,7 @@
       <c r="CA3" s="17"/>
       <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:80" ht="15.75">
+    <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -21035,7 +21067,7 @@
       <c r="CA4" s="17"/>
       <c r="CB4" s="17"/>
     </row>
-    <row r="5" spans="1:80" ht="15.75">
+    <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -21219,7 +21251,7 @@
       </c>
       <c r="CB5" s="74"/>
     </row>
-    <row r="6" spans="1:80" ht="15.75">
+    <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -21407,7 +21439,7 @@
       <c r="CA6" s="18"/>
       <c r="CB6" s="18"/>
     </row>
-    <row r="7" spans="1:80" ht="15.75">
+    <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -21600,7 +21632,7 @@
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
     </row>
-    <row r="8" spans="1:80" ht="15.75">
+    <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -21783,7 +21815,7 @@
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
     </row>
-    <row r="9" spans="1:80" ht="15.75">
+    <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -21970,7 +22002,7 @@
       </c>
       <c r="CB9" s="16"/>
     </row>
-    <row r="10" spans="1:80" ht="15.75">
+    <row r="10" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -22174,7 +22206,7 @@
       </c>
       <c r="CB10" s="16"/>
     </row>
-    <row r="11" spans="1:80" ht="15.75">
+    <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -22364,7 +22396,7 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
     </row>
-    <row r="12" spans="1:80" ht="15.75">
+    <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -22551,7 +22583,7 @@
       </c>
       <c r="CB12" s="16"/>
     </row>
-    <row r="13" spans="1:80" ht="15.75">
+    <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -22732,7 +22764,7 @@
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
     </row>
-    <row r="14" spans="1:80" ht="15.75">
+    <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -22913,7 +22945,7 @@
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
     </row>
-    <row r="15" spans="1:80" ht="15.75">
+    <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -23100,7 +23132,7 @@
       </c>
       <c r="CB15" s="16"/>
     </row>
-    <row r="16" spans="1:80" ht="15.75">
+    <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -23278,7 +23310,7 @@
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
     </row>
-    <row r="17" spans="1:80" ht="15.75">
+    <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -23465,7 +23497,7 @@
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
     </row>
-    <row r="18" spans="1:80" ht="15.75">
+    <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -23650,7 +23682,7 @@
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
     </row>
-    <row r="19" spans="1:80" ht="15.75">
+    <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -23837,7 +23869,7 @@
       </c>
       <c r="CB19" s="16"/>
     </row>
-    <row r="20" spans="1:80" ht="15.75">
+    <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -24033,7 +24065,7 @@
       </c>
       <c r="CB20" s="74"/>
     </row>
-    <row r="21" spans="1:80" ht="15.75">
+    <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -24211,7 +24243,7 @@
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
     </row>
-    <row r="22" spans="1:80" ht="15.75">
+    <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -24398,7 +24430,7 @@
       </c>
       <c r="CB22" s="74"/>
     </row>
-    <row r="23" spans="1:80" ht="15.75">
+    <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -24585,7 +24617,7 @@
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
     </row>
-    <row r="24" spans="1:80" ht="15.75">
+    <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -24777,7 +24809,7 @@
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
     </row>
-    <row r="25" spans="1:80" ht="15.75">
+    <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -24962,7 +24994,7 @@
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
     </row>
-    <row r="26" spans="1:80" ht="15.75">
+    <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -25155,7 +25187,7 @@
       </c>
       <c r="CB26" s="16"/>
     </row>
-    <row r="27" spans="1:80" ht="15.75">
+    <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -25339,7 +25371,7 @@
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
     </row>
-    <row r="28" spans="1:80" ht="15.75">
+    <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -25525,7 +25557,7 @@
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
     </row>
-    <row r="29" spans="1:80" ht="15.75">
+    <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -25715,7 +25747,7 @@
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
     </row>
-    <row r="30" spans="1:80" ht="15.75">
+    <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -25902,7 +25934,7 @@
       </c>
       <c r="CB30" s="16"/>
     </row>
-    <row r="31" spans="1:80" ht="15.75">
+    <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -26092,7 +26124,7 @@
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
     </row>
-    <row r="32" spans="1:80" ht="15.75">
+    <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -26288,7 +26320,7 @@
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
     </row>
-    <row r="33" spans="1:80" ht="15.75">
+    <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -26471,7 +26503,7 @@
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
     </row>
-    <row r="34" spans="1:80" ht="15.75">
+    <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -26652,7 +26684,7 @@
       </c>
       <c r="CB34" s="16"/>
     </row>
-    <row r="35" spans="1:80" ht="15.75">
+    <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -26841,7 +26873,7 @@
       </c>
       <c r="CB35" s="16"/>
     </row>
-    <row r="36" spans="1:80" ht="15.75">
+    <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -27031,7 +27063,7 @@
       <c r="CA36" s="17"/>
       <c r="CB36" s="17"/>
     </row>
-    <row r="37" spans="1:80" ht="15.75">
+    <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -27218,7 +27250,7 @@
       <c r="CA37" s="17"/>
       <c r="CB37" s="17"/>
     </row>
-    <row r="38" spans="1:80" ht="15.75">
+    <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -27399,7 +27431,7 @@
       <c r="CA38" s="17"/>
       <c r="CB38" s="17"/>
     </row>
-    <row r="39" spans="1:80" ht="15.75">
+    <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>37</v>
       </c>
@@ -27591,7 +27623,7 @@
       </c>
       <c r="CB39" s="16"/>
     </row>
-    <row r="40" spans="1:80" ht="15.75">
+    <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -27784,7 +27816,7 @@
       <c r="CA40" s="17"/>
       <c r="CB40" s="17"/>
     </row>
-    <row r="41" spans="1:80" ht="15.75">
+    <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -27971,7 +28003,7 @@
       <c r="CA41" s="17"/>
       <c r="CB41" s="17"/>
     </row>
-    <row r="42" spans="1:80" ht="15.75">
+    <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -28149,7 +28181,7 @@
       <c r="CA42" s="17"/>
       <c r="CB42" s="17"/>
     </row>
-    <row r="43" spans="1:80" ht="15.75">
+    <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -28336,7 +28368,7 @@
       <c r="CA43" s="17"/>
       <c r="CB43" s="17"/>
     </row>
-    <row r="44" spans="1:80" ht="15.75">
+    <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -28520,7 +28552,7 @@
       <c r="CA44" s="17"/>
       <c r="CB44" s="17"/>
     </row>
-    <row r="45" spans="1:80" ht="15.75">
+    <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -28704,7 +28736,7 @@
       <c r="CA45" s="17"/>
       <c r="CB45" s="17"/>
     </row>
-    <row r="46" spans="1:80" ht="15.75">
+    <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -28898,7 +28930,7 @@
       <c r="CA46" s="17"/>
       <c r="CB46" s="17"/>
     </row>
-    <row r="47" spans="1:80" ht="15.75">
+    <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -29079,7 +29111,7 @@
       <c r="CA47" s="17"/>
       <c r="CB47" s="17"/>
     </row>
-    <row r="48" spans="1:80" ht="15.75">
+    <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>46</v>
       </c>
@@ -29271,7 +29303,7 @@
       <c r="CA48" s="17"/>
       <c r="CB48" s="17"/>
     </row>
-    <row r="49" spans="1:80" ht="15.75">
+    <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>47</v>
       </c>
@@ -29460,7 +29492,7 @@
       <c r="CA49" s="17"/>
       <c r="CB49" s="17"/>
     </row>
-    <row r="50" spans="1:80" ht="15.75">
+    <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -29655,7 +29687,7 @@
       <c r="CA50" s="17"/>
       <c r="CB50" s="17"/>
     </row>
-    <row r="51" spans="1:80" ht="15.75">
+    <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>49</v>
       </c>
@@ -29840,7 +29872,7 @@
       </c>
       <c r="CB51" s="16"/>
     </row>
-    <row r="52" spans="1:80" ht="15.75">
+    <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -30029,7 +30061,7 @@
       <c r="CA52" s="17"/>
       <c r="CB52" s="17"/>
     </row>
-    <row r="53" spans="1:80" ht="15.75">
+    <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>51</v>
       </c>
@@ -30212,7 +30244,7 @@
       <c r="CA53" s="17"/>
       <c r="CB53" s="17"/>
     </row>
-    <row r="54" spans="1:80" ht="15.75">
+    <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>52</v>
       </c>
@@ -30405,7 +30437,7 @@
       <c r="CA54" s="17"/>
       <c r="CB54" s="17"/>
     </row>
-    <row r="55" spans="1:80" ht="15.75">
+    <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>53</v>
       </c>
@@ -30589,7 +30621,7 @@
       <c r="CA55" s="17"/>
       <c r="CB55" s="17"/>
     </row>
-    <row r="56" spans="1:80" ht="15.75">
+    <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>54</v>
       </c>
@@ -30775,7 +30807,7 @@
       </c>
       <c r="CB56" s="16"/>
     </row>
-    <row r="57" spans="1:80" ht="15.75">
+    <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>55</v>
       </c>
@@ -30959,7 +30991,7 @@
       <c r="CA57" s="17"/>
       <c r="CB57" s="17"/>
     </row>
-    <row r="58" spans="1:80" ht="15.75">
+    <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>56</v>
       </c>
@@ -31147,7 +31179,7 @@
       </c>
       <c r="CB58" s="74"/>
     </row>
-    <row r="59" spans="1:80" ht="15.75">
+    <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -31342,7 +31374,7 @@
       <c r="CA59" s="17"/>
       <c r="CB59" s="17"/>
     </row>
-    <row r="60" spans="1:80" ht="15.75">
+    <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>58</v>
       </c>
@@ -31526,7 +31558,7 @@
       <c r="CA60" s="17"/>
       <c r="CB60" s="17"/>
     </row>
-    <row r="61" spans="1:80" ht="15.75">
+    <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>59</v>
       </c>
@@ -31717,7 +31749,7 @@
       </c>
       <c r="CB61" s="16"/>
     </row>
-    <row r="62" spans="1:80" ht="15.75">
+    <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>60</v>
       </c>
@@ -31772,7 +31804,9 @@
         <v>-175</v>
       </c>
       <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
+      <c r="Y62" s="17">
+        <v>-4.8</v>
+      </c>
       <c r="Z62" s="16">
         <v>60</v>
       </c>
@@ -31901,7 +31935,7 @@
       <c r="CA62" s="17"/>
       <c r="CB62" s="17"/>
     </row>
-    <row r="63" spans="1:80" ht="16.5" thickBot="1">
+    <row r="63" spans="1:80" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>61</v>
       </c>
@@ -31956,7 +31990,10 @@
         <v>-190</v>
       </c>
       <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
+      <c r="Y63" s="17">
+        <f>Y62*W65</f>
+        <v>1920</v>
+      </c>
       <c r="Z63" s="17">
         <v>61</v>
       </c>
@@ -32077,16 +32114,18 @@
       <c r="CA63" s="17"/>
       <c r="CB63" s="17"/>
     </row>
-    <row r="64" spans="1:80" ht="16.5" thickBot="1">
-      <c r="A64" s="19">
+    <row r="64" spans="1:80" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="108">
         <v>62</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="108" t="s">
         <v>1069</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="C64" s="108">
+        <v>-212</v>
+      </c>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
       <c r="F64" s="108">
         <v>62</v>
       </c>
@@ -32128,7 +32167,10 @@
         <v>-600</v>
       </c>
       <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
+      <c r="Y64" s="17">
+        <f>Y63+SUM(W60:W65)</f>
+        <v>230</v>
+      </c>
       <c r="Z64" s="17">
         <v>62</v>
       </c>
@@ -32235,7 +32277,7 @@
       <c r="CA64" s="17"/>
       <c r="CB64" s="17"/>
     </row>
-    <row r="65" spans="1:80" ht="16.5" thickBot="1">
+    <row r="65" spans="1:80" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -32274,11 +32316,17 @@
       </c>
       <c r="S65" s="219"/>
       <c r="T65" s="219"/>
-      <c r="U65" s="42">
+      <c r="U65" s="227">
         <v>63</v>
       </c>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
+      <c r="V65" s="108" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W65" s="228">
+        <v>-400</v>
+      </c>
+      <c r="X65" s="108"/>
+      <c r="Y65" s="108"/>
       <c r="Z65" s="16">
         <v>63</v>
       </c>
@@ -32382,7 +32430,7 @@
       <c r="CA65" s="108"/>
       <c r="CB65" s="108"/>
     </row>
-    <row r="66" spans="1:80" ht="15.75" thickBot="1">
+    <row r="66" spans="1:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -32421,9 +32469,6 @@
       <c r="T66" s="39"/>
       <c r="U66" s="42">
         <v>64</v>
-      </c>
-      <c r="V66" s="44" t="s">
-        <v>1075</v>
       </c>
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
@@ -32516,7 +32561,7 @@
       <c r="CA66" s="86"/>
       <c r="CB66" s="86"/>
     </row>
-    <row r="67" spans="1:80">
+    <row r="67" spans="1:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -32644,7 +32689,7 @@
       <c r="CA67" s="86"/>
       <c r="CB67" s="86"/>
     </row>
-    <row r="68" spans="1:80">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>66</v>
       </c>
@@ -32772,7 +32817,7 @@
       <c r="CA68" s="86"/>
       <c r="CB68" s="86"/>
     </row>
-    <row r="69" spans="1:80">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -32900,7 +32945,7 @@
       <c r="CA69" s="86"/>
       <c r="CB69" s="86"/>
     </row>
-    <row r="70" spans="1:80">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -33028,7 +33073,7 @@
       <c r="CA70" s="86"/>
       <c r="CB70" s="86"/>
     </row>
-    <row r="71" spans="1:80">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -33156,7 +33201,7 @@
       <c r="CA71" s="86"/>
       <c r="CB71" s="86"/>
     </row>
-    <row r="72" spans="1:80">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>70</v>
       </c>
@@ -33284,7 +33329,7 @@
       <c r="CA72" s="86"/>
       <c r="CB72" s="86"/>
     </row>
-    <row r="73" spans="1:80">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -33412,7 +33457,7 @@
       <c r="CA73" s="86"/>
       <c r="CB73" s="86"/>
     </row>
-    <row r="74" spans="1:80">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>72</v>
       </c>
@@ -33540,7 +33585,7 @@
       <c r="CA74" s="86"/>
       <c r="CB74" s="86"/>
     </row>
-    <row r="75" spans="1:80">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -33668,7 +33713,7 @@
       <c r="CA75" s="86"/>
       <c r="CB75" s="86"/>
     </row>
-    <row r="76" spans="1:80">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>74</v>
       </c>
@@ -33796,7 +33841,7 @@
       <c r="CA76" s="86"/>
       <c r="CB76" s="86"/>
     </row>
-    <row r="77" spans="1:80">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -33924,7 +33969,7 @@
       <c r="CA77" s="86"/>
       <c r="CB77" s="86"/>
     </row>
-    <row r="78" spans="1:80">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>76</v>
       </c>
@@ -34052,7 +34097,7 @@
       <c r="CA78" s="86"/>
       <c r="CB78" s="86"/>
     </row>
-    <row r="79" spans="1:80">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -34180,7 +34225,7 @@
       <c r="CA79" s="86"/>
       <c r="CB79" s="86"/>
     </row>
-    <row r="80" spans="1:80">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>78</v>
       </c>
@@ -34308,7 +34353,7 @@
       <c r="CA80" s="86"/>
       <c r="CB80" s="86"/>
     </row>
-    <row r="81" spans="1:81">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -34436,7 +34481,7 @@
       <c r="CA81" s="86"/>
       <c r="CB81" s="86"/>
     </row>
-    <row r="82" spans="1:81">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>80</v>
       </c>
@@ -34564,7 +34609,7 @@
       <c r="CA82" s="86"/>
       <c r="CB82" s="86"/>
     </row>
-    <row r="83" spans="1:81">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -34692,7 +34737,7 @@
       <c r="CA83" s="86"/>
       <c r="CB83" s="86"/>
     </row>
-    <row r="84" spans="1:81">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A84" s="114">
         <v>82</v>
       </c>
@@ -34820,14 +34865,14 @@
       <c r="CA84" s="86"/>
       <c r="CB84" s="86"/>
     </row>
-    <row r="85" spans="1:81">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A85" s="115" t="s">
         <v>738</v>
       </c>
       <c r="B85" s="116"/>
       <c r="C85" s="116">
         <f>SUM(C3:C84)</f>
-        <v>-12173</v>
+        <v>-12385</v>
       </c>
       <c r="D85" s="117">
         <f>SUM(D3:D84)</f>
@@ -34879,7 +34924,7 @@
       <c r="V85" s="116"/>
       <c r="W85" s="116">
         <f t="shared" ref="W85:X85" si="3">SUM(W3:W84)</f>
-        <v>-26056</v>
+        <v>-26456</v>
       </c>
       <c r="X85" s="117">
         <f t="shared" si="3"/>
@@ -35033,7 +35078,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:81">
+    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
       <c r="G95" s="225" t="s">
         <v>739</v>
       </c>
@@ -35043,17 +35088,17 @@
       </c>
       <c r="I95" s="225"/>
     </row>
-    <row r="96" spans="1:81">
+    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
       <c r="G96" s="225"/>
       <c r="H96" s="225"/>
       <c r="I96" s="225"/>
     </row>
-    <row r="97" spans="7:9">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G97" s="225"/>
       <c r="H97" s="225"/>
       <c r="I97" s="225"/>
     </row>
-    <row r="98" spans="7:9">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G98" s="225"/>
       <c r="H98" s="225"/>
       <c r="I98" s="225"/>
@@ -35069,19 +35114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:14" ht="15.75">
+    <row r="1" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E1" s="226" t="s">
         <v>1120</v>
       </c>
@@ -35099,7 +35144,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="2" spans="5:14" ht="15.75">
+    <row r="2" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>1121</v>
       </c>
@@ -35125,7 +35170,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="5:14">
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -35155,7 +35200,7 @@
         <v>680.00000000000011</v>
       </c>
     </row>
-    <row r="4" spans="5:14">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -35185,7 +35230,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="5" spans="5:14">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -35215,7 +35260,7 @@
         <v>860.00000000000023</v>
       </c>
     </row>
-    <row r="6" spans="5:14">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -35245,7 +35290,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="5:14">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -35275,7 +35320,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -35305,7 +35350,7 @@
         <v>380.00000000000045</v>
       </c>
     </row>
-    <row r="9" spans="5:14">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -35335,7 +35380,7 @@
         <v>275.00000000000045</v>
       </c>
     </row>
-    <row r="10" spans="5:14">
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -35365,7 +35410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="5:14">
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -35395,7 +35440,7 @@
         <v>255.00000000000091</v>
       </c>
     </row>
-    <row r="12" spans="5:14">
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -35425,7 +35470,7 @@
         <v>12.000000000000909</v>
       </c>
     </row>
-    <row r="13" spans="5:14">
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -35455,7 +35500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="5:14">
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E14" s="3">
         <v>12</v>
       </c>
@@ -35485,7 +35530,7 @@
         <v>73.000000000001819</v>
       </c>
     </row>
-    <row r="15" spans="5:14">
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E15" s="3">
         <v>13</v>
       </c>
@@ -35515,7 +35560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
+    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -35545,7 +35590,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="17" spans="5:14">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -35575,7 +35620,7 @@
         <v>1525.0000000000036</v>
       </c>
     </row>
-    <row r="18" spans="5:14">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -35605,7 +35650,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="19" spans="5:14">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -35635,7 +35680,7 @@
         <v>-874.99999999999272</v>
       </c>
     </row>
-    <row r="20" spans="5:14">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -35665,7 +35710,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="21" spans="5:14">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -35695,7 +35740,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="22" spans="5:14">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -35717,7 +35762,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="5:14">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -35739,7 +35784,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="5:14">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -35756,7 +35801,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="5:14">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -35773,7 +35818,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="5:14">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/Ставки/НХЛ 23-24.xlsx
+++ b/Ставки/НХЛ 23-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Восток" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1134">
   <si>
     <t>№ Матча</t>
   </si>
@@ -3437,13 +3437,25 @@
   </si>
   <si>
     <t>кэф 4,4</t>
+  </si>
+  <si>
+    <t>Коламбус - Эдмонтон</t>
+  </si>
+  <si>
+    <t>Нью Джерси - Сент Луис</t>
+  </si>
+  <si>
+    <t>Вегас - Ванкувер</t>
+  </si>
+  <si>
+    <t>Вегас  - Ванкувер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3562,14 +3574,6 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4659,7 +4663,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5023,22 +5027,21 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="62" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="62" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент4" xfId="3" builtinId="42"/>
@@ -5362,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ62" sqref="AZ62:BD62"/>
+    <sheetView topLeftCell="AO40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ63" sqref="AZ63:BD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15417,7 +15420,7 @@
       </c>
       <c r="T54" s="73"/>
       <c r="U54" s="73">
-        <v>-4.9000000000000004</v>
+        <v>-5.3</v>
       </c>
       <c r="V54" s="73">
         <v>52</v>
@@ -15606,8 +15609,8 @@
       </c>
       <c r="T55" s="73"/>
       <c r="U55" s="73">
-        <f>U54*S64</f>
-        <v>6615.0000000000009</v>
+        <f>U54*S65</f>
+        <v>7950</v>
       </c>
       <c r="V55" s="73">
         <v>53</v>
@@ -15798,8 +15801,8 @@
       </c>
       <c r="T56" s="73"/>
       <c r="U56" s="73">
-        <f>U55+SUM(S51:S64)</f>
-        <v>230.00000000000091</v>
+        <f>U55+SUM(S51:S65)</f>
+        <v>65</v>
       </c>
       <c r="V56" s="73">
         <v>54</v>
@@ -16035,7 +16038,7 @@
       </c>
       <c r="AN57" s="73"/>
       <c r="AO57" s="73">
-        <v>-4.5</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AP57" s="133">
         <v>55</v>
@@ -16234,8 +16237,8 @@
       </c>
       <c r="AN58" s="73"/>
       <c r="AO58" s="73">
-        <f>AO57*AM64</f>
-        <v>4275</v>
+        <f>AO57*AM65</f>
+        <v>5280</v>
       </c>
       <c r="AP58" s="73">
         <v>56</v>
@@ -16423,8 +16426,8 @@
       </c>
       <c r="AN59" s="73"/>
       <c r="AO59" s="73">
-        <f>AO58+SUM(AM53:AM64)</f>
-        <v>253</v>
+        <f>AO58+SUM(AM53:AM65)</f>
+        <v>58</v>
       </c>
       <c r="AP59" s="73">
         <v>57</v>
@@ -16676,7 +16679,9 @@
         <v>-165</v>
       </c>
       <c r="BM60" s="73"/>
-      <c r="BN60" s="73"/>
+      <c r="BN60" s="73">
+        <v>-4.5</v>
+      </c>
       <c r="BO60" s="73">
         <v>58</v>
       </c>
@@ -16857,7 +16862,10 @@
         <v>-175</v>
       </c>
       <c r="BM61" s="73"/>
-      <c r="BN61" s="73"/>
+      <c r="BN61" s="73">
+        <f>BL63*BN60</f>
+        <v>1125</v>
+      </c>
       <c r="BO61" s="73">
         <v>59</v>
       </c>
@@ -17014,17 +17022,17 @@
       </c>
       <c r="AX62" s="73"/>
       <c r="AY62" s="73"/>
-      <c r="AZ62" s="218">
+      <c r="AZ62" s="73">
         <v>60</v>
       </c>
-      <c r="BA62" s="218" t="s">
+      <c r="BA62" s="73" t="s">
         <v>1069</v>
       </c>
-      <c r="BB62" s="218">
-        <v>-212</v>
-      </c>
-      <c r="BC62" s="218"/>
-      <c r="BD62" s="218"/>
+      <c r="BB62" s="73">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="73"/>
+      <c r="BD62" s="73"/>
       <c r="BE62" s="73">
         <v>60</v>
       </c>
@@ -17036,17 +17044,20 @@
       </c>
       <c r="BH62" s="73"/>
       <c r="BI62" s="73"/>
-      <c r="BJ62" s="218">
+      <c r="BJ62" s="73">
         <v>60</v>
       </c>
-      <c r="BK62" s="218" t="s">
+      <c r="BK62" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="BL62" s="218">
+      <c r="BL62" s="73">
         <v>-190</v>
       </c>
-      <c r="BM62" s="218"/>
-      <c r="BN62" s="218"/>
+      <c r="BM62" s="73"/>
+      <c r="BN62" s="73">
+        <f>BN61+SUM(BL59:BL63)</f>
+        <v>185</v>
+      </c>
       <c r="BO62" s="73">
         <v>60</v>
       </c>
@@ -17176,17 +17187,17 @@
       </c>
       <c r="AN63" s="73"/>
       <c r="AO63" s="73"/>
-      <c r="AP63" s="218">
+      <c r="AP63" s="73">
         <v>61</v>
       </c>
-      <c r="AQ63" s="218" t="s">
+      <c r="AQ63" s="73" t="s">
         <v>664</v>
       </c>
-      <c r="AR63" s="218">
+      <c r="AR63" s="73">
         <v>-175</v>
       </c>
-      <c r="AS63" s="218"/>
-      <c r="AT63" s="218"/>
+      <c r="AS63" s="73"/>
+      <c r="AT63" s="73"/>
       <c r="AU63" s="133">
         <v>61</v>
       </c>
@@ -17201,13 +17212,17 @@
         <v>91</v>
       </c>
       <c r="AY63" s="133"/>
-      <c r="AZ63" s="191">
+      <c r="AZ63" s="218">
         <v>61</v>
       </c>
-      <c r="BA63" s="191"/>
-      <c r="BB63" s="191"/>
-      <c r="BC63" s="191"/>
-      <c r="BD63" s="191"/>
+      <c r="BA63" s="218" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB63" s="218">
+        <v>-250</v>
+      </c>
+      <c r="BC63" s="218"/>
+      <c r="BD63" s="218"/>
       <c r="BE63" s="73">
         <v>61</v>
       </c>
@@ -17219,13 +17234,17 @@
       </c>
       <c r="BH63" s="73"/>
       <c r="BI63" s="73"/>
-      <c r="BJ63" s="199">
+      <c r="BJ63" s="218">
         <v>61</v>
       </c>
-      <c r="BK63" s="199"/>
-      <c r="BL63" s="199"/>
-      <c r="BM63" s="199"/>
-      <c r="BN63" s="199"/>
+      <c r="BK63" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="BL63" s="218">
+        <v>-250</v>
+      </c>
+      <c r="BM63" s="218"/>
+      <c r="BN63" s="218"/>
       <c r="BO63" s="73">
         <v>61</v>
       </c>
@@ -17248,15 +17267,17 @@
       </c>
       <c r="BW63" s="73"/>
       <c r="BX63" s="73"/>
-      <c r="BY63" s="209">
+      <c r="BY63" s="218">
         <v>61</v>
       </c>
-      <c r="BZ63" s="210" t="s">
+      <c r="BZ63" s="225" t="s">
         <v>665</v>
       </c>
-      <c r="CA63" s="209"/>
-      <c r="CB63" s="209"/>
-      <c r="CC63" s="209"/>
+      <c r="CA63" s="218">
+        <v>-250</v>
+      </c>
+      <c r="CB63" s="218"/>
+      <c r="CC63" s="218"/>
     </row>
     <row r="64" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="73">
@@ -17281,37 +17302,39 @@
       </c>
       <c r="J64" s="73"/>
       <c r="K64" s="73"/>
-      <c r="L64" s="141">
+      <c r="L64" s="218">
         <v>62</v>
       </c>
-      <c r="M64" s="141" t="s">
+      <c r="M64" s="218" t="s">
         <v>408</v>
       </c>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="218">
+      <c r="N64" s="218">
+        <v>-190</v>
+      </c>
+      <c r="O64" s="218"/>
+      <c r="P64" s="226"/>
+      <c r="Q64" s="73">
         <v>62</v>
       </c>
-      <c r="R64" s="218" t="s">
+      <c r="R64" s="73" t="s">
         <v>1126</v>
       </c>
-      <c r="S64" s="218">
+      <c r="S64" s="73">
         <v>-1350</v>
       </c>
-      <c r="T64" s="218"/>
-      <c r="U64" s="218"/>
-      <c r="V64" s="218">
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73">
         <v>62</v>
       </c>
-      <c r="W64" s="218" t="s">
+      <c r="W64" s="73" t="s">
         <v>1075</v>
       </c>
-      <c r="X64" s="218">
+      <c r="X64" s="73">
         <v>-190</v>
       </c>
-      <c r="Y64" s="218"/>
-      <c r="Z64" s="218"/>
+      <c r="Y64" s="73"/>
+      <c r="Z64" s="73"/>
       <c r="AA64" s="73">
         <v>62</v>
       </c>
@@ -17323,37 +17346,42 @@
       </c>
       <c r="AD64" s="73"/>
       <c r="AE64" s="73"/>
-      <c r="AF64" s="218">
+      <c r="AF64" s="133">
         <v>62</v>
       </c>
-      <c r="AG64" s="218" t="s">
+      <c r="AG64" s="133" t="s">
         <v>667</v>
       </c>
-      <c r="AH64" s="218">
+      <c r="AH64" s="133">
         <v>-160</v>
       </c>
-      <c r="AI64" s="218"/>
-      <c r="AJ64" s="218"/>
-      <c r="AK64" s="218">
+      <c r="AI64" s="133">
+        <f>768+AH64</f>
+        <v>608</v>
+      </c>
+      <c r="AJ64" s="133"/>
+      <c r="AK64" s="73">
         <v>62</v>
       </c>
-      <c r="AL64" s="218" t="s">
+      <c r="AL64" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="AM64" s="218">
+      <c r="AM64" s="73">
         <v>-950</v>
       </c>
-      <c r="AN64" s="218"/>
-      <c r="AO64" s="218"/>
-      <c r="AP64" s="182">
+      <c r="AN64" s="73"/>
+      <c r="AO64" s="73"/>
+      <c r="AP64" s="218">
         <v>62</v>
       </c>
-      <c r="AQ64" s="182" t="s">
+      <c r="AQ64" s="218" t="s">
         <v>668</v>
       </c>
-      <c r="AR64" s="182"/>
-      <c r="AS64" s="182"/>
-      <c r="AT64" s="182"/>
+      <c r="AR64" s="218">
+        <v>-190</v>
+      </c>
+      <c r="AS64" s="218"/>
+      <c r="AT64" s="218"/>
       <c r="AU64" s="73">
         <v>62</v>
       </c>
@@ -17404,17 +17432,20 @@
         <v>181</v>
       </c>
       <c r="BS64" s="133"/>
-      <c r="BT64" s="218">
+      <c r="BT64" s="133">
         <v>62</v>
       </c>
-      <c r="BU64" s="218" t="s">
+      <c r="BU64" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="BV64" s="218">
+      <c r="BV64" s="133">
         <v>-165</v>
       </c>
-      <c r="BW64" s="218"/>
-      <c r="BX64" s="218"/>
+      <c r="BW64" s="133">
+        <f>759+SUM(BV63:BV64)</f>
+        <v>434</v>
+      </c>
+      <c r="BX64" s="133"/>
       <c r="BY64" s="209">
         <v>62</v>
       </c>
@@ -17437,17 +17468,20 @@
       </c>
       <c r="E65" s="73"/>
       <c r="F65" s="73"/>
-      <c r="G65" s="218">
+      <c r="G65" s="133">
         <v>63</v>
       </c>
-      <c r="H65" s="218" t="s">
+      <c r="H65" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="I65" s="218">
+      <c r="I65" s="133">
         <v>-175</v>
       </c>
-      <c r="J65" s="218"/>
-      <c r="K65" s="218"/>
+      <c r="J65" s="133">
+        <f>805+SUM(I63:I65)</f>
+        <v>305</v>
+      </c>
+      <c r="K65" s="133"/>
       <c r="L65" s="141">
         <v>63</v>
       </c>
@@ -17457,13 +17491,17 @@
       <c r="N65" s="141"/>
       <c r="O65" s="141"/>
       <c r="P65" s="142"/>
-      <c r="Q65" s="153">
+      <c r="Q65" s="218">
         <v>63</v>
       </c>
-      <c r="R65" s="153"/>
-      <c r="S65" s="153"/>
-      <c r="T65" s="153"/>
-      <c r="U65" s="153"/>
+      <c r="R65" s="218" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S65" s="218">
+        <v>-1500</v>
+      </c>
+      <c r="T65" s="218"/>
+      <c r="U65" s="218"/>
       <c r="V65" s="154">
         <v>63</v>
       </c>
@@ -17471,33 +17509,39 @@
       <c r="X65" s="154"/>
       <c r="Y65" s="154"/>
       <c r="Z65" s="154"/>
-      <c r="AA65" s="218">
+      <c r="AA65" s="73">
         <v>63</v>
       </c>
-      <c r="AB65" s="218" t="s">
+      <c r="AB65" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="AC65" s="218">
+      <c r="AC65" s="73">
         <v>-175</v>
       </c>
-      <c r="AD65" s="218"/>
-      <c r="AE65" s="218"/>
-      <c r="AF65" s="163">
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="218">
         <v>63</v>
       </c>
-      <c r="AG65" s="163" t="s">
+      <c r="AG65" s="218" t="s">
         <v>408</v>
       </c>
-      <c r="AH65" s="163"/>
-      <c r="AI65" s="163"/>
-      <c r="AJ65" s="163"/>
-      <c r="AK65" s="154">
+      <c r="AH65" s="218">
+        <v>-160</v>
+      </c>
+      <c r="AI65" s="218"/>
+      <c r="AJ65" s="218"/>
+      <c r="AK65" s="218">
         <v>63</v>
       </c>
-      <c r="AL65" s="154"/>
-      <c r="AM65" s="154"/>
-      <c r="AN65" s="154"/>
-      <c r="AO65" s="154"/>
+      <c r="AL65" s="218" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AM65" s="218">
+        <v>-1200</v>
+      </c>
+      <c r="AN65" s="218"/>
+      <c r="AO65" s="218"/>
       <c r="AP65" s="182">
         <v>63</v>
       </c>
@@ -17558,15 +17602,17 @@
         <v>624</v>
       </c>
       <c r="BS65" s="133"/>
-      <c r="BT65" s="204">
+      <c r="BT65" s="218">
         <v>63</v>
       </c>
-      <c r="BU65" s="204" t="s">
+      <c r="BU65" s="218" t="s">
         <v>136</v>
       </c>
-      <c r="BV65" s="204"/>
-      <c r="BW65" s="204"/>
-      <c r="BX65" s="204"/>
+      <c r="BV65" s="218">
+        <v>-160</v>
+      </c>
+      <c r="BW65" s="218"/>
+      <c r="BX65" s="218"/>
       <c r="BY65" s="209">
         <v>63</v>
       </c>
@@ -17577,27 +17623,32 @@
       <c r="CB65" s="209"/>
       <c r="CC65" s="209"/>
     </row>
-    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B66" s="218">
+    <row r="66" spans="2:81" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="133">
         <v>64</v>
       </c>
-      <c r="C66" s="218" t="s">
+      <c r="C66" s="133" t="s">
         <v>676</v>
       </c>
-      <c r="D66" s="218">
-        <v>-400</v>
-      </c>
-      <c r="E66" s="218"/>
-      <c r="F66" s="218"/>
-      <c r="G66" s="212">
+      <c r="D66" s="133">
+        <v>-390</v>
+      </c>
+      <c r="E66" s="133">
+        <f>1755+SUM(D63:D66)</f>
+        <v>865</v>
+      </c>
+      <c r="F66" s="133"/>
+      <c r="G66" s="218">
         <v>64</v>
       </c>
-      <c r="H66" s="212" t="s">
+      <c r="H66" s="218" t="s">
         <v>677</v>
       </c>
-      <c r="I66" s="212"/>
-      <c r="J66" s="212"/>
-      <c r="K66" s="212"/>
+      <c r="I66" s="218">
+        <v>-160</v>
+      </c>
+      <c r="J66" s="218"/>
+      <c r="K66" s="218"/>
       <c r="L66" s="141">
         <v>64</v>
       </c>
@@ -17621,13 +17672,17 @@
       <c r="X66" s="154"/>
       <c r="Y66" s="154"/>
       <c r="Z66" s="154"/>
-      <c r="AA66" s="162">
+      <c r="AA66" s="218">
         <v>64</v>
       </c>
-      <c r="AB66" s="162"/>
-      <c r="AC66" s="162"/>
-      <c r="AD66" s="162"/>
-      <c r="AE66" s="162"/>
+      <c r="AB66" s="218" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC66" s="218">
+        <v>-190</v>
+      </c>
+      <c r="AD66" s="218"/>
+      <c r="AE66" s="218"/>
       <c r="AF66" s="163">
         <v>64</v>
       </c>
@@ -17669,13 +17724,17 @@
       <c r="BB66" s="191"/>
       <c r="BC66" s="191"/>
       <c r="BD66" s="191"/>
-      <c r="BE66" s="216">
+      <c r="BE66" s="218">
         <v>64</v>
       </c>
-      <c r="BF66" s="216"/>
-      <c r="BG66" s="216"/>
-      <c r="BH66" s="216"/>
-      <c r="BI66" s="216"/>
+      <c r="BF66" s="218" t="s">
+        <v>577</v>
+      </c>
+      <c r="BG66" s="218">
+        <v>-160</v>
+      </c>
+      <c r="BH66" s="218"/>
+      <c r="BI66" s="218"/>
       <c r="BJ66" s="199">
         <v>64</v>
       </c>
@@ -17683,15 +17742,17 @@
       <c r="BL66" s="199"/>
       <c r="BM66" s="199"/>
       <c r="BN66" s="199"/>
-      <c r="BO66" s="153">
+      <c r="BO66" s="218">
         <v>64</v>
       </c>
-      <c r="BP66" s="217" t="s">
+      <c r="BP66" s="225" t="s">
         <v>396</v>
       </c>
-      <c r="BQ66" s="153"/>
-      <c r="BR66" s="153"/>
-      <c r="BS66" s="153"/>
+      <c r="BQ66" s="218">
+        <v>-160</v>
+      </c>
+      <c r="BR66" s="218"/>
+      <c r="BS66" s="218"/>
       <c r="BT66" s="204">
         <v>64</v>
       </c>
@@ -17712,15 +17773,17 @@
       <c r="CC66" s="209"/>
     </row>
     <row r="67" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="B67" s="211">
+      <c r="B67" s="218">
         <v>65</v>
       </c>
-      <c r="C67" s="211" t="s">
+      <c r="C67" s="218" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="211"/>
-      <c r="E67" s="211"/>
-      <c r="F67" s="211"/>
+      <c r="D67" s="218">
+        <v>-160</v>
+      </c>
+      <c r="E67" s="218"/>
+      <c r="F67" s="218"/>
       <c r="G67" s="212">
         <v>65</v>
       </c>
@@ -20094,11 +20157,11 @@
       <c r="C85" s="215"/>
       <c r="D85" s="215">
         <f>SUM(D3:D84)</f>
-        <v>-6663</v>
+        <v>-6813</v>
       </c>
       <c r="E85" s="117">
         <f>SUM(E3:E84)</f>
-        <v>5141</v>
+        <v>6006</v>
       </c>
       <c r="F85" s="215"/>
       <c r="G85" s="214" t="s">
@@ -20107,11 +20170,11 @@
       <c r="H85" s="215"/>
       <c r="I85" s="215">
         <f t="shared" ref="I85:J85" si="0">SUM(I3:I84)</f>
-        <v>-17919</v>
+        <v>-18079</v>
       </c>
       <c r="J85" s="117">
         <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>2496</v>
       </c>
       <c r="K85" s="215"/>
       <c r="L85" s="214" t="s">
@@ -20120,7 +20183,7 @@
       <c r="M85" s="215"/>
       <c r="N85" s="215">
         <f t="shared" ref="N85:O85" si="1">SUM(N3:N84)</f>
-        <v>-7726</v>
+        <v>-7916</v>
       </c>
       <c r="O85" s="117">
         <f t="shared" si="1"/>
@@ -20133,7 +20196,7 @@
       <c r="R85" s="215"/>
       <c r="S85" s="215">
         <f t="shared" ref="S85:T85" si="2">SUM(S3:S84)</f>
-        <v>-12246</v>
+        <v>-13746</v>
       </c>
       <c r="T85" s="117">
         <f t="shared" si="2"/>
@@ -20159,7 +20222,7 @@
       <c r="AB85" s="215"/>
       <c r="AC85" s="215">
         <f t="shared" ref="AC85:AD85" si="4">SUM(AC3:AC84)</f>
-        <v>-24854</v>
+        <v>-25044</v>
       </c>
       <c r="AD85" s="117">
         <f t="shared" si="4"/>
@@ -20172,11 +20235,11 @@
       <c r="AG85" s="215"/>
       <c r="AH85" s="215">
         <f t="shared" ref="AH85:AI85" si="5">SUM(AH3:AH84)</f>
-        <v>-8259</v>
+        <v>-8419</v>
       </c>
       <c r="AI85" s="117">
         <f t="shared" si="5"/>
-        <v>3926</v>
+        <v>4534</v>
       </c>
       <c r="AJ85" s="215"/>
       <c r="AK85" s="214" t="s">
@@ -20185,7 +20248,7 @@
       <c r="AL85" s="215"/>
       <c r="AM85" s="215">
         <f t="shared" ref="AM85:AN85" si="6">SUM(AM3:AM84)</f>
-        <v>-17355</v>
+        <v>-18555</v>
       </c>
       <c r="AN85" s="117">
         <f t="shared" si="6"/>
@@ -20198,7 +20261,7 @@
       <c r="AQ85" s="215"/>
       <c r="AR85" s="215">
         <f t="shared" ref="AR85:AS85" si="7">SUM(AR3:AR84)</f>
-        <v>-4891</v>
+        <v>-5081</v>
       </c>
       <c r="AS85" s="117">
         <f t="shared" si="7"/>
@@ -20224,7 +20287,7 @@
       <c r="BA85" s="215"/>
       <c r="BB85" s="215">
         <f t="shared" ref="BB85:BC85" si="9">SUM(BB3:BB84)</f>
-        <v>-16104</v>
+        <v>-16142</v>
       </c>
       <c r="BC85" s="117">
         <f t="shared" si="9"/>
@@ -20237,7 +20300,7 @@
       <c r="BF85" s="215"/>
       <c r="BG85" s="215">
         <f t="shared" ref="BG85:BH85" si="10">SUM(BG3:BG84)</f>
-        <v>-12552</v>
+        <v>-12712</v>
       </c>
       <c r="BH85" s="117">
         <f t="shared" si="10"/>
@@ -20250,7 +20313,7 @@
       <c r="BK85" s="215"/>
       <c r="BL85" s="215">
         <f t="shared" ref="BL85:BM85" si="11">SUM(BL3:BL84)</f>
-        <v>-8314</v>
+        <v>-8564</v>
       </c>
       <c r="BM85" s="117">
         <f t="shared" si="11"/>
@@ -20263,7 +20326,7 @@
       <c r="BP85" s="215"/>
       <c r="BQ85" s="215">
         <f t="shared" ref="BQ85:BR85" si="12">SUM(BQ3:BQ84)</f>
-        <v>-8681</v>
+        <v>-8841</v>
       </c>
       <c r="BR85" s="117">
         <f t="shared" si="12"/>
@@ -20276,11 +20339,11 @@
       <c r="BU85" s="215"/>
       <c r="BV85" s="215">
         <f t="shared" ref="BV85:BW85" si="13">SUM(BV3:BV84)</f>
-        <v>-6066</v>
+        <v>-6226</v>
       </c>
       <c r="BW85" s="117">
         <f t="shared" si="13"/>
-        <v>3292</v>
+        <v>3726</v>
       </c>
       <c r="BX85" s="215"/>
       <c r="BY85" s="214" t="s">
@@ -20289,7 +20352,7 @@
       <c r="BZ85" s="215"/>
       <c r="CA85" s="215">
         <f t="shared" ref="CA85:CB85" si="14">SUM(CA3:CA84)</f>
-        <v>-8311</v>
+        <v>-8561</v>
       </c>
       <c r="CB85" s="117">
         <f t="shared" si="14"/>
@@ -20298,29 +20361,29 @@
       <c r="CC85" s="215"/>
     </row>
     <row r="92" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H92" s="225" t="s">
+      <c r="H92" s="222" t="s">
         <v>739</v>
       </c>
-      <c r="I92" s="225">
+      <c r="I92" s="222">
         <f>SUM(E85,J85,O85,T85,Y85,AD85,AI85,AN85,AS85,AX85,BC85,BH85,BM85,BR85,BW85,CB85)</f>
-        <v>44112</v>
-      </c>
-      <c r="J92" s="225"/>
+        <v>46324</v>
+      </c>
+      <c r="J92" s="222"/>
     </row>
     <row r="93" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H93" s="225"/>
-      <c r="I93" s="225"/>
-      <c r="J93" s="225"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
     </row>
     <row r="94" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H94" s="225"/>
-      <c r="I94" s="225"/>
-      <c r="J94" s="225"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
     </row>
     <row r="95" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="H95" s="225"/>
-      <c r="I95" s="225"/>
-      <c r="J95" s="225"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20336,8 +20399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC98"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:E64"/>
+    <sheetView tabSelected="1" topLeftCell="W43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64:AN64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29406,8 +29469,8 @@
       </c>
       <c r="AR49" s="17"/>
       <c r="AS49" s="17">
-        <f>AS48*AQ56</f>
-        <v>4400</v>
+        <f>AS48*AQ65</f>
+        <v>2200</v>
       </c>
       <c r="AT49" s="17">
         <v>47</v>
@@ -30350,8 +30413,8 @@
       </c>
       <c r="AR54" s="17"/>
       <c r="AS54" s="17">
-        <f>AS49+SUM(AQ44:AQ56)</f>
-        <v>65</v>
+        <f>AS49+SUM(AQ57:AQ65)</f>
+        <v>30</v>
       </c>
       <c r="AT54" s="74">
         <v>52</v>
@@ -31106,9 +31169,7 @@
         <v>-90</v>
       </c>
       <c r="AW58" s="17"/>
-      <c r="AX58" s="17">
-        <v>-4.8</v>
-      </c>
+      <c r="AX58" s="17"/>
       <c r="AY58" s="17">
         <v>56</v>
       </c>
@@ -31303,10 +31364,7 @@
         <v>-212</v>
       </c>
       <c r="AW59" s="17"/>
-      <c r="AX59" s="17">
-        <f>AX58*AV65</f>
-        <v>3600</v>
-      </c>
+      <c r="AX59" s="17"/>
       <c r="AY59" s="17">
         <v>57</v>
       </c>
@@ -31487,10 +31545,7 @@
         <v>-255</v>
       </c>
       <c r="AW60" s="17"/>
-      <c r="AX60" s="17">
-        <f>AX59+SUM(AV55:AV65)</f>
-        <v>265</v>
-      </c>
+      <c r="AX60" s="17"/>
       <c r="AY60" s="17">
         <v>58</v>
       </c>
@@ -31821,17 +31876,20 @@
         <v>246</v>
       </c>
       <c r="AD62" s="16"/>
-      <c r="AE62" s="108">
+      <c r="AE62" s="16">
         <v>60</v>
       </c>
-      <c r="AF62" s="108" t="s">
+      <c r="AF62" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="AG62" s="108">
+      <c r="AG62" s="16">
         <v>-175</v>
       </c>
-      <c r="AH62" s="108"/>
-      <c r="AI62" s="108"/>
+      <c r="AH62" s="16">
+        <f>788+SUM(AG60:AG62)</f>
+        <v>288</v>
+      </c>
+      <c r="AI62" s="16"/>
       <c r="AJ62" s="17">
         <v>60</v>
       </c>
@@ -31912,17 +31970,17 @@
       </c>
       <c r="BQ62" s="17"/>
       <c r="BR62" s="17"/>
-      <c r="BS62" s="108">
+      <c r="BS62" s="17">
         <v>60</v>
       </c>
-      <c r="BT62" s="108" t="s">
+      <c r="BT62" s="17" t="s">
         <v>1127</v>
       </c>
-      <c r="BU62" s="108">
+      <c r="BU62" s="17">
         <v>-212</v>
       </c>
-      <c r="BV62" s="108"/>
-      <c r="BW62" s="108"/>
+      <c r="BV62" s="17"/>
+      <c r="BW62" s="17"/>
       <c r="BX62" s="17">
         <v>60</v>
       </c>
@@ -32005,24 +32063,31 @@
       </c>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
-      <c r="AE63" s="57">
+      <c r="AE63" s="108">
         <v>61</v>
       </c>
-      <c r="AF63" s="57"/>
-      <c r="AG63" s="57"/>
-      <c r="AH63" s="57"/>
-      <c r="AI63" s="57"/>
-      <c r="AJ63" s="224">
+      <c r="AF63" s="108" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AG63" s="108">
+        <v>-60</v>
+      </c>
+      <c r="AH63" s="108"/>
+      <c r="AI63" s="108"/>
+      <c r="AJ63" s="16">
         <v>61</v>
       </c>
-      <c r="AK63" s="224" t="s">
+      <c r="AK63" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="AL63" s="224">
+      <c r="AL63" s="16">
         <v>-212</v>
       </c>
-      <c r="AM63" s="224"/>
-      <c r="AN63" s="224"/>
+      <c r="AM63" s="16">
+        <f>912+SUM(AL59:AL63)</f>
+        <v>10</v>
+      </c>
+      <c r="AN63" s="16"/>
       <c r="AO63" s="17">
         <v>61</v>
       </c>
@@ -32045,17 +32110,20 @@
       </c>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
-      <c r="AY63" s="108">
+      <c r="AY63" s="16">
         <v>61</v>
       </c>
-      <c r="AZ63" s="108" t="s">
+      <c r="AZ63" s="16" t="s">
         <v>1076</v>
       </c>
-      <c r="BA63" s="108">
+      <c r="BA63" s="16">
         <v>-65</v>
       </c>
-      <c r="BB63" s="108"/>
-      <c r="BC63" s="108"/>
+      <c r="BB63" s="16">
+        <f>364+SUM(BA62:BA63)</f>
+        <v>239</v>
+      </c>
+      <c r="BC63" s="16"/>
       <c r="BD63" s="16">
         <v>61</v>
       </c>
@@ -32115,37 +32183,39 @@
       <c r="CB63" s="17"/>
     </row>
     <row r="64" spans="1:80" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108">
+      <c r="A64" s="17">
         <v>62</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="17" t="s">
         <v>1069</v>
       </c>
-      <c r="C64" s="108">
+      <c r="C64" s="17">
         <v>-212</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17">
         <v>62</v>
       </c>
-      <c r="G64" s="108" t="s">
+      <c r="G64" s="17" t="s">
         <v>801</v>
       </c>
-      <c r="H64" s="108">
+      <c r="H64" s="17">
         <v>-212</v>
       </c>
-      <c r="I64" s="108"/>
-      <c r="J64" s="220"/>
-      <c r="K64" s="36">
+      <c r="I64" s="17"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="108">
         <v>62</v>
       </c>
-      <c r="L64" s="36" t="s">
+      <c r="L64" s="108" t="s">
         <v>1070</v>
       </c>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="37"/>
+      <c r="M64" s="108">
+        <v>-112</v>
+      </c>
+      <c r="N64" s="108"/>
+      <c r="O64" s="219"/>
       <c r="P64" s="32">
         <v>62</v>
       </c>
@@ -32189,13 +32259,17 @@
       <c r="AG64" s="57"/>
       <c r="AH64" s="57"/>
       <c r="AI64" s="57"/>
-      <c r="AJ64" s="63">
+      <c r="AJ64" s="227">
         <v>62</v>
       </c>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="63"/>
-      <c r="AM64" s="63"/>
-      <c r="AN64" s="63"/>
+      <c r="AK64" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL64" s="227">
+        <v>-160</v>
+      </c>
+      <c r="AM64" s="227"/>
+      <c r="AN64" s="227"/>
       <c r="AO64" s="17">
         <v>62</v>
       </c>
@@ -32218,24 +32292,28 @@
       </c>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
-      <c r="AY64" s="86">
+      <c r="AY64" s="108">
         <v>62</v>
       </c>
-      <c r="AZ64" s="86"/>
-      <c r="BA64" s="86"/>
-      <c r="BB64" s="86"/>
-      <c r="BC64" s="86"/>
-      <c r="BD64" s="108">
+      <c r="AZ64" s="108" t="s">
+        <v>668</v>
+      </c>
+      <c r="BA64" s="108">
+        <v>-60</v>
+      </c>
+      <c r="BB64" s="108"/>
+      <c r="BC64" s="108"/>
+      <c r="BD64" s="17">
         <v>62</v>
       </c>
-      <c r="BE64" s="108" t="s">
+      <c r="BE64" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="BF64" s="108">
+      <c r="BF64" s="17">
         <v>-160</v>
       </c>
-      <c r="BG64" s="108"/>
-      <c r="BH64" s="108"/>
+      <c r="BG64" s="17"/>
+      <c r="BH64" s="17"/>
       <c r="BI64" s="17">
         <v>62</v>
       </c>
@@ -32287,15 +32365,17 @@
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="20">
+      <c r="F65" s="108">
         <v>63</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="108" t="s">
         <v>1034</v>
       </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="38"/>
+      <c r="H65" s="108">
+        <v>-270</v>
+      </c>
+      <c r="I65" s="108"/>
+      <c r="J65" s="219"/>
       <c r="K65" s="36">
         <v>63</v>
       </c>
@@ -32305,28 +32385,28 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="37"/>
-      <c r="P65" s="219">
+      <c r="P65" s="32">
         <v>63</v>
       </c>
-      <c r="Q65" s="219" t="s">
+      <c r="Q65" s="32" t="s">
         <v>801</v>
       </c>
-      <c r="R65" s="219">
+      <c r="R65" s="32">
         <v>-190</v>
       </c>
-      <c r="S65" s="219"/>
-      <c r="T65" s="219"/>
-      <c r="U65" s="227">
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="46">
         <v>63</v>
       </c>
-      <c r="V65" s="108" t="s">
+      <c r="V65" s="17" t="s">
         <v>1075</v>
       </c>
-      <c r="W65" s="228">
+      <c r="W65" s="224">
         <v>-400</v>
       </c>
-      <c r="X65" s="108"/>
-      <c r="Y65" s="108"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
       <c r="Z65" s="16">
         <v>63</v>
       </c>
@@ -32355,26 +32435,30 @@
       <c r="AL65" s="63"/>
       <c r="AM65" s="63"/>
       <c r="AN65" s="63"/>
-      <c r="AO65" s="119">
+      <c r="AO65" s="108">
         <v>63</v>
       </c>
-      <c r="AP65" s="120" t="s">
+      <c r="AP65" s="221" t="s">
         <v>1041</v>
       </c>
-      <c r="AQ65" s="119"/>
-      <c r="AR65" s="119"/>
-      <c r="AS65" s="119"/>
-      <c r="AT65" s="108">
+      <c r="AQ65" s="108">
+        <v>-500</v>
+      </c>
+      <c r="AR65" s="108"/>
+      <c r="AS65" s="108"/>
+      <c r="AT65" s="16">
         <v>63</v>
       </c>
-      <c r="AU65" s="108" t="s">
+      <c r="AU65" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="AV65" s="108">
+      <c r="AV65" s="16">
         <v>-750</v>
       </c>
-      <c r="AW65" s="108"/>
-      <c r="AX65" s="108"/>
+      <c r="AW65" s="16">
+        <v>265</v>
+      </c>
+      <c r="AX65" s="16"/>
       <c r="AY65" s="86">
         <v>63</v>
       </c>
@@ -32382,13 +32466,17 @@
       <c r="BA65" s="86"/>
       <c r="BB65" s="86"/>
       <c r="BC65" s="86"/>
-      <c r="BD65" s="87">
+      <c r="BD65" s="108">
         <v>63</v>
       </c>
-      <c r="BE65" s="87"/>
-      <c r="BF65" s="87"/>
-      <c r="BG65" s="87"/>
-      <c r="BH65" s="87"/>
+      <c r="BE65" s="108" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BF65" s="108">
+        <v>-165</v>
+      </c>
+      <c r="BG65" s="108"/>
+      <c r="BH65" s="108"/>
       <c r="BI65" s="17">
         <v>63</v>
       </c>
@@ -32418,19 +32506,19 @@
       <c r="BU65" s="110"/>
       <c r="BV65" s="110"/>
       <c r="BW65" s="110"/>
-      <c r="BX65" s="108">
+      <c r="BX65" s="17">
         <v>63</v>
       </c>
-      <c r="BY65" s="108" t="s">
+      <c r="BY65" s="17" t="s">
         <v>1127</v>
       </c>
-      <c r="BZ65" s="108">
+      <c r="BZ65" s="17">
         <v>-190</v>
       </c>
-      <c r="CA65" s="108"/>
-      <c r="CB65" s="108"/>
+      <c r="CA65" s="17"/>
+      <c r="CB65" s="17"/>
     </row>
-    <row r="66" spans="1:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:80" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -32473,17 +32561,20 @@
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
       <c r="Y66" s="44"/>
-      <c r="Z66" s="222">
+      <c r="Z66" s="16">
         <v>64</v>
       </c>
-      <c r="AA66" s="223" t="s">
+      <c r="AA66" s="16" t="s">
         <v>1076</v>
       </c>
-      <c r="AB66" s="222">
-        <v>-60</v>
-      </c>
-      <c r="AC66" s="222"/>
-      <c r="AD66" s="222"/>
+      <c r="AB66" s="16">
+        <v>-60</v>
+      </c>
+      <c r="AC66" s="16">
+        <f>336+AB66</f>
+        <v>276</v>
+      </c>
+      <c r="AD66" s="16"/>
       <c r="AE66" s="57">
         <v>64</v>
       </c>
@@ -32507,13 +32598,17 @@
       <c r="AQ66" s="119"/>
       <c r="AR66" s="119"/>
       <c r="AS66" s="119"/>
-      <c r="AT66" s="57">
+      <c r="AT66" s="108">
         <v>64</v>
       </c>
-      <c r="AU66" s="57"/>
-      <c r="AV66" s="57"/>
-      <c r="AW66" s="57"/>
-      <c r="AX66" s="57"/>
+      <c r="AU66" s="108" t="s">
+        <v>677</v>
+      </c>
+      <c r="AV66" s="108">
+        <v>-160</v>
+      </c>
+      <c r="AW66" s="108"/>
+      <c r="AX66" s="108"/>
       <c r="AY66" s="86">
         <v>64</v>
       </c>
@@ -32528,24 +32623,31 @@
       <c r="BF66" s="87"/>
       <c r="BG66" s="87"/>
       <c r="BH66" s="87"/>
-      <c r="BI66" s="108">
+      <c r="BI66" s="16">
         <v>64</v>
       </c>
-      <c r="BJ66" s="224" t="s">
+      <c r="BJ66" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="BK66" s="108">
+      <c r="BK66" s="16">
         <v>-175</v>
       </c>
-      <c r="BL66" s="108"/>
-      <c r="BM66" s="108"/>
-      <c r="BN66" s="121">
+      <c r="BL66" s="16">
+        <f>753+SUM(BK64:BK66)</f>
+        <v>253</v>
+      </c>
+      <c r="BM66" s="16"/>
+      <c r="BN66" s="108">
         <v>64</v>
       </c>
-      <c r="BO66" s="121"/>
-      <c r="BP66" s="121"/>
-      <c r="BQ66" s="121"/>
-      <c r="BR66" s="121"/>
+      <c r="BO66" s="108" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BP66" s="108">
+        <v>-250</v>
+      </c>
+      <c r="BQ66" s="108"/>
+      <c r="BR66" s="108"/>
       <c r="BS66" s="109">
         <v>64</v>
       </c>
@@ -32660,13 +32762,17 @@
       <c r="BF67" s="87"/>
       <c r="BG67" s="87"/>
       <c r="BH67" s="87"/>
-      <c r="BI67" s="110">
+      <c r="BI67" s="108">
         <v>65</v>
       </c>
-      <c r="BJ67" s="110"/>
-      <c r="BK67" s="110"/>
-      <c r="BL67" s="110"/>
-      <c r="BM67" s="110"/>
+      <c r="BJ67" s="108" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BK67" s="108">
+        <v>-160</v>
+      </c>
+      <c r="BL67" s="108"/>
+      <c r="BM67" s="108"/>
       <c r="BN67" s="121">
         <v>65</v>
       </c>
@@ -34885,7 +34991,7 @@
       <c r="G85" s="116"/>
       <c r="H85" s="116">
         <f t="shared" ref="H85:I85" si="0">SUM(H3:H84)</f>
-        <v>-8901</v>
+        <v>-9171</v>
       </c>
       <c r="I85" s="117">
         <f t="shared" si="0"/>
@@ -34898,7 +35004,7 @@
       <c r="L85" s="116"/>
       <c r="M85" s="116">
         <f t="shared" ref="M85:N85" si="1">SUM(M3:M84)</f>
-        <v>-13590</v>
+        <v>-13702</v>
       </c>
       <c r="N85" s="117">
         <f t="shared" si="1"/>
@@ -34941,7 +35047,7 @@
       </c>
       <c r="AC85" s="117">
         <f t="shared" si="4"/>
-        <v>3571</v>
+        <v>3847</v>
       </c>
       <c r="AD85" s="116"/>
       <c r="AE85" s="115" t="s">
@@ -34950,11 +35056,11 @@
       <c r="AF85" s="116"/>
       <c r="AG85" s="116">
         <f t="shared" ref="AG85:AH85" si="5">SUM(AG3:AG84)</f>
-        <v>-11256</v>
+        <v>-11316</v>
       </c>
       <c r="AH85" s="117">
         <f t="shared" si="5"/>
-        <v>2233</v>
+        <v>2521</v>
       </c>
       <c r="AI85" s="116"/>
       <c r="AJ85" s="115" t="s">
@@ -34963,11 +35069,11 @@
       <c r="AK85" s="116"/>
       <c r="AL85" s="116">
         <f t="shared" ref="AL85:AM85" si="6">SUM(AL3:AL84)</f>
-        <v>-6312</v>
+        <v>-6472</v>
       </c>
       <c r="AM85" s="117">
         <f t="shared" si="6"/>
-        <v>3020</v>
+        <v>3030</v>
       </c>
       <c r="AN85" s="116"/>
       <c r="AO85" s="115" t="s">
@@ -34976,7 +35082,7 @@
       <c r="AP85" s="116"/>
       <c r="AQ85" s="116">
         <f t="shared" ref="AQ85:AR85" si="7">SUM(AQ3:AQ84)</f>
-        <v>-10421</v>
+        <v>-10921</v>
       </c>
       <c r="AR85" s="117">
         <f t="shared" si="7"/>
@@ -34989,11 +35095,11 @@
       <c r="AU85" s="116"/>
       <c r="AV85" s="116">
         <f t="shared" ref="AV85:AW85" si="8">SUM(AV3:AV84)</f>
-        <v>-14365</v>
+        <v>-14525</v>
       </c>
       <c r="AW85" s="117">
         <f t="shared" si="8"/>
-        <v>1407</v>
+        <v>1672</v>
       </c>
       <c r="AX85" s="116"/>
       <c r="AY85" s="115" t="s">
@@ -35002,11 +35108,11 @@
       <c r="AZ85" s="116"/>
       <c r="BA85" s="116">
         <f t="shared" ref="BA85:BB85" si="9">SUM(BA3:BA84)</f>
-        <v>-20806</v>
+        <v>-20866</v>
       </c>
       <c r="BB85" s="117">
         <f t="shared" si="9"/>
-        <v>2023</v>
+        <v>2262</v>
       </c>
       <c r="BC85" s="116"/>
       <c r="BD85" s="115" t="s">
@@ -35015,7 +35121,7 @@
       <c r="BE85" s="116"/>
       <c r="BF85" s="116">
         <f t="shared" ref="BF85:BG85" si="10">SUM(BF3:BF84)</f>
-        <v>-40957</v>
+        <v>-41122</v>
       </c>
       <c r="BG85" s="117">
         <f t="shared" si="10"/>
@@ -35028,11 +35134,11 @@
       <c r="BJ85" s="116"/>
       <c r="BK85" s="116">
         <f t="shared" ref="BK85:BL85" si="11">SUM(BK3:BK84)</f>
-        <v>-12877</v>
+        <v>-13037</v>
       </c>
       <c r="BL85" s="117">
         <f t="shared" si="11"/>
-        <v>2671</v>
+        <v>2924</v>
       </c>
       <c r="BM85" s="116"/>
       <c r="BN85" s="115" t="s">
@@ -35041,7 +35147,7 @@
       <c r="BO85" s="116"/>
       <c r="BP85" s="116">
         <f t="shared" ref="BP85:BQ85" si="12">SUM(BP3:BP84)</f>
-        <v>-10637</v>
+        <v>-10887</v>
       </c>
       <c r="BQ85" s="117">
         <f t="shared" si="12"/>
@@ -35079,29 +35185,29 @@
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G95" s="225" t="s">
+      <c r="G95" s="222" t="s">
         <v>739</v>
       </c>
-      <c r="H95" s="225">
+      <c r="H95" s="222">
         <f>SUM(D85,I85,N85,S85,X85,AC86,AC85,AC86,AH85,AM85,AR85,AW85,BB85,BG85,BL85,BQ85,BV85,CA85)</f>
-        <v>34712</v>
-      </c>
-      <c r="I95" s="225"/>
+        <v>36043</v>
+      </c>
+      <c r="I95" s="222"/>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="G96" s="225"/>
-      <c r="H96" s="225"/>
-      <c r="I96" s="225"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97" s="225"/>
-      <c r="H97" s="225"/>
-      <c r="I97" s="225"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="225"/>
-      <c r="H98" s="225"/>
-      <c r="I98" s="225"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -35127,19 +35233,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="223" t="s">
         <v>1120</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="2">
         <v>3.6</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="223" t="s">
         <v>1129</v>
       </c>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
       <c r="N1" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -35157,16 +35263,16 @@
       <c r="H2" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="K2" s="221" t="s">
+      <c r="K2" s="220" t="s">
         <v>1121</v>
       </c>
-      <c r="L2" s="221" t="s">
+      <c r="L2" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="221" t="s">
+      <c r="M2" s="220" t="s">
         <v>1122</v>
       </c>
-      <c r="N2" s="221" t="s">
+      <c r="N2" s="220" t="s">
         <v>1123</v>
       </c>
     </row>
